--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -58,8 +58,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -553,430 +552,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0198274</v>
+                  <v>0.019845</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0198243</v>
+                  <v>0.0198904</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0198059</v>
+                  <v>0.0199411</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0199393</v>
+                  <v>0.0199892</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0198465</v>
+                  <v>0.0201312</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0200695</v>
+                  <v>0.0202981</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0203167</v>
+                  <v>0.0205168</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0207984</v>
+                  <v>0.0208663</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.019398</v>
+                  <v>0.0194247</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0196474</v>
+                  <v>0.0196249</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0198002</v>
+                  <v>0.0198597</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0198351</v>
+                  <v>0.019879</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.020005</v>
+                  <v>0.0201309</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0201547</v>
+                  <v>0.0201944</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0202387</v>
+                  <v>0.0204396</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0202416</v>
+                  <v>0.0204292</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0205515</v>
+                  <v>0.0206016</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.020734</v>
+                  <v>0.0208694</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0208632</v>
+                  <v>0.0208716</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0212432</v>
+                  <v>0.021266</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0218651</v>
+                  <v>0.0221654</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0253637</v>
+                  <v>0.0254766</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0203899</v>
+                  <v>0.0204662</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0204771</v>
+                  <v>0.0205747</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0206748</v>
+                  <v>0.0207285</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0207843</v>
+                  <v>0.0208946</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0210829</v>
+                  <v>0.0211401</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0211716</v>
+                  <v>0.0213119</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0214289</v>
+                  <v>0.0214143</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0215001</v>
+                  <v>0.0217806</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0218002</v>
+                  <v>0.0218731</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0221683</v>
+                  <v>0.0220813</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0231472</v>
+                  <v>0.022994</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0257742</v>
+                  <v>0.0248609</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0289348</v>
+                  <v>0.0303561</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0322824</v>
+                  <v>0.0334795</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0214691</v>
+                  <v>0.0213853</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0217903</v>
+                  <v>0.0215081</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0219112</v>
+                  <v>0.0216916</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0219809</v>
+                  <v>0.0218279</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0221479</v>
+                  <v>0.0219942</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0224448</v>
+                  <v>0.0223725</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.02262</v>
+                  <v>0.0226982</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0231701</v>
+                  <v>0.0230858</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0235929</v>
+                  <v>0.0235639</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.024466</v>
+                  <v>0.0246222</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0257139</v>
+                  <v>0.0261523</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0282271</v>
+                  <v>0.028148</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0303257</v>
+                  <v>0.0310283</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0351291</v>
+                  <v>0.0349552</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0408898</v>
+                  <v>0.0411047</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0231879</v>
+                  <v>0.0235334</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0233257</v>
+                  <v>0.0233996</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0235135</v>
+                  <v>0.0240147</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0237414</v>
+                  <v>0.0237518</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0239179</v>
+                  <v>0.0243179</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0244805</v>
+                  <v>0.0246823</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0248999</v>
+                  <v>0.0250545</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0254771</v>
+                  <v>0.0256238</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0265139</v>
+                  <v>0.0266776</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0280363</v>
+                  <v>0.0281548</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0300505</v>
+                  <v>0.0303362</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0328613</v>
+                  <v>0.0330569</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.036562</v>
+                  <v>0.0370665</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0420912</v>
+                  <v>0.0420454</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0291857</v>
+                  <v>0.0292569</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0293683</v>
+                  <v>0.0293821</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0294951</v>
+                  <v>0.0294515</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.029813</v>
+                  <v>0.0297582</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0300128</v>
+                  <v>0.0298101</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0302796</v>
+                  <v>0.0302477</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.030801</v>
+                  <v>0.0307674</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.031446</v>
+                  <v>0.0314948</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0324341</v>
+                  <v>0.0322669</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0335695</v>
+                  <v>0.0336498</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0353551</v>
+                  <v>0.0353674</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0378182</v>
+                  <v>0.0379218</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0410501</v>
+                  <v>0.0413547</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0456478</v>
+                  <v>0.045947</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0552817</v>
+                  <v>0.0557759</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0555326</v>
+                  <v>0.0559223</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0556777</v>
+                  <v>0.0561782</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0557553</v>
+                  <v>0.0562248</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0559421</v>
+                  <v>0.0564335</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0562511</v>
+                  <v>0.0568433</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.056543</v>
+                  <v>0.0571164</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.056954</v>
+                  <v>0.0573685</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0573628</v>
+                  <v>0.0579423</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0581532</v>
+                  <v>0.0585424</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0593444</v>
+                  <v>0.0597217</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0607396</v>
+                  <v>0.0613516</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.06325</v>
+                  <v>0.0637716</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0670234</v>
+                  <v>0.0674956</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.086252</v>
+                  <v>0.0857108</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0863121</v>
+                  <v>0.085729</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.08631</v>
+                  <v>0.08582099999999999</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.08640920000000001</v>
+                  <v>0.085891</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0864456</v>
+                  <v>0.08591310000000001</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.08653959999999999</v>
+                  <v>0.0952533</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0867363</v>
+                  <v>0.0900392</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0870079</v>
+                  <v>0.0865544</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0874346</v>
+                  <v>0.08702120000000001</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0880908</v>
+                  <v>0.08758929999999999</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.08892</v>
+                  <v>0.0884514</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0899819</v>
+                  <v>0.08982080000000001</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0920994</v>
+                  <v>0.0916886</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0950337</v>
+                  <v>0.0949089</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.100164</v>
+                  <v>0.09997010000000001</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.113889</v>
+                  <v>0.107963</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.114021</v>
+                  <v>0.108243</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.114114</v>
+                  <v>0.108225</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.114157</v>
+                  <v>0.10822</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.114198</v>
+                  <v>0.108618</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.114387</v>
+                  <v>0.108608</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.114667</v>
+                  <v>0.109047</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.115047</v>
+                  <v>0.109454</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.115835</v>
+                  <v>0.110007</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.116215</v>
+                  <v>0.110855</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.117455</v>
+                  <v>0.112081</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.119136</v>
+                  <v>0.113914</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.122216</v>
+                  <v>0.116949</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.130657</v>
+                  <v>0.121459</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.140904</v>
+                  <v>0.134045</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.140713</v>
+                  <v>0.141735</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.140603</v>
+                  <v>0.14386</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.140544</v>
+                  <v>0.141993</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.140461</v>
+                  <v>0.141564</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.140955</v>
+                  <v>0.141767</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.142695</v>
+                  <v>0.142252</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.141111</v>
+                  <v>0.142466</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.141474</v>
+                  <v>0.143005</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.141584</v>
+                  <v>0.143627</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.144383</v>
+                  <v>0.144639</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.144338</v>
+                  <v>0.146121</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.146809</v>
+                  <v>0.148787</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.150574</v>
+                  <v>0.153145</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.157534</v>
+                  <v>0.160222</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.15768</v>
+                  <v>0.15805</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.157841</v>
+                  <v>0.158093</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.170985</v>
+                  <v>0.158066</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.158043</v>
+                  <v>0.158317</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.158496</v>
+                  <v>0.158434</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +986,7 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_map</v>
+            <v>boost::unordered_flat_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1446,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.01963</v>
+                  <v>0.0207816</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0195504</v>
+                  <v>0.0208667</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0196026</v>
+                  <v>0.0208241</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0196237</v>
+                  <v>0.0207476</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0194434</v>
+                  <v>0.020652</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0196089</v>
+                  <v>0.0209277</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0196438</v>
+                  <v>0.0208354</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.019683</v>
+                  <v>0.021057</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0206908</v>
+                  <v>0.0207722</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0208145</v>
+                  <v>0.0211993</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0208233</v>
+                  <v>0.021061</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0208079</v>
+                  <v>0.0212452</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0210678</v>
+                  <v>0.0215641</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0211339</v>
+                  <v>0.0219941</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.021293</v>
+                  <v>0.0221573</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0213755</v>
+                  <v>0.022048</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0214194</v>
+                  <v>0.022091</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0216061</v>
+                  <v>0.0223514</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0216834</v>
+                  <v>0.0224619</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0216891</v>
+                  <v>0.0226031</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.021814</v>
+                  <v>0.0229443</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.02224</v>
+                  <v>0.0236086</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0218223</v>
+                  <v>0.0218909</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.021951</v>
+                  <v>0.0220636</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0222832</v>
+                  <v>0.0222406</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0225478</v>
+                  <v>0.0225907</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0226653</v>
+                  <v>0.022887</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0228678</v>
+                  <v>0.0230842</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0232795</v>
+                  <v>0.0234928</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0234118</v>
+                  <v>0.0237357</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0236239</v>
+                  <v>0.0239547</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0237577</v>
+                  <v>0.0241213</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0245297</v>
+                  <v>0.0246092</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0248515</v>
+                  <v>0.0256069</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0259781</v>
+                  <v>0.0258742</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.028096</v>
+                  <v>0.0314078</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0231379</v>
+                  <v>0.0231422</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0235392</v>
+                  <v>0.0232697</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0237383</v>
+                  <v>0.0236008</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0240298</v>
+                  <v>0.0239637</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0242845</v>
+                  <v>0.0241731</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0248099</v>
+                  <v>0.024655</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0251381</v>
+                  <v>0.0250199</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0255035</v>
+                  <v>0.0254471</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.026017</v>
+                  <v>0.0257887</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0265204</v>
+                  <v>0.026411</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0273233</v>
+                  <v>0.0273266</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0288886</v>
+                  <v>0.0288305</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0309086</v>
+                  <v>0.0310001</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.035125</v>
+                  <v>0.0354398</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0395813</v>
+                  <v>0.0403807</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0250602</v>
+                  <v>0.0246173</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0252618</v>
+                  <v>0.0249205</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0256001</v>
+                  <v>0.0252809</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0259637</v>
+                  <v>0.0256266</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0263006</v>
+                  <v>0.0260148</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0266533</v>
+                  <v>0.0264257</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.027142</v>
+                  <v>0.0269137</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0277574</v>
+                  <v>0.0274746</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0284471</v>
+                  <v>0.0282353</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0293755</v>
+                  <v>0.0295079</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0310293</v>
+                  <v>0.0309257</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0333401</v>
+                  <v>0.0332921</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0369138</v>
+                  <v>0.0365299</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0422301</v>
+                  <v>0.0415142</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.027755</v>
+                  <v>0.0269617</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.028318</v>
+                  <v>0.0268134</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0282048</v>
+                  <v>0.0271091</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0288949</v>
+                  <v>0.028098</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0291466</v>
+                  <v>0.028241</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0296631</v>
+                  <v>0.0283238</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0302154</v>
+                  <v>0.0289933</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0308858</v>
+                  <v>0.0297943</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0317299</v>
+                  <v>0.0305728</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0327248</v>
+                  <v>0.0318959</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0344036</v>
+                  <v>0.0330477</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0365419</v>
+                  <v>0.0355949</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0395077</v>
+                  <v>0.0380312</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0440142</v>
+                  <v>0.0422199</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0384812</v>
+                  <v>0.0358291</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0393181</v>
+                  <v>0.0366934</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0400471</v>
+                  <v>0.0371542</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0410283</v>
+                  <v>0.0385504</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0422285</v>
+                  <v>0.0397275</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0436636</v>
+                  <v>0.0406958</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0450427</v>
+                  <v>0.0420235</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0465122</v>
+                  <v>0.043628</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.048317</v>
+                  <v>0.0448497</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0499665</v>
+                  <v>0.0467952</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0516792</v>
+                  <v>0.0485398</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0540677</v>
+                  <v>0.050625</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0567184</v>
+                  <v>0.0531723</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0613213</v>
+                  <v>0.0575467</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.07599069999999999</v>
+                  <v>0.0690796</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0765213</v>
+                  <v>0.0695586</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0769676</v>
+                  <v>0.07006270000000001</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.07758429999999999</v>
+                  <v>0.0706492</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0782827</v>
+                  <v>0.0712165</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0789179</v>
+                  <v>0.0719084</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.07968980000000001</v>
+                  <v>0.0726926</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0805656</v>
+                  <v>0.073481</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0816693</v>
+                  <v>0.0744592</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0863792</v>
+                  <v>0.0757119</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.08411639999999999</v>
+                  <v>0.0771091</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0859486</v>
+                  <v>0.0789149</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.08840779999999999</v>
+                  <v>0.08129740000000001</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0922501</v>
+                  <v>0.085034</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0984163</v>
+                  <v>0.0910459</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0907982</v>
+                  <v>0.08287219999999999</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0916492</v>
+                  <v>0.08375249999999999</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.092555</v>
+                  <v>0.0846664</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0937095</v>
+                  <v>0.0856579</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.09565650000000001</v>
+                  <v>0.08681120000000001</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.103513</v>
+                  <v>0.08786919999999999</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0973205</v>
+                  <v>0.0892593</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0988463</v>
+                  <v>0.0907998</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.100303</v>
+                  <v>0.0923614</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.102148</v>
+                  <v>0.0942355</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.104312</v>
+                  <v>0.096293</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.107029</v>
+                  <v>0.0990901</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.111037</v>
+                  <v>0.102927</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.116985</v>
+                  <v>0.108871</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.102804</v>
+                  <v>0.0958808</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.108721</v>
+                  <v>0.09704169999999999</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.105795</v>
+                  <v>0.0989488</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.107499</v>
+                  <v>0.100162</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.109135</v>
+                  <v>0.101129</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.111421</v>
+                  <v>0.102743</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.113514</v>
+                  <v>0.10443</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.114964</v>
+                  <v>0.106431</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.116895</v>
+                  <v>0.108216</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.119313</v>
+                  <v>0.110255</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.121782</v>
+                  <v>0.112815</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.124925</v>
+                  <v>0.11575</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.12911</v>
+                  <v>0.119701</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.135094</v>
+                  <v>0.126693</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.116615</v>
+                  <v>0.108481</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.118091</v>
+                  <v>0.109886</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.119623</v>
+                  <v>0.111216</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.121247</v>
+                  <v>0.112687</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.122801</v>
+                  <v>0.114154</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.12453</v>
+                  <v>0.115713</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2341,430 +2340,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0210661</v>
+                  <v>0.0197621</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0210821</v>
+                  <v>0.0199124</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0210432</v>
+                  <v>0.0199636</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0210228</v>
+                  <v>0.0200411</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0211017</v>
+                  <v>0.0201853</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.021451</v>
+                  <v>0.0205493</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0215967</v>
+                  <v>0.0212255</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.021032</v>
+                  <v>0.0196114</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.021237</v>
+                  <v>0.0196542</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0214398</v>
+                  <v>0.0197311</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0216389</v>
+                  <v>0.0200198</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0217625</v>
+                  <v>0.0202983</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0220811</v>
+                  <v>0.0206514</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0221537</v>
+                  <v>0.0208261</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0222621</v>
+                  <v>0.0213814</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.022351</v>
+                  <v>0.021683</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0223659</v>
+                  <v>0.0218647</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0223994</v>
+                  <v>0.0217385</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0224787</v>
+                  <v>0.0221793</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0225969</v>
+                  <v>0.0234999</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0229866</v>
+                  <v>0.025596</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0222081</v>
+                  <v>0.0208572</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0224424</v>
+                  <v>0.0211474</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0227148</v>
+                  <v>0.0213952</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0228976</v>
+                  <v>0.0216285</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0231426</v>
+                  <v>0.0219129</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0233641</v>
+                  <v>0.0221909</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0236678</v>
+                  <v>0.0226314</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0238622</v>
+                  <v>0.02287</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0240883</v>
+                  <v>0.0232938</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0241209</v>
+                  <v>0.0236459</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0243341</v>
+                  <v>0.0243776</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0249996</v>
+                  <v>0.0256094</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0258005</v>
+                  <v>0.0280099</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0317443</v>
+                  <v>0.0318825</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0233782</v>
+                  <v>0.0222322</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0235387</v>
+                  <v>0.0224761</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0237574</v>
+                  <v>0.0226406</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0240607</v>
+                  <v>0.0229219</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0243991</v>
+                  <v>0.0232372</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0246515</v>
+                  <v>0.0235604</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0249339</v>
+                  <v>0.0239217</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0252916</v>
+                  <v>0.0243675</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0255331</v>
+                  <v>0.0249258</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0260222</v>
+                  <v>0.0256372</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0266838</v>
+                  <v>0.0267547</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0278203</v>
+                  <v>0.0285161</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0305126</v>
+                  <v>0.0309254</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0344632</v>
+                  <v>0.03463</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0242031</v>
+                  <v>0.0230982</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0243873</v>
+                  <v>0.0233375</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0246308</v>
+                  <v>0.023593</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0248962</v>
+                  <v>0.0238201</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0251551</v>
+                  <v>0.0241227</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0255061</v>
+                  <v>0.0244723</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.025758</v>
+                  <v>0.024922</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0261621</v>
+                  <v>0.0253022</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0266822</v>
+                  <v>0.0259853</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.027176</v>
+                  <v>0.0267356</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0279736</v>
+                  <v>0.0278598</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0294383</v>
+                  <v>0.0296228</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0324535</v>
+                  <v>0.0320613</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0364486</v>
+                  <v>0.0356651</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.042747</v>
+                  <v>0.0410615</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0261578</v>
+                  <v>0.0247871</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0266345</v>
+                  <v>0.0249031</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0270048</v>
+                  <v>0.0256338</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0274462</v>
+                  <v>0.0258881</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0276478</v>
+                  <v>0.0259173</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0280925</v>
+                  <v>0.0262823</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0295698</v>
+                  <v>0.0271444</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0301268</v>
+                  <v>0.0274852</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0308125</v>
+                  <v>0.0283927</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0310039</v>
+                  <v>0.0298077</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0325978</v>
+                  <v>0.0311471</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0358014</v>
+                  <v>0.0336077</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0390005</v>
+                  <v>0.0368424</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0449875</v>
+                  <v>0.0414916</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0407134</v>
+                  <v>0.0365337</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0414223</v>
+                  <v>0.037033</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0420164</v>
+                  <v>0.0385276</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0428758</v>
+                  <v>0.0385709</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0435859</v>
+                  <v>0.0392564</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0441158</v>
+                  <v>0.0399463</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0451214</v>
+                  <v>0.040702</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.045933</v>
+                  <v>0.041626</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0468684</v>
+                  <v>0.0423938</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0477272</v>
+                  <v>0.0433475</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0490508</v>
+                  <v>0.0447666</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0513003</v>
+                  <v>0.0465736</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0542639</v>
+                  <v>0.0493242</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0587909</v>
+                  <v>0.0542457</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.08060109999999999</v>
+                  <v>0.07123119999999999</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.08116420000000001</v>
+                  <v>0.071656</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0815678</v>
+                  <v>0.0721349</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.08204690000000001</v>
+                  <v>0.07265770000000001</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.08264589999999999</v>
+                  <v>0.0729856</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0832561</v>
+                  <v>0.0736991</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0837205</v>
+                  <v>0.0742898</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0845051</v>
+                  <v>0.07498199999999999</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.08527559999999999</v>
+                  <v>0.07573630000000001</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0864844</v>
+                  <v>0.0766086</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0876881</v>
+                  <v>0.077876</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.08924799999999999</v>
+                  <v>0.07924580000000001</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.096528</v>
+                  <v>0.08156239999999999</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0955449</v>
+                  <v>0.0852509</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0975452</v>
+                  <v>0.08773590000000001</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0983436</v>
+                  <v>0.0884414</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0990383</v>
+                  <v>0.0892877</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.09986689999999999</v>
+                  <v>0.0899992</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.100985</v>
+                  <v>0.0907741</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.101987</v>
+                  <v>0.0918117</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.102746</v>
+                  <v>0.092913</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.10438</v>
+                  <v>0.09400500000000001</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.105384</v>
+                  <v>0.100748</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.106778</v>
+                  <v>0.09656720000000001</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.108591</v>
+                  <v>0.0981248</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.110691</v>
+                  <v>0.100153</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.113494</v>
+                  <v>0.10274</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.117535</v>
+                  <v>0.106587</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.123795</v>
+                  <v>0.112472</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.115482</v>
+                  <v>0.106248</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.116645</v>
+                  <v>0.107515</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.1179</v>
+                  <v>0.108771</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.119136</v>
+                  <v>0.110258</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.12028</v>
+                  <v>0.111363</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.121788</v>
+                  <v>0.112139</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.123885</v>
+                  <v>0.113529</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.125833</v>
+                  <v>0.114912</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.1268</v>
+                  <v>0.116482</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.129052</v>
+                  <v>0.118414</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.132444</v>
+                  <v>0.120533</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.134565</v>
+                  <v>0.123365</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.138824</v>
+                  <v>0.127277</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.145371</v>
+                  <v>0.133589</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.129339</v>
+                  <v>0.119571</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.130682</v>
+                  <v>0.123522</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.131871</v>
+                  <v>0.120321</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.133153</v>
+                  <v>0.121365</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.134562</v>
+                  <v>0.122535</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.135784</v>
+                  <v>0.123827</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.137311</v>
+                  <v>0.125232</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3222,8 +3221,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
+    <col customWidth="1" max="6" min="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3248,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0420503</v>
+        <v>0.0454838</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0364923</v>
+        <v>0.0496607</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0396383</v>
+        <v>0.0478066</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0421392</v>
+        <v>0.0454796</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0366885</v>
+        <v>0.0492323</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0399118</v>
+        <v>0.0479453</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0422755</v>
+        <v>0.0456432</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0370268</v>
+        <v>0.0495117</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0402145</v>
+        <v>0.0482522</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0423852</v>
+        <v>0.0457826</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0374496</v>
+        <v>0.049855</v>
       </c>
       <c r="D5" t="n">
-        <v>0.040542</v>
+        <v>0.0486988</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0424762</v>
+        <v>0.0458716</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0374096</v>
+        <v>0.050152</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0408781</v>
+        <v>0.0492459</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0426794</v>
+        <v>0.0460154</v>
       </c>
       <c r="C7" t="n">
-        <v>0.037842</v>
+        <v>0.0510117</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0418406</v>
+        <v>0.04988</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0428946</v>
+        <v>0.0461844</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0384628</v>
+        <v>0.0522353</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0429433</v>
+        <v>0.0512649</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0431268</v>
+        <v>0.0465361</v>
       </c>
       <c r="C9" t="n">
-        <v>0.039713</v>
+        <v>0.0464891</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0425289</v>
+        <v>0.0460494</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0469414</v>
+        <v>0.0454064</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0394495</v>
+        <v>0.0467645</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0432474</v>
+        <v>0.0463776</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0468513</v>
+        <v>0.0454958</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0402011</v>
+        <v>0.0471205</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0435152</v>
+        <v>0.046683</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0468817</v>
+        <v>0.0455702</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0405027</v>
+        <v>0.0474501</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0438519</v>
+        <v>0.0469604</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0469931</v>
+        <v>0.0456062</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0407079</v>
+        <v>0.0478012</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0441895</v>
+        <v>0.0472998</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0471146</v>
+        <v>0.0457054</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0410735</v>
+        <v>0.0481439</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0445613</v>
+        <v>0.0476474</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0472734</v>
+        <v>0.0458238</v>
       </c>
       <c r="C15" t="n">
-        <v>0.041345</v>
+        <v>0.0484661</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0448552</v>
+        <v>0.0480021</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0473173</v>
+        <v>0.0459504</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0416342</v>
+        <v>0.0487402</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0452208</v>
+        <v>0.0483064</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.047424</v>
+        <v>0.0460863</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0418414</v>
+        <v>0.0489938</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0454526</v>
+        <v>0.0486162</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0475616</v>
+        <v>0.0462029</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0421424</v>
+        <v>0.0493507</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0457881</v>
+        <v>0.0489693</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0476859</v>
+        <v>0.0464064</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0423699</v>
+        <v>0.0497018</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0455088</v>
+        <v>0.0493301</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0478494</v>
+        <v>0.0465431</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0427628</v>
+        <v>0.0502991</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0467254</v>
+        <v>0.0497907</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0478938</v>
+        <v>0.0466489</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0434733</v>
+        <v>0.0511968</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0478067</v>
+        <v>0.0510665</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0483337</v>
+        <v>0.0470018</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0449718</v>
+        <v>0.0552237</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0515455</v>
+        <v>0.0549437</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0487064</v>
+        <v>0.047196</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0500151</v>
+        <v>0.0530228</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0453265</v>
+        <v>0.0500982</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0504397</v>
+        <v>0.05068</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0428969</v>
+        <v>0.0534467</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0457735</v>
+        <v>0.0504858</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0500059</v>
+        <v>0.0501645</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0432065</v>
+        <v>0.0524763</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0460817</v>
+        <v>0.0503497</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0501121</v>
+        <v>0.050213</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0434534</v>
+        <v>0.0527948</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0464001</v>
+        <v>0.0506312</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0502</v>
+        <v>0.0502657</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0439247</v>
+        <v>0.0530857</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0466864</v>
+        <v>0.0508627</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0502926</v>
+        <v>0.0503622</v>
       </c>
       <c r="C28" t="n">
-        <v>0.043876</v>
+        <v>0.0533708</v>
       </c>
       <c r="D28" t="n">
-        <v>0.046983</v>
+        <v>0.0511851</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0504109</v>
+        <v>0.0505146</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0445013</v>
+        <v>0.0536633</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0472555</v>
+        <v>0.0514046</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.050504</v>
+        <v>0.0506365</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0446709</v>
+        <v>0.0539951</v>
       </c>
       <c r="D30" t="n">
-        <v>0.047598</v>
+        <v>0.0516709</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0506317</v>
+        <v>0.0508252</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0446746</v>
+        <v>0.0543237</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0478817</v>
+        <v>0.0520348</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0507711</v>
+        <v>0.0509248</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0454425</v>
+        <v>0.0546667</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0482563</v>
+        <v>0.052312</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0508962</v>
+        <v>0.0511154</v>
       </c>
       <c r="C33" t="n">
-        <v>0.045856</v>
+        <v>0.0551784</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0488266</v>
+        <v>0.0528808</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0510082</v>
+        <v>0.0512474</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0465172</v>
+        <v>0.0563719</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0499308</v>
+        <v>0.0540975</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0514087</v>
+        <v>0.0514738</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0482219</v>
+        <v>0.0599414</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0531617</v>
+        <v>0.0582942</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0517675</v>
+        <v>0.0519084</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0534061</v>
+        <v>0.06711540000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0602045</v>
+        <v>0.0652307</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0536807</v>
+        <v>0.053482</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0601839</v>
+        <v>0.0567175</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0495338</v>
+        <v>0.0538388</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0546962</v>
+        <v>0.0583391</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0475673</v>
+        <v>0.057455</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0501053</v>
+        <v>0.0548198</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0538517</v>
+        <v>0.0578524</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0479693</v>
+        <v>0.0556901</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0501675</v>
+        <v>0.0534709</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0539583</v>
+        <v>0.0579319</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0481833</v>
+        <v>0.056037</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0508277</v>
+        <v>0.0538692</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0540526</v>
+        <v>0.0580244</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0485115</v>
+        <v>0.0563767</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0509337</v>
+        <v>0.0542815</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0541764</v>
+        <v>0.0581138</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0486579</v>
+        <v>0.0567143</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0507152</v>
+        <v>0.0546446</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0542925</v>
+        <v>0.0582272</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0489413</v>
+        <v>0.0570496</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0517613</v>
+        <v>0.0550092</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0544448</v>
+        <v>0.0583528</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0495135</v>
+        <v>0.0574168</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0522936</v>
+        <v>0.0554459</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0545862</v>
+        <v>0.0584875</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0498553</v>
+        <v>0.0577775</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0529519</v>
+        <v>0.0558492</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0547069</v>
+        <v>0.0586535</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0504966</v>
+        <v>0.058336</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0533549</v>
+        <v>0.0564965</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0549234</v>
+        <v>0.0588343</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0519951</v>
+        <v>0.059655</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0546878</v>
+        <v>0.0578683</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0551706</v>
+        <v>0.0590943</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0545441</v>
+        <v>0.0628726</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0575863</v>
+        <v>0.0613281</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0556149</v>
+        <v>0.0594296</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0572198</v>
+        <v>0.0671583</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0616703</v>
+        <v>0.0656299</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0569116</v>
+        <v>0.060731</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0606523</v>
+        <v>0.0724059</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0657074</v>
+        <v>0.0713519</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0608552</v>
+        <v>0.06472609999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>0.06544460000000001</v>
+        <v>0.058601</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0537173</v>
+        <v>0.0599392</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0661096</v>
+        <v>0.0699848</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0724569</v>
+        <v>0.0566115</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0547537</v>
+        <v>0.0604017</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0616554</v>
+        <v>0.0620736</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0487072</v>
+        <v>0.0569777</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0544402</v>
+        <v>0.0608628</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0610817</v>
+        <v>0.0618304</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0491616</v>
+        <v>0.0598597</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0545485</v>
+        <v>0.0612646</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0610944</v>
+        <v>0.0616592</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0498055</v>
+        <v>0.0602772</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0559358</v>
+        <v>0.0616836</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0612603</v>
+        <v>0.0619898</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0500422</v>
+        <v>0.0581963</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0559943</v>
+        <v>0.0614603</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0614319</v>
+        <v>0.0618506</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0509232</v>
+        <v>0.0586288</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0555646</v>
+        <v>0.0626162</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0615626</v>
+        <v>0.0620492</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0516728</v>
+        <v>0.0591603</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0562116</v>
+        <v>0.0631893</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0617273</v>
+        <v>0.0622349</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0526201</v>
+        <v>0.0617407</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0571404</v>
+        <v>0.0639019</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0619072</v>
+        <v>0.0623995</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0535489</v>
+        <v>0.0612051</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0587829</v>
+        <v>0.06525110000000001</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0622202</v>
+        <v>0.0626582</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0548427</v>
+        <v>0.0633817</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0601292</v>
+        <v>0.06741999999999999</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.06254460000000001</v>
+        <v>0.0630773</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0571438</v>
+        <v>0.065872</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0631772</v>
+        <v>0.0700693</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0636625</v>
+        <v>0.0640839</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0592366</v>
+        <v>0.0690157</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0660366</v>
+        <v>0.0733167</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.06574000000000001</v>
+        <v>0.0661108</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0619449</v>
+        <v>0.0736632</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0702631</v>
+        <v>0.07811360000000001</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0683739</v>
+        <v>0.0689459</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0662132</v>
+        <v>0.08034139999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0771379</v>
+        <v>0.0854361</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0727656</v>
+        <v>0.0732264</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0726748</v>
+        <v>0.0636183</v>
       </c>
       <c r="D66" t="n">
-        <v>0.058465</v>
+        <v>0.0648856</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0739855</v>
+        <v>0.09284100000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0562131</v>
+        <v>0.0642546</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0589038</v>
+        <v>0.0655406</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0747809</v>
+        <v>0.0928073</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0567033</v>
+        <v>0.0649547</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0580751</v>
+        <v>0.06608319999999999</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0750043</v>
+        <v>0.0930096</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0571488</v>
+        <v>0.06581339999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.058543</v>
+        <v>0.0668506</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0752892</v>
+        <v>0.0935556</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0578669</v>
+        <v>0.0666928</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0591263</v>
+        <v>0.0674463</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.07572719999999999</v>
+        <v>0.094343</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0586165</v>
+        <v>0.0675033</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0598287</v>
+        <v>0.0683685</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0763683</v>
+        <v>0.09466339999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0594795</v>
+        <v>0.068601</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0606511</v>
+        <v>0.06932919999999999</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0763597</v>
+        <v>0.09554790000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0603879</v>
+        <v>0.0700336</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0616241</v>
+        <v>0.07088469999999999</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0764391</v>
+        <v>0.09690269999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0614231</v>
+        <v>0.0721763</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0629209</v>
+        <v>0.07273309999999999</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0769755</v>
+        <v>0.09786549999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>0.06269280000000001</v>
+        <v>0.07422520000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0645128</v>
+        <v>0.0749466</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0777061</v>
+        <v>0.0991274</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0641511</v>
+        <v>0.0767496</v>
       </c>
       <c r="D76" t="n">
-        <v>0.06649190000000001</v>
+        <v>0.0776535</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.07869859999999999</v>
+        <v>0.10046</v>
       </c>
       <c r="C77" t="n">
-        <v>0.06609959999999999</v>
+        <v>0.0796014</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0692224</v>
+        <v>0.0805728</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0804438</v>
+        <v>0.100939</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0687551</v>
+        <v>0.0835723</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0731777</v>
+        <v>0.0846783</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0826802</v>
+        <v>0.103067</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0724996</v>
+        <v>0.0895094</v>
       </c>
       <c r="D79" t="n">
-        <v>0.07897510000000001</v>
+        <v>0.09113250000000001</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.08600720000000001</v>
+        <v>0.105587</v>
       </c>
       <c r="C80" t="n">
-        <v>0.07780289999999999</v>
+        <v>0.104918</v>
       </c>
       <c r="D80" t="n">
-        <v>0.103436</v>
+        <v>0.105746</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.175005</v>
+        <v>0.175259</v>
       </c>
       <c r="C81" t="n">
-        <v>0.140778</v>
+        <v>0.107752</v>
       </c>
       <c r="D81" t="n">
-        <v>0.105447</v>
+        <v>0.108172</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.176541</v>
+        <v>0.175948</v>
       </c>
       <c r="C82" t="n">
-        <v>0.139437</v>
+        <v>0.11728</v>
       </c>
       <c r="D82" t="n">
-        <v>0.107941</v>
+        <v>0.11402</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.175204</v>
+        <v>0.179407</v>
       </c>
       <c r="C83" t="n">
-        <v>0.141627</v>
+        <v>0.117292</v>
       </c>
       <c r="D83" t="n">
-        <v>0.111038</v>
+        <v>0.115391</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.175904</v>
+        <v>0.177543</v>
       </c>
       <c r="C84" t="n">
-        <v>0.139765</v>
+        <v>0.131622</v>
       </c>
       <c r="D84" t="n">
-        <v>0.109345</v>
+        <v>0.12527</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.176096</v>
+        <v>0.181855</v>
       </c>
       <c r="C85" t="n">
-        <v>0.140789</v>
+        <v>0.131927</v>
       </c>
       <c r="D85" t="n">
-        <v>0.113058</v>
+        <v>0.123941</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.176907</v>
+        <v>0.182495</v>
       </c>
       <c r="C86" t="n">
-        <v>0.140735</v>
+        <v>0.140605</v>
       </c>
       <c r="D86" t="n">
-        <v>0.114765</v>
+        <v>0.132568</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.176994</v>
+        <v>0.185908</v>
       </c>
       <c r="C87" t="n">
-        <v>0.140902</v>
+        <v>0.144865</v>
       </c>
       <c r="D87" t="n">
-        <v>0.116833</v>
+        <v>0.141809</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.177881</v>
+        <v>0.189231</v>
       </c>
       <c r="C88" t="n">
-        <v>0.141881</v>
+        <v>0.148599</v>
       </c>
       <c r="D88" t="n">
-        <v>0.119831</v>
+        <v>0.145502</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.178458</v>
+        <v>0.188963</v>
       </c>
       <c r="C89" t="n">
-        <v>0.144506</v>
+        <v>0.146033</v>
       </c>
       <c r="D89" t="n">
-        <v>0.122044</v>
+        <v>0.142505</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.179572</v>
+        <v>0.188253</v>
       </c>
       <c r="C90" t="n">
-        <v>0.144505</v>
+        <v>0.147185</v>
       </c>
       <c r="D90" t="n">
-        <v>0.125174</v>
+        <v>0.143873</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.179785</v>
+        <v>0.189472</v>
       </c>
       <c r="C91" t="n">
-        <v>0.147037</v>
+        <v>0.159917</v>
       </c>
       <c r="D91" t="n">
-        <v>0.128551</v>
+        <v>0.155178</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.180584</v>
+        <v>0.19291</v>
       </c>
       <c r="C92" t="n">
-        <v>0.148459</v>
+        <v>0.161921</v>
       </c>
       <c r="D92" t="n">
-        <v>0.132431</v>
+        <v>0.155377</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.181903</v>
+        <v>0.194582</v>
       </c>
       <c r="C93" t="n">
-        <v>0.151736</v>
+        <v>0.168107</v>
       </c>
       <c r="D93" t="n">
-        <v>0.13702</v>
+        <v>0.16074</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.185176</v>
+        <v>0.198039</v>
       </c>
       <c r="C94" t="n">
-        <v>0.155735</v>
+        <v>0.213915</v>
       </c>
       <c r="D94" t="n">
-        <v>0.20954</v>
+        <v>0.216977</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.242284</v>
+        <v>0.243062</v>
       </c>
       <c r="C95" t="n">
-        <v>0.203586</v>
+        <v>0.214798</v>
       </c>
       <c r="D95" t="n">
-        <v>0.210783</v>
+        <v>0.218692</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.242562</v>
+        <v>0.244709</v>
       </c>
       <c r="C96" t="n">
-        <v>0.204423</v>
+        <v>0.220424</v>
       </c>
       <c r="D96" t="n">
-        <v>0.212416</v>
+        <v>0.220528</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.242964</v>
+        <v>0.243005</v>
       </c>
       <c r="C97" t="n">
-        <v>0.205719</v>
+        <v>0.223232</v>
       </c>
       <c r="D97" t="n">
-        <v>0.214857</v>
+        <v>0.222971</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.242785</v>
+        <v>0.245657</v>
       </c>
       <c r="C98" t="n">
-        <v>0.206689</v>
+        <v>0.224628</v>
       </c>
       <c r="D98" t="n">
-        <v>0.216003</v>
+        <v>0.225114</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.242034</v>
+        <v>0.245258</v>
       </c>
       <c r="C99" t="n">
-        <v>0.20793</v>
+        <v>0.227823</v>
       </c>
       <c r="D99" t="n">
-        <v>0.217392</v>
+        <v>0.227308</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.242783</v>
+        <v>0.24564</v>
       </c>
       <c r="C100" t="n">
-        <v>0.20922</v>
+        <v>0.231699</v>
       </c>
       <c r="D100" t="n">
-        <v>0.219203</v>
+        <v>0.22389</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.242709</v>
+        <v>0.243551</v>
       </c>
       <c r="C101" t="n">
-        <v>0.206509</v>
+        <v>0.229254</v>
       </c>
       <c r="D101" t="n">
-        <v>0.216857</v>
+        <v>0.232232</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.242962</v>
+        <v>0.243735</v>
       </c>
       <c r="C102" t="n">
-        <v>0.212741</v>
+        <v>0.232625</v>
       </c>
       <c r="D102" t="n">
-        <v>0.219632</v>
+        <v>0.23562</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.24382</v>
+        <v>0.246054</v>
       </c>
       <c r="C103" t="n">
-        <v>0.213921</v>
+        <v>0.238777</v>
       </c>
       <c r="D103" t="n">
-        <v>0.225334</v>
+        <v>0.2368</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.243095</v>
+        <v>0.246532</v>
       </c>
       <c r="C104" t="n">
-        <v>0.215748</v>
+        <v>0.237969</v>
       </c>
       <c r="D104" t="n">
-        <v>0.228068</v>
+        <v>0.239525</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.244422</v>
+        <v>0.247112</v>
       </c>
       <c r="C105" t="n">
-        <v>0.217974</v>
+        <v>0.244226</v>
       </c>
       <c r="D105" t="n">
-        <v>0.227871</v>
+        <v>0.243465</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.24463</v>
+        <v>0.246045</v>
       </c>
       <c r="C106" t="n">
-        <v>0.221435</v>
+        <v>0.247586</v>
       </c>
       <c r="D106" t="n">
-        <v>0.234823</v>
+        <v>0.247514</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.246711</v>
+        <v>0.249796</v>
       </c>
       <c r="C107" t="n">
-        <v>0.224205</v>
+        <v>0.254036</v>
       </c>
       <c r="D107" t="n">
-        <v>0.23535</v>
+        <v>0.246945</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.249674</v>
+        <v>0.250451</v>
       </c>
       <c r="C108" t="n">
-        <v>0.224124</v>
+        <v>0.26673</v>
       </c>
       <c r="D108" t="n">
-        <v>0.25641</v>
+        <v>0.271187</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.253181</v>
+        <v>0.256963</v>
       </c>
       <c r="C109" t="n">
-        <v>0.235691</v>
+        <v>0.271463</v>
       </c>
       <c r="D109" t="n">
-        <v>0.257259</v>
+        <v>0.272776</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.274277</v>
+        <v>0.282111</v>
       </c>
       <c r="C110" t="n">
-        <v>0.227136</v>
+        <v>0.270193</v>
       </c>
       <c r="D110" t="n">
-        <v>0.259846</v>
+        <v>0.274908</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.273406</v>
+        <v>0.276917</v>
       </c>
       <c r="C111" t="n">
-        <v>0.22923</v>
+        <v>0.276064</v>
       </c>
       <c r="D111" t="n">
-        <v>0.255628</v>
+        <v>0.277367</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.270982</v>
+        <v>0.281971</v>
       </c>
       <c r="C112" t="n">
-        <v>0.229267</v>
+        <v>0.280038</v>
       </c>
       <c r="D112" t="n">
-        <v>0.256145</v>
+        <v>0.279878</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.27538</v>
+        <v>0.282647</v>
       </c>
       <c r="C113" t="n">
-        <v>0.231267</v>
+        <v>0.281066</v>
       </c>
       <c r="D113" t="n">
-        <v>0.258337</v>
+        <v>0.282148</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.277494</v>
+        <v>0.272621</v>
       </c>
       <c r="C114" t="n">
-        <v>0.234236</v>
+        <v>0.278256</v>
       </c>
       <c r="D114" t="n">
-        <v>0.257806</v>
+        <v>0.277755</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.276061</v>
+        <v>0.278916</v>
       </c>
       <c r="C115" t="n">
-        <v>0.23764</v>
+        <v>0.279575</v>
       </c>
       <c r="D115" t="n">
-        <v>0.263978</v>
+        <v>0.281113</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.27689</v>
+        <v>0.277824</v>
       </c>
       <c r="C116" t="n">
-        <v>0.239938</v>
+        <v>0.282425</v>
       </c>
       <c r="D116" t="n">
-        <v>0.263834</v>
+        <v>0.282964</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.277278</v>
+        <v>0.278769</v>
       </c>
       <c r="C117" t="n">
-        <v>0.242933</v>
+        <v>0.284822</v>
       </c>
       <c r="D117" t="n">
-        <v>0.269497</v>
+        <v>0.287222</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.27705</v>
+        <v>0.281326</v>
       </c>
       <c r="C118" t="n">
-        <v>0.245984</v>
+        <v>0.288253</v>
       </c>
       <c r="D118" t="n">
-        <v>0.272877</v>
+        <v>0.290447</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.278081</v>
+        <v>0.279547</v>
       </c>
       <c r="C119" t="n">
-        <v>0.249229</v>
+        <v>0.292967</v>
       </c>
       <c r="D119" t="n">
-        <v>0.27653</v>
+        <v>0.294386</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.274823</v>
+        <v>0.283651</v>
       </c>
       <c r="C120" t="n">
-        <v>0.252105</v>
+        <v>0.299742</v>
       </c>
       <c r="D120" t="n">
-        <v>0.278501</v>
+        <v>0.299561</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.282269</v>
+        <v>0.276447</v>
       </c>
       <c r="C121" t="n">
-        <v>0.256817</v>
+        <v>0.304215</v>
       </c>
       <c r="D121" t="n">
-        <v>0.285828</v>
+        <v>0.308376</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.282927</v>
+        <v>0.286666</v>
       </c>
       <c r="C122" t="n">
-        <v>0.26295</v>
+        <v>0.310499</v>
       </c>
       <c r="D122" t="n">
-        <v>0.292965</v>
+        <v>0.312444</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.282682</v>
+        <v>0.293687</v>
       </c>
       <c r="C123" t="n">
-        <v>0.26894</v>
+        <v>0.296979</v>
       </c>
       <c r="D123" t="n">
-        <v>0.277579</v>
+        <v>0.297468</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.351732</v>
+        <v>0.359811</v>
       </c>
       <c r="C124" t="n">
-        <v>0.247527</v>
+        <v>0.299603</v>
       </c>
       <c r="D124" t="n">
-        <v>0.279418</v>
+        <v>0.300171</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.353161</v>
+        <v>0.360067</v>
       </c>
       <c r="C125" t="n">
-        <v>0.250176</v>
+        <v>0.30245</v>
       </c>
       <c r="D125" t="n">
-        <v>0.281164</v>
+        <v>0.303151</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.350815</v>
+        <v>0.360609</v>
       </c>
       <c r="C126" t="n">
-        <v>0.25153</v>
+        <v>0.30527</v>
       </c>
       <c r="D126" t="n">
-        <v>0.284873</v>
+        <v>0.30581</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.352774</v>
+        <v>0.359625</v>
       </c>
       <c r="C127" t="n">
-        <v>0.254781</v>
+        <v>0.308154</v>
       </c>
       <c r="D127" t="n">
-        <v>0.287641</v>
+        <v>0.309114</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.350759</v>
+        <v>0.361053</v>
       </c>
       <c r="C128" t="n">
-        <v>0.257887</v>
+        <v>0.311592</v>
       </c>
       <c r="D128" t="n">
-        <v>0.289951</v>
+        <v>0.312157</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.352203</v>
+        <v>0.359484</v>
       </c>
       <c r="C129" t="n">
-        <v>0.261293</v>
+        <v>0.315152</v>
       </c>
       <c r="D129" t="n">
-        <v>0.294124</v>
+        <v>0.315528</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.352193</v>
+        <v>0.360715</v>
       </c>
       <c r="C130" t="n">
-        <v>0.264551</v>
+        <v>0.318847</v>
       </c>
       <c r="D130" t="n">
-        <v>0.297169</v>
+        <v>0.319607</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.35194</v>
+        <v>0.359367</v>
       </c>
       <c r="C131" t="n">
-        <v>0.268574</v>
+        <v>0.322858</v>
       </c>
       <c r="D131" t="n">
-        <v>0.30126</v>
+        <v>0.323558</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.353157</v>
+        <v>0.361499</v>
       </c>
       <c r="C132" t="n">
-        <v>0.271937</v>
+        <v>0.327479</v>
       </c>
       <c r="D132" t="n">
-        <v>0.305436</v>
+        <v>0.327755</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.352591</v>
+        <v>0.360298</v>
       </c>
       <c r="C133" t="n">
-        <v>0.276035</v>
+        <v>0.333057</v>
       </c>
       <c r="D133" t="n">
-        <v>0.309183</v>
+        <v>0.333453</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.354311</v>
+        <v>0.362296</v>
       </c>
       <c r="C134" t="n">
-        <v>0.279818</v>
+        <v>0.337528</v>
       </c>
       <c r="D134" t="n">
-        <v>0.314524</v>
+        <v>0.338283</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.354986</v>
+        <v>0.362422</v>
       </c>
       <c r="C135" t="n">
-        <v>0.285171</v>
+        <v>0.34581</v>
       </c>
       <c r="D135" t="n">
-        <v>0.321091</v>
+        <v>0.346838</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.35794</v>
+        <v>0.36554</v>
       </c>
       <c r="C136" t="n">
-        <v>0.291779</v>
+        <v>0.355013</v>
       </c>
       <c r="D136" t="n">
-        <v>0.330501</v>
+        <v>0.353062</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.359758</v>
+        <v>0.367242</v>
       </c>
       <c r="C137" t="n">
-        <v>0.301036</v>
+        <v>0.318335</v>
       </c>
       <c r="D137" t="n">
-        <v>0.300126</v>
+        <v>0.322503</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.41355</v>
+        <v>0.417861</v>
       </c>
       <c r="C138" t="n">
-        <v>0.268547</v>
+        <v>0.321072</v>
       </c>
       <c r="D138" t="n">
-        <v>0.302752</v>
+        <v>0.324622</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.412876</v>
+        <v>0.412891</v>
       </c>
       <c r="C139" t="n">
-        <v>0.270744</v>
+        <v>0.326624</v>
       </c>
       <c r="D139" t="n">
-        <v>0.304993</v>
+        <v>0.32729</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.414107</v>
+        <v>0.41322</v>
       </c>
       <c r="C140" t="n">
-        <v>0.273331</v>
+        <v>0.329595</v>
       </c>
       <c r="D140" t="n">
-        <v>0.3071</v>
+        <v>0.329064</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.413201</v>
+        <v>0.417503</v>
       </c>
       <c r="C141" t="n">
-        <v>0.275692</v>
+        <v>0.327728</v>
       </c>
       <c r="D141" t="n">
-        <v>0.309604</v>
+        <v>0.332244</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.412846</v>
+        <v>0.417332</v>
       </c>
       <c r="C142" t="n">
-        <v>0.279033</v>
+        <v>0.329268</v>
       </c>
       <c r="D142" t="n">
-        <v>0.312458</v>
+        <v>0.333301</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.4128</v>
+        <v>0.412356</v>
       </c>
       <c r="C143" t="n">
-        <v>0.281856</v>
+        <v>0.332279</v>
       </c>
       <c r="D143" t="n">
-        <v>0.315243</v>
+        <v>0.336913</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0454838</v>
+        <v>0.0463822</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0496607</v>
+        <v>0.0498718</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0478066</v>
+        <v>0.0473375</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0454796</v>
+        <v>0.0464582</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0492323</v>
+        <v>0.0495592</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0479453</v>
+        <v>0.0473028</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0456432</v>
+        <v>0.0466371</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0495117</v>
+        <v>0.0498781</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0482522</v>
+        <v>0.0477011</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0457826</v>
+        <v>0.0468262</v>
       </c>
       <c r="C5" t="n">
-        <v>0.049855</v>
+        <v>0.0501846</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0486988</v>
+        <v>0.0481429</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0458716</v>
+        <v>0.0468635</v>
       </c>
       <c r="C6" t="n">
-        <v>0.050152</v>
+        <v>0.0505833</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0492459</v>
+        <v>0.0486976</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0460154</v>
+        <v>0.0470211</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0510117</v>
+        <v>0.0511956</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04988</v>
+        <v>0.049279</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0461844</v>
+        <v>0.0471872</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0522353</v>
+        <v>0.0523155</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0512649</v>
+        <v>0.0506372</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0465361</v>
+        <v>0.0475234</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0464891</v>
+        <v>0.0465835</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0460494</v>
+        <v>0.0449116</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0454064</v>
+        <v>0.0451226</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0467645</v>
+        <v>0.0469271</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0463776</v>
+        <v>0.0452405</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0454958</v>
+        <v>0.0452459</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0471205</v>
+        <v>0.0473411</v>
       </c>
       <c r="D11" t="n">
-        <v>0.046683</v>
+        <v>0.0455868</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0455702</v>
+        <v>0.0452801</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0474501</v>
+        <v>0.0476513</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0469604</v>
+        <v>0.0458636</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0456062</v>
+        <v>0.0454063</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0478012</v>
+        <v>0.0480382</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0472998</v>
+        <v>0.046176</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0457054</v>
+        <v>0.045481</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0481439</v>
+        <v>0.0483229</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0476474</v>
+        <v>0.0465188</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0458238</v>
+        <v>0.0456383</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0484661</v>
+        <v>0.0486531</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0480021</v>
+        <v>0.0468488</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0459504</v>
+        <v>0.0457845</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0487402</v>
+        <v>0.0488988</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0483064</v>
+        <v>0.0471623</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0460863</v>
+        <v>0.0458906</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0489938</v>
+        <v>0.0491537</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0486162</v>
+        <v>0.0474934</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0462029</v>
+        <v>0.0460513</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0493507</v>
+        <v>0.0493617</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0489693</v>
+        <v>0.0477416</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0464064</v>
+        <v>0.0462099</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0497018</v>
+        <v>0.0497469</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0493301</v>
+        <v>0.0482191</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0465431</v>
+        <v>0.0463514</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0502991</v>
+        <v>0.0502074</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0497907</v>
+        <v>0.0487043</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0466489</v>
+        <v>0.0464837</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0511968</v>
+        <v>0.0512051</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0510665</v>
+        <v>0.0500138</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0470018</v>
+        <v>0.0467413</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0552237</v>
+        <v>0.0551328</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0549437</v>
+        <v>0.0543894</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.047196</v>
+        <v>0.0471157</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0530228</v>
+        <v>0.0511642</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0500982</v>
+        <v>0.0486823</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.05068</v>
+        <v>0.0494465</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0534467</v>
+        <v>0.0515777</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0504858</v>
+        <v>0.0490753</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0501645</v>
+        <v>0.0495461</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0524763</v>
+        <v>0.0508631</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0503497</v>
+        <v>0.0489761</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.050213</v>
+        <v>0.049376</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0527948</v>
+        <v>0.0511581</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0506312</v>
+        <v>0.0493185</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0502657</v>
+        <v>0.0494082</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0530857</v>
+        <v>0.0514489</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0508627</v>
+        <v>0.0495881</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0503622</v>
+        <v>0.0495217</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0533708</v>
+        <v>0.0517622</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0511851</v>
+        <v>0.0499075</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0505146</v>
+        <v>0.0496831</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0536633</v>
+        <v>0.0520874</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0514046</v>
+        <v>0.0502348</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0506365</v>
+        <v>0.0498012</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0539951</v>
+        <v>0.0523571</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0516709</v>
+        <v>0.0505032</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0508252</v>
+        <v>0.0499422</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0543237</v>
+        <v>0.0526692</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0520348</v>
+        <v>0.0507835</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0509248</v>
+        <v>0.0500576</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0546667</v>
+        <v>0.0530857</v>
       </c>
       <c r="D32" t="n">
-        <v>0.052312</v>
+        <v>0.0511472</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0511154</v>
+        <v>0.0502641</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0551784</v>
+        <v>0.053498</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0528808</v>
+        <v>0.0516731</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0512474</v>
+        <v>0.0504001</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0563719</v>
+        <v>0.0546415</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0540975</v>
+        <v>0.0529384</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0514738</v>
+        <v>0.0506243</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0599414</v>
+        <v>0.0581711</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0582942</v>
+        <v>0.0571616</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0519084</v>
+        <v>0.051004</v>
       </c>
       <c r="C36" t="n">
-        <v>0.06711540000000001</v>
+        <v>0.06541669999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0652307</v>
+        <v>0.0638994</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.053482</v>
+        <v>0.05255</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0567175</v>
+        <v>0.0549259</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0538388</v>
+        <v>0.0535338</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0583391</v>
+        <v>0.0564837</v>
       </c>
       <c r="C38" t="n">
-        <v>0.057455</v>
+        <v>0.0556584</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0548198</v>
+        <v>0.0544452</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0578524</v>
+        <v>0.0558509</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0556901</v>
+        <v>0.0546385</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0534709</v>
+        <v>0.053208</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0579319</v>
+        <v>0.0555406</v>
       </c>
       <c r="C40" t="n">
-        <v>0.056037</v>
+        <v>0.0550205</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0538692</v>
+        <v>0.0536337</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0580244</v>
+        <v>0.055625</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0563767</v>
+        <v>0.0553273</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0542815</v>
+        <v>0.0540213</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0581138</v>
+        <v>0.0557371</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0567143</v>
+        <v>0.0556525</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0546446</v>
+        <v>0.0543908</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0582272</v>
+        <v>0.0558302</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0570496</v>
+        <v>0.056018</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0550092</v>
+        <v>0.054717</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0583528</v>
+        <v>0.0559485</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0574168</v>
+        <v>0.0563869</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0554459</v>
+        <v>0.0551822</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0584875</v>
+        <v>0.0561027</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0577775</v>
+        <v>0.0567541</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0558492</v>
+        <v>0.0555927</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0586535</v>
+        <v>0.0562588</v>
       </c>
       <c r="C46" t="n">
-        <v>0.058336</v>
+        <v>0.0573245</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0564965</v>
+        <v>0.056226</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0588343</v>
+        <v>0.0564295</v>
       </c>
       <c r="C47" t="n">
-        <v>0.059655</v>
+        <v>0.0586214</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0578683</v>
+        <v>0.0576068</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0590943</v>
+        <v>0.0566404</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0628726</v>
+        <v>0.0617828</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0613281</v>
+        <v>0.0610689</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0594296</v>
+        <v>0.0570262</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0671583</v>
+        <v>0.0660742</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0656299</v>
+        <v>0.065384</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.060731</v>
+        <v>0.0583652</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0724059</v>
+        <v>0.0713246</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0713519</v>
+        <v>0.07112019999999999</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.06472609999999999</v>
+        <v>0.0625251</v>
       </c>
       <c r="C51" t="n">
-        <v>0.058601</v>
+        <v>0.0590829</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0599392</v>
+        <v>0.0596218</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0699848</v>
+        <v>0.0679227</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0566115</v>
+        <v>0.0591642</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0604017</v>
+        <v>0.060106</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0620736</v>
+        <v>0.0616315</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0569777</v>
+        <v>0.0574625</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0608628</v>
+        <v>0.0605358</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0618304</v>
+        <v>0.0610833</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0598597</v>
+        <v>0.0596868</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0612646</v>
+        <v>0.0603492</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0616592</v>
+        <v>0.0610949</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0602772</v>
+        <v>0.0608486</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0616836</v>
+        <v>0.0613123</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0619898</v>
+        <v>0.0612478</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0581963</v>
+        <v>0.0612885</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0614603</v>
+        <v>0.0613441</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0618506</v>
+        <v>0.0613805</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0586288</v>
+        <v>0.0591842</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0626162</v>
+        <v>0.0623529</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0620492</v>
+        <v>0.061533</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0591603</v>
+        <v>0.0603653</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0631893</v>
+        <v>0.0629144</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0622349</v>
+        <v>0.0617217</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0617407</v>
+        <v>0.0603497</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0639019</v>
+        <v>0.0634154</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0623995</v>
+        <v>0.0619045</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0612051</v>
+        <v>0.0619617</v>
       </c>
       <c r="D60" t="n">
-        <v>0.06525110000000001</v>
+        <v>0.0649014</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0626582</v>
+        <v>0.0621643</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0633817</v>
+        <v>0.0639122</v>
       </c>
       <c r="D61" t="n">
-        <v>0.06741999999999999</v>
+        <v>0.0671899</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0630773</v>
+        <v>0.06255520000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.065872</v>
+        <v>0.06644269999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0700693</v>
+        <v>0.0679944</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0640839</v>
+        <v>0.0635928</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0690157</v>
+        <v>0.0697589</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0733167</v>
+        <v>0.0730468</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0661108</v>
+        <v>0.06573619999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0736632</v>
+        <v>0.07425130000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.07811360000000001</v>
+        <v>0.0778257</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0689459</v>
+        <v>0.0683819</v>
       </c>
       <c r="C65" t="n">
-        <v>0.08034139999999999</v>
+        <v>0.0809378</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0854361</v>
+        <v>0.08503280000000001</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0732264</v>
+        <v>0.0726107</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0636183</v>
+        <v>0.0666297</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0648856</v>
+        <v>0.0645768</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.09284100000000001</v>
+        <v>0.116103</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0642546</v>
+        <v>0.0673493</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0655406</v>
+        <v>0.0652889</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0928073</v>
+        <v>0.116834</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0649547</v>
+        <v>0.0685772</v>
       </c>
       <c r="D68" t="n">
-        <v>0.06608319999999999</v>
+        <v>0.066203</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0930096</v>
+        <v>0.118286</v>
       </c>
       <c r="C69" t="n">
-        <v>0.06581339999999999</v>
+        <v>0.0700003</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0668506</v>
+        <v>0.06719120000000001</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0935556</v>
+        <v>0.119761</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0666928</v>
+        <v>0.0711943</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0674463</v>
+        <v>0.06829590000000001</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.094343</v>
+        <v>0.120246</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0675033</v>
+        <v>0.0721875</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0683685</v>
+        <v>0.0693955</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.09466339999999999</v>
+        <v>0.121248</v>
       </c>
       <c r="C72" t="n">
-        <v>0.068601</v>
+        <v>0.0737521</v>
       </c>
       <c r="D72" t="n">
-        <v>0.06932919999999999</v>
+        <v>0.0706045</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.09554790000000001</v>
+        <v>0.12209</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0700336</v>
+        <v>0.0754952</v>
       </c>
       <c r="D73" t="n">
-        <v>0.07088469999999999</v>
+        <v>0.0722395</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.09690269999999999</v>
+        <v>0.121224</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0721763</v>
+        <v>0.0772707</v>
       </c>
       <c r="D74" t="n">
-        <v>0.07273309999999999</v>
+        <v>0.0737014</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.09786549999999999</v>
+        <v>0.123051</v>
       </c>
       <c r="C75" t="n">
-        <v>0.07422520000000001</v>
+        <v>0.079237</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0749466</v>
+        <v>0.07577680000000001</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0991274</v>
+        <v>0.12328</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0767496</v>
+        <v>0.0813808</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0776535</v>
+        <v>0.0779683</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.10046</v>
+        <v>0.123791</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0796014</v>
+        <v>0.08428919999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0805728</v>
+        <v>0.08101410000000001</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.100939</v>
+        <v>0.124695</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0835723</v>
+        <v>0.0883555</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0846783</v>
+        <v>0.085283</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.103067</v>
+        <v>0.12616</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0895094</v>
+        <v>0.0950194</v>
       </c>
       <c r="D79" t="n">
-        <v>0.09113250000000001</v>
+        <v>0.0917017</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.105587</v>
+        <v>0.129306</v>
       </c>
       <c r="C80" t="n">
-        <v>0.104918</v>
+        <v>0.0996393</v>
       </c>
       <c r="D80" t="n">
-        <v>0.105746</v>
+        <v>0.103685</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.175259</v>
+        <v>0.178485</v>
       </c>
       <c r="C81" t="n">
-        <v>0.107752</v>
+        <v>0.10654</v>
       </c>
       <c r="D81" t="n">
-        <v>0.108172</v>
+        <v>0.106178</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.175948</v>
+        <v>0.175812</v>
       </c>
       <c r="C82" t="n">
-        <v>0.11728</v>
+        <v>0.126727</v>
       </c>
       <c r="D82" t="n">
-        <v>0.11402</v>
+        <v>0.115897</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.179407</v>
+        <v>0.179577</v>
       </c>
       <c r="C83" t="n">
-        <v>0.117292</v>
+        <v>0.106213</v>
       </c>
       <c r="D83" t="n">
-        <v>0.115391</v>
+        <v>0.105129</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.177543</v>
+        <v>0.170231</v>
       </c>
       <c r="C84" t="n">
-        <v>0.131622</v>
+        <v>0.131779</v>
       </c>
       <c r="D84" t="n">
-        <v>0.12527</v>
+        <v>0.122266</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.181855</v>
+        <v>0.181303</v>
       </c>
       <c r="C85" t="n">
-        <v>0.131927</v>
+        <v>0.129247</v>
       </c>
       <c r="D85" t="n">
-        <v>0.123941</v>
+        <v>0.125589</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.182495</v>
+        <v>0.182577</v>
       </c>
       <c r="C86" t="n">
-        <v>0.140605</v>
+        <v>0.140005</v>
       </c>
       <c r="D86" t="n">
-        <v>0.132568</v>
+        <v>0.131758</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.185908</v>
+        <v>0.18738</v>
       </c>
       <c r="C87" t="n">
-        <v>0.144865</v>
+        <v>0.133801</v>
       </c>
       <c r="D87" t="n">
-        <v>0.141809</v>
+        <v>0.12878</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.189231</v>
+        <v>0.184103</v>
       </c>
       <c r="C88" t="n">
-        <v>0.148599</v>
+        <v>0.145524</v>
       </c>
       <c r="D88" t="n">
-        <v>0.145502</v>
+        <v>0.142443</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.188963</v>
+        <v>0.188077</v>
       </c>
       <c r="C89" t="n">
-        <v>0.146033</v>
+        <v>0.130875</v>
       </c>
       <c r="D89" t="n">
-        <v>0.142505</v>
+        <v>0.124514</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.188253</v>
+        <v>0.177547</v>
       </c>
       <c r="C90" t="n">
-        <v>0.147185</v>
+        <v>0.146619</v>
       </c>
       <c r="D90" t="n">
-        <v>0.143873</v>
+        <v>0.141959</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.189472</v>
+        <v>0.188536</v>
       </c>
       <c r="C91" t="n">
-        <v>0.159917</v>
+        <v>0.155636</v>
       </c>
       <c r="D91" t="n">
-        <v>0.155178</v>
+        <v>0.147781</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.19291</v>
+        <v>0.190011</v>
       </c>
       <c r="C92" t="n">
-        <v>0.161921</v>
+        <v>0.158814</v>
       </c>
       <c r="D92" t="n">
-        <v>0.155377</v>
+        <v>0.155752</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.194582</v>
+        <v>0.18933</v>
       </c>
       <c r="C93" t="n">
-        <v>0.168107</v>
+        <v>0.163315</v>
       </c>
       <c r="D93" t="n">
-        <v>0.16074</v>
+        <v>0.1575</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.198039</v>
+        <v>0.19396</v>
       </c>
       <c r="C94" t="n">
-        <v>0.213915</v>
+        <v>0.218673</v>
       </c>
       <c r="D94" t="n">
-        <v>0.216977</v>
+        <v>0.217039</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.243062</v>
+        <v>0.245896</v>
       </c>
       <c r="C95" t="n">
-        <v>0.214798</v>
+        <v>0.216861</v>
       </c>
       <c r="D95" t="n">
-        <v>0.218692</v>
+        <v>0.218798</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.244709</v>
+        <v>0.243688</v>
       </c>
       <c r="C96" t="n">
-        <v>0.220424</v>
+        <v>0.216786</v>
       </c>
       <c r="D96" t="n">
-        <v>0.220528</v>
+        <v>0.220924</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.243005</v>
+        <v>0.243401</v>
       </c>
       <c r="C97" t="n">
-        <v>0.223232</v>
+        <v>0.219312</v>
       </c>
       <c r="D97" t="n">
-        <v>0.222971</v>
+        <v>0.222704</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.245657</v>
+        <v>0.243616</v>
       </c>
       <c r="C98" t="n">
-        <v>0.224628</v>
+        <v>0.222183</v>
       </c>
       <c r="D98" t="n">
-        <v>0.225114</v>
+        <v>0.225132</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.245258</v>
+        <v>0.245636</v>
       </c>
       <c r="C99" t="n">
-        <v>0.227823</v>
+        <v>0.228923</v>
       </c>
       <c r="D99" t="n">
-        <v>0.227308</v>
+        <v>0.226905</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.24564</v>
+        <v>0.245781</v>
       </c>
       <c r="C100" t="n">
-        <v>0.231699</v>
+        <v>0.229473</v>
       </c>
       <c r="D100" t="n">
-        <v>0.22389</v>
+        <v>0.229425</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.243551</v>
+        <v>0.246293</v>
       </c>
       <c r="C101" t="n">
-        <v>0.229254</v>
+        <v>0.231908</v>
       </c>
       <c r="D101" t="n">
-        <v>0.232232</v>
+        <v>0.226228</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.243735</v>
+        <v>0.245805</v>
       </c>
       <c r="C102" t="n">
-        <v>0.232625</v>
+        <v>0.23106</v>
       </c>
       <c r="D102" t="n">
-        <v>0.23562</v>
+        <v>0.227853</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.246054</v>
+        <v>0.244392</v>
       </c>
       <c r="C103" t="n">
-        <v>0.238777</v>
+        <v>0.237151</v>
       </c>
       <c r="D103" t="n">
-        <v>0.2368</v>
+        <v>0.237443</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.246532</v>
+        <v>0.247029</v>
       </c>
       <c r="C104" t="n">
-        <v>0.237969</v>
+        <v>0.237649</v>
       </c>
       <c r="D104" t="n">
-        <v>0.239525</v>
+        <v>0.240095</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.247112</v>
+        <v>0.24753</v>
       </c>
       <c r="C105" t="n">
-        <v>0.244226</v>
+        <v>0.242803</v>
       </c>
       <c r="D105" t="n">
-        <v>0.243465</v>
+        <v>0.238491</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.246045</v>
+        <v>0.248635</v>
       </c>
       <c r="C106" t="n">
-        <v>0.247586</v>
+        <v>0.246731</v>
       </c>
       <c r="D106" t="n">
-        <v>0.247514</v>
+        <v>0.247248</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.249796</v>
+        <v>0.250036</v>
       </c>
       <c r="C107" t="n">
-        <v>0.254036</v>
+        <v>0.247528</v>
       </c>
       <c r="D107" t="n">
-        <v>0.246945</v>
+        <v>0.247043</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.250451</v>
+        <v>0.252875</v>
       </c>
       <c r="C108" t="n">
-        <v>0.26673</v>
+        <v>0.269284</v>
       </c>
       <c r="D108" t="n">
-        <v>0.271187</v>
+        <v>0.270909</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.256963</v>
+        <v>0.257393</v>
       </c>
       <c r="C109" t="n">
-        <v>0.271463</v>
+        <v>0.268607</v>
       </c>
       <c r="D109" t="n">
-        <v>0.272776</v>
+        <v>0.272648</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.282111</v>
+        <v>0.273127</v>
       </c>
       <c r="C110" t="n">
-        <v>0.270193</v>
+        <v>0.274162</v>
       </c>
       <c r="D110" t="n">
-        <v>0.274908</v>
+        <v>0.273493</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.276917</v>
+        <v>0.272981</v>
       </c>
       <c r="C111" t="n">
-        <v>0.276064</v>
+        <v>0.276309</v>
       </c>
       <c r="D111" t="n">
-        <v>0.277367</v>
+        <v>0.276837</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.281971</v>
+        <v>0.277993</v>
       </c>
       <c r="C112" t="n">
-        <v>0.280038</v>
+        <v>0.278916</v>
       </c>
       <c r="D112" t="n">
-        <v>0.279878</v>
+        <v>0.278161</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.282647</v>
+        <v>0.273899</v>
       </c>
       <c r="C113" t="n">
-        <v>0.281066</v>
+        <v>0.277447</v>
       </c>
       <c r="D113" t="n">
-        <v>0.282148</v>
+        <v>0.277775</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.272621</v>
+        <v>0.274385</v>
       </c>
       <c r="C114" t="n">
-        <v>0.278256</v>
+        <v>0.276577</v>
       </c>
       <c r="D114" t="n">
-        <v>0.277755</v>
+        <v>0.277429</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.278916</v>
+        <v>0.279507</v>
       </c>
       <c r="C115" t="n">
-        <v>0.279575</v>
+        <v>0.275622</v>
       </c>
       <c r="D115" t="n">
-        <v>0.281113</v>
+        <v>0.280303</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.277824</v>
+        <v>0.279008</v>
       </c>
       <c r="C116" t="n">
-        <v>0.282425</v>
+        <v>0.282586</v>
       </c>
       <c r="D116" t="n">
-        <v>0.282964</v>
+        <v>0.283064</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.278769</v>
+        <v>0.281442</v>
       </c>
       <c r="C117" t="n">
-        <v>0.284822</v>
+        <v>0.285851</v>
       </c>
       <c r="D117" t="n">
-        <v>0.287222</v>
+        <v>0.286632</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.281326</v>
+        <v>0.277901</v>
       </c>
       <c r="C118" t="n">
-        <v>0.288253</v>
+        <v>0.289154</v>
       </c>
       <c r="D118" t="n">
-        <v>0.290447</v>
+        <v>0.289895</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.279547</v>
+        <v>0.282054</v>
       </c>
       <c r="C119" t="n">
-        <v>0.292967</v>
+        <v>0.292249</v>
       </c>
       <c r="D119" t="n">
-        <v>0.294386</v>
+        <v>0.294284</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.283651</v>
+        <v>0.280792</v>
       </c>
       <c r="C120" t="n">
-        <v>0.299742</v>
+        <v>0.298079</v>
       </c>
       <c r="D120" t="n">
-        <v>0.299561</v>
+        <v>0.298814</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.276447</v>
+        <v>0.281968</v>
       </c>
       <c r="C121" t="n">
-        <v>0.304215</v>
+        <v>0.303331</v>
       </c>
       <c r="D121" t="n">
-        <v>0.308376</v>
+        <v>0.304655</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.286666</v>
+        <v>0.286081</v>
       </c>
       <c r="C122" t="n">
-        <v>0.310499</v>
+        <v>0.309224</v>
       </c>
       <c r="D122" t="n">
-        <v>0.312444</v>
+        <v>0.31198</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.293687</v>
+        <v>0.29078</v>
       </c>
       <c r="C123" t="n">
-        <v>0.296979</v>
+        <v>0.296898</v>
       </c>
       <c r="D123" t="n">
-        <v>0.297468</v>
+        <v>0.297501</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.359811</v>
+        <v>0.357955</v>
       </c>
       <c r="C124" t="n">
-        <v>0.299603</v>
+        <v>0.297982</v>
       </c>
       <c r="D124" t="n">
-        <v>0.300171</v>
+        <v>0.300014</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.360067</v>
+        <v>0.359211</v>
       </c>
       <c r="C125" t="n">
-        <v>0.30245</v>
+        <v>0.300429</v>
       </c>
       <c r="D125" t="n">
-        <v>0.303151</v>
+        <v>0.30285</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.360609</v>
+        <v>0.35964</v>
       </c>
       <c r="C126" t="n">
-        <v>0.30527</v>
+        <v>0.303756</v>
       </c>
       <c r="D126" t="n">
-        <v>0.30581</v>
+        <v>0.306233</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.359625</v>
+        <v>0.355752</v>
       </c>
       <c r="C127" t="n">
-        <v>0.308154</v>
+        <v>0.308171</v>
       </c>
       <c r="D127" t="n">
-        <v>0.309114</v>
+        <v>0.308946</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.361053</v>
+        <v>0.358674</v>
       </c>
       <c r="C128" t="n">
-        <v>0.311592</v>
+        <v>0.311681</v>
       </c>
       <c r="D128" t="n">
-        <v>0.312157</v>
+        <v>0.312957</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.359484</v>
+        <v>0.359701</v>
       </c>
       <c r="C129" t="n">
-        <v>0.315152</v>
+        <v>0.314991</v>
       </c>
       <c r="D129" t="n">
-        <v>0.315528</v>
+        <v>0.315515</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.360715</v>
+        <v>0.359534</v>
       </c>
       <c r="C130" t="n">
-        <v>0.318847</v>
+        <v>0.319011</v>
       </c>
       <c r="D130" t="n">
-        <v>0.319607</v>
+        <v>0.319138</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.359367</v>
+        <v>0.359945</v>
       </c>
       <c r="C131" t="n">
-        <v>0.322858</v>
+        <v>0.322566</v>
       </c>
       <c r="D131" t="n">
-        <v>0.323558</v>
+        <v>0.322957</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.361499</v>
+        <v>0.358472</v>
       </c>
       <c r="C132" t="n">
-        <v>0.327479</v>
+        <v>0.327673</v>
       </c>
       <c r="D132" t="n">
-        <v>0.327755</v>
+        <v>0.327334</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.360298</v>
+        <v>0.360175</v>
       </c>
       <c r="C133" t="n">
-        <v>0.333057</v>
+        <v>0.331861</v>
       </c>
       <c r="D133" t="n">
-        <v>0.333453</v>
+        <v>0.33288</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.362296</v>
+        <v>0.36138</v>
       </c>
       <c r="C134" t="n">
-        <v>0.337528</v>
+        <v>0.336915</v>
       </c>
       <c r="D134" t="n">
-        <v>0.338283</v>
+        <v>0.33917</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.362422</v>
+        <v>0.362922</v>
       </c>
       <c r="C135" t="n">
-        <v>0.34581</v>
+        <v>0.344148</v>
       </c>
       <c r="D135" t="n">
-        <v>0.346838</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.36554</v>
+        <v>0.364568</v>
       </c>
       <c r="C136" t="n">
-        <v>0.355013</v>
+        <v>0.355205</v>
       </c>
       <c r="D136" t="n">
-        <v>0.353062</v>
+        <v>0.354949</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.367242</v>
+        <v>0.366823</v>
       </c>
       <c r="C137" t="n">
-        <v>0.318335</v>
+        <v>0.318071</v>
       </c>
       <c r="D137" t="n">
-        <v>0.322503</v>
+        <v>0.32281</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.417861</v>
+        <v>0.413014</v>
       </c>
       <c r="C138" t="n">
-        <v>0.321072</v>
+        <v>0.321016</v>
       </c>
       <c r="D138" t="n">
-        <v>0.324622</v>
+        <v>0.324996</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.412891</v>
+        <v>0.411131</v>
       </c>
       <c r="C139" t="n">
-        <v>0.326624</v>
+        <v>0.323037</v>
       </c>
       <c r="D139" t="n">
-        <v>0.32729</v>
+        <v>0.326467</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.41322</v>
+        <v>0.417457</v>
       </c>
       <c r="C140" t="n">
-        <v>0.329595</v>
+        <v>0.328904</v>
       </c>
       <c r="D140" t="n">
-        <v>0.329064</v>
+        <v>0.330214</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.417503</v>
+        <v>0.418054</v>
       </c>
       <c r="C141" t="n">
-        <v>0.327728</v>
+        <v>0.327555</v>
       </c>
       <c r="D141" t="n">
-        <v>0.332244</v>
+        <v>0.332684</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.417332</v>
+        <v>0.417681</v>
       </c>
       <c r="C142" t="n">
-        <v>0.329268</v>
+        <v>0.334017</v>
       </c>
       <c r="D142" t="n">
-        <v>0.333301</v>
+        <v>0.334543</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.412356</v>
+        <v>0.412308</v>
       </c>
       <c r="C143" t="n">
-        <v>0.332279</v>
+        <v>0.33712</v>
       </c>
       <c r="D143" t="n">
-        <v>0.336913</v>
+        <v>0.338142</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0463822</v>
+        <v>0.0471455</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0498718</v>
+        <v>0.0501497</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0473375</v>
+        <v>0.0479793</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0464582</v>
+        <v>0.0472219</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0495592</v>
+        <v>0.0503055</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0473028</v>
+        <v>0.0480103</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0466371</v>
+        <v>0.0472882</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0498781</v>
+        <v>0.0505932</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0477011</v>
+        <v>0.0483485</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0468262</v>
+        <v>0.0474211</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0501846</v>
+        <v>0.0508701</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0481429</v>
+        <v>0.0487297</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0468635</v>
+        <v>0.0475032</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0505833</v>
+        <v>0.0512867</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0486976</v>
+        <v>0.0493084</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0470211</v>
+        <v>0.0476614</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0511956</v>
+        <v>0.0519481</v>
       </c>
       <c r="D7" t="n">
-        <v>0.049279</v>
+        <v>0.0499965</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0471872</v>
+        <v>0.0478771</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0523155</v>
+        <v>0.0529094</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0506372</v>
+        <v>0.0516574</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0475234</v>
+        <v>0.0482356</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0465835</v>
+        <v>0.0562692</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0449116</v>
+        <v>0.0506286</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0451226</v>
+        <v>0.0508908</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0469271</v>
+        <v>0.0566469</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0452405</v>
+        <v>0.0504919</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0452459</v>
+        <v>0.0509699</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0473411</v>
+        <v>0.0564266</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0455868</v>
+        <v>0.0514574</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0452801</v>
+        <v>0.0519072</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0476513</v>
+        <v>0.0568761</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0458636</v>
+        <v>0.051044</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0454063</v>
+        <v>0.0511994</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0480382</v>
+        <v>0.0573072</v>
       </c>
       <c r="D13" t="n">
-        <v>0.046176</v>
+        <v>0.0513316</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.045481</v>
+        <v>0.05132</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0483229</v>
+        <v>0.0576235</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0465188</v>
+        <v>0.052123</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0456383</v>
+        <v>0.0514468</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0486531</v>
+        <v>0.057999</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0468488</v>
+        <v>0.0521238</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0457845</v>
+        <v>0.0516054</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0488988</v>
+        <v>0.0582935</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0471623</v>
+        <v>0.052325</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0458906</v>
+        <v>0.0517083</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0491537</v>
+        <v>0.0586086</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0474934</v>
+        <v>0.0531882</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0460513</v>
+        <v>0.0518252</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0493617</v>
+        <v>0.0589384</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0477416</v>
+        <v>0.0529566</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0462099</v>
+        <v>0.0519173</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0497469</v>
+        <v>0.0593587</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0482191</v>
+        <v>0.0534366</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0463514</v>
+        <v>0.0520441</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0502074</v>
+        <v>0.0598807</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0487043</v>
+        <v>0.0547525</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0464837</v>
+        <v>0.0522339</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0512051</v>
+        <v>0.0605264</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0500138</v>
+        <v>0.0560762</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0467413</v>
+        <v>0.0524305</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0551328</v>
+        <v>0.06409090000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0543894</v>
+        <v>0.0595378</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0471157</v>
+        <v>0.0528114</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0511642</v>
+        <v>0.0502454</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0486823</v>
+        <v>0.0497257</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0494465</v>
+        <v>0.0538775</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0515777</v>
+        <v>0.0503689</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0490753</v>
+        <v>0.0500504</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0495461</v>
+        <v>0.0539524</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0508631</v>
+        <v>0.0506144</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0489761</v>
+        <v>0.0503931</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.049376</v>
+        <v>0.0540817</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0511581</v>
+        <v>0.0509048</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0493185</v>
+        <v>0.0503925</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0494082</v>
+        <v>0.0541179</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0514489</v>
+        <v>0.0511969</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0495881</v>
+        <v>0.0508573</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0495217</v>
+        <v>0.0542088</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0517622</v>
+        <v>0.0514557</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0499075</v>
+        <v>0.0512753</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0496831</v>
+        <v>0.0543603</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0520874</v>
+        <v>0.0517438</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0502348</v>
+        <v>0.0512735</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0498012</v>
+        <v>0.054442</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0523571</v>
+        <v>0.0520254</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0505032</v>
+        <v>0.0518274</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0499422</v>
+        <v>0.0546155</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0526692</v>
+        <v>0.0522916</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0507835</v>
+        <v>0.0521619</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0500576</v>
+        <v>0.0547355</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0530857</v>
+        <v>0.0526462</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0511472</v>
+        <v>0.0524077</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0502641</v>
+        <v>0.0548972</v>
       </c>
       <c r="C33" t="n">
-        <v>0.053498</v>
+        <v>0.053165</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0516731</v>
+        <v>0.0531333</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0504001</v>
+        <v>0.0550585</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0546415</v>
+        <v>0.0543394</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0529384</v>
+        <v>0.0541745</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0506243</v>
+        <v>0.0553335</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0581711</v>
+        <v>0.0577599</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0571616</v>
+        <v>0.0580702</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.051004</v>
+        <v>0.055623</v>
       </c>
       <c r="C36" t="n">
-        <v>0.06541669999999999</v>
+        <v>0.0645524</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0638994</v>
+        <v>0.0651108</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.05255</v>
+        <v>0.0569812</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0549259</v>
+        <v>0.0572576</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0535338</v>
+        <v>0.0534512</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0564837</v>
+        <v>0.0549479</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0556584</v>
+        <v>0.0554733</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0544452</v>
+        <v>0.0540661</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0558509</v>
+        <v>0.0546366</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0546385</v>
+        <v>0.0557892</v>
       </c>
       <c r="D39" t="n">
-        <v>0.053208</v>
+        <v>0.0534258</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0555406</v>
+        <v>0.0547266</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0550205</v>
+        <v>0.0560932</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0536337</v>
+        <v>0.0550175</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.055625</v>
+        <v>0.054799</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0553273</v>
+        <v>0.0564733</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0540213</v>
+        <v>0.0542769</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0557371</v>
+        <v>0.0549183</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0556525</v>
+        <v>0.0568349</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0543908</v>
+        <v>0.0549541</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0558302</v>
+        <v>0.0550126</v>
       </c>
       <c r="C43" t="n">
-        <v>0.056018</v>
+        <v>0.0571942</v>
       </c>
       <c r="D43" t="n">
-        <v>0.054717</v>
+        <v>0.055976</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0559485</v>
+        <v>0.055151</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0563869</v>
+        <v>0.0575089</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0551822</v>
+        <v>0.0558657</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0561027</v>
+        <v>0.0552782</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0567541</v>
+        <v>0.057981</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0555927</v>
+        <v>0.0562301</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0562588</v>
+        <v>0.055448</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0573245</v>
+        <v>0.0584693</v>
       </c>
       <c r="D46" t="n">
-        <v>0.056226</v>
+        <v>0.0574461</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0564295</v>
+        <v>0.0556344</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0586214</v>
+        <v>0.0597124</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0576068</v>
+        <v>0.0586855</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0566404</v>
+        <v>0.0558525</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0617828</v>
+        <v>0.06299299999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0610689</v>
+        <v>0.0615493</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0570262</v>
+        <v>0.0561408</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0660742</v>
+        <v>0.0672775</v>
       </c>
       <c r="D49" t="n">
-        <v>0.065384</v>
+        <v>0.06642240000000001</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0583652</v>
+        <v>0.0574958</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0713246</v>
+        <v>0.0727068</v>
       </c>
       <c r="D50" t="n">
-        <v>0.07112019999999999</v>
+        <v>0.0719798</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0625251</v>
+        <v>0.0617063</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0590829</v>
+        <v>0.058035</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0596218</v>
+        <v>0.0573839</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0679227</v>
+        <v>0.06686540000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0591642</v>
+        <v>0.057711</v>
       </c>
       <c r="D52" t="n">
-        <v>0.060106</v>
+        <v>0.0580821</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0616315</v>
+        <v>0.061218</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0574625</v>
+        <v>0.0580223</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0605358</v>
+        <v>0.0577674</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0610833</v>
+        <v>0.0612918</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0596868</v>
+        <v>0.0583915</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0603492</v>
+        <v>0.0580978</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0610949</v>
+        <v>0.061343</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0608486</v>
+        <v>0.0588014</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0613123</v>
+        <v>0.0586414</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0612478</v>
+        <v>0.0614625</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0612885</v>
+        <v>0.0592267</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0613441</v>
+        <v>0.0589832</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0613805</v>
+        <v>0.0615958</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0591842</v>
+        <v>0.0597121</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0623529</v>
+        <v>0.0592422</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.061533</v>
+        <v>0.0617374</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0603653</v>
+        <v>0.0602168</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0629144</v>
+        <v>0.0597707</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0617217</v>
+        <v>0.0619237</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0603497</v>
+        <v>0.0608643</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0634154</v>
+        <v>0.0604813</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0619045</v>
+        <v>0.0621088</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0619617</v>
+        <v>0.0622998</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0649014</v>
+        <v>0.0617959</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0621643</v>
+        <v>0.0623311</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0639122</v>
+        <v>0.0644816</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0671899</v>
+        <v>0.0650847</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.06255520000000001</v>
+        <v>0.06277530000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.06644269999999999</v>
+        <v>0.06704690000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0679944</v>
+        <v>0.0668448</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0635928</v>
+        <v>0.0637542</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0697589</v>
+        <v>0.07036199999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0730468</v>
+        <v>0.0700543</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.06573619999999999</v>
+        <v>0.0657383</v>
       </c>
       <c r="C64" t="n">
-        <v>0.07425130000000001</v>
+        <v>0.0748509</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0778257</v>
+        <v>0.07480829999999999</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0683819</v>
+        <v>0.06860280000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0809378</v>
+        <v>0.0816503</v>
       </c>
       <c r="D65" t="n">
-        <v>0.08503280000000001</v>
+        <v>0.0822049</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0726107</v>
+        <v>0.07289569999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0666297</v>
+        <v>0.0605484</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0645768</v>
+        <v>0.0623706</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.116103</v>
+        <v>0.07609109999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0673493</v>
+        <v>0.0610503</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0652889</v>
+        <v>0.0627808</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.116834</v>
+        <v>0.0764209</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0685772</v>
+        <v>0.0616878</v>
       </c>
       <c r="D68" t="n">
-        <v>0.066203</v>
+        <v>0.0633085</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.118286</v>
+        <v>0.0772079</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0700003</v>
+        <v>0.0622</v>
       </c>
       <c r="D69" t="n">
-        <v>0.06719120000000001</v>
+        <v>0.0637944</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.119761</v>
+        <v>0.07738490000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0711943</v>
+        <v>0.06287280000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>0.06829590000000001</v>
+        <v>0.06429799999999999</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.120246</v>
+        <v>0.0779316</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0721875</v>
+        <v>0.0634724</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0693955</v>
+        <v>0.0649559</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.121248</v>
+        <v>0.0781404</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0737521</v>
+        <v>0.06432400000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0706045</v>
+        <v>0.06585679999999999</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.12209</v>
+        <v>0.0783387</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0754952</v>
+        <v>0.06540899999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0722395</v>
+        <v>0.06693780000000001</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.121224</v>
+        <v>0.07890320000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0772707</v>
+        <v>0.0670523</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0737014</v>
+        <v>0.06833649999999999</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.123051</v>
+        <v>0.0791536</v>
       </c>
       <c r="C75" t="n">
-        <v>0.079237</v>
+        <v>0.06889670000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.07577680000000001</v>
+        <v>0.0702185</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.12328</v>
+        <v>0.0799627</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0813808</v>
+        <v>0.0711569</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0779683</v>
+        <v>0.07259259999999999</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.123791</v>
+        <v>0.0812401</v>
       </c>
       <c r="C77" t="n">
-        <v>0.08428919999999999</v>
+        <v>0.074006</v>
       </c>
       <c r="D77" t="n">
-        <v>0.08101410000000001</v>
+        <v>0.0755174</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.124695</v>
+        <v>0.08313719999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0883555</v>
+        <v>0.0780672</v>
       </c>
       <c r="D78" t="n">
-        <v>0.085283</v>
+        <v>0.0797812</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.12616</v>
+        <v>0.08532480000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0950194</v>
+        <v>0.0842292</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0917017</v>
+        <v>0.08624950000000001</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.129306</v>
+        <v>0.08931600000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0996393</v>
+        <v>0.103479</v>
       </c>
       <c r="D80" t="n">
-        <v>0.103685</v>
+        <v>0.108779</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.178485</v>
+        <v>0.173467</v>
       </c>
       <c r="C81" t="n">
-        <v>0.10654</v>
+        <v>0.11073</v>
       </c>
       <c r="D81" t="n">
-        <v>0.106178</v>
+        <v>0.111174</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.175812</v>
+        <v>0.177918</v>
       </c>
       <c r="C82" t="n">
-        <v>0.126727</v>
+        <v>0.115997</v>
       </c>
       <c r="D82" t="n">
-        <v>0.115897</v>
+        <v>0.113594</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.179577</v>
+        <v>0.17709</v>
       </c>
       <c r="C83" t="n">
-        <v>0.106213</v>
+        <v>0.102225</v>
       </c>
       <c r="D83" t="n">
-        <v>0.105129</v>
+        <v>0.100276</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.170231</v>
+        <v>0.16555</v>
       </c>
       <c r="C84" t="n">
-        <v>0.131779</v>
+        <v>0.108269</v>
       </c>
       <c r="D84" t="n">
-        <v>0.122266</v>
+        <v>0.108936</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.181303</v>
+        <v>0.167181</v>
       </c>
       <c r="C85" t="n">
-        <v>0.129247</v>
+        <v>0.107384</v>
       </c>
       <c r="D85" t="n">
-        <v>0.125589</v>
+        <v>0.107768</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.182577</v>
+        <v>0.166336</v>
       </c>
       <c r="C86" t="n">
-        <v>0.140005</v>
+        <v>0.122793</v>
       </c>
       <c r="D86" t="n">
-        <v>0.131758</v>
+        <v>0.122458</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.18738</v>
+        <v>0.177473</v>
       </c>
       <c r="C87" t="n">
-        <v>0.133801</v>
+        <v>0.123663</v>
       </c>
       <c r="D87" t="n">
-        <v>0.12878</v>
+        <v>0.123652</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.184103</v>
+        <v>0.179304</v>
       </c>
       <c r="C88" t="n">
-        <v>0.145524</v>
+        <v>0.12833</v>
       </c>
       <c r="D88" t="n">
-        <v>0.142443</v>
+        <v>0.126186</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.188077</v>
+        <v>0.181279</v>
       </c>
       <c r="C89" t="n">
-        <v>0.130875</v>
+        <v>0.128956</v>
       </c>
       <c r="D89" t="n">
-        <v>0.124514</v>
+        <v>0.128464</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.177547</v>
+        <v>0.180202</v>
       </c>
       <c r="C90" t="n">
-        <v>0.146619</v>
+        <v>0.132016</v>
       </c>
       <c r="D90" t="n">
-        <v>0.141959</v>
+        <v>0.129696</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.188536</v>
+        <v>0.180348</v>
       </c>
       <c r="C91" t="n">
-        <v>0.155636</v>
+        <v>0.132502</v>
       </c>
       <c r="D91" t="n">
-        <v>0.147781</v>
+        <v>0.131661</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190011</v>
+        <v>0.181653</v>
       </c>
       <c r="C92" t="n">
-        <v>0.158814</v>
+        <v>0.139264</v>
       </c>
       <c r="D92" t="n">
-        <v>0.155752</v>
+        <v>0.135784</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.18933</v>
+        <v>0.1837</v>
       </c>
       <c r="C93" t="n">
-        <v>0.163315</v>
+        <v>0.141089</v>
       </c>
       <c r="D93" t="n">
-        <v>0.1575</v>
+        <v>0.142092</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.19396</v>
+        <v>0.186689</v>
       </c>
       <c r="C94" t="n">
-        <v>0.218673</v>
+        <v>0.211933</v>
       </c>
       <c r="D94" t="n">
-        <v>0.217039</v>
+        <v>0.206625</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.245896</v>
+        <v>0.243233</v>
       </c>
       <c r="C95" t="n">
-        <v>0.216861</v>
+        <v>0.216202</v>
       </c>
       <c r="D95" t="n">
-        <v>0.218798</v>
+        <v>0.219283</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.243688</v>
+        <v>0.243076</v>
       </c>
       <c r="C96" t="n">
-        <v>0.216786</v>
+        <v>0.218743</v>
       </c>
       <c r="D96" t="n">
-        <v>0.220924</v>
+        <v>0.221089</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.243401</v>
+        <v>0.243004</v>
       </c>
       <c r="C97" t="n">
-        <v>0.219312</v>
+        <v>0.219648</v>
       </c>
       <c r="D97" t="n">
-        <v>0.222704</v>
+        <v>0.223073</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.243616</v>
+        <v>0.243399</v>
       </c>
       <c r="C98" t="n">
-        <v>0.222183</v>
+        <v>0.2252</v>
       </c>
       <c r="D98" t="n">
-        <v>0.225132</v>
+        <v>0.225492</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.245636</v>
+        <v>0.245612</v>
       </c>
       <c r="C99" t="n">
-        <v>0.228923</v>
+        <v>0.227895</v>
       </c>
       <c r="D99" t="n">
-        <v>0.226905</v>
+        <v>0.227316</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.245781</v>
+        <v>0.245569</v>
       </c>
       <c r="C100" t="n">
-        <v>0.229473</v>
+        <v>0.229986</v>
       </c>
       <c r="D100" t="n">
-        <v>0.229425</v>
+        <v>0.229489</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.246293</v>
+        <v>0.245696</v>
       </c>
       <c r="C101" t="n">
-        <v>0.231908</v>
+        <v>0.231066</v>
       </c>
       <c r="D101" t="n">
-        <v>0.226228</v>
+        <v>0.231593</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.245805</v>
+        <v>0.246078</v>
       </c>
       <c r="C102" t="n">
-        <v>0.23106</v>
+        <v>0.231474</v>
       </c>
       <c r="D102" t="n">
-        <v>0.227853</v>
+        <v>0.233741</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.244392</v>
+        <v>0.245827</v>
       </c>
       <c r="C103" t="n">
-        <v>0.237151</v>
+        <v>0.233737</v>
       </c>
       <c r="D103" t="n">
-        <v>0.237443</v>
+        <v>0.2376</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.247029</v>
+        <v>0.246583</v>
       </c>
       <c r="C104" t="n">
-        <v>0.237649</v>
+        <v>0.236434</v>
       </c>
       <c r="D104" t="n">
-        <v>0.240095</v>
+        <v>0.239569</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.24753</v>
+        <v>0.244985</v>
       </c>
       <c r="C105" t="n">
-        <v>0.242803</v>
+        <v>0.239403</v>
       </c>
       <c r="D105" t="n">
-        <v>0.238491</v>
+        <v>0.243653</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.248635</v>
+        <v>0.24641</v>
       </c>
       <c r="C106" t="n">
-        <v>0.246731</v>
+        <v>0.243506</v>
       </c>
       <c r="D106" t="n">
-        <v>0.247248</v>
+        <v>0.246898</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.250036</v>
+        <v>0.247722</v>
       </c>
       <c r="C107" t="n">
-        <v>0.247528</v>
+        <v>0.248852</v>
       </c>
       <c r="D107" t="n">
-        <v>0.247043</v>
+        <v>0.251883</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.252875</v>
+        <v>0.250533</v>
       </c>
       <c r="C108" t="n">
-        <v>0.269284</v>
+        <v>0.269623</v>
       </c>
       <c r="D108" t="n">
-        <v>0.270909</v>
+        <v>0.271073</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.257393</v>
+        <v>0.254883</v>
       </c>
       <c r="C109" t="n">
-        <v>0.268607</v>
+        <v>0.268928</v>
       </c>
       <c r="D109" t="n">
-        <v>0.272648</v>
+        <v>0.272835</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.273127</v>
+        <v>0.283054</v>
       </c>
       <c r="C110" t="n">
-        <v>0.274162</v>
+        <v>0.270993</v>
       </c>
       <c r="D110" t="n">
-        <v>0.273493</v>
+        <v>0.267498</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.272981</v>
+        <v>0.277957</v>
       </c>
       <c r="C111" t="n">
-        <v>0.276309</v>
+        <v>0.27422</v>
       </c>
       <c r="D111" t="n">
-        <v>0.276837</v>
+        <v>0.277545</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.277993</v>
+        <v>0.275354</v>
       </c>
       <c r="C112" t="n">
-        <v>0.278916</v>
+        <v>0.279988</v>
       </c>
       <c r="D112" t="n">
-        <v>0.278161</v>
+        <v>0.279877</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.273899</v>
+        <v>0.273689</v>
       </c>
       <c r="C113" t="n">
-        <v>0.277447</v>
+        <v>0.282349</v>
       </c>
       <c r="D113" t="n">
-        <v>0.277775</v>
+        <v>0.280592</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.274385</v>
+        <v>0.280153</v>
       </c>
       <c r="C114" t="n">
-        <v>0.276577</v>
+        <v>0.276488</v>
       </c>
       <c r="D114" t="n">
-        <v>0.277429</v>
+        <v>0.277036</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.279507</v>
+        <v>0.279022</v>
       </c>
       <c r="C115" t="n">
-        <v>0.275622</v>
+        <v>0.27989</v>
       </c>
       <c r="D115" t="n">
-        <v>0.280303</v>
+        <v>0.280559</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.279008</v>
+        <v>0.283418</v>
       </c>
       <c r="C116" t="n">
-        <v>0.282586</v>
+        <v>0.282476</v>
       </c>
       <c r="D116" t="n">
-        <v>0.283064</v>
+        <v>0.283128</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.281442</v>
+        <v>0.278837</v>
       </c>
       <c r="C117" t="n">
-        <v>0.285851</v>
+        <v>0.282201</v>
       </c>
       <c r="D117" t="n">
-        <v>0.286632</v>
+        <v>0.286867</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.277901</v>
+        <v>0.281735</v>
       </c>
       <c r="C118" t="n">
-        <v>0.289154</v>
+        <v>0.288562</v>
       </c>
       <c r="D118" t="n">
-        <v>0.289895</v>
+        <v>0.290009</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.282054</v>
+        <v>0.282889</v>
       </c>
       <c r="C119" t="n">
-        <v>0.292249</v>
+        <v>0.290477</v>
       </c>
       <c r="D119" t="n">
-        <v>0.294284</v>
+        <v>0.293918</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.280792</v>
+        <v>0.284548</v>
       </c>
       <c r="C120" t="n">
-        <v>0.298079</v>
+        <v>0.296177</v>
       </c>
       <c r="D120" t="n">
-        <v>0.298814</v>
+        <v>0.299353</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.281968</v>
+        <v>0.283633</v>
       </c>
       <c r="C121" t="n">
-        <v>0.303331</v>
+        <v>0.300984</v>
       </c>
       <c r="D121" t="n">
-        <v>0.304655</v>
+        <v>0.304148</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.286081</v>
+        <v>0.287992</v>
       </c>
       <c r="C122" t="n">
-        <v>0.309224</v>
+        <v>0.310173</v>
       </c>
       <c r="D122" t="n">
-        <v>0.31198</v>
+        <v>0.311892</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.29078</v>
+        <v>0.294969</v>
       </c>
       <c r="C123" t="n">
-        <v>0.296898</v>
+        <v>0.294628</v>
       </c>
       <c r="D123" t="n">
-        <v>0.297501</v>
+        <v>0.297799</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.357955</v>
+        <v>0.359977</v>
       </c>
       <c r="C124" t="n">
-        <v>0.297982</v>
+        <v>0.297462</v>
       </c>
       <c r="D124" t="n">
-        <v>0.300014</v>
+        <v>0.300698</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.359211</v>
+        <v>0.35769</v>
       </c>
       <c r="C125" t="n">
-        <v>0.300429</v>
+        <v>0.300034</v>
       </c>
       <c r="D125" t="n">
-        <v>0.30285</v>
+        <v>0.303395</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.35964</v>
+        <v>0.360057</v>
       </c>
       <c r="C126" t="n">
-        <v>0.303756</v>
+        <v>0.303324</v>
       </c>
       <c r="D126" t="n">
-        <v>0.306233</v>
+        <v>0.306281</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.355752</v>
+        <v>0.358986</v>
       </c>
       <c r="C127" t="n">
-        <v>0.308171</v>
+        <v>0.306082</v>
       </c>
       <c r="D127" t="n">
-        <v>0.308946</v>
+        <v>0.309522</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.358674</v>
+        <v>0.361203</v>
       </c>
       <c r="C128" t="n">
-        <v>0.311681</v>
+        <v>0.309209</v>
       </c>
       <c r="D128" t="n">
-        <v>0.312957</v>
+        <v>0.312544</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.359701</v>
+        <v>0.358895</v>
       </c>
       <c r="C129" t="n">
-        <v>0.314991</v>
+        <v>0.312656</v>
       </c>
       <c r="D129" t="n">
-        <v>0.315515</v>
+        <v>0.316034</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.359534</v>
+        <v>0.361607</v>
       </c>
       <c r="C130" t="n">
-        <v>0.319011</v>
+        <v>0.31637</v>
       </c>
       <c r="D130" t="n">
-        <v>0.319138</v>
+        <v>0.319784</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.359945</v>
+        <v>0.357507</v>
       </c>
       <c r="C131" t="n">
-        <v>0.322566</v>
+        <v>0.323119</v>
       </c>
       <c r="D131" t="n">
-        <v>0.322957</v>
+        <v>0.323579</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.358472</v>
+        <v>0.363313</v>
       </c>
       <c r="C132" t="n">
-        <v>0.327673</v>
+        <v>0.328087</v>
       </c>
       <c r="D132" t="n">
-        <v>0.327334</v>
+        <v>0.32788</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.360175</v>
+        <v>0.357724</v>
       </c>
       <c r="C133" t="n">
-        <v>0.331861</v>
+        <v>0.332589</v>
       </c>
       <c r="D133" t="n">
-        <v>0.33288</v>
+        <v>0.333079</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.36138</v>
+        <v>0.360389</v>
       </c>
       <c r="C134" t="n">
-        <v>0.336915</v>
+        <v>0.338387</v>
       </c>
       <c r="D134" t="n">
-        <v>0.33917</v>
+        <v>0.338755</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.362922</v>
+        <v>0.360812</v>
       </c>
       <c r="C135" t="n">
-        <v>0.344148</v>
+        <v>0.345744</v>
       </c>
       <c r="D135" t="n">
-        <v>0.346</v>
+        <v>0.346568</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.364568</v>
+        <v>0.36262</v>
       </c>
       <c r="C136" t="n">
-        <v>0.355205</v>
+        <v>0.355709</v>
       </c>
       <c r="D136" t="n">
-        <v>0.354949</v>
+        <v>0.352833</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.366823</v>
+        <v>0.365392</v>
       </c>
       <c r="C137" t="n">
-        <v>0.318071</v>
+        <v>0.322237</v>
       </c>
       <c r="D137" t="n">
-        <v>0.32281</v>
+        <v>0.322489</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.413014</v>
+        <v>0.41881</v>
       </c>
       <c r="C138" t="n">
-        <v>0.321016</v>
+        <v>0.324427</v>
       </c>
       <c r="D138" t="n">
-        <v>0.324996</v>
+        <v>0.324785</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.411131</v>
+        <v>0.418091</v>
       </c>
       <c r="C139" t="n">
-        <v>0.323037</v>
+        <v>0.326878</v>
       </c>
       <c r="D139" t="n">
-        <v>0.326467</v>
+        <v>0.326632</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.417457</v>
+        <v>0.418144</v>
       </c>
       <c r="C140" t="n">
-        <v>0.328904</v>
+        <v>0.325012</v>
       </c>
       <c r="D140" t="n">
-        <v>0.330214</v>
+        <v>0.329728</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.418054</v>
+        <v>0.416963</v>
       </c>
       <c r="C141" t="n">
-        <v>0.327555</v>
+        <v>0.326863</v>
       </c>
       <c r="D141" t="n">
-        <v>0.332684</v>
+        <v>0.331687</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.417681</v>
+        <v>0.41779</v>
       </c>
       <c r="C142" t="n">
-        <v>0.334017</v>
+        <v>0.333428</v>
       </c>
       <c r="D142" t="n">
-        <v>0.334543</v>
+        <v>0.334269</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.412308</v>
+        <v>0.417478</v>
       </c>
       <c r="C143" t="n">
-        <v>0.33712</v>
+        <v>0.332925</v>
       </c>
       <c r="D143" t="n">
-        <v>0.338142</v>
+        <v>0.337093</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0471455</v>
+        <v>0.0467014</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0501497</v>
+        <v>0.0484737</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0479793</v>
+        <v>0.0806953</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0472219</v>
+        <v>0.0439357</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0503055</v>
+        <v>0.0464545</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0480103</v>
+        <v>0.0837402</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0472882</v>
+        <v>0.0394751</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0505932</v>
+        <v>0.0424077</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0483485</v>
+        <v>0.0944893</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0474211</v>
+        <v>0.0397982</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0508701</v>
+        <v>0.0435425</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0487297</v>
+        <v>0.09957630000000001</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0475032</v>
+        <v>0.0395792</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0512867</v>
+        <v>0.0441342</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0493084</v>
+        <v>0.110117</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0476614</v>
+        <v>0.0413043</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0519481</v>
+        <v>0.0460796</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0499965</v>
+        <v>0.0671689</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0478771</v>
+        <v>0.0403067</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0529094</v>
+        <v>0.0458788</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0516574</v>
+        <v>0.07168190000000001</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0482356</v>
+        <v>0.040209</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0562692</v>
+        <v>0.0445869</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0506286</v>
+        <v>0.0763366</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0508908</v>
+        <v>0.0437069</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0566469</v>
+        <v>0.0446144</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0504919</v>
+        <v>0.08072790000000001</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0509699</v>
+        <v>0.0437598</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0564266</v>
+        <v>0.0449344</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0514574</v>
+        <v>0.0850556</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0519072</v>
+        <v>0.0439088</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0568761</v>
+        <v>0.0455668</v>
       </c>
       <c r="D12" t="n">
-        <v>0.051044</v>
+        <v>0.0916101</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0511994</v>
+        <v>0.0441629</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0573072</v>
+        <v>0.0460109</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0513316</v>
+        <v>0.09615460000000001</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.05132</v>
+        <v>0.0444424</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0576235</v>
+        <v>0.0458871</v>
       </c>
       <c r="D14" t="n">
-        <v>0.052123</v>
+        <v>0.100446</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0514468</v>
+        <v>0.0444814</v>
       </c>
       <c r="C15" t="n">
-        <v>0.057999</v>
+        <v>0.0462627</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0521238</v>
+        <v>0.105418</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0516054</v>
+        <v>0.0445772</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0582935</v>
+        <v>0.0468872</v>
       </c>
       <c r="D16" t="n">
-        <v>0.052325</v>
+        <v>0.111146</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0517083</v>
+        <v>0.0447038</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0586086</v>
+        <v>0.0466594</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0531882</v>
+        <v>0.115076</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0518252</v>
+        <v>0.0448049</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0589384</v>
+        <v>0.0470055</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0529566</v>
+        <v>0.120535</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0519173</v>
+        <v>0.0450686</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0593587</v>
+        <v>0.0473861</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0534366</v>
+        <v>0.12462</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0520441</v>
+        <v>0.0452795</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0598807</v>
+        <v>0.0480551</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0547525</v>
+        <v>0.127581</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0522339</v>
+        <v>0.0456763</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0605264</v>
+        <v>0.0492074</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0560762</v>
+        <v>0.08879430000000001</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0524305</v>
+        <v>0.0456607</v>
       </c>
       <c r="C22" t="n">
-        <v>0.06409090000000001</v>
+        <v>0.0544319</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0595378</v>
+        <v>0.0916375</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0528114</v>
+        <v>0.0459326</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0502454</v>
+        <v>0.0520223</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0497257</v>
+        <v>0.0951118</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0538775</v>
+        <v>0.0506229</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0503689</v>
+        <v>0.0515448</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0500504</v>
+        <v>0.09814440000000001</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0539524</v>
+        <v>0.0502003</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0506144</v>
+        <v>0.0516193</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0503931</v>
+        <v>0.102178</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0540817</v>
+        <v>0.0497101</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0509048</v>
+        <v>0.0519668</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0503925</v>
+        <v>0.105628</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0541179</v>
+        <v>0.0496672</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0511969</v>
+        <v>0.0520194</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0508573</v>
+        <v>0.109596</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0542088</v>
+        <v>0.049705</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0514557</v>
+        <v>0.0517421</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0512753</v>
+        <v>0.113871</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0543603</v>
+        <v>0.0508198</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0517438</v>
+        <v>0.0524329</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0512735</v>
+        <v>0.118071</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.054442</v>
+        <v>0.0500187</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0520254</v>
+        <v>0.0522876</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0518274</v>
+        <v>0.122216</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0546155</v>
+        <v>0.0501564</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0522916</v>
+        <v>0.0525612</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0521619</v>
+        <v>0.126291</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0547355</v>
+        <v>0.0502081</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0526462</v>
+        <v>0.0533356</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0524077</v>
+        <v>0.129693</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0548972</v>
+        <v>0.0506944</v>
       </c>
       <c r="C33" t="n">
-        <v>0.053165</v>
+        <v>0.0542437</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0531333</v>
+        <v>0.133205</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0550585</v>
+        <v>0.0507481</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0543394</v>
+        <v>0.0546106</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0541745</v>
+        <v>0.136723</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0553335</v>
+        <v>0.0506312</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0577599</v>
+        <v>0.0586399</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0580702</v>
+        <v>0.096471</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.055623</v>
+        <v>0.0510693</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0645524</v>
+        <v>0.0659863</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0651108</v>
+        <v>0.0987027</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0569812</v>
+        <v>0.0527314</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0572576</v>
+        <v>0.0553821</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0534512</v>
+        <v>0.100908</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0549479</v>
+        <v>0.0550081</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0554733</v>
+        <v>0.0560938</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0540661</v>
+        <v>0.10382</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0546366</v>
+        <v>0.0579393</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0557892</v>
+        <v>0.0546427</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0534258</v>
+        <v>0.106845</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0547266</v>
+        <v>0.0575228</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0560932</v>
+        <v>0.0549491</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0550175</v>
+        <v>0.110387</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.054799</v>
+        <v>0.0543933</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0564733</v>
+        <v>0.0551273</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0542769</v>
+        <v>0.113875</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0549183</v>
+        <v>0.0551856</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0568349</v>
+        <v>0.0554249</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0549541</v>
+        <v>0.117756</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0550126</v>
+        <v>0.0575977</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0571942</v>
+        <v>0.0549232</v>
       </c>
       <c r="D43" t="n">
-        <v>0.055976</v>
+        <v>0.121565</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.055151</v>
+        <v>0.0578221</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0575089</v>
+        <v>0.0553081</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0558657</v>
+        <v>0.125806</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0552782</v>
+        <v>0.0579657</v>
       </c>
       <c r="C45" t="n">
-        <v>0.057981</v>
+        <v>0.056574</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0562301</v>
+        <v>0.129818</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.055448</v>
+        <v>0.0585204</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0584693</v>
+        <v>0.0560552</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0574461</v>
+        <v>0.133662</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0556344</v>
+        <v>0.0610418</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0597124</v>
+        <v>0.0588595</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0586855</v>
+        <v>0.137873</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0558525</v>
+        <v>0.0574218</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06299299999999999</v>
+        <v>0.0612111</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0615493</v>
+        <v>0.141897</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0561408</v>
+        <v>0.0583966</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0672775</v>
+        <v>0.0660338</v>
       </c>
       <c r="D49" t="n">
-        <v>0.06642240000000001</v>
+        <v>0.145705</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0574958</v>
+        <v>0.0599995</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0727068</v>
+        <v>0.0702554</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0719798</v>
+        <v>0.103009</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0617063</v>
+        <v>0.0650303</v>
       </c>
       <c r="C51" t="n">
-        <v>0.058035</v>
+        <v>0.0592064</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0573839</v>
+        <v>0.106522</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.06686540000000001</v>
+        <v>0.0675085</v>
       </c>
       <c r="C52" t="n">
-        <v>0.057711</v>
+        <v>0.0599787</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0580821</v>
+        <v>0.108659</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.061218</v>
+        <v>0.0606074</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0580223</v>
+        <v>0.0600613</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0577674</v>
+        <v>0.111354</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0612918</v>
+        <v>0.0650029</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0583915</v>
+        <v>0.0572804</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0580978</v>
+        <v>0.115438</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.061343</v>
+        <v>0.0657514</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0588014</v>
+        <v>0.0607906</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0586414</v>
+        <v>0.119288</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0614625</v>
+        <v>0.0641663</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0592267</v>
+        <v>0.0598304</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0589832</v>
+        <v>0.123187</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0615958</v>
+        <v>0.0659969</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0597121</v>
+        <v>0.0622712</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0592422</v>
+        <v>0.127389</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0617374</v>
+        <v>0.0642211</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0602168</v>
+        <v>0.0615186</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0597707</v>
+        <v>0.132124</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0619237</v>
+        <v>0.06328789999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0608643</v>
+        <v>0.0589225</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0604813</v>
+        <v>0.136661</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0621088</v>
+        <v>0.064792</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0622998</v>
+        <v>0.0598915</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0617959</v>
+        <v>0.140382</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0623311</v>
+        <v>0.0659711</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0644816</v>
+        <v>0.0635701</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0650847</v>
+        <v>0.144761</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.06277530000000001</v>
+        <v>0.06491959999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>0.06704690000000001</v>
+        <v>0.0686124</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0668448</v>
+        <v>0.147352</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0637542</v>
+        <v>0.0666756</v>
       </c>
       <c r="C63" t="n">
-        <v>0.07036199999999999</v>
+        <v>0.0677985</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0700543</v>
+        <v>0.151976</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0657383</v>
+        <v>0.06998409999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0748509</v>
+        <v>0.07635309999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>0.07480829999999999</v>
+        <v>0.109779</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.06860280000000001</v>
+        <v>0.0695587</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0816503</v>
+        <v>0.07860540000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0822049</v>
+        <v>0.113453</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.07289569999999999</v>
+        <v>0.0709603</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0605484</v>
+        <v>0.0606753</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0623706</v>
+        <v>0.116915</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.07609109999999999</v>
+        <v>0.08014350000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0610503</v>
+        <v>0.0614401</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0627808</v>
+        <v>0.123889</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0764209</v>
+        <v>0.0789252</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0616878</v>
+        <v>0.0638949</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0633085</v>
+        <v>0.128068</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0772079</v>
+        <v>0.08193159999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0622</v>
+        <v>0.0628795</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0637944</v>
+        <v>0.133343</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.07738490000000001</v>
+        <v>0.0815085</v>
       </c>
       <c r="C70" t="n">
-        <v>0.06287280000000001</v>
+        <v>0.0634241</v>
       </c>
       <c r="D70" t="n">
-        <v>0.06429799999999999</v>
+        <v>0.141146</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0779316</v>
+        <v>0.0797728</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0634724</v>
+        <v>0.0646115</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0649559</v>
+        <v>0.147058</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0781404</v>
+        <v>0.0801746</v>
       </c>
       <c r="C72" t="n">
-        <v>0.06432400000000001</v>
+        <v>0.063875</v>
       </c>
       <c r="D72" t="n">
-        <v>0.06585679999999999</v>
+        <v>0.155621</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0783387</v>
+        <v>0.0807402</v>
       </c>
       <c r="C73" t="n">
-        <v>0.06540899999999999</v>
+        <v>0.06512129999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.06693780000000001</v>
+        <v>0.167789</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.07890320000000001</v>
+        <v>0.0812461</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0670523</v>
+        <v>0.0668081</v>
       </c>
       <c r="D74" t="n">
-        <v>0.06833649999999999</v>
+        <v>0.177449</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0791536</v>
+        <v>0.0798048</v>
       </c>
       <c r="C75" t="n">
-        <v>0.06889670000000001</v>
+        <v>0.06927410000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0702185</v>
+        <v>0.186033</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0799627</v>
+        <v>0.0797861</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0711569</v>
+        <v>0.0711846</v>
       </c>
       <c r="D76" t="n">
-        <v>0.07259259999999999</v>
+        <v>0.193733</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0812401</v>
+        <v>0.08176990000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.074006</v>
+        <v>0.0740335</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0755174</v>
+        <v>0.204928</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.08313719999999999</v>
+        <v>0.08313859999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0780672</v>
+        <v>0.0782104</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0797812</v>
+        <v>0.195956</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.08532480000000001</v>
+        <v>0.0854335</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0842292</v>
+        <v>0.0842398</v>
       </c>
       <c r="D79" t="n">
-        <v>0.08624950000000001</v>
+        <v>0.209067</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.08931600000000001</v>
+        <v>0.09049980000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>0.103479</v>
+        <v>0.110183</v>
       </c>
       <c r="D80" t="n">
-        <v>0.108779</v>
+        <v>0.213113</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.173467</v>
+        <v>0.17429</v>
       </c>
       <c r="C81" t="n">
-        <v>0.11073</v>
+        <v>0.11187</v>
       </c>
       <c r="D81" t="n">
-        <v>0.111174</v>
+        <v>0.22189</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.177918</v>
+        <v>0.178017</v>
       </c>
       <c r="C82" t="n">
-        <v>0.115997</v>
+        <v>0.11439</v>
       </c>
       <c r="D82" t="n">
-        <v>0.113594</v>
+        <v>0.227664</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.17709</v>
+        <v>0.180872</v>
       </c>
       <c r="C83" t="n">
-        <v>0.102225</v>
+        <v>0.118192</v>
       </c>
       <c r="D83" t="n">
-        <v>0.100276</v>
+        <v>0.238622</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.16555</v>
+        <v>0.181419</v>
       </c>
       <c r="C84" t="n">
-        <v>0.108269</v>
+        <v>0.120022</v>
       </c>
       <c r="D84" t="n">
-        <v>0.108936</v>
+        <v>0.248351</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.167181</v>
+        <v>0.182409</v>
       </c>
       <c r="C85" t="n">
-        <v>0.107384</v>
+        <v>0.122989</v>
       </c>
       <c r="D85" t="n">
-        <v>0.107768</v>
+        <v>0.255808</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.166336</v>
+        <v>0.182049</v>
       </c>
       <c r="C86" t="n">
-        <v>0.122793</v>
+        <v>0.125937</v>
       </c>
       <c r="D86" t="n">
-        <v>0.122458</v>
+        <v>0.270093</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.177473</v>
+        <v>0.182489</v>
       </c>
       <c r="C87" t="n">
-        <v>0.123663</v>
+        <v>0.126926</v>
       </c>
       <c r="D87" t="n">
-        <v>0.123652</v>
+        <v>0.274929</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.179304</v>
+        <v>0.183843</v>
       </c>
       <c r="C88" t="n">
-        <v>0.12833</v>
+        <v>0.128107</v>
       </c>
       <c r="D88" t="n">
-        <v>0.126186</v>
+        <v>0.284098</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.181279</v>
+        <v>0.183193</v>
       </c>
       <c r="C89" t="n">
-        <v>0.128956</v>
+        <v>0.132293</v>
       </c>
       <c r="D89" t="n">
-        <v>0.128464</v>
+        <v>0.299251</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.180202</v>
+        <v>0.184401</v>
       </c>
       <c r="C90" t="n">
-        <v>0.132016</v>
+        <v>0.13444</v>
       </c>
       <c r="D90" t="n">
-        <v>0.129696</v>
+        <v>0.310279</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.180348</v>
+        <v>0.184644</v>
       </c>
       <c r="C91" t="n">
-        <v>0.132502</v>
+        <v>0.135296</v>
       </c>
       <c r="D91" t="n">
-        <v>0.131661</v>
+        <v>0.315303</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.181653</v>
+        <v>0.180018</v>
       </c>
       <c r="C92" t="n">
-        <v>0.139264</v>
+        <v>0.141211</v>
       </c>
       <c r="D92" t="n">
-        <v>0.135784</v>
+        <v>0.29285</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.1837</v>
+        <v>0.186205</v>
       </c>
       <c r="C93" t="n">
-        <v>0.141089</v>
+        <v>0.142729</v>
       </c>
       <c r="D93" t="n">
-        <v>0.142092</v>
+        <v>0.301889</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.186689</v>
+        <v>0.188989</v>
       </c>
       <c r="C94" t="n">
-        <v>0.211933</v>
+        <v>0.215199</v>
       </c>
       <c r="D94" t="n">
-        <v>0.206625</v>
+        <v>0.308871</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.243233</v>
+        <v>0.245682</v>
       </c>
       <c r="C95" t="n">
-        <v>0.216202</v>
+        <v>0.220726</v>
       </c>
       <c r="D95" t="n">
-        <v>0.219283</v>
+        <v>0.316782</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.243076</v>
+        <v>0.245948</v>
       </c>
       <c r="C96" t="n">
-        <v>0.218743</v>
+        <v>0.219614</v>
       </c>
       <c r="D96" t="n">
-        <v>0.221089</v>
+        <v>0.326013</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.243004</v>
+        <v>0.244359</v>
       </c>
       <c r="C97" t="n">
-        <v>0.219648</v>
+        <v>0.22145</v>
       </c>
       <c r="D97" t="n">
-        <v>0.223073</v>
+        <v>0.332103</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.243399</v>
+        <v>0.246265</v>
       </c>
       <c r="C98" t="n">
-        <v>0.2252</v>
+        <v>0.226632</v>
       </c>
       <c r="D98" t="n">
-        <v>0.225492</v>
+        <v>0.341865</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.245612</v>
+        <v>0.246272</v>
       </c>
       <c r="C99" t="n">
-        <v>0.227895</v>
+        <v>0.226018</v>
       </c>
       <c r="D99" t="n">
-        <v>0.227316</v>
+        <v>0.348942</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.245569</v>
+        <v>0.246358</v>
       </c>
       <c r="C100" t="n">
-        <v>0.229986</v>
+        <v>0.22734</v>
       </c>
       <c r="D100" t="n">
-        <v>0.229489</v>
+        <v>0.358607</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.245696</v>
+        <v>0.247866</v>
       </c>
       <c r="C101" t="n">
-        <v>0.231066</v>
+        <v>0.229519</v>
       </c>
       <c r="D101" t="n">
-        <v>0.231593</v>
+        <v>0.36524</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.246078</v>
+        <v>0.245793</v>
       </c>
       <c r="C102" t="n">
-        <v>0.231474</v>
+        <v>0.2324</v>
       </c>
       <c r="D102" t="n">
-        <v>0.233741</v>
+        <v>0.373579</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.245827</v>
+        <v>0.24712</v>
       </c>
       <c r="C103" t="n">
-        <v>0.233737</v>
+        <v>0.23778</v>
       </c>
       <c r="D103" t="n">
-        <v>0.2376</v>
+        <v>0.383904</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.246583</v>
+        <v>0.246906</v>
       </c>
       <c r="C104" t="n">
-        <v>0.236434</v>
+        <v>0.24075</v>
       </c>
       <c r="D104" t="n">
-        <v>0.239569</v>
+        <v>0.393458</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.244985</v>
+        <v>0.248298</v>
       </c>
       <c r="C105" t="n">
-        <v>0.239403</v>
+        <v>0.245341</v>
       </c>
       <c r="D105" t="n">
-        <v>0.243653</v>
+        <v>0.402587</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.24641</v>
+        <v>0.24917</v>
       </c>
       <c r="C106" t="n">
-        <v>0.243506</v>
+        <v>0.247913</v>
       </c>
       <c r="D106" t="n">
-        <v>0.246898</v>
+        <v>0.413202</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.247722</v>
+        <v>0.251031</v>
       </c>
       <c r="C107" t="n">
-        <v>0.248852</v>
+        <v>0.250839</v>
       </c>
       <c r="D107" t="n">
-        <v>0.251883</v>
+        <v>0.356445</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.250533</v>
+        <v>0.252521</v>
       </c>
       <c r="C108" t="n">
-        <v>0.269623</v>
+        <v>0.271055</v>
       </c>
       <c r="D108" t="n">
-        <v>0.271073</v>
+        <v>0.358009</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.254883</v>
+        <v>0.258218</v>
       </c>
       <c r="C109" t="n">
-        <v>0.268928</v>
+        <v>0.269483</v>
       </c>
       <c r="D109" t="n">
-        <v>0.272835</v>
+        <v>0.367226</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.283054</v>
+        <v>0.281644</v>
       </c>
       <c r="C110" t="n">
-        <v>0.270993</v>
+        <v>0.27531</v>
       </c>
       <c r="D110" t="n">
-        <v>0.267498</v>
+        <v>0.372213</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.277957</v>
+        <v>0.274714</v>
       </c>
       <c r="C111" t="n">
-        <v>0.27422</v>
+        <v>0.27834</v>
       </c>
       <c r="D111" t="n">
-        <v>0.277545</v>
+        <v>0.37941</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.275354</v>
+        <v>0.280331</v>
       </c>
       <c r="C112" t="n">
-        <v>0.279988</v>
+        <v>0.277367</v>
       </c>
       <c r="D112" t="n">
-        <v>0.279877</v>
+        <v>0.390145</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.273689</v>
+        <v>0.280772</v>
       </c>
       <c r="C113" t="n">
-        <v>0.282349</v>
+        <v>0.282748</v>
       </c>
       <c r="D113" t="n">
-        <v>0.280592</v>
+        <v>0.398743</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.280153</v>
+        <v>0.27522</v>
       </c>
       <c r="C114" t="n">
-        <v>0.276488</v>
+        <v>0.278209</v>
       </c>
       <c r="D114" t="n">
-        <v>0.277036</v>
+        <v>0.41146</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.279022</v>
+        <v>0.275288</v>
       </c>
       <c r="C115" t="n">
-        <v>0.27989</v>
+        <v>0.28151</v>
       </c>
       <c r="D115" t="n">
-        <v>0.280559</v>
+        <v>0.421228</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.283418</v>
+        <v>0.281309</v>
       </c>
       <c r="C116" t="n">
-        <v>0.282476</v>
+        <v>0.281305</v>
       </c>
       <c r="D116" t="n">
-        <v>0.283128</v>
+        <v>0.42882</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.278837</v>
+        <v>0.282636</v>
       </c>
       <c r="C117" t="n">
-        <v>0.282201</v>
+        <v>0.287328</v>
       </c>
       <c r="D117" t="n">
-        <v>0.286867</v>
+        <v>0.438115</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.281735</v>
+        <v>0.284051</v>
       </c>
       <c r="C118" t="n">
-        <v>0.288562</v>
+        <v>0.292175</v>
       </c>
       <c r="D118" t="n">
-        <v>0.290009</v>
+        <v>0.445539</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.282889</v>
+        <v>0.277161</v>
       </c>
       <c r="C119" t="n">
-        <v>0.290477</v>
+        <v>0.290723</v>
       </c>
       <c r="D119" t="n">
-        <v>0.293918</v>
+        <v>0.453356</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.284548</v>
+        <v>0.280211</v>
       </c>
       <c r="C120" t="n">
-        <v>0.296177</v>
+        <v>0.299341</v>
       </c>
       <c r="D120" t="n">
-        <v>0.299353</v>
+        <v>0.463204</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.283633</v>
+        <v>0.286309</v>
       </c>
       <c r="C121" t="n">
-        <v>0.300984</v>
+        <v>0.304859</v>
       </c>
       <c r="D121" t="n">
-        <v>0.304148</v>
+        <v>0.386541</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.287992</v>
+        <v>0.291266</v>
       </c>
       <c r="C122" t="n">
-        <v>0.310173</v>
+        <v>0.312817</v>
       </c>
       <c r="D122" t="n">
-        <v>0.311892</v>
+        <v>0.396868</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.294969</v>
+        <v>0.294485</v>
       </c>
       <c r="C123" t="n">
-        <v>0.294628</v>
+        <v>0.298364</v>
       </c>
       <c r="D123" t="n">
-        <v>0.297799</v>
+        <v>0.395097</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.359977</v>
+        <v>0.36189</v>
       </c>
       <c r="C124" t="n">
-        <v>0.297462</v>
+        <v>0.300975</v>
       </c>
       <c r="D124" t="n">
-        <v>0.300698</v>
+        <v>0.404151</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.35769</v>
+        <v>0.359278</v>
       </c>
       <c r="C125" t="n">
-        <v>0.300034</v>
+        <v>0.303935</v>
       </c>
       <c r="D125" t="n">
-        <v>0.303395</v>
+        <v>0.406289</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.360057</v>
+        <v>0.35897</v>
       </c>
       <c r="C126" t="n">
-        <v>0.303324</v>
+        <v>0.306934</v>
       </c>
       <c r="D126" t="n">
-        <v>0.306281</v>
+        <v>0.424396</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.358986</v>
+        <v>0.353069</v>
       </c>
       <c r="C127" t="n">
-        <v>0.306082</v>
+        <v>0.305642</v>
       </c>
       <c r="D127" t="n">
-        <v>0.309522</v>
+        <v>0.427335</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.361203</v>
+        <v>0.361719</v>
       </c>
       <c r="C128" t="n">
-        <v>0.309209</v>
+        <v>0.312742</v>
       </c>
       <c r="D128" t="n">
-        <v>0.312544</v>
+        <v>0.439368</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.358895</v>
+        <v>0.362551</v>
       </c>
       <c r="C129" t="n">
-        <v>0.312656</v>
+        <v>0.31268</v>
       </c>
       <c r="D129" t="n">
-        <v>0.316034</v>
+        <v>0.445889</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.361607</v>
+        <v>0.353745</v>
       </c>
       <c r="C130" t="n">
-        <v>0.31637</v>
+        <v>0.315456</v>
       </c>
       <c r="D130" t="n">
-        <v>0.319784</v>
+        <v>0.456183</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.357507</v>
+        <v>0.362509</v>
       </c>
       <c r="C131" t="n">
-        <v>0.323119</v>
+        <v>0.324534</v>
       </c>
       <c r="D131" t="n">
-        <v>0.323579</v>
+        <v>0.462104</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.363313</v>
+        <v>0.361713</v>
       </c>
       <c r="C132" t="n">
-        <v>0.328087</v>
+        <v>0.324114</v>
       </c>
       <c r="D132" t="n">
-        <v>0.32788</v>
+        <v>0.473362</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.357724</v>
+        <v>0.35357</v>
       </c>
       <c r="C133" t="n">
-        <v>0.332589</v>
+        <v>0.329223</v>
       </c>
       <c r="D133" t="n">
-        <v>0.333079</v>
+        <v>0.479742</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.360389</v>
+        <v>0.361169</v>
       </c>
       <c r="C134" t="n">
-        <v>0.338387</v>
+        <v>0.339677</v>
       </c>
       <c r="D134" t="n">
-        <v>0.338755</v>
+        <v>0.492186</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.360812</v>
+        <v>0.363375</v>
       </c>
       <c r="C135" t="n">
-        <v>0.345744</v>
+        <v>0.347528</v>
       </c>
       <c r="D135" t="n">
-        <v>0.346568</v>
+        <v>0.406306</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.36262</v>
+        <v>0.365324</v>
       </c>
       <c r="C136" t="n">
-        <v>0.355709</v>
+        <v>0.356735</v>
       </c>
       <c r="D136" t="n">
-        <v>0.352833</v>
+        <v>0.409703</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.365392</v>
+        <v>0.367273</v>
       </c>
       <c r="C137" t="n">
-        <v>0.322237</v>
+        <v>0.323513</v>
       </c>
       <c r="D137" t="n">
-        <v>0.322489</v>
+        <v>0.41914</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.41881</v>
+        <v>0.420098</v>
       </c>
       <c r="C138" t="n">
-        <v>0.324427</v>
+        <v>0.326273</v>
       </c>
       <c r="D138" t="n">
-        <v>0.324785</v>
+        <v>0.420121</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.418091</v>
+        <v>0.413746</v>
       </c>
       <c r="C139" t="n">
-        <v>0.326878</v>
+        <v>0.328356</v>
       </c>
       <c r="D139" t="n">
-        <v>0.326632</v>
+        <v>0.424641</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.418144</v>
+        <v>0.419511</v>
       </c>
       <c r="C140" t="n">
-        <v>0.325012</v>
+        <v>0.32606</v>
       </c>
       <c r="D140" t="n">
-        <v>0.329728</v>
+        <v>0.439701</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.416963</v>
+        <v>0.41954</v>
       </c>
       <c r="C141" t="n">
-        <v>0.326863</v>
+        <v>0.333029</v>
       </c>
       <c r="D141" t="n">
-        <v>0.331687</v>
+        <v>0.445638</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.41779</v>
+        <v>0.420109</v>
       </c>
       <c r="C142" t="n">
-        <v>0.333428</v>
+        <v>0.336202</v>
       </c>
       <c r="D142" t="n">
-        <v>0.334269</v>
+        <v>0.451404</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.417478</v>
+        <v>0.413331</v>
       </c>
       <c r="C143" t="n">
-        <v>0.332925</v>
+        <v>0.338377</v>
       </c>
       <c r="D143" t="n">
-        <v>0.337093</v>
+        <v>0.463688</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -552,430 +552,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.019845</v>
+                  <v>0.0196861</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0198904</v>
+                  <v>0.0197442</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0199411</v>
+                  <v>0.0197441</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0199892</v>
+                  <v>0.0197505</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0201312</v>
+                  <v>0.0199072</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0202981</v>
+                  <v>0.020167</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0205168</v>
+                  <v>0.0201829</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0208663</v>
+                  <v>0.0205995</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0194247</v>
+                  <v>0.0193044</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0196249</v>
+                  <v>0.0194655</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0198597</v>
+                  <v>0.0196123</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.019879</v>
+                  <v>0.0198252</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0201309</v>
+                  <v>0.0198606</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0201944</v>
+                  <v>0.0200329</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0204396</v>
+                  <v>0.0200361</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0204292</v>
+                  <v>0.020201</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0206016</v>
+                  <v>0.0201688</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0208694</v>
+                  <v>0.0204639</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0208716</v>
+                  <v>0.020687</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.021266</v>
+                  <v>0.0209861</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0221654</v>
+                  <v>0.0214982</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0254766</v>
+                  <v>0.0232463</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0204662</v>
+                  <v>0.0203659</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0205747</v>
+                  <v>0.0204979</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0207285</v>
+                  <v>0.0206548</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0208946</v>
+                  <v>0.0208464</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0211401</v>
+                  <v>0.0210504</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0213119</v>
+                  <v>0.0212226</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0214143</v>
+                  <v>0.0216188</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0217806</v>
+                  <v>0.0218555</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0218731</v>
+                  <v>0.0220454</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0220813</v>
+                  <v>0.0221091</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.022994</v>
+                  <v>0.0229123</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0248609</v>
+                  <v>0.023554</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0303561</v>
+                  <v>0.025525</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0334795</v>
+                  <v>0.0295991</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0213853</v>
+                  <v>0.0226652</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0215081</v>
+                  <v>0.0226726</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0216916</v>
+                  <v>0.0230688</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0218279</v>
+                  <v>0.0220955</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0219942</v>
+                  <v>0.0221313</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0223725</v>
+                  <v>0.0224242</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0226982</v>
+                  <v>0.0226252</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0230858</v>
+                  <v>0.0229498</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0235639</v>
+                  <v>0.0233683</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0246222</v>
+                  <v>0.024254</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0261523</v>
+                  <v>0.0251133</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.028148</v>
+                  <v>0.0266522</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0310283</v>
+                  <v>0.029904</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0349552</v>
+                  <v>0.0329878</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0411047</v>
+                  <v>0.0389153</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0235334</v>
+                  <v>0.0231873</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0233996</v>
+                  <v>0.0233782</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0240147</v>
+                  <v>0.0234553</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0237518</v>
+                  <v>0.0236761</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0243179</v>
+                  <v>0.0239042</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0246823</v>
+                  <v>0.0242977</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0250545</v>
+                  <v>0.0246093</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0256238</v>
+                  <v>0.0252684</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0266776</v>
+                  <v>0.0261573</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0281548</v>
+                  <v>0.027529</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0303362</v>
+                  <v>0.0293145</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0330569</v>
+                  <v>0.0323043</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0370665</v>
+                  <v>0.0357062</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0420454</v>
+                  <v>0.0407992</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0292569</v>
+                  <v>0.0291067</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0293821</v>
+                  <v>0.0292957</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0294515</v>
+                  <v>0.0294658</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0297582</v>
+                  <v>0.0296458</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0298101</v>
+                  <v>0.0298446</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0302477</v>
+                  <v>0.0303077</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0307674</v>
+                  <v>0.0305738</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0314948</v>
+                  <v>0.0311089</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0322669</v>
+                  <v>0.031958</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0336498</v>
+                  <v>0.0331584</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0353674</v>
+                  <v>0.0348142</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0379218</v>
+                  <v>0.0371248</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0413547</v>
+                  <v>0.0406293</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.045947</v>
+                  <v>0.0455093</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0557759</v>
+                  <v>0.054876</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0559223</v>
+                  <v>0.0551749</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0561782</v>
+                  <v>0.0552561</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0562248</v>
+                  <v>0.0555251</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0564335</v>
+                  <v>0.0557353</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0568433</v>
+                  <v>0.0559444</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0571164</v>
+                  <v>0.056275</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0573685</v>
+                  <v>0.0565668</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0579423</v>
+                  <v>0.0570285</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0585424</v>
+                  <v>0.0577995</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0597217</v>
+                  <v>0.0587407</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0613516</v>
+                  <v>0.0605897</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0637716</v>
+                  <v>0.0631306</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0674956</v>
+                  <v>0.06695570000000001</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0857108</v>
+                  <v>0.09221509999999999</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.085729</v>
+                  <v>0.0858753</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.08582099999999999</v>
+                  <v>0.08594309999999999</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.085891</v>
+                  <v>0.0860457</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.08591310000000001</v>
+                  <v>0.0861672</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0952533</v>
+                  <v>0.0863088</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0900392</v>
+                  <v>0.0865691</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0865544</v>
+                  <v>0.0868321</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.08702120000000001</v>
+                  <v>0.08713460000000001</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.08758929999999999</v>
+                  <v>0.08769159999999999</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0884514</v>
+                  <v>0.0958198</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.08982080000000001</v>
+                  <v>0.0898485</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0916886</v>
+                  <v>0.095514</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0949089</v>
+                  <v>0.09515</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.09997010000000001</v>
+                  <v>0.100163</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.107963</v>
+                  <v>0.1074</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.108243</v>
+                  <v>0.10739</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.108225</v>
+                  <v>0.107504</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.10822</v>
+                  <v>0.107377</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.108618</v>
+                  <v>0.114714</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.108608</v>
+                  <v>0.108009</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.109047</v>
+                  <v>0.108717</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.109454</v>
+                  <v>0.109426</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.110007</v>
+                  <v>0.110397</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.110855</v>
+                  <v>0.111361</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.112081</v>
+                  <v>0.112842</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.113914</v>
+                  <v>0.114762</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.116949</v>
+                  <v>0.117867</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.121459</v>
+                  <v>0.124715</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.134045</v>
+                  <v>0.139793</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.141735</v>
+                  <v>0.140249</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.14386</v>
+                  <v>0.139831</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.141993</v>
+                  <v>0.139692</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.141564</v>
+                  <v>0.139658</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.141767</v>
+                  <v>0.139443</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.142252</v>
+                  <v>0.139582</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.142466</v>
+                  <v>0.139867</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.143005</v>
+                  <v>0.14053</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.143627</v>
+                  <v>0.141002</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.144639</v>
+                  <v>0.142003</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.146121</v>
+                  <v>0.143615</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.148787</v>
+                  <v>0.145983</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.153145</v>
+                  <v>0.150084</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.160222</v>
+                  <v>0.158033</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.15805</v>
+                  <v>0.157812</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.158093</v>
+                  <v>0.157958</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.158066</v>
+                  <v>0.158179</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.158317</v>
+                  <v>0.158157</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.158434</v>
+                  <v>0.158476</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1446,430 +1446,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0207816</v>
+                  <v>0.021348</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0208667</v>
+                  <v>0.0214877</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0208241</v>
+                  <v>0.0216247</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0207476</v>
+                  <v>0.0218795</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.020652</v>
+                  <v>0.0221566</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0209277</v>
+                  <v>0.0227802</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0208354</v>
+                  <v>0.0236896</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.021057</v>
+                  <v>0.0202692</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0207722</v>
+                  <v>0.0207092</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0211993</v>
+                  <v>0.0210303</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.021061</v>
+                  <v>0.0213025</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0212452</v>
+                  <v>0.0213527</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0215641</v>
+                  <v>0.0218472</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0219941</v>
+                  <v>0.0222591</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0221573</v>
+                  <v>0.0226628</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.022048</v>
+                  <v>0.022977</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.022091</v>
+                  <v>0.0233228</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0223514</v>
+                  <v>0.0238671</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0224619</v>
+                  <v>0.0246036</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0226031</v>
+                  <v>0.0252305</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0229443</v>
+                  <v>0.0277472</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0236086</v>
+                  <v>0.0217618</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0218909</v>
+                  <v>0.0219587</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0220636</v>
+                  <v>0.0222026</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0222406</v>
+                  <v>0.0224898</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0225907</v>
+                  <v>0.0228074</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.022887</v>
+                  <v>0.0232103</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0230842</v>
+                  <v>0.0236661</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0234928</v>
+                  <v>0.0240376</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0237357</v>
+                  <v>0.0245248</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0239547</v>
+                  <v>0.0252023</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0241213</v>
+                  <v>0.0257564</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0246092</v>
+                  <v>0.0270565</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0256069</v>
+                  <v>0.0287934</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0258742</v>
+                  <v>0.0324096</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0314078</v>
+                  <v>0.0236684</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0231422</v>
+                  <v>0.0241302</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0232697</v>
+                  <v>0.0244332</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0236008</v>
+                  <v>0.0245736</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0239637</v>
+                  <v>0.0239295</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0241731</v>
+                  <v>0.0243207</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.024655</v>
+                  <v>0.0252591</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0250199</v>
+                  <v>0.0256591</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0254471</v>
+                  <v>0.0259074</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0257887</v>
+                  <v>0.0266036</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.026411</v>
+                  <v>0.027689</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0273266</v>
+                  <v>0.0291986</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0288305</v>
+                  <v>0.0317988</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0310001</v>
+                  <v>0.0360721</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0354398</v>
+                  <v>0.023394</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0403807</v>
+                  <v>0.0236044</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0246173</v>
+                  <v>0.023867</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0249205</v>
+                  <v>0.0241515</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0252809</v>
+                  <v>0.0244875</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0256266</v>
+                  <v>0.0249477</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0260148</v>
+                  <v>0.0253774</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0264257</v>
+                  <v>0.0259302</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0269137</v>
+                  <v>0.0265094</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0274746</v>
+                  <v>0.0274929</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0282353</v>
+                  <v>0.0286629</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0295079</v>
+                  <v>0.0303873</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0309257</v>
+                  <v>0.0330881</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0332921</v>
+                  <v>0.0367975</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0365299</v>
+                  <v>0.0428056</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0415142</v>
+                  <v>0.0248565</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0269617</v>
+                  <v>0.0254945</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0268134</v>
+                  <v>0.025829</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0271091</v>
+                  <v>0.0266013</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.028098</v>
+                  <v>0.0265404</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.028241</v>
+                  <v>0.0270211</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0283238</v>
+                  <v>0.027483</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0289933</v>
+                  <v>0.0281629</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0297943</v>
+                  <v>0.0291473</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0305728</v>
+                  <v>0.0302343</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0318959</v>
+                  <v>0.0321709</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0330477</v>
+                  <v>0.0346453</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0355949</v>
+                  <v>0.038211</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0380312</v>
+                  <v>0.0437751</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0422199</v>
+                  <v>0.0369618</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0358291</v>
+                  <v>0.0377666</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0366934</v>
+                  <v>0.0385693</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0371542</v>
+                  <v>0.0393414</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0385504</v>
+                  <v>0.0400166</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0397275</v>
+                  <v>0.0406419</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0406958</v>
+                  <v>0.0415556</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0420235</v>
+                  <v>0.0424017</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.043628</v>
+                  <v>0.0449697</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0448497</v>
+                  <v>0.0442997</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0467952</v>
+                  <v>0.0456659</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0485398</v>
+                  <v>0.047738</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.050625</v>
+                  <v>0.0505484</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0531723</v>
+                  <v>0.0549595</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0575467</v>
+                  <v>0.0715803</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0690796</v>
+                  <v>0.0719887</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0695586</v>
+                  <v>0.0723747</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.07006270000000001</v>
+                  <v>0.0728399</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0706492</v>
+                  <v>0.07350520000000001</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0712165</v>
+                  <v>0.0740489</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0719084</v>
+                  <v>0.0746351</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0726926</v>
+                  <v>0.0754398</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.073481</v>
+                  <v>0.07621650000000001</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0744592</v>
+                  <v>0.0796057</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0757119</v>
+                  <v>0.07860830000000001</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0771091</v>
+                  <v>0.0804361</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0789149</v>
+                  <v>0.0829439</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.08129740000000001</v>
+                  <v>0.08686770000000001</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.085034</v>
+                  <v>0.0889514</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0910459</v>
+                  <v>0.089729</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.08287219999999999</v>
+                  <v>0.0904097</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.08375249999999999</v>
+                  <v>0.0913191</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0846664</v>
+                  <v>0.0921503</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0856579</v>
+                  <v>0.0931935</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.08681120000000001</v>
+                  <v>0.09714059999999999</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.08786919999999999</v>
+                  <v>0.09524050000000001</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0892593</v>
+                  <v>0.096618</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0907998</v>
+                  <v>0.0979674</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0923614</v>
+                  <v>0.0996447</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0942355</v>
+                  <v>0.101745</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.096293</v>
+                  <v>0.104375</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0990901</v>
+                  <v>0.108312</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.102927</v>
+                  <v>0.114594</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.108871</v>
+                  <v>0.106984</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0958808</v>
+                  <v>0.119349</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.09704169999999999</v>
+                  <v>0.109142</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0989488</v>
+                  <v>0.110214</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.100162</v>
+                  <v>0.111475</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.101129</v>
+                  <v>0.112737</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.102743</v>
+                  <v>0.11413</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.10443</v>
+                  <v>0.115719</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.106431</v>
+                  <v>0.117336</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.108216</v>
+                  <v>0.119263</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.110255</v>
+                  <v>0.121651</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.112815</v>
+                  <v>0.124577</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.11575</v>
+                  <v>0.128814</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.119701</v>
+                  <v>0.13534</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.126693</v>
+                  <v>0.118414</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.108481</v>
+                  <v>0.119444</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.109886</v>
+                  <v>0.120531</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.111216</v>
+                  <v>0.121662</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.112687</v>
+                  <v>0.122894</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.114154</v>
+                  <v>0.12405</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.115713</v>
+                  <v>0.125504</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1880,7 +1880,7 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_map</v>
+            <v>boost::unordered_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -2340,430 +2340,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0197621</v>
+                  <v>0.0336857</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0199124</v>
+                  <v>0.0394849</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0199636</v>
+                  <v>0.0423094</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0200411</v>
+                  <v>0.0461472</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0201853</v>
+                  <v>0.0507523</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0205493</v>
+                  <v>0.030305</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0212255</v>
+                  <v>0.0319421</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0196114</v>
+                  <v>0.0344693</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0196542</v>
+                  <v>0.0368055</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0197311</v>
+                  <v>0.0393418</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0200198</v>
+                  <v>0.0427875</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0202983</v>
+                  <v>0.0475742</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0206514</v>
+                  <v>0.0488059</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0208261</v>
+                  <v>0.0525665</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0213814</v>
+                  <v>0.0568101</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.021683</v>
+                  <v>0.0604767</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0218647</v>
+                  <v>0.0639252</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0217385</v>
+                  <v>0.0675722</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0221793</v>
+                  <v>0.0692373</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0234999</v>
+                  <v>0.0444481</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.025596</v>
+                  <v>0.0475408</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0208572</v>
+                  <v>0.0489493</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0211474</v>
+                  <v>0.0508013</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0213952</v>
+                  <v>0.0535126</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0216285</v>
+                  <v>0.0556632</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0219129</v>
+                  <v>0.0589148</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0221909</v>
+                  <v>0.0614351</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0226314</v>
+                  <v>0.06435200000000001</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.02287</v>
+                  <v>0.0664998</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0232938</v>
+                  <v>0.07017470000000001</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0236459</v>
+                  <v>0.0725022</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0243776</v>
+                  <v>0.0762954</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0256094</v>
+                  <v>0.0772482</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0280099</v>
+                  <v>0.0518274</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0318825</v>
+                  <v>0.0539981</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0222322</v>
+                  <v>0.0569381</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0224761</v>
+                  <v>0.0590617</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0226406</v>
+                  <v>0.0616864</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0229219</v>
+                  <v>0.0607154</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0232372</v>
+                  <v>0.06472219999999999</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0235604</v>
+                  <v>0.0669053</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0239217</v>
+                  <v>0.06983350000000001</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0243675</v>
+                  <v>0.0728838</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0249258</v>
+                  <v>0.0752324</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0256372</v>
+                  <v>0.07806680000000001</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0267547</v>
+                  <v>0.0802983</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0285161</v>
+                  <v>0.0828279</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0309254</v>
+                  <v>0.0846045</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.03463</v>
+                  <v>0.0575865</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0230982</v>
+                  <v>0.0593047</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0233375</v>
+                  <v>0.0611502</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.023593</v>
+                  <v>0.0636737</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0238201</v>
+                  <v>0.0657292</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0241227</v>
+                  <v>0.06833930000000001</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0244723</v>
+                  <v>0.0707661</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.024922</v>
+                  <v>0.073903</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0253022</v>
+                  <v>0.0761425</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0259853</v>
+                  <v>0.078791</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0267356</v>
+                  <v>0.08170040000000001</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0278598</v>
+                  <v>0.0839515</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0296228</v>
+                  <v>0.0861381</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0320613</v>
+                  <v>0.088853</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0356651</v>
+                  <v>0.0638098</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0410615</v>
+                  <v>0.06650739999999999</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0247871</v>
+                  <v>0.0691383</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0249031</v>
+                  <v>0.0715653</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0256338</v>
+                  <v>0.0745817</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0258881</v>
+                  <v>0.07851610000000001</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0259173</v>
+                  <v>0.0814839</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0262823</v>
+                  <v>0.0860113</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0271444</v>
+                  <v>0.09014419999999999</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0274852</v>
+                  <v>0.0948281</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0283927</v>
+                  <v>0.0981105</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0298077</v>
+                  <v>0.101526</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0311471</v>
+                  <v>0.107487</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0336077</v>
+                  <v>0.112807</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0368424</v>
+                  <v>0.0965601</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0414916</v>
+                  <v>0.101097</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0365337</v>
+                  <v>0.106082</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.037033</v>
+                  <v>0.110975</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0385276</v>
+                  <v>0.114995</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0385709</v>
+                  <v>0.120023</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0392564</v>
+                  <v>0.125893</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0399463</v>
+                  <v>0.130762</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.040702</v>
+                  <v>0.136855</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.041626</v>
+                  <v>0.142491</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0423938</v>
+                  <v>0.148735</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0433475</v>
+                  <v>0.154806</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0447666</v>
+                  <v>0.160276</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0465736</v>
+                  <v>0.165942</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0493242</v>
+                  <v>0.145194</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0542457</v>
+                  <v>0.148853</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.07123119999999999</v>
+                  <v>0.152457</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.071656</v>
+                  <v>0.156847</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0721349</v>
+                  <v>0.16093</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.07265770000000001</v>
+                  <v>0.165502</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0729856</v>
+                  <v>0.171025</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0736991</v>
+                  <v>0.176145</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0742898</v>
+                  <v>0.181854</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.07498199999999999</v>
+                  <v>0.187152</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.07573630000000001</v>
+                  <v>0.192849</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0766086</v>
+                  <v>0.199082</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.077876</v>
+                  <v>0.205029</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.07924580000000001</v>
+                  <v>0.211115</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.08156239999999999</v>
+                  <v>0.217795</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0852509</v>
+                  <v>0.181761</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.08773590000000001</v>
+                  <v>0.184875</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0884414</v>
+                  <v>0.18853</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0892877</v>
+                  <v>0.193379</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0899992</v>
+                  <v>0.196792</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0907741</v>
+                  <v>0.201399</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0918117</v>
+                  <v>0.206374</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.092913</v>
+                  <v>0.211734</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.09400500000000001</v>
+                  <v>0.218001</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.100748</v>
+                  <v>0.223144</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.09656720000000001</v>
+                  <v>0.229767</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0981248</v>
+                  <v>0.235872</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.100153</v>
+                  <v>0.240776</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.10274</v>
+                  <v>0.247637</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.106587</v>
+                  <v>0.198997</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.112472</v>
+                  <v>0.202385</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.106248</v>
+                  <v>0.205971</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.107515</v>
+                  <v>0.209681</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.108771</v>
+                  <v>0.213857</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.110258</v>
+                  <v>0.218441</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.111363</v>
+                  <v>0.223282</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.112139</v>
+                  <v>0.228864</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.113529</v>
+                  <v>0.234598</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.114912</v>
+                  <v>0.240649</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.116482</v>
+                  <v>0.251617</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.118414</v>
+                  <v>0.252683</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.120533</v>
+                  <v>0.258786</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.123365</v>
+                  <v>0.264415</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.127277</v>
+                  <v>0.20958</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.133589</v>
+                  <v>0.21278</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.119571</v>
+                  <v>0.216352</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.123522</v>
+                  <v>0.219749</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.120321</v>
+                  <v>0.224359</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.121365</v>
+                  <v>0.228913</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.122535</v>
+                  <v>0.236829</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.123827</v>
+                  <v>0.239299</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.125232</v>
+                  <v>0.2453</v>
                 </pt>
               </numCache>
             </numRef>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0471455</v>
+        <v>0.04506</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0501497</v>
+        <v>0.0489045</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0479793</v>
+        <v>0.0477602</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0472219</v>
+        <v>0.0452383</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0503055</v>
+        <v>0.0491439</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0480103</v>
+        <v>0.0477614</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0472882</v>
+        <v>0.0452285</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0505932</v>
+        <v>0.0488154</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0483485</v>
+        <v>0.0480724</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0474211</v>
+        <v>0.0453292</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0508701</v>
+        <v>0.049145</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0487297</v>
+        <v>0.0484077</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0475032</v>
+        <v>0.0455869</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0512867</v>
+        <v>0.0500205</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0493084</v>
+        <v>0.0489456</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0476614</v>
+        <v>0.0457836</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0519481</v>
+        <v>0.0504551</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0499965</v>
+        <v>0.0499244</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0478771</v>
+        <v>0.0459806</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0529094</v>
+        <v>0.051541</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0516574</v>
+        <v>0.0513893</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0482356</v>
+        <v>0.0461715</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0562692</v>
+        <v>0.0480493</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0506286</v>
+        <v>0.0485241</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0508908</v>
+        <v>0.0460673</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0566469</v>
+        <v>0.0486501</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0504919</v>
+        <v>0.0489021</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0509699</v>
+        <v>0.0462243</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0564266</v>
+        <v>0.0489638</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0514574</v>
+        <v>0.0495629</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0519072</v>
+        <v>0.0462488</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0568761</v>
+        <v>0.0493012</v>
       </c>
       <c r="D12" t="n">
-        <v>0.051044</v>
+        <v>0.0497754</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0511994</v>
+        <v>0.0463201</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0573072</v>
+        <v>0.0496792</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0513316</v>
+        <v>0.0499869</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.05132</v>
+        <v>0.0464129</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0576235</v>
+        <v>0.0499655</v>
       </c>
       <c r="D14" t="n">
-        <v>0.052123</v>
+        <v>0.0502297</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0514468</v>
+        <v>0.0465707</v>
       </c>
       <c r="C15" t="n">
-        <v>0.057999</v>
+        <v>0.0502957</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0521238</v>
+        <v>0.0506976</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0516054</v>
+        <v>0.0466571</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0582935</v>
+        <v>0.0506057</v>
       </c>
       <c r="D16" t="n">
-        <v>0.052325</v>
+        <v>0.0507738</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0517083</v>
+        <v>0.0468147</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0586086</v>
+        <v>0.0508805</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0531882</v>
+        <v>0.051095</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0518252</v>
+        <v>0.0469219</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0589384</v>
+        <v>0.051104</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0529566</v>
+        <v>0.051829</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0519173</v>
+        <v>0.0470306</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0593587</v>
+        <v>0.0514966</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0534366</v>
+        <v>0.0523463</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0520441</v>
+        <v>0.0471568</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0598807</v>
+        <v>0.0520356</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0547525</v>
+        <v>0.052811</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0522339</v>
+        <v>0.0474907</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0605264</v>
+        <v>0.0532146</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0560762</v>
+        <v>0.053406</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0524305</v>
+        <v>0.0478351</v>
       </c>
       <c r="C22" t="n">
-        <v>0.06409090000000001</v>
+        <v>0.0564574</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0595378</v>
+        <v>0.0593146</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0528114</v>
+        <v>0.0482785</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0502454</v>
+        <v>0.0506517</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0497257</v>
+        <v>0.0498081</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0538775</v>
+        <v>0.0494926</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0503689</v>
+        <v>0.0502827</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0500504</v>
+        <v>0.0503365</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0539524</v>
+        <v>0.0495728</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0506144</v>
+        <v>0.0505991</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0503931</v>
+        <v>0.050374</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0540817</v>
+        <v>0.0496742</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0509048</v>
+        <v>0.0509205</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0503925</v>
+        <v>0.0511038</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0541179</v>
+        <v>0.0496875</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0511969</v>
+        <v>0.0512392</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0508573</v>
+        <v>0.0511928</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0542088</v>
+        <v>0.0498242</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0514557</v>
+        <v>0.0515227</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0512753</v>
+        <v>0.0515663</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0543603</v>
+        <v>0.0499509</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0517438</v>
+        <v>0.0518502</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0512735</v>
+        <v>0.0520261</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.054442</v>
+        <v>0.0500553</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0520254</v>
+        <v>0.0521751</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0518274</v>
+        <v>0.0524287</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0546155</v>
+        <v>0.0502239</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0522916</v>
+        <v>0.0525271</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0521619</v>
+        <v>0.0526683</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0547355</v>
+        <v>0.0503471</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0526462</v>
+        <v>0.052896</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0524077</v>
+        <v>0.0531393</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0548972</v>
+        <v>0.0505627</v>
       </c>
       <c r="C33" t="n">
-        <v>0.053165</v>
+        <v>0.0534134</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0531333</v>
+        <v>0.0536393</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0550585</v>
+        <v>0.0506798</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0543394</v>
+        <v>0.0543924</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0541745</v>
+        <v>0.0551428</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0553335</v>
+        <v>0.0509342</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0577599</v>
+        <v>0.0582419</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0580702</v>
+        <v>0.0593794</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.055623</v>
+        <v>0.0511699</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0645524</v>
+        <v>0.0651428</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0651108</v>
+        <v>0.0663483</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0569812</v>
+        <v>0.0527983</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0572576</v>
+        <v>0.0538964</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0534512</v>
+        <v>0.0545968</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0549479</v>
+        <v>0.0576734</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0554733</v>
+        <v>0.0530152</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0540661</v>
+        <v>0.0557321</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0546366</v>
+        <v>0.0575851</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0557892</v>
+        <v>0.0533078</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0534258</v>
+        <v>0.0549739</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0547266</v>
+        <v>0.0576578</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0560932</v>
+        <v>0.0536236</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0550175</v>
+        <v>0.0549443</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.054799</v>
+        <v>0.0577587</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0564733</v>
+        <v>0.0539717</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0542769</v>
+        <v>0.0564753</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0549183</v>
+        <v>0.0578608</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0568349</v>
+        <v>0.0542633</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0549541</v>
+        <v>0.0561386</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0550126</v>
+        <v>0.0579567</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0571942</v>
+        <v>0.0547044</v>
       </c>
       <c r="D43" t="n">
-        <v>0.055976</v>
+        <v>0.0569699</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.055151</v>
+        <v>0.0580514</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0575089</v>
+        <v>0.0550354</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0558657</v>
+        <v>0.05644</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0552782</v>
+        <v>0.058241</v>
       </c>
       <c r="C45" t="n">
-        <v>0.057981</v>
+        <v>0.0553865</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0562301</v>
+        <v>0.0568695</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.055448</v>
+        <v>0.0590474</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0584693</v>
+        <v>0.0576805</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0574461</v>
+        <v>0.0584503</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0556344</v>
+        <v>0.0585416</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0597124</v>
+        <v>0.0569859</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0586855</v>
+        <v>0.0596562</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0558525</v>
+        <v>0.0588382</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06299299999999999</v>
+        <v>0.0599601</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0615493</v>
+        <v>0.0628055</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0561408</v>
+        <v>0.0591537</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0672775</v>
+        <v>0.064205</v>
       </c>
       <c r="D49" t="n">
-        <v>0.06642240000000001</v>
+        <v>0.0667339</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0574958</v>
+        <v>0.0604822</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0727068</v>
+        <v>0.0692849</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0719798</v>
+        <v>0.0716217</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0617063</v>
+        <v>0.0645273</v>
       </c>
       <c r="C51" t="n">
-        <v>0.058035</v>
+        <v>0.0586938</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0573839</v>
+        <v>0.0601014</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.06686540000000001</v>
+        <v>0.06965730000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>0.057711</v>
+        <v>0.056604</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0580821</v>
+        <v>0.0605264</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.061218</v>
+        <v>0.0614877</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0580223</v>
+        <v>0.0569695</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0577674</v>
+        <v>0.0610141</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0612918</v>
+        <v>0.0608618</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0583915</v>
+        <v>0.0573858</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0580978</v>
+        <v>0.0614286</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.061343</v>
+        <v>0.0610958</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0588014</v>
+        <v>0.0577423</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0586414</v>
+        <v>0.0618847</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0614625</v>
+        <v>0.0610473</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0592267</v>
+        <v>0.0608064</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0589832</v>
+        <v>0.0623211</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0615958</v>
+        <v>0.0611677</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0597121</v>
+        <v>0.0586657</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0592422</v>
+        <v>0.06308709999999999</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0617374</v>
+        <v>0.0620194</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0602168</v>
+        <v>0.0592018</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0597707</v>
+        <v>0.0637177</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0619237</v>
+        <v>0.0621901</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0608643</v>
+        <v>0.0598581</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0604813</v>
+        <v>0.0649459</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0621088</v>
+        <v>0.0623498</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0622998</v>
+        <v>0.0612294</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0617959</v>
+        <v>0.0667244</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0623311</v>
+        <v>0.0626057</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0644816</v>
+        <v>0.0633807</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0650847</v>
+        <v>0.06577620000000001</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.06277530000000001</v>
+        <v>0.062371</v>
       </c>
       <c r="C62" t="n">
-        <v>0.06704690000000001</v>
+        <v>0.06588280000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0668448</v>
+        <v>0.06817230000000001</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0637542</v>
+        <v>0.0634561</v>
       </c>
       <c r="C63" t="n">
-        <v>0.07036199999999999</v>
+        <v>0.0690143</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0700543</v>
+        <v>0.071379</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0657383</v>
+        <v>0.0657353</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0748509</v>
+        <v>0.0736914</v>
       </c>
       <c r="D64" t="n">
-        <v>0.07480829999999999</v>
+        <v>0.0758091</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.06860280000000001</v>
+        <v>0.06824239999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0816503</v>
+        <v>0.0827306</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0822049</v>
+        <v>0.082644</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.07289569999999999</v>
+        <v>0.0724209</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0605484</v>
+        <v>0.0631515</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0623706</v>
+        <v>0.062408</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.07609109999999999</v>
+        <v>0.0825811</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0610503</v>
+        <v>0.06373040000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0627808</v>
+        <v>0.0627878</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0764209</v>
+        <v>0.08309610000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0616878</v>
+        <v>0.06460780000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0633085</v>
+        <v>0.0636355</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0772079</v>
+        <v>0.0834303</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0622</v>
+        <v>0.06540609999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0637944</v>
+        <v>0.06431530000000001</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.07738490000000001</v>
+        <v>0.0842977</v>
       </c>
       <c r="C70" t="n">
-        <v>0.06287280000000001</v>
+        <v>0.06642099999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>0.06429799999999999</v>
+        <v>0.06539150000000001</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0779316</v>
+        <v>0.08438909999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0634724</v>
+        <v>0.0672918</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0649559</v>
+        <v>0.066299</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0781404</v>
+        <v>0.0844922</v>
       </c>
       <c r="C72" t="n">
-        <v>0.06432400000000001</v>
+        <v>0.06814580000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>0.06585679999999999</v>
+        <v>0.0671395</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0783387</v>
+        <v>0.0848453</v>
       </c>
       <c r="C73" t="n">
-        <v>0.06540899999999999</v>
+        <v>0.0695532</v>
       </c>
       <c r="D73" t="n">
-        <v>0.06693780000000001</v>
+        <v>0.0686095</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.07890320000000001</v>
+        <v>0.0853582</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0670523</v>
+        <v>0.0712459</v>
       </c>
       <c r="D74" t="n">
-        <v>0.06833649999999999</v>
+        <v>0.0702835</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0791536</v>
+        <v>0.08540449999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>0.06889670000000001</v>
+        <v>0.07303510000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0702185</v>
+        <v>0.0718825</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0799627</v>
+        <v>0.086008</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0711569</v>
+        <v>0.075332</v>
       </c>
       <c r="D76" t="n">
-        <v>0.07259259999999999</v>
+        <v>0.0742278</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0812401</v>
+        <v>0.087461</v>
       </c>
       <c r="C77" t="n">
-        <v>0.074006</v>
+        <v>0.0785595</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0755174</v>
+        <v>0.07698049999999999</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.08313719999999999</v>
+        <v>0.0889904</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0780672</v>
+        <v>0.08259279999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0797812</v>
+        <v>0.08113389999999999</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.08532480000000001</v>
+        <v>0.0909638</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0842292</v>
+        <v>0.0885673</v>
       </c>
       <c r="D79" t="n">
-        <v>0.08624950000000001</v>
+        <v>0.087089</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.08931600000000001</v>
+        <v>0.0940991</v>
       </c>
       <c r="C80" t="n">
-        <v>0.103479</v>
+        <v>0.106876</v>
       </c>
       <c r="D80" t="n">
-        <v>0.108779</v>
+        <v>0.0998622</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.173467</v>
+        <v>0.176477</v>
       </c>
       <c r="C81" t="n">
-        <v>0.11073</v>
+        <v>0.09679</v>
       </c>
       <c r="D81" t="n">
-        <v>0.111174</v>
+        <v>0.102242</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.177918</v>
+        <v>0.164236</v>
       </c>
       <c r="C82" t="n">
-        <v>0.115997</v>
+        <v>0.115839</v>
       </c>
       <c r="D82" t="n">
-        <v>0.113594</v>
+        <v>0.115134</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.17709</v>
+        <v>0.178605</v>
       </c>
       <c r="C83" t="n">
-        <v>0.102225</v>
+        <v>0.118511</v>
       </c>
       <c r="D83" t="n">
-        <v>0.100276</v>
+        <v>0.116361</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.16555</v>
+        <v>0.177895</v>
       </c>
       <c r="C84" t="n">
-        <v>0.108269</v>
+        <v>0.121147</v>
       </c>
       <c r="D84" t="n">
-        <v>0.108936</v>
+        <v>0.121623</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.167181</v>
+        <v>0.180444</v>
       </c>
       <c r="C85" t="n">
-        <v>0.107384</v>
+        <v>0.126995</v>
       </c>
       <c r="D85" t="n">
-        <v>0.107768</v>
+        <v>0.123693</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.166336</v>
+        <v>0.18172</v>
       </c>
       <c r="C86" t="n">
-        <v>0.122793</v>
+        <v>0.129722</v>
       </c>
       <c r="D86" t="n">
-        <v>0.122458</v>
+        <v>0.128408</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.177473</v>
+        <v>0.181241</v>
       </c>
       <c r="C87" t="n">
-        <v>0.123663</v>
+        <v>0.136397</v>
       </c>
       <c r="D87" t="n">
-        <v>0.123652</v>
+        <v>0.13521</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.179304</v>
+        <v>0.183992</v>
       </c>
       <c r="C88" t="n">
-        <v>0.12833</v>
+        <v>0.134244</v>
       </c>
       <c r="D88" t="n">
-        <v>0.126186</v>
+        <v>0.127185</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.181279</v>
+        <v>0.179878</v>
       </c>
       <c r="C89" t="n">
-        <v>0.128956</v>
+        <v>0.134156</v>
       </c>
       <c r="D89" t="n">
-        <v>0.128464</v>
+        <v>0.132095</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.180202</v>
+        <v>0.18019</v>
       </c>
       <c r="C90" t="n">
-        <v>0.132016</v>
+        <v>0.139898</v>
       </c>
       <c r="D90" t="n">
-        <v>0.129696</v>
+        <v>0.138297</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.180348</v>
+        <v>0.182568</v>
       </c>
       <c r="C91" t="n">
-        <v>0.132502</v>
+        <v>0.148369</v>
       </c>
       <c r="D91" t="n">
-        <v>0.131661</v>
+        <v>0.148251</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.181653</v>
+        <v>0.188992</v>
       </c>
       <c r="C92" t="n">
-        <v>0.139264</v>
+        <v>0.15116</v>
       </c>
       <c r="D92" t="n">
-        <v>0.135784</v>
+        <v>0.150637</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.1837</v>
+        <v>0.1856</v>
       </c>
       <c r="C93" t="n">
-        <v>0.141089</v>
+        <v>0.157569</v>
       </c>
       <c r="D93" t="n">
-        <v>0.142092</v>
+        <v>0.157006</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.186689</v>
+        <v>0.193119</v>
       </c>
       <c r="C94" t="n">
-        <v>0.211933</v>
+        <v>0.219072</v>
       </c>
       <c r="D94" t="n">
-        <v>0.206625</v>
+        <v>0.21833</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.243233</v>
+        <v>0.242915</v>
       </c>
       <c r="C95" t="n">
-        <v>0.216202</v>
+        <v>0.217143</v>
       </c>
       <c r="D95" t="n">
-        <v>0.219283</v>
+        <v>0.219702</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.243076</v>
+        <v>0.245052</v>
       </c>
       <c r="C96" t="n">
-        <v>0.218743</v>
+        <v>0.218898</v>
       </c>
       <c r="D96" t="n">
-        <v>0.221089</v>
+        <v>0.222514</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.243004</v>
+        <v>0.245695</v>
       </c>
       <c r="C97" t="n">
-        <v>0.219648</v>
+        <v>0.224072</v>
       </c>
       <c r="D97" t="n">
-        <v>0.223073</v>
+        <v>0.223811</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.243399</v>
+        <v>0.243019</v>
       </c>
       <c r="C98" t="n">
-        <v>0.2252</v>
+        <v>0.225496</v>
       </c>
       <c r="D98" t="n">
-        <v>0.225492</v>
+        <v>0.219834</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.245612</v>
+        <v>0.245504</v>
       </c>
       <c r="C99" t="n">
-        <v>0.227895</v>
+        <v>0.225995</v>
       </c>
       <c r="D99" t="n">
-        <v>0.227316</v>
+        <v>0.22872</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.245569</v>
+        <v>0.245438</v>
       </c>
       <c r="C100" t="n">
-        <v>0.229986</v>
+        <v>0.227436</v>
       </c>
       <c r="D100" t="n">
-        <v>0.229489</v>
+        <v>0.230672</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.245696</v>
+        <v>0.24593</v>
       </c>
       <c r="C101" t="n">
-        <v>0.231066</v>
+        <v>0.229985</v>
       </c>
       <c r="D101" t="n">
-        <v>0.231593</v>
+        <v>0.233393</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.246078</v>
+        <v>0.24593</v>
       </c>
       <c r="C102" t="n">
-        <v>0.231474</v>
+        <v>0.232672</v>
       </c>
       <c r="D102" t="n">
-        <v>0.233741</v>
+        <v>0.235867</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.245827</v>
+        <v>0.246046</v>
       </c>
       <c r="C103" t="n">
-        <v>0.233737</v>
+        <v>0.235284</v>
       </c>
       <c r="D103" t="n">
-        <v>0.2376</v>
+        <v>0.23816</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.246583</v>
+        <v>0.244221</v>
       </c>
       <c r="C104" t="n">
-        <v>0.236434</v>
+        <v>0.237949</v>
       </c>
       <c r="D104" t="n">
-        <v>0.239569</v>
+        <v>0.240794</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.244985</v>
+        <v>0.247032</v>
       </c>
       <c r="C105" t="n">
-        <v>0.239403</v>
+        <v>0.240851</v>
       </c>
       <c r="D105" t="n">
-        <v>0.243653</v>
+        <v>0.243869</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.24641</v>
+        <v>0.24814</v>
       </c>
       <c r="C106" t="n">
-        <v>0.243506</v>
+        <v>0.247288</v>
       </c>
       <c r="D106" t="n">
-        <v>0.246898</v>
+        <v>0.247959</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.247722</v>
+        <v>0.247611</v>
       </c>
       <c r="C107" t="n">
-        <v>0.248852</v>
+        <v>0.251479</v>
       </c>
       <c r="D107" t="n">
-        <v>0.251883</v>
+        <v>0.253223</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.250533</v>
+        <v>0.25294</v>
       </c>
       <c r="C108" t="n">
-        <v>0.269623</v>
+        <v>0.269961</v>
       </c>
       <c r="D108" t="n">
-        <v>0.271073</v>
+        <v>0.270952</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.254883</v>
+        <v>0.256914</v>
       </c>
       <c r="C109" t="n">
-        <v>0.268928</v>
+        <v>0.271879</v>
       </c>
       <c r="D109" t="n">
-        <v>0.272835</v>
+        <v>0.273246</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.283054</v>
+        <v>0.281453</v>
       </c>
       <c r="C110" t="n">
-        <v>0.270993</v>
+        <v>0.269653</v>
       </c>
       <c r="D110" t="n">
-        <v>0.267498</v>
+        <v>0.275558</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.277957</v>
+        <v>0.279172</v>
       </c>
       <c r="C111" t="n">
-        <v>0.27422</v>
+        <v>0.276851</v>
       </c>
       <c r="D111" t="n">
-        <v>0.277545</v>
+        <v>0.277641</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.275354</v>
+        <v>0.279341</v>
       </c>
       <c r="C112" t="n">
-        <v>0.279988</v>
+        <v>0.278879</v>
       </c>
       <c r="D112" t="n">
-        <v>0.279877</v>
+        <v>0.278504</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.273689</v>
+        <v>0.279507</v>
       </c>
       <c r="C113" t="n">
-        <v>0.282349</v>
+        <v>0.281161</v>
       </c>
       <c r="D113" t="n">
-        <v>0.280592</v>
+        <v>0.276697</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.280153</v>
+        <v>0.273783</v>
       </c>
       <c r="C114" t="n">
-        <v>0.276488</v>
+        <v>0.276953</v>
       </c>
       <c r="D114" t="n">
-        <v>0.277036</v>
+        <v>0.277565</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.279022</v>
+        <v>0.279353</v>
       </c>
       <c r="C115" t="n">
-        <v>0.27989</v>
+        <v>0.279398</v>
       </c>
       <c r="D115" t="n">
-        <v>0.280559</v>
+        <v>0.281059</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.283418</v>
+        <v>0.279933</v>
       </c>
       <c r="C116" t="n">
-        <v>0.282476</v>
+        <v>0.28273</v>
       </c>
       <c r="D116" t="n">
-        <v>0.283128</v>
+        <v>0.28276</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.278837</v>
+        <v>0.284068</v>
       </c>
       <c r="C117" t="n">
-        <v>0.282201</v>
+        <v>0.282825</v>
       </c>
       <c r="D117" t="n">
-        <v>0.286867</v>
+        <v>0.287938</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.281735</v>
+        <v>0.287689</v>
       </c>
       <c r="C118" t="n">
-        <v>0.288562</v>
+        <v>0.285657</v>
       </c>
       <c r="D118" t="n">
-        <v>0.290009</v>
+        <v>0.289419</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.282889</v>
+        <v>0.280986</v>
       </c>
       <c r="C119" t="n">
-        <v>0.290477</v>
+        <v>0.292755</v>
       </c>
       <c r="D119" t="n">
-        <v>0.293918</v>
+        <v>0.294928</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.284548</v>
+        <v>0.285248</v>
       </c>
       <c r="C120" t="n">
-        <v>0.296177</v>
+        <v>0.29608</v>
       </c>
       <c r="D120" t="n">
-        <v>0.299353</v>
+        <v>0.299687</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.283633</v>
+        <v>0.278184</v>
       </c>
       <c r="C121" t="n">
-        <v>0.300984</v>
+        <v>0.302644</v>
       </c>
       <c r="D121" t="n">
-        <v>0.304148</v>
+        <v>0.305061</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.287992</v>
+        <v>0.288591</v>
       </c>
       <c r="C122" t="n">
-        <v>0.310173</v>
+        <v>0.309728</v>
       </c>
       <c r="D122" t="n">
-        <v>0.311892</v>
+        <v>0.31334</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.294969</v>
+        <v>0.292678</v>
       </c>
       <c r="C123" t="n">
-        <v>0.294628</v>
+        <v>0.295403</v>
       </c>
       <c r="D123" t="n">
-        <v>0.297799</v>
+        <v>0.297712</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.359977</v>
+        <v>0.358569</v>
       </c>
       <c r="C124" t="n">
-        <v>0.297462</v>
+        <v>0.299164</v>
       </c>
       <c r="D124" t="n">
-        <v>0.300698</v>
+        <v>0.300209</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.35769</v>
+        <v>0.357613</v>
       </c>
       <c r="C125" t="n">
-        <v>0.300034</v>
+        <v>0.302045</v>
       </c>
       <c r="D125" t="n">
-        <v>0.303395</v>
+        <v>0.302956</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.360057</v>
+        <v>0.355935</v>
       </c>
       <c r="C126" t="n">
-        <v>0.303324</v>
+        <v>0.304289</v>
       </c>
       <c r="D126" t="n">
-        <v>0.306281</v>
+        <v>0.30651</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.358986</v>
+        <v>0.358171</v>
       </c>
       <c r="C127" t="n">
-        <v>0.306082</v>
+        <v>0.308367</v>
       </c>
       <c r="D127" t="n">
-        <v>0.309522</v>
+        <v>0.309197</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.361203</v>
+        <v>0.358368</v>
       </c>
       <c r="C128" t="n">
-        <v>0.309209</v>
+        <v>0.311518</v>
       </c>
       <c r="D128" t="n">
-        <v>0.312544</v>
+        <v>0.312602</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.358895</v>
+        <v>0.358841</v>
       </c>
       <c r="C129" t="n">
-        <v>0.312656</v>
+        <v>0.315202</v>
       </c>
       <c r="D129" t="n">
-        <v>0.316034</v>
+        <v>0.316579</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.361607</v>
+        <v>0.358139</v>
       </c>
       <c r="C130" t="n">
-        <v>0.31637</v>
+        <v>0.31887</v>
       </c>
       <c r="D130" t="n">
-        <v>0.319784</v>
+        <v>0.320335</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.357507</v>
+        <v>0.358847</v>
       </c>
       <c r="C131" t="n">
-        <v>0.323119</v>
+        <v>0.320805</v>
       </c>
       <c r="D131" t="n">
-        <v>0.323579</v>
+        <v>0.324577</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.363313</v>
+        <v>0.361193</v>
       </c>
       <c r="C132" t="n">
-        <v>0.328087</v>
+        <v>0.327456</v>
       </c>
       <c r="D132" t="n">
-        <v>0.32788</v>
+        <v>0.32903</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.357724</v>
+        <v>0.36014</v>
       </c>
       <c r="C133" t="n">
-        <v>0.332589</v>
+        <v>0.332258</v>
       </c>
       <c r="D133" t="n">
-        <v>0.333079</v>
+        <v>0.334823</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.360389</v>
+        <v>0.358983</v>
       </c>
       <c r="C134" t="n">
-        <v>0.338387</v>
+        <v>0.338134</v>
       </c>
       <c r="D134" t="n">
-        <v>0.338755</v>
+        <v>0.33973</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.360812</v>
+        <v>0.361527</v>
       </c>
       <c r="C135" t="n">
-        <v>0.345744</v>
+        <v>0.344621</v>
       </c>
       <c r="D135" t="n">
-        <v>0.346568</v>
+        <v>0.34763</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.36262</v>
+        <v>0.361268</v>
       </c>
       <c r="C136" t="n">
-        <v>0.355709</v>
+        <v>0.354145</v>
       </c>
       <c r="D136" t="n">
-        <v>0.352833</v>
+        <v>0.356838</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.365392</v>
+        <v>0.367228</v>
       </c>
       <c r="C137" t="n">
-        <v>0.322237</v>
+        <v>0.322447</v>
       </c>
       <c r="D137" t="n">
-        <v>0.322489</v>
+        <v>0.322809</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.41881</v>
+        <v>0.418</v>
       </c>
       <c r="C138" t="n">
-        <v>0.324427</v>
+        <v>0.324288</v>
       </c>
       <c r="D138" t="n">
-        <v>0.324785</v>
+        <v>0.325573</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.418091</v>
+        <v>0.412627</v>
       </c>
       <c r="C139" t="n">
-        <v>0.326878</v>
+        <v>0.327544</v>
       </c>
       <c r="D139" t="n">
-        <v>0.326632</v>
+        <v>0.32773</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.418144</v>
+        <v>0.417542</v>
       </c>
       <c r="C140" t="n">
-        <v>0.325012</v>
+        <v>0.326008</v>
       </c>
       <c r="D140" t="n">
-        <v>0.329728</v>
+        <v>0.329726</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.416963</v>
+        <v>0.417986</v>
       </c>
       <c r="C141" t="n">
-        <v>0.326863</v>
+        <v>0.329396</v>
       </c>
       <c r="D141" t="n">
-        <v>0.331687</v>
+        <v>0.332738</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.41779</v>
+        <v>0.412436</v>
       </c>
       <c r="C142" t="n">
-        <v>0.333428</v>
+        <v>0.33338</v>
       </c>
       <c r="D142" t="n">
-        <v>0.334269</v>
+        <v>0.335357</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.417478</v>
+        <v>0.417527</v>
       </c>
       <c r="C143" t="n">
-        <v>0.332925</v>
+        <v>0.336408</v>
       </c>
       <c r="D143" t="n">
-        <v>0.337093</v>
+        <v>0.338379</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04506</v>
+        <v>0.0469577</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0489045</v>
+        <v>0.0506381</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0477602</v>
+        <v>0.048333</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0452383</v>
+        <v>0.0456807</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0491439</v>
+        <v>0.0503187</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0477614</v>
+        <v>0.04862</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0452285</v>
+        <v>0.0471416</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0488154</v>
+        <v>0.0512435</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0480724</v>
+        <v>0.0489397</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0453292</v>
+        <v>0.0471998</v>
       </c>
       <c r="C5" t="n">
-        <v>0.049145</v>
+        <v>0.0515352</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0484077</v>
+        <v>0.0491535</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0455869</v>
+        <v>0.0472807</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0500205</v>
+        <v>0.0518474</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0489456</v>
+        <v>0.0498211</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0457836</v>
+        <v>0.0473976</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0504551</v>
+        <v>0.0526456</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0499244</v>
+        <v>0.0507429</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0459806</v>
+        <v>0.0476774</v>
       </c>
       <c r="C8" t="n">
-        <v>0.051541</v>
+        <v>0.0536263</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0513893</v>
+        <v>0.0523064</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0461715</v>
+        <v>0.0479879</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0480493</v>
+        <v>0.0464217</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0485241</v>
+        <v>0.0462768</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0460673</v>
+        <v>0.0449271</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0486501</v>
+        <v>0.046699</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0489021</v>
+        <v>0.0465247</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0462243</v>
+        <v>0.0450702</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0489638</v>
+        <v>0.0471123</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0495629</v>
+        <v>0.0469009</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0462488</v>
+        <v>0.0450353</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0493012</v>
+        <v>0.047367</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0497754</v>
+        <v>0.0471824</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0463201</v>
+        <v>0.045254</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0496792</v>
+        <v>0.0476672</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0499869</v>
+        <v>0.0475433</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0464129</v>
+        <v>0.0453958</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0499655</v>
+        <v>0.0479677</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0502297</v>
+        <v>0.0478168</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0465707</v>
+        <v>0.0455189</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0502957</v>
+        <v>0.0482775</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0506976</v>
+        <v>0.0480433</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0466571</v>
+        <v>0.0456686</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0506057</v>
+        <v>0.0485036</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0507738</v>
+        <v>0.0483583</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0468147</v>
+        <v>0.0458175</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0508805</v>
+        <v>0.0487308</v>
       </c>
       <c r="D17" t="n">
-        <v>0.051095</v>
+        <v>0.0487384</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0469219</v>
+        <v>0.0459534</v>
       </c>
       <c r="C18" t="n">
-        <v>0.051104</v>
+        <v>0.0489771</v>
       </c>
       <c r="D18" t="n">
-        <v>0.051829</v>
+        <v>0.049109</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0470306</v>
+        <v>0.0461397</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0514966</v>
+        <v>0.0494838</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0523463</v>
+        <v>0.049351</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0471568</v>
+        <v>0.0463206</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0520356</v>
+        <v>0.0498358</v>
       </c>
       <c r="D20" t="n">
-        <v>0.052811</v>
+        <v>0.0499996</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0474907</v>
+        <v>0.0464704</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0532146</v>
+        <v>0.0510402</v>
       </c>
       <c r="D21" t="n">
-        <v>0.053406</v>
+        <v>0.0514432</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0478351</v>
+        <v>0.046752</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0564574</v>
+        <v>0.0550123</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0593146</v>
+        <v>0.057682</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0482785</v>
+        <v>0.0473003</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0506517</v>
+        <v>0.0532281</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0498081</v>
+        <v>0.0506904</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0494926</v>
+        <v>0.0498097</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0502827</v>
+        <v>0.0538374</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0503365</v>
+        <v>0.0510408</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0495728</v>
+        <v>0.0491887</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0505991</v>
+        <v>0.0537813</v>
       </c>
       <c r="D25" t="n">
-        <v>0.050374</v>
+        <v>0.051368</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0496742</v>
+        <v>0.0495372</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0509205</v>
+        <v>0.0543022</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0511038</v>
+        <v>0.0517071</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0496875</v>
+        <v>0.0493243</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0512392</v>
+        <v>0.0538984</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0511928</v>
+        <v>0.0519822</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0498242</v>
+        <v>0.0498351</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0515227</v>
+        <v>0.053275</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0515663</v>
+        <v>0.05229</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0499509</v>
+        <v>0.0496531</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0518502</v>
+        <v>0.0555622</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0520261</v>
+        <v>0.0526757</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0500553</v>
+        <v>0.0501631</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0521751</v>
+        <v>0.0538402</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0524287</v>
+        <v>0.0529373</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0502239</v>
+        <v>0.0500536</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0525271</v>
+        <v>0.0549034</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0526683</v>
+        <v>0.0531833</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0503471</v>
+        <v>0.0503061</v>
       </c>
       <c r="C32" t="n">
-        <v>0.052896</v>
+        <v>0.056716</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0531393</v>
+        <v>0.0536073</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0505627</v>
+        <v>0.0503388</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0534134</v>
+        <v>0.0561972</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0536393</v>
+        <v>0.0542422</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0506798</v>
+        <v>0.0504932</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0543924</v>
+        <v>0.0571037</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0551428</v>
+        <v>0.055518</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0509342</v>
+        <v>0.0513028</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0582419</v>
+        <v>0.0617469</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0593794</v>
+        <v>0.0598287</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0511699</v>
+        <v>0.0511148</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0651428</v>
+        <v>0.0687966</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0663483</v>
+        <v>0.066943</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0527983</v>
+        <v>0.0527508</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0538964</v>
+        <v>0.0545174</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0545968</v>
+        <v>0.0550916</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0576734</v>
+        <v>0.0542407</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0530152</v>
+        <v>0.054107</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0557321</v>
+        <v>0.0558986</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0575851</v>
+        <v>0.053791</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0533078</v>
+        <v>0.0551791</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0549739</v>
+        <v>0.0561271</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0576578</v>
+        <v>0.0538727</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0536236</v>
+        <v>0.0550941</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0549443</v>
+        <v>0.0565461</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0577587</v>
+        <v>0.0536871</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0539717</v>
+        <v>0.0547991</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0564753</v>
+        <v>0.0570571</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0578608</v>
+        <v>0.0539823</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0542633</v>
+        <v>0.0567437</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0561386</v>
+        <v>0.0574509</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0579567</v>
+        <v>0.0540598</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0547044</v>
+        <v>0.0556972</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0569699</v>
+        <v>0.0576301</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0580514</v>
+        <v>0.054</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0550354</v>
+        <v>0.0570961</v>
       </c>
       <c r="D44" t="n">
-        <v>0.05644</v>
+        <v>0.058078</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.058241</v>
+        <v>0.0541562</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0553865</v>
+        <v>0.0565934</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0568695</v>
+        <v>0.0584708</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0590474</v>
+        <v>0.0544308</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0576805</v>
+        <v>0.0567817</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0584503</v>
+        <v>0.0587275</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0585416</v>
+        <v>0.0547519</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0569859</v>
+        <v>0.0583203</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0596562</v>
+        <v>0.0613408</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0588382</v>
+        <v>0.0547294</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0599601</v>
+        <v>0.0615288</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0628055</v>
+        <v>0.0644441</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0591537</v>
+        <v>0.0550585</v>
       </c>
       <c r="C49" t="n">
-        <v>0.064205</v>
+        <v>0.0664558</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0667339</v>
+        <v>0.0685829</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0604822</v>
+        <v>0.0564809</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0692849</v>
+        <v>0.0715513</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0716217</v>
+        <v>0.0730581</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0645273</v>
+        <v>0.0606405</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0586938</v>
+        <v>0.05744</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0601014</v>
+        <v>0.058791</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.06965730000000001</v>
+        <v>0.0659164</v>
       </c>
       <c r="C52" t="n">
-        <v>0.056604</v>
+        <v>0.0568139</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0605264</v>
+        <v>0.0598854</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0614877</v>
+        <v>0.0636215</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0569695</v>
+        <v>0.0571527</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0610141</v>
+        <v>0.0598048</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0608618</v>
+        <v>0.0636153</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0573858</v>
+        <v>0.0575179</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0614286</v>
+        <v>0.0597113</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0610958</v>
+        <v>0.0637122</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0577423</v>
+        <v>0.0585352</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0618847</v>
+        <v>0.0616406</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0610473</v>
+        <v>0.063808</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0608064</v>
+        <v>0.0597465</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0623211</v>
+        <v>0.0612938</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0611677</v>
+        <v>0.064217</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0586657</v>
+        <v>0.0587463</v>
       </c>
       <c r="D57" t="n">
-        <v>0.06308709999999999</v>
+        <v>0.0628792</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0620194</v>
+        <v>0.064374</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0592018</v>
+        <v>0.0592347</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0637177</v>
+        <v>0.062773</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0621901</v>
+        <v>0.0645391</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0598581</v>
+        <v>0.0610584</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0649459</v>
+        <v>0.06343509999999999</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0623498</v>
+        <v>0.06472029999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0612294</v>
+        <v>0.0613626</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0667244</v>
+        <v>0.06442059999999999</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0626057</v>
+        <v>0.06497360000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0633807</v>
+        <v>0.0643454</v>
       </c>
       <c r="D61" t="n">
-        <v>0.06577620000000001</v>
+        <v>0.0663682</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.062371</v>
+        <v>0.0653469</v>
       </c>
       <c r="C62" t="n">
-        <v>0.06588280000000001</v>
+        <v>0.0660866</v>
       </c>
       <c r="D62" t="n">
-        <v>0.06817230000000001</v>
+        <v>0.0689029</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0634561</v>
+        <v>0.0664752</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0690143</v>
+        <v>0.0696677</v>
       </c>
       <c r="D63" t="n">
-        <v>0.071379</v>
+        <v>0.07261860000000001</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0657353</v>
+        <v>0.068498</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0736914</v>
+        <v>0.07353700000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0758091</v>
+        <v>0.07788100000000001</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.06824239999999999</v>
+        <v>0.0717185</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0827306</v>
+        <v>0.08145670000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>0.082644</v>
+        <v>0.0835593</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0724209</v>
+        <v>0.076115</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0631515</v>
+        <v>0.0607415</v>
       </c>
       <c r="D66" t="n">
-        <v>0.062408</v>
+        <v>0.0635887</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0825811</v>
+        <v>0.07849689999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>0.06373040000000001</v>
+        <v>0.0608941</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0627878</v>
+        <v>0.0638615</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.08309610000000001</v>
+        <v>0.07958469999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>0.06460780000000001</v>
+        <v>0.0613889</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0636355</v>
+        <v>0.0633644</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0834303</v>
+        <v>0.0794614</v>
       </c>
       <c r="C69" t="n">
-        <v>0.06540609999999999</v>
+        <v>0.0618653</v>
       </c>
       <c r="D69" t="n">
-        <v>0.06431530000000001</v>
+        <v>0.0644367</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0842977</v>
+        <v>0.0798447</v>
       </c>
       <c r="C70" t="n">
-        <v>0.06642099999999999</v>
+        <v>0.0625236</v>
       </c>
       <c r="D70" t="n">
-        <v>0.06539150000000001</v>
+        <v>0.0641743</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.08438909999999999</v>
+        <v>0.0802906</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0672918</v>
+        <v>0.063294</v>
       </c>
       <c r="D71" t="n">
-        <v>0.066299</v>
+        <v>0.0650466</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0844922</v>
+        <v>0.0802103</v>
       </c>
       <c r="C72" t="n">
-        <v>0.06814580000000001</v>
+        <v>0.0640563</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0671395</v>
+        <v>0.0662166</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0848453</v>
+        <v>0.0805746</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0695532</v>
+        <v>0.0650577</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0686095</v>
+        <v>0.0672548</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0853582</v>
+        <v>0.08081670000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0712459</v>
+        <v>0.0666578</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0702835</v>
+        <v>0.0686573</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.08540449999999999</v>
+        <v>0.0812358</v>
       </c>
       <c r="C75" t="n">
-        <v>0.07303510000000001</v>
+        <v>0.0684014</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0718825</v>
+        <v>0.0703313</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.086008</v>
+        <v>0.0821123</v>
       </c>
       <c r="C76" t="n">
-        <v>0.075332</v>
+        <v>0.0706924</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0742278</v>
+        <v>0.0725937</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.087461</v>
+        <v>0.0830573</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0785595</v>
+        <v>0.0735883</v>
       </c>
       <c r="D77" t="n">
-        <v>0.07698049999999999</v>
+        <v>0.0754547</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0889904</v>
+        <v>0.0846373</v>
       </c>
       <c r="C78" t="n">
-        <v>0.08259279999999999</v>
+        <v>0.0777162</v>
       </c>
       <c r="D78" t="n">
-        <v>0.08113389999999999</v>
+        <v>0.07937080000000001</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0909638</v>
+        <v>0.0866257</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0885673</v>
+        <v>0.0838506</v>
       </c>
       <c r="D79" t="n">
-        <v>0.087089</v>
+        <v>0.085437</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0940991</v>
+        <v>0.09050619999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>0.106876</v>
+        <v>0.118809</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0998622</v>
+        <v>0.114748</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.176477</v>
+        <v>0.188203</v>
       </c>
       <c r="C81" t="n">
-        <v>0.09679</v>
+        <v>0.118971</v>
       </c>
       <c r="D81" t="n">
-        <v>0.102242</v>
+        <v>0.11716</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.164236</v>
+        <v>0.19064</v>
       </c>
       <c r="C82" t="n">
-        <v>0.115839</v>
+        <v>0.111858</v>
       </c>
       <c r="D82" t="n">
-        <v>0.115134</v>
+        <v>0.113192</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.178605</v>
+        <v>0.178321</v>
       </c>
       <c r="C83" t="n">
-        <v>0.118511</v>
+        <v>0.12554</v>
       </c>
       <c r="D83" t="n">
-        <v>0.116361</v>
+        <v>0.123282</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.177895</v>
+        <v>0.192416</v>
       </c>
       <c r="C84" t="n">
-        <v>0.121147</v>
+        <v>0.118077</v>
       </c>
       <c r="D84" t="n">
-        <v>0.121623</v>
+        <v>0.116115</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.180444</v>
+        <v>0.181351</v>
       </c>
       <c r="C85" t="n">
-        <v>0.126995</v>
+        <v>0.130517</v>
       </c>
       <c r="D85" t="n">
-        <v>0.123693</v>
+        <v>0.131455</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.18172</v>
+        <v>0.194185</v>
       </c>
       <c r="C86" t="n">
-        <v>0.129722</v>
+        <v>0.131211</v>
       </c>
       <c r="D86" t="n">
-        <v>0.128408</v>
+        <v>0.129827</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.181241</v>
+        <v>0.191787</v>
       </c>
       <c r="C87" t="n">
-        <v>0.136397</v>
+        <v>0.123095</v>
       </c>
       <c r="D87" t="n">
-        <v>0.13521</v>
+        <v>0.12257</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.183992</v>
+        <v>0.18217</v>
       </c>
       <c r="C88" t="n">
-        <v>0.134244</v>
+        <v>0.125966</v>
       </c>
       <c r="D88" t="n">
-        <v>0.127185</v>
+        <v>0.126307</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.179878</v>
+        <v>0.181825</v>
       </c>
       <c r="C89" t="n">
-        <v>0.134156</v>
+        <v>0.137033</v>
       </c>
       <c r="D89" t="n">
-        <v>0.132095</v>
+        <v>0.137348</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.18019</v>
+        <v>0.192331</v>
       </c>
       <c r="C90" t="n">
-        <v>0.139898</v>
+        <v>0.140092</v>
       </c>
       <c r="D90" t="n">
-        <v>0.138297</v>
+        <v>0.142717</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.182568</v>
+        <v>0.193213</v>
       </c>
       <c r="C91" t="n">
-        <v>0.148369</v>
+        <v>0.142562</v>
       </c>
       <c r="D91" t="n">
-        <v>0.148251</v>
+        <v>0.141121</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.188992</v>
+        <v>0.197311</v>
       </c>
       <c r="C92" t="n">
-        <v>0.15116</v>
+        <v>0.149211</v>
       </c>
       <c r="D92" t="n">
-        <v>0.150637</v>
+        <v>0.148974</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.1856</v>
+        <v>0.197957</v>
       </c>
       <c r="C93" t="n">
-        <v>0.157569</v>
+        <v>0.155001</v>
       </c>
       <c r="D93" t="n">
-        <v>0.157006</v>
+        <v>0.154497</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.193119</v>
+        <v>0.197691</v>
       </c>
       <c r="C94" t="n">
-        <v>0.219072</v>
+        <v>0.225678</v>
       </c>
       <c r="D94" t="n">
-        <v>0.21833</v>
+        <v>0.229486</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.242915</v>
+        <v>0.258995</v>
       </c>
       <c r="C95" t="n">
-        <v>0.217143</v>
+        <v>0.231178</v>
       </c>
       <c r="D95" t="n">
-        <v>0.219702</v>
+        <v>0.231142</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.245052</v>
+        <v>0.261526</v>
       </c>
       <c r="C96" t="n">
-        <v>0.218898</v>
+        <v>0.230482</v>
       </c>
       <c r="D96" t="n">
-        <v>0.222514</v>
+        <v>0.233707</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.245695</v>
+        <v>0.259744</v>
       </c>
       <c r="C97" t="n">
-        <v>0.224072</v>
+        <v>0.233209</v>
       </c>
       <c r="D97" t="n">
-        <v>0.223811</v>
+        <v>0.236041</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.243019</v>
+        <v>0.260141</v>
       </c>
       <c r="C98" t="n">
-        <v>0.225496</v>
+        <v>0.238005</v>
       </c>
       <c r="D98" t="n">
-        <v>0.219834</v>
+        <v>0.236348</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.245504</v>
+        <v>0.261438</v>
       </c>
       <c r="C99" t="n">
-        <v>0.225995</v>
+        <v>0.237715</v>
       </c>
       <c r="D99" t="n">
-        <v>0.22872</v>
+        <v>0.234226</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.245438</v>
+        <v>0.262576</v>
       </c>
       <c r="C100" t="n">
-        <v>0.227436</v>
+        <v>0.239656</v>
       </c>
       <c r="D100" t="n">
-        <v>0.230672</v>
+        <v>0.242595</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.24593</v>
+        <v>0.261551</v>
       </c>
       <c r="C101" t="n">
-        <v>0.229985</v>
+        <v>0.244371</v>
       </c>
       <c r="D101" t="n">
-        <v>0.233393</v>
+        <v>0.24415</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.24593</v>
+        <v>0.2621</v>
       </c>
       <c r="C102" t="n">
-        <v>0.232672</v>
+        <v>0.245803</v>
       </c>
       <c r="D102" t="n">
-        <v>0.235867</v>
+        <v>0.245385</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.246046</v>
+        <v>0.262761</v>
       </c>
       <c r="C103" t="n">
-        <v>0.235284</v>
+        <v>0.245757</v>
       </c>
       <c r="D103" t="n">
-        <v>0.23816</v>
+        <v>0.242808</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.244221</v>
+        <v>0.260983</v>
       </c>
       <c r="C104" t="n">
-        <v>0.237949</v>
+        <v>0.24829</v>
       </c>
       <c r="D104" t="n">
-        <v>0.240794</v>
+        <v>0.250662</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.247032</v>
+        <v>0.263284</v>
       </c>
       <c r="C105" t="n">
-        <v>0.240851</v>
+        <v>0.253174</v>
       </c>
       <c r="D105" t="n">
-        <v>0.243869</v>
+        <v>0.253604</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.24814</v>
+        <v>0.26198</v>
       </c>
       <c r="C106" t="n">
-        <v>0.247288</v>
+        <v>0.257103</v>
       </c>
       <c r="D106" t="n">
-        <v>0.247959</v>
+        <v>0.257015</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.247611</v>
+        <v>0.265908</v>
       </c>
       <c r="C107" t="n">
-        <v>0.251479</v>
+        <v>0.259919</v>
       </c>
       <c r="D107" t="n">
-        <v>0.253223</v>
+        <v>0.257308</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.25294</v>
+        <v>0.268302</v>
       </c>
       <c r="C108" t="n">
-        <v>0.269961</v>
+        <v>0.292397</v>
       </c>
       <c r="D108" t="n">
-        <v>0.270952</v>
+        <v>0.292869</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.256914</v>
+        <v>0.273749</v>
       </c>
       <c r="C109" t="n">
-        <v>0.271879</v>
+        <v>0.294753</v>
       </c>
       <c r="D109" t="n">
-        <v>0.273246</v>
+        <v>0.295637</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.281453</v>
+        <v>0.300191</v>
       </c>
       <c r="C110" t="n">
-        <v>0.269653</v>
+        <v>0.293717</v>
       </c>
       <c r="D110" t="n">
-        <v>0.275558</v>
+        <v>0.298244</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.279172</v>
+        <v>0.299035</v>
       </c>
       <c r="C111" t="n">
-        <v>0.276851</v>
+        <v>0.300888</v>
       </c>
       <c r="D111" t="n">
-        <v>0.277641</v>
+        <v>0.298838</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.279341</v>
+        <v>0.291631</v>
       </c>
       <c r="C112" t="n">
-        <v>0.278879</v>
+        <v>0.304704</v>
       </c>
       <c r="D112" t="n">
-        <v>0.278504</v>
+        <v>0.304319</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.279507</v>
+        <v>0.297568</v>
       </c>
       <c r="C113" t="n">
-        <v>0.281161</v>
+        <v>0.303146</v>
       </c>
       <c r="D113" t="n">
-        <v>0.276697</v>
+        <v>0.306293</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.273783</v>
+        <v>0.295724</v>
       </c>
       <c r="C114" t="n">
-        <v>0.276953</v>
+        <v>0.304696</v>
       </c>
       <c r="D114" t="n">
-        <v>0.277565</v>
+        <v>0.310605</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.279353</v>
+        <v>0.291387</v>
       </c>
       <c r="C115" t="n">
-        <v>0.279398</v>
+        <v>0.311936</v>
       </c>
       <c r="D115" t="n">
-        <v>0.281059</v>
+        <v>0.312852</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.279933</v>
+        <v>0.292283</v>
       </c>
       <c r="C116" t="n">
-        <v>0.28273</v>
+        <v>0.312036</v>
       </c>
       <c r="D116" t="n">
-        <v>0.28276</v>
+        <v>0.314914</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.284068</v>
+        <v>0.29481</v>
       </c>
       <c r="C117" t="n">
-        <v>0.282825</v>
+        <v>0.317812</v>
       </c>
       <c r="D117" t="n">
-        <v>0.287938</v>
+        <v>0.318988</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.287689</v>
+        <v>0.299421</v>
       </c>
       <c r="C118" t="n">
-        <v>0.285657</v>
+        <v>0.321596</v>
       </c>
       <c r="D118" t="n">
-        <v>0.289419</v>
+        <v>0.322989</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.280986</v>
+        <v>0.301847</v>
       </c>
       <c r="C119" t="n">
-        <v>0.292755</v>
+        <v>0.326469</v>
       </c>
       <c r="D119" t="n">
-        <v>0.294928</v>
+        <v>0.327726</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.285248</v>
+        <v>0.304386</v>
       </c>
       <c r="C120" t="n">
-        <v>0.29608</v>
+        <v>0.332536</v>
       </c>
       <c r="D120" t="n">
-        <v>0.299687</v>
+        <v>0.332655</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.278184</v>
+        <v>0.303915</v>
       </c>
       <c r="C121" t="n">
-        <v>0.302644</v>
+        <v>0.336604</v>
       </c>
       <c r="D121" t="n">
-        <v>0.305061</v>
+        <v>0.339127</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.288591</v>
+        <v>0.306388</v>
       </c>
       <c r="C122" t="n">
-        <v>0.309728</v>
+        <v>0.341392</v>
       </c>
       <c r="D122" t="n">
-        <v>0.31334</v>
+        <v>0.347978</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.292678</v>
+        <v>0.305874</v>
       </c>
       <c r="C123" t="n">
-        <v>0.295403</v>
+        <v>0.339234</v>
       </c>
       <c r="D123" t="n">
-        <v>0.297712</v>
+        <v>0.34046</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.358569</v>
+        <v>0.382167</v>
       </c>
       <c r="C124" t="n">
-        <v>0.299164</v>
+        <v>0.342686</v>
       </c>
       <c r="D124" t="n">
-        <v>0.300209</v>
+        <v>0.344241</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.357613</v>
+        <v>0.382046</v>
       </c>
       <c r="C125" t="n">
-        <v>0.302045</v>
+        <v>0.34641</v>
       </c>
       <c r="D125" t="n">
-        <v>0.302956</v>
+        <v>0.346835</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.355935</v>
+        <v>0.382361</v>
       </c>
       <c r="C126" t="n">
-        <v>0.304289</v>
+        <v>0.349489</v>
       </c>
       <c r="D126" t="n">
-        <v>0.30651</v>
+        <v>0.351188</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.358171</v>
+        <v>0.381945</v>
       </c>
       <c r="C127" t="n">
-        <v>0.308367</v>
+        <v>0.352402</v>
       </c>
       <c r="D127" t="n">
-        <v>0.309197</v>
+        <v>0.354084</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.358368</v>
+        <v>0.382189</v>
       </c>
       <c r="C128" t="n">
-        <v>0.311518</v>
+        <v>0.356668</v>
       </c>
       <c r="D128" t="n">
-        <v>0.312602</v>
+        <v>0.357624</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.358841</v>
+        <v>0.382401</v>
       </c>
       <c r="C129" t="n">
-        <v>0.315202</v>
+        <v>0.36054</v>
       </c>
       <c r="D129" t="n">
-        <v>0.316579</v>
+        <v>0.362316</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.358139</v>
+        <v>0.377595</v>
       </c>
       <c r="C130" t="n">
-        <v>0.31887</v>
+        <v>0.36455</v>
       </c>
       <c r="D130" t="n">
-        <v>0.320335</v>
+        <v>0.366357</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.358847</v>
+        <v>0.383525</v>
       </c>
       <c r="C131" t="n">
-        <v>0.320805</v>
+        <v>0.368921</v>
       </c>
       <c r="D131" t="n">
-        <v>0.324577</v>
+        <v>0.370482</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.361193</v>
+        <v>0.383757</v>
       </c>
       <c r="C132" t="n">
-        <v>0.327456</v>
+        <v>0.373585</v>
       </c>
       <c r="D132" t="n">
-        <v>0.32903</v>
+        <v>0.3751</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.36014</v>
+        <v>0.385038</v>
       </c>
       <c r="C133" t="n">
-        <v>0.332258</v>
+        <v>0.378963</v>
       </c>
       <c r="D133" t="n">
-        <v>0.334823</v>
+        <v>0.380357</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.358983</v>
+        <v>0.38393</v>
       </c>
       <c r="C134" t="n">
-        <v>0.338134</v>
+        <v>0.385591</v>
       </c>
       <c r="D134" t="n">
-        <v>0.33973</v>
+        <v>0.387834</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.361527</v>
+        <v>0.38104</v>
       </c>
       <c r="C135" t="n">
-        <v>0.344621</v>
+        <v>0.394547</v>
       </c>
       <c r="D135" t="n">
-        <v>0.34763</v>
+        <v>0.396133</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.361268</v>
+        <v>0.385224</v>
       </c>
       <c r="C136" t="n">
-        <v>0.354145</v>
+        <v>0.402199</v>
       </c>
       <c r="D136" t="n">
-        <v>0.356838</v>
+        <v>0.406991</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.367228</v>
+        <v>0.392933</v>
       </c>
       <c r="C137" t="n">
-        <v>0.322447</v>
+        <v>0.365149</v>
       </c>
       <c r="D137" t="n">
-        <v>0.322809</v>
+        <v>0.365748</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.418</v>
+        <v>0.446367</v>
       </c>
       <c r="C138" t="n">
-        <v>0.324288</v>
+        <v>0.368612</v>
       </c>
       <c r="D138" t="n">
-        <v>0.325573</v>
+        <v>0.369146</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.412627</v>
+        <v>0.44594</v>
       </c>
       <c r="C139" t="n">
-        <v>0.327544</v>
+        <v>0.371224</v>
       </c>
       <c r="D139" t="n">
-        <v>0.32773</v>
+        <v>0.372794</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.417542</v>
+        <v>0.446802</v>
       </c>
       <c r="C140" t="n">
-        <v>0.326008</v>
+        <v>0.375093</v>
       </c>
       <c r="D140" t="n">
-        <v>0.329726</v>
+        <v>0.37662</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.417986</v>
+        <v>0.440701</v>
       </c>
       <c r="C141" t="n">
-        <v>0.329396</v>
+        <v>0.378512</v>
       </c>
       <c r="D141" t="n">
-        <v>0.332738</v>
+        <v>0.379969</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.412436</v>
+        <v>0.445681</v>
       </c>
       <c r="C142" t="n">
-        <v>0.33338</v>
+        <v>0.382163</v>
       </c>
       <c r="D142" t="n">
-        <v>0.335357</v>
+        <v>0.384551</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.417527</v>
+        <v>0.445905</v>
       </c>
       <c r="C143" t="n">
-        <v>0.336408</v>
+        <v>0.384227</v>
       </c>
       <c r="D143" t="n">
-        <v>0.338379</v>
+        <v>0.387888</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0469577</v>
+        <v>0.0452387</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0506381</v>
+        <v>0.0498809</v>
       </c>
       <c r="D2" t="n">
-        <v>0.048333</v>
+        <v>0.0504925</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0456807</v>
+        <v>0.0468931</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0503187</v>
+        <v>0.0508153</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04862</v>
+        <v>0.0507636</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0471416</v>
+        <v>0.0469769</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0512435</v>
+        <v>0.051082</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0489397</v>
+        <v>0.0511721</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0471998</v>
+        <v>0.0470773</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0515352</v>
+        <v>0.0513249</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0491535</v>
+        <v>0.0513995</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0472807</v>
+        <v>0.0472086</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0518474</v>
+        <v>0.0517625</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0498211</v>
+        <v>0.0517532</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0473976</v>
+        <v>0.0472865</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0526456</v>
+        <v>0.0523923</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0507429</v>
+        <v>0.0525171</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0476774</v>
+        <v>0.0474542</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0536263</v>
+        <v>0.0532728</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0523064</v>
+        <v>0.0537899</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0479879</v>
+        <v>0.0479355</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0464217</v>
+        <v>0.0497902</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0462768</v>
+        <v>0.0502493</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0449271</v>
+        <v>0.0466976</v>
       </c>
       <c r="C10" t="n">
-        <v>0.046699</v>
+        <v>0.0508483</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0465247</v>
+        <v>0.0514731</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0450702</v>
+        <v>0.0467644</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0471123</v>
+        <v>0.051271</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0469009</v>
+        <v>0.0518694</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0450353</v>
+        <v>0.0468311</v>
       </c>
       <c r="C12" t="n">
-        <v>0.047367</v>
+        <v>0.0516733</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0471824</v>
+        <v>0.0521791</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.045254</v>
+        <v>0.0469281</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0476672</v>
+        <v>0.0520801</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0475433</v>
+        <v>0.052512</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0453958</v>
+        <v>0.0470368</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0479677</v>
+        <v>0.0524108</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0478168</v>
+        <v>0.052845</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0455189</v>
+        <v>0.0471438</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0482775</v>
+        <v>0.0527859</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0480433</v>
+        <v>0.0531209</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0456686</v>
+        <v>0.0473363</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0485036</v>
+        <v>0.0530583</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0483583</v>
+        <v>0.0534514</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0458175</v>
+        <v>0.0474065</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0487308</v>
+        <v>0.0533593</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0487384</v>
+        <v>0.0537742</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0459534</v>
+        <v>0.0475247</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0489771</v>
+        <v>0.0536413</v>
       </c>
       <c r="D18" t="n">
-        <v>0.049109</v>
+        <v>0.054158</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0461397</v>
+        <v>0.0476734</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0494838</v>
+        <v>0.0540641</v>
       </c>
       <c r="D19" t="n">
-        <v>0.049351</v>
+        <v>0.0544837</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0463206</v>
+        <v>0.0478435</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0498358</v>
+        <v>0.0545608</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0499996</v>
+        <v>0.0549553</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0464704</v>
+        <v>0.0480443</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0510402</v>
+        <v>0.0556064</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0514432</v>
+        <v>0.0562006</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.046752</v>
+        <v>0.04835</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0550123</v>
+        <v>0.05958</v>
       </c>
       <c r="D22" t="n">
-        <v>0.057682</v>
+        <v>0.0613527</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0473003</v>
+        <v>0.0487939</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0532281</v>
+        <v>0.0503697</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0506904</v>
+        <v>0.0508514</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0498097</v>
+        <v>0.0521786</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0538374</v>
+        <v>0.0509888</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0510408</v>
+        <v>0.0515123</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0491887</v>
+        <v>0.0522705</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0537813</v>
+        <v>0.051461</v>
       </c>
       <c r="D25" t="n">
-        <v>0.051368</v>
+        <v>0.0520648</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0495372</v>
+        <v>0.0523375</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0543022</v>
+        <v>0.0517618</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0517071</v>
+        <v>0.0524469</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0493243</v>
+        <v>0.0523918</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0538984</v>
+        <v>0.051817</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0519822</v>
+        <v>0.0525882</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0498351</v>
+        <v>0.0524725</v>
       </c>
       <c r="C28" t="n">
-        <v>0.053275</v>
+        <v>0.0521653</v>
       </c>
       <c r="D28" t="n">
-        <v>0.05229</v>
+        <v>0.0530069</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0496531</v>
+        <v>0.0526547</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0555622</v>
+        <v>0.0525985</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0526757</v>
+        <v>0.0533759</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0501631</v>
+        <v>0.052772</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0538402</v>
+        <v>0.0527446</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0529373</v>
+        <v>0.0538057</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0500536</v>
+        <v>0.0528946</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0549034</v>
+        <v>0.0531641</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0531833</v>
+        <v>0.0539811</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0503061</v>
+        <v>0.052972</v>
       </c>
       <c r="C32" t="n">
-        <v>0.056716</v>
+        <v>0.0534379</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0536073</v>
+        <v>0.0544538</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0503388</v>
+        <v>0.0530592</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0561972</v>
+        <v>0.0539484</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0542422</v>
+        <v>0.0550619</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0504932</v>
+        <v>0.0531911</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0571037</v>
+        <v>0.0550813</v>
       </c>
       <c r="D34" t="n">
-        <v>0.055518</v>
+        <v>0.0562565</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0513028</v>
+        <v>0.0534257</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0617469</v>
+        <v>0.0585708</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0598287</v>
+        <v>0.0606635</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0511148</v>
+        <v>0.0536963</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0687966</v>
+        <v>0.0654752</v>
       </c>
       <c r="D36" t="n">
-        <v>0.066943</v>
+        <v>0.06796919999999999</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0527508</v>
+        <v>0.055142</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0545174</v>
+        <v>0.057212</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0550916</v>
+        <v>0.0542342</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0542407</v>
+        <v>0.0538428</v>
       </c>
       <c r="C38" t="n">
-        <v>0.054107</v>
+        <v>0.0576372</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0558986</v>
+        <v>0.05473</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.053791</v>
+        <v>0.0551412</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0551791</v>
+        <v>0.0583164</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0561271</v>
+        <v>0.0554764</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0538727</v>
+        <v>0.0552082</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0550941</v>
+        <v>0.058719</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0565461</v>
+        <v>0.0558443</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0536871</v>
+        <v>0.0553023</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0547991</v>
+        <v>0.0590524</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0570571</v>
+        <v>0.0564188</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0539823</v>
+        <v>0.0553919</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0567437</v>
+        <v>0.0594235</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0574509</v>
+        <v>0.0567847</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0540598</v>
+        <v>0.0554839</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0556972</v>
+        <v>0.0596327</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0576301</v>
+        <v>0.0569746</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.054</v>
+        <v>0.0556324</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0570961</v>
+        <v>0.0602645</v>
       </c>
       <c r="D44" t="n">
-        <v>0.058078</v>
+        <v>0.0576541</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0541562</v>
+        <v>0.0557668</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0565934</v>
+        <v>0.060664</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0584708</v>
+        <v>0.0580612</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0544308</v>
+        <v>0.0559115</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0567817</v>
+        <v>0.0611657</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0587275</v>
+        <v>0.0587949</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0547519</v>
+        <v>0.0561157</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0583203</v>
+        <v>0.0621635</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0613408</v>
+        <v>0.060424</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0547294</v>
+        <v>0.0563615</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0615288</v>
+        <v>0.06550019999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0644441</v>
+        <v>0.06383</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0550585</v>
+        <v>0.0566031</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0664558</v>
+        <v>0.0696865</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0685829</v>
+        <v>0.0676899</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0564809</v>
+        <v>0.0579794</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0715513</v>
+        <v>0.075054</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0730581</v>
+        <v>0.07263940000000001</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0606405</v>
+        <v>0.0620161</v>
       </c>
       <c r="C51" t="n">
-        <v>0.05744</v>
+        <v>0.0585785</v>
       </c>
       <c r="D51" t="n">
-        <v>0.058791</v>
+        <v>0.0618317</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0659164</v>
+        <v>0.06716610000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0568139</v>
+        <v>0.0589695</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0598854</v>
+        <v>0.0624191</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0636215</v>
+        <v>0.0604665</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0571527</v>
+        <v>0.0594078</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0598048</v>
+        <v>0.0627456</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0636153</v>
+        <v>0.0606452</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0575179</v>
+        <v>0.05981</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0597113</v>
+        <v>0.0633051</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0637122</v>
+        <v>0.0608571</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0585352</v>
+        <v>0.060221</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0616406</v>
+        <v>0.06371259999999999</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.063808</v>
+        <v>0.0614281</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0597465</v>
+        <v>0.0606794</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0612938</v>
+        <v>0.0642075</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.064217</v>
+        <v>0.0614797</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0587463</v>
+        <v>0.0611485</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0628792</v>
+        <v>0.0647383</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.064374</v>
+        <v>0.0604755</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0592347</v>
+        <v>0.0617305</v>
       </c>
       <c r="D58" t="n">
-        <v>0.062773</v>
+        <v>0.06550590000000001</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0645391</v>
+        <v>0.0605473</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0610584</v>
+        <v>0.0624041</v>
       </c>
       <c r="D59" t="n">
-        <v>0.06343509999999999</v>
+        <v>0.0668064</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.06472029999999999</v>
+        <v>0.0620301</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0613626</v>
+        <v>0.0637244</v>
       </c>
       <c r="D60" t="n">
-        <v>0.06442059999999999</v>
+        <v>0.0685282</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.06497360000000001</v>
+        <v>0.0622365</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0643454</v>
+        <v>0.0656825</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0663682</v>
+        <v>0.0704449</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0653469</v>
+        <v>0.0626554</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0660866</v>
+        <v>0.0681445</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0689029</v>
+        <v>0.07291830000000001</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0664752</v>
+        <v>0.0626512</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0696677</v>
+        <v>0.07135809999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.07261860000000001</v>
+        <v>0.0761995</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.068498</v>
+        <v>0.0655601</v>
       </c>
       <c r="C64" t="n">
-        <v>0.07353700000000001</v>
+        <v>0.07574069999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>0.07788100000000001</v>
+        <v>0.0806644</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0717185</v>
+        <v>0.06805170000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>0.08145670000000001</v>
+        <v>0.0824304</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0835593</v>
+        <v>0.0877752</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.076115</v>
+        <v>0.072188</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0607415</v>
+        <v>0.07260229999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0635887</v>
+        <v>0.0698328</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.07849689999999999</v>
+        <v>0.142619</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0608941</v>
+        <v>0.0769601</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0638615</v>
+        <v>0.0713824</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.07958469999999999</v>
+        <v>0.142766</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0613889</v>
+        <v>0.0791193</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0633644</v>
+        <v>0.0728499</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0794614</v>
+        <v>0.14361</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0618653</v>
+        <v>0.0808967</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0644367</v>
+        <v>0.07417849999999999</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0798447</v>
+        <v>0.145474</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0625236</v>
+        <v>0.0829025</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0641743</v>
+        <v>0.075405</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0802906</v>
+        <v>0.145549</v>
       </c>
       <c r="C71" t="n">
-        <v>0.063294</v>
+        <v>0.0847538</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0650466</v>
+        <v>0.0771401</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0802103</v>
+        <v>0.146737</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0640563</v>
+        <v>0.08668240000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0662166</v>
+        <v>0.0788922</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0805746</v>
+        <v>0.147584</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0650577</v>
+        <v>0.0889832</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0672548</v>
+        <v>0.0807877</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.08081670000000001</v>
+        <v>0.148061</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0666578</v>
+        <v>0.0911768</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0686573</v>
+        <v>0.08279739999999999</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0812358</v>
+        <v>0.148598</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0684014</v>
+        <v>0.0934992</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0703313</v>
+        <v>0.0849902</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0821123</v>
+        <v>0.149511</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0706924</v>
+        <v>0.0959618</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0725937</v>
+        <v>0.08742220000000001</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0830573</v>
+        <v>0.150721</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0735883</v>
+        <v>0.09911689999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0754547</v>
+        <v>0.0904523</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0846373</v>
+        <v>0.151825</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0777162</v>
+        <v>0.103193</v>
       </c>
       <c r="D78" t="n">
-        <v>0.07937080000000001</v>
+        <v>0.0946718</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0866257</v>
+        <v>0.153951</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0838506</v>
+        <v>0.109019</v>
       </c>
       <c r="D79" t="n">
-        <v>0.085437</v>
+        <v>0.100616</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.09050619999999999</v>
+        <v>0.15658</v>
       </c>
       <c r="C80" t="n">
-        <v>0.118809</v>
+        <v>0.11085</v>
       </c>
       <c r="D80" t="n">
-        <v>0.114748</v>
+        <v>0.112314</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.188203</v>
+        <v>0.185493</v>
       </c>
       <c r="C81" t="n">
-        <v>0.118971</v>
+        <v>0.118536</v>
       </c>
       <c r="D81" t="n">
-        <v>0.11716</v>
+        <v>0.114943</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.19064</v>
+        <v>0.185487</v>
       </c>
       <c r="C82" t="n">
-        <v>0.111858</v>
+        <v>0.115259</v>
       </c>
       <c r="D82" t="n">
-        <v>0.113192</v>
+        <v>0.109471</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.178321</v>
+        <v>0.179105</v>
       </c>
       <c r="C83" t="n">
-        <v>0.12554</v>
+        <v>0.121813</v>
       </c>
       <c r="D83" t="n">
-        <v>0.123282</v>
+        <v>0.120508</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.192416</v>
+        <v>0.188776</v>
       </c>
       <c r="C84" t="n">
-        <v>0.118077</v>
+        <v>0.117852</v>
       </c>
       <c r="D84" t="n">
-        <v>0.116115</v>
+        <v>0.112537</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.181351</v>
+        <v>0.17843</v>
       </c>
       <c r="C85" t="n">
-        <v>0.130517</v>
+        <v>0.127208</v>
       </c>
       <c r="D85" t="n">
-        <v>0.131455</v>
+        <v>0.125805</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.194185</v>
+        <v>0.190629</v>
       </c>
       <c r="C86" t="n">
-        <v>0.131211</v>
+        <v>0.130417</v>
       </c>
       <c r="D86" t="n">
-        <v>0.129827</v>
+        <v>0.131347</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.191787</v>
+        <v>0.193024</v>
       </c>
       <c r="C87" t="n">
-        <v>0.123095</v>
+        <v>0.131977</v>
       </c>
       <c r="D87" t="n">
-        <v>0.12257</v>
+        <v>0.132496</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.18217</v>
+        <v>0.189445</v>
       </c>
       <c r="C88" t="n">
-        <v>0.125966</v>
+        <v>0.137656</v>
       </c>
       <c r="D88" t="n">
-        <v>0.126307</v>
+        <v>0.135783</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.181825</v>
+        <v>0.190327</v>
       </c>
       <c r="C89" t="n">
-        <v>0.137033</v>
+        <v>0.136299</v>
       </c>
       <c r="D89" t="n">
-        <v>0.137348</v>
+        <v>0.137066</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.192331</v>
+        <v>0.192646</v>
       </c>
       <c r="C90" t="n">
-        <v>0.140092</v>
+        <v>0.140426</v>
       </c>
       <c r="D90" t="n">
-        <v>0.142717</v>
+        <v>0.141973</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.193213</v>
+        <v>0.193571</v>
       </c>
       <c r="C91" t="n">
-        <v>0.142562</v>
+        <v>0.146304</v>
       </c>
       <c r="D91" t="n">
-        <v>0.141121</v>
+        <v>0.143991</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.197311</v>
+        <v>0.194735</v>
       </c>
       <c r="C92" t="n">
-        <v>0.149211</v>
+        <v>0.151291</v>
       </c>
       <c r="D92" t="n">
-        <v>0.148974</v>
+        <v>0.148373</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.197957</v>
+        <v>0.196548</v>
       </c>
       <c r="C93" t="n">
-        <v>0.155001</v>
+        <v>0.148888</v>
       </c>
       <c r="D93" t="n">
-        <v>0.154497</v>
+        <v>0.146766</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.197691</v>
+        <v>0.192196</v>
       </c>
       <c r="C94" t="n">
-        <v>0.225678</v>
+        <v>0.224817</v>
       </c>
       <c r="D94" t="n">
-        <v>0.229486</v>
+        <v>0.22014</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.258995</v>
+        <v>0.260206</v>
       </c>
       <c r="C95" t="n">
-        <v>0.231178</v>
+        <v>0.230195</v>
       </c>
       <c r="D95" t="n">
-        <v>0.231142</v>
+        <v>0.232509</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.261526</v>
+        <v>0.260086</v>
       </c>
       <c r="C96" t="n">
-        <v>0.230482</v>
+        <v>0.231967</v>
       </c>
       <c r="D96" t="n">
-        <v>0.233707</v>
+        <v>0.235418</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.259744</v>
+        <v>0.260346</v>
       </c>
       <c r="C97" t="n">
-        <v>0.233209</v>
+        <v>0.234275</v>
       </c>
       <c r="D97" t="n">
-        <v>0.236041</v>
+        <v>0.236935</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.260141</v>
+        <v>0.262536</v>
       </c>
       <c r="C98" t="n">
-        <v>0.238005</v>
+        <v>0.239122</v>
       </c>
       <c r="D98" t="n">
-        <v>0.236348</v>
+        <v>0.239709</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.261438</v>
+        <v>0.262867</v>
       </c>
       <c r="C99" t="n">
-        <v>0.237715</v>
+        <v>0.237997</v>
       </c>
       <c r="D99" t="n">
-        <v>0.234226</v>
+        <v>0.234025</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.262576</v>
+        <v>0.260977</v>
       </c>
       <c r="C100" t="n">
-        <v>0.239656</v>
+        <v>0.239858</v>
       </c>
       <c r="D100" t="n">
-        <v>0.242595</v>
+        <v>0.243731</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.261551</v>
+        <v>0.260257</v>
       </c>
       <c r="C101" t="n">
-        <v>0.244371</v>
+        <v>0.242938</v>
       </c>
       <c r="D101" t="n">
-        <v>0.24415</v>
+        <v>0.245019</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.2621</v>
+        <v>0.263287</v>
       </c>
       <c r="C102" t="n">
-        <v>0.245803</v>
+        <v>0.247653</v>
       </c>
       <c r="D102" t="n">
-        <v>0.245385</v>
+        <v>0.247532</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.262761</v>
+        <v>0.26063</v>
       </c>
       <c r="C103" t="n">
-        <v>0.245757</v>
+        <v>0.250656</v>
       </c>
       <c r="D103" t="n">
-        <v>0.242808</v>
+        <v>0.244417</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.260983</v>
+        <v>0.263351</v>
       </c>
       <c r="C104" t="n">
-        <v>0.24829</v>
+        <v>0.251583</v>
       </c>
       <c r="D104" t="n">
-        <v>0.250662</v>
+        <v>0.25213</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.263284</v>
+        <v>0.264429</v>
       </c>
       <c r="C105" t="n">
-        <v>0.253174</v>
+        <v>0.255379</v>
       </c>
       <c r="D105" t="n">
-        <v>0.253604</v>
+        <v>0.255388</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.26198</v>
+        <v>0.264781</v>
       </c>
       <c r="C106" t="n">
-        <v>0.257103</v>
+        <v>0.258627</v>
       </c>
       <c r="D106" t="n">
-        <v>0.257015</v>
+        <v>0.253725</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.265908</v>
+        <v>0.264814</v>
       </c>
       <c r="C107" t="n">
-        <v>0.259919</v>
+        <v>0.261578</v>
       </c>
       <c r="D107" t="n">
-        <v>0.257308</v>
+        <v>0.258469</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.268302</v>
+        <v>0.269649</v>
       </c>
       <c r="C108" t="n">
-        <v>0.292397</v>
+        <v>0.290376</v>
       </c>
       <c r="D108" t="n">
-        <v>0.292869</v>
+        <v>0.295141</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.273749</v>
+        <v>0.273764</v>
       </c>
       <c r="C109" t="n">
-        <v>0.294753</v>
+        <v>0.297139</v>
       </c>
       <c r="D109" t="n">
-        <v>0.295637</v>
+        <v>0.297447</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.300191</v>
+        <v>0.291688</v>
       </c>
       <c r="C110" t="n">
-        <v>0.293717</v>
+        <v>0.298474</v>
       </c>
       <c r="D110" t="n">
-        <v>0.298244</v>
+        <v>0.300285</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.299035</v>
+        <v>0.293997</v>
       </c>
       <c r="C111" t="n">
-        <v>0.300888</v>
+        <v>0.30235</v>
       </c>
       <c r="D111" t="n">
-        <v>0.298838</v>
+        <v>0.303401</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.291631</v>
+        <v>0.300491</v>
       </c>
       <c r="C112" t="n">
-        <v>0.304704</v>
+        <v>0.304123</v>
       </c>
       <c r="D112" t="n">
-        <v>0.304319</v>
+        <v>0.305172</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.297568</v>
+        <v>0.293792</v>
       </c>
       <c r="C113" t="n">
-        <v>0.303146</v>
+        <v>0.306938</v>
       </c>
       <c r="D113" t="n">
-        <v>0.306293</v>
+        <v>0.30854</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.295724</v>
+        <v>0.29666</v>
       </c>
       <c r="C114" t="n">
-        <v>0.304696</v>
+        <v>0.309996</v>
       </c>
       <c r="D114" t="n">
-        <v>0.310605</v>
+        <v>0.311147</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.291387</v>
+        <v>0.300276</v>
       </c>
       <c r="C115" t="n">
-        <v>0.311936</v>
+        <v>0.313213</v>
       </c>
       <c r="D115" t="n">
-        <v>0.312852</v>
+        <v>0.315127</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.292283</v>
+        <v>0.297426</v>
       </c>
       <c r="C116" t="n">
-        <v>0.312036</v>
+        <v>0.316977</v>
       </c>
       <c r="D116" t="n">
-        <v>0.314914</v>
+        <v>0.318358</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.29481</v>
+        <v>0.300689</v>
       </c>
       <c r="C117" t="n">
-        <v>0.317812</v>
+        <v>0.319245</v>
       </c>
       <c r="D117" t="n">
-        <v>0.318988</v>
+        <v>0.321785</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.299421</v>
+        <v>0.296984</v>
       </c>
       <c r="C118" t="n">
-        <v>0.321596</v>
+        <v>0.324576</v>
       </c>
       <c r="D118" t="n">
-        <v>0.322989</v>
+        <v>0.325389</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.301847</v>
+        <v>0.295782</v>
       </c>
       <c r="C119" t="n">
-        <v>0.326469</v>
+        <v>0.329758</v>
       </c>
       <c r="D119" t="n">
-        <v>0.327726</v>
+        <v>0.330421</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.304386</v>
+        <v>0.297144</v>
       </c>
       <c r="C120" t="n">
-        <v>0.332536</v>
+        <v>0.334188</v>
       </c>
       <c r="D120" t="n">
-        <v>0.332655</v>
+        <v>0.335417</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.303915</v>
+        <v>0.304728</v>
       </c>
       <c r="C121" t="n">
-        <v>0.336604</v>
+        <v>0.339902</v>
       </c>
       <c r="D121" t="n">
-        <v>0.339127</v>
+        <v>0.340666</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.306388</v>
+        <v>0.306588</v>
       </c>
       <c r="C122" t="n">
-        <v>0.341392</v>
+        <v>0.341491</v>
       </c>
       <c r="D122" t="n">
-        <v>0.347978</v>
+        <v>0.350245</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.305874</v>
+        <v>0.310677</v>
       </c>
       <c r="C123" t="n">
-        <v>0.339234</v>
+        <v>0.341201</v>
       </c>
       <c r="D123" t="n">
-        <v>0.34046</v>
+        <v>0.34172</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.382167</v>
+        <v>0.383892</v>
       </c>
       <c r="C124" t="n">
-        <v>0.342686</v>
+        <v>0.344038</v>
       </c>
       <c r="D124" t="n">
-        <v>0.344241</v>
+        <v>0.345553</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.382046</v>
+        <v>0.383611</v>
       </c>
       <c r="C125" t="n">
-        <v>0.34641</v>
+        <v>0.345837</v>
       </c>
       <c r="D125" t="n">
-        <v>0.346835</v>
+        <v>0.348851</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.382361</v>
+        <v>0.382954</v>
       </c>
       <c r="C126" t="n">
-        <v>0.349489</v>
+        <v>0.349944</v>
       </c>
       <c r="D126" t="n">
-        <v>0.351188</v>
+        <v>0.352713</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.381945</v>
+        <v>0.383897</v>
       </c>
       <c r="C127" t="n">
-        <v>0.352402</v>
+        <v>0.35415</v>
       </c>
       <c r="D127" t="n">
-        <v>0.354084</v>
+        <v>0.356817</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.382189</v>
+        <v>0.37917</v>
       </c>
       <c r="C128" t="n">
-        <v>0.356668</v>
+        <v>0.358731</v>
       </c>
       <c r="D128" t="n">
-        <v>0.357624</v>
+        <v>0.360009</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.382401</v>
+        <v>0.379484</v>
       </c>
       <c r="C129" t="n">
-        <v>0.36054</v>
+        <v>0.36226</v>
       </c>
       <c r="D129" t="n">
-        <v>0.362316</v>
+        <v>0.363655</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.377595</v>
+        <v>0.385005</v>
       </c>
       <c r="C130" t="n">
-        <v>0.36455</v>
+        <v>0.366792</v>
       </c>
       <c r="D130" t="n">
-        <v>0.366357</v>
+        <v>0.368011</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.383525</v>
+        <v>0.37947</v>
       </c>
       <c r="C131" t="n">
-        <v>0.368921</v>
+        <v>0.370467</v>
       </c>
       <c r="D131" t="n">
-        <v>0.370482</v>
+        <v>0.372778</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.383757</v>
+        <v>0.384834</v>
       </c>
       <c r="C132" t="n">
-        <v>0.373585</v>
+        <v>0.373912</v>
       </c>
       <c r="D132" t="n">
-        <v>0.3751</v>
+        <v>0.378058</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.385038</v>
+        <v>0.385419</v>
       </c>
       <c r="C133" t="n">
-        <v>0.378963</v>
+        <v>0.381214</v>
       </c>
       <c r="D133" t="n">
-        <v>0.380357</v>
+        <v>0.383312</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.38393</v>
+        <v>0.386374</v>
       </c>
       <c r="C134" t="n">
-        <v>0.385591</v>
+        <v>0.387811</v>
       </c>
       <c r="D134" t="n">
-        <v>0.387834</v>
+        <v>0.389626</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.38104</v>
+        <v>0.388531</v>
       </c>
       <c r="C135" t="n">
-        <v>0.394547</v>
+        <v>0.396046</v>
       </c>
       <c r="D135" t="n">
-        <v>0.396133</v>
+        <v>0.39831</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.385224</v>
+        <v>0.383424</v>
       </c>
       <c r="C136" t="n">
-        <v>0.402199</v>
+        <v>0.406163</v>
       </c>
       <c r="D136" t="n">
-        <v>0.406991</v>
+        <v>0.409197</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.392933</v>
+        <v>0.389217</v>
       </c>
       <c r="C137" t="n">
-        <v>0.365149</v>
+        <v>0.367148</v>
       </c>
       <c r="D137" t="n">
-        <v>0.365748</v>
+        <v>0.36856</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.446367</v>
+        <v>0.449495</v>
       </c>
       <c r="C138" t="n">
-        <v>0.368612</v>
+        <v>0.370197</v>
       </c>
       <c r="D138" t="n">
-        <v>0.369146</v>
+        <v>0.371392</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.44594</v>
+        <v>0.443716</v>
       </c>
       <c r="C139" t="n">
-        <v>0.371224</v>
+        <v>0.372956</v>
       </c>
       <c r="D139" t="n">
-        <v>0.372794</v>
+        <v>0.37545</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.446802</v>
+        <v>0.449194</v>
       </c>
       <c r="C140" t="n">
-        <v>0.375093</v>
+        <v>0.377163</v>
       </c>
       <c r="D140" t="n">
-        <v>0.37662</v>
+        <v>0.377606</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.440701</v>
+        <v>0.449367</v>
       </c>
       <c r="C141" t="n">
-        <v>0.378512</v>
+        <v>0.379656</v>
       </c>
       <c r="D141" t="n">
-        <v>0.379969</v>
+        <v>0.381381</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.445681</v>
+        <v>0.449491</v>
       </c>
       <c r="C142" t="n">
-        <v>0.382163</v>
+        <v>0.383681</v>
       </c>
       <c r="D142" t="n">
-        <v>0.384551</v>
+        <v>0.386784</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.445905</v>
+        <v>0.448755</v>
       </c>
       <c r="C143" t="n">
-        <v>0.384227</v>
+        <v>0.386067</v>
       </c>
       <c r="D143" t="n">
-        <v>0.387888</v>
+        <v>0.389374</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0467014</v>
+        <v>0.0466037</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0484737</v>
+        <v>0.0522905</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0806953</v>
+        <v>0.0819163</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0439357</v>
+        <v>0.0462924</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0464545</v>
+        <v>0.0530774</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0837402</v>
+        <v>0.0853402</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0394751</v>
+        <v>0.0449333</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0424077</v>
+        <v>0.051487</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0944893</v>
+        <v>0.0960655</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0397982</v>
+        <v>0.0440949</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0435425</v>
+        <v>0.0503997</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09957630000000001</v>
+        <v>0.101413</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0395792</v>
+        <v>0.0429878</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0441342</v>
+        <v>0.049478</v>
       </c>
       <c r="D6" t="n">
-        <v>0.110117</v>
+        <v>0.112619</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0413043</v>
+        <v>0.0470628</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0460796</v>
+        <v>0.0546208</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0671689</v>
+        <v>0.07068290000000001</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0403067</v>
+        <v>0.0476247</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0458788</v>
+        <v>0.0556247</v>
       </c>
       <c r="D8" t="n">
-        <v>0.07168190000000001</v>
+        <v>0.0749317</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.040209</v>
+        <v>0.0459062</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0445869</v>
+        <v>0.0452806</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0763366</v>
+        <v>0.079571</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0437069</v>
+        <v>0.0442466</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0446144</v>
+        <v>0.044953</v>
       </c>
       <c r="D10" t="n">
-        <v>0.08072790000000001</v>
+        <v>0.0849975</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0437598</v>
+        <v>0.0441461</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0449344</v>
+        <v>0.045704</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0850556</v>
+        <v>0.0893264</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0439088</v>
+        <v>0.044372</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0455668</v>
+        <v>0.0461664</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0916101</v>
+        <v>0.0968644</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0441629</v>
+        <v>0.0444913</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0460109</v>
+        <v>0.0464293</v>
       </c>
       <c r="D13" t="n">
-        <v>0.09615460000000001</v>
+        <v>0.102256</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0444424</v>
+        <v>0.0448274</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0458871</v>
+        <v>0.046612</v>
       </c>
       <c r="D14" t="n">
-        <v>0.100446</v>
+        <v>0.106944</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0444814</v>
+        <v>0.0446851</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0462627</v>
+        <v>0.0465262</v>
       </c>
       <c r="D15" t="n">
-        <v>0.105418</v>
+        <v>0.111924</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0445772</v>
+        <v>0.0447977</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0468872</v>
+        <v>0.0471965</v>
       </c>
       <c r="D16" t="n">
-        <v>0.111146</v>
+        <v>0.116559</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0447038</v>
+        <v>0.0449834</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0466594</v>
+        <v>0.0472741</v>
       </c>
       <c r="D17" t="n">
-        <v>0.115076</v>
+        <v>0.118963</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0448049</v>
+        <v>0.0450075</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0470055</v>
+        <v>0.0472119</v>
       </c>
       <c r="D18" t="n">
-        <v>0.120535</v>
+        <v>0.124373</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0450686</v>
+        <v>0.045212</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0473861</v>
+        <v>0.0476068</v>
       </c>
       <c r="D19" t="n">
-        <v>0.12462</v>
+        <v>0.128497</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0452795</v>
+        <v>0.0453464</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0480551</v>
+        <v>0.0483334</v>
       </c>
       <c r="D20" t="n">
-        <v>0.127581</v>
+        <v>0.131109</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0456763</v>
+        <v>0.0454669</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0492074</v>
+        <v>0.0491284</v>
       </c>
       <c r="D21" t="n">
-        <v>0.08879430000000001</v>
+        <v>0.088891</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0456607</v>
+        <v>0.0461001</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0544319</v>
+        <v>0.0543026</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0916375</v>
+        <v>0.0920315</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0459326</v>
+        <v>0.0459847</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0520223</v>
+        <v>0.0511542</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0951118</v>
+        <v>0.09535059999999999</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0506229</v>
+        <v>0.0492791</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0515448</v>
+        <v>0.051376</v>
       </c>
       <c r="D24" t="n">
-        <v>0.09814440000000001</v>
+        <v>0.09864829999999999</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0502003</v>
+        <v>0.0493244</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0516193</v>
+        <v>0.0512504</v>
       </c>
       <c r="D25" t="n">
-        <v>0.102178</v>
+        <v>0.102387</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0497101</v>
+        <v>0.0492227</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0519668</v>
+        <v>0.0514899</v>
       </c>
       <c r="D26" t="n">
-        <v>0.105628</v>
+        <v>0.106095</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0496672</v>
+        <v>0.0493868</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0520194</v>
+        <v>0.0525363</v>
       </c>
       <c r="D27" t="n">
-        <v>0.109596</v>
+        <v>0.109908</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.049705</v>
+        <v>0.0494114</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0517421</v>
+        <v>0.0517122</v>
       </c>
       <c r="D28" t="n">
-        <v>0.113871</v>
+        <v>0.113831</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0508198</v>
+        <v>0.0497897</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0524329</v>
+        <v>0.0523117</v>
       </c>
       <c r="D29" t="n">
-        <v>0.118071</v>
+        <v>0.118088</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0500187</v>
+        <v>0.0496554</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0522876</v>
+        <v>0.0524324</v>
       </c>
       <c r="D30" t="n">
-        <v>0.122216</v>
+        <v>0.122061</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0501564</v>
+        <v>0.0498622</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0525612</v>
+        <v>0.0526988</v>
       </c>
       <c r="D31" t="n">
-        <v>0.126291</v>
+        <v>0.1265</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0502081</v>
+        <v>0.0499271</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0533356</v>
+        <v>0.0527143</v>
       </c>
       <c r="D32" t="n">
-        <v>0.129693</v>
+        <v>0.130305</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0506944</v>
+        <v>0.0507396</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0542437</v>
+        <v>0.0532375</v>
       </c>
       <c r="D33" t="n">
-        <v>0.133205</v>
+        <v>0.133887</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0507481</v>
+        <v>0.0513071</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0546106</v>
+        <v>0.0552287</v>
       </c>
       <c r="D34" t="n">
-        <v>0.136723</v>
+        <v>0.137103</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0506312</v>
+        <v>0.0506451</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0586399</v>
+        <v>0.058185</v>
       </c>
       <c r="D35" t="n">
-        <v>0.096471</v>
+        <v>0.09679020000000001</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0510693</v>
+        <v>0.0509209</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0659863</v>
+        <v>0.0656428</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0987027</v>
+        <v>0.098937</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0527314</v>
+        <v>0.0524826</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0553821</v>
+        <v>0.0547603</v>
       </c>
       <c r="D37" t="n">
-        <v>0.100908</v>
+        <v>0.101061</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0550081</v>
+        <v>0.0558672</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0560938</v>
+        <v>0.0536312</v>
       </c>
       <c r="D38" t="n">
-        <v>0.10382</v>
+        <v>0.104157</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0579393</v>
+        <v>0.0546983</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0546427</v>
+        <v>0.0546126</v>
       </c>
       <c r="D39" t="n">
-        <v>0.106845</v>
+        <v>0.106905</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0575228</v>
+        <v>0.0548486</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0549491</v>
+        <v>0.0540954</v>
       </c>
       <c r="D40" t="n">
-        <v>0.110387</v>
+        <v>0.110434</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0543933</v>
+        <v>0.0556361</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0551273</v>
+        <v>0.054798</v>
       </c>
       <c r="D41" t="n">
-        <v>0.113875</v>
+        <v>0.114084</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0551856</v>
+        <v>0.0563041</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0554249</v>
+        <v>0.0550668</v>
       </c>
       <c r="D42" t="n">
-        <v>0.117756</v>
+        <v>0.117822</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0575977</v>
+        <v>0.0545985</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0549232</v>
+        <v>0.056073</v>
       </c>
       <c r="D43" t="n">
-        <v>0.121565</v>
+        <v>0.121887</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0578221</v>
+        <v>0.0547584</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0553081</v>
+        <v>0.0563671</v>
       </c>
       <c r="D44" t="n">
-        <v>0.125806</v>
+        <v>0.126077</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0579657</v>
+        <v>0.0548916</v>
       </c>
       <c r="C45" t="n">
-        <v>0.056574</v>
+        <v>0.0561392</v>
       </c>
       <c r="D45" t="n">
-        <v>0.129818</v>
+        <v>0.13004</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0585204</v>
+        <v>0.0551453</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0560552</v>
+        <v>0.0569886</v>
       </c>
       <c r="D46" t="n">
-        <v>0.133662</v>
+        <v>0.133949</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0610418</v>
+        <v>0.0548245</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0588595</v>
+        <v>0.058248</v>
       </c>
       <c r="D47" t="n">
-        <v>0.137873</v>
+        <v>0.137091</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0574218</v>
+        <v>0.055068</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0612111</v>
+        <v>0.0621959</v>
       </c>
       <c r="D48" t="n">
-        <v>0.141897</v>
+        <v>0.140886</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0583966</v>
+        <v>0.0554513</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0660338</v>
+        <v>0.0665437</v>
       </c>
       <c r="D49" t="n">
-        <v>0.145705</v>
+        <v>0.14416</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0599995</v>
+        <v>0.0570638</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0702554</v>
+        <v>0.0718545</v>
       </c>
       <c r="D50" t="n">
-        <v>0.103009</v>
+        <v>0.100845</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0650303</v>
+        <v>0.0629127</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0592064</v>
+        <v>0.0566411</v>
       </c>
       <c r="D51" t="n">
-        <v>0.106522</v>
+        <v>0.103062</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0675085</v>
+        <v>0.0679139</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0599787</v>
+        <v>0.0571102</v>
       </c>
       <c r="D52" t="n">
-        <v>0.108659</v>
+        <v>0.105664</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0606074</v>
+        <v>0.0603507</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0600613</v>
+        <v>0.0572691</v>
       </c>
       <c r="D53" t="n">
-        <v>0.111354</v>
+        <v>0.108748</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0650029</v>
+        <v>0.06276370000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0572804</v>
+        <v>0.0581685</v>
       </c>
       <c r="D54" t="n">
-        <v>0.115438</v>
+        <v>0.111858</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0657514</v>
+        <v>0.06307450000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0607906</v>
+        <v>0.0579296</v>
       </c>
       <c r="D55" t="n">
-        <v>0.119288</v>
+        <v>0.115766</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0641663</v>
+        <v>0.06302919999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0598304</v>
+        <v>0.0581974</v>
       </c>
       <c r="D56" t="n">
-        <v>0.123187</v>
+        <v>0.11947</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0659969</v>
+        <v>0.06327380000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0622712</v>
+        <v>0.0587907</v>
       </c>
       <c r="D57" t="n">
-        <v>0.127389</v>
+        <v>0.12368</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0642211</v>
+        <v>0.06335300000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0615186</v>
+        <v>0.0591872</v>
       </c>
       <c r="D58" t="n">
-        <v>0.132124</v>
+        <v>0.12762</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.06328789999999999</v>
+        <v>0.0615767</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0589225</v>
+        <v>0.0601139</v>
       </c>
       <c r="D59" t="n">
-        <v>0.136661</v>
+        <v>0.131498</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.064792</v>
+        <v>0.0627919</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0598915</v>
+        <v>0.0615836</v>
       </c>
       <c r="D60" t="n">
-        <v>0.140382</v>
+        <v>0.136005</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0659711</v>
+        <v>0.0640865</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0635701</v>
+        <v>0.0640086</v>
       </c>
       <c r="D61" t="n">
-        <v>0.144761</v>
+        <v>0.140671</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.06491959999999999</v>
+        <v>0.0627818</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0686124</v>
+        <v>0.0660333</v>
       </c>
       <c r="D62" t="n">
-        <v>0.147352</v>
+        <v>0.145745</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0666756</v>
+        <v>0.0644769</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0677985</v>
+        <v>0.0695503</v>
       </c>
       <c r="D63" t="n">
-        <v>0.151976</v>
+        <v>0.147683</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.06998409999999999</v>
+        <v>0.0672097</v>
       </c>
       <c r="C64" t="n">
-        <v>0.07635309999999999</v>
+        <v>0.07395450000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.109779</v>
+        <v>0.112747</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0695587</v>
+        <v>0.0680756</v>
       </c>
       <c r="C65" t="n">
-        <v>0.07860540000000001</v>
+        <v>0.0811047</v>
       </c>
       <c r="D65" t="n">
-        <v>0.113453</v>
+        <v>0.115535</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0709603</v>
+        <v>0.07233249999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0606753</v>
+        <v>0.0610913</v>
       </c>
       <c r="D66" t="n">
-        <v>0.116915</v>
+        <v>0.121166</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.08014350000000001</v>
+        <v>0.0813774</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0614401</v>
+        <v>0.061177</v>
       </c>
       <c r="D67" t="n">
-        <v>0.123889</v>
+        <v>0.125307</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0789252</v>
+        <v>0.07883519999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0638949</v>
+        <v>0.0616163</v>
       </c>
       <c r="D68" t="n">
-        <v>0.128068</v>
+        <v>0.132644</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.08193159999999999</v>
+        <v>0.0829608</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0628795</v>
+        <v>0.06312520000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.133343</v>
+        <v>0.13699</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0815085</v>
+        <v>0.08323750000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0634241</v>
+        <v>0.0639219</v>
       </c>
       <c r="D70" t="n">
-        <v>0.141146</v>
+        <v>0.144893</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0797728</v>
+        <v>0.08136350000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0646115</v>
+        <v>0.0646399</v>
       </c>
       <c r="D71" t="n">
-        <v>0.147058</v>
+        <v>0.151694</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0801746</v>
+        <v>0.0821173</v>
       </c>
       <c r="C72" t="n">
-        <v>0.063875</v>
+        <v>0.0653073</v>
       </c>
       <c r="D72" t="n">
-        <v>0.155621</v>
+        <v>0.158219</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0807402</v>
+        <v>0.0827252</v>
       </c>
       <c r="C73" t="n">
-        <v>0.06512129999999999</v>
+        <v>0.0665999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.167789</v>
+        <v>0.167562</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0812461</v>
+        <v>0.0827275</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0668081</v>
+        <v>0.06818680000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>0.177449</v>
+        <v>0.177785</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0798048</v>
+        <v>0.08132010000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>0.06927410000000001</v>
+        <v>0.0690494</v>
       </c>
       <c r="D75" t="n">
-        <v>0.186033</v>
+        <v>0.18927</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0797861</v>
+        <v>0.0824824</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0711846</v>
+        <v>0.0711615</v>
       </c>
       <c r="D76" t="n">
-        <v>0.193733</v>
+        <v>0.194696</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.08176990000000001</v>
+        <v>0.082023</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0740335</v>
+        <v>0.07445880000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>0.204928</v>
+        <v>0.203452</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.08313859999999999</v>
+        <v>0.08465880000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0782104</v>
+        <v>0.0788358</v>
       </c>
       <c r="D78" t="n">
-        <v>0.195956</v>
+        <v>0.195832</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0854335</v>
+        <v>0.0854632</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0842398</v>
+        <v>0.08469400000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>0.209067</v>
+        <v>0.202739</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.09049980000000001</v>
+        <v>0.08959449999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>0.110183</v>
+        <v>0.110038</v>
       </c>
       <c r="D80" t="n">
-        <v>0.213113</v>
+        <v>0.208162</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.17429</v>
+        <v>0.175044</v>
       </c>
       <c r="C81" t="n">
-        <v>0.11187</v>
+        <v>0.109839</v>
       </c>
       <c r="D81" t="n">
-        <v>0.22189</v>
+        <v>0.218329</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.178017</v>
+        <v>0.175735</v>
       </c>
       <c r="C82" t="n">
-        <v>0.11439</v>
+        <v>0.115156</v>
       </c>
       <c r="D82" t="n">
-        <v>0.227664</v>
+        <v>0.226973</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.180872</v>
+        <v>0.179584</v>
       </c>
       <c r="C83" t="n">
-        <v>0.118192</v>
+        <v>0.117301</v>
       </c>
       <c r="D83" t="n">
-        <v>0.238622</v>
+        <v>0.233971</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.181419</v>
+        <v>0.180203</v>
       </c>
       <c r="C84" t="n">
-        <v>0.120022</v>
+        <v>0.12</v>
       </c>
       <c r="D84" t="n">
-        <v>0.248351</v>
+        <v>0.243928</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.182409</v>
+        <v>0.180899</v>
       </c>
       <c r="C85" t="n">
-        <v>0.122989</v>
+        <v>0.12223</v>
       </c>
       <c r="D85" t="n">
-        <v>0.255808</v>
+        <v>0.254615</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.182049</v>
+        <v>0.181666</v>
       </c>
       <c r="C86" t="n">
-        <v>0.125937</v>
+        <v>0.126508</v>
       </c>
       <c r="D86" t="n">
-        <v>0.270093</v>
+        <v>0.264638</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.182489</v>
+        <v>0.182064</v>
       </c>
       <c r="C87" t="n">
-        <v>0.126926</v>
+        <v>0.128705</v>
       </c>
       <c r="D87" t="n">
-        <v>0.274929</v>
+        <v>0.272573</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.183843</v>
+        <v>0.180942</v>
       </c>
       <c r="C88" t="n">
-        <v>0.128107</v>
+        <v>0.129015</v>
       </c>
       <c r="D88" t="n">
-        <v>0.284098</v>
+        <v>0.281191</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.183193</v>
+        <v>0.181133</v>
       </c>
       <c r="C89" t="n">
-        <v>0.132293</v>
+        <v>0.129669</v>
       </c>
       <c r="D89" t="n">
-        <v>0.299251</v>
+        <v>0.291897</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.184401</v>
+        <v>0.181722</v>
       </c>
       <c r="C90" t="n">
-        <v>0.13444</v>
+        <v>0.132218</v>
       </c>
       <c r="D90" t="n">
-        <v>0.310279</v>
+        <v>0.305256</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.184644</v>
+        <v>0.182805</v>
       </c>
       <c r="C91" t="n">
-        <v>0.135296</v>
+        <v>0.135223</v>
       </c>
       <c r="D91" t="n">
-        <v>0.315303</v>
+        <v>0.3104</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.180018</v>
+        <v>0.183721</v>
       </c>
       <c r="C92" t="n">
-        <v>0.141211</v>
+        <v>0.138815</v>
       </c>
       <c r="D92" t="n">
-        <v>0.29285</v>
+        <v>0.291741</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.186205</v>
+        <v>0.186711</v>
       </c>
       <c r="C93" t="n">
-        <v>0.142729</v>
+        <v>0.145724</v>
       </c>
       <c r="D93" t="n">
-        <v>0.301889</v>
+        <v>0.300491</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.188989</v>
+        <v>0.187487</v>
       </c>
       <c r="C94" t="n">
-        <v>0.215199</v>
+        <v>0.214599</v>
       </c>
       <c r="D94" t="n">
-        <v>0.308871</v>
+        <v>0.307863</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.245682</v>
+        <v>0.244935</v>
       </c>
       <c r="C95" t="n">
-        <v>0.220726</v>
+        <v>0.220374</v>
       </c>
       <c r="D95" t="n">
-        <v>0.316782</v>
+        <v>0.315384</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.245948</v>
+        <v>0.245186</v>
       </c>
       <c r="C96" t="n">
-        <v>0.219614</v>
+        <v>0.222328</v>
       </c>
       <c r="D96" t="n">
-        <v>0.326013</v>
+        <v>0.324462</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.244359</v>
+        <v>0.245063</v>
       </c>
       <c r="C97" t="n">
-        <v>0.22145</v>
+        <v>0.224585</v>
       </c>
       <c r="D97" t="n">
-        <v>0.332103</v>
+        <v>0.331037</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.246265</v>
+        <v>0.245401</v>
       </c>
       <c r="C98" t="n">
-        <v>0.226632</v>
+        <v>0.226764</v>
       </c>
       <c r="D98" t="n">
-        <v>0.341865</v>
+        <v>0.340156</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.246272</v>
+        <v>0.24548</v>
       </c>
       <c r="C99" t="n">
-        <v>0.226018</v>
+        <v>0.228402</v>
       </c>
       <c r="D99" t="n">
-        <v>0.348942</v>
+        <v>0.34857</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.246358</v>
+        <v>0.245812</v>
       </c>
       <c r="C100" t="n">
-        <v>0.22734</v>
+        <v>0.227324</v>
       </c>
       <c r="D100" t="n">
-        <v>0.358607</v>
+        <v>0.35675</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.247866</v>
+        <v>0.24612</v>
       </c>
       <c r="C101" t="n">
-        <v>0.229519</v>
+        <v>0.232766</v>
       </c>
       <c r="D101" t="n">
-        <v>0.36524</v>
+        <v>0.36324</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.245793</v>
+        <v>0.246764</v>
       </c>
       <c r="C102" t="n">
-        <v>0.2324</v>
+        <v>0.23461</v>
       </c>
       <c r="D102" t="n">
-        <v>0.373579</v>
+        <v>0.373212</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.24712</v>
+        <v>0.246502</v>
       </c>
       <c r="C103" t="n">
-        <v>0.23778</v>
+        <v>0.235177</v>
       </c>
       <c r="D103" t="n">
-        <v>0.383904</v>
+        <v>0.382928</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.246906</v>
+        <v>0.247086</v>
       </c>
       <c r="C104" t="n">
-        <v>0.24075</v>
+        <v>0.240432</v>
       </c>
       <c r="D104" t="n">
-        <v>0.393458</v>
+        <v>0.391895</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.248298</v>
+        <v>0.24668</v>
       </c>
       <c r="C105" t="n">
-        <v>0.245341</v>
+        <v>0.24266</v>
       </c>
       <c r="D105" t="n">
-        <v>0.402587</v>
+        <v>0.401072</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.24917</v>
+        <v>0.248182</v>
       </c>
       <c r="C106" t="n">
-        <v>0.247913</v>
+        <v>0.246618</v>
       </c>
       <c r="D106" t="n">
-        <v>0.413202</v>
+        <v>0.410286</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.251031</v>
+        <v>0.250112</v>
       </c>
       <c r="C107" t="n">
-        <v>0.250839</v>
+        <v>0.249062</v>
       </c>
       <c r="D107" t="n">
-        <v>0.356445</v>
+        <v>0.354311</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.252521</v>
+        <v>0.250795</v>
       </c>
       <c r="C108" t="n">
-        <v>0.271055</v>
+        <v>0.269636</v>
       </c>
       <c r="D108" t="n">
-        <v>0.358009</v>
+        <v>0.360318</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.258218</v>
+        <v>0.255396</v>
       </c>
       <c r="C109" t="n">
-        <v>0.269483</v>
+        <v>0.271857</v>
       </c>
       <c r="D109" t="n">
-        <v>0.367226</v>
+        <v>0.369013</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.281644</v>
+        <v>0.280671</v>
       </c>
       <c r="C110" t="n">
-        <v>0.27531</v>
+        <v>0.272827</v>
       </c>
       <c r="D110" t="n">
-        <v>0.372213</v>
+        <v>0.374651</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.274714</v>
+        <v>0.279459</v>
       </c>
       <c r="C111" t="n">
-        <v>0.27834</v>
+        <v>0.276663</v>
       </c>
       <c r="D111" t="n">
-        <v>0.37941</v>
+        <v>0.380714</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.280331</v>
+        <v>0.278749</v>
       </c>
       <c r="C112" t="n">
-        <v>0.277367</v>
+        <v>0.279283</v>
       </c>
       <c r="D112" t="n">
-        <v>0.390145</v>
+        <v>0.39233</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.280772</v>
+        <v>0.281</v>
       </c>
       <c r="C113" t="n">
-        <v>0.282748</v>
+        <v>0.281853</v>
       </c>
       <c r="D113" t="n">
-        <v>0.398743</v>
+        <v>0.40084</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.27522</v>
+        <v>0.277859</v>
       </c>
       <c r="C114" t="n">
-        <v>0.278209</v>
+        <v>0.276476</v>
       </c>
       <c r="D114" t="n">
-        <v>0.41146</v>
+        <v>0.404743</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.275288</v>
+        <v>0.280351</v>
       </c>
       <c r="C115" t="n">
-        <v>0.28151</v>
+        <v>0.280308</v>
       </c>
       <c r="D115" t="n">
-        <v>0.421228</v>
+        <v>0.412189</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.281309</v>
+        <v>0.281131</v>
       </c>
       <c r="C116" t="n">
-        <v>0.281305</v>
+        <v>0.283512</v>
       </c>
       <c r="D116" t="n">
-        <v>0.42882</v>
+        <v>0.420508</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.282636</v>
+        <v>0.278768</v>
       </c>
       <c r="C117" t="n">
-        <v>0.287328</v>
+        <v>0.286487</v>
       </c>
       <c r="D117" t="n">
-        <v>0.438115</v>
+        <v>0.438126</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.284051</v>
+        <v>0.274909</v>
       </c>
       <c r="C118" t="n">
-        <v>0.292175</v>
+        <v>0.286448</v>
       </c>
       <c r="D118" t="n">
-        <v>0.445539</v>
+        <v>0.443901</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.277161</v>
+        <v>0.281982</v>
       </c>
       <c r="C119" t="n">
-        <v>0.290723</v>
+        <v>0.293365</v>
       </c>
       <c r="D119" t="n">
-        <v>0.453356</v>
+        <v>0.449198</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.280211</v>
+        <v>0.281554</v>
       </c>
       <c r="C120" t="n">
-        <v>0.299341</v>
+        <v>0.294707</v>
       </c>
       <c r="D120" t="n">
-        <v>0.463204</v>
+        <v>0.457971</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.286309</v>
+        <v>0.283836</v>
       </c>
       <c r="C121" t="n">
-        <v>0.304859</v>
+        <v>0.30288</v>
       </c>
       <c r="D121" t="n">
-        <v>0.386541</v>
+        <v>0.384338</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.291266</v>
+        <v>0.286816</v>
       </c>
       <c r="C122" t="n">
-        <v>0.312817</v>
+        <v>0.309327</v>
       </c>
       <c r="D122" t="n">
-        <v>0.396868</v>
+        <v>0.393917</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.294485</v>
+        <v>0.29158</v>
       </c>
       <c r="C123" t="n">
-        <v>0.298364</v>
+        <v>0.293322</v>
       </c>
       <c r="D123" t="n">
-        <v>0.395097</v>
+        <v>0.391877</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.36189</v>
+        <v>0.35849</v>
       </c>
       <c r="C124" t="n">
-        <v>0.300975</v>
+        <v>0.295683</v>
       </c>
       <c r="D124" t="n">
-        <v>0.404151</v>
+        <v>0.405165</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.359278</v>
+        <v>0.358913</v>
       </c>
       <c r="C125" t="n">
-        <v>0.303935</v>
+        <v>0.302463</v>
       </c>
       <c r="D125" t="n">
-        <v>0.406289</v>
+        <v>0.406584</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.35897</v>
+        <v>0.357994</v>
       </c>
       <c r="C126" t="n">
-        <v>0.306934</v>
+        <v>0.305471</v>
       </c>
       <c r="D126" t="n">
-        <v>0.424396</v>
+        <v>0.417475</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.353069</v>
+        <v>0.351249</v>
       </c>
       <c r="C127" t="n">
-        <v>0.305642</v>
+        <v>0.308677</v>
       </c>
       <c r="D127" t="n">
-        <v>0.427335</v>
+        <v>0.421615</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.361719</v>
+        <v>0.359187</v>
       </c>
       <c r="C128" t="n">
-        <v>0.312742</v>
+        <v>0.311655</v>
       </c>
       <c r="D128" t="n">
-        <v>0.439368</v>
+        <v>0.437689</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.362551</v>
+        <v>0.358499</v>
       </c>
       <c r="C129" t="n">
-        <v>0.31268</v>
+        <v>0.31481</v>
       </c>
       <c r="D129" t="n">
-        <v>0.445889</v>
+        <v>0.44441</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.353745</v>
+        <v>0.357303</v>
       </c>
       <c r="C130" t="n">
-        <v>0.315456</v>
+        <v>0.314716</v>
       </c>
       <c r="D130" t="n">
-        <v>0.456183</v>
+        <v>0.453572</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.362509</v>
+        <v>0.358639</v>
       </c>
       <c r="C131" t="n">
-        <v>0.324534</v>
+        <v>0.322973</v>
       </c>
       <c r="D131" t="n">
-        <v>0.462104</v>
+        <v>0.456315</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.361713</v>
+        <v>0.360941</v>
       </c>
       <c r="C132" t="n">
-        <v>0.324114</v>
+        <v>0.322866</v>
       </c>
       <c r="D132" t="n">
-        <v>0.473362</v>
+        <v>0.470923</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.35357</v>
+        <v>0.358642</v>
       </c>
       <c r="C133" t="n">
-        <v>0.329223</v>
+        <v>0.33257</v>
       </c>
       <c r="D133" t="n">
-        <v>0.479742</v>
+        <v>0.476994</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.361169</v>
+        <v>0.359962</v>
       </c>
       <c r="C134" t="n">
-        <v>0.339677</v>
+        <v>0.338432</v>
       </c>
       <c r="D134" t="n">
-        <v>0.492186</v>
+        <v>0.488279</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.363375</v>
+        <v>0.360465</v>
       </c>
       <c r="C135" t="n">
-        <v>0.347528</v>
+        <v>0.345889</v>
       </c>
       <c r="D135" t="n">
-        <v>0.406306</v>
+        <v>0.404121</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.365324</v>
+        <v>0.363435</v>
       </c>
       <c r="C136" t="n">
-        <v>0.356735</v>
+        <v>0.354501</v>
       </c>
       <c r="D136" t="n">
-        <v>0.409703</v>
+        <v>0.409802</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.367273</v>
+        <v>0.367935</v>
       </c>
       <c r="C137" t="n">
-        <v>0.323513</v>
+        <v>0.318384</v>
       </c>
       <c r="D137" t="n">
-        <v>0.41914</v>
+        <v>0.417428</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.420098</v>
+        <v>0.416416</v>
       </c>
       <c r="C138" t="n">
-        <v>0.326273</v>
+        <v>0.324759</v>
       </c>
       <c r="D138" t="n">
-        <v>0.420121</v>
+        <v>0.41679</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.413746</v>
+        <v>0.417205</v>
       </c>
       <c r="C139" t="n">
-        <v>0.328356</v>
+        <v>0.326369</v>
       </c>
       <c r="D139" t="n">
-        <v>0.424641</v>
+        <v>0.422704</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.419511</v>
+        <v>0.417023</v>
       </c>
       <c r="C140" t="n">
-        <v>0.32606</v>
+        <v>0.329869</v>
       </c>
       <c r="D140" t="n">
-        <v>0.439701</v>
+        <v>0.437108</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.41954</v>
+        <v>0.417707</v>
       </c>
       <c r="C141" t="n">
-        <v>0.333029</v>
+        <v>0.332129</v>
       </c>
       <c r="D141" t="n">
-        <v>0.445638</v>
+        <v>0.443216</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.420109</v>
+        <v>0.415494</v>
       </c>
       <c r="C142" t="n">
-        <v>0.336202</v>
+        <v>0.329389</v>
       </c>
       <c r="D142" t="n">
-        <v>0.451404</v>
+        <v>0.448358</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.413331</v>
+        <v>0.417156</v>
       </c>
       <c r="C143" t="n">
-        <v>0.338377</v>
+        <v>0.338089</v>
       </c>
       <c r="D143" t="n">
-        <v>0.463688</v>
+        <v>0.462463</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0466037</v>
+        <v>0.0426647</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0522905</v>
+        <v>0.0488371</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0819163</v>
+        <v>0.0771748</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0462924</v>
+        <v>0.0364592</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0530774</v>
+        <v>0.0440297</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0853402</v>
+        <v>0.08157689999999999</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0449333</v>
+        <v>0.0366378</v>
       </c>
       <c r="C4" t="n">
-        <v>0.051487</v>
+        <v>0.0441293</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0960655</v>
+        <v>0.0910943</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0440949</v>
+        <v>0.0367035</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0503997</v>
+        <v>0.0445888</v>
       </c>
       <c r="D5" t="n">
-        <v>0.101413</v>
+        <v>0.0958726</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0429878</v>
+        <v>0.0362829</v>
       </c>
       <c r="C6" t="n">
-        <v>0.049478</v>
+        <v>0.0448482</v>
       </c>
       <c r="D6" t="n">
-        <v>0.112619</v>
+        <v>0.106617</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0470628</v>
+        <v>0.0362835</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0546208</v>
+        <v>0.0447907</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07068290000000001</v>
+        <v>0.06265999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0476247</v>
+        <v>0.0370405</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0556247</v>
+        <v>0.0464339</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0749317</v>
+        <v>0.06639689999999999</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0459062</v>
+        <v>0.037338</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0452806</v>
+        <v>0.0498403</v>
       </c>
       <c r="D9" t="n">
-        <v>0.079571</v>
+        <v>0.0711881</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0442466</v>
+        <v>0.0456444</v>
       </c>
       <c r="C10" t="n">
-        <v>0.044953</v>
+        <v>0.0505121</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0849975</v>
+        <v>0.0754595</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0441461</v>
+        <v>0.0459418</v>
       </c>
       <c r="C11" t="n">
-        <v>0.045704</v>
+        <v>0.0493171</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0893264</v>
+        <v>0.07930909999999999</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.044372</v>
+        <v>0.0460399</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0461664</v>
+        <v>0.0507935</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0968644</v>
+        <v>0.085742</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0444913</v>
+        <v>0.0460496</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0464293</v>
+        <v>0.0511092</v>
       </c>
       <c r="D13" t="n">
-        <v>0.102256</v>
+        <v>0.0906778</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0448274</v>
+        <v>0.0453456</v>
       </c>
       <c r="C14" t="n">
-        <v>0.046612</v>
+        <v>0.0501678</v>
       </c>
       <c r="D14" t="n">
-        <v>0.106944</v>
+        <v>0.09504700000000001</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0446851</v>
+        <v>0.0461715</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0465262</v>
+        <v>0.0518791</v>
       </c>
       <c r="D15" t="n">
-        <v>0.111924</v>
+        <v>0.0999355</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0447977</v>
+        <v>0.0464173</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0471965</v>
+        <v>0.0517672</v>
       </c>
       <c r="D16" t="n">
-        <v>0.116559</v>
+        <v>0.10537</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0449834</v>
+        <v>0.0466404</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0472741</v>
+        <v>0.0509311</v>
       </c>
       <c r="D17" t="n">
-        <v>0.118963</v>
+        <v>0.109726</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0450075</v>
+        <v>0.0464327</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0472119</v>
+        <v>0.0527651</v>
       </c>
       <c r="D18" t="n">
-        <v>0.124373</v>
+        <v>0.114426</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.045212</v>
+        <v>0.0466303</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0476068</v>
+        <v>0.0524678</v>
       </c>
       <c r="D19" t="n">
-        <v>0.128497</v>
+        <v>0.118943</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0453464</v>
+        <v>0.0467497</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0483334</v>
+        <v>0.0529241</v>
       </c>
       <c r="D20" t="n">
-        <v>0.131109</v>
+        <v>0.12225</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0454669</v>
+        <v>0.048286</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0491284</v>
+        <v>0.0555735</v>
       </c>
       <c r="D21" t="n">
-        <v>0.088891</v>
+        <v>0.08765920000000001</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0461001</v>
+        <v>0.0476726</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0543026</v>
+        <v>0.0587536</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0920315</v>
+        <v>0.0904904</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0459847</v>
+        <v>0.0485814</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0511542</v>
+        <v>0.0544371</v>
       </c>
       <c r="D23" t="n">
-        <v>0.09535059999999999</v>
+        <v>0.0935213</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0492791</v>
+        <v>0.049168</v>
       </c>
       <c r="C24" t="n">
-        <v>0.051376</v>
+        <v>0.0538822</v>
       </c>
       <c r="D24" t="n">
-        <v>0.09864829999999999</v>
+        <v>0.097068</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0493244</v>
+        <v>0.0493701</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0512504</v>
+        <v>0.0542785</v>
       </c>
       <c r="D25" t="n">
-        <v>0.102387</v>
+        <v>0.100233</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0492227</v>
+        <v>0.0497908</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0514899</v>
+        <v>0.0545766</v>
       </c>
       <c r="D26" t="n">
-        <v>0.106095</v>
+        <v>0.104129</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0493868</v>
+        <v>0.0495913</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0525363</v>
+        <v>0.0549767</v>
       </c>
       <c r="D27" t="n">
-        <v>0.109908</v>
+        <v>0.108142</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0494114</v>
+        <v>0.0495875</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0517122</v>
+        <v>0.0553296</v>
       </c>
       <c r="D28" t="n">
-        <v>0.113831</v>
+        <v>0.112093</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0497897</v>
+        <v>0.0500804</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0523117</v>
+        <v>0.0555348</v>
       </c>
       <c r="D29" t="n">
-        <v>0.118088</v>
+        <v>0.116319</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0496554</v>
+        <v>0.0498541</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0524324</v>
+        <v>0.0558782</v>
       </c>
       <c r="D30" t="n">
-        <v>0.122061</v>
+        <v>0.120155</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0498622</v>
+        <v>0.0499879</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0526988</v>
+        <v>0.0561156</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1265</v>
+        <v>0.124435</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0499271</v>
+        <v>0.0506052</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0527143</v>
+        <v>0.056312</v>
       </c>
       <c r="D32" t="n">
-        <v>0.130305</v>
+        <v>0.127583</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0507396</v>
+        <v>0.0504186</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0532375</v>
+        <v>0.0565726</v>
       </c>
       <c r="D33" t="n">
-        <v>0.133887</v>
+        <v>0.131624</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0513071</v>
+        <v>0.0506139</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0552287</v>
+        <v>0.0576212</v>
       </c>
       <c r="D34" t="n">
-        <v>0.137103</v>
+        <v>0.134968</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0506451</v>
+        <v>0.0510893</v>
       </c>
       <c r="C35" t="n">
-        <v>0.058185</v>
+        <v>0.0618313</v>
       </c>
       <c r="D35" t="n">
-        <v>0.09679020000000001</v>
+        <v>0.0950329</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0509209</v>
+        <v>0.0512017</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0656428</v>
+        <v>0.0687241</v>
       </c>
       <c r="D36" t="n">
-        <v>0.098937</v>
+        <v>0.097008</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0524826</v>
+        <v>0.0528636</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0547603</v>
+        <v>0.0596041</v>
       </c>
       <c r="D37" t="n">
-        <v>0.101061</v>
+        <v>0.09896340000000001</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0558672</v>
+        <v>0.0559528</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0536312</v>
+        <v>0.0583995</v>
       </c>
       <c r="D38" t="n">
-        <v>0.104157</v>
+        <v>0.102034</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0546983</v>
+        <v>0.0553399</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0546126</v>
+        <v>0.0583225</v>
       </c>
       <c r="D39" t="n">
-        <v>0.106905</v>
+        <v>0.104833</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0548486</v>
+        <v>0.0543262</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0540954</v>
+        <v>0.0589329</v>
       </c>
       <c r="D40" t="n">
-        <v>0.110434</v>
+        <v>0.108166</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0556361</v>
+        <v>0.0547982</v>
       </c>
       <c r="C41" t="n">
-        <v>0.054798</v>
+        <v>0.0590808</v>
       </c>
       <c r="D41" t="n">
-        <v>0.114084</v>
+        <v>0.11156</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0563041</v>
+        <v>0.0548043</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0550668</v>
+        <v>0.0594695</v>
       </c>
       <c r="D42" t="n">
-        <v>0.117822</v>
+        <v>0.115197</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0545985</v>
+        <v>0.0543742</v>
       </c>
       <c r="C43" t="n">
-        <v>0.056073</v>
+        <v>0.0596529</v>
       </c>
       <c r="D43" t="n">
-        <v>0.121887</v>
+        <v>0.119196</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0547584</v>
+        <v>0.0545291</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0563671</v>
+        <v>0.060068</v>
       </c>
       <c r="D44" t="n">
-        <v>0.126077</v>
+        <v>0.123342</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0548916</v>
+        <v>0.0546897</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0561392</v>
+        <v>0.0604433</v>
       </c>
       <c r="D45" t="n">
-        <v>0.13004</v>
+        <v>0.127272</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0551453</v>
+        <v>0.0545427</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0569886</v>
+        <v>0.0613673</v>
       </c>
       <c r="D46" t="n">
-        <v>0.133949</v>
+        <v>0.13094</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0548245</v>
+        <v>0.0560555</v>
       </c>
       <c r="C47" t="n">
-        <v>0.058248</v>
+        <v>0.0636347</v>
       </c>
       <c r="D47" t="n">
-        <v>0.137091</v>
+        <v>0.134165</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.055068</v>
+        <v>0.0557295</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0621959</v>
+        <v>0.0653236</v>
       </c>
       <c r="D48" t="n">
-        <v>0.140886</v>
+        <v>0.13788</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0554513</v>
+        <v>0.0557457</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0665437</v>
+        <v>0.069547</v>
       </c>
       <c r="D49" t="n">
-        <v>0.14416</v>
+        <v>0.141067</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0570638</v>
+        <v>0.0573219</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0718545</v>
+        <v>0.07495590000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>0.100845</v>
+        <v>0.0991707</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0629127</v>
+        <v>0.0620385</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0566411</v>
+        <v>0.06452040000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>0.103062</v>
+        <v>0.101261</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0679139</v>
+        <v>0.06803620000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0571102</v>
+        <v>0.0619851</v>
       </c>
       <c r="D52" t="n">
-        <v>0.105664</v>
+        <v>0.103819</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0603507</v>
+        <v>0.060804</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0572691</v>
+        <v>0.0617553</v>
       </c>
       <c r="D53" t="n">
-        <v>0.108748</v>
+        <v>0.106602</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.06276370000000001</v>
+        <v>0.061783</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0581685</v>
+        <v>0.0619397</v>
       </c>
       <c r="D54" t="n">
-        <v>0.111858</v>
+        <v>0.109686</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.06307450000000001</v>
+        <v>0.0620155</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0579296</v>
+        <v>0.0624629</v>
       </c>
       <c r="D55" t="n">
-        <v>0.115766</v>
+        <v>0.113194</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.06302919999999999</v>
+        <v>0.0611503</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0581974</v>
+        <v>0.0629062</v>
       </c>
       <c r="D56" t="n">
-        <v>0.11947</v>
+        <v>0.11697</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.06327380000000001</v>
+        <v>0.061757</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0587907</v>
+        <v>0.0632996</v>
       </c>
       <c r="D57" t="n">
-        <v>0.12368</v>
+        <v>0.121022</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.06335300000000001</v>
+        <v>0.0615092</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0591872</v>
+        <v>0.06723990000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>0.12762</v>
+        <v>0.125077</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0615767</v>
+        <v>0.0623092</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0601139</v>
+        <v>0.0644807</v>
       </c>
       <c r="D59" t="n">
-        <v>0.131498</v>
+        <v>0.128636</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0627919</v>
+        <v>0.0619584</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0615836</v>
+        <v>0.0654332</v>
       </c>
       <c r="D60" t="n">
-        <v>0.136005</v>
+        <v>0.132601</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0640865</v>
+        <v>0.061621</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0640086</v>
+        <v>0.0675704</v>
       </c>
       <c r="D61" t="n">
-        <v>0.140671</v>
+        <v>0.136504</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0627818</v>
+        <v>0.0631843</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0660333</v>
+        <v>0.07030980000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>0.145745</v>
+        <v>0.140593</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0644769</v>
+        <v>0.0635792</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0695503</v>
+        <v>0.07307370000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.147683</v>
+        <v>0.144163</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0672097</v>
+        <v>0.065612</v>
       </c>
       <c r="C64" t="n">
-        <v>0.07395450000000001</v>
+        <v>0.07760209999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>0.112747</v>
+        <v>0.108711</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0680756</v>
+        <v>0.06810090000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0811047</v>
+        <v>0.08376459999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>0.115535</v>
+        <v>0.111483</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.07233249999999999</v>
+        <v>0.0720522</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0610913</v>
+        <v>0.0653282</v>
       </c>
       <c r="D66" t="n">
-        <v>0.121166</v>
+        <v>0.116292</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0813774</v>
+        <v>0.07206460000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>0.061177</v>
+        <v>0.0656972</v>
       </c>
       <c r="D67" t="n">
-        <v>0.125307</v>
+        <v>0.120601</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.07883519999999999</v>
+        <v>0.07429470000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0616163</v>
+        <v>0.0657518</v>
       </c>
       <c r="D68" t="n">
-        <v>0.132644</v>
+        <v>0.12564</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0829608</v>
+        <v>0.0733159</v>
       </c>
       <c r="C69" t="n">
-        <v>0.06312520000000001</v>
+        <v>0.0665943</v>
       </c>
       <c r="D69" t="n">
-        <v>0.13699</v>
+        <v>0.131391</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.08323750000000001</v>
+        <v>0.0736475</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0639219</v>
+        <v>0.0671993</v>
       </c>
       <c r="D70" t="n">
-        <v>0.144893</v>
+        <v>0.139859</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.08136350000000001</v>
+        <v>0.0751008</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0646399</v>
+        <v>0.06788089999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>0.151694</v>
+        <v>0.146352</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0821173</v>
+        <v>0.07423390000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0653073</v>
+        <v>0.0688786</v>
       </c>
       <c r="D72" t="n">
-        <v>0.158219</v>
+        <v>0.153634</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0827252</v>
+        <v>0.0747786</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0665999</v>
+        <v>0.0701039</v>
       </c>
       <c r="D73" t="n">
-        <v>0.167562</v>
+        <v>0.162314</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0827275</v>
+        <v>0.0745999</v>
       </c>
       <c r="C74" t="n">
-        <v>0.06818680000000001</v>
+        <v>0.07141790000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>0.177785</v>
+        <v>0.170176</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.08132010000000001</v>
+        <v>0.0735364</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0690494</v>
+        <v>0.0722187</v>
       </c>
       <c r="D75" t="n">
-        <v>0.18927</v>
+        <v>0.179863</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0824824</v>
+        <v>0.0733192</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0711615</v>
+        <v>0.0741836</v>
       </c>
       <c r="D76" t="n">
-        <v>0.194696</v>
+        <v>0.186706</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.082023</v>
+        <v>0.0765542</v>
       </c>
       <c r="C77" t="n">
-        <v>0.07445880000000001</v>
+        <v>0.0765739</v>
       </c>
       <c r="D77" t="n">
-        <v>0.203452</v>
+        <v>0.195176</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.08465880000000001</v>
+        <v>0.0771911</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0788358</v>
+        <v>0.0816185</v>
       </c>
       <c r="D78" t="n">
-        <v>0.195832</v>
+        <v>0.18879</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0854632</v>
+        <v>0.0792089</v>
       </c>
       <c r="C79" t="n">
-        <v>0.08469400000000001</v>
+        <v>0.0874495</v>
       </c>
       <c r="D79" t="n">
-        <v>0.202739</v>
+        <v>0.196492</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.08959449999999999</v>
+        <v>0.0834275</v>
       </c>
       <c r="C80" t="n">
-        <v>0.110038</v>
+        <v>0.127816</v>
       </c>
       <c r="D80" t="n">
-        <v>0.208162</v>
+        <v>0.203323</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.175044</v>
+        <v>0.177016</v>
       </c>
       <c r="C81" t="n">
-        <v>0.109839</v>
+        <v>0.127853</v>
       </c>
       <c r="D81" t="n">
-        <v>0.218329</v>
+        <v>0.214623</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.175735</v>
+        <v>0.177137</v>
       </c>
       <c r="C82" t="n">
-        <v>0.115156</v>
+        <v>0.133856</v>
       </c>
       <c r="D82" t="n">
-        <v>0.226973</v>
+        <v>0.22212</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.179584</v>
+        <v>0.179977</v>
       </c>
       <c r="C83" t="n">
-        <v>0.117301</v>
+        <v>0.134448</v>
       </c>
       <c r="D83" t="n">
-        <v>0.233971</v>
+        <v>0.228579</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.180203</v>
+        <v>0.180599</v>
       </c>
       <c r="C84" t="n">
-        <v>0.12</v>
+        <v>0.139114</v>
       </c>
       <c r="D84" t="n">
-        <v>0.243928</v>
+        <v>0.240284</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.180899</v>
+        <v>0.181146</v>
       </c>
       <c r="C85" t="n">
-        <v>0.12223</v>
+        <v>0.139177</v>
       </c>
       <c r="D85" t="n">
-        <v>0.254615</v>
+        <v>0.2514</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.181666</v>
+        <v>0.181345</v>
       </c>
       <c r="C86" t="n">
-        <v>0.126508</v>
+        <v>0.141241</v>
       </c>
       <c r="D86" t="n">
-        <v>0.264638</v>
+        <v>0.261584</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.182064</v>
+        <v>0.182143</v>
       </c>
       <c r="C87" t="n">
-        <v>0.128705</v>
+        <v>0.144738</v>
       </c>
       <c r="D87" t="n">
-        <v>0.272573</v>
+        <v>0.271743</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.180942</v>
+        <v>0.181587</v>
       </c>
       <c r="C88" t="n">
-        <v>0.129015</v>
+        <v>0.14493</v>
       </c>
       <c r="D88" t="n">
-        <v>0.281191</v>
+        <v>0.278152</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.181133</v>
+        <v>0.181369</v>
       </c>
       <c r="C89" t="n">
-        <v>0.129669</v>
+        <v>0.146462</v>
       </c>
       <c r="D89" t="n">
-        <v>0.291897</v>
+        <v>0.291582</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.181722</v>
+        <v>0.182146</v>
       </c>
       <c r="C90" t="n">
-        <v>0.132218</v>
+        <v>0.149181</v>
       </c>
       <c r="D90" t="n">
-        <v>0.305256</v>
+        <v>0.303112</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.182805</v>
+        <v>0.18348</v>
       </c>
       <c r="C91" t="n">
-        <v>0.135223</v>
+        <v>0.151876</v>
       </c>
       <c r="D91" t="n">
-        <v>0.3104</v>
+        <v>0.311232</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.183721</v>
+        <v>0.187269</v>
       </c>
       <c r="C92" t="n">
-        <v>0.138815</v>
+        <v>0.15551</v>
       </c>
       <c r="D92" t="n">
-        <v>0.291741</v>
+        <v>0.29199</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.186711</v>
+        <v>0.185233</v>
       </c>
       <c r="C93" t="n">
-        <v>0.145724</v>
+        <v>0.160738</v>
       </c>
       <c r="D93" t="n">
-        <v>0.300491</v>
+        <v>0.301</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.187487</v>
+        <v>0.187463</v>
       </c>
       <c r="C94" t="n">
-        <v>0.214599</v>
+        <v>0.260764</v>
       </c>
       <c r="D94" t="n">
-        <v>0.307863</v>
+        <v>0.30743</v>
       </c>
     </row>
     <row r="95">
@@ -4551,10 +4551,10 @@
         <v>0.244935</v>
       </c>
       <c r="C95" t="n">
-        <v>0.220374</v>
+        <v>0.261454</v>
       </c>
       <c r="D95" t="n">
-        <v>0.315384</v>
+        <v>0.316088</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.245186</v>
+        <v>0.244755</v>
       </c>
       <c r="C96" t="n">
-        <v>0.222328</v>
+        <v>0.26342</v>
       </c>
       <c r="D96" t="n">
-        <v>0.324462</v>
+        <v>0.325239</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.245063</v>
+        <v>0.244949</v>
       </c>
       <c r="C97" t="n">
-        <v>0.224585</v>
+        <v>0.265108</v>
       </c>
       <c r="D97" t="n">
-        <v>0.331037</v>
+        <v>0.331673</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.245401</v>
+        <v>0.244762</v>
       </c>
       <c r="C98" t="n">
-        <v>0.226764</v>
+        <v>0.266127</v>
       </c>
       <c r="D98" t="n">
-        <v>0.340156</v>
+        <v>0.341228</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.24548</v>
+        <v>0.245043</v>
       </c>
       <c r="C99" t="n">
-        <v>0.228402</v>
+        <v>0.269064</v>
       </c>
       <c r="D99" t="n">
-        <v>0.34857</v>
+        <v>0.348391</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.245812</v>
+        <v>0.243613</v>
       </c>
       <c r="C100" t="n">
-        <v>0.227324</v>
+        <v>0.269926</v>
       </c>
       <c r="D100" t="n">
-        <v>0.35675</v>
+        <v>0.358347</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.24612</v>
+        <v>0.245147</v>
       </c>
       <c r="C101" t="n">
-        <v>0.232766</v>
+        <v>0.270776</v>
       </c>
       <c r="D101" t="n">
-        <v>0.36324</v>
+        <v>0.364555</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.246764</v>
+        <v>0.243311</v>
       </c>
       <c r="C102" t="n">
-        <v>0.23461</v>
+        <v>0.272948</v>
       </c>
       <c r="D102" t="n">
-        <v>0.373212</v>
+        <v>0.37348</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.246502</v>
+        <v>0.245822</v>
       </c>
       <c r="C103" t="n">
-        <v>0.235177</v>
+        <v>0.275188</v>
       </c>
       <c r="D103" t="n">
-        <v>0.382928</v>
+        <v>0.384575</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.247086</v>
+        <v>0.245805</v>
       </c>
       <c r="C104" t="n">
-        <v>0.240432</v>
+        <v>0.279096</v>
       </c>
       <c r="D104" t="n">
-        <v>0.391895</v>
+        <v>0.393684</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.24668</v>
+        <v>0.247334</v>
       </c>
       <c r="C105" t="n">
-        <v>0.24266</v>
+        <v>0.281179</v>
       </c>
       <c r="D105" t="n">
-        <v>0.401072</v>
+        <v>0.402113</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.248182</v>
+        <v>0.247924</v>
       </c>
       <c r="C106" t="n">
-        <v>0.246618</v>
+        <v>0.282881</v>
       </c>
       <c r="D106" t="n">
-        <v>0.410286</v>
+        <v>0.413777</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.250112</v>
+        <v>0.249678</v>
       </c>
       <c r="C107" t="n">
-        <v>0.249062</v>
+        <v>0.28762</v>
       </c>
       <c r="D107" t="n">
-        <v>0.354311</v>
+        <v>0.355218</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.250795</v>
+        <v>0.251361</v>
       </c>
       <c r="C108" t="n">
-        <v>0.269636</v>
+        <v>0.312246</v>
       </c>
       <c r="D108" t="n">
-        <v>0.360318</v>
+        <v>0.360375</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.255396</v>
+        <v>0.257185</v>
       </c>
       <c r="C109" t="n">
-        <v>0.271857</v>
+        <v>0.314783</v>
       </c>
       <c r="D109" t="n">
-        <v>0.369013</v>
+        <v>0.369625</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.280671</v>
+        <v>0.281852</v>
       </c>
       <c r="C110" t="n">
-        <v>0.272827</v>
+        <v>0.317342</v>
       </c>
       <c r="D110" t="n">
-        <v>0.374651</v>
+        <v>0.3747</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.279459</v>
+        <v>0.284007</v>
       </c>
       <c r="C111" t="n">
-        <v>0.276663</v>
+        <v>0.320051</v>
       </c>
       <c r="D111" t="n">
-        <v>0.380714</v>
+        <v>0.38152</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.278749</v>
+        <v>0.283643</v>
       </c>
       <c r="C112" t="n">
-        <v>0.279283</v>
+        <v>0.321603</v>
       </c>
       <c r="D112" t="n">
-        <v>0.39233</v>
+        <v>0.392393</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.281</v>
+        <v>0.282195</v>
       </c>
       <c r="C113" t="n">
-        <v>0.281853</v>
+        <v>0.323937</v>
       </c>
       <c r="D113" t="n">
-        <v>0.40084</v>
+        <v>0.401024</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.277859</v>
+        <v>0.280532</v>
       </c>
       <c r="C114" t="n">
-        <v>0.276476</v>
+        <v>0.324059</v>
       </c>
       <c r="D114" t="n">
-        <v>0.404743</v>
+        <v>0.41081</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.280351</v>
+        <v>0.28056</v>
       </c>
       <c r="C115" t="n">
-        <v>0.280308</v>
+        <v>0.325956</v>
       </c>
       <c r="D115" t="n">
-        <v>0.412189</v>
+        <v>0.419795</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.281131</v>
+        <v>0.274535</v>
       </c>
       <c r="C116" t="n">
-        <v>0.283512</v>
+        <v>0.331066</v>
       </c>
       <c r="D116" t="n">
-        <v>0.420508</v>
+        <v>0.427869</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.278768</v>
+        <v>0.274381</v>
       </c>
       <c r="C117" t="n">
-        <v>0.286487</v>
+        <v>0.333328</v>
       </c>
       <c r="D117" t="n">
-        <v>0.438126</v>
+        <v>0.435855</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.274909</v>
+        <v>0.280945</v>
       </c>
       <c r="C118" t="n">
-        <v>0.286448</v>
+        <v>0.33627</v>
       </c>
       <c r="D118" t="n">
-        <v>0.443901</v>
+        <v>0.44129</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.281982</v>
+        <v>0.281377</v>
       </c>
       <c r="C119" t="n">
-        <v>0.293365</v>
+        <v>0.341083</v>
       </c>
       <c r="D119" t="n">
-        <v>0.449198</v>
+        <v>0.453228</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.281554</v>
+        <v>0.280593</v>
       </c>
       <c r="C120" t="n">
-        <v>0.294707</v>
+        <v>0.342136</v>
       </c>
       <c r="D120" t="n">
-        <v>0.457971</v>
+        <v>0.461596</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.283836</v>
+        <v>0.292526</v>
       </c>
       <c r="C121" t="n">
-        <v>0.30288</v>
+        <v>0.349709</v>
       </c>
       <c r="D121" t="n">
-        <v>0.384338</v>
+        <v>0.381099</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.286816</v>
+        <v>0.288622</v>
       </c>
       <c r="C122" t="n">
-        <v>0.309327</v>
+        <v>0.35632</v>
       </c>
       <c r="D122" t="n">
-        <v>0.393917</v>
+        <v>0.394874</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.29158</v>
+        <v>0.292824</v>
       </c>
       <c r="C123" t="n">
-        <v>0.293322</v>
+        <v>0.350842</v>
       </c>
       <c r="D123" t="n">
-        <v>0.391877</v>
+        <v>0.396751</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.35849</v>
+        <v>0.349679</v>
       </c>
       <c r="C124" t="n">
-        <v>0.295683</v>
+        <v>0.352368</v>
       </c>
       <c r="D124" t="n">
-        <v>0.405165</v>
+        <v>0.402527</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.358913</v>
+        <v>0.356458</v>
       </c>
       <c r="C125" t="n">
-        <v>0.302463</v>
+        <v>0.353448</v>
       </c>
       <c r="D125" t="n">
-        <v>0.406584</v>
+        <v>0.407957</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.357994</v>
+        <v>0.347514</v>
       </c>
       <c r="C126" t="n">
-        <v>0.305471</v>
+        <v>0.348049</v>
       </c>
       <c r="D126" t="n">
-        <v>0.417475</v>
+        <v>0.420525</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.351249</v>
+        <v>0.357652</v>
       </c>
       <c r="C127" t="n">
-        <v>0.308677</v>
+        <v>0.353333</v>
       </c>
       <c r="D127" t="n">
-        <v>0.421615</v>
+        <v>0.42649</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.359187</v>
+        <v>0.358133</v>
       </c>
       <c r="C128" t="n">
-        <v>0.311655</v>
+        <v>0.355592</v>
       </c>
       <c r="D128" t="n">
-        <v>0.437689</v>
+        <v>0.440447</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.358499</v>
+        <v>0.362736</v>
       </c>
       <c r="C129" t="n">
-        <v>0.31481</v>
+        <v>0.357203</v>
       </c>
       <c r="D129" t="n">
-        <v>0.44441</v>
+        <v>0.447146</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.357303</v>
+        <v>0.35886</v>
       </c>
       <c r="C130" t="n">
-        <v>0.314716</v>
+        <v>0.361917</v>
       </c>
       <c r="D130" t="n">
-        <v>0.453572</v>
+        <v>0.456974</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.358639</v>
+        <v>0.356413</v>
       </c>
       <c r="C131" t="n">
-        <v>0.322973</v>
+        <v>0.365307</v>
       </c>
       <c r="D131" t="n">
-        <v>0.456315</v>
+        <v>0.462335</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.360941</v>
+        <v>0.358633</v>
       </c>
       <c r="C132" t="n">
-        <v>0.322866</v>
+        <v>0.369517</v>
       </c>
       <c r="D132" t="n">
-        <v>0.470923</v>
+        <v>0.473941</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.358642</v>
+        <v>0.35767</v>
       </c>
       <c r="C133" t="n">
-        <v>0.33257</v>
+        <v>0.374011</v>
       </c>
       <c r="D133" t="n">
-        <v>0.476994</v>
+        <v>0.483698</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.359962</v>
+        <v>0.361926</v>
       </c>
       <c r="C134" t="n">
-        <v>0.338432</v>
+        <v>0.379447</v>
       </c>
       <c r="D134" t="n">
-        <v>0.488279</v>
+        <v>0.492635</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.360465</v>
+        <v>0.361528</v>
       </c>
       <c r="C135" t="n">
-        <v>0.345889</v>
+        <v>0.383339</v>
       </c>
       <c r="D135" t="n">
-        <v>0.404121</v>
+        <v>0.406172</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.363435</v>
+        <v>0.36291</v>
       </c>
       <c r="C136" t="n">
-        <v>0.354501</v>
+        <v>0.391234</v>
       </c>
       <c r="D136" t="n">
-        <v>0.409802</v>
+        <v>0.412092</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.367935</v>
+        <v>0.367902</v>
       </c>
       <c r="C137" t="n">
-        <v>0.318384</v>
+        <v>0.366524</v>
       </c>
       <c r="D137" t="n">
-        <v>0.417428</v>
+        <v>0.419294</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.416416</v>
+        <v>0.420926</v>
       </c>
       <c r="C138" t="n">
-        <v>0.324759</v>
+        <v>0.368361</v>
       </c>
       <c r="D138" t="n">
-        <v>0.41679</v>
+        <v>0.419718</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.417205</v>
+        <v>0.421491</v>
       </c>
       <c r="C139" t="n">
-        <v>0.326369</v>
+        <v>0.372233</v>
       </c>
       <c r="D139" t="n">
-        <v>0.422704</v>
+        <v>0.426749</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.417023</v>
+        <v>0.418485</v>
       </c>
       <c r="C140" t="n">
-        <v>0.329869</v>
+        <v>0.374568</v>
       </c>
       <c r="D140" t="n">
-        <v>0.437108</v>
+        <v>0.439555</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.417707</v>
+        <v>0.412188</v>
       </c>
       <c r="C141" t="n">
-        <v>0.332129</v>
+        <v>0.376775</v>
       </c>
       <c r="D141" t="n">
-        <v>0.443216</v>
+        <v>0.447137</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.415494</v>
+        <v>0.419275</v>
       </c>
       <c r="C142" t="n">
-        <v>0.329389</v>
+        <v>0.376844</v>
       </c>
       <c r="D142" t="n">
-        <v>0.448358</v>
+        <v>0.450974</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.417156</v>
+        <v>0.419501</v>
       </c>
       <c r="C143" t="n">
-        <v>0.338089</v>
+        <v>0.378476</v>
       </c>
       <c r="D143" t="n">
-        <v>0.462463</v>
+        <v>0.465307</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0466037</v>
+        <v>0.0358655</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0522905</v>
+        <v>0.0409008</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0819163</v>
+        <v>0.07101250000000001</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0462924</v>
+        <v>0.0361669</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0530774</v>
+        <v>0.0412789</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0853402</v>
+        <v>0.07754850000000001</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0449333</v>
+        <v>0.0370794</v>
       </c>
       <c r="C4" t="n">
-        <v>0.051487</v>
+        <v>0.0419828</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0960655</v>
+        <v>0.0857528</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0440949</v>
+        <v>0.0362709</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0503997</v>
+        <v>0.0416965</v>
       </c>
       <c r="D5" t="n">
-        <v>0.101413</v>
+        <v>0.092919</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0429878</v>
+        <v>0.0361196</v>
       </c>
       <c r="C6" t="n">
-        <v>0.049478</v>
+        <v>0.0418206</v>
       </c>
       <c r="D6" t="n">
-        <v>0.112619</v>
+        <v>0.0993264</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0470628</v>
+        <v>0.0377689</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0546208</v>
+        <v>0.0435492</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07068290000000001</v>
+        <v>0.062155</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0476247</v>
+        <v>0.0379403</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0556247</v>
+        <v>0.0447244</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0749317</v>
+        <v>0.0655304</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0459062</v>
+        <v>0.0375466</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0452806</v>
+        <v>0.0436225</v>
       </c>
       <c r="D9" t="n">
-        <v>0.079571</v>
+        <v>0.070803</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0442466</v>
+        <v>0.0436114</v>
       </c>
       <c r="C10" t="n">
-        <v>0.044953</v>
+        <v>0.0441634</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0849975</v>
+        <v>0.0750599</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0441461</v>
+        <v>0.0435602</v>
       </c>
       <c r="C11" t="n">
-        <v>0.045704</v>
+        <v>0.0438053</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0893264</v>
+        <v>0.07991810000000001</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.044372</v>
+        <v>0.0437486</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0461664</v>
+        <v>0.0450349</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0968644</v>
+        <v>0.0858005</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0444913</v>
+        <v>0.0439711</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0464293</v>
+        <v>0.0455568</v>
       </c>
       <c r="D13" t="n">
-        <v>0.102256</v>
+        <v>0.0906681</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0448274</v>
+        <v>0.0442108</v>
       </c>
       <c r="C14" t="n">
-        <v>0.046612</v>
+        <v>0.0448648</v>
       </c>
       <c r="D14" t="n">
-        <v>0.106944</v>
+        <v>0.09531149999999999</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0446851</v>
+        <v>0.0442668</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0465262</v>
+        <v>0.0459505</v>
       </c>
       <c r="D15" t="n">
-        <v>0.111924</v>
+        <v>0.100816</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0447977</v>
+        <v>0.0443707</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0471965</v>
+        <v>0.0463639</v>
       </c>
       <c r="D16" t="n">
-        <v>0.116559</v>
+        <v>0.104842</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0449834</v>
+        <v>0.0445042</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0472741</v>
+        <v>0.0456722</v>
       </c>
       <c r="D17" t="n">
-        <v>0.118963</v>
+        <v>0.110451</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0450075</v>
+        <v>0.0446162</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0472119</v>
+        <v>0.0465693</v>
       </c>
       <c r="D18" t="n">
-        <v>0.124373</v>
+        <v>0.115451</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.045212</v>
+        <v>0.0448288</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0476068</v>
+        <v>0.0465754</v>
       </c>
       <c r="D19" t="n">
-        <v>0.128497</v>
+        <v>0.120237</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0453464</v>
+        <v>0.04494</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0483334</v>
+        <v>0.0469927</v>
       </c>
       <c r="D20" t="n">
-        <v>0.131109</v>
+        <v>0.123393</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0454669</v>
+        <v>0.0453898</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0491284</v>
+        <v>0.0487008</v>
       </c>
       <c r="D21" t="n">
-        <v>0.088891</v>
+        <v>0.08785030000000001</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0461001</v>
+        <v>0.0455074</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0543026</v>
+        <v>0.0542923</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0920315</v>
+        <v>0.09029239999999999</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0459847</v>
+        <v>0.0455079</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0511542</v>
+        <v>0.049541</v>
       </c>
       <c r="D23" t="n">
-        <v>0.09535059999999999</v>
+        <v>0.0935252</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0492791</v>
+        <v>0.0492082</v>
       </c>
       <c r="C24" t="n">
-        <v>0.051376</v>
+        <v>0.0497374</v>
       </c>
       <c r="D24" t="n">
-        <v>0.09864829999999999</v>
+        <v>0.0966138</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0493244</v>
+        <v>0.0491253</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0512504</v>
+        <v>0.0500158</v>
       </c>
       <c r="D25" t="n">
-        <v>0.102387</v>
+        <v>0.100524</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0492227</v>
+        <v>0.0492929</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0514899</v>
+        <v>0.0503638</v>
       </c>
       <c r="D26" t="n">
-        <v>0.106095</v>
+        <v>0.103931</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0493868</v>
+        <v>0.049465</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0525363</v>
+        <v>0.050419</v>
       </c>
       <c r="D27" t="n">
-        <v>0.109908</v>
+        <v>0.10773</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0494114</v>
+        <v>0.0493802</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0517122</v>
+        <v>0.0507628</v>
       </c>
       <c r="D28" t="n">
-        <v>0.113831</v>
+        <v>0.111354</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0497897</v>
+        <v>0.0495494</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0523117</v>
+        <v>0.0511198</v>
       </c>
       <c r="D29" t="n">
-        <v>0.118088</v>
+        <v>0.115589</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0496554</v>
+        <v>0.049641</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0524324</v>
+        <v>0.0513585</v>
       </c>
       <c r="D30" t="n">
-        <v>0.122061</v>
+        <v>0.119598</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0498622</v>
+        <v>0.0497497</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0526988</v>
+        <v>0.051776</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1265</v>
+        <v>0.123797</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0499271</v>
+        <v>0.0500128</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0527143</v>
+        <v>0.0522119</v>
       </c>
       <c r="D32" t="n">
-        <v>0.130305</v>
+        <v>0.127138</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0507396</v>
+        <v>0.0500481</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0532375</v>
+        <v>0.0529808</v>
       </c>
       <c r="D33" t="n">
-        <v>0.133887</v>
+        <v>0.13105</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0513071</v>
+        <v>0.0501622</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0552287</v>
+        <v>0.0539415</v>
       </c>
       <c r="D34" t="n">
-        <v>0.137103</v>
+        <v>0.134565</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0506451</v>
+        <v>0.0504232</v>
       </c>
       <c r="C35" t="n">
-        <v>0.058185</v>
+        <v>0.0585617</v>
       </c>
       <c r="D35" t="n">
-        <v>0.09679020000000001</v>
+        <v>0.0952957</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0509209</v>
+        <v>0.0508477</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0656428</v>
+        <v>0.0659539</v>
       </c>
       <c r="D36" t="n">
-        <v>0.098937</v>
+        <v>0.0972321</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0524826</v>
+        <v>0.0524253</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0547603</v>
+        <v>0.0541544</v>
       </c>
       <c r="D37" t="n">
-        <v>0.101061</v>
+        <v>0.0994215</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0558672</v>
+        <v>0.0546979</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0536312</v>
+        <v>0.0535355</v>
       </c>
       <c r="D38" t="n">
-        <v>0.104157</v>
+        <v>0.102171</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0546983</v>
+        <v>0.0551642</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0546126</v>
+        <v>0.0538903</v>
       </c>
       <c r="D39" t="n">
-        <v>0.106905</v>
+        <v>0.105025</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0548486</v>
+        <v>0.0537356</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0540954</v>
+        <v>0.0543813</v>
       </c>
       <c r="D40" t="n">
-        <v>0.110434</v>
+        <v>0.108337</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0556361</v>
+        <v>0.0540927</v>
       </c>
       <c r="C41" t="n">
-        <v>0.054798</v>
+        <v>0.0545734</v>
       </c>
       <c r="D41" t="n">
-        <v>0.114084</v>
+        <v>0.111865</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0563041</v>
+        <v>0.0542692</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0550668</v>
+        <v>0.0550359</v>
       </c>
       <c r="D42" t="n">
-        <v>0.117822</v>
+        <v>0.115475</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0545985</v>
+        <v>0.0543329</v>
       </c>
       <c r="C43" t="n">
-        <v>0.056073</v>
+        <v>0.055342</v>
       </c>
       <c r="D43" t="n">
-        <v>0.121887</v>
+        <v>0.119469</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0547584</v>
+        <v>0.0544376</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0563671</v>
+        <v>0.0558083</v>
       </c>
       <c r="D44" t="n">
-        <v>0.126077</v>
+        <v>0.123508</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0548916</v>
+        <v>0.0546339</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0561392</v>
+        <v>0.0563003</v>
       </c>
       <c r="D45" t="n">
-        <v>0.13004</v>
+        <v>0.127494</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0551453</v>
+        <v>0.0556374</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0569886</v>
+        <v>0.0570574</v>
       </c>
       <c r="D46" t="n">
-        <v>0.133949</v>
+        <v>0.131134</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0548245</v>
+        <v>0.0560286</v>
       </c>
       <c r="C47" t="n">
-        <v>0.058248</v>
+        <v>0.0591518</v>
       </c>
       <c r="D47" t="n">
-        <v>0.137091</v>
+        <v>0.134343</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.055068</v>
+        <v>0.0554399</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0621959</v>
+        <v>0.0624504</v>
       </c>
       <c r="D48" t="n">
-        <v>0.140886</v>
+        <v>0.13835</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0554513</v>
+        <v>0.0558201</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0665437</v>
+        <v>0.06636</v>
       </c>
       <c r="D49" t="n">
-        <v>0.14416</v>
+        <v>0.141333</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0570638</v>
+        <v>0.0573654</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0718545</v>
+        <v>0.0711999</v>
       </c>
       <c r="D50" t="n">
-        <v>0.100845</v>
+        <v>0.0995178</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0629127</v>
+        <v>0.0613364</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0566411</v>
+        <v>0.0579547</v>
       </c>
       <c r="D51" t="n">
-        <v>0.103062</v>
+        <v>0.101594</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0679139</v>
+        <v>0.06731760000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0571102</v>
+        <v>0.059284</v>
       </c>
       <c r="D52" t="n">
-        <v>0.105664</v>
+        <v>0.104072</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0603507</v>
+        <v>0.0605931</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0572691</v>
+        <v>0.0569728</v>
       </c>
       <c r="D53" t="n">
-        <v>0.108748</v>
+        <v>0.106906</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.06276370000000001</v>
+        <v>0.0607128</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0581685</v>
+        <v>0.0574391</v>
       </c>
       <c r="D54" t="n">
-        <v>0.111858</v>
+        <v>0.109999</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.06307450000000001</v>
+        <v>0.0608881</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0579296</v>
+        <v>0.0577294</v>
       </c>
       <c r="D55" t="n">
-        <v>0.115766</v>
+        <v>0.113578</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.06302919999999999</v>
+        <v>0.0618212</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0581974</v>
+        <v>0.0583518</v>
       </c>
       <c r="D56" t="n">
-        <v>0.11947</v>
+        <v>0.117196</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.06327380000000001</v>
+        <v>0.0609304</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0587907</v>
+        <v>0.0590696</v>
       </c>
       <c r="D57" t="n">
-        <v>0.12368</v>
+        <v>0.121212</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.06335300000000001</v>
+        <v>0.0614371</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0591872</v>
+        <v>0.0597751</v>
       </c>
       <c r="D58" t="n">
-        <v>0.12762</v>
+        <v>0.125205</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0615767</v>
+        <v>0.0610743</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0601139</v>
+        <v>0.0604908</v>
       </c>
       <c r="D59" t="n">
-        <v>0.131498</v>
+        <v>0.128873</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0627919</v>
+        <v>0.0620243</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0615836</v>
+        <v>0.0626187</v>
       </c>
       <c r="D60" t="n">
-        <v>0.136005</v>
+        <v>0.13298</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0640865</v>
+        <v>0.0618431</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0640086</v>
+        <v>0.0645621</v>
       </c>
       <c r="D61" t="n">
-        <v>0.140671</v>
+        <v>0.136904</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0627818</v>
+        <v>0.0622904</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0660333</v>
+        <v>0.0673473</v>
       </c>
       <c r="D62" t="n">
-        <v>0.145745</v>
+        <v>0.140754</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0644769</v>
+        <v>0.06310109999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0695503</v>
+        <v>0.0702332</v>
       </c>
       <c r="D63" t="n">
-        <v>0.147683</v>
+        <v>0.144227</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0672097</v>
+        <v>0.06483650000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.07395450000000001</v>
+        <v>0.0749344</v>
       </c>
       <c r="D64" t="n">
-        <v>0.112747</v>
+        <v>0.106797</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0680756</v>
+        <v>0.06820030000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0811047</v>
+        <v>0.0813017</v>
       </c>
       <c r="D65" t="n">
-        <v>0.115535</v>
+        <v>0.11085</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.07233249999999999</v>
+        <v>0.0726001</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0610913</v>
+        <v>0.0601377</v>
       </c>
       <c r="D66" t="n">
-        <v>0.121166</v>
+        <v>0.113452</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0813774</v>
+        <v>0.0709258</v>
       </c>
       <c r="C67" t="n">
-        <v>0.061177</v>
+        <v>0.0606648</v>
       </c>
       <c r="D67" t="n">
-        <v>0.125307</v>
+        <v>0.118157</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.07883519999999999</v>
+        <v>0.07266590000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0616163</v>
+        <v>0.0612622</v>
       </c>
       <c r="D68" t="n">
-        <v>0.132644</v>
+        <v>0.122788</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0829608</v>
+        <v>0.07282279999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>0.06312520000000001</v>
+        <v>0.0618507</v>
       </c>
       <c r="D69" t="n">
-        <v>0.13699</v>
+        <v>0.12806</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.08323750000000001</v>
+        <v>0.0736415</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0639219</v>
+        <v>0.0624129</v>
       </c>
       <c r="D70" t="n">
-        <v>0.144893</v>
+        <v>0.134332</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.08136350000000001</v>
+        <v>0.07424740000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0646399</v>
+        <v>0.063738</v>
       </c>
       <c r="D71" t="n">
-        <v>0.151694</v>
+        <v>0.14025</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0821173</v>
+        <v>0.076709</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0653073</v>
+        <v>0.0656641</v>
       </c>
       <c r="D72" t="n">
-        <v>0.158219</v>
+        <v>0.148603</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0827252</v>
+        <v>0.07724979999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0665999</v>
+        <v>0.0670071</v>
       </c>
       <c r="D73" t="n">
-        <v>0.167562</v>
+        <v>0.156583</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0827275</v>
+        <v>0.07764210000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.06818680000000001</v>
+        <v>0.06864339999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>0.177785</v>
+        <v>0.16571</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.08132010000000001</v>
+        <v>0.0767695</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0690494</v>
+        <v>0.0700417</v>
       </c>
       <c r="D75" t="n">
-        <v>0.18927</v>
+        <v>0.178132</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0824824</v>
+        <v>0.0764118</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0711615</v>
+        <v>0.0718757</v>
       </c>
       <c r="D76" t="n">
-        <v>0.194696</v>
+        <v>0.186336</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.082023</v>
+        <v>0.07796260000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.07445880000000001</v>
+        <v>0.0739281</v>
       </c>
       <c r="D77" t="n">
-        <v>0.203452</v>
+        <v>0.194029</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.08465880000000001</v>
+        <v>0.0794184</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0788358</v>
+        <v>0.0788324</v>
       </c>
       <c r="D78" t="n">
-        <v>0.195832</v>
+        <v>0.195765</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0854632</v>
+        <v>0.0810361</v>
       </c>
       <c r="C79" t="n">
-        <v>0.08469400000000001</v>
+        <v>0.0845929</v>
       </c>
       <c r="D79" t="n">
-        <v>0.202739</v>
+        <v>0.203333</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.08959449999999999</v>
+        <v>0.0859327</v>
       </c>
       <c r="C80" t="n">
-        <v>0.110038</v>
+        <v>0.110556</v>
       </c>
       <c r="D80" t="n">
-        <v>0.208162</v>
+        <v>0.21049</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.175044</v>
+        <v>0.182547</v>
       </c>
       <c r="C81" t="n">
-        <v>0.109839</v>
+        <v>0.113598</v>
       </c>
       <c r="D81" t="n">
-        <v>0.218329</v>
+        <v>0.21975</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.175735</v>
+        <v>0.183883</v>
       </c>
       <c r="C82" t="n">
-        <v>0.115156</v>
+        <v>0.116749</v>
       </c>
       <c r="D82" t="n">
-        <v>0.226973</v>
+        <v>0.22971</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.179584</v>
+        <v>0.183902</v>
       </c>
       <c r="C83" t="n">
-        <v>0.117301</v>
+        <v>0.11932</v>
       </c>
       <c r="D83" t="n">
-        <v>0.233971</v>
+        <v>0.234835</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.180203</v>
+        <v>0.184716</v>
       </c>
       <c r="C84" t="n">
-        <v>0.12</v>
+        <v>0.120817</v>
       </c>
       <c r="D84" t="n">
-        <v>0.243928</v>
+        <v>0.247936</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.180899</v>
+        <v>0.185528</v>
       </c>
       <c r="C85" t="n">
-        <v>0.12223</v>
+        <v>0.124253</v>
       </c>
       <c r="D85" t="n">
-        <v>0.254615</v>
+        <v>0.260234</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.181666</v>
+        <v>0.186756</v>
       </c>
       <c r="C86" t="n">
-        <v>0.126508</v>
+        <v>0.126721</v>
       </c>
       <c r="D86" t="n">
-        <v>0.264638</v>
+        <v>0.269984</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.182064</v>
+        <v>0.187575</v>
       </c>
       <c r="C87" t="n">
-        <v>0.128705</v>
+        <v>0.128715</v>
       </c>
       <c r="D87" t="n">
-        <v>0.272573</v>
+        <v>0.279252</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.180942</v>
+        <v>0.189389</v>
       </c>
       <c r="C88" t="n">
-        <v>0.129015</v>
+        <v>0.132939</v>
       </c>
       <c r="D88" t="n">
-        <v>0.281191</v>
+        <v>0.284599</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.181133</v>
+        <v>0.188733</v>
       </c>
       <c r="C89" t="n">
-        <v>0.129669</v>
+        <v>0.134086</v>
       </c>
       <c r="D89" t="n">
-        <v>0.291897</v>
+        <v>0.299019</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.181722</v>
+        <v>0.189353</v>
       </c>
       <c r="C90" t="n">
-        <v>0.132218</v>
+        <v>0.136776</v>
       </c>
       <c r="D90" t="n">
-        <v>0.305256</v>
+        <v>0.310586</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.182805</v>
+        <v>0.189115</v>
       </c>
       <c r="C91" t="n">
-        <v>0.135223</v>
+        <v>0.139083</v>
       </c>
       <c r="D91" t="n">
-        <v>0.3104</v>
+        <v>0.320201</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.183721</v>
+        <v>0.191093</v>
       </c>
       <c r="C92" t="n">
-        <v>0.138815</v>
+        <v>0.143292</v>
       </c>
       <c r="D92" t="n">
-        <v>0.291741</v>
+        <v>0.302658</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.186711</v>
+        <v>0.191335</v>
       </c>
       <c r="C93" t="n">
-        <v>0.145724</v>
+        <v>0.147076</v>
       </c>
       <c r="D93" t="n">
-        <v>0.300491</v>
+        <v>0.312012</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.187487</v>
+        <v>0.194557</v>
       </c>
       <c r="C94" t="n">
-        <v>0.214599</v>
+        <v>0.232533</v>
       </c>
       <c r="D94" t="n">
-        <v>0.307863</v>
+        <v>0.319313</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.244935</v>
+        <v>0.265724</v>
       </c>
       <c r="C95" t="n">
-        <v>0.220374</v>
+        <v>0.23479</v>
       </c>
       <c r="D95" t="n">
-        <v>0.315384</v>
+        <v>0.32712</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.245186</v>
+        <v>0.265768</v>
       </c>
       <c r="C96" t="n">
-        <v>0.222328</v>
+        <v>0.236527</v>
       </c>
       <c r="D96" t="n">
-        <v>0.324462</v>
+        <v>0.336651</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.245063</v>
+        <v>0.266208</v>
       </c>
       <c r="C97" t="n">
-        <v>0.224585</v>
+        <v>0.23962</v>
       </c>
       <c r="D97" t="n">
-        <v>0.331037</v>
+        <v>0.343139</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.245401</v>
+        <v>0.266153</v>
       </c>
       <c r="C98" t="n">
-        <v>0.226764</v>
+        <v>0.242397</v>
       </c>
       <c r="D98" t="n">
-        <v>0.340156</v>
+        <v>0.352361</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.24548</v>
+        <v>0.266176</v>
       </c>
       <c r="C99" t="n">
-        <v>0.228402</v>
+        <v>0.24334</v>
       </c>
       <c r="D99" t="n">
-        <v>0.34857</v>
+        <v>0.359633</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.245812</v>
+        <v>0.266822</v>
       </c>
       <c r="C100" t="n">
-        <v>0.227324</v>
+        <v>0.247117</v>
       </c>
       <c r="D100" t="n">
-        <v>0.35675</v>
+        <v>0.369356</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.24612</v>
+        <v>0.26537</v>
       </c>
       <c r="C101" t="n">
-        <v>0.232766</v>
+        <v>0.248242</v>
       </c>
       <c r="D101" t="n">
-        <v>0.36324</v>
+        <v>0.376013</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.246764</v>
+        <v>0.266157</v>
       </c>
       <c r="C102" t="n">
-        <v>0.23461</v>
+        <v>0.251587</v>
       </c>
       <c r="D102" t="n">
-        <v>0.373212</v>
+        <v>0.384783</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.246502</v>
+        <v>0.265831</v>
       </c>
       <c r="C103" t="n">
-        <v>0.235177</v>
+        <v>0.253822</v>
       </c>
       <c r="D103" t="n">
-        <v>0.382928</v>
+        <v>0.396047</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.247086</v>
+        <v>0.266858</v>
       </c>
       <c r="C104" t="n">
-        <v>0.240432</v>
+        <v>0.25678</v>
       </c>
       <c r="D104" t="n">
-        <v>0.391895</v>
+        <v>0.405292</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.24668</v>
+        <v>0.267789</v>
       </c>
       <c r="C105" t="n">
-        <v>0.24266</v>
+        <v>0.260001</v>
       </c>
       <c r="D105" t="n">
-        <v>0.401072</v>
+        <v>0.414151</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.248182</v>
+        <v>0.268683</v>
       </c>
       <c r="C106" t="n">
-        <v>0.246618</v>
+        <v>0.264048</v>
       </c>
       <c r="D106" t="n">
-        <v>0.410286</v>
+        <v>0.424994</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.250112</v>
+        <v>0.270586</v>
       </c>
       <c r="C107" t="n">
-        <v>0.249062</v>
+        <v>0.268455</v>
       </c>
       <c r="D107" t="n">
-        <v>0.354311</v>
+        <v>0.369994</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.250795</v>
+        <v>0.27262</v>
       </c>
       <c r="C108" t="n">
-        <v>0.269636</v>
+        <v>0.298848</v>
       </c>
       <c r="D108" t="n">
-        <v>0.360318</v>
+        <v>0.377499</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.255396</v>
+        <v>0.27817</v>
       </c>
       <c r="C109" t="n">
-        <v>0.271857</v>
+        <v>0.301722</v>
       </c>
       <c r="D109" t="n">
-        <v>0.369013</v>
+        <v>0.385507</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.280671</v>
+        <v>0.306579</v>
       </c>
       <c r="C110" t="n">
-        <v>0.272827</v>
+        <v>0.304197</v>
       </c>
       <c r="D110" t="n">
-        <v>0.374651</v>
+        <v>0.391158</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.279459</v>
+        <v>0.305911</v>
       </c>
       <c r="C111" t="n">
-        <v>0.276663</v>
+        <v>0.306359</v>
       </c>
       <c r="D111" t="n">
-        <v>0.380714</v>
+        <v>0.399547</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.278749</v>
+        <v>0.306197</v>
       </c>
       <c r="C112" t="n">
-        <v>0.279283</v>
+        <v>0.310064</v>
       </c>
       <c r="D112" t="n">
-        <v>0.39233</v>
+        <v>0.408148</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.281</v>
+        <v>0.305571</v>
       </c>
       <c r="C113" t="n">
-        <v>0.281853</v>
+        <v>0.312153</v>
       </c>
       <c r="D113" t="n">
-        <v>0.40084</v>
+        <v>0.417994</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.277859</v>
+        <v>0.306338</v>
       </c>
       <c r="C114" t="n">
-        <v>0.276476</v>
+        <v>0.314299</v>
       </c>
       <c r="D114" t="n">
-        <v>0.404743</v>
+        <v>0.425872</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.280351</v>
+        <v>0.307594</v>
       </c>
       <c r="C115" t="n">
-        <v>0.280308</v>
+        <v>0.318732</v>
       </c>
       <c r="D115" t="n">
-        <v>0.412189</v>
+        <v>0.43437</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.281131</v>
+        <v>0.307258</v>
       </c>
       <c r="C116" t="n">
-        <v>0.283512</v>
+        <v>0.320153</v>
       </c>
       <c r="D116" t="n">
-        <v>0.420508</v>
+        <v>0.443053</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.278768</v>
+        <v>0.306877</v>
       </c>
       <c r="C117" t="n">
-        <v>0.286487</v>
+        <v>0.324746</v>
       </c>
       <c r="D117" t="n">
-        <v>0.438126</v>
+        <v>0.454076</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.274909</v>
+        <v>0.307301</v>
       </c>
       <c r="C118" t="n">
-        <v>0.286448</v>
+        <v>0.328158</v>
       </c>
       <c r="D118" t="n">
-        <v>0.443901</v>
+        <v>0.461733</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.281982</v>
+        <v>0.308155</v>
       </c>
       <c r="C119" t="n">
-        <v>0.293365</v>
+        <v>0.332755</v>
       </c>
       <c r="D119" t="n">
-        <v>0.449198</v>
+        <v>0.470659</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.281554</v>
+        <v>0.30983</v>
       </c>
       <c r="C120" t="n">
-        <v>0.294707</v>
+        <v>0.337485</v>
       </c>
       <c r="D120" t="n">
-        <v>0.457971</v>
+        <v>0.47958</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.283836</v>
+        <v>0.311105</v>
       </c>
       <c r="C121" t="n">
-        <v>0.30288</v>
+        <v>0.34305</v>
       </c>
       <c r="D121" t="n">
-        <v>0.384338</v>
+        <v>0.401281</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.286816</v>
+        <v>0.313367</v>
       </c>
       <c r="C122" t="n">
-        <v>0.309327</v>
+        <v>0.350724</v>
       </c>
       <c r="D122" t="n">
-        <v>0.393917</v>
+        <v>0.410223</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.29158</v>
+        <v>0.318935</v>
       </c>
       <c r="C123" t="n">
-        <v>0.293322</v>
+        <v>0.344697</v>
       </c>
       <c r="D123" t="n">
-        <v>0.391877</v>
+        <v>0.414745</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.35849</v>
+        <v>0.385735</v>
       </c>
       <c r="C124" t="n">
-        <v>0.295683</v>
+        <v>0.347462</v>
       </c>
       <c r="D124" t="n">
-        <v>0.405165</v>
+        <v>0.422614</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.358913</v>
+        <v>0.384089</v>
       </c>
       <c r="C125" t="n">
-        <v>0.302463</v>
+        <v>0.350031</v>
       </c>
       <c r="D125" t="n">
-        <v>0.406584</v>
+        <v>0.426856</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.357994</v>
+        <v>0.384045</v>
       </c>
       <c r="C126" t="n">
-        <v>0.305471</v>
+        <v>0.353867</v>
       </c>
       <c r="D126" t="n">
-        <v>0.417475</v>
+        <v>0.438713</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.351249</v>
+        <v>0.383566</v>
       </c>
       <c r="C127" t="n">
-        <v>0.308677</v>
+        <v>0.35691</v>
       </c>
       <c r="D127" t="n">
-        <v>0.421615</v>
+        <v>0.444009</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.359187</v>
+        <v>0.383751</v>
       </c>
       <c r="C128" t="n">
-        <v>0.311655</v>
+        <v>0.360205</v>
       </c>
       <c r="D128" t="n">
-        <v>0.437689</v>
+        <v>0.45538</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.358499</v>
+        <v>0.38444</v>
       </c>
       <c r="C129" t="n">
-        <v>0.31481</v>
+        <v>0.364117</v>
       </c>
       <c r="D129" t="n">
-        <v>0.44441</v>
+        <v>0.463504</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.357303</v>
+        <v>0.384302</v>
       </c>
       <c r="C130" t="n">
-        <v>0.314716</v>
+        <v>0.368436</v>
       </c>
       <c r="D130" t="n">
-        <v>0.453572</v>
+        <v>0.472814</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.358639</v>
+        <v>0.384148</v>
       </c>
       <c r="C131" t="n">
-        <v>0.322973</v>
+        <v>0.372563</v>
       </c>
       <c r="D131" t="n">
-        <v>0.456315</v>
+        <v>0.480581</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.360941</v>
+        <v>0.385035</v>
       </c>
       <c r="C132" t="n">
-        <v>0.322866</v>
+        <v>0.375564</v>
       </c>
       <c r="D132" t="n">
-        <v>0.470923</v>
+        <v>0.490344</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.358642</v>
+        <v>0.385599</v>
       </c>
       <c r="C133" t="n">
-        <v>0.33257</v>
+        <v>0.381432</v>
       </c>
       <c r="D133" t="n">
-        <v>0.476994</v>
+        <v>0.501084</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.359962</v>
+        <v>0.385567</v>
       </c>
       <c r="C134" t="n">
-        <v>0.338432</v>
+        <v>0.387613</v>
       </c>
       <c r="D134" t="n">
-        <v>0.488279</v>
+        <v>0.510399</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.360465</v>
+        <v>0.388854</v>
       </c>
       <c r="C135" t="n">
-        <v>0.345889</v>
+        <v>0.395692</v>
       </c>
       <c r="D135" t="n">
-        <v>0.404121</v>
+        <v>0.421723</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.363435</v>
+        <v>0.389874</v>
       </c>
       <c r="C136" t="n">
-        <v>0.354501</v>
+        <v>0.404872</v>
       </c>
       <c r="D136" t="n">
-        <v>0.409802</v>
+        <v>0.428099</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.367935</v>
+        <v>0.394023</v>
       </c>
       <c r="C137" t="n">
-        <v>0.318384</v>
+        <v>0.367388</v>
       </c>
       <c r="D137" t="n">
-        <v>0.417428</v>
+        <v>0.435826</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.416416</v>
+        <v>0.448335</v>
       </c>
       <c r="C138" t="n">
-        <v>0.324759</v>
+        <v>0.370888</v>
       </c>
       <c r="D138" t="n">
-        <v>0.41679</v>
+        <v>0.438458</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.417205</v>
+        <v>0.449228</v>
       </c>
       <c r="C139" t="n">
-        <v>0.326369</v>
+        <v>0.373389</v>
       </c>
       <c r="D139" t="n">
-        <v>0.422704</v>
+        <v>0.4457</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.417023</v>
+        <v>0.449224</v>
       </c>
       <c r="C140" t="n">
-        <v>0.329869</v>
+        <v>0.377205</v>
       </c>
       <c r="D140" t="n">
-        <v>0.437108</v>
+        <v>0.456156</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.417707</v>
+        <v>0.449551</v>
       </c>
       <c r="C141" t="n">
-        <v>0.332129</v>
+        <v>0.380477</v>
       </c>
       <c r="D141" t="n">
-        <v>0.443216</v>
+        <v>0.464112</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.415494</v>
+        <v>0.448388</v>
       </c>
       <c r="C142" t="n">
-        <v>0.329389</v>
+        <v>0.382965</v>
       </c>
       <c r="D142" t="n">
-        <v>0.448358</v>
+        <v>0.470071</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.417156</v>
+        <v>0.448977</v>
       </c>
       <c r="C143" t="n">
-        <v>0.338089</v>
+        <v>0.386497</v>
       </c>
       <c r="D143" t="n">
-        <v>0.462463</v>
+        <v>0.482026</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0466037</v>
+        <v>0.0363722</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0522905</v>
+        <v>0.0377281</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0819163</v>
+        <v>0.0717309</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0462924</v>
+        <v>0.0360085</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0530774</v>
+        <v>0.0375072</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0853402</v>
+        <v>0.0784652</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0449333</v>
+        <v>0.0366109</v>
       </c>
       <c r="C4" t="n">
-        <v>0.051487</v>
+        <v>0.0379851</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0960655</v>
+        <v>0.0871454</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0440949</v>
+        <v>0.0361799</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0503997</v>
+        <v>0.0379969</v>
       </c>
       <c r="D5" t="n">
-        <v>0.101413</v>
+        <v>0.0941312</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0429878</v>
+        <v>0.0364394</v>
       </c>
       <c r="C6" t="n">
-        <v>0.049478</v>
+        <v>0.0388</v>
       </c>
       <c r="D6" t="n">
-        <v>0.112619</v>
+        <v>0.100563</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0470628</v>
+        <v>0.0372071</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0546208</v>
+        <v>0.039125</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07068290000000001</v>
+        <v>0.062765</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0476247</v>
+        <v>0.0369329</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0556247</v>
+        <v>0.040138</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0749317</v>
+        <v>0.0663576</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0459062</v>
+        <v>0.0374109</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0452806</v>
+        <v>0.0393985</v>
       </c>
       <c r="D9" t="n">
-        <v>0.079571</v>
+        <v>0.07141790000000001</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0442466</v>
+        <v>0.0431951</v>
       </c>
       <c r="C10" t="n">
-        <v>0.044953</v>
+        <v>0.039862</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0849975</v>
+        <v>0.0759427</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0441461</v>
+        <v>0.0434025</v>
       </c>
       <c r="C11" t="n">
-        <v>0.045704</v>
+        <v>0.0402772</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0893264</v>
+        <v>0.0813367</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.044372</v>
+        <v>0.0435909</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0461664</v>
+        <v>0.0403703</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0968644</v>
+        <v>0.0870679</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0444913</v>
+        <v>0.0437235</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0464293</v>
+        <v>0.0406583</v>
       </c>
       <c r="D13" t="n">
-        <v>0.102256</v>
+        <v>0.09217450000000001</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0448274</v>
+        <v>0.0433883</v>
       </c>
       <c r="C14" t="n">
-        <v>0.046612</v>
+        <v>0.0413567</v>
       </c>
       <c r="D14" t="n">
-        <v>0.106944</v>
+        <v>0.0967403</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0446851</v>
+        <v>0.0439073</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0465262</v>
+        <v>0.0415739</v>
       </c>
       <c r="D15" t="n">
-        <v>0.111924</v>
+        <v>0.102323</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0447977</v>
+        <v>0.0441933</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0471965</v>
+        <v>0.0418043</v>
       </c>
       <c r="D16" t="n">
-        <v>0.116559</v>
+        <v>0.10768</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0449834</v>
+        <v>0.0443615</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0472741</v>
+        <v>0.0424475</v>
       </c>
       <c r="D17" t="n">
-        <v>0.118963</v>
+        <v>0.112659</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0450075</v>
+        <v>0.044283</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0472119</v>
+        <v>0.0423593</v>
       </c>
       <c r="D18" t="n">
-        <v>0.124373</v>
+        <v>0.117604</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.045212</v>
+        <v>0.0444823</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0476068</v>
+        <v>0.0427466</v>
       </c>
       <c r="D19" t="n">
-        <v>0.128497</v>
+        <v>0.122415</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0453464</v>
+        <v>0.0447103</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0483334</v>
+        <v>0.0431464</v>
       </c>
       <c r="D20" t="n">
-        <v>0.131109</v>
+        <v>0.125395</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0454669</v>
+        <v>0.0448185</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0491284</v>
+        <v>0.0445114</v>
       </c>
       <c r="D21" t="n">
-        <v>0.088891</v>
+        <v>0.08874559999999999</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0461001</v>
+        <v>0.0454401</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0543026</v>
+        <v>0.0492355</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0920315</v>
+        <v>0.0914604</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0459847</v>
+        <v>0.0451356</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0511542</v>
+        <v>0.0456972</v>
       </c>
       <c r="D23" t="n">
-        <v>0.09535059999999999</v>
+        <v>0.0949807</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0492791</v>
+        <v>0.0490712</v>
       </c>
       <c r="C24" t="n">
-        <v>0.051376</v>
+        <v>0.0460923</v>
       </c>
       <c r="D24" t="n">
-        <v>0.09864829999999999</v>
+        <v>0.09811449999999999</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0493244</v>
+        <v>0.0490454</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0512504</v>
+        <v>0.0464523</v>
       </c>
       <c r="D25" t="n">
-        <v>0.102387</v>
+        <v>0.102188</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0492227</v>
+        <v>0.049108</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0514899</v>
+        <v>0.04664</v>
       </c>
       <c r="D26" t="n">
-        <v>0.106095</v>
+        <v>0.10561</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0493868</v>
+        <v>0.049288</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0525363</v>
+        <v>0.0468146</v>
       </c>
       <c r="D27" t="n">
-        <v>0.109908</v>
+        <v>0.109602</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0494114</v>
+        <v>0.0493246</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0517122</v>
+        <v>0.0471674</v>
       </c>
       <c r="D28" t="n">
-        <v>0.113831</v>
+        <v>0.113451</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0497897</v>
+        <v>0.0494968</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0523117</v>
+        <v>0.0475336</v>
       </c>
       <c r="D29" t="n">
-        <v>0.118088</v>
+        <v>0.117731</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0496554</v>
+        <v>0.0496227</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0524324</v>
+        <v>0.0478641</v>
       </c>
       <c r="D30" t="n">
-        <v>0.122061</v>
+        <v>0.121908</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0498622</v>
+        <v>0.0497525</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0526988</v>
+        <v>0.0481811</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1265</v>
+        <v>0.126069</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0499271</v>
+        <v>0.0499717</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0527143</v>
+        <v>0.0484925</v>
       </c>
       <c r="D32" t="n">
-        <v>0.130305</v>
+        <v>0.129494</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0507396</v>
+        <v>0.0499499</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0532375</v>
+        <v>0.0491741</v>
       </c>
       <c r="D33" t="n">
-        <v>0.133887</v>
+        <v>0.133332</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0513071</v>
+        <v>0.0502001</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0552287</v>
+        <v>0.0501092</v>
       </c>
       <c r="D34" t="n">
-        <v>0.137103</v>
+        <v>0.136631</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0506451</v>
+        <v>0.0505386</v>
       </c>
       <c r="C35" t="n">
-        <v>0.058185</v>
+        <v>0.0537914</v>
       </c>
       <c r="D35" t="n">
-        <v>0.09679020000000001</v>
+        <v>0.09645620000000001</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0509209</v>
+        <v>0.0507485</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0656428</v>
+        <v>0.0612338</v>
       </c>
       <c r="D36" t="n">
-        <v>0.098937</v>
+        <v>0.0986322</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0524826</v>
+        <v>0.0523517</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0547603</v>
+        <v>0.0508701</v>
       </c>
       <c r="D37" t="n">
-        <v>0.101061</v>
+        <v>0.100951</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0558672</v>
+        <v>0.0544401</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0536312</v>
+        <v>0.0505439</v>
       </c>
       <c r="D38" t="n">
-        <v>0.104157</v>
+        <v>0.103796</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0546983</v>
+        <v>0.0554996</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0546126</v>
+        <v>0.0503789</v>
       </c>
       <c r="D39" t="n">
-        <v>0.106905</v>
+        <v>0.106813</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0548486</v>
+        <v>0.0541673</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0540954</v>
+        <v>0.0506714</v>
       </c>
       <c r="D40" t="n">
-        <v>0.110434</v>
+        <v>0.110392</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0556361</v>
+        <v>0.0545977</v>
       </c>
       <c r="C41" t="n">
-        <v>0.054798</v>
+        <v>0.0515005</v>
       </c>
       <c r="D41" t="n">
-        <v>0.114084</v>
+        <v>0.113935</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0563041</v>
+        <v>0.0547147</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0550668</v>
+        <v>0.0517825</v>
       </c>
       <c r="D42" t="n">
-        <v>0.117822</v>
+        <v>0.117799</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0545985</v>
+        <v>0.0550837</v>
       </c>
       <c r="C43" t="n">
-        <v>0.056073</v>
+        <v>0.0517853</v>
       </c>
       <c r="D43" t="n">
-        <v>0.121887</v>
+        <v>0.121765</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0547584</v>
+        <v>0.0552367</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0563671</v>
+        <v>0.0522833</v>
       </c>
       <c r="D44" t="n">
-        <v>0.126077</v>
+        <v>0.125865</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0548916</v>
+        <v>0.0553926</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0561392</v>
+        <v>0.0530805</v>
       </c>
       <c r="D45" t="n">
-        <v>0.13004</v>
+        <v>0.129939</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0551453</v>
+        <v>0.0548577</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0569886</v>
+        <v>0.053704</v>
       </c>
       <c r="D46" t="n">
-        <v>0.133949</v>
+        <v>0.133705</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0548245</v>
+        <v>0.0563141</v>
       </c>
       <c r="C47" t="n">
-        <v>0.058248</v>
+        <v>0.05591</v>
       </c>
       <c r="D47" t="n">
-        <v>0.137091</v>
+        <v>0.13696</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.055068</v>
+        <v>0.0559777</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0621959</v>
+        <v>0.058955</v>
       </c>
       <c r="D48" t="n">
-        <v>0.140886</v>
+        <v>0.140829</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0554513</v>
+        <v>0.0560054</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0665437</v>
+        <v>0.0627248</v>
       </c>
       <c r="D49" t="n">
-        <v>0.14416</v>
+        <v>0.143856</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0570638</v>
+        <v>0.0575881</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0718545</v>
+        <v>0.0676122</v>
       </c>
       <c r="D50" t="n">
-        <v>0.100845</v>
+        <v>0.100659</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0629127</v>
+        <v>0.0612054</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0566411</v>
+        <v>0.0538742</v>
       </c>
       <c r="D51" t="n">
-        <v>0.103062</v>
+        <v>0.10298</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0679139</v>
+        <v>0.0668764</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0571102</v>
+        <v>0.0534145</v>
       </c>
       <c r="D52" t="n">
-        <v>0.105664</v>
+        <v>0.105183</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0603507</v>
+        <v>0.0609087</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0572691</v>
+        <v>0.0531971</v>
       </c>
       <c r="D53" t="n">
-        <v>0.108748</v>
+        <v>0.108597</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.06276370000000001</v>
+        <v>0.0610138</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0581685</v>
+        <v>0.053446</v>
       </c>
       <c r="D54" t="n">
-        <v>0.111858</v>
+        <v>0.111832</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.06307450000000001</v>
+        <v>0.0610555</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0579296</v>
+        <v>0.0539285</v>
       </c>
       <c r="D55" t="n">
-        <v>0.115766</v>
+        <v>0.115666</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.06302919999999999</v>
+        <v>0.0609012</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0581974</v>
+        <v>0.0545991</v>
       </c>
       <c r="D56" t="n">
-        <v>0.11947</v>
+        <v>0.119408</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.06327380000000001</v>
+        <v>0.0612368</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0587907</v>
+        <v>0.0546597</v>
       </c>
       <c r="D57" t="n">
-        <v>0.12368</v>
+        <v>0.123602</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.06335300000000001</v>
+        <v>0.0611428</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0591872</v>
+        <v>0.0554897</v>
       </c>
       <c r="D58" t="n">
-        <v>0.12762</v>
+        <v>0.127509</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0615767</v>
+        <v>0.0615908</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0601139</v>
+        <v>0.056074</v>
       </c>
       <c r="D59" t="n">
-        <v>0.131498</v>
+        <v>0.131373</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0627919</v>
+        <v>0.0612772</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0615836</v>
+        <v>0.0572836</v>
       </c>
       <c r="D60" t="n">
-        <v>0.136005</v>
+        <v>0.135372</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0640865</v>
+        <v>0.0616583</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0640086</v>
+        <v>0.0607557</v>
       </c>
       <c r="D61" t="n">
-        <v>0.140671</v>
+        <v>0.139672</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0627818</v>
+        <v>0.0620615</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0660333</v>
+        <v>0.0629767</v>
       </c>
       <c r="D62" t="n">
-        <v>0.145745</v>
+        <v>0.143179</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0644769</v>
+        <v>0.0627535</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0695503</v>
+        <v>0.0661298</v>
       </c>
       <c r="D63" t="n">
-        <v>0.147683</v>
+        <v>0.144429</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0672097</v>
+        <v>0.0648381</v>
       </c>
       <c r="C64" t="n">
-        <v>0.07395450000000001</v>
+        <v>0.0704123</v>
       </c>
       <c r="D64" t="n">
-        <v>0.112747</v>
+        <v>0.1076</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0680756</v>
+        <v>0.0679665</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0811047</v>
+        <v>0.0763047</v>
       </c>
       <c r="D65" t="n">
-        <v>0.115535</v>
+        <v>0.111873</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.07233249999999999</v>
+        <v>0.0721786</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0610913</v>
+        <v>0.0558184</v>
       </c>
       <c r="D66" t="n">
-        <v>0.121166</v>
+        <v>0.1168</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0813774</v>
+        <v>0.07304330000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>0.061177</v>
+        <v>0.0564541</v>
       </c>
       <c r="D67" t="n">
-        <v>0.125307</v>
+        <v>0.120935</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.07883519999999999</v>
+        <v>0.0721526</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0616163</v>
+        <v>0.0570175</v>
       </c>
       <c r="D68" t="n">
-        <v>0.132644</v>
+        <v>0.126121</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0829608</v>
+        <v>0.07309110000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>0.06312520000000001</v>
+        <v>0.0573083</v>
       </c>
       <c r="D69" t="n">
-        <v>0.13699</v>
+        <v>0.131796</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.08323750000000001</v>
+        <v>0.0736421</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0639219</v>
+        <v>0.0582589</v>
       </c>
       <c r="D70" t="n">
-        <v>0.144893</v>
+        <v>0.138872</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.08136350000000001</v>
+        <v>0.0723872</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0646399</v>
+        <v>0.0590535</v>
       </c>
       <c r="D71" t="n">
-        <v>0.151694</v>
+        <v>0.144021</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0821173</v>
+        <v>0.07209110000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0653073</v>
+        <v>0.0598393</v>
       </c>
       <c r="D72" t="n">
-        <v>0.158219</v>
+        <v>0.152349</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0827252</v>
+        <v>0.07244970000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0665999</v>
+        <v>0.0612364</v>
       </c>
       <c r="D73" t="n">
-        <v>0.167562</v>
+        <v>0.161516</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0827275</v>
+        <v>0.0727347</v>
       </c>
       <c r="C74" t="n">
-        <v>0.06818680000000001</v>
+        <v>0.06255960000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>0.177785</v>
+        <v>0.168663</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.08132010000000001</v>
+        <v>0.0753326</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0690494</v>
+        <v>0.0649542</v>
       </c>
       <c r="D75" t="n">
-        <v>0.18927</v>
+        <v>0.178468</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0824824</v>
+        <v>0.0745657</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0711615</v>
+        <v>0.0670637</v>
       </c>
       <c r="D76" t="n">
-        <v>0.194696</v>
+        <v>0.186095</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.082023</v>
+        <v>0.0759452</v>
       </c>
       <c r="C77" t="n">
-        <v>0.07445880000000001</v>
+        <v>0.06894550000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>0.203452</v>
+        <v>0.19304</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.08465880000000001</v>
+        <v>0.07874589999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0788358</v>
+        <v>0.07334010000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.195832</v>
+        <v>0.187067</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0854632</v>
+        <v>0.07970820000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>0.08469400000000001</v>
+        <v>0.0788779</v>
       </c>
       <c r="D79" t="n">
-        <v>0.202739</v>
+        <v>0.194515</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.08959449999999999</v>
+        <v>0.0846128</v>
       </c>
       <c r="C80" t="n">
-        <v>0.110038</v>
+        <v>0.102614</v>
       </c>
       <c r="D80" t="n">
-        <v>0.208162</v>
+        <v>0.201403</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.175044</v>
+        <v>0.172412</v>
       </c>
       <c r="C81" t="n">
-        <v>0.109839</v>
+        <v>0.106154</v>
       </c>
       <c r="D81" t="n">
-        <v>0.218329</v>
+        <v>0.212399</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.175735</v>
+        <v>0.173732</v>
       </c>
       <c r="C82" t="n">
-        <v>0.115156</v>
+        <v>0.107651</v>
       </c>
       <c r="D82" t="n">
-        <v>0.226973</v>
+        <v>0.220895</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.179584</v>
+        <v>0.174811</v>
       </c>
       <c r="C83" t="n">
-        <v>0.117301</v>
+        <v>0.110119</v>
       </c>
       <c r="D83" t="n">
-        <v>0.233971</v>
+        <v>0.226332</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.180203</v>
+        <v>0.175832</v>
       </c>
       <c r="C84" t="n">
-        <v>0.12</v>
+        <v>0.112051</v>
       </c>
       <c r="D84" t="n">
-        <v>0.243928</v>
+        <v>0.237957</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.180899</v>
+        <v>0.176274</v>
       </c>
       <c r="C85" t="n">
-        <v>0.12223</v>
+        <v>0.114044</v>
       </c>
       <c r="D85" t="n">
-        <v>0.254615</v>
+        <v>0.24892</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.181666</v>
+        <v>0.176548</v>
       </c>
       <c r="C86" t="n">
-        <v>0.126508</v>
+        <v>0.117411</v>
       </c>
       <c r="D86" t="n">
-        <v>0.264638</v>
+        <v>0.258723</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.182064</v>
+        <v>0.176983</v>
       </c>
       <c r="C87" t="n">
-        <v>0.128705</v>
+        <v>0.118907</v>
       </c>
       <c r="D87" t="n">
-        <v>0.272573</v>
+        <v>0.266903</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.180942</v>
+        <v>0.177434</v>
       </c>
       <c r="C88" t="n">
-        <v>0.129015</v>
+        <v>0.121745</v>
       </c>
       <c r="D88" t="n">
-        <v>0.281191</v>
+        <v>0.274844</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.181133</v>
+        <v>0.177789</v>
       </c>
       <c r="C89" t="n">
-        <v>0.129669</v>
+        <v>0.123383</v>
       </c>
       <c r="D89" t="n">
-        <v>0.291897</v>
+        <v>0.287276</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.181722</v>
+        <v>0.178828</v>
       </c>
       <c r="C90" t="n">
-        <v>0.132218</v>
+        <v>0.125977</v>
       </c>
       <c r="D90" t="n">
-        <v>0.305256</v>
+        <v>0.298639</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.182805</v>
+        <v>0.180376</v>
       </c>
       <c r="C91" t="n">
-        <v>0.135223</v>
+        <v>0.128674</v>
       </c>
       <c r="D91" t="n">
-        <v>0.3104</v>
+        <v>0.307187</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.183721</v>
+        <v>0.180729</v>
       </c>
       <c r="C92" t="n">
-        <v>0.138815</v>
+        <v>0.131877</v>
       </c>
       <c r="D92" t="n">
-        <v>0.291741</v>
+        <v>0.28459</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.186711</v>
+        <v>0.182049</v>
       </c>
       <c r="C93" t="n">
-        <v>0.145724</v>
+        <v>0.137493</v>
       </c>
       <c r="D93" t="n">
-        <v>0.300491</v>
+        <v>0.292917</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.187487</v>
+        <v>0.184396</v>
       </c>
       <c r="C94" t="n">
-        <v>0.214599</v>
+        <v>0.20621</v>
       </c>
       <c r="D94" t="n">
-        <v>0.307863</v>
+        <v>0.299583</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.244935</v>
+        <v>0.239419</v>
       </c>
       <c r="C95" t="n">
-        <v>0.220374</v>
+        <v>0.208503</v>
       </c>
       <c r="D95" t="n">
-        <v>0.315384</v>
+        <v>0.307404</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.245186</v>
+        <v>0.239723</v>
       </c>
       <c r="C96" t="n">
-        <v>0.222328</v>
+        <v>0.209946</v>
       </c>
       <c r="D96" t="n">
-        <v>0.324462</v>
+        <v>0.316357</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.245063</v>
+        <v>0.238204</v>
       </c>
       <c r="C97" t="n">
-        <v>0.224585</v>
+        <v>0.212313</v>
       </c>
       <c r="D97" t="n">
-        <v>0.331037</v>
+        <v>0.322927</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.245401</v>
+        <v>0.240207</v>
       </c>
       <c r="C98" t="n">
-        <v>0.226764</v>
+        <v>0.213372</v>
       </c>
       <c r="D98" t="n">
-        <v>0.340156</v>
+        <v>0.331034</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.24548</v>
+        <v>0.239445</v>
       </c>
       <c r="C99" t="n">
-        <v>0.228402</v>
+        <v>0.215608</v>
       </c>
       <c r="D99" t="n">
-        <v>0.34857</v>
+        <v>0.339013</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.245812</v>
+        <v>0.239055</v>
       </c>
       <c r="C100" t="n">
-        <v>0.227324</v>
+        <v>0.217018</v>
       </c>
       <c r="D100" t="n">
-        <v>0.35675</v>
+        <v>0.348937</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.24612</v>
+        <v>0.239109</v>
       </c>
       <c r="C101" t="n">
-        <v>0.232766</v>
+        <v>0.218459</v>
       </c>
       <c r="D101" t="n">
-        <v>0.36324</v>
+        <v>0.355667</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.246764</v>
+        <v>0.239633</v>
       </c>
       <c r="C102" t="n">
-        <v>0.23461</v>
+        <v>0.220911</v>
       </c>
       <c r="D102" t="n">
-        <v>0.373212</v>
+        <v>0.364063</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.246502</v>
+        <v>0.23948</v>
       </c>
       <c r="C103" t="n">
-        <v>0.235177</v>
+        <v>0.223668</v>
       </c>
       <c r="D103" t="n">
-        <v>0.382928</v>
+        <v>0.374564</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.247086</v>
+        <v>0.240317</v>
       </c>
       <c r="C104" t="n">
-        <v>0.240432</v>
+        <v>0.226542</v>
       </c>
       <c r="D104" t="n">
-        <v>0.391895</v>
+        <v>0.383824</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.24668</v>
+        <v>0.240851</v>
       </c>
       <c r="C105" t="n">
-        <v>0.24266</v>
+        <v>0.22805</v>
       </c>
       <c r="D105" t="n">
-        <v>0.401072</v>
+        <v>0.392118</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.248182</v>
+        <v>0.24318</v>
       </c>
       <c r="C106" t="n">
-        <v>0.246618</v>
+        <v>0.231562</v>
       </c>
       <c r="D106" t="n">
-        <v>0.410286</v>
+        <v>0.401741</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.250112</v>
+        <v>0.244773</v>
       </c>
       <c r="C107" t="n">
-        <v>0.249062</v>
+        <v>0.235701</v>
       </c>
       <c r="D107" t="n">
-        <v>0.354311</v>
+        <v>0.344826</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.250795</v>
+        <v>0.246633</v>
       </c>
       <c r="C108" t="n">
-        <v>0.269636</v>
+        <v>0.253718</v>
       </c>
       <c r="D108" t="n">
-        <v>0.360318</v>
+        <v>0.350061</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.255396</v>
+        <v>0.252136</v>
       </c>
       <c r="C109" t="n">
-        <v>0.271857</v>
+        <v>0.254944</v>
       </c>
       <c r="D109" t="n">
-        <v>0.369013</v>
+        <v>0.358884</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.280671</v>
+        <v>0.275146</v>
       </c>
       <c r="C110" t="n">
-        <v>0.272827</v>
+        <v>0.251312</v>
       </c>
       <c r="D110" t="n">
-        <v>0.374651</v>
+        <v>0.364492</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.279459</v>
+        <v>0.273366</v>
       </c>
       <c r="C111" t="n">
-        <v>0.276663</v>
+        <v>0.253186</v>
       </c>
       <c r="D111" t="n">
-        <v>0.380714</v>
+        <v>0.370635</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.278749</v>
+        <v>0.272831</v>
       </c>
       <c r="C112" t="n">
-        <v>0.279283</v>
+        <v>0.252523</v>
       </c>
       <c r="D112" t="n">
-        <v>0.39233</v>
+        <v>0.38197</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.281</v>
+        <v>0.272472</v>
       </c>
       <c r="C113" t="n">
-        <v>0.281853</v>
+        <v>0.255979</v>
       </c>
       <c r="D113" t="n">
-        <v>0.40084</v>
+        <v>0.389959</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.277859</v>
+        <v>0.274927</v>
       </c>
       <c r="C114" t="n">
-        <v>0.276476</v>
+        <v>0.25787</v>
       </c>
       <c r="D114" t="n">
-        <v>0.404743</v>
+        <v>0.398104</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.280351</v>
+        <v>0.273416</v>
       </c>
       <c r="C115" t="n">
-        <v>0.280308</v>
+        <v>0.261016</v>
       </c>
       <c r="D115" t="n">
-        <v>0.412189</v>
+        <v>0.407878</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.281131</v>
+        <v>0.274098</v>
       </c>
       <c r="C116" t="n">
-        <v>0.283512</v>
+        <v>0.263837</v>
       </c>
       <c r="D116" t="n">
-        <v>0.420508</v>
+        <v>0.415321</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.278768</v>
+        <v>0.275027</v>
       </c>
       <c r="C117" t="n">
-        <v>0.286487</v>
+        <v>0.268055</v>
       </c>
       <c r="D117" t="n">
-        <v>0.438126</v>
+        <v>0.426748</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.274909</v>
+        <v>0.275719</v>
       </c>
       <c r="C118" t="n">
-        <v>0.286448</v>
+        <v>0.270552</v>
       </c>
       <c r="D118" t="n">
-        <v>0.443901</v>
+        <v>0.432873</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.281982</v>
+        <v>0.276128</v>
       </c>
       <c r="C119" t="n">
-        <v>0.293365</v>
+        <v>0.271955</v>
       </c>
       <c r="D119" t="n">
-        <v>0.449198</v>
+        <v>0.439951</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.281554</v>
+        <v>0.276986</v>
       </c>
       <c r="C120" t="n">
-        <v>0.294707</v>
+        <v>0.276852</v>
       </c>
       <c r="D120" t="n">
-        <v>0.457971</v>
+        <v>0.448625</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.283836</v>
+        <v>0.27854</v>
       </c>
       <c r="C121" t="n">
-        <v>0.30288</v>
+        <v>0.281718</v>
       </c>
       <c r="D121" t="n">
-        <v>0.384338</v>
+        <v>0.375556</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.286816</v>
+        <v>0.280778</v>
       </c>
       <c r="C122" t="n">
-        <v>0.309327</v>
+        <v>0.289021</v>
       </c>
       <c r="D122" t="n">
-        <v>0.393917</v>
+        <v>0.384034</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.29158</v>
+        <v>0.286558</v>
       </c>
       <c r="C123" t="n">
-        <v>0.293322</v>
+        <v>0.275427</v>
       </c>
       <c r="D123" t="n">
-        <v>0.391877</v>
+        <v>0.387121</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.35849</v>
+        <v>0.348303</v>
       </c>
       <c r="C124" t="n">
-        <v>0.295683</v>
+        <v>0.27612</v>
       </c>
       <c r="D124" t="n">
-        <v>0.405165</v>
+        <v>0.394895</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.358913</v>
+        <v>0.348166</v>
       </c>
       <c r="C125" t="n">
-        <v>0.302463</v>
+        <v>0.278633</v>
       </c>
       <c r="D125" t="n">
-        <v>0.406584</v>
+        <v>0.397056</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.357994</v>
+        <v>0.347795</v>
       </c>
       <c r="C126" t="n">
-        <v>0.305471</v>
+        <v>0.281453</v>
       </c>
       <c r="D126" t="n">
-        <v>0.417475</v>
+        <v>0.411151</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.351249</v>
+        <v>0.348915</v>
       </c>
       <c r="C127" t="n">
-        <v>0.308677</v>
+        <v>0.284523</v>
       </c>
       <c r="D127" t="n">
-        <v>0.421615</v>
+        <v>0.414224</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.359187</v>
+        <v>0.348513</v>
       </c>
       <c r="C128" t="n">
-        <v>0.311655</v>
+        <v>0.287568</v>
       </c>
       <c r="D128" t="n">
-        <v>0.437689</v>
+        <v>0.427885</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.358499</v>
+        <v>0.349336</v>
       </c>
       <c r="C129" t="n">
-        <v>0.31481</v>
+        <v>0.290153</v>
       </c>
       <c r="D129" t="n">
-        <v>0.44441</v>
+        <v>0.434605</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.357303</v>
+        <v>0.348553</v>
       </c>
       <c r="C130" t="n">
-        <v>0.314716</v>
+        <v>0.294447</v>
       </c>
       <c r="D130" t="n">
-        <v>0.453572</v>
+        <v>0.442569</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.358639</v>
+        <v>0.349669</v>
       </c>
       <c r="C131" t="n">
-        <v>0.322973</v>
+        <v>0.29858</v>
       </c>
       <c r="D131" t="n">
-        <v>0.456315</v>
+        <v>0.448521</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.360941</v>
+        <v>0.348513</v>
       </c>
       <c r="C132" t="n">
-        <v>0.322866</v>
+        <v>0.302767</v>
       </c>
       <c r="D132" t="n">
-        <v>0.470923</v>
+        <v>0.458871</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.358642</v>
+        <v>0.348521</v>
       </c>
       <c r="C133" t="n">
-        <v>0.33257</v>
+        <v>0.306934</v>
       </c>
       <c r="D133" t="n">
-        <v>0.476994</v>
+        <v>0.46946</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.359962</v>
+        <v>0.351251</v>
       </c>
       <c r="C134" t="n">
-        <v>0.338432</v>
+        <v>0.312116</v>
       </c>
       <c r="D134" t="n">
-        <v>0.488279</v>
+        <v>0.47694</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.360465</v>
+        <v>0.352227</v>
       </c>
       <c r="C135" t="n">
-        <v>0.345889</v>
+        <v>0.317818</v>
       </c>
       <c r="D135" t="n">
-        <v>0.404121</v>
+        <v>0.39384</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.363435</v>
+        <v>0.353801</v>
       </c>
       <c r="C136" t="n">
-        <v>0.354501</v>
+        <v>0.32693</v>
       </c>
       <c r="D136" t="n">
-        <v>0.409802</v>
+        <v>0.400204</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.367935</v>
+        <v>0.356599</v>
       </c>
       <c r="C137" t="n">
-        <v>0.318384</v>
+        <v>0.296652</v>
       </c>
       <c r="D137" t="n">
-        <v>0.417428</v>
+        <v>0.406447</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.416416</v>
+        <v>0.407128</v>
       </c>
       <c r="C138" t="n">
-        <v>0.324759</v>
+        <v>0.298899</v>
       </c>
       <c r="D138" t="n">
-        <v>0.41679</v>
+        <v>0.407071</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.417205</v>
+        <v>0.40679</v>
       </c>
       <c r="C139" t="n">
-        <v>0.326369</v>
+        <v>0.301671</v>
       </c>
       <c r="D139" t="n">
-        <v>0.422704</v>
+        <v>0.413832</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.417023</v>
+        <v>0.408623</v>
       </c>
       <c r="C140" t="n">
-        <v>0.329869</v>
+        <v>0.303919</v>
       </c>
       <c r="D140" t="n">
-        <v>0.437108</v>
+        <v>0.426847</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.417707</v>
+        <v>0.407145</v>
       </c>
       <c r="C141" t="n">
-        <v>0.332129</v>
+        <v>0.305449</v>
       </c>
       <c r="D141" t="n">
-        <v>0.443216</v>
+        <v>0.43441</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.415494</v>
+        <v>0.403503</v>
       </c>
       <c r="C142" t="n">
-        <v>0.329389</v>
+        <v>0.308668</v>
       </c>
       <c r="D142" t="n">
-        <v>0.448358</v>
+        <v>0.438571</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.417156</v>
+        <v>0.406745</v>
       </c>
       <c r="C143" t="n">
-        <v>0.338089</v>
+        <v>0.310596</v>
       </c>
       <c r="D143" t="n">
-        <v>0.462463</v>
+        <v>0.451561</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0363722</v>
+        <v>0.0356651</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0377281</v>
+        <v>0.0370961</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0717309</v>
+        <v>0.070051</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0360085</v>
+        <v>0.0386201</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0375072</v>
+        <v>0.0385713</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0784652</v>
+        <v>0.07532560000000001</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0366109</v>
+        <v>0.038414</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0379851</v>
+        <v>0.038905</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0871454</v>
+        <v>0.0863926</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0361799</v>
+        <v>0.0382896</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0379969</v>
+        <v>0.0395539</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0941312</v>
+        <v>0.0926579</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0364394</v>
+        <v>0.0385478</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0388</v>
+        <v>0.0400723</v>
       </c>
       <c r="D6" t="n">
-        <v>0.100563</v>
+        <v>0.09951160000000001</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0372071</v>
+        <v>0.0400196</v>
       </c>
       <c r="C7" t="n">
-        <v>0.039125</v>
+        <v>0.0413228</v>
       </c>
       <c r="D7" t="n">
-        <v>0.062765</v>
+        <v>0.0628049</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0369329</v>
+        <v>0.0402459</v>
       </c>
       <c r="C8" t="n">
-        <v>0.040138</v>
+        <v>0.0424671</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0663576</v>
+        <v>0.0672739</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0374109</v>
+        <v>0.0386023</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0393985</v>
+        <v>0.0399859</v>
       </c>
       <c r="D9" t="n">
-        <v>0.07141790000000001</v>
+        <v>0.0711799</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0431951</v>
+        <v>0.0438698</v>
       </c>
       <c r="C10" t="n">
-        <v>0.039862</v>
+        <v>0.040784</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0759427</v>
+        <v>0.0751867</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0434025</v>
+        <v>0.0438227</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0402772</v>
+        <v>0.0407459</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0813367</v>
+        <v>0.08063670000000001</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0435909</v>
+        <v>0.0440164</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0403703</v>
+        <v>0.041342</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0870679</v>
+        <v>0.0878082</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0437235</v>
+        <v>0.0441925</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0406583</v>
+        <v>0.0417056</v>
       </c>
       <c r="D13" t="n">
-        <v>0.09217450000000001</v>
+        <v>0.092455</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0433883</v>
+        <v>0.0441103</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0413567</v>
+        <v>0.0417917</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0967403</v>
+        <v>0.09748329999999999</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0439073</v>
+        <v>0.04441</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0415739</v>
+        <v>0.0425209</v>
       </c>
       <c r="D15" t="n">
-        <v>0.102323</v>
+        <v>0.103087</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0441933</v>
+        <v>0.04453</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0418043</v>
+        <v>0.0428999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.10768</v>
+        <v>0.108494</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0443615</v>
+        <v>0.0446626</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0424475</v>
+        <v>0.0428155</v>
       </c>
       <c r="D17" t="n">
-        <v>0.112659</v>
+        <v>0.11353</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.044283</v>
+        <v>0.0448609</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0423593</v>
+        <v>0.0435815</v>
       </c>
       <c r="D18" t="n">
-        <v>0.117604</v>
+        <v>0.118066</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0444823</v>
+        <v>0.0451065</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0427466</v>
+        <v>0.0437733</v>
       </c>
       <c r="D19" t="n">
-        <v>0.122415</v>
+        <v>0.122811</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0447103</v>
+        <v>0.0452726</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0431464</v>
+        <v>0.0441506</v>
       </c>
       <c r="D20" t="n">
-        <v>0.125395</v>
+        <v>0.12586</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0448185</v>
+        <v>0.045654</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0445114</v>
+        <v>0.0450718</v>
       </c>
       <c r="D21" t="n">
-        <v>0.08874559999999999</v>
+        <v>0.0889684</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0454401</v>
+        <v>0.0454815</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0492355</v>
+        <v>0.0491968</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0914604</v>
+        <v>0.0917192</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0451356</v>
+        <v>0.0459508</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0456972</v>
+        <v>0.0456449</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0949807</v>
+        <v>0.09511749999999999</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0490712</v>
+        <v>0.0491649</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0460923</v>
+        <v>0.0460381</v>
       </c>
       <c r="D24" t="n">
-        <v>0.09811449999999999</v>
+        <v>0.0982741</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0490454</v>
+        <v>0.0490938</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0464523</v>
+        <v>0.0462604</v>
       </c>
       <c r="D25" t="n">
-        <v>0.102188</v>
+        <v>0.102185</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.049108</v>
+        <v>0.0490246</v>
       </c>
       <c r="C26" t="n">
-        <v>0.04664</v>
+        <v>0.0466755</v>
       </c>
       <c r="D26" t="n">
-        <v>0.10561</v>
+        <v>0.10579</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.049288</v>
+        <v>0.0492574</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0468146</v>
+        <v>0.04731</v>
       </c>
       <c r="D27" t="n">
-        <v>0.109602</v>
+        <v>0.109903</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0493246</v>
+        <v>0.0493041</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0471674</v>
+        <v>0.0476595</v>
       </c>
       <c r="D28" t="n">
-        <v>0.113451</v>
+        <v>0.113808</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0494968</v>
+        <v>0.0495168</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0475336</v>
+        <v>0.0480489</v>
       </c>
       <c r="D29" t="n">
-        <v>0.117731</v>
+        <v>0.118067</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0496227</v>
+        <v>0.0496004</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0478641</v>
+        <v>0.0481654</v>
       </c>
       <c r="D30" t="n">
-        <v>0.121908</v>
+        <v>0.122162</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0497525</v>
+        <v>0.0497621</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0481811</v>
+        <v>0.0486629</v>
       </c>
       <c r="D31" t="n">
-        <v>0.126069</v>
+        <v>0.126336</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0499717</v>
+        <v>0.0499725</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0484925</v>
+        <v>0.0486039</v>
       </c>
       <c r="D32" t="n">
-        <v>0.129494</v>
+        <v>0.129452</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0499499</v>
+        <v>0.0498912</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0491741</v>
+        <v>0.0487504</v>
       </c>
       <c r="D33" t="n">
-        <v>0.133332</v>
+        <v>0.131259</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0502001</v>
+        <v>0.0501227</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0501092</v>
+        <v>0.0499057</v>
       </c>
       <c r="D34" t="n">
-        <v>0.136631</v>
+        <v>0.134619</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0505386</v>
+        <v>0.0504365</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0537914</v>
+        <v>0.054437</v>
       </c>
       <c r="D35" t="n">
-        <v>0.09645620000000001</v>
+        <v>0.0951935</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0507485</v>
+        <v>0.0507804</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0612338</v>
+        <v>0.0619345</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0986322</v>
+        <v>0.09726319999999999</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0523517</v>
+        <v>0.0520572</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0508701</v>
+        <v>0.0497347</v>
       </c>
       <c r="D37" t="n">
-        <v>0.100951</v>
+        <v>0.0993184</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0544401</v>
+        <v>0.0546119</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0505439</v>
+        <v>0.0495326</v>
       </c>
       <c r="D38" t="n">
-        <v>0.103796</v>
+        <v>0.102183</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0554996</v>
+        <v>0.0547634</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0503789</v>
+        <v>0.0500565</v>
       </c>
       <c r="D39" t="n">
-        <v>0.106813</v>
+        <v>0.104977</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0541673</v>
+        <v>0.0541351</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0506714</v>
+        <v>0.0502177</v>
       </c>
       <c r="D40" t="n">
-        <v>0.110392</v>
+        <v>0.108397</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0545977</v>
+        <v>0.0547987</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0515005</v>
+        <v>0.0505301</v>
       </c>
       <c r="D41" t="n">
-        <v>0.113935</v>
+        <v>0.111903</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0547147</v>
+        <v>0.0548036</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0517825</v>
+        <v>0.050897</v>
       </c>
       <c r="D42" t="n">
-        <v>0.117799</v>
+        <v>0.11549</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0550837</v>
+        <v>0.0542769</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0517853</v>
+        <v>0.051537</v>
       </c>
       <c r="D43" t="n">
-        <v>0.121765</v>
+        <v>0.119444</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0552367</v>
+        <v>0.054422</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0522833</v>
+        <v>0.0518843</v>
       </c>
       <c r="D44" t="n">
-        <v>0.125865</v>
+        <v>0.12347</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0553926</v>
+        <v>0.0545665</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0530805</v>
+        <v>0.0521806</v>
       </c>
       <c r="D45" t="n">
-        <v>0.129939</v>
+        <v>0.127516</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0548577</v>
+        <v>0.0544316</v>
       </c>
       <c r="C46" t="n">
-        <v>0.053704</v>
+        <v>0.0528522</v>
       </c>
       <c r="D46" t="n">
-        <v>0.133705</v>
+        <v>0.131283</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0563141</v>
+        <v>0.0563146</v>
       </c>
       <c r="C47" t="n">
-        <v>0.05591</v>
+        <v>0.0545358</v>
       </c>
       <c r="D47" t="n">
-        <v>0.13696</v>
+        <v>0.134485</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0559777</v>
+        <v>0.0552389</v>
       </c>
       <c r="C48" t="n">
-        <v>0.058955</v>
+        <v>0.0575786</v>
       </c>
       <c r="D48" t="n">
-        <v>0.140829</v>
+        <v>0.139939</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0560054</v>
+        <v>0.0556782</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0627248</v>
+        <v>0.061372</v>
       </c>
       <c r="D49" t="n">
-        <v>0.143856</v>
+        <v>0.143677</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0575881</v>
+        <v>0.0572162</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0676122</v>
+        <v>0.06599629999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>0.100659</v>
+        <v>0.100663</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0612054</v>
+        <v>0.0618322</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0538742</v>
+        <v>0.052624</v>
       </c>
       <c r="D51" t="n">
-        <v>0.10298</v>
+        <v>0.102894</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0668764</v>
+        <v>0.0669322</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0534145</v>
+        <v>0.0541216</v>
       </c>
       <c r="D52" t="n">
-        <v>0.105183</v>
+        <v>0.105664</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0609087</v>
+        <v>0.0608361</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0531971</v>
+        <v>0.0531532</v>
       </c>
       <c r="D53" t="n">
-        <v>0.108597</v>
+        <v>0.108592</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0610138</v>
+        <v>0.0616545</v>
       </c>
       <c r="C54" t="n">
-        <v>0.053446</v>
+        <v>0.0537608</v>
       </c>
       <c r="D54" t="n">
-        <v>0.111832</v>
+        <v>0.111714</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0610555</v>
+        <v>0.0611608</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0539285</v>
+        <v>0.0538993</v>
       </c>
       <c r="D55" t="n">
-        <v>0.115666</v>
+        <v>0.115586</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0609012</v>
+        <v>0.0612606</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0545991</v>
+        <v>0.054269</v>
       </c>
       <c r="D56" t="n">
-        <v>0.119408</v>
+        <v>0.119531</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0612368</v>
+        <v>0.0615225</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0546597</v>
+        <v>0.0548162</v>
       </c>
       <c r="D57" t="n">
-        <v>0.123602</v>
+        <v>0.123593</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0611428</v>
+        <v>0.0616061</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0554897</v>
+        <v>0.0554107</v>
       </c>
       <c r="D58" t="n">
-        <v>0.127509</v>
+        <v>0.127457</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0615908</v>
+        <v>0.0618472</v>
       </c>
       <c r="C59" t="n">
-        <v>0.056074</v>
+        <v>0.0569578</v>
       </c>
       <c r="D59" t="n">
-        <v>0.131373</v>
+        <v>0.131205</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0612772</v>
+        <v>0.0616444</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0572836</v>
+        <v>0.0586319</v>
       </c>
       <c r="D60" t="n">
-        <v>0.135372</v>
+        <v>0.13515</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0616583</v>
+        <v>0.0617966</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0607557</v>
+        <v>0.0606708</v>
       </c>
       <c r="D61" t="n">
-        <v>0.139672</v>
+        <v>0.139254</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0620615</v>
+        <v>0.0624862</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0629767</v>
+        <v>0.06312719999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>0.143179</v>
+        <v>0.14305</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0627535</v>
+        <v>0.0626157</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0661298</v>
+        <v>0.0658502</v>
       </c>
       <c r="D63" t="n">
-        <v>0.144429</v>
+        <v>0.146454</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0648381</v>
+        <v>0.065146</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0704123</v>
+        <v>0.0697559</v>
       </c>
       <c r="D64" t="n">
-        <v>0.1076</v>
+        <v>0.109468</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0679665</v>
+        <v>0.0680842</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0763047</v>
+        <v>0.0759142</v>
       </c>
       <c r="D65" t="n">
-        <v>0.111873</v>
+        <v>0.111441</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0721786</v>
+        <v>0.07262929999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0558184</v>
+        <v>0.0561418</v>
       </c>
       <c r="D66" t="n">
-        <v>0.1168</v>
+        <v>0.114881</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.07304330000000001</v>
+        <v>0.0721407</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0564541</v>
+        <v>0.0566543</v>
       </c>
       <c r="D67" t="n">
-        <v>0.120935</v>
+        <v>0.120321</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0721526</v>
+        <v>0.0730499</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0570175</v>
+        <v>0.0576836</v>
       </c>
       <c r="D68" t="n">
-        <v>0.126121</v>
+        <v>0.125823</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.07309110000000001</v>
+        <v>0.0728771</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0573083</v>
+        <v>0.0576586</v>
       </c>
       <c r="D69" t="n">
-        <v>0.131796</v>
+        <v>0.13015</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0736421</v>
+        <v>0.0736419</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0582589</v>
+        <v>0.0584005</v>
       </c>
       <c r="D70" t="n">
-        <v>0.138872</v>
+        <v>0.136967</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0723872</v>
+        <v>0.0736251</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0590535</v>
+        <v>0.0590824</v>
       </c>
       <c r="D71" t="n">
-        <v>0.144021</v>
+        <v>0.142335</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.07209110000000001</v>
+        <v>0.0745741</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0598393</v>
+        <v>0.0603352</v>
       </c>
       <c r="D72" t="n">
-        <v>0.152349</v>
+        <v>0.147382</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.07244970000000001</v>
+        <v>0.0749745</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0612364</v>
+        <v>0.0605217</v>
       </c>
       <c r="D73" t="n">
-        <v>0.161516</v>
+        <v>0.15551</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0727347</v>
+        <v>0.07543420000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.06255960000000001</v>
+        <v>0.0630733</v>
       </c>
       <c r="D74" t="n">
-        <v>0.168663</v>
+        <v>0.162946</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0753326</v>
+        <v>0.0793215</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0649542</v>
+        <v>0.0652339</v>
       </c>
       <c r="D75" t="n">
-        <v>0.178468</v>
+        <v>0.173277</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0745657</v>
+        <v>0.07979070000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0670637</v>
+        <v>0.0680273</v>
       </c>
       <c r="D76" t="n">
-        <v>0.186095</v>
+        <v>0.178448</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0759452</v>
+        <v>0.0799381</v>
       </c>
       <c r="C77" t="n">
-        <v>0.06894550000000001</v>
+        <v>0.0709167</v>
       </c>
       <c r="D77" t="n">
-        <v>0.19304</v>
+        <v>0.189161</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.07874589999999999</v>
+        <v>0.08093839999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.07334010000000001</v>
+        <v>0.0733965</v>
       </c>
       <c r="D78" t="n">
-        <v>0.187067</v>
+        <v>0.186414</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.07970820000000001</v>
+        <v>0.08347839999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0788779</v>
+        <v>0.08042630000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>0.194515</v>
+        <v>0.194815</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0846128</v>
+        <v>0.087307</v>
       </c>
       <c r="C80" t="n">
-        <v>0.102614</v>
+        <v>0.105919</v>
       </c>
       <c r="D80" t="n">
-        <v>0.201403</v>
+        <v>0.20078</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.172412</v>
+        <v>0.174505</v>
       </c>
       <c r="C81" t="n">
-        <v>0.106154</v>
+        <v>0.107749</v>
       </c>
       <c r="D81" t="n">
-        <v>0.212399</v>
+        <v>0.210934</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.173732</v>
+        <v>0.173635</v>
       </c>
       <c r="C82" t="n">
-        <v>0.107651</v>
+        <v>0.110319</v>
       </c>
       <c r="D82" t="n">
-        <v>0.220895</v>
+        <v>0.22002</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.174811</v>
+        <v>0.174386</v>
       </c>
       <c r="C83" t="n">
-        <v>0.110119</v>
+        <v>0.112424</v>
       </c>
       <c r="D83" t="n">
-        <v>0.226332</v>
+        <v>0.225857</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.175832</v>
+        <v>0.175101</v>
       </c>
       <c r="C84" t="n">
-        <v>0.112051</v>
+        <v>0.114779</v>
       </c>
       <c r="D84" t="n">
-        <v>0.237957</v>
+        <v>0.237749</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.176274</v>
+        <v>0.175904</v>
       </c>
       <c r="C85" t="n">
-        <v>0.114044</v>
+        <v>0.116785</v>
       </c>
       <c r="D85" t="n">
-        <v>0.24892</v>
+        <v>0.248333</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.176548</v>
+        <v>0.176702</v>
       </c>
       <c r="C86" t="n">
-        <v>0.117411</v>
+        <v>0.119422</v>
       </c>
       <c r="D86" t="n">
-        <v>0.258723</v>
+        <v>0.25864</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.176983</v>
+        <v>0.177351</v>
       </c>
       <c r="C87" t="n">
-        <v>0.118907</v>
+        <v>0.121293</v>
       </c>
       <c r="D87" t="n">
-        <v>0.266903</v>
+        <v>0.267393</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.177434</v>
+        <v>0.177934</v>
       </c>
       <c r="C88" t="n">
-        <v>0.121745</v>
+        <v>0.122899</v>
       </c>
       <c r="D88" t="n">
-        <v>0.274844</v>
+        <v>0.274446</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.177789</v>
+        <v>0.178431</v>
       </c>
       <c r="C89" t="n">
-        <v>0.123383</v>
+        <v>0.125375</v>
       </c>
       <c r="D89" t="n">
-        <v>0.287276</v>
+        <v>0.28587</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.178828</v>
+        <v>0.179344</v>
       </c>
       <c r="C90" t="n">
-        <v>0.125977</v>
+        <v>0.127454</v>
       </c>
       <c r="D90" t="n">
-        <v>0.298639</v>
+        <v>0.297624</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.180376</v>
+        <v>0.180135</v>
       </c>
       <c r="C91" t="n">
-        <v>0.128674</v>
+        <v>0.128669</v>
       </c>
       <c r="D91" t="n">
-        <v>0.307187</v>
+        <v>0.305986</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.180729</v>
+        <v>0.181092</v>
       </c>
       <c r="C92" t="n">
-        <v>0.131877</v>
+        <v>0.133158</v>
       </c>
       <c r="D92" t="n">
-        <v>0.28459</v>
+        <v>0.285175</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.182049</v>
+        <v>0.182558</v>
       </c>
       <c r="C93" t="n">
-        <v>0.137493</v>
+        <v>0.138192</v>
       </c>
       <c r="D93" t="n">
-        <v>0.292917</v>
+        <v>0.293842</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.184396</v>
+        <v>0.184615</v>
       </c>
       <c r="C94" t="n">
-        <v>0.20621</v>
+        <v>0.209148</v>
       </c>
       <c r="D94" t="n">
-        <v>0.299583</v>
+        <v>0.300358</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.239419</v>
+        <v>0.239416</v>
       </c>
       <c r="C95" t="n">
-        <v>0.208503</v>
+        <v>0.209864</v>
       </c>
       <c r="D95" t="n">
-        <v>0.307404</v>
+        <v>0.307372</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.239723</v>
+        <v>0.239582</v>
       </c>
       <c r="C96" t="n">
-        <v>0.209946</v>
+        <v>0.211078</v>
       </c>
       <c r="D96" t="n">
-        <v>0.316357</v>
+        <v>0.317486</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.238204</v>
+        <v>0.23913</v>
       </c>
       <c r="C97" t="n">
-        <v>0.212313</v>
+        <v>0.21273</v>
       </c>
       <c r="D97" t="n">
-        <v>0.322927</v>
+        <v>0.32275</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.240207</v>
+        <v>0.24001</v>
       </c>
       <c r="C98" t="n">
-        <v>0.213372</v>
+        <v>0.21505</v>
       </c>
       <c r="D98" t="n">
-        <v>0.331034</v>
+        <v>0.332352</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.239445</v>
+        <v>0.239447</v>
       </c>
       <c r="C99" t="n">
-        <v>0.215608</v>
+        <v>0.21667</v>
       </c>
       <c r="D99" t="n">
-        <v>0.339013</v>
+        <v>0.339036</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.239055</v>
+        <v>0.24051</v>
       </c>
       <c r="C100" t="n">
-        <v>0.217018</v>
+        <v>0.218171</v>
       </c>
       <c r="D100" t="n">
-        <v>0.348937</v>
+        <v>0.348537</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.239109</v>
+        <v>0.240331</v>
       </c>
       <c r="C101" t="n">
-        <v>0.218459</v>
+        <v>0.220843</v>
       </c>
       <c r="D101" t="n">
-        <v>0.355667</v>
+        <v>0.355156</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.239633</v>
+        <v>0.240057</v>
       </c>
       <c r="C102" t="n">
-        <v>0.220911</v>
+        <v>0.223059</v>
       </c>
       <c r="D102" t="n">
-        <v>0.364063</v>
+        <v>0.364817</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.23948</v>
+        <v>0.240239</v>
       </c>
       <c r="C103" t="n">
-        <v>0.223668</v>
+        <v>0.224424</v>
       </c>
       <c r="D103" t="n">
-        <v>0.374564</v>
+        <v>0.373988</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.240317</v>
+        <v>0.240467</v>
       </c>
       <c r="C104" t="n">
-        <v>0.226542</v>
+        <v>0.226341</v>
       </c>
       <c r="D104" t="n">
-        <v>0.383824</v>
+        <v>0.384615</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.240851</v>
+        <v>0.241068</v>
       </c>
       <c r="C105" t="n">
-        <v>0.22805</v>
+        <v>0.229163</v>
       </c>
       <c r="D105" t="n">
-        <v>0.392118</v>
+        <v>0.39167</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.24318</v>
+        <v>0.242197</v>
       </c>
       <c r="C106" t="n">
-        <v>0.231562</v>
+        <v>0.233097</v>
       </c>
       <c r="D106" t="n">
-        <v>0.401741</v>
+        <v>0.402783</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.244773</v>
+        <v>0.24423</v>
       </c>
       <c r="C107" t="n">
-        <v>0.235701</v>
+        <v>0.236496</v>
       </c>
       <c r="D107" t="n">
-        <v>0.344826</v>
+        <v>0.344948</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.246633</v>
+        <v>0.247233</v>
       </c>
       <c r="C108" t="n">
-        <v>0.253718</v>
+        <v>0.253335</v>
       </c>
       <c r="D108" t="n">
-        <v>0.350061</v>
+        <v>0.349919</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.252136</v>
+        <v>0.251004</v>
       </c>
       <c r="C109" t="n">
-        <v>0.254944</v>
+        <v>0.254843</v>
       </c>
       <c r="D109" t="n">
-        <v>0.358884</v>
+        <v>0.359362</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.275146</v>
+        <v>0.272805</v>
       </c>
       <c r="C110" t="n">
-        <v>0.251312</v>
+        <v>0.25115</v>
       </c>
       <c r="D110" t="n">
-        <v>0.364492</v>
+        <v>0.3642</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.273366</v>
+        <v>0.272969</v>
       </c>
       <c r="C111" t="n">
-        <v>0.253186</v>
+        <v>0.25306</v>
       </c>
       <c r="D111" t="n">
-        <v>0.370635</v>
+        <v>0.370435</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.272831</v>
+        <v>0.272193</v>
       </c>
       <c r="C112" t="n">
-        <v>0.252523</v>
+        <v>0.252814</v>
       </c>
       <c r="D112" t="n">
-        <v>0.38197</v>
+        <v>0.381617</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.272472</v>
+        <v>0.273522</v>
       </c>
       <c r="C113" t="n">
-        <v>0.255979</v>
+        <v>0.25492</v>
       </c>
       <c r="D113" t="n">
-        <v>0.389959</v>
+        <v>0.389746</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.274927</v>
+        <v>0.27523</v>
       </c>
       <c r="C114" t="n">
-        <v>0.25787</v>
+        <v>0.257603</v>
       </c>
       <c r="D114" t="n">
-        <v>0.398104</v>
+        <v>0.399449</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.273416</v>
+        <v>0.273241</v>
       </c>
       <c r="C115" t="n">
-        <v>0.261016</v>
+        <v>0.261302</v>
       </c>
       <c r="D115" t="n">
-        <v>0.407878</v>
+        <v>0.407988</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.274098</v>
+        <v>0.273472</v>
       </c>
       <c r="C116" t="n">
-        <v>0.263837</v>
+        <v>0.263872</v>
       </c>
       <c r="D116" t="n">
-        <v>0.415321</v>
+        <v>0.416686</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.275027</v>
+        <v>0.275962</v>
       </c>
       <c r="C117" t="n">
-        <v>0.268055</v>
+        <v>0.266843</v>
       </c>
       <c r="D117" t="n">
-        <v>0.426748</v>
+        <v>0.426804</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.275719</v>
+        <v>0.273285</v>
       </c>
       <c r="C118" t="n">
-        <v>0.270552</v>
+        <v>0.269549</v>
       </c>
       <c r="D118" t="n">
-        <v>0.432873</v>
+        <v>0.433133</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.276128</v>
+        <v>0.275582</v>
       </c>
       <c r="C119" t="n">
-        <v>0.271955</v>
+        <v>0.273506</v>
       </c>
       <c r="D119" t="n">
-        <v>0.439951</v>
+        <v>0.439475</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.276986</v>
+        <v>0.276703</v>
       </c>
       <c r="C120" t="n">
-        <v>0.276852</v>
+        <v>0.277906</v>
       </c>
       <c r="D120" t="n">
-        <v>0.448625</v>
+        <v>0.448161</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.27854</v>
+        <v>0.278455</v>
       </c>
       <c r="C121" t="n">
-        <v>0.281718</v>
+        <v>0.281949</v>
       </c>
       <c r="D121" t="n">
-        <v>0.375556</v>
+        <v>0.374572</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.280778</v>
+        <v>0.280325</v>
       </c>
       <c r="C122" t="n">
-        <v>0.289021</v>
+        <v>0.288615</v>
       </c>
       <c r="D122" t="n">
-        <v>0.384034</v>
+        <v>0.382869</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.286558</v>
+        <v>0.286249</v>
       </c>
       <c r="C123" t="n">
-        <v>0.275427</v>
+        <v>0.275994</v>
       </c>
       <c r="D123" t="n">
-        <v>0.387121</v>
+        <v>0.386125</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.348303</v>
+        <v>0.347203</v>
       </c>
       <c r="C124" t="n">
-        <v>0.27612</v>
+        <v>0.275832</v>
       </c>
       <c r="D124" t="n">
-        <v>0.394895</v>
+        <v>0.395184</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.348166</v>
+        <v>0.348068</v>
       </c>
       <c r="C125" t="n">
-        <v>0.278633</v>
+        <v>0.278635</v>
       </c>
       <c r="D125" t="n">
-        <v>0.397056</v>
+        <v>0.396496</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.347795</v>
+        <v>0.349266</v>
       </c>
       <c r="C126" t="n">
-        <v>0.281453</v>
+        <v>0.281393</v>
       </c>
       <c r="D126" t="n">
-        <v>0.411151</v>
+        <v>0.409856</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.348915</v>
+        <v>0.347207</v>
       </c>
       <c r="C127" t="n">
-        <v>0.284523</v>
+        <v>0.284804</v>
       </c>
       <c r="D127" t="n">
-        <v>0.414224</v>
+        <v>0.412896</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.348513</v>
+        <v>0.3479</v>
       </c>
       <c r="C128" t="n">
-        <v>0.287568</v>
+        <v>0.287179</v>
       </c>
       <c r="D128" t="n">
-        <v>0.427885</v>
+        <v>0.426747</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.349336</v>
+        <v>0.349354</v>
       </c>
       <c r="C129" t="n">
-        <v>0.290153</v>
+        <v>0.290143</v>
       </c>
       <c r="D129" t="n">
-        <v>0.434605</v>
+        <v>0.433316</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.348553</v>
+        <v>0.348688</v>
       </c>
       <c r="C130" t="n">
-        <v>0.294447</v>
+        <v>0.294016</v>
       </c>
       <c r="D130" t="n">
-        <v>0.442569</v>
+        <v>0.442194</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.349669</v>
+        <v>0.349075</v>
       </c>
       <c r="C131" t="n">
-        <v>0.29858</v>
+        <v>0.298062</v>
       </c>
       <c r="D131" t="n">
-        <v>0.448521</v>
+        <v>0.447891</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.348513</v>
+        <v>0.348058</v>
       </c>
       <c r="C132" t="n">
-        <v>0.302767</v>
+        <v>0.302415</v>
       </c>
       <c r="D132" t="n">
-        <v>0.458871</v>
+        <v>0.458681</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.348521</v>
+        <v>0.349521</v>
       </c>
       <c r="C133" t="n">
-        <v>0.306934</v>
+        <v>0.30527</v>
       </c>
       <c r="D133" t="n">
-        <v>0.46946</v>
+        <v>0.468934</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.351251</v>
+        <v>0.349599</v>
       </c>
       <c r="C134" t="n">
-        <v>0.312116</v>
+        <v>0.311347</v>
       </c>
       <c r="D134" t="n">
-        <v>0.47694</v>
+        <v>0.476956</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.352227</v>
+        <v>0.349941</v>
       </c>
       <c r="C135" t="n">
-        <v>0.317818</v>
+        <v>0.317671</v>
       </c>
       <c r="D135" t="n">
-        <v>0.39384</v>
+        <v>0.393685</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.353801</v>
+        <v>0.35265</v>
       </c>
       <c r="C136" t="n">
-        <v>0.32693</v>
+        <v>0.32642</v>
       </c>
       <c r="D136" t="n">
-        <v>0.400204</v>
+        <v>0.398927</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.356599</v>
+        <v>0.357244</v>
       </c>
       <c r="C137" t="n">
-        <v>0.296652</v>
+        <v>0.295953</v>
       </c>
       <c r="D137" t="n">
-        <v>0.406447</v>
+        <v>0.406047</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.407128</v>
+        <v>0.405806</v>
       </c>
       <c r="C138" t="n">
-        <v>0.298899</v>
+        <v>0.298175</v>
       </c>
       <c r="D138" t="n">
-        <v>0.407071</v>
+        <v>0.406932</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.40679</v>
+        <v>0.406758</v>
       </c>
       <c r="C139" t="n">
-        <v>0.301671</v>
+        <v>0.300767</v>
       </c>
       <c r="D139" t="n">
-        <v>0.413832</v>
+        <v>0.413671</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.408623</v>
+        <v>0.405725</v>
       </c>
       <c r="C140" t="n">
-        <v>0.303919</v>
+        <v>0.302995</v>
       </c>
       <c r="D140" t="n">
-        <v>0.426847</v>
+        <v>0.42563</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.407145</v>
+        <v>0.405613</v>
       </c>
       <c r="C141" t="n">
-        <v>0.305449</v>
+        <v>0.304939</v>
       </c>
       <c r="D141" t="n">
-        <v>0.43441</v>
+        <v>0.433081</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.403503</v>
+        <v>0.406004</v>
       </c>
       <c r="C142" t="n">
-        <v>0.308668</v>
+        <v>0.307664</v>
       </c>
       <c r="D142" t="n">
-        <v>0.438571</v>
+        <v>0.43725</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.406745</v>
+        <v>0.406156</v>
       </c>
       <c r="C143" t="n">
-        <v>0.310596</v>
+        <v>0.310507</v>
       </c>
       <c r="D143" t="n">
-        <v>0.451561</v>
+        <v>0.450257</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -3213,7 +3213,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D143"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="G23" sqref="G23"/>
@@ -3246,13 +3246,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0356651</v>
+        <v>0.0360074</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0370961</v>
+        <v>0.0687117</v>
       </c>
       <c r="D2" t="n">
-        <v>0.070051</v>
+        <v>0.0375271</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0380119</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3263,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0386201</v>
+        <v>0.0371201</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0385713</v>
+        <v>0.0763723</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07532560000000001</v>
+        <v>0.0376874</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0384443</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3280,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.038414</v>
+        <v>0.0366356</v>
       </c>
       <c r="C4" t="n">
-        <v>0.038905</v>
+        <v>0.08522979999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0863926</v>
+        <v>0.0384376</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0383826</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3297,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0382896</v>
+        <v>0.036731</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0395539</v>
+        <v>0.0915808</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0926579</v>
+        <v>0.0387213</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0387167</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3314,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0385478</v>
+        <v>0.0384492</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0400723</v>
+        <v>0.099172</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09951160000000001</v>
+        <v>0.0388476</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0391201</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3331,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0400196</v>
+        <v>0.0382662</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0413228</v>
+        <v>0.0638528</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0628049</v>
+        <v>0.0392794</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0397703</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3348,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0402459</v>
+        <v>0.0375035</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0424671</v>
+        <v>0.066621</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0672739</v>
+        <v>0.0406621</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0415457</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3365,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0386023</v>
+        <v>0.0385213</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0399859</v>
+        <v>0.0703907</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0711799</v>
+        <v>0.0400032</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0408466</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3382,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0438698</v>
+        <v>0.0441125</v>
       </c>
       <c r="C10" t="n">
-        <v>0.040784</v>
+        <v>0.07556980000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0751867</v>
+        <v>0.0406415</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0410523</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3399,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0438227</v>
+        <v>0.043746</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0407459</v>
+        <v>0.07972509999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.08063670000000001</v>
+        <v>0.0408723</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0413047</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3416,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0440164</v>
+        <v>0.0439324</v>
       </c>
       <c r="C12" t="n">
-        <v>0.041342</v>
+        <v>0.0857506</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0878082</v>
+        <v>0.0416148</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0416895</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3433,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0441925</v>
+        <v>0.0438391</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0417056</v>
+        <v>0.0913805</v>
       </c>
       <c r="D13" t="n">
-        <v>0.092455</v>
+        <v>0.0418614</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0420386</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3450,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0441103</v>
+        <v>0.0439306</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0417917</v>
+        <v>0.0967229</v>
       </c>
       <c r="D14" t="n">
-        <v>0.09748329999999999</v>
+        <v>0.0419981</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0423963</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3467,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.04441</v>
+        <v>0.0442523</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0425209</v>
+        <v>0.102275</v>
       </c>
       <c r="D15" t="n">
-        <v>0.103087</v>
+        <v>0.0426343</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0426911</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3484,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.04453</v>
+        <v>0.0441823</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0428999</v>
+        <v>0.10726</v>
       </c>
       <c r="D16" t="n">
-        <v>0.108494</v>
+        <v>0.0427125</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0429413</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3501,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0446626</v>
+        <v>0.0445683</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0428155</v>
+        <v>0.112456</v>
       </c>
       <c r="D17" t="n">
-        <v>0.11353</v>
+        <v>0.0439574</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0431902</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3518,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0448609</v>
+        <v>0.0445548</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0435815</v>
+        <v>0.116748</v>
       </c>
       <c r="D18" t="n">
-        <v>0.118066</v>
+        <v>0.0437004</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0434851</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3535,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0451065</v>
+        <v>0.0448708</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0437733</v>
+        <v>0.122432</v>
       </c>
       <c r="D19" t="n">
-        <v>0.122811</v>
+        <v>0.0445369</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0436782</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3552,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0452726</v>
+        <v>0.04502</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0441506</v>
+        <v>0.125166</v>
       </c>
       <c r="D20" t="n">
-        <v>0.12586</v>
+        <v>0.043889</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0442323</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3569,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.045654</v>
+        <v>0.0451072</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0450718</v>
+        <v>0.0878423</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0889684</v>
+        <v>0.0441929</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.0445519</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3586,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0454815</v>
+        <v>0.0454921</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0491968</v>
+        <v>0.090838</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0917192</v>
+        <v>0.0481571</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0488248</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3603,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0459508</v>
+        <v>0.0453195</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0456449</v>
+        <v>0.09388249999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>0.09511749999999999</v>
+        <v>0.0456144</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0459303</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3620,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0491649</v>
+        <v>0.0492781</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0460381</v>
+        <v>0.0978004</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0982741</v>
+        <v>0.0462194</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0462066</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3637,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0490938</v>
+        <v>0.0493258</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0462604</v>
+        <v>0.101431</v>
       </c>
       <c r="D25" t="n">
-        <v>0.102185</v>
+        <v>0.0462395</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0464211</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3654,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0490246</v>
+        <v>0.0492737</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0466755</v>
+        <v>0.105012</v>
       </c>
       <c r="D26" t="n">
-        <v>0.10579</v>
+        <v>0.0479812</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0466876</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3671,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0492574</v>
+        <v>0.0492782</v>
       </c>
       <c r="C27" t="n">
-        <v>0.04731</v>
+        <v>0.109007</v>
       </c>
       <c r="D27" t="n">
-        <v>0.109903</v>
+        <v>0.0469404</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0469001</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3688,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0493041</v>
+        <v>0.0494898</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0476595</v>
+        <v>0.112889</v>
       </c>
       <c r="D28" t="n">
-        <v>0.113808</v>
+        <v>0.0487526</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0471682</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3705,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0495168</v>
+        <v>0.0496008</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0480489</v>
+        <v>0.117082</v>
       </c>
       <c r="D29" t="n">
-        <v>0.118067</v>
+        <v>0.0490572</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0474479</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3722,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0496004</v>
+        <v>0.0497156</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0481654</v>
+        <v>0.121137</v>
       </c>
       <c r="D30" t="n">
-        <v>0.122162</v>
+        <v>0.0482948</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0477559</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3739,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0497621</v>
+        <v>0.0498543</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0486629</v>
+        <v>0.125369</v>
       </c>
       <c r="D31" t="n">
-        <v>0.126336</v>
+        <v>0.0493441</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.0481163</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3756,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0499725</v>
+        <v>0.050029</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0486039</v>
+        <v>0.128912</v>
       </c>
       <c r="D32" t="n">
-        <v>0.129452</v>
+        <v>0.048754</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.048332</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3773,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0498912</v>
+        <v>0.0501457</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0487504</v>
+        <v>0.132681</v>
       </c>
       <c r="D33" t="n">
-        <v>0.131259</v>
+        <v>0.0500152</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.0487985</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3790,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0501227</v>
+        <v>0.0502648</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0499057</v>
+        <v>0.13621</v>
       </c>
       <c r="D34" t="n">
-        <v>0.134619</v>
+        <v>0.0501993</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.0497203</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3807,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0504365</v>
+        <v>0.0505696</v>
       </c>
       <c r="C35" t="n">
-        <v>0.054437</v>
+        <v>0.0957969</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0951935</v>
+        <v>0.0545133</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.0525264</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3824,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0507804</v>
+        <v>0.050803</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0619345</v>
+        <v>0.0980883</v>
       </c>
       <c r="D36" t="n">
-        <v>0.09726319999999999</v>
+        <v>0.0615284</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.0604006</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3841,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0520572</v>
+        <v>0.053631</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0497347</v>
+        <v>0.100327</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0993184</v>
+        <v>0.0503305</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.0501639</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3858,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0546119</v>
+        <v>0.0543309</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0495326</v>
+        <v>0.103311</v>
       </c>
       <c r="D38" t="n">
-        <v>0.102183</v>
+        <v>0.0500784</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.0505703</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3875,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0547634</v>
+        <v>0.0536121</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0500565</v>
+        <v>0.106288</v>
       </c>
       <c r="D39" t="n">
-        <v>0.104977</v>
+        <v>0.0500246</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.0507091</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3892,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0541351</v>
+        <v>0.0544822</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0502177</v>
+        <v>0.109617</v>
       </c>
       <c r="D40" t="n">
-        <v>0.108397</v>
+        <v>0.0504951</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.0510871</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3909,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0547987</v>
+        <v>0.053931</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0505301</v>
+        <v>0.113138</v>
       </c>
       <c r="D41" t="n">
-        <v>0.111903</v>
+        <v>0.051107</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.0514251</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3926,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0548036</v>
+        <v>0.053963</v>
       </c>
       <c r="C42" t="n">
-        <v>0.050897</v>
+        <v>0.117041</v>
       </c>
       <c r="D42" t="n">
-        <v>0.11549</v>
+        <v>0.0512068</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.0517502</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3943,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0542769</v>
+        <v>0.0540562</v>
       </c>
       <c r="C43" t="n">
-        <v>0.051537</v>
+        <v>0.120943</v>
       </c>
       <c r="D43" t="n">
-        <v>0.119444</v>
+        <v>0.0514963</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.0520128</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3960,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.054422</v>
+        <v>0.0541074</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0518843</v>
+        <v>0.125276</v>
       </c>
       <c r="D44" t="n">
-        <v>0.12347</v>
+        <v>0.0518001</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.0523703</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3977,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0545665</v>
+        <v>0.0543493</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0521806</v>
+        <v>0.129241</v>
       </c>
       <c r="D45" t="n">
-        <v>0.127516</v>
+        <v>0.0534126</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.0525522</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3994,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0544316</v>
+        <v>0.0545685</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0528522</v>
+        <v>0.132896</v>
       </c>
       <c r="D46" t="n">
-        <v>0.131283</v>
+        <v>0.0532955</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.0530437</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +4011,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0563146</v>
+        <v>0.0546069</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0545358</v>
+        <v>0.136302</v>
       </c>
       <c r="D47" t="n">
-        <v>0.134485</v>
+        <v>0.0546464</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.0537318</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +4028,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0552389</v>
+        <v>0.0550563</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0575786</v>
+        <v>0.140004</v>
       </c>
       <c r="D48" t="n">
-        <v>0.139939</v>
+        <v>0.057814</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.0574022</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +4045,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0556782</v>
+        <v>0.0554704</v>
       </c>
       <c r="C49" t="n">
-        <v>0.061372</v>
+        <v>0.143231</v>
       </c>
       <c r="D49" t="n">
-        <v>0.143677</v>
+        <v>0.0613147</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.0619159</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +4062,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0572162</v>
+        <v>0.0567552</v>
       </c>
       <c r="C50" t="n">
-        <v>0.06599629999999999</v>
+        <v>0.100068</v>
       </c>
       <c r="D50" t="n">
-        <v>0.100663</v>
+        <v>0.0659991</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.0670352</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +4079,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0618322</v>
+        <v>0.0607651</v>
       </c>
       <c r="C51" t="n">
-        <v>0.052624</v>
+        <v>0.102411</v>
       </c>
       <c r="D51" t="n">
-        <v>0.102894</v>
+        <v>0.05314</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.0526557</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +4096,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0669322</v>
+        <v>0.0655617</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0541216</v>
+        <v>0.104968</v>
       </c>
       <c r="D52" t="n">
-        <v>0.105664</v>
+        <v>0.0525944</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.0529183</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +4113,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0608361</v>
+        <v>0.0608531</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0531532</v>
+        <v>0.107951</v>
       </c>
       <c r="D53" t="n">
-        <v>0.108592</v>
+        <v>0.0529454</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.0532427</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +4130,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0616545</v>
+        <v>0.061049</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0537608</v>
+        <v>0.111233</v>
       </c>
       <c r="D54" t="n">
-        <v>0.111714</v>
+        <v>0.0534479</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.0534474</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +4147,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0611608</v>
+        <v>0.0610934</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0538993</v>
+        <v>0.114841</v>
       </c>
       <c r="D55" t="n">
-        <v>0.115586</v>
+        <v>0.0538683</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.0541077</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4164,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0612606</v>
+        <v>0.0612018</v>
       </c>
       <c r="C56" t="n">
-        <v>0.054269</v>
+        <v>0.118689</v>
       </c>
       <c r="D56" t="n">
-        <v>0.119531</v>
+        <v>0.0542472</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.0542886</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4181,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0615225</v>
+        <v>0.0609021</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0548162</v>
+        <v>0.122548</v>
       </c>
       <c r="D57" t="n">
-        <v>0.123593</v>
+        <v>0.0549771</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.054864</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4198,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0616061</v>
+        <v>0.0612086</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0554107</v>
+        <v>0.126618</v>
       </c>
       <c r="D58" t="n">
-        <v>0.127457</v>
+        <v>0.0555339</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.056581</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4215,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0618472</v>
+        <v>0.0614387</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0569578</v>
+        <v>0.130484</v>
       </c>
       <c r="D59" t="n">
-        <v>0.131205</v>
+        <v>0.0571378</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.0571896</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4232,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0616444</v>
+        <v>0.0615348</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0586319</v>
+        <v>0.134356</v>
       </c>
       <c r="D60" t="n">
-        <v>0.13515</v>
+        <v>0.0585534</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.0587361</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4249,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0617966</v>
+        <v>0.0619363</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0606708</v>
+        <v>0.138212</v>
       </c>
       <c r="D61" t="n">
-        <v>0.139254</v>
+        <v>0.0606778</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.0608527</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4266,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0624862</v>
+        <v>0.0621033</v>
       </c>
       <c r="C62" t="n">
-        <v>0.06312719999999999</v>
+        <v>0.142178</v>
       </c>
       <c r="D62" t="n">
-        <v>0.14305</v>
+        <v>0.0629252</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.06375980000000001</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4283,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0626157</v>
+        <v>0.0630752</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0658502</v>
+        <v>0.145705</v>
       </c>
       <c r="D63" t="n">
-        <v>0.146454</v>
+        <v>0.0652841</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.0668208</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4300,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.065146</v>
+        <v>0.0651505</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0697559</v>
+        <v>0.107775</v>
       </c>
       <c r="D64" t="n">
-        <v>0.109468</v>
+        <v>0.0695585</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.07124369999999999</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4317,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0680842</v>
+        <v>0.0683758</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0759142</v>
+        <v>0.110067</v>
       </c>
       <c r="D65" t="n">
-        <v>0.111441</v>
+        <v>0.0760393</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.07803060000000001</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4334,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.07262929999999999</v>
+        <v>0.0718097</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0561418</v>
+        <v>0.113425</v>
       </c>
       <c r="D66" t="n">
-        <v>0.114881</v>
+        <v>0.0557485</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.058776</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4351,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0721407</v>
+        <v>0.0698636</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0566543</v>
+        <v>0.116983</v>
       </c>
       <c r="D67" t="n">
-        <v>0.120321</v>
+        <v>0.0563221</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.059381</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4368,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0730499</v>
+        <v>0.0717598</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0576836</v>
+        <v>0.122368</v>
       </c>
       <c r="D68" t="n">
-        <v>0.125823</v>
+        <v>0.0585315</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.0603452</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4385,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0728771</v>
+        <v>0.0717537</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0576586</v>
+        <v>0.127284</v>
       </c>
       <c r="D69" t="n">
-        <v>0.13015</v>
+        <v>0.0573053</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.0612566</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4402,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0736419</v>
+        <v>0.07187689999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0584005</v>
+        <v>0.130971</v>
       </c>
       <c r="D70" t="n">
-        <v>0.136967</v>
+        <v>0.0600174</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.062554</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4419,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0736251</v>
+        <v>0.0715862</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0590824</v>
+        <v>0.138196</v>
       </c>
       <c r="D71" t="n">
-        <v>0.142335</v>
+        <v>0.0589776</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.0630218</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4436,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0745741</v>
+        <v>0.07206940000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0603352</v>
+        <v>0.1461</v>
       </c>
       <c r="D72" t="n">
-        <v>0.147382</v>
+        <v>0.0599934</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.0646659</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4453,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0749745</v>
+        <v>0.0729141</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0605217</v>
+        <v>0.154252</v>
       </c>
       <c r="D73" t="n">
-        <v>0.15551</v>
+        <v>0.061231</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.0664945</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4470,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.07543420000000001</v>
+        <v>0.0729847</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0630733</v>
+        <v>0.165018</v>
       </c>
       <c r="D74" t="n">
-        <v>0.162946</v>
+        <v>0.06268369999999999</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.0696478</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4487,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0793215</v>
+        <v>0.07370110000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0652339</v>
+        <v>0.172237</v>
       </c>
       <c r="D75" t="n">
-        <v>0.173277</v>
+        <v>0.0641756</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.072223</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4504,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.07979070000000001</v>
+        <v>0.07423390000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0680273</v>
+        <v>0.179536</v>
       </c>
       <c r="D76" t="n">
-        <v>0.178448</v>
+        <v>0.0664912</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.075625</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4521,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0799381</v>
+        <v>0.0750522</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0709167</v>
+        <v>0.187221</v>
       </c>
       <c r="D77" t="n">
-        <v>0.189161</v>
+        <v>0.069201</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.0799154</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4538,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.08093839999999999</v>
+        <v>0.07679510000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0733965</v>
+        <v>0.186084</v>
       </c>
       <c r="D78" t="n">
-        <v>0.186414</v>
+        <v>0.07266980000000001</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.0852403</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4555,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.08347839999999999</v>
+        <v>0.0787146</v>
       </c>
       <c r="C79" t="n">
-        <v>0.08042630000000001</v>
+        <v>0.193395</v>
       </c>
       <c r="D79" t="n">
-        <v>0.194815</v>
+        <v>0.0782167</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.0935121</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4572,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.087307</v>
+        <v>0.08228290000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>0.105919</v>
+        <v>0.202639</v>
       </c>
       <c r="D80" t="n">
-        <v>0.20078</v>
+        <v>0.105237</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.104113</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4589,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.174505</v>
+        <v>0.172793</v>
       </c>
       <c r="C81" t="n">
-        <v>0.107749</v>
+        <v>0.212544</v>
       </c>
       <c r="D81" t="n">
-        <v>0.210934</v>
+        <v>0.107483</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.106029</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4606,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.173635</v>
+        <v>0.17335</v>
       </c>
       <c r="C82" t="n">
-        <v>0.110319</v>
+        <v>0.218899</v>
       </c>
       <c r="D82" t="n">
-        <v>0.22002</v>
+        <v>0.109868</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.106348</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4623,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.174386</v>
+        <v>0.174723</v>
       </c>
       <c r="C83" t="n">
-        <v>0.112424</v>
+        <v>0.2321</v>
       </c>
       <c r="D83" t="n">
-        <v>0.225857</v>
+        <v>0.112184</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.107743</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4640,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.175101</v>
+        <v>0.175255</v>
       </c>
       <c r="C84" t="n">
-        <v>0.114779</v>
+        <v>0.23784</v>
       </c>
       <c r="D84" t="n">
-        <v>0.237749</v>
+        <v>0.114445</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.108627</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4657,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.175904</v>
+        <v>0.176641</v>
       </c>
       <c r="C85" t="n">
-        <v>0.116785</v>
+        <v>0.248323</v>
       </c>
       <c r="D85" t="n">
-        <v>0.248333</v>
+        <v>0.116001</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.106419</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4674,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.176702</v>
+        <v>0.177105</v>
       </c>
       <c r="C86" t="n">
-        <v>0.119422</v>
+        <v>0.259737</v>
       </c>
       <c r="D86" t="n">
-        <v>0.25864</v>
+        <v>0.118277</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.107546</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4691,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.177351</v>
+        <v>0.177302</v>
       </c>
       <c r="C87" t="n">
-        <v>0.121293</v>
+        <v>0.267071</v>
       </c>
       <c r="D87" t="n">
-        <v>0.267393</v>
+        <v>0.120042</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.109852</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4708,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.177934</v>
+        <v>0.177888</v>
       </c>
       <c r="C88" t="n">
-        <v>0.122899</v>
+        <v>0.279247</v>
       </c>
       <c r="D88" t="n">
-        <v>0.274446</v>
+        <v>0.121635</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.111783</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4725,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.178431</v>
+        <v>0.178414</v>
       </c>
       <c r="C89" t="n">
-        <v>0.125375</v>
+        <v>0.287775</v>
       </c>
       <c r="D89" t="n">
-        <v>0.28587</v>
+        <v>0.123517</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.114063</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4742,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.179344</v>
+        <v>0.179591</v>
       </c>
       <c r="C90" t="n">
-        <v>0.127454</v>
+        <v>0.296775</v>
       </c>
       <c r="D90" t="n">
-        <v>0.297624</v>
+        <v>0.125808</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.117536</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4759,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.180135</v>
+        <v>0.18084</v>
       </c>
       <c r="C91" t="n">
-        <v>0.128669</v>
+        <v>0.306809</v>
       </c>
       <c r="D91" t="n">
-        <v>0.305986</v>
+        <v>0.129927</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.119301</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4776,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.181092</v>
+        <v>0.18169</v>
       </c>
       <c r="C92" t="n">
-        <v>0.133158</v>
+        <v>0.290297</v>
       </c>
       <c r="D92" t="n">
-        <v>0.285175</v>
+        <v>0.134054</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.124472</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4793,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.182558</v>
+        <v>0.183199</v>
       </c>
       <c r="C93" t="n">
-        <v>0.138192</v>
+        <v>0.297673</v>
       </c>
       <c r="D93" t="n">
-        <v>0.293842</v>
+        <v>0.137663</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.131981</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4810,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.184615</v>
+        <v>0.185308</v>
       </c>
       <c r="C94" t="n">
-        <v>0.209148</v>
+        <v>0.305068</v>
       </c>
       <c r="D94" t="n">
-        <v>0.300358</v>
+        <v>0.208555</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.201447</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4827,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.239416</v>
+        <v>0.239749</v>
       </c>
       <c r="C95" t="n">
-        <v>0.209864</v>
+        <v>0.309859</v>
       </c>
       <c r="D95" t="n">
-        <v>0.307372</v>
+        <v>0.209479</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.202454</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4844,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.239582</v>
+        <v>0.239979</v>
       </c>
       <c r="C96" t="n">
-        <v>0.211078</v>
+        <v>0.316619</v>
       </c>
       <c r="D96" t="n">
-        <v>0.317486</v>
+        <v>0.210791</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.203305</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4861,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.23913</v>
+        <v>0.239804</v>
       </c>
       <c r="C97" t="n">
-        <v>0.21273</v>
+        <v>0.327959</v>
       </c>
       <c r="D97" t="n">
-        <v>0.32275</v>
+        <v>0.213011</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.204039</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4878,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.24001</v>
+        <v>0.239384</v>
       </c>
       <c r="C98" t="n">
-        <v>0.21505</v>
+        <v>0.33236</v>
       </c>
       <c r="D98" t="n">
-        <v>0.332352</v>
+        <v>0.214676</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.205242</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4895,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.239447</v>
+        <v>0.240058</v>
       </c>
       <c r="C99" t="n">
-        <v>0.21667</v>
+        <v>0.341695</v>
       </c>
       <c r="D99" t="n">
-        <v>0.339036</v>
+        <v>0.217096</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.206807</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4912,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.24051</v>
+        <v>0.240008</v>
       </c>
       <c r="C100" t="n">
-        <v>0.218171</v>
+        <v>0.350232</v>
       </c>
       <c r="D100" t="n">
-        <v>0.348537</v>
+        <v>0.218335</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.208103</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4929,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.240331</v>
+        <v>0.240696</v>
       </c>
       <c r="C101" t="n">
-        <v>0.220843</v>
+        <v>0.359231</v>
       </c>
       <c r="D101" t="n">
-        <v>0.355156</v>
+        <v>0.22016</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.209386</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4946,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.240057</v>
+        <v>0.240327</v>
       </c>
       <c r="C102" t="n">
-        <v>0.223059</v>
+        <v>0.369287</v>
       </c>
       <c r="D102" t="n">
-        <v>0.364817</v>
+        <v>0.222132</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.2107</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4963,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.240239</v>
+        <v>0.240255</v>
       </c>
       <c r="C103" t="n">
-        <v>0.224424</v>
+        <v>0.378879</v>
       </c>
       <c r="D103" t="n">
-        <v>0.373988</v>
+        <v>0.224565</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.212656</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4980,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.240467</v>
+        <v>0.242032</v>
       </c>
       <c r="C104" t="n">
-        <v>0.226341</v>
+        <v>0.387205</v>
       </c>
       <c r="D104" t="n">
-        <v>0.384615</v>
+        <v>0.225754</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.215156</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4997,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.241068</v>
+        <v>0.241769</v>
       </c>
       <c r="C105" t="n">
-        <v>0.229163</v>
+        <v>0.394455</v>
       </c>
       <c r="D105" t="n">
-        <v>0.39167</v>
+        <v>0.228787</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.218587</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +5014,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.242197</v>
+        <v>0.242833</v>
       </c>
       <c r="C106" t="n">
-        <v>0.233097</v>
+        <v>0.407782</v>
       </c>
       <c r="D106" t="n">
-        <v>0.402783</v>
+        <v>0.232871</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.222298</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +5031,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.24423</v>
+        <v>0.244115</v>
       </c>
       <c r="C107" t="n">
-        <v>0.236496</v>
+        <v>0.350907</v>
       </c>
       <c r="D107" t="n">
-        <v>0.344948</v>
+        <v>0.23654</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.227695</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +5048,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.247233</v>
+        <v>0.246975</v>
       </c>
       <c r="C108" t="n">
-        <v>0.253335</v>
+        <v>0.356288</v>
       </c>
       <c r="D108" t="n">
-        <v>0.349919</v>
+        <v>0.253298</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.25256</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +5065,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.251004</v>
+        <v>0.25226</v>
       </c>
       <c r="C109" t="n">
-        <v>0.254843</v>
+        <v>0.362002</v>
       </c>
       <c r="D109" t="n">
-        <v>0.359362</v>
+        <v>0.255671</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.254236</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +5082,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.272805</v>
+        <v>0.271746</v>
       </c>
       <c r="C110" t="n">
-        <v>0.25115</v>
+        <v>0.368483</v>
       </c>
       <c r="D110" t="n">
-        <v>0.3642</v>
+        <v>0.251145</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.255248</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +5099,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.272969</v>
+        <v>0.271866</v>
       </c>
       <c r="C111" t="n">
-        <v>0.25306</v>
+        <v>0.37425</v>
       </c>
       <c r="D111" t="n">
-        <v>0.370435</v>
+        <v>0.253229</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.257388</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +5116,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.272193</v>
+        <v>0.27263</v>
       </c>
       <c r="C112" t="n">
-        <v>0.252814</v>
+        <v>0.380747</v>
       </c>
       <c r="D112" t="n">
-        <v>0.381617</v>
+        <v>0.252676</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.259147</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +5133,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.273522</v>
+        <v>0.274937</v>
       </c>
       <c r="C113" t="n">
-        <v>0.25492</v>
+        <v>0.38868</v>
       </c>
       <c r="D113" t="n">
-        <v>0.389746</v>
+        <v>0.255521</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.260828</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +5150,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.27523</v>
+        <v>0.274447</v>
       </c>
       <c r="C114" t="n">
-        <v>0.257603</v>
+        <v>0.395258</v>
       </c>
       <c r="D114" t="n">
-        <v>0.399449</v>
+        <v>0.258067</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.262453</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +5167,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.273241</v>
+        <v>0.274575</v>
       </c>
       <c r="C115" t="n">
-        <v>0.261302</v>
+        <v>0.401788</v>
       </c>
       <c r="D115" t="n">
-        <v>0.407988</v>
+        <v>0.260819</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.265714</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +5184,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.273472</v>
+        <v>0.276073</v>
       </c>
       <c r="C116" t="n">
-        <v>0.263872</v>
+        <v>0.410745</v>
       </c>
       <c r="D116" t="n">
-        <v>0.416686</v>
+        <v>0.264465</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.268022</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +5201,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.275962</v>
+        <v>0.275511</v>
       </c>
       <c r="C117" t="n">
-        <v>0.266843</v>
+        <v>0.418799</v>
       </c>
       <c r="D117" t="n">
-        <v>0.426804</v>
+        <v>0.266872</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.271953</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +5218,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.273285</v>
+        <v>0.275746</v>
       </c>
       <c r="C118" t="n">
-        <v>0.269549</v>
+        <v>0.43434</v>
       </c>
       <c r="D118" t="n">
-        <v>0.433133</v>
+        <v>0.269557</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.277049</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +5235,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.275582</v>
+        <v>0.276053</v>
       </c>
       <c r="C119" t="n">
-        <v>0.273506</v>
+        <v>0.446934</v>
       </c>
       <c r="D119" t="n">
-        <v>0.439475</v>
+        <v>0.273131</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.280633</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +5252,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.276703</v>
+        <v>0.277742</v>
       </c>
       <c r="C120" t="n">
-        <v>0.277906</v>
+        <v>0.454668</v>
       </c>
       <c r="D120" t="n">
-        <v>0.448161</v>
+        <v>0.27675</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.281536</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +5269,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.278455</v>
+        <v>0.279978</v>
       </c>
       <c r="C121" t="n">
-        <v>0.281949</v>
+        <v>0.375649</v>
       </c>
       <c r="D121" t="n">
-        <v>0.374572</v>
+        <v>0.281619</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.290644</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +5286,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.280325</v>
+        <v>0.282301</v>
       </c>
       <c r="C122" t="n">
-        <v>0.288615</v>
+        <v>0.382237</v>
       </c>
       <c r="D122" t="n">
-        <v>0.382869</v>
+        <v>0.288948</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.299422</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +5303,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.286249</v>
+        <v>0.286461</v>
       </c>
       <c r="C123" t="n">
-        <v>0.275994</v>
+        <v>0.384603</v>
       </c>
       <c r="D123" t="n">
-        <v>0.386125</v>
+        <v>0.275109</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.285336</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +5320,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.347203</v>
+        <v>0.348213</v>
       </c>
       <c r="C124" t="n">
-        <v>0.275832</v>
+        <v>0.395181</v>
       </c>
       <c r="D124" t="n">
-        <v>0.395184</v>
+        <v>0.275625</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.287298</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +5337,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.348068</v>
+        <v>0.350304</v>
       </c>
       <c r="C125" t="n">
-        <v>0.278635</v>
+        <v>0.40278</v>
       </c>
       <c r="D125" t="n">
-        <v>0.396496</v>
+        <v>0.278408</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.289504</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +5354,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.349266</v>
+        <v>0.348053</v>
       </c>
       <c r="C126" t="n">
-        <v>0.281393</v>
+        <v>0.405704</v>
       </c>
       <c r="D126" t="n">
-        <v>0.409856</v>
+        <v>0.280718</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.291251</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +5371,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.347207</v>
+        <v>0.346477</v>
       </c>
       <c r="C127" t="n">
-        <v>0.284804</v>
+        <v>0.418496</v>
       </c>
       <c r="D127" t="n">
-        <v>0.412896</v>
+        <v>0.284353</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.29344</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5388,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.3479</v>
+        <v>0.348679</v>
       </c>
       <c r="C128" t="n">
-        <v>0.287179</v>
+        <v>0.420605</v>
       </c>
       <c r="D128" t="n">
-        <v>0.426747</v>
+        <v>0.286672</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.296899</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5405,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.349354</v>
+        <v>0.348835</v>
       </c>
       <c r="C129" t="n">
-        <v>0.290143</v>
+        <v>0.434908</v>
       </c>
       <c r="D129" t="n">
-        <v>0.433316</v>
+        <v>0.290635</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.300457</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5422,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.348688</v>
+        <v>0.347792</v>
       </c>
       <c r="C130" t="n">
-        <v>0.294016</v>
+        <v>0.439427</v>
       </c>
       <c r="D130" t="n">
-        <v>0.442194</v>
+        <v>0.293078</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.296771</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5439,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.349075</v>
+        <v>0.347773</v>
       </c>
       <c r="C131" t="n">
-        <v>0.298062</v>
+        <v>0.446675</v>
       </c>
       <c r="D131" t="n">
-        <v>0.447891</v>
+        <v>0.297489</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.301277</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5456,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.348058</v>
+        <v>0.350206</v>
       </c>
       <c r="C132" t="n">
-        <v>0.302415</v>
+        <v>0.457376</v>
       </c>
       <c r="D132" t="n">
-        <v>0.458681</v>
+        <v>0.301843</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.30703</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5473,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.349521</v>
+        <v>0.350366</v>
       </c>
       <c r="C133" t="n">
-        <v>0.30527</v>
+        <v>0.465237</v>
       </c>
       <c r="D133" t="n">
-        <v>0.468934</v>
+        <v>0.305882</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.313111</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5490,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.349599</v>
+        <v>0.350843</v>
       </c>
       <c r="C134" t="n">
-        <v>0.311347</v>
+        <v>0.481951</v>
       </c>
       <c r="D134" t="n">
-        <v>0.476956</v>
+        <v>0.311027</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.321636</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5507,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.349941</v>
+        <v>0.353384</v>
       </c>
       <c r="C135" t="n">
-        <v>0.317671</v>
+        <v>0.392738</v>
       </c>
       <c r="D135" t="n">
-        <v>0.393685</v>
+        <v>0.317324</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.332372</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5524,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.35265</v>
+        <v>0.355339</v>
       </c>
       <c r="C136" t="n">
-        <v>0.32642</v>
+        <v>0.398718</v>
       </c>
       <c r="D136" t="n">
-        <v>0.398927</v>
+        <v>0.325863</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.346592</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5541,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.357244</v>
+        <v>0.358536</v>
       </c>
       <c r="C137" t="n">
-        <v>0.295953</v>
+        <v>0.399433</v>
       </c>
       <c r="D137" t="n">
-        <v>0.406047</v>
+        <v>0.295523</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.304973</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5558,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.405806</v>
+        <v>0.406212</v>
       </c>
       <c r="C138" t="n">
-        <v>0.298175</v>
+        <v>0.412542</v>
       </c>
       <c r="D138" t="n">
-        <v>0.406932</v>
+        <v>0.298004</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.307216</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5575,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.406758</v>
+        <v>0.406409</v>
       </c>
       <c r="C139" t="n">
-        <v>0.300767</v>
+        <v>0.41787</v>
       </c>
       <c r="D139" t="n">
-        <v>0.413671</v>
+        <v>0.299936</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.309355</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5592,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.405725</v>
+        <v>0.407092</v>
       </c>
       <c r="C140" t="n">
-        <v>0.302995</v>
+        <v>0.421571</v>
       </c>
       <c r="D140" t="n">
-        <v>0.42563</v>
+        <v>0.302014</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.312625</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5609,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.405613</v>
+        <v>0.407814</v>
       </c>
       <c r="C141" t="n">
-        <v>0.304939</v>
+        <v>0.434144</v>
       </c>
       <c r="D141" t="n">
-        <v>0.433081</v>
+        <v>0.305133</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.31473</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5626,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.406004</v>
+        <v>0.405527</v>
       </c>
       <c r="C142" t="n">
-        <v>0.307664</v>
+        <v>0.436112</v>
       </c>
       <c r="D142" t="n">
-        <v>0.43725</v>
+        <v>0.307124</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.31833</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5643,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.406156</v>
+        <v>0.405855</v>
       </c>
       <c r="C143" t="n">
-        <v>0.310507</v>
+        <v>0.450181</v>
       </c>
       <c r="D143" t="n">
-        <v>0.450257</v>
+        <v>0.309587</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.31777</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15600" windowWidth="28800" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="plot" sheetId="1" state="visible" r:id="rId1"/>
@@ -89,10 +89,18 @@
         <scatterStyle val="lineMarker"/>
         <varyColors val="0"/>
         <ser>
-          <idx val="3"/>
+          <idx val="0"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_map</v>
+            <strRef>
+              <f>plot!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>absl::flat_hash_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -552,430 +560,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0196861</v>
+                  <v>0.0194751</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0197442</v>
+                  <v>0.0195629</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0197441</v>
+                  <v>0.019489</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0197505</v>
+                  <v>0.0195779</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0199072</v>
+                  <v>0.0196134</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.020167</v>
+                  <v>0.0197913</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0201829</v>
+                  <v>0.0199155</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0205995</v>
+                  <v>0.0201101</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0193044</v>
+                  <v>0.0196084</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0194655</v>
+                  <v>0.0195614</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0196123</v>
+                  <v>0.0196347</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0198252</v>
+                  <v>0.0198925</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0198606</v>
+                  <v>0.0200039</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0200329</v>
+                  <v>0.0201837</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0200361</v>
+                  <v>0.0200675</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.020201</v>
+                  <v>0.0201647</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0201688</v>
+                  <v>0.0202739</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0204639</v>
+                  <v>0.0202086</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.020687</v>
+                  <v>0.0205069</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0209861</v>
+                  <v>0.0207083</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0214982</v>
+                  <v>0.0211543</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0232463</v>
+                  <v>0.0230484</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0203659</v>
+                  <v>0.0206813</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0204979</v>
+                  <v>0.0207405</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0206548</v>
+                  <v>0.0207665</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0208464</v>
+                  <v>0.0209769</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0210504</v>
+                  <v>0.021056</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0212226</v>
+                  <v>0.0212252</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0216188</v>
+                  <v>0.0213505</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0218555</v>
+                  <v>0.0215039</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0220454</v>
+                  <v>0.0217981</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0221091</v>
+                  <v>0.0221214</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0229123</v>
+                  <v>0.023275</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.023554</v>
+                  <v>0.0250124</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.025525</v>
+                  <v>0.0266118</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0295991</v>
+                  <v>0.0311996</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0226652</v>
+                  <v>0.0216211</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0226726</v>
+                  <v>0.0218931</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0230688</v>
+                  <v>0.0219329</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0220955</v>
+                  <v>0.0221215</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0221313</v>
+                  <v>0.0222904</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0224242</v>
+                  <v>0.0224773</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0226252</v>
+                  <v>0.0228221</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0229498</v>
+                  <v>0.0230365</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0233683</v>
+                  <v>0.0235124</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.024254</v>
+                  <v>0.02408</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0251133</v>
+                  <v>0.025044</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0266522</v>
+                  <v>0.0279553</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.029904</v>
+                  <v>0.0304389</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0329878</v>
+                  <v>0.0353825</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0389153</v>
+                  <v>0.0392081</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0231873</v>
+                  <v>0.0230524</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0233782</v>
+                  <v>0.0234244</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0234553</v>
+                  <v>0.0234108</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0236761</v>
+                  <v>0.0239286</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0239042</v>
+                  <v>0.0240818</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0242977</v>
+                  <v>0.024439</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0246093</v>
+                  <v>0.0247787</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0252684</v>
+                  <v>0.0252449</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0261573</v>
+                  <v>0.0265282</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.027529</v>
+                  <v>0.0274839</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0293145</v>
+                  <v>0.0294202</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0323043</v>
+                  <v>0.032256</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0357062</v>
+                  <v>0.035998</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0407992</v>
+                  <v>0.0410284</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0291067</v>
+                  <v>0.0292854</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0292957</v>
+                  <v>0.0293731</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0294658</v>
+                  <v>0.0295223</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0296458</v>
+                  <v>0.0297504</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0298446</v>
+                  <v>0.0300985</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0303077</v>
+                  <v>0.0302054</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0305738</v>
+                  <v>0.030751</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0311089</v>
+                  <v>0.0311922</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.031958</v>
+                  <v>0.0320559</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0331584</v>
+                  <v>0.0331467</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0348142</v>
+                  <v>0.0348991</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0371248</v>
+                  <v>0.0373412</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0406293</v>
+                  <v>0.0409062</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0455093</v>
+                  <v>0.0457293</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.054876</v>
+                  <v>0.0555257</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0551749</v>
+                  <v>0.0577904</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0552561</v>
+                  <v>0.055792</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0555251</v>
+                  <v>0.0560207</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0557353</v>
+                  <v>0.0561087</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0559444</v>
+                  <v>0.0563414</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.056275</v>
+                  <v>0.056655</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0565668</v>
+                  <v>0.0571958</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0570285</v>
+                  <v>0.057884</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0577995</v>
+                  <v>0.0582425</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0587407</v>
+                  <v>0.0592452</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0605897</v>
+                  <v>0.0608211</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0631306</v>
+                  <v>0.0633513</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.06695570000000001</v>
+                  <v>0.06725390000000001</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.09221509999999999</v>
+                  <v>0.0858208</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0858753</v>
+                  <v>0.08577170000000001</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.08594309999999999</v>
+                  <v>0.08594590000000001</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0860457</v>
+                  <v>0.08606900000000001</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0861672</v>
+                  <v>0.08616749999999999</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0863088</v>
+                  <v>0.08662789999999999</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0865691</v>
+                  <v>0.0864133</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0868321</v>
+                  <v>0.088181</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.08713460000000001</v>
+                  <v>0.0871123</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.08769159999999999</v>
+                  <v>0.0876926</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0958198</v>
+                  <v>0.0885166</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0898485</v>
+                  <v>0.0897474</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.095514</v>
+                  <v>0.09172080000000001</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.09515</v>
+                  <v>0.0949308</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.100163</v>
+                  <v>0.0997827</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.1074</v>
+                  <v>0.109009</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.10739</v>
+                  <v>0.108902</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.107504</v>
+                  <v>0.109017</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.107377</v>
+                  <v>0.109219</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.114714</v>
+                  <v>0.109295</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.108009</v>
+                  <v>0.109582</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.108717</v>
+                  <v>0.109729</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.109426</v>
+                  <v>0.110229</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.110397</v>
+                  <v>0.110875</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.111361</v>
+                  <v>0.111655</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.112842</v>
+                  <v>0.112821</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.114762</v>
+                  <v>0.114619</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.117867</v>
+                  <v>0.117464</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.124715</v>
+                  <v>0.122013</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.139793</v>
+                  <v>0.139209</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.140249</v>
+                  <v>0.139131</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.139831</v>
+                  <v>0.139496</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.139692</v>
+                  <v>0.139621</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.139658</v>
+                  <v>0.13995</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.139443</v>
+                  <v>0.14025</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.139582</v>
+                  <v>0.140479</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.139867</v>
+                  <v>0.142087</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.14053</v>
+                  <v>0.141701</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.141002</v>
+                  <v>0.142135</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.142003</v>
+                  <v>0.143369</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.143615</v>
+                  <v>0.14492</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.145983</v>
+                  <v>0.147621</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.150084</v>
+                  <v>0.151632</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.158033</v>
+                  <v>0.157728</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.157812</v>
+                  <v>0.157774</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.157958</v>
+                  <v>0.157822</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.158179</v>
+                  <v>0.158086</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.158157</v>
+                  <v>0.158035</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.158476</v>
+                  <v>0.178791</v>
                 </pt>
               </numCache>
             </numRef>
@@ -983,10 +991,18 @@
           <smooth val="0"/>
         </ser>
         <ser>
-          <idx val="4"/>
+          <idx val="1"/>
           <order val="1"/>
           <tx>
-            <v>boost::unordered_flat_map</v>
+            <strRef>
+              <f>plot!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -1446,430 +1462,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.021348</v>
+                  <v>0.0365145</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0214877</v>
+                  <v>0.0396988</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0216247</v>
+                  <v>0.0447642</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0218795</v>
+                  <v>0.0498033</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0221566</v>
+                  <v>0.0537687</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0227802</v>
+                  <v>0.0315887</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0236896</v>
+                  <v>0.0336489</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0202692</v>
+                  <v>0.0356574</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0207092</v>
+                  <v>0.0376125</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0210303</v>
+                  <v>0.0405804</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0213025</v>
+                  <v>0.0447308</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0213527</v>
+                  <v>0.047286</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0218472</v>
+                  <v>0.0503759</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0222591</v>
+                  <v>0.0539423</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0226628</v>
+                  <v>0.0578276</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.022977</v>
+                  <v>0.0614582</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0233228</v>
+                  <v>0.0653006</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0238671</v>
+                  <v>0.0680994</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0246036</v>
+                  <v>0.0704849</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0252305</v>
+                  <v>0.0446121</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0277472</v>
+                  <v>0.047444</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0217618</v>
+                  <v>0.0493842</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0219587</v>
+                  <v>0.0514984</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0222026</v>
+                  <v>0.0543429</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0224898</v>
+                  <v>0.0563413</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0228074</v>
+                  <v>0.0616033</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0232103</v>
+                  <v>0.0643247</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0236661</v>
+                  <v>0.0662176</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0240376</v>
+                  <v>0.0698588</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0245248</v>
+                  <v>0.07215820000000001</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0252023</v>
+                  <v>0.0748846</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0257564</v>
+                  <v>0.0769565</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0270565</v>
+                  <v>0.0791249</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0287934</v>
+                  <v>0.0519505</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0324096</v>
+                  <v>0.0537373</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0236684</v>
+                  <v>0.0560572</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0241302</v>
+                  <v>0.0580173</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0244332</v>
+                  <v>0.0596857</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0245736</v>
+                  <v>0.0624772</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0239295</v>
+                  <v>0.06461600000000001</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0243207</v>
+                  <v>0.0672449</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0252591</v>
+                  <v>0.06969930000000001</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0256591</v>
+                  <v>0.07249079999999999</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0259074</v>
+                  <v>0.07484499999999999</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0266036</v>
+                  <v>0.0778189</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.027689</v>
+                  <v>0.0800609</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0291986</v>
+                  <v>0.0823764</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0317988</v>
+                  <v>0.0844506</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0360721</v>
+                  <v>0.0578649</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.023394</v>
+                  <v>0.0591875</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0236044</v>
+                  <v>0.0615245</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.023867</v>
+                  <v>0.0639034</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0241515</v>
+                  <v>0.0656783</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0244875</v>
+                  <v>0.0679548</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0249477</v>
+                  <v>0.0705563</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0253774</v>
+                  <v>0.0733139</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0259302</v>
+                  <v>0.0760695</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0265094</v>
+                  <v>0.07903490000000001</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0274929</v>
+                  <v>0.080972</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0286629</v>
+                  <v>0.08393299999999999</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0303873</v>
+                  <v>0.08583780000000001</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0330881</v>
+                  <v>0.08868760000000001</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0367975</v>
+                  <v>0.0634653</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0428056</v>
+                  <v>0.0660341</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0248565</v>
+                  <v>0.068684</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0254945</v>
+                  <v>0.0716908</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.025829</v>
+                  <v>0.0754389</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0266013</v>
+                  <v>0.0780781</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0265404</v>
+                  <v>0.08159859999999999</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0270211</v>
+                  <v>0.0866746</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.027483</v>
+                  <v>0.0889358</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0281629</v>
+                  <v>0.0945853</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0291473</v>
+                  <v>0.0982999</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0302343</v>
+                  <v>0.102978</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0321709</v>
+                  <v>0.106901</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0346453</v>
+                  <v>0.112317</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.038211</v>
+                  <v>0.09733840000000001</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0437751</v>
+                  <v>0.101335</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0369618</v>
+                  <v>0.105975</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0377666</v>
+                  <v>0.110132</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0385693</v>
+                  <v>0.115172</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0393414</v>
+                  <v>0.121209</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0400166</v>
+                  <v>0.126205</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0406419</v>
+                  <v>0.131141</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0415556</v>
+                  <v>0.137704</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0424017</v>
+                  <v>0.143051</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0449697</v>
+                  <v>0.149748</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0442997</v>
+                  <v>0.154568</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0456659</v>
+                  <v>0.16029</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.047738</v>
+                  <v>0.166513</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0505484</v>
+                  <v>0.145912</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0549595</v>
+                  <v>0.149301</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0715803</v>
+                  <v>0.152309</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0719887</v>
+                  <v>0.157221</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0723747</v>
+                  <v>0.160664</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0728399</v>
+                  <v>0.166029</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.07350520000000001</v>
+                  <v>0.170781</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0740489</v>
+                  <v>0.175608</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0746351</v>
+                  <v>0.181033</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0754398</v>
+                  <v>0.186455</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.07621650000000001</v>
+                  <v>0.192398</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0796057</v>
+                  <v>0.199037</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.07860830000000001</v>
+                  <v>0.203931</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0804361</v>
+                  <v>0.210695</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0829439</v>
+                  <v>0.216678</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.08686770000000001</v>
+                  <v>0.181859</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0889514</v>
+                  <v>0.199868</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.089729</v>
+                  <v>0.193515</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0904097</v>
+                  <v>0.192797</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0913191</v>
+                  <v>0.196994</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0921503</v>
+                  <v>0.201949</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0931935</v>
+                  <v>0.206787</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.09714059999999999</v>
+                  <v>0.212581</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.09524050000000001</v>
+                  <v>0.217678</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.096618</v>
+                  <v>0.223918</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0979674</v>
+                  <v>0.229518</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0996447</v>
+                  <v>0.23542</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.101745</v>
+                  <v>0.241207</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.104375</v>
+                  <v>0.247384</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.108312</v>
+                  <v>0.199268</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.114594</v>
+                  <v>0.202036</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.106984</v>
+                  <v>0.205435</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.119349</v>
+                  <v>0.209778</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.109142</v>
+                  <v>0.213788</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.110214</v>
+                  <v>0.218497</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.111475</v>
+                  <v>0.22327</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.112737</v>
+                  <v>0.228488</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.11413</v>
+                  <v>0.234375</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.115719</v>
+                  <v>0.240447</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.117336</v>
+                  <v>0.24599</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.119263</v>
+                  <v>0.251978</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.121651</v>
+                  <v>0.257944</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.124577</v>
+                  <v>0.268641</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.128814</v>
+                  <v>0.209616</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.13534</v>
+                  <v>0.212749</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.118414</v>
+                  <v>0.216194</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.119444</v>
+                  <v>0.220147</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.120531</v>
+                  <v>0.224171</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.121662</v>
+                  <v>0.229194</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.122894</v>
+                  <v>0.234298</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.12405</v>
+                  <v>0.239466</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.125504</v>
+                  <v>0.245367</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1877,10 +1893,18 @@
           <smooth val="0"/>
         </ser>
         <ser>
-          <idx val="5"/>
+          <idx val="2"/>
           <order val="2"/>
           <tx>
-            <v>boost::unordered_map</v>
+            <strRef>
+              <f>plot!$D$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_flat_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -2340,430 +2364,1332 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0336857</v>
+                  <v>0.0196261</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0394849</v>
+                  <v>0.0197912</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0423094</v>
+                  <v>0.0198901</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0461472</v>
+                  <v>0.0199582</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0507523</v>
+                  <v>0.0201314</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.030305</v>
+                  <v>0.0201829</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0319421</v>
+                  <v>0.0207955</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0344693</v>
+                  <v>0.0194471</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0368055</v>
+                  <v>0.0195449</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0393418</v>
+                  <v>0.019867</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0427875</v>
+                  <v>0.0201596</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0475742</v>
+                  <v>0.0201363</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0488059</v>
+                  <v>0.0205715</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0525665</v>
+                  <v>0.021072</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0568101</v>
+                  <v>0.0210413</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0604767</v>
+                  <v>0.0212453</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0639252</v>
+                  <v>0.0213354</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0675722</v>
+                  <v>0.0214148</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0692373</v>
+                  <v>0.0218501</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0444481</v>
+                  <v>0.0224228</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0475408</v>
+                  <v>0.0237556</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0489493</v>
+                  <v>0.0210571</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0508013</v>
+                  <v>0.0212586</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0535126</v>
+                  <v>0.0214644</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0556632</v>
+                  <v>0.0215637</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0589148</v>
+                  <v>0.021764</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0614351</v>
+                  <v>0.0221105</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.06435200000000001</v>
+                  <v>0.022421</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0664998</v>
+                  <v>0.0226251</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.07017470000000001</v>
+                  <v>0.0229748</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0725022</v>
+                  <v>0.02343</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0762954</v>
+                  <v>0.0239333</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0772482</v>
+                  <v>0.0247176</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0518274</v>
+                  <v>0.0263657</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0539981</v>
+                  <v>0.0292434</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0569381</v>
+                  <v>0.0221968</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0590617</v>
+                  <v>0.0224122</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0616864</v>
+                  <v>0.0226233</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0607154</v>
+                  <v>0.0229104</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.06472219999999999</v>
+                  <v>0.0231873</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0669053</v>
+                  <v>0.0235225</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.06983350000000001</v>
+                  <v>0.0245394</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0728838</v>
+                  <v>0.0242028</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0752324</v>
+                  <v>0.0246188</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.07806680000000001</v>
+                  <v>0.0255792</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0802983</v>
+                  <v>0.0258658</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0828279</v>
+                  <v>0.0269256</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0846045</v>
+                  <v>0.029475</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0575865</v>
+                  <v>0.0328029</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0593047</v>
+                  <v>0.0229759</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0611502</v>
+                  <v>0.0231768</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0636737</v>
+                  <v>0.0234395</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0657292</v>
+                  <v>0.023729</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.06833930000000001</v>
+                  <v>0.0240074</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0707661</v>
+                  <v>0.024327</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.073903</v>
+                  <v>0.0247229</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0761425</v>
+                  <v>0.025276</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.078791</v>
+                  <v>0.0257848</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.08170040000000001</v>
+                  <v>0.0264266</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0839515</v>
+                  <v>0.0273739</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0861381</v>
+                  <v>0.0289127</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.088853</v>
+                  <v>0.0313813</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0638098</v>
+                  <v>0.0347866</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.06650739999999999</v>
+                  <v>0.0405541</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0691383</v>
+                  <v>0.0251501</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0715653</v>
+                  <v>0.0254762</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0745817</v>
+                  <v>0.0257275</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.07851610000000001</v>
+                  <v>0.0260131</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0814839</v>
+                  <v>0.0263866</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0860113</v>
+                  <v>0.0261122</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.09014419999999999</v>
+                  <v>0.0272077</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0948281</v>
+                  <v>0.0281149</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0981105</v>
+                  <v>0.0283556</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.101526</v>
+                  <v>0.0292696</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.107487</v>
+                  <v>0.0306653</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.112807</v>
+                  <v>0.0333493</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0965601</v>
+                  <v>0.0363328</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.101097</v>
+                  <v>0.0412171</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.106082</v>
+                  <v>0.0356659</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.110975</v>
+                  <v>0.0363526</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.114995</v>
+                  <v>0.0371667</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.120023</v>
+                  <v>0.0379171</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.125893</v>
+                  <v>0.0386585</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.130762</v>
+                  <v>0.0393656</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.136855</v>
+                  <v>0.0400877</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.142491</v>
+                  <v>0.0412195</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.148735</v>
+                  <v>0.0419461</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.154806</v>
+                  <v>0.0430021</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.160276</v>
+                  <v>0.0442752</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.165942</v>
+                  <v>0.046052</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.145194</v>
+                  <v>0.0487434</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.148853</v>
+                  <v>0.0533016</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.152457</v>
+                  <v>0.0713101</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.156847</v>
+                  <v>0.07162789999999999</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.16093</v>
+                  <v>0.0721873</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.165502</v>
+                  <v>0.0726131</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.171025</v>
+                  <v>0.0731451</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.176145</v>
+                  <v>0.073726</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.181854</v>
+                  <v>0.0743772</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.187152</v>
+                  <v>0.0751235</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.192849</v>
+                  <v>0.0758935</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.199082</v>
+                  <v>0.07695730000000001</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.205029</v>
+                  <v>0.07818170000000001</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.211115</v>
+                  <v>0.0798373</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.217795</v>
+                  <v>0.08226</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.181761</v>
+                  <v>0.0859181</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.184875</v>
+                  <v>0.08945119999999999</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.18853</v>
+                  <v>0.0901479</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.193379</v>
+                  <v>0.0909215</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.196792</v>
+                  <v>0.0917118</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.201399</v>
+                  <v>0.09258719999999999</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.206374</v>
+                  <v>0.09357890000000001</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.211734</v>
+                  <v>0.09464</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.218001</v>
+                  <v>0.0957011</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.223144</v>
+                  <v>0.0970447</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.229767</v>
+                  <v>0.0984414</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.235872</v>
+                  <v>0.101572</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.240776</v>
+                  <v>0.102157</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.247637</v>
+                  <v>0.104633</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.198997</v>
+                  <v>0.108505</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.202385</v>
+                  <v>0.114455</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.205971</v>
+                  <v>0.107135</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.209681</v>
+                  <v>0.10814</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.213857</v>
+                  <v>0.109179</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.218441</v>
+                  <v>0.110339</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.223282</v>
+                  <v>0.111555</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.228864</v>
+                  <v>0.117399</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.234598</v>
+                  <v>0.11438</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.240649</v>
+                  <v>0.115714</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.251617</v>
+                  <v>0.117191</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.252683</v>
+                  <v>0.11914</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.258786</v>
+                  <v>0.121337</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.264415</v>
+                  <v>0.127893</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.20958</v>
+                  <v>0.128374</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.21278</v>
+                  <v>0.134621</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.216352</v>
+                  <v>0.118436</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.219749</v>
+                  <v>0.119542</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.224359</v>
+                  <v>0.120555</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.228913</v>
+                  <v>0.124935</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.236829</v>
+                  <v>0.12278</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.239299</v>
+                  <v>0.123993</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.2453</v>
+                  <v>0.125349</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>plot!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>plot!$A$2:$A$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>10000</v>
+                </pt>
+                <pt idx="1">
+                  <v>10500</v>
+                </pt>
+                <pt idx="2">
+                  <v>11025</v>
+                </pt>
+                <pt idx="3">
+                  <v>11576</v>
+                </pt>
+                <pt idx="4">
+                  <v>12154</v>
+                </pt>
+                <pt idx="5">
+                  <v>12760</v>
+                </pt>
+                <pt idx="6">
+                  <v>13396</v>
+                </pt>
+                <pt idx="7">
+                  <v>14063</v>
+                </pt>
+                <pt idx="8">
+                  <v>14763</v>
+                </pt>
+                <pt idx="9">
+                  <v>15498</v>
+                </pt>
+                <pt idx="10">
+                  <v>16269</v>
+                </pt>
+                <pt idx="11">
+                  <v>17078</v>
+                </pt>
+                <pt idx="12">
+                  <v>17927</v>
+                </pt>
+                <pt idx="13">
+                  <v>18818</v>
+                </pt>
+                <pt idx="14">
+                  <v>19753</v>
+                </pt>
+                <pt idx="15">
+                  <v>20734</v>
+                </pt>
+                <pt idx="16">
+                  <v>21764</v>
+                </pt>
+                <pt idx="17">
+                  <v>22845</v>
+                </pt>
+                <pt idx="18">
+                  <v>23980</v>
+                </pt>
+                <pt idx="19">
+                  <v>25171</v>
+                </pt>
+                <pt idx="20">
+                  <v>26421</v>
+                </pt>
+                <pt idx="21">
+                  <v>27733</v>
+                </pt>
+                <pt idx="22">
+                  <v>29110</v>
+                </pt>
+                <pt idx="23">
+                  <v>30555</v>
+                </pt>
+                <pt idx="24">
+                  <v>32072</v>
+                </pt>
+                <pt idx="25">
+                  <v>33664</v>
+                </pt>
+                <pt idx="26">
+                  <v>35335</v>
+                </pt>
+                <pt idx="27">
+                  <v>37089</v>
+                </pt>
+                <pt idx="28">
+                  <v>38930</v>
+                </pt>
+                <pt idx="29">
+                  <v>40863</v>
+                </pt>
+                <pt idx="30">
+                  <v>42892</v>
+                </pt>
+                <pt idx="31">
+                  <v>45022</v>
+                </pt>
+                <pt idx="32">
+                  <v>47258</v>
+                </pt>
+                <pt idx="33">
+                  <v>49605</v>
+                </pt>
+                <pt idx="34">
+                  <v>52069</v>
+                </pt>
+                <pt idx="35">
+                  <v>54656</v>
+                </pt>
+                <pt idx="36">
+                  <v>57372</v>
+                </pt>
+                <pt idx="37">
+                  <v>60223</v>
+                </pt>
+                <pt idx="38">
+                  <v>63216</v>
+                </pt>
+                <pt idx="39">
+                  <v>66358</v>
+                </pt>
+                <pt idx="40">
+                  <v>69657</v>
+                </pt>
+                <pt idx="41">
+                  <v>73120</v>
+                </pt>
+                <pt idx="42">
+                  <v>76756</v>
+                </pt>
+                <pt idx="43">
+                  <v>80573</v>
+                </pt>
+                <pt idx="44">
+                  <v>84580</v>
+                </pt>
+                <pt idx="45">
+                  <v>88787</v>
+                </pt>
+                <pt idx="46">
+                  <v>93204</v>
+                </pt>
+                <pt idx="47">
+                  <v>97841</v>
+                </pt>
+                <pt idx="48">
+                  <v>102709</v>
+                </pt>
+                <pt idx="49">
+                  <v>107820</v>
+                </pt>
+                <pt idx="50">
+                  <v>113186</v>
+                </pt>
+                <pt idx="51">
+                  <v>118820</v>
+                </pt>
+                <pt idx="52">
+                  <v>124735</v>
+                </pt>
+                <pt idx="53">
+                  <v>130945</v>
+                </pt>
+                <pt idx="54">
+                  <v>137465</v>
+                </pt>
+                <pt idx="55">
+                  <v>144311</v>
+                </pt>
+                <pt idx="56">
+                  <v>151499</v>
+                </pt>
+                <pt idx="57">
+                  <v>159046</v>
+                </pt>
+                <pt idx="58">
+                  <v>166970</v>
+                </pt>
+                <pt idx="59">
+                  <v>175290</v>
+                </pt>
+                <pt idx="60">
+                  <v>184026</v>
+                </pt>
+                <pt idx="61">
+                  <v>193198</v>
+                </pt>
+                <pt idx="62">
+                  <v>202828</v>
+                </pt>
+                <pt idx="63">
+                  <v>212939</v>
+                </pt>
+                <pt idx="64">
+                  <v>223555</v>
+                </pt>
+                <pt idx="65">
+                  <v>234701</v>
+                </pt>
+                <pt idx="66">
+                  <v>246404</v>
+                </pt>
+                <pt idx="67">
+                  <v>258692</v>
+                </pt>
+                <pt idx="68">
+                  <v>271594</v>
+                </pt>
+                <pt idx="69">
+                  <v>285141</v>
+                </pt>
+                <pt idx="70">
+                  <v>299365</v>
+                </pt>
+                <pt idx="71">
+                  <v>314300</v>
+                </pt>
+                <pt idx="72">
+                  <v>329981</v>
+                </pt>
+                <pt idx="73">
+                  <v>346446</v>
+                </pt>
+                <pt idx="74">
+                  <v>363734</v>
+                </pt>
+                <pt idx="75">
+                  <v>381886</v>
+                </pt>
+                <pt idx="76">
+                  <v>400945</v>
+                </pt>
+                <pt idx="77">
+                  <v>420956</v>
+                </pt>
+                <pt idx="78">
+                  <v>441967</v>
+                </pt>
+                <pt idx="79">
+                  <v>464028</v>
+                </pt>
+                <pt idx="80">
+                  <v>487192</v>
+                </pt>
+                <pt idx="81">
+                  <v>511514</v>
+                </pt>
+                <pt idx="82">
+                  <v>537052</v>
+                </pt>
+                <pt idx="83">
+                  <v>563866</v>
+                </pt>
+                <pt idx="84">
+                  <v>592020</v>
+                </pt>
+                <pt idx="85">
+                  <v>621581</v>
+                </pt>
+                <pt idx="86">
+                  <v>652620</v>
+                </pt>
+                <pt idx="87">
+                  <v>685210</v>
+                </pt>
+                <pt idx="88">
+                  <v>719429</v>
+                </pt>
+                <pt idx="89">
+                  <v>755358</v>
+                </pt>
+                <pt idx="90">
+                  <v>793083</v>
+                </pt>
+                <pt idx="91">
+                  <v>832694</v>
+                </pt>
+                <pt idx="92">
+                  <v>874285</v>
+                </pt>
+                <pt idx="93">
+                  <v>917955</v>
+                </pt>
+                <pt idx="94">
+                  <v>963808</v>
+                </pt>
+                <pt idx="95">
+                  <v>1011953</v>
+                </pt>
+                <pt idx="96">
+                  <v>1062505</v>
+                </pt>
+                <pt idx="97">
+                  <v>1115584</v>
+                </pt>
+                <pt idx="98">
+                  <v>1171316</v>
+                </pt>
+                <pt idx="99">
+                  <v>1229834</v>
+                </pt>
+                <pt idx="100">
+                  <v>1291277</v>
+                </pt>
+                <pt idx="101">
+                  <v>1355792</v>
+                </pt>
+                <pt idx="102">
+                  <v>1423532</v>
+                </pt>
+                <pt idx="103">
+                  <v>1494659</v>
+                </pt>
+                <pt idx="104">
+                  <v>1569342</v>
+                </pt>
+                <pt idx="105">
+                  <v>1647759</v>
+                </pt>
+                <pt idx="106">
+                  <v>1730096</v>
+                </pt>
+                <pt idx="107">
+                  <v>1816549</v>
+                </pt>
+                <pt idx="108">
+                  <v>1907324</v>
+                </pt>
+                <pt idx="109">
+                  <v>2002637</v>
+                </pt>
+                <pt idx="110">
+                  <v>2102715</v>
+                </pt>
+                <pt idx="111">
+                  <v>2207796</v>
+                </pt>
+                <pt idx="112">
+                  <v>2318131</v>
+                </pt>
+                <pt idx="113">
+                  <v>2433982</v>
+                </pt>
+                <pt idx="114">
+                  <v>2555625</v>
+                </pt>
+                <pt idx="115">
+                  <v>2683350</v>
+                </pt>
+                <pt idx="116">
+                  <v>2817461</v>
+                </pt>
+                <pt idx="117">
+                  <v>2958277</v>
+                </pt>
+                <pt idx="118">
+                  <v>3106133</v>
+                </pt>
+                <pt idx="119">
+                  <v>3261381</v>
+                </pt>
+                <pt idx="120">
+                  <v>3424391</v>
+                </pt>
+                <pt idx="121">
+                  <v>3595551</v>
+                </pt>
+                <pt idx="122">
+                  <v>3775269</v>
+                </pt>
+                <pt idx="123">
+                  <v>3963972</v>
+                </pt>
+                <pt idx="124">
+                  <v>4162110</v>
+                </pt>
+                <pt idx="125">
+                  <v>4370154</v>
+                </pt>
+                <pt idx="126">
+                  <v>4588600</v>
+                </pt>
+                <pt idx="127">
+                  <v>4817968</v>
+                </pt>
+                <pt idx="128">
+                  <v>5058804</v>
+                </pt>
+                <pt idx="129">
+                  <v>5311681</v>
+                </pt>
+                <pt idx="130">
+                  <v>5577201</v>
+                </pt>
+                <pt idx="131">
+                  <v>5855997</v>
+                </pt>
+                <pt idx="132">
+                  <v>6148732</v>
+                </pt>
+                <pt idx="133">
+                  <v>6456103</v>
+                </pt>
+                <pt idx="134">
+                  <v>6778842</v>
+                </pt>
+                <pt idx="135">
+                  <v>7117717</v>
+                </pt>
+                <pt idx="136">
+                  <v>7473535</v>
+                </pt>
+                <pt idx="137">
+                  <v>7847143</v>
+                </pt>
+                <pt idx="138">
+                  <v>8239431</v>
+                </pt>
+                <pt idx="139">
+                  <v>8651333</v>
+                </pt>
+                <pt idx="140">
+                  <v>9083830</v>
+                </pt>
+                <pt idx="141">
+                  <v>9537951</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>plot!$E$2:$E$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>0.0206785</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.0207813</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.0208833</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.0207783</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.0207749</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.020897</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.0212215</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.0216661</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.0216931</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.0219577</v>
+                </pt>
+                <pt idx="10">
+                  <v>0.0219969</v>
+                </pt>
+                <pt idx="11">
+                  <v>0.0221826</v>
+                </pt>
+                <pt idx="12">
+                  <v>0.0225411</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.0228079</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.0227173</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.0227772</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.0230473</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.0229634</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.0230157</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.0234205</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.0244919</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.023336</v>
+                </pt>
+                <pt idx="22">
+                  <v>0.0235586</v>
+                </pt>
+                <pt idx="23">
+                  <v>0.0238225</v>
+                </pt>
+                <pt idx="24">
+                  <v>0.0237382</v>
+                </pt>
+                <pt idx="25">
+                  <v>0.0238801</v>
+                </pt>
+                <pt idx="26">
+                  <v>0.0241333</v>
+                </pt>
+                <pt idx="27">
+                  <v>0.0244564</v>
+                </pt>
+                <pt idx="28">
+                  <v>0.0245499</v>
+                </pt>
+                <pt idx="29">
+                  <v>0.0247842</v>
+                </pt>
+                <pt idx="30">
+                  <v>0.0251216</v>
+                </pt>
+                <pt idx="31">
+                  <v>0.0254613</v>
+                </pt>
+                <pt idx="32">
+                  <v>0.0260233</v>
+                </pt>
+                <pt idx="33">
+                  <v>0.0270699</v>
+                </pt>
+                <pt idx="34">
+                  <v>0.0306774</v>
+                </pt>
+                <pt idx="35">
+                  <v>0.0245451</v>
+                </pt>
+                <pt idx="36">
+                  <v>0.0247372</v>
+                </pt>
+                <pt idx="37">
+                  <v>0.024937</v>
+                </pt>
+                <pt idx="38">
+                  <v>0.0252111</v>
+                </pt>
+                <pt idx="39">
+                  <v>0.0253094</v>
+                </pt>
+                <pt idx="40">
+                  <v>0.0255793</v>
+                </pt>
+                <pt idx="41">
+                  <v>0.0257865</v>
+                </pt>
+                <pt idx="42">
+                  <v>0.0260194</v>
+                </pt>
+                <pt idx="43">
+                  <v>0.026382</v>
+                </pt>
+                <pt idx="44">
+                  <v>0.0268562</v>
+                </pt>
+                <pt idx="45">
+                  <v>0.0274538</v>
+                </pt>
+                <pt idx="46">
+                  <v>0.0286629</v>
+                </pt>
+                <pt idx="47">
+                  <v>0.030666</v>
+                </pt>
+                <pt idx="48">
+                  <v>0.0341753</v>
+                </pt>
+                <pt idx="49">
+                  <v>0.0248564</v>
+                </pt>
+                <pt idx="50">
+                  <v>0.0250656</v>
+                </pt>
+                <pt idx="51">
+                  <v>0.0253725</v>
+                </pt>
+                <pt idx="52">
+                  <v>0.0256172</v>
+                </pt>
+                <pt idx="53">
+                  <v>0.025785</v>
+                </pt>
+                <pt idx="54">
+                  <v>0.0260479</v>
+                </pt>
+                <pt idx="55">
+                  <v>0.0265271</v>
+                </pt>
+                <pt idx="56">
+                  <v>0.0269807</v>
+                </pt>
+                <pt idx="57">
+                  <v>0.0273609</v>
+                </pt>
+                <pt idx="58">
+                  <v>0.0280786</v>
+                </pt>
+                <pt idx="59">
+                  <v>0.0290054</v>
+                </pt>
+                <pt idx="60">
+                  <v>0.0305336</v>
+                </pt>
+                <pt idx="61">
+                  <v>0.0329544</v>
+                </pt>
+                <pt idx="62">
+                  <v>0.0362898</v>
+                </pt>
+                <pt idx="63">
+                  <v>0.0419218</v>
+                </pt>
+                <pt idx="64">
+                  <v>0.026637</v>
+                </pt>
+                <pt idx="65">
+                  <v>0.0267861</v>
+                </pt>
+                <pt idx="66">
+                  <v>0.0277745</v>
+                </pt>
+                <pt idx="67">
+                  <v>0.0273026</v>
+                </pt>
+                <pt idx="68">
+                  <v>0.0277491</v>
+                </pt>
+                <pt idx="69">
+                  <v>0.0281135</v>
+                </pt>
+                <pt idx="70">
+                  <v>0.0285725</v>
+                </pt>
+                <pt idx="71">
+                  <v>0.0291539</v>
+                </pt>
+                <pt idx="72">
+                  <v>0.0301281</v>
+                </pt>
+                <pt idx="73">
+                  <v>0.0315789</v>
+                </pt>
+                <pt idx="74">
+                  <v>0.032797</v>
+                </pt>
+                <pt idx="75">
+                  <v>0.0350439</v>
+                </pt>
+                <pt idx="76">
+                  <v>0.0383708</v>
+                </pt>
+                <pt idx="77">
+                  <v>0.0434181</v>
+                </pt>
+                <pt idx="78">
+                  <v>0.0335094</v>
+                </pt>
+                <pt idx="79">
+                  <v>0.033843</v>
+                </pt>
+                <pt idx="80">
+                  <v>0.0344867</v>
+                </pt>
+                <pt idx="81">
+                  <v>0.0348016</v>
+                </pt>
+                <pt idx="82">
+                  <v>0.0352056</v>
+                </pt>
+                <pt idx="83">
+                  <v>0.0360305</v>
+                </pt>
+                <pt idx="84">
+                  <v>0.0367309</v>
+                </pt>
+                <pt idx="85">
+                  <v>0.0372919</v>
+                </pt>
+                <pt idx="86">
+                  <v>0.0386863</v>
+                </pt>
+                <pt idx="87">
+                  <v>0.0396944</v>
+                </pt>
+                <pt idx="88">
+                  <v>0.0417616</v>
+                </pt>
+                <pt idx="89">
+                  <v>0.0440648</v>
+                </pt>
+                <pt idx="90">
+                  <v>0.0474931</v>
+                </pt>
+                <pt idx="91">
+                  <v>0.052939</v>
+                </pt>
+                <pt idx="92">
+                  <v>0.06786490000000001</v>
+                </pt>
+                <pt idx="93">
+                  <v>0.068254</v>
+                </pt>
+                <pt idx="94">
+                  <v>0.06875249999999999</v>
+                </pt>
+                <pt idx="95">
+                  <v>0.0691842</v>
+                </pt>
+                <pt idx="96">
+                  <v>0.06990540000000001</v>
+                </pt>
+                <pt idx="97">
+                  <v>0.07045410000000001</v>
+                </pt>
+                <pt idx="98">
+                  <v>0.0711215</v>
+                </pt>
+                <pt idx="99">
+                  <v>0.0718926</v>
+                </pt>
+                <pt idx="100">
+                  <v>0.0728032</v>
+                </pt>
+                <pt idx="101">
+                  <v>0.07412000000000001</v>
+                </pt>
+                <pt idx="102">
+                  <v>0.07561420000000001</v>
+                </pt>
+                <pt idx="103">
+                  <v>0.0777135</v>
+                </pt>
+                <pt idx="104">
+                  <v>0.08079749999999999</v>
+                </pt>
+                <pt idx="105">
+                  <v>0.0859578</v>
+                </pt>
+                <pt idx="106">
+                  <v>0.0926965</v>
+                </pt>
+                <pt idx="107">
+                  <v>0.0931657</v>
+                </pt>
+                <pt idx="108">
+                  <v>0.09363</v>
+                </pt>
+                <pt idx="109">
+                  <v>0.0942807</v>
+                </pt>
+                <pt idx="110">
+                  <v>0.0949342</v>
+                </pt>
+                <pt idx="111">
+                  <v>0.0956124</v>
+                </pt>
+                <pt idx="112">
+                  <v>0.09643110000000001</v>
+                </pt>
+                <pt idx="113">
+                  <v>0.0974578</v>
+                </pt>
+                <pt idx="114">
+                  <v>0.09865409999999999</v>
+                </pt>
+                <pt idx="115">
+                  <v>0.099985</v>
+                </pt>
+                <pt idx="116">
+                  <v>0.101915</v>
+                </pt>
+                <pt idx="117">
+                  <v>0.10417</v>
+                </pt>
+                <pt idx="118">
+                  <v>0.107355</v>
+                </pt>
+                <pt idx="119">
+                  <v>0.111855</v>
+                </pt>
+                <pt idx="120">
+                  <v>0.119295</v>
+                </pt>
+                <pt idx="121">
+                  <v>0.111174</v>
+                </pt>
+                <pt idx="122">
+                  <v>0.113436</v>
+                </pt>
+                <pt idx="123">
+                  <v>0.112627</v>
+                </pt>
+                <pt idx="124">
+                  <v>0.113487</v>
+                </pt>
+                <pt idx="125">
+                  <v>0.114491</v>
+                </pt>
+                <pt idx="126">
+                  <v>0.116157</v>
+                </pt>
+                <pt idx="127">
+                  <v>0.116856</v>
+                </pt>
+                <pt idx="128">
+                  <v>0.118562</v>
+                </pt>
+                <pt idx="129">
+                  <v>0.120523</v>
+                </pt>
+                <pt idx="130">
+                  <v>0.121962</v>
+                </pt>
+                <pt idx="131">
+                  <v>0.124397</v>
+                </pt>
+                <pt idx="132">
+                  <v>0.127842</v>
+                </pt>
+                <pt idx="133">
+                  <v>0.14034</v>
+                </pt>
+                <pt idx="134">
+                  <v>0.13989</v>
+                </pt>
+                <pt idx="135">
+                  <v>0.123322</v>
+                </pt>
+                <pt idx="136">
+                  <v>0.124097</v>
+                </pt>
+                <pt idx="137">
+                  <v>0.124887</v>
+                </pt>
+                <pt idx="138">
+                  <v>0.126237</v>
+                </pt>
+                <pt idx="139">
+                  <v>0.12706</v>
+                </pt>
+                <pt idx="140">
+                  <v>0.127951</v>
+                </pt>
+                <pt idx="141">
+                  <v>0.129431</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2865,8 +3791,8 @@
           <hMode val="factor"/>
           <x val="0.09943851078021188"/>
           <y val="0.05455922082745843"/>
-          <w val="0.3953147440728324"/>
-          <h val="0.2347463490140655"/>
+          <w val="0.3308817338426756"/>
+          <h val="0.2472877044215627"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -3215,8 +4141,8 @@
   </sheetPr>
   <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3232,12 +4158,17 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_map</t>
+          <t>boost::unordered_map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc15_map</t>
+          <t>boost::unordered_flat_map</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::unordered_node_map</t>
         </is>
       </c>
     </row>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -4177,16 +4177,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0360074</v>
+        <v>0.0364087</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0687117</v>
+        <v>0.0373815</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0375271</v>
+        <v>0.0368775</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0380119</v>
+        <v>0.0383556</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4194,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0371201</v>
+        <v>0.0371188</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0763723</v>
+        <v>0.0370001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0376874</v>
+        <v>0.0374118</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0384443</v>
+        <v>0.0387914</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4211,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0366356</v>
+        <v>0.0368437</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08522979999999999</v>
+        <v>0.0375228</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0384376</v>
+        <v>0.0378774</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0383826</v>
+        <v>0.0391261</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4228,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.036731</v>
+        <v>0.0368272</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0915808</v>
+        <v>0.037284</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0387213</v>
+        <v>0.0375387</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0387167</v>
+        <v>0.0392898</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4245,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0384492</v>
+        <v>0.0369127</v>
       </c>
       <c r="C6" t="n">
-        <v>0.099172</v>
+        <v>0.0371555</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0388476</v>
+        <v>0.038353</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0391201</v>
+        <v>0.0396095</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4262,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0382662</v>
+        <v>0.0377249</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0638528</v>
+        <v>0.0375764</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0392794</v>
+        <v>0.0388056</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0397703</v>
+        <v>0.0404906</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4279,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0375035</v>
+        <v>0.0371617</v>
       </c>
       <c r="C8" t="n">
-        <v>0.066621</v>
+        <v>0.0378116</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0406621</v>
+        <v>0.0397596</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0415457</v>
+        <v>0.0419442</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4296,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0385213</v>
+        <v>0.037698</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0703907</v>
+        <v>0.0386927</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0400032</v>
+        <v>0.0400589</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0408466</v>
+        <v>0.0406196</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4313,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0441125</v>
+        <v>0.043847</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07556980000000001</v>
+        <v>0.0428128</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0406415</v>
+        <v>0.0399939</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0410523</v>
+        <v>0.0408447</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4330,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.043746</v>
+        <v>0.043538</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07972509999999999</v>
+        <v>0.042972</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0408723</v>
+        <v>0.0401341</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0413047</v>
+        <v>0.0410151</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4347,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0439324</v>
+        <v>0.0439889</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0857506</v>
+        <v>0.0430284</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0416148</v>
+        <v>0.0405468</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0416895</v>
+        <v>0.0412839</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4364,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0438391</v>
+        <v>0.0440003</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0913805</v>
+        <v>0.0432115</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0418614</v>
+        <v>0.0407946</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0420386</v>
+        <v>0.0415797</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4381,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0439306</v>
+        <v>0.0438625</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0967229</v>
+        <v>0.0432967</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0419981</v>
+        <v>0.0411777</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0423963</v>
+        <v>0.0418177</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4398,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0442523</v>
+        <v>0.0441024</v>
       </c>
       <c r="C15" t="n">
-        <v>0.102275</v>
+        <v>0.043447</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0426343</v>
+        <v>0.0417569</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0426911</v>
+        <v>0.0421616</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4415,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0441823</v>
+        <v>0.0438497</v>
       </c>
       <c r="C16" t="n">
-        <v>0.10726</v>
+        <v>0.0434089</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0427125</v>
+        <v>0.0427503</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0429413</v>
+        <v>0.0424892</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4432,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0445683</v>
+        <v>0.0441548</v>
       </c>
       <c r="C17" t="n">
-        <v>0.112456</v>
+        <v>0.0436288</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0439574</v>
+        <v>0.0426353</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0431902</v>
+        <v>0.0427966</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4449,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0445548</v>
+        <v>0.0443023</v>
       </c>
       <c r="C18" t="n">
-        <v>0.116748</v>
+        <v>0.0437377</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0437004</v>
+        <v>0.0422221</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0434851</v>
+        <v>0.043085</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4466,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0448708</v>
+        <v>0.0442209</v>
       </c>
       <c r="C19" t="n">
-        <v>0.122432</v>
+        <v>0.044237</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0445369</v>
+        <v>0.0431592</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0436782</v>
+        <v>0.0435325</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4483,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.04502</v>
+        <v>0.0443806</v>
       </c>
       <c r="C20" t="n">
-        <v>0.125166</v>
+        <v>0.0438723</v>
       </c>
       <c r="D20" t="n">
-        <v>0.043889</v>
+        <v>0.0433303</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0442323</v>
+        <v>0.04443</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4500,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0451072</v>
+        <v>0.0448463</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0878423</v>
+        <v>0.0442806</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0441929</v>
+        <v>0.0438491</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0445519</v>
+        <v>0.0449214</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4517,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0454921</v>
+        <v>0.0448673</v>
       </c>
       <c r="C22" t="n">
-        <v>0.090838</v>
+        <v>0.0451552</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0481571</v>
+        <v>0.0474888</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0488248</v>
+        <v>0.0488259</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4534,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0453195</v>
+        <v>0.0466419</v>
       </c>
       <c r="C23" t="n">
-        <v>0.09388249999999999</v>
+        <v>0.0457435</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0456144</v>
+        <v>0.0454618</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0459303</v>
+        <v>0.0465939</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4551,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0492781</v>
+        <v>0.0488121</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0978004</v>
+        <v>0.0498091</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0462194</v>
+        <v>0.0457978</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0462066</v>
+        <v>0.0466238</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4568,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0493258</v>
+        <v>0.0489851</v>
       </c>
       <c r="C25" t="n">
-        <v>0.101431</v>
+        <v>0.0498897</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0462395</v>
+        <v>0.0463668</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0464211</v>
+        <v>0.0468898</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4585,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0492737</v>
+        <v>0.0489579</v>
       </c>
       <c r="C26" t="n">
-        <v>0.105012</v>
+        <v>0.0500342</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0479812</v>
+        <v>0.0467695</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0466876</v>
+        <v>0.047118</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4602,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0492782</v>
+        <v>0.0490088</v>
       </c>
       <c r="C27" t="n">
-        <v>0.109007</v>
+        <v>0.0500013</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0469404</v>
+        <v>0.0467096</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0469001</v>
+        <v>0.0475872</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4619,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0494898</v>
+        <v>0.0491715</v>
       </c>
       <c r="C28" t="n">
-        <v>0.112889</v>
+        <v>0.050143</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0487526</v>
+        <v>0.0471203</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0471682</v>
+        <v>0.0478413</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4636,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0496008</v>
+        <v>0.049486</v>
       </c>
       <c r="C29" t="n">
-        <v>0.117082</v>
+        <v>0.0502228</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0490572</v>
+        <v>0.0479247</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0474479</v>
+        <v>0.048034</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4653,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0497156</v>
+        <v>0.0492958</v>
       </c>
       <c r="C30" t="n">
-        <v>0.121137</v>
+        <v>0.0503642</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0482948</v>
+        <v>0.0476561</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0477559</v>
+        <v>0.048423</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4670,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0498543</v>
+        <v>0.049386</v>
       </c>
       <c r="C31" t="n">
-        <v>0.125369</v>
+        <v>0.0506374</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0493441</v>
+        <v>0.0481728</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0481163</v>
+        <v>0.0488793</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4687,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.050029</v>
+        <v>0.0494048</v>
       </c>
       <c r="C32" t="n">
-        <v>0.128912</v>
+        <v>0.050502</v>
       </c>
       <c r="D32" t="n">
-        <v>0.048754</v>
+        <v>0.0480146</v>
       </c>
       <c r="E32" t="n">
-        <v>0.048332</v>
+        <v>0.04894</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4704,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0501457</v>
+        <v>0.0494741</v>
       </c>
       <c r="C33" t="n">
-        <v>0.132681</v>
+        <v>0.0508955</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0500152</v>
+        <v>0.0486842</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0487985</v>
+        <v>0.0493179</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4721,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0502648</v>
+        <v>0.0496616</v>
       </c>
       <c r="C34" t="n">
-        <v>0.13621</v>
+        <v>0.0508332</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0501993</v>
+        <v>0.0490122</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0497203</v>
+        <v>0.0498051</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4738,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0505696</v>
+        <v>0.049788</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0957969</v>
+        <v>0.0510527</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0545133</v>
+        <v>0.0514587</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0525264</v>
+        <v>0.0535914</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4755,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.050803</v>
+        <v>0.0506416</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0980883</v>
+        <v>0.0518686</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0615284</v>
+        <v>0.058195</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0604006</v>
+        <v>0.0607957</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4772,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.053631</v>
+        <v>0.0535368</v>
       </c>
       <c r="C37" t="n">
-        <v>0.100327</v>
+        <v>0.0555275</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0503305</v>
+        <v>0.049565</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0501639</v>
+        <v>0.0505863</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4789,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0543309</v>
+        <v>0.0539081</v>
       </c>
       <c r="C38" t="n">
-        <v>0.103311</v>
+        <v>0.0559567</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0500784</v>
+        <v>0.0493291</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0505703</v>
+        <v>0.0503108</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4806,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0536121</v>
+        <v>0.0537929</v>
       </c>
       <c r="C39" t="n">
-        <v>0.106288</v>
+        <v>0.0561015</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0500246</v>
+        <v>0.0494578</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0507091</v>
+        <v>0.050857</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4823,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0544822</v>
+        <v>0.0534766</v>
       </c>
       <c r="C40" t="n">
-        <v>0.109617</v>
+        <v>0.0562226</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0504951</v>
+        <v>0.0497808</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0510871</v>
+        <v>0.051177</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4840,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.053931</v>
+        <v>0.053543</v>
       </c>
       <c r="C41" t="n">
-        <v>0.113138</v>
+        <v>0.0563127</v>
       </c>
       <c r="D41" t="n">
-        <v>0.051107</v>
+        <v>0.0502227</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0514251</v>
+        <v>0.0512872</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4857,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.053963</v>
+        <v>0.0542405</v>
       </c>
       <c r="C42" t="n">
-        <v>0.117041</v>
+        <v>0.0564285</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0512068</v>
+        <v>0.0504517</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0517502</v>
+        <v>0.0516715</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4874,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0540562</v>
+        <v>0.0537783</v>
       </c>
       <c r="C43" t="n">
-        <v>0.120943</v>
+        <v>0.0564347</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0514963</v>
+        <v>0.0510879</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0520128</v>
+        <v>0.0520985</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +4891,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0541074</v>
+        <v>0.0538211</v>
       </c>
       <c r="C44" t="n">
-        <v>0.125276</v>
+        <v>0.0567089</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0518001</v>
+        <v>0.0511426</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0523703</v>
+        <v>0.0523769</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +4908,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0543493</v>
+        <v>0.0539595</v>
       </c>
       <c r="C45" t="n">
-        <v>0.129241</v>
+        <v>0.0567877</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0534126</v>
+        <v>0.05211</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0525522</v>
+        <v>0.0524656</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +4925,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0545685</v>
+        <v>0.0552757</v>
       </c>
       <c r="C46" t="n">
-        <v>0.132896</v>
+        <v>0.056803</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0532955</v>
+        <v>0.0520492</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0530437</v>
+        <v>0.0530988</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +4942,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0546069</v>
+        <v>0.0550037</v>
       </c>
       <c r="C47" t="n">
-        <v>0.136302</v>
+        <v>0.0570849</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0546464</v>
+        <v>0.053789</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0537318</v>
+        <v>0.0538558</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +4959,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0550563</v>
+        <v>0.0550281</v>
       </c>
       <c r="C48" t="n">
-        <v>0.140004</v>
+        <v>0.0572741</v>
       </c>
       <c r="D48" t="n">
-        <v>0.057814</v>
+        <v>0.0555663</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0574022</v>
+        <v>0.057098</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +4976,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0554704</v>
+        <v>0.0563569</v>
       </c>
       <c r="C49" t="n">
-        <v>0.143231</v>
+        <v>0.0582702</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0613147</v>
+        <v>0.0595874</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0619159</v>
+        <v>0.0616941</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +4993,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0567552</v>
+        <v>0.0574271</v>
       </c>
       <c r="C50" t="n">
-        <v>0.100068</v>
+        <v>0.0603575</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0659991</v>
+        <v>0.06449009999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0670352</v>
+        <v>0.06681380000000001</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5010,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0607651</v>
+        <v>0.060989</v>
       </c>
       <c r="C51" t="n">
-        <v>0.102411</v>
+        <v>0.0644364</v>
       </c>
       <c r="D51" t="n">
-        <v>0.05314</v>
+        <v>0.0518333</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0526557</v>
+        <v>0.052963</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5027,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0655617</v>
+        <v>0.0661606</v>
       </c>
       <c r="C52" t="n">
-        <v>0.104968</v>
+        <v>0.0699039</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0525944</v>
+        <v>0.052592</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0529183</v>
+        <v>0.0532398</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5044,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0608531</v>
+        <v>0.0607106</v>
       </c>
       <c r="C53" t="n">
-        <v>0.107951</v>
+        <v>0.0632481</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0529454</v>
+        <v>0.0525438</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0532427</v>
+        <v>0.0536038</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5061,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.061049</v>
+        <v>0.0607281</v>
       </c>
       <c r="C54" t="n">
-        <v>0.111233</v>
+        <v>0.06321259999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0534479</v>
+        <v>0.0528699</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0534474</v>
+        <v>0.053821</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5078,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0610934</v>
+        <v>0.0610982</v>
       </c>
       <c r="C55" t="n">
-        <v>0.114841</v>
+        <v>0.0634918</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0538683</v>
+        <v>0.0533072</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0541077</v>
+        <v>0.0542486</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5095,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0612018</v>
+        <v>0.0609094</v>
       </c>
       <c r="C56" t="n">
-        <v>0.118689</v>
+        <v>0.0634551</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0542472</v>
+        <v>0.0536363</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0542886</v>
+        <v>0.0546401</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5112,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0609021</v>
+        <v>0.0615972</v>
       </c>
       <c r="C57" t="n">
-        <v>0.122548</v>
+        <v>0.063765</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0549771</v>
+        <v>0.0541791</v>
       </c>
       <c r="E57" t="n">
-        <v>0.054864</v>
+        <v>0.0550695</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5129,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0612086</v>
+        <v>0.0610323</v>
       </c>
       <c r="C58" t="n">
-        <v>0.126618</v>
+        <v>0.0638847</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0555339</v>
+        <v>0.0546319</v>
       </c>
       <c r="E58" t="n">
-        <v>0.056581</v>
+        <v>0.0555688</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5146,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0614387</v>
+        <v>0.0612256</v>
       </c>
       <c r="C59" t="n">
-        <v>0.130484</v>
+        <v>0.0639767</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0571378</v>
+        <v>0.0554997</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0571896</v>
+        <v>0.0562265</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5163,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0615348</v>
+        <v>0.0615469</v>
       </c>
       <c r="C60" t="n">
-        <v>0.134356</v>
+        <v>0.0644048</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0585534</v>
+        <v>0.0567391</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0587361</v>
+        <v>0.057766</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5180,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0619363</v>
+        <v>0.0622296</v>
       </c>
       <c r="C61" t="n">
-        <v>0.138212</v>
+        <v>0.0645019</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0606778</v>
+        <v>0.0587698</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0608527</v>
+        <v>0.0609265</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5197,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0621033</v>
+        <v>0.0623041</v>
       </c>
       <c r="C62" t="n">
-        <v>0.142178</v>
+        <v>0.0657143</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0629252</v>
+        <v>0.0612943</v>
       </c>
       <c r="E62" t="n">
-        <v>0.06375980000000001</v>
+        <v>0.06388580000000001</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5214,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0630752</v>
+        <v>0.0634281</v>
       </c>
       <c r="C63" t="n">
-        <v>0.145705</v>
+        <v>0.0670703</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0652841</v>
+        <v>0.0640464</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0668208</v>
+        <v>0.0677934</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5231,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0651505</v>
+        <v>0.0657359</v>
       </c>
       <c r="C64" t="n">
-        <v>0.107775</v>
+        <v>0.0694541</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0695585</v>
+        <v>0.0681027</v>
       </c>
       <c r="E64" t="n">
-        <v>0.07124369999999999</v>
+        <v>0.0727855</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5248,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0683758</v>
+        <v>0.06794509999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>0.110067</v>
+        <v>0.07299609999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0760393</v>
+        <v>0.0743558</v>
       </c>
       <c r="E65" t="n">
-        <v>0.07803060000000001</v>
+        <v>0.07985730000000001</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5265,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0718097</v>
+        <v>0.07178279999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>0.113425</v>
+        <v>0.07789450000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0557485</v>
+        <v>0.0557961</v>
       </c>
       <c r="E66" t="n">
-        <v>0.058776</v>
+        <v>0.0593335</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5282,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0698636</v>
+        <v>0.07113360000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>0.116983</v>
+        <v>0.0715348</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0563221</v>
+        <v>0.0576033</v>
       </c>
       <c r="E67" t="n">
-        <v>0.059381</v>
+        <v>0.0597878</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5299,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0717598</v>
+        <v>0.0715737</v>
       </c>
       <c r="C68" t="n">
-        <v>0.122368</v>
+        <v>0.07225810000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0585315</v>
+        <v>0.0575832</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0603452</v>
+        <v>0.0608735</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5316,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0717537</v>
+        <v>0.0719822</v>
       </c>
       <c r="C69" t="n">
-        <v>0.127284</v>
+        <v>0.0727699</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0573053</v>
+        <v>0.05649</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0612566</v>
+        <v>0.0618521</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5333,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.07187689999999999</v>
+        <v>0.0723589</v>
       </c>
       <c r="C70" t="n">
-        <v>0.130971</v>
+        <v>0.0730203</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0600174</v>
+        <v>0.0586781</v>
       </c>
       <c r="E70" t="n">
-        <v>0.062554</v>
+        <v>0.0631154</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5350,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0715862</v>
+        <v>0.07229969999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>0.138196</v>
+        <v>0.07392799999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0589776</v>
+        <v>0.057761</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0630218</v>
+        <v>0.0641249</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5367,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.07206940000000001</v>
+        <v>0.0723302</v>
       </c>
       <c r="C72" t="n">
-        <v>0.1461</v>
+        <v>0.07456980000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0599934</v>
+        <v>0.0585494</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0646659</v>
+        <v>0.0656545</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5384,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0729141</v>
+        <v>0.07272969999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>0.154252</v>
+        <v>0.0752009</v>
       </c>
       <c r="D73" t="n">
-        <v>0.061231</v>
+        <v>0.0593228</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0664945</v>
+        <v>0.06773220000000001</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5401,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0729847</v>
+        <v>0.07272770000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.165018</v>
+        <v>0.0764827</v>
       </c>
       <c r="D74" t="n">
-        <v>0.06268369999999999</v>
+        <v>0.0606756</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0696478</v>
+        <v>0.0703619</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5418,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.07370110000000001</v>
+        <v>0.0729318</v>
       </c>
       <c r="C75" t="n">
-        <v>0.172237</v>
+        <v>0.0773288</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0641756</v>
+        <v>0.0622715</v>
       </c>
       <c r="E75" t="n">
-        <v>0.072223</v>
+        <v>0.0730909</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5435,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.07423390000000001</v>
+        <v>0.0740335</v>
       </c>
       <c r="C76" t="n">
-        <v>0.179536</v>
+        <v>0.0788606</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0664912</v>
+        <v>0.0646835</v>
       </c>
       <c r="E76" t="n">
-        <v>0.075625</v>
+        <v>0.0766257</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5452,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0750522</v>
+        <v>0.0753794</v>
       </c>
       <c r="C77" t="n">
-        <v>0.187221</v>
+        <v>0.0812618</v>
       </c>
       <c r="D77" t="n">
-        <v>0.069201</v>
+        <v>0.0669897</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0799154</v>
+        <v>0.08089499999999999</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5469,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.07679510000000001</v>
+        <v>0.0775947</v>
       </c>
       <c r="C78" t="n">
-        <v>0.186084</v>
+        <v>0.08388660000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.07266980000000001</v>
+        <v>0.0710451</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0852403</v>
+        <v>0.08638560000000001</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5486,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0787146</v>
+        <v>0.0791897</v>
       </c>
       <c r="C79" t="n">
-        <v>0.193395</v>
+        <v>0.0878999</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0782167</v>
+        <v>0.0766925</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0935121</v>
+        <v>0.09502240000000001</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5503,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.08228290000000001</v>
+        <v>0.08518000000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>0.202639</v>
+        <v>0.0936468</v>
       </c>
       <c r="D80" t="n">
-        <v>0.105237</v>
+        <v>0.106594</v>
       </c>
       <c r="E80" t="n">
-        <v>0.104113</v>
+        <v>0.104883</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5520,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.172793</v>
+        <v>0.172403</v>
       </c>
       <c r="C81" t="n">
-        <v>0.212544</v>
+        <v>0.143595</v>
       </c>
       <c r="D81" t="n">
-        <v>0.107483</v>
+        <v>0.107527</v>
       </c>
       <c r="E81" t="n">
-        <v>0.106029</v>
+        <v>0.105846</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5537,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.17335</v>
+        <v>0.176132</v>
       </c>
       <c r="C82" t="n">
-        <v>0.218899</v>
+        <v>0.144197</v>
       </c>
       <c r="D82" t="n">
-        <v>0.109868</v>
+        <v>0.109478</v>
       </c>
       <c r="E82" t="n">
-        <v>0.106348</v>
+        <v>0.106664</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5554,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.174723</v>
+        <v>0.1772</v>
       </c>
       <c r="C83" t="n">
-        <v>0.2321</v>
+        <v>0.144727</v>
       </c>
       <c r="D83" t="n">
-        <v>0.112184</v>
+        <v>0.111598</v>
       </c>
       <c r="E83" t="n">
-        <v>0.107743</v>
+        <v>0.107527</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5571,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.175255</v>
+        <v>0.178717</v>
       </c>
       <c r="C84" t="n">
-        <v>0.23784</v>
+        <v>0.145669</v>
       </c>
       <c r="D84" t="n">
-        <v>0.114445</v>
+        <v>0.113608</v>
       </c>
       <c r="E84" t="n">
-        <v>0.108627</v>
+        <v>0.108667</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5588,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.176641</v>
+        <v>0.177394</v>
       </c>
       <c r="C85" t="n">
-        <v>0.248323</v>
+        <v>0.14656</v>
       </c>
       <c r="D85" t="n">
-        <v>0.116001</v>
+        <v>0.11566</v>
       </c>
       <c r="E85" t="n">
-        <v>0.106419</v>
+        <v>0.109635</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5605,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.177105</v>
+        <v>0.178208</v>
       </c>
       <c r="C86" t="n">
-        <v>0.259737</v>
+        <v>0.146893</v>
       </c>
       <c r="D86" t="n">
-        <v>0.118277</v>
+        <v>0.117699</v>
       </c>
       <c r="E86" t="n">
-        <v>0.107546</v>
+        <v>0.111111</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5622,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.177302</v>
+        <v>0.179093</v>
       </c>
       <c r="C87" t="n">
-        <v>0.267071</v>
+        <v>0.147986</v>
       </c>
       <c r="D87" t="n">
-        <v>0.120042</v>
+        <v>0.119807</v>
       </c>
       <c r="E87" t="n">
-        <v>0.109852</v>
+        <v>0.112613</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5639,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.177888</v>
+        <v>0.179649</v>
       </c>
       <c r="C88" t="n">
-        <v>0.279247</v>
+        <v>0.148633</v>
       </c>
       <c r="D88" t="n">
-        <v>0.121635</v>
+        <v>0.121983</v>
       </c>
       <c r="E88" t="n">
-        <v>0.111783</v>
+        <v>0.114682</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5656,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.178414</v>
+        <v>0.180024</v>
       </c>
       <c r="C89" t="n">
-        <v>0.287775</v>
+        <v>0.150012</v>
       </c>
       <c r="D89" t="n">
-        <v>0.123517</v>
+        <v>0.12513</v>
       </c>
       <c r="E89" t="n">
-        <v>0.114063</v>
+        <v>0.116774</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5673,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.179591</v>
+        <v>0.181224</v>
       </c>
       <c r="C90" t="n">
-        <v>0.296775</v>
+        <v>0.148846</v>
       </c>
       <c r="D90" t="n">
-        <v>0.125808</v>
+        <v>0.127952</v>
       </c>
       <c r="E90" t="n">
-        <v>0.117536</v>
+        <v>0.118265</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5690,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.18084</v>
+        <v>0.182268</v>
       </c>
       <c r="C91" t="n">
-        <v>0.306809</v>
+        <v>0.151315</v>
       </c>
       <c r="D91" t="n">
-        <v>0.129927</v>
+        <v>0.13058</v>
       </c>
       <c r="E91" t="n">
-        <v>0.119301</v>
+        <v>0.121723</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5707,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.18169</v>
+        <v>0.183363</v>
       </c>
       <c r="C92" t="n">
-        <v>0.290297</v>
+        <v>0.154346</v>
       </c>
       <c r="D92" t="n">
-        <v>0.134054</v>
+        <v>0.132941</v>
       </c>
       <c r="E92" t="n">
-        <v>0.124472</v>
+        <v>0.126913</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5724,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.183199</v>
+        <v>0.184027</v>
       </c>
       <c r="C93" t="n">
-        <v>0.297673</v>
+        <v>0.157584</v>
       </c>
       <c r="D93" t="n">
-        <v>0.137663</v>
+        <v>0.137337</v>
       </c>
       <c r="E93" t="n">
-        <v>0.131981</v>
+        <v>0.134346</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +5741,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.185308</v>
+        <v>0.186235</v>
       </c>
       <c r="C94" t="n">
-        <v>0.305068</v>
+        <v>0.163082</v>
       </c>
       <c r="D94" t="n">
-        <v>0.208555</v>
+        <v>0.207272</v>
       </c>
       <c r="E94" t="n">
-        <v>0.201447</v>
+        <v>0.200608</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +5758,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.239749</v>
+        <v>0.245084</v>
       </c>
       <c r="C95" t="n">
-        <v>0.309859</v>
+        <v>0.222703</v>
       </c>
       <c r="D95" t="n">
-        <v>0.209479</v>
+        <v>0.208521</v>
       </c>
       <c r="E95" t="n">
-        <v>0.202454</v>
+        <v>0.201896</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +5775,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.239979</v>
+        <v>0.245504</v>
       </c>
       <c r="C96" t="n">
-        <v>0.316619</v>
+        <v>0.222563</v>
       </c>
       <c r="D96" t="n">
-        <v>0.210791</v>
+        <v>0.210133</v>
       </c>
       <c r="E96" t="n">
-        <v>0.203305</v>
+        <v>0.202386</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +5792,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.239804</v>
+        <v>0.245263</v>
       </c>
       <c r="C97" t="n">
-        <v>0.327959</v>
+        <v>0.223025</v>
       </c>
       <c r="D97" t="n">
-        <v>0.213011</v>
+        <v>0.212071</v>
       </c>
       <c r="E97" t="n">
-        <v>0.204039</v>
+        <v>0.203373</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +5809,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.239384</v>
+        <v>0.24492</v>
       </c>
       <c r="C98" t="n">
-        <v>0.33236</v>
+        <v>0.223272</v>
       </c>
       <c r="D98" t="n">
-        <v>0.214676</v>
+        <v>0.214563</v>
       </c>
       <c r="E98" t="n">
-        <v>0.205242</v>
+        <v>0.204715</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +5826,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.240058</v>
+        <v>0.245695</v>
       </c>
       <c r="C99" t="n">
-        <v>0.341695</v>
+        <v>0.224023</v>
       </c>
       <c r="D99" t="n">
-        <v>0.217096</v>
+        <v>0.215511</v>
       </c>
       <c r="E99" t="n">
-        <v>0.206807</v>
+        <v>0.206053</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +5843,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.240008</v>
+        <v>0.244979</v>
       </c>
       <c r="C100" t="n">
-        <v>0.350232</v>
+        <v>0.224429</v>
       </c>
       <c r="D100" t="n">
-        <v>0.218335</v>
+        <v>0.217487</v>
       </c>
       <c r="E100" t="n">
-        <v>0.208103</v>
+        <v>0.207008</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +5860,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.240696</v>
+        <v>0.245189</v>
       </c>
       <c r="C101" t="n">
-        <v>0.359231</v>
+        <v>0.225067</v>
       </c>
       <c r="D101" t="n">
-        <v>0.22016</v>
+        <v>0.219255</v>
       </c>
       <c r="E101" t="n">
-        <v>0.209386</v>
+        <v>0.208663</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +5877,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.240327</v>
+        <v>0.245561</v>
       </c>
       <c r="C102" t="n">
-        <v>0.369287</v>
+        <v>0.225665</v>
       </c>
       <c r="D102" t="n">
-        <v>0.222132</v>
+        <v>0.220991</v>
       </c>
       <c r="E102" t="n">
-        <v>0.2107</v>
+        <v>0.210344</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +5894,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.240255</v>
+        <v>0.245775</v>
       </c>
       <c r="C103" t="n">
-        <v>0.378879</v>
+        <v>0.226565</v>
       </c>
       <c r="D103" t="n">
-        <v>0.224565</v>
+        <v>0.223337</v>
       </c>
       <c r="E103" t="n">
-        <v>0.212656</v>
+        <v>0.212451</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +5911,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.242032</v>
+        <v>0.245869</v>
       </c>
       <c r="C104" t="n">
-        <v>0.387205</v>
+        <v>0.227848</v>
       </c>
       <c r="D104" t="n">
-        <v>0.225754</v>
+        <v>0.225296</v>
       </c>
       <c r="E104" t="n">
-        <v>0.215156</v>
+        <v>0.215121</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +5928,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.241769</v>
+        <v>0.246238</v>
       </c>
       <c r="C105" t="n">
-        <v>0.394455</v>
+        <v>0.2298</v>
       </c>
       <c r="D105" t="n">
-        <v>0.228787</v>
+        <v>0.228095</v>
       </c>
       <c r="E105" t="n">
-        <v>0.218587</v>
+        <v>0.218992</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +5945,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.242833</v>
+        <v>0.246982</v>
       </c>
       <c r="C106" t="n">
-        <v>0.407782</v>
+        <v>0.232296</v>
       </c>
       <c r="D106" t="n">
-        <v>0.232871</v>
+        <v>0.230846</v>
       </c>
       <c r="E106" t="n">
-        <v>0.222298</v>
+        <v>0.223014</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +5962,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.244115</v>
+        <v>0.248499</v>
       </c>
       <c r="C107" t="n">
-        <v>0.350907</v>
+        <v>0.235302</v>
       </c>
       <c r="D107" t="n">
-        <v>0.23654</v>
+        <v>0.235314</v>
       </c>
       <c r="E107" t="n">
-        <v>0.227695</v>
+        <v>0.229197</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +5979,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.246975</v>
+        <v>0.251</v>
       </c>
       <c r="C108" t="n">
-        <v>0.356288</v>
+        <v>0.240284</v>
       </c>
       <c r="D108" t="n">
-        <v>0.253298</v>
+        <v>0.252273</v>
       </c>
       <c r="E108" t="n">
-        <v>0.25256</v>
+        <v>0.252383</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +5996,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.25226</v>
+        <v>0.255166</v>
       </c>
       <c r="C109" t="n">
-        <v>0.362002</v>
+        <v>0.248391</v>
       </c>
       <c r="D109" t="n">
-        <v>0.255671</v>
+        <v>0.254027</v>
       </c>
       <c r="E109" t="n">
-        <v>0.254236</v>
+        <v>0.253826</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6013,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.271746</v>
+        <v>0.280956</v>
       </c>
       <c r="C110" t="n">
-        <v>0.368483</v>
+        <v>0.27621</v>
       </c>
       <c r="D110" t="n">
-        <v>0.251145</v>
+        <v>0.250857</v>
       </c>
       <c r="E110" t="n">
-        <v>0.255248</v>
+        <v>0.255335</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6030,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.271866</v>
+        <v>0.280764</v>
       </c>
       <c r="C111" t="n">
-        <v>0.37425</v>
+        <v>0.275571</v>
       </c>
       <c r="D111" t="n">
-        <v>0.253229</v>
+        <v>0.252397</v>
       </c>
       <c r="E111" t="n">
-        <v>0.257388</v>
+        <v>0.257459</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6047,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.27263</v>
+        <v>0.282739</v>
       </c>
       <c r="C112" t="n">
-        <v>0.380747</v>
+        <v>0.276015</v>
       </c>
       <c r="D112" t="n">
-        <v>0.252676</v>
+        <v>0.251621</v>
       </c>
       <c r="E112" t="n">
-        <v>0.259147</v>
+        <v>0.259722</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6064,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.274937</v>
+        <v>0.282225</v>
       </c>
       <c r="C113" t="n">
-        <v>0.38868</v>
+        <v>0.278496</v>
       </c>
       <c r="D113" t="n">
-        <v>0.255521</v>
+        <v>0.254165</v>
       </c>
       <c r="E113" t="n">
-        <v>0.260828</v>
+        <v>0.260523</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6081,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.274447</v>
+        <v>0.282553</v>
       </c>
       <c r="C114" t="n">
-        <v>0.395258</v>
+        <v>0.278093</v>
       </c>
       <c r="D114" t="n">
-        <v>0.258067</v>
+        <v>0.256869</v>
       </c>
       <c r="E114" t="n">
-        <v>0.262453</v>
+        <v>0.263318</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6098,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.274575</v>
+        <v>0.282818</v>
       </c>
       <c r="C115" t="n">
-        <v>0.401788</v>
+        <v>0.280598</v>
       </c>
       <c r="D115" t="n">
-        <v>0.260819</v>
+        <v>0.259134</v>
       </c>
       <c r="E115" t="n">
-        <v>0.265714</v>
+        <v>0.265462</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6115,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.276073</v>
+        <v>0.281715</v>
       </c>
       <c r="C116" t="n">
-        <v>0.410745</v>
+        <v>0.279834</v>
       </c>
       <c r="D116" t="n">
-        <v>0.264465</v>
+        <v>0.262452</v>
       </c>
       <c r="E116" t="n">
-        <v>0.268022</v>
+        <v>0.268345</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6132,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.275511</v>
+        <v>0.281586</v>
       </c>
       <c r="C117" t="n">
-        <v>0.418799</v>
+        <v>0.279427</v>
       </c>
       <c r="D117" t="n">
-        <v>0.266872</v>
+        <v>0.265557</v>
       </c>
       <c r="E117" t="n">
-        <v>0.271953</v>
+        <v>0.272411</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6149,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.275746</v>
+        <v>0.283422</v>
       </c>
       <c r="C118" t="n">
-        <v>0.43434</v>
+        <v>0.281238</v>
       </c>
       <c r="D118" t="n">
-        <v>0.269557</v>
+        <v>0.268476</v>
       </c>
       <c r="E118" t="n">
-        <v>0.277049</v>
+        <v>0.276065</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6166,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.276053</v>
+        <v>0.282783</v>
       </c>
       <c r="C119" t="n">
-        <v>0.446934</v>
+        <v>0.283956</v>
       </c>
       <c r="D119" t="n">
-        <v>0.273131</v>
+        <v>0.27134</v>
       </c>
       <c r="E119" t="n">
-        <v>0.280633</v>
+        <v>0.281266</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6183,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.277742</v>
+        <v>0.283675</v>
       </c>
       <c r="C120" t="n">
-        <v>0.454668</v>
+        <v>0.286364</v>
       </c>
       <c r="D120" t="n">
-        <v>0.27675</v>
+        <v>0.275429</v>
       </c>
       <c r="E120" t="n">
-        <v>0.281536</v>
+        <v>0.283077</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6200,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.279978</v>
+        <v>0.286326</v>
       </c>
       <c r="C121" t="n">
-        <v>0.375649</v>
+        <v>0.289693</v>
       </c>
       <c r="D121" t="n">
-        <v>0.281619</v>
+        <v>0.280385</v>
       </c>
       <c r="E121" t="n">
-        <v>0.290644</v>
+        <v>0.291646</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6217,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.282301</v>
+        <v>0.286203</v>
       </c>
       <c r="C122" t="n">
-        <v>0.382237</v>
+        <v>0.296252</v>
       </c>
       <c r="D122" t="n">
-        <v>0.288948</v>
+        <v>0.288242</v>
       </c>
       <c r="E122" t="n">
-        <v>0.299422</v>
+        <v>0.299587</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6234,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.286461</v>
+        <v>0.291744</v>
       </c>
       <c r="C123" t="n">
-        <v>0.384603</v>
+        <v>0.302947</v>
       </c>
       <c r="D123" t="n">
-        <v>0.275109</v>
+        <v>0.275307</v>
       </c>
       <c r="E123" t="n">
-        <v>0.285336</v>
+        <v>0.285873</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6251,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.348213</v>
+        <v>0.362781</v>
       </c>
       <c r="C124" t="n">
-        <v>0.395181</v>
+        <v>0.351213</v>
       </c>
       <c r="D124" t="n">
-        <v>0.275625</v>
+        <v>0.2753</v>
       </c>
       <c r="E124" t="n">
-        <v>0.287298</v>
+        <v>0.287489</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6268,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.350304</v>
+        <v>0.361989</v>
       </c>
       <c r="C125" t="n">
-        <v>0.40278</v>
+        <v>0.352378</v>
       </c>
       <c r="D125" t="n">
-        <v>0.278408</v>
+        <v>0.277801</v>
       </c>
       <c r="E125" t="n">
-        <v>0.289504</v>
+        <v>0.289934</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6285,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.348053</v>
+        <v>0.362929</v>
       </c>
       <c r="C126" t="n">
-        <v>0.405704</v>
+        <v>0.352371</v>
       </c>
       <c r="D126" t="n">
-        <v>0.280718</v>
+        <v>0.280727</v>
       </c>
       <c r="E126" t="n">
-        <v>0.291251</v>
+        <v>0.292018</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6302,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.346477</v>
+        <v>0.36212</v>
       </c>
       <c r="C127" t="n">
-        <v>0.418496</v>
+        <v>0.353357</v>
       </c>
       <c r="D127" t="n">
-        <v>0.284353</v>
+        <v>0.283439</v>
       </c>
       <c r="E127" t="n">
-        <v>0.29344</v>
+        <v>0.294407</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6319,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.348679</v>
+        <v>0.361405</v>
       </c>
       <c r="C128" t="n">
-        <v>0.420605</v>
+        <v>0.353907</v>
       </c>
       <c r="D128" t="n">
-        <v>0.286672</v>
+        <v>0.286212</v>
       </c>
       <c r="E128" t="n">
-        <v>0.296899</v>
+        <v>0.297617</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6336,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.348835</v>
+        <v>0.36232</v>
       </c>
       <c r="C129" t="n">
-        <v>0.434908</v>
+        <v>0.354537</v>
       </c>
       <c r="D129" t="n">
-        <v>0.290635</v>
+        <v>0.289565</v>
       </c>
       <c r="E129" t="n">
-        <v>0.300457</v>
+        <v>0.300355</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6353,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.347792</v>
+        <v>0.36281</v>
       </c>
       <c r="C130" t="n">
-        <v>0.439427</v>
+        <v>0.356274</v>
       </c>
       <c r="D130" t="n">
-        <v>0.293078</v>
+        <v>0.293066</v>
       </c>
       <c r="E130" t="n">
-        <v>0.296771</v>
+        <v>0.297414</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6370,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.347773</v>
+        <v>0.361559</v>
       </c>
       <c r="C131" t="n">
-        <v>0.446675</v>
+        <v>0.356782</v>
       </c>
       <c r="D131" t="n">
-        <v>0.297489</v>
+        <v>0.29626</v>
       </c>
       <c r="E131" t="n">
-        <v>0.301277</v>
+        <v>0.301437</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6387,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.350206</v>
+        <v>0.362911</v>
       </c>
       <c r="C132" t="n">
-        <v>0.457376</v>
+        <v>0.359221</v>
       </c>
       <c r="D132" t="n">
-        <v>0.301843</v>
+        <v>0.300497</v>
       </c>
       <c r="E132" t="n">
-        <v>0.30703</v>
+        <v>0.30792</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6404,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.350366</v>
+        <v>0.363558</v>
       </c>
       <c r="C133" t="n">
-        <v>0.465237</v>
+        <v>0.360863</v>
       </c>
       <c r="D133" t="n">
-        <v>0.305882</v>
+        <v>0.304285</v>
       </c>
       <c r="E133" t="n">
-        <v>0.313111</v>
+        <v>0.314085</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6421,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.350843</v>
+        <v>0.363214</v>
       </c>
       <c r="C134" t="n">
-        <v>0.481951</v>
+        <v>0.363537</v>
       </c>
       <c r="D134" t="n">
-        <v>0.311027</v>
+        <v>0.309263</v>
       </c>
       <c r="E134" t="n">
-        <v>0.321636</v>
+        <v>0.321825</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6438,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.353384</v>
+        <v>0.363326</v>
       </c>
       <c r="C135" t="n">
-        <v>0.392738</v>
+        <v>0.367221</v>
       </c>
       <c r="D135" t="n">
-        <v>0.317324</v>
+        <v>0.315603</v>
       </c>
       <c r="E135" t="n">
-        <v>0.332372</v>
+        <v>0.332599</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6455,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.355339</v>
+        <v>0.364462</v>
       </c>
       <c r="C136" t="n">
-        <v>0.398718</v>
+        <v>0.373489</v>
       </c>
       <c r="D136" t="n">
-        <v>0.325863</v>
+        <v>0.324454</v>
       </c>
       <c r="E136" t="n">
-        <v>0.346592</v>
+        <v>0.347717</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6472,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.358536</v>
+        <v>0.367663</v>
       </c>
       <c r="C137" t="n">
-        <v>0.399433</v>
+        <v>0.380557</v>
       </c>
       <c r="D137" t="n">
-        <v>0.295523</v>
+        <v>0.294995</v>
       </c>
       <c r="E137" t="n">
-        <v>0.304973</v>
+        <v>0.305497</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6489,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.406212</v>
+        <v>0.426809</v>
       </c>
       <c r="C138" t="n">
-        <v>0.412542</v>
+        <v>0.395676</v>
       </c>
       <c r="D138" t="n">
-        <v>0.298004</v>
+        <v>0.297863</v>
       </c>
       <c r="E138" t="n">
-        <v>0.307216</v>
+        <v>0.307813</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6506,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.406409</v>
+        <v>0.426534</v>
       </c>
       <c r="C139" t="n">
-        <v>0.41787</v>
+        <v>0.396391</v>
       </c>
       <c r="D139" t="n">
-        <v>0.299936</v>
+        <v>0.300264</v>
       </c>
       <c r="E139" t="n">
-        <v>0.309355</v>
+        <v>0.309617</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6523,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.407092</v>
+        <v>0.426214</v>
       </c>
       <c r="C140" t="n">
-        <v>0.421571</v>
+        <v>0.396415</v>
       </c>
       <c r="D140" t="n">
-        <v>0.302014</v>
+        <v>0.301782</v>
       </c>
       <c r="E140" t="n">
-        <v>0.312625</v>
+        <v>0.312356</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6540,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.407814</v>
+        <v>0.427152</v>
       </c>
       <c r="C141" t="n">
-        <v>0.434144</v>
+        <v>0.397407</v>
       </c>
       <c r="D141" t="n">
-        <v>0.305133</v>
+        <v>0.30432</v>
       </c>
       <c r="E141" t="n">
-        <v>0.31473</v>
+        <v>0.315029</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6557,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.405527</v>
+        <v>0.42677</v>
       </c>
       <c r="C142" t="n">
-        <v>0.436112</v>
+        <v>0.398575</v>
       </c>
       <c r="D142" t="n">
-        <v>0.307124</v>
+        <v>0.306695</v>
       </c>
       <c r="E142" t="n">
-        <v>0.31833</v>
+        <v>0.318253</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6574,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.405855</v>
+        <v>0.426902</v>
       </c>
       <c r="C143" t="n">
-        <v>0.450181</v>
+        <v>0.399635</v>
       </c>
       <c r="D143" t="n">
-        <v>0.309587</v>
+        <v>0.309643</v>
       </c>
       <c r="E143" t="n">
-        <v>0.31777</v>
+        <v>0.318329</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -4177,16 +4177,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0360074</v>
+        <v>0.0358633</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0687117</v>
+        <v>0.0693608</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0375271</v>
+        <v>0.0382185</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0380119</v>
+        <v>0.0374351</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4194,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0371201</v>
+        <v>0.0415052</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0763723</v>
+        <v>0.0758344</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0376874</v>
+        <v>0.0384177</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0384443</v>
+        <v>0.0381137</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4211,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0366356</v>
+        <v>0.0373239</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08522979999999999</v>
+        <v>0.0846495</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0384376</v>
+        <v>0.0384789</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0383826</v>
+        <v>0.0384263</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4228,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.036731</v>
+        <v>0.0374828</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0915808</v>
+        <v>0.0912309</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0387213</v>
+        <v>0.039507</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0387167</v>
+        <v>0.0388051</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4245,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0384492</v>
+        <v>0.0380111</v>
       </c>
       <c r="C6" t="n">
-        <v>0.099172</v>
+        <v>0.09865980000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0388476</v>
+        <v>0.0400013</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0391201</v>
+        <v>0.0392582</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4262,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0382662</v>
+        <v>0.0388728</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0638528</v>
+        <v>0.0639029</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0392794</v>
+        <v>0.039996</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0397703</v>
+        <v>0.0398032</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4279,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0375035</v>
+        <v>0.0381829</v>
       </c>
       <c r="C8" t="n">
-        <v>0.066621</v>
+        <v>0.0671742</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0406621</v>
+        <v>0.0440082</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0415457</v>
+        <v>0.0411988</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4296,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0385213</v>
+        <v>0.0425895</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0703907</v>
+        <v>0.0704231</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0400032</v>
+        <v>0.0437096</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0408466</v>
+        <v>0.0440196</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4313,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0441125</v>
+        <v>0.0459316</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07556980000000001</v>
+        <v>0.07629039999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0406415</v>
+        <v>0.0424019</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0410523</v>
+        <v>0.0442995</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4330,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.043746</v>
+        <v>0.0457716</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07972509999999999</v>
+        <v>0.0811853</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0408723</v>
+        <v>0.0431894</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0413047</v>
+        <v>0.0445682</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4347,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0439324</v>
+        <v>0.0457485</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0857506</v>
+        <v>0.0866314</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0416148</v>
+        <v>0.0448318</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0416895</v>
+        <v>0.0449393</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4364,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0438391</v>
+        <v>0.045837</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0913805</v>
+        <v>0.0921819</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0418614</v>
+        <v>0.0452432</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0420386</v>
+        <v>0.0450714</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4381,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0439306</v>
+        <v>0.0460386</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0967229</v>
+        <v>0.0969554</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0419981</v>
+        <v>0.0441651</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0423963</v>
+        <v>0.0454372</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4398,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0442523</v>
+        <v>0.0450086</v>
       </c>
       <c r="C15" t="n">
-        <v>0.102275</v>
+        <v>0.103273</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0426343</v>
+        <v>0.0450949</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0426911</v>
+        <v>0.0458403</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4415,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0441823</v>
+        <v>0.0458687</v>
       </c>
       <c r="C16" t="n">
-        <v>0.10726</v>
+        <v>0.108661</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0427125</v>
+        <v>0.044816</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0429413</v>
+        <v>0.0461921</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4432,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0445683</v>
+        <v>0.0460954</v>
       </c>
       <c r="C17" t="n">
-        <v>0.112456</v>
+        <v>0.113626</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0439574</v>
+        <v>0.0457847</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0431902</v>
+        <v>0.0463296</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4449,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0445548</v>
+        <v>0.0464314</v>
       </c>
       <c r="C18" t="n">
-        <v>0.116748</v>
+        <v>0.118834</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0437004</v>
+        <v>0.0471403</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0434851</v>
+        <v>0.0466557</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4466,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0448708</v>
+        <v>0.0463105</v>
       </c>
       <c r="C19" t="n">
-        <v>0.122432</v>
+        <v>0.123862</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0445369</v>
+        <v>0.0459266</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0436782</v>
+        <v>0.0468139</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4483,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.04502</v>
+        <v>0.045669</v>
       </c>
       <c r="C20" t="n">
-        <v>0.125166</v>
+        <v>0.126641</v>
       </c>
       <c r="D20" t="n">
-        <v>0.043889</v>
+        <v>0.0450246</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0442323</v>
+        <v>0.0475379</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4500,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0451072</v>
+        <v>0.0458162</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0878423</v>
+        <v>0.0882973</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0441929</v>
+        <v>0.0454757</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0445519</v>
+        <v>0.0456452</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4517,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0454921</v>
+        <v>0.0461255</v>
       </c>
       <c r="C22" t="n">
-        <v>0.090838</v>
+        <v>0.0909295</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0481571</v>
+        <v>0.049916</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0488248</v>
+        <v>0.0496482</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4534,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0453195</v>
+        <v>0.0461954</v>
       </c>
       <c r="C23" t="n">
-        <v>0.09388249999999999</v>
+        <v>0.0943804</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0456144</v>
+        <v>0.0461117</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0459303</v>
+        <v>0.0470346</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4551,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0492781</v>
+        <v>0.0492388</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0978004</v>
+        <v>0.0981544</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0462194</v>
+        <v>0.0460395</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0462066</v>
+        <v>0.0469561</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4568,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0493258</v>
+        <v>0.0495096</v>
       </c>
       <c r="C25" t="n">
-        <v>0.101431</v>
+        <v>0.101809</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0462395</v>
+        <v>0.0465287</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0464211</v>
+        <v>0.0471474</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4585,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0492737</v>
+        <v>0.0493532</v>
       </c>
       <c r="C26" t="n">
-        <v>0.105012</v>
+        <v>0.105489</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0479812</v>
+        <v>0.0466771</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0466876</v>
+        <v>0.047139</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4602,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0492782</v>
+        <v>0.0494002</v>
       </c>
       <c r="C27" t="n">
-        <v>0.109007</v>
+        <v>0.109097</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0469404</v>
+        <v>0.0472044</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0469001</v>
+        <v>0.0473973</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4619,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0494898</v>
+        <v>0.0496448</v>
       </c>
       <c r="C28" t="n">
-        <v>0.112889</v>
+        <v>0.11324</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0487526</v>
+        <v>0.0472846</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0471682</v>
+        <v>0.0476188</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4636,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0496008</v>
+        <v>0.0497654</v>
       </c>
       <c r="C29" t="n">
-        <v>0.117082</v>
+        <v>0.117344</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0490572</v>
+        <v>0.0475954</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0474479</v>
+        <v>0.0479002</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4653,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0497156</v>
+        <v>0.0498244</v>
       </c>
       <c r="C30" t="n">
-        <v>0.121137</v>
+        <v>0.121794</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0482948</v>
+        <v>0.0482264</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0477559</v>
+        <v>0.0484912</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4670,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0498543</v>
+        <v>0.0499602</v>
       </c>
       <c r="C31" t="n">
-        <v>0.125369</v>
+        <v>0.125545</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0493441</v>
+        <v>0.0482008</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0481163</v>
+        <v>0.0485793</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4687,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.050029</v>
+        <v>0.0500927</v>
       </c>
       <c r="C32" t="n">
-        <v>0.128912</v>
+        <v>0.12928</v>
       </c>
       <c r="D32" t="n">
-        <v>0.048754</v>
+        <v>0.0483934</v>
       </c>
       <c r="E32" t="n">
-        <v>0.048332</v>
+        <v>0.0491014</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4704,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0501457</v>
+        <v>0.0502363</v>
       </c>
       <c r="C33" t="n">
-        <v>0.132681</v>
+        <v>0.132911</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0500152</v>
+        <v>0.0489243</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0487985</v>
+        <v>0.0493162</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4721,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0502648</v>
+        <v>0.0504099</v>
       </c>
       <c r="C34" t="n">
-        <v>0.13621</v>
+        <v>0.136782</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0501993</v>
+        <v>0.0499167</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0497203</v>
+        <v>0.0503946</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4738,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0505696</v>
+        <v>0.0505422</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0957969</v>
+        <v>0.0957698</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0545133</v>
+        <v>0.0542352</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0525264</v>
+        <v>0.0533041</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4755,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.050803</v>
+        <v>0.0511026</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0980883</v>
+        <v>0.09807109999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0615284</v>
+        <v>0.0611473</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0604006</v>
+        <v>0.0622817</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4772,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.053631</v>
+        <v>0.0535217</v>
       </c>
       <c r="C37" t="n">
-        <v>0.100327</v>
+        <v>0.100421</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0503305</v>
+        <v>0.050262</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0501639</v>
+        <v>0.0501242</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4789,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0543309</v>
+        <v>0.0544468</v>
       </c>
       <c r="C38" t="n">
-        <v>0.103311</v>
+        <v>0.103231</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0500784</v>
+        <v>0.0500421</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0505703</v>
+        <v>0.0504681</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4806,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0536121</v>
+        <v>0.0541619</v>
       </c>
       <c r="C39" t="n">
-        <v>0.106288</v>
+        <v>0.106181</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0500246</v>
+        <v>0.0502398</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0507091</v>
+        <v>0.0507227</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4823,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0544822</v>
+        <v>0.0543881</v>
       </c>
       <c r="C40" t="n">
-        <v>0.109617</v>
+        <v>0.109651</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0504951</v>
+        <v>0.0506078</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0510871</v>
+        <v>0.051314</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4840,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.053931</v>
+        <v>0.0537541</v>
       </c>
       <c r="C41" t="n">
-        <v>0.113138</v>
+        <v>0.113182</v>
       </c>
       <c r="D41" t="n">
-        <v>0.051107</v>
+        <v>0.0510901</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0514251</v>
+        <v>0.0513013</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4857,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.053963</v>
+        <v>0.0545057</v>
       </c>
       <c r="C42" t="n">
-        <v>0.117041</v>
+        <v>0.116936</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0512068</v>
+        <v>0.0515245</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0517502</v>
+        <v>0.0516813</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4874,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0540562</v>
+        <v>0.0546025</v>
       </c>
       <c r="C43" t="n">
-        <v>0.120943</v>
+        <v>0.120901</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0514963</v>
+        <v>0.052338</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0520128</v>
+        <v>0.0519389</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +4891,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0541074</v>
+        <v>0.05472</v>
       </c>
       <c r="C44" t="n">
-        <v>0.125276</v>
+        <v>0.125105</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0518001</v>
+        <v>0.0520591</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0523703</v>
+        <v>0.0522631</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +4908,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0543493</v>
+        <v>0.0548982</v>
       </c>
       <c r="C45" t="n">
-        <v>0.129241</v>
+        <v>0.129137</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0534126</v>
+        <v>0.0532014</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0525522</v>
+        <v>0.0525514</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +4925,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0545685</v>
+        <v>0.0544204</v>
       </c>
       <c r="C46" t="n">
-        <v>0.132896</v>
+        <v>0.132994</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0532955</v>
+        <v>0.0534659</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0530437</v>
+        <v>0.0530391</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +4942,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0546069</v>
+        <v>0.0551822</v>
       </c>
       <c r="C47" t="n">
-        <v>0.136302</v>
+        <v>0.136212</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0546464</v>
+        <v>0.0547791</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0537318</v>
+        <v>0.0542788</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +4959,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0550563</v>
+        <v>0.0551335</v>
       </c>
       <c r="C48" t="n">
-        <v>0.140004</v>
+        <v>0.140076</v>
       </c>
       <c r="D48" t="n">
-        <v>0.057814</v>
+        <v>0.0580283</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0574022</v>
+        <v>0.0569612</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +4976,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0554704</v>
+        <v>0.0552376</v>
       </c>
       <c r="C49" t="n">
-        <v>0.143231</v>
+        <v>0.143223</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0613147</v>
+        <v>0.0616923</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0619159</v>
+        <v>0.0614118</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +4993,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0567552</v>
+        <v>0.0571031</v>
       </c>
       <c r="C50" t="n">
-        <v>0.100068</v>
+        <v>0.100147</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0659991</v>
+        <v>0.0663343</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0670352</v>
+        <v>0.0668554</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5010,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0607651</v>
+        <v>0.0610792</v>
       </c>
       <c r="C51" t="n">
-        <v>0.102411</v>
+        <v>0.102449</v>
       </c>
       <c r="D51" t="n">
-        <v>0.05314</v>
+        <v>0.0542125</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0526557</v>
+        <v>0.0527643</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5027,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0655617</v>
+        <v>0.065972</v>
       </c>
       <c r="C52" t="n">
-        <v>0.104968</v>
+        <v>0.105092</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0525944</v>
+        <v>0.0531158</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0529183</v>
+        <v>0.0545724</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5044,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0608531</v>
+        <v>0.0606492</v>
       </c>
       <c r="C53" t="n">
-        <v>0.107951</v>
+        <v>0.107851</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0529454</v>
+        <v>0.0533198</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0532427</v>
+        <v>0.0548202</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5061,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.061049</v>
+        <v>0.0606431</v>
       </c>
       <c r="C54" t="n">
-        <v>0.111233</v>
+        <v>0.111134</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0534479</v>
+        <v>0.0538455</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0534474</v>
+        <v>0.0551523</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5078,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0610934</v>
+        <v>0.0607801</v>
       </c>
       <c r="C55" t="n">
-        <v>0.114841</v>
+        <v>0.114776</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0538683</v>
+        <v>0.0542572</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0541077</v>
+        <v>0.0554468</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5095,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0612018</v>
+        <v>0.0608857</v>
       </c>
       <c r="C56" t="n">
-        <v>0.118689</v>
+        <v>0.118679</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0542472</v>
+        <v>0.0545022</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0542886</v>
+        <v>0.0556837</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5112,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0609021</v>
+        <v>0.0611466</v>
       </c>
       <c r="C57" t="n">
-        <v>0.122548</v>
+        <v>0.122773</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0549771</v>
+        <v>0.0552693</v>
       </c>
       <c r="E57" t="n">
-        <v>0.054864</v>
+        <v>0.0565461</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5129,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0612086</v>
+        <v>0.061403</v>
       </c>
       <c r="C58" t="n">
-        <v>0.126618</v>
+        <v>0.126871</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0555339</v>
+        <v>0.0567612</v>
       </c>
       <c r="E58" t="n">
-        <v>0.056581</v>
+        <v>0.0571251</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5146,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0614387</v>
+        <v>0.0612769</v>
       </c>
       <c r="C59" t="n">
-        <v>0.130484</v>
+        <v>0.131144</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0571378</v>
+        <v>0.0575195</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0571896</v>
+        <v>0.0578647</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5163,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0615348</v>
+        <v>0.0616039</v>
       </c>
       <c r="C60" t="n">
-        <v>0.134356</v>
+        <v>0.135199</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0585534</v>
+        <v>0.059095</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0587361</v>
+        <v>0.0594306</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5180,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0619363</v>
+        <v>0.0620731</v>
       </c>
       <c r="C61" t="n">
-        <v>0.138212</v>
+        <v>0.138966</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0606778</v>
+        <v>0.0608092</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0608527</v>
+        <v>0.0618664</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5197,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0621033</v>
+        <v>0.0626871</v>
       </c>
       <c r="C62" t="n">
-        <v>0.142178</v>
+        <v>0.142712</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0629252</v>
+        <v>0.063307</v>
       </c>
       <c r="E62" t="n">
-        <v>0.06375980000000001</v>
+        <v>0.0649402</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5214,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0630752</v>
+        <v>0.0637397</v>
       </c>
       <c r="C63" t="n">
-        <v>0.145705</v>
+        <v>0.146576</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0652841</v>
+        <v>0.06605900000000001</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0668208</v>
+        <v>0.06843109999999999</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5231,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0651505</v>
+        <v>0.0648852</v>
       </c>
       <c r="C64" t="n">
-        <v>0.107775</v>
+        <v>0.11085</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0695585</v>
+        <v>0.0699621</v>
       </c>
       <c r="E64" t="n">
-        <v>0.07124369999999999</v>
+        <v>0.0728352</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5248,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0683758</v>
+        <v>0.0680984</v>
       </c>
       <c r="C65" t="n">
-        <v>0.110067</v>
+        <v>0.113498</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0760393</v>
+        <v>0.0762138</v>
       </c>
       <c r="E65" t="n">
-        <v>0.07803060000000001</v>
+        <v>0.0797804</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5265,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0718097</v>
+        <v>0.071645</v>
       </c>
       <c r="C66" t="n">
-        <v>0.113425</v>
+        <v>0.117681</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0557485</v>
+        <v>0.0574235</v>
       </c>
       <c r="E66" t="n">
-        <v>0.058776</v>
+        <v>0.0596386</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5282,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0698636</v>
+        <v>0.0711421</v>
       </c>
       <c r="C67" t="n">
-        <v>0.116983</v>
+        <v>0.121573</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0563221</v>
+        <v>0.0577276</v>
       </c>
       <c r="E67" t="n">
-        <v>0.059381</v>
+        <v>0.0603465</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5299,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0717598</v>
+        <v>0.07125339999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>0.122368</v>
+        <v>0.12775</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0585315</v>
+        <v>0.0569315</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0603452</v>
+        <v>0.0614461</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5316,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0717537</v>
+        <v>0.0717465</v>
       </c>
       <c r="C69" t="n">
-        <v>0.127284</v>
+        <v>0.133607</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0573053</v>
+        <v>0.0577694</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0612566</v>
+        <v>0.0621139</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5333,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.07187689999999999</v>
+        <v>0.0711126</v>
       </c>
       <c r="C70" t="n">
-        <v>0.130971</v>
+        <v>0.140209</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0600174</v>
+        <v>0.0581492</v>
       </c>
       <c r="E70" t="n">
-        <v>0.062554</v>
+        <v>0.0632897</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5350,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0715862</v>
+        <v>0.0732076</v>
       </c>
       <c r="C71" t="n">
-        <v>0.138196</v>
+        <v>0.145932</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0589776</v>
+        <v>0.0586853</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0630218</v>
+        <v>0.0641511</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5367,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.07206940000000001</v>
+        <v>0.0728114</v>
       </c>
       <c r="C72" t="n">
-        <v>0.1461</v>
+        <v>0.1532</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0599934</v>
+        <v>0.0596597</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0646659</v>
+        <v>0.0658046</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5384,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0729141</v>
+        <v>0.0727259</v>
       </c>
       <c r="C73" t="n">
-        <v>0.154252</v>
+        <v>0.15803</v>
       </c>
       <c r="D73" t="n">
-        <v>0.061231</v>
+        <v>0.0610899</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0664945</v>
+        <v>0.0675543</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5401,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0729847</v>
+        <v>0.076167</v>
       </c>
       <c r="C74" t="n">
-        <v>0.165018</v>
+        <v>0.169676</v>
       </c>
       <c r="D74" t="n">
-        <v>0.06268369999999999</v>
+        <v>0.06276130000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0696478</v>
+        <v>0.07070419999999999</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5418,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.07370110000000001</v>
+        <v>0.0767152</v>
       </c>
       <c r="C75" t="n">
-        <v>0.172237</v>
+        <v>0.177324</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0641756</v>
+        <v>0.0644412</v>
       </c>
       <c r="E75" t="n">
-        <v>0.072223</v>
+        <v>0.073481</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5435,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.07423390000000001</v>
+        <v>0.0770243</v>
       </c>
       <c r="C76" t="n">
-        <v>0.179536</v>
+        <v>0.184738</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0664912</v>
+        <v>0.0663261</v>
       </c>
       <c r="E76" t="n">
-        <v>0.075625</v>
+        <v>0.0766908</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5452,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0750522</v>
+        <v>0.07400909999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>0.187221</v>
+        <v>0.192964</v>
       </c>
       <c r="D77" t="n">
-        <v>0.069201</v>
+        <v>0.0698233</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0799154</v>
+        <v>0.0808659</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5469,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.07679510000000001</v>
+        <v>0.0806209</v>
       </c>
       <c r="C78" t="n">
-        <v>0.186084</v>
+        <v>0.186075</v>
       </c>
       <c r="D78" t="n">
-        <v>0.07266980000000001</v>
+        <v>0.0738944</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0852403</v>
+        <v>0.0861437</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5486,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0787146</v>
+        <v>0.0808717</v>
       </c>
       <c r="C79" t="n">
-        <v>0.193395</v>
+        <v>0.19378</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0782167</v>
+        <v>0.0795028</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0935121</v>
+        <v>0.0950183</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5503,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.08228290000000001</v>
+        <v>0.0858705</v>
       </c>
       <c r="C80" t="n">
-        <v>0.202639</v>
+        <v>0.202511</v>
       </c>
       <c r="D80" t="n">
-        <v>0.105237</v>
+        <v>0.103619</v>
       </c>
       <c r="E80" t="n">
-        <v>0.104113</v>
+        <v>0.103997</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5520,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.172793</v>
+        <v>0.17242</v>
       </c>
       <c r="C81" t="n">
-        <v>0.212544</v>
+        <v>0.210641</v>
       </c>
       <c r="D81" t="n">
-        <v>0.107483</v>
+        <v>0.105747</v>
       </c>
       <c r="E81" t="n">
-        <v>0.106029</v>
+        <v>0.106713</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5537,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.17335</v>
+        <v>0.173234</v>
       </c>
       <c r="C82" t="n">
-        <v>0.218899</v>
+        <v>0.218041</v>
       </c>
       <c r="D82" t="n">
-        <v>0.109868</v>
+        <v>0.108167</v>
       </c>
       <c r="E82" t="n">
-        <v>0.106348</v>
+        <v>0.107369</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5554,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.174723</v>
+        <v>0.174516</v>
       </c>
       <c r="C83" t="n">
-        <v>0.2321</v>
+        <v>0.230501</v>
       </c>
       <c r="D83" t="n">
-        <v>0.112184</v>
+        <v>0.110812</v>
       </c>
       <c r="E83" t="n">
-        <v>0.107743</v>
+        <v>0.108097</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5571,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.175255</v>
+        <v>0.175288</v>
       </c>
       <c r="C84" t="n">
-        <v>0.23784</v>
+        <v>0.236438</v>
       </c>
       <c r="D84" t="n">
-        <v>0.114445</v>
+        <v>0.11323</v>
       </c>
       <c r="E84" t="n">
-        <v>0.108627</v>
+        <v>0.109385</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5588,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.176641</v>
+        <v>0.17595</v>
       </c>
       <c r="C85" t="n">
-        <v>0.248323</v>
+        <v>0.246596</v>
       </c>
       <c r="D85" t="n">
-        <v>0.116001</v>
+        <v>0.115158</v>
       </c>
       <c r="E85" t="n">
-        <v>0.106419</v>
+        <v>0.106922</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5605,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.177105</v>
+        <v>0.176966</v>
       </c>
       <c r="C86" t="n">
-        <v>0.259737</v>
+        <v>0.258008</v>
       </c>
       <c r="D86" t="n">
-        <v>0.118277</v>
+        <v>0.117338</v>
       </c>
       <c r="E86" t="n">
-        <v>0.107546</v>
+        <v>0.108241</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5622,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.177302</v>
+        <v>0.176967</v>
       </c>
       <c r="C87" t="n">
-        <v>0.267071</v>
+        <v>0.265916</v>
       </c>
       <c r="D87" t="n">
-        <v>0.120042</v>
+        <v>0.121623</v>
       </c>
       <c r="E87" t="n">
-        <v>0.109852</v>
+        <v>0.110814</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5639,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.177888</v>
+        <v>0.178842</v>
       </c>
       <c r="C88" t="n">
-        <v>0.279247</v>
+        <v>0.277737</v>
       </c>
       <c r="D88" t="n">
-        <v>0.121635</v>
+        <v>0.122406</v>
       </c>
       <c r="E88" t="n">
-        <v>0.111783</v>
+        <v>0.115257</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5656,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.178414</v>
+        <v>0.178928</v>
       </c>
       <c r="C89" t="n">
-        <v>0.287775</v>
+        <v>0.286251</v>
       </c>
       <c r="D89" t="n">
-        <v>0.123517</v>
+        <v>0.124587</v>
       </c>
       <c r="E89" t="n">
-        <v>0.114063</v>
+        <v>0.117419</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5673,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.179591</v>
+        <v>0.178996</v>
       </c>
       <c r="C90" t="n">
-        <v>0.296775</v>
+        <v>0.295204</v>
       </c>
       <c r="D90" t="n">
-        <v>0.125808</v>
+        <v>0.126967</v>
       </c>
       <c r="E90" t="n">
-        <v>0.117536</v>
+        <v>0.11966</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5690,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.18084</v>
+        <v>0.180976</v>
       </c>
       <c r="C91" t="n">
-        <v>0.306809</v>
+        <v>0.305147</v>
       </c>
       <c r="D91" t="n">
-        <v>0.129927</v>
+        <v>0.129493</v>
       </c>
       <c r="E91" t="n">
-        <v>0.119301</v>
+        <v>0.121091</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5707,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.18169</v>
+        <v>0.182073</v>
       </c>
       <c r="C92" t="n">
-        <v>0.290297</v>
+        <v>0.289942</v>
       </c>
       <c r="D92" t="n">
-        <v>0.134054</v>
+        <v>0.134508</v>
       </c>
       <c r="E92" t="n">
-        <v>0.124472</v>
+        <v>0.127253</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5724,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.183199</v>
+        <v>0.183329</v>
       </c>
       <c r="C93" t="n">
-        <v>0.297673</v>
+        <v>0.29692</v>
       </c>
       <c r="D93" t="n">
-        <v>0.137663</v>
+        <v>0.137897</v>
       </c>
       <c r="E93" t="n">
-        <v>0.131981</v>
+        <v>0.131306</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +5741,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.185308</v>
+        <v>0.185359</v>
       </c>
       <c r="C94" t="n">
-        <v>0.305068</v>
+        <v>0.304534</v>
       </c>
       <c r="D94" t="n">
-        <v>0.208555</v>
+        <v>0.206944</v>
       </c>
       <c r="E94" t="n">
-        <v>0.201447</v>
+        <v>0.201728</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +5758,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.239749</v>
+        <v>0.239017</v>
       </c>
       <c r="C95" t="n">
-        <v>0.309859</v>
+        <v>0.309088</v>
       </c>
       <c r="D95" t="n">
-        <v>0.209479</v>
+        <v>0.209388</v>
       </c>
       <c r="E95" t="n">
-        <v>0.202454</v>
+        <v>0.201463</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +5775,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.239979</v>
+        <v>0.23915</v>
       </c>
       <c r="C96" t="n">
-        <v>0.316619</v>
+        <v>0.31577</v>
       </c>
       <c r="D96" t="n">
-        <v>0.210791</v>
+        <v>0.201077</v>
       </c>
       <c r="E96" t="n">
-        <v>0.203305</v>
+        <v>0.202263</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +5792,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.239804</v>
+        <v>0.240169</v>
       </c>
       <c r="C97" t="n">
-        <v>0.327959</v>
+        <v>0.326997</v>
       </c>
       <c r="D97" t="n">
-        <v>0.213011</v>
+        <v>0.211789</v>
       </c>
       <c r="E97" t="n">
-        <v>0.204039</v>
+        <v>0.203169</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +5809,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.239384</v>
+        <v>0.239318</v>
       </c>
       <c r="C98" t="n">
-        <v>0.33236</v>
+        <v>0.331393</v>
       </c>
       <c r="D98" t="n">
-        <v>0.214676</v>
+        <v>0.21343</v>
       </c>
       <c r="E98" t="n">
-        <v>0.205242</v>
+        <v>0.204418</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +5826,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.240058</v>
+        <v>0.239365</v>
       </c>
       <c r="C99" t="n">
-        <v>0.341695</v>
+        <v>0.340661</v>
       </c>
       <c r="D99" t="n">
-        <v>0.217096</v>
+        <v>0.215283</v>
       </c>
       <c r="E99" t="n">
-        <v>0.206807</v>
+        <v>0.20554</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +5843,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.240008</v>
+        <v>0.240132</v>
       </c>
       <c r="C100" t="n">
-        <v>0.350232</v>
+        <v>0.349097</v>
       </c>
       <c r="D100" t="n">
-        <v>0.218335</v>
+        <v>0.209716</v>
       </c>
       <c r="E100" t="n">
-        <v>0.208103</v>
+        <v>0.206491</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +5860,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.240696</v>
+        <v>0.240362</v>
       </c>
       <c r="C101" t="n">
-        <v>0.359231</v>
+        <v>0.35782</v>
       </c>
       <c r="D101" t="n">
-        <v>0.22016</v>
+        <v>0.220694</v>
       </c>
       <c r="E101" t="n">
-        <v>0.209386</v>
+        <v>0.208082</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +5877,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.240327</v>
+        <v>0.240132</v>
       </c>
       <c r="C102" t="n">
-        <v>0.369287</v>
+        <v>0.369594</v>
       </c>
       <c r="D102" t="n">
-        <v>0.222132</v>
+        <v>0.214451</v>
       </c>
       <c r="E102" t="n">
-        <v>0.2107</v>
+        <v>0.209534</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +5894,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.240255</v>
+        <v>0.240588</v>
       </c>
       <c r="C103" t="n">
-        <v>0.378879</v>
+        <v>0.378776</v>
       </c>
       <c r="D103" t="n">
-        <v>0.224565</v>
+        <v>0.224667</v>
       </c>
       <c r="E103" t="n">
-        <v>0.212656</v>
+        <v>0.213916</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +5911,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.242032</v>
+        <v>0.240941</v>
       </c>
       <c r="C104" t="n">
-        <v>0.387205</v>
+        <v>0.387298</v>
       </c>
       <c r="D104" t="n">
-        <v>0.225754</v>
+        <v>0.225814</v>
       </c>
       <c r="E104" t="n">
-        <v>0.215156</v>
+        <v>0.215015</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +5928,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.241769</v>
+        <v>0.241561</v>
       </c>
       <c r="C105" t="n">
-        <v>0.394455</v>
+        <v>0.394543</v>
       </c>
       <c r="D105" t="n">
-        <v>0.228787</v>
+        <v>0.229303</v>
       </c>
       <c r="E105" t="n">
-        <v>0.218587</v>
+        <v>0.218772</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +5945,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.242833</v>
+        <v>0.243135</v>
       </c>
       <c r="C106" t="n">
-        <v>0.407782</v>
+        <v>0.407439</v>
       </c>
       <c r="D106" t="n">
-        <v>0.232871</v>
+        <v>0.224307</v>
       </c>
       <c r="E106" t="n">
-        <v>0.222298</v>
+        <v>0.22396</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +5962,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.244115</v>
+        <v>0.244686</v>
       </c>
       <c r="C107" t="n">
-        <v>0.350907</v>
+        <v>0.351419</v>
       </c>
       <c r="D107" t="n">
-        <v>0.23654</v>
+        <v>0.236372</v>
       </c>
       <c r="E107" t="n">
-        <v>0.227695</v>
+        <v>0.230437</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +5979,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.246975</v>
+        <v>0.24656</v>
       </c>
       <c r="C108" t="n">
-        <v>0.356288</v>
+        <v>0.356603</v>
       </c>
       <c r="D108" t="n">
-        <v>0.253298</v>
+        <v>0.253804</v>
       </c>
       <c r="E108" t="n">
-        <v>0.25256</v>
+        <v>0.247247</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +5996,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.25226</v>
+        <v>0.251784</v>
       </c>
       <c r="C109" t="n">
-        <v>0.362002</v>
+        <v>0.362207</v>
       </c>
       <c r="D109" t="n">
-        <v>0.255671</v>
+        <v>0.255824</v>
       </c>
       <c r="E109" t="n">
-        <v>0.254236</v>
+        <v>0.251259</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6013,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.271746</v>
+        <v>0.267814</v>
       </c>
       <c r="C110" t="n">
-        <v>0.368483</v>
+        <v>0.368764</v>
       </c>
       <c r="D110" t="n">
-        <v>0.251145</v>
+        <v>0.250782</v>
       </c>
       <c r="E110" t="n">
-        <v>0.255248</v>
+        <v>0.256149</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6030,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.271866</v>
+        <v>0.267591</v>
       </c>
       <c r="C111" t="n">
-        <v>0.37425</v>
+        <v>0.376073</v>
       </c>
       <c r="D111" t="n">
-        <v>0.253229</v>
+        <v>0.253542</v>
       </c>
       <c r="E111" t="n">
-        <v>0.257388</v>
+        <v>0.256875</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6047,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.27263</v>
+        <v>0.272568</v>
       </c>
       <c r="C112" t="n">
-        <v>0.380747</v>
+        <v>0.382758</v>
       </c>
       <c r="D112" t="n">
-        <v>0.252676</v>
+        <v>0.252167</v>
       </c>
       <c r="E112" t="n">
-        <v>0.259147</v>
+        <v>0.259465</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6064,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.274937</v>
+        <v>0.273522</v>
       </c>
       <c r="C113" t="n">
-        <v>0.38868</v>
+        <v>0.390857</v>
       </c>
       <c r="D113" t="n">
-        <v>0.255521</v>
+        <v>0.256475</v>
       </c>
       <c r="E113" t="n">
-        <v>0.260828</v>
+        <v>0.261841</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6081,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.274447</v>
+        <v>0.268056</v>
       </c>
       <c r="C114" t="n">
-        <v>0.395258</v>
+        <v>0.398097</v>
       </c>
       <c r="D114" t="n">
-        <v>0.258067</v>
+        <v>0.258565</v>
       </c>
       <c r="E114" t="n">
-        <v>0.262453</v>
+        <v>0.260129</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6098,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.274575</v>
+        <v>0.271321</v>
       </c>
       <c r="C115" t="n">
-        <v>0.401788</v>
+        <v>0.403955</v>
       </c>
       <c r="D115" t="n">
-        <v>0.260819</v>
+        <v>0.261221</v>
       </c>
       <c r="E115" t="n">
-        <v>0.265714</v>
+        <v>0.264379</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6115,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.276073</v>
+        <v>0.273706</v>
       </c>
       <c r="C116" t="n">
-        <v>0.410745</v>
+        <v>0.412813</v>
       </c>
       <c r="D116" t="n">
-        <v>0.264465</v>
+        <v>0.259099</v>
       </c>
       <c r="E116" t="n">
-        <v>0.268022</v>
+        <v>0.266034</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6132,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.275511</v>
+        <v>0.275847</v>
       </c>
       <c r="C117" t="n">
-        <v>0.418799</v>
+        <v>0.422192</v>
       </c>
       <c r="D117" t="n">
-        <v>0.266872</v>
+        <v>0.267592</v>
       </c>
       <c r="E117" t="n">
-        <v>0.271953</v>
+        <v>0.272702</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6149,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.275746</v>
+        <v>0.275354</v>
       </c>
       <c r="C118" t="n">
-        <v>0.43434</v>
+        <v>0.434794</v>
       </c>
       <c r="D118" t="n">
-        <v>0.269557</v>
+        <v>0.265607</v>
       </c>
       <c r="E118" t="n">
-        <v>0.277049</v>
+        <v>0.27412</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6166,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.276053</v>
+        <v>0.277379</v>
       </c>
       <c r="C119" t="n">
-        <v>0.446934</v>
+        <v>0.442018</v>
       </c>
       <c r="D119" t="n">
-        <v>0.273131</v>
+        <v>0.268432</v>
       </c>
       <c r="E119" t="n">
-        <v>0.280633</v>
+        <v>0.281154</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6183,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.277742</v>
+        <v>0.276823</v>
       </c>
       <c r="C120" t="n">
-        <v>0.454668</v>
+        <v>0.454986</v>
       </c>
       <c r="D120" t="n">
-        <v>0.27675</v>
+        <v>0.272786</v>
       </c>
       <c r="E120" t="n">
-        <v>0.281536</v>
+        <v>0.282329</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6200,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.279978</v>
+        <v>0.281277</v>
       </c>
       <c r="C121" t="n">
-        <v>0.375649</v>
+        <v>0.377338</v>
       </c>
       <c r="D121" t="n">
-        <v>0.281619</v>
+        <v>0.281729</v>
       </c>
       <c r="E121" t="n">
-        <v>0.290644</v>
+        <v>0.291279</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6217,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.282301</v>
+        <v>0.281276</v>
       </c>
       <c r="C122" t="n">
-        <v>0.382237</v>
+        <v>0.384105</v>
       </c>
       <c r="D122" t="n">
-        <v>0.288948</v>
+        <v>0.285739</v>
       </c>
       <c r="E122" t="n">
-        <v>0.299422</v>
+        <v>0.299607</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6234,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.286461</v>
+        <v>0.284197</v>
       </c>
       <c r="C123" t="n">
-        <v>0.384603</v>
+        <v>0.386168</v>
       </c>
       <c r="D123" t="n">
-        <v>0.275109</v>
+        <v>0.275568</v>
       </c>
       <c r="E123" t="n">
-        <v>0.285336</v>
+        <v>0.285468</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6251,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.348213</v>
+        <v>0.341221</v>
       </c>
       <c r="C124" t="n">
-        <v>0.395181</v>
+        <v>0.398034</v>
       </c>
       <c r="D124" t="n">
-        <v>0.275625</v>
+        <v>0.276036</v>
       </c>
       <c r="E124" t="n">
-        <v>0.287298</v>
+        <v>0.288532</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6268,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.350304</v>
+        <v>0.341363</v>
       </c>
       <c r="C125" t="n">
-        <v>0.40278</v>
+        <v>0.404753</v>
       </c>
       <c r="D125" t="n">
-        <v>0.278408</v>
+        <v>0.274776</v>
       </c>
       <c r="E125" t="n">
-        <v>0.289504</v>
+        <v>0.289754</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6285,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.348053</v>
+        <v>0.350042</v>
       </c>
       <c r="C126" t="n">
-        <v>0.405704</v>
+        <v>0.407408</v>
       </c>
       <c r="D126" t="n">
-        <v>0.280718</v>
+        <v>0.278142</v>
       </c>
       <c r="E126" t="n">
-        <v>0.291251</v>
+        <v>0.290476</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6302,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.346477</v>
+        <v>0.34846</v>
       </c>
       <c r="C127" t="n">
-        <v>0.418496</v>
+        <v>0.416843</v>
       </c>
       <c r="D127" t="n">
-        <v>0.284353</v>
+        <v>0.284688</v>
       </c>
       <c r="E127" t="n">
-        <v>0.29344</v>
+        <v>0.294623</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6319,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.348679</v>
+        <v>0.342653</v>
       </c>
       <c r="C128" t="n">
-        <v>0.420605</v>
+        <v>0.423847</v>
       </c>
       <c r="D128" t="n">
-        <v>0.286672</v>
+        <v>0.287183</v>
       </c>
       <c r="E128" t="n">
-        <v>0.296899</v>
+        <v>0.296831</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6336,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.348835</v>
+        <v>0.348682</v>
       </c>
       <c r="C129" t="n">
-        <v>0.434908</v>
+        <v>0.437318</v>
       </c>
       <c r="D129" t="n">
-        <v>0.290635</v>
+        <v>0.286484</v>
       </c>
       <c r="E129" t="n">
-        <v>0.300457</v>
+        <v>0.300025</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6353,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.347792</v>
+        <v>0.347392</v>
       </c>
       <c r="C130" t="n">
-        <v>0.439427</v>
+        <v>0.442319</v>
       </c>
       <c r="D130" t="n">
-        <v>0.293078</v>
+        <v>0.294691</v>
       </c>
       <c r="E130" t="n">
-        <v>0.296771</v>
+        <v>0.297515</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6370,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.347773</v>
+        <v>0.348106</v>
       </c>
       <c r="C131" t="n">
-        <v>0.446675</v>
+        <v>0.449393</v>
       </c>
       <c r="D131" t="n">
-        <v>0.297489</v>
+        <v>0.298342</v>
       </c>
       <c r="E131" t="n">
-        <v>0.301277</v>
+        <v>0.301607</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6387,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.350206</v>
+        <v>0.348514</v>
       </c>
       <c r="C132" t="n">
-        <v>0.457376</v>
+        <v>0.456179</v>
       </c>
       <c r="D132" t="n">
-        <v>0.301843</v>
+        <v>0.302378</v>
       </c>
       <c r="E132" t="n">
-        <v>0.30703</v>
+        <v>0.307051</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6404,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.350366</v>
+        <v>0.351307</v>
       </c>
       <c r="C133" t="n">
-        <v>0.465237</v>
+        <v>0.465057</v>
       </c>
       <c r="D133" t="n">
-        <v>0.305882</v>
+        <v>0.306703</v>
       </c>
       <c r="E133" t="n">
-        <v>0.313111</v>
+        <v>0.313554</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6421,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.350843</v>
+        <v>0.344256</v>
       </c>
       <c r="C134" t="n">
-        <v>0.481951</v>
+        <v>0.484963</v>
       </c>
       <c r="D134" t="n">
-        <v>0.311027</v>
+        <v>0.311557</v>
       </c>
       <c r="E134" t="n">
-        <v>0.321636</v>
+        <v>0.320845</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6438,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.353384</v>
+        <v>0.353284</v>
       </c>
       <c r="C135" t="n">
-        <v>0.392738</v>
+        <v>0.394493</v>
       </c>
       <c r="D135" t="n">
-        <v>0.317324</v>
+        <v>0.312717</v>
       </c>
       <c r="E135" t="n">
-        <v>0.332372</v>
+        <v>0.331346</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6455,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.355339</v>
+        <v>0.357024</v>
       </c>
       <c r="C136" t="n">
-        <v>0.398718</v>
+        <v>0.40063</v>
       </c>
       <c r="D136" t="n">
-        <v>0.325863</v>
+        <v>0.320367</v>
       </c>
       <c r="E136" t="n">
-        <v>0.346592</v>
+        <v>0.347191</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6472,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.358536</v>
+        <v>0.349975</v>
       </c>
       <c r="C137" t="n">
-        <v>0.399433</v>
+        <v>0.401471</v>
       </c>
       <c r="D137" t="n">
-        <v>0.295523</v>
+        <v>0.29178</v>
       </c>
       <c r="E137" t="n">
-        <v>0.304973</v>
+        <v>0.30542</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6489,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.406212</v>
+        <v>0.407786</v>
       </c>
       <c r="C138" t="n">
-        <v>0.412542</v>
+        <v>0.411825</v>
       </c>
       <c r="D138" t="n">
-        <v>0.298004</v>
+        <v>0.298394</v>
       </c>
       <c r="E138" t="n">
-        <v>0.307216</v>
+        <v>0.304121</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6506,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.406409</v>
+        <v>0.407354</v>
       </c>
       <c r="C139" t="n">
-        <v>0.41787</v>
+        <v>0.420264</v>
       </c>
       <c r="D139" t="n">
-        <v>0.299936</v>
+        <v>0.300982</v>
       </c>
       <c r="E139" t="n">
-        <v>0.309355</v>
+        <v>0.30958</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6523,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.407092</v>
+        <v>0.406284</v>
       </c>
       <c r="C140" t="n">
-        <v>0.421571</v>
+        <v>0.420585</v>
       </c>
       <c r="D140" t="n">
-        <v>0.302014</v>
+        <v>0.302646</v>
       </c>
       <c r="E140" t="n">
-        <v>0.312625</v>
+        <v>0.310556</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6540,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.407814</v>
+        <v>0.40789</v>
       </c>
       <c r="C141" t="n">
-        <v>0.434144</v>
+        <v>0.43611</v>
       </c>
       <c r="D141" t="n">
-        <v>0.305133</v>
+        <v>0.30524</v>
       </c>
       <c r="E141" t="n">
-        <v>0.31473</v>
+        <v>0.315476</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6557,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.405527</v>
+        <v>0.406563</v>
       </c>
       <c r="C142" t="n">
-        <v>0.436112</v>
+        <v>0.437907</v>
       </c>
       <c r="D142" t="n">
-        <v>0.307124</v>
+        <v>0.307288</v>
       </c>
       <c r="E142" t="n">
-        <v>0.31833</v>
+        <v>0.310525</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6574,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.405855</v>
+        <v>0.405892</v>
       </c>
       <c r="C143" t="n">
-        <v>0.450181</v>
+        <v>0.452779</v>
       </c>
       <c r="D143" t="n">
-        <v>0.309587</v>
+        <v>0.303561</v>
       </c>
       <c r="E143" t="n">
-        <v>0.31777</v>
+        <v>0.318136</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -4139,7 +4139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I27" sqref="I27"/>
@@ -4177,16 +4177,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0358633</v>
+        <v>0.0350908</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0693608</v>
+        <v>0.0367167</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0382185</v>
+        <v>0.071093</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0374351</v>
+        <v>0.0362821</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0381828</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4197,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0415052</v>
+        <v>0.0357671</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0758344</v>
+        <v>0.0366569</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0384177</v>
+        <v>0.07754949999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0381137</v>
+        <v>0.036364</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0387491</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4217,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0373239</v>
+        <v>0.0357208</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0846495</v>
+        <v>0.0365276</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0384789</v>
+        <v>0.0853438</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0384263</v>
+        <v>0.0372978</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0389359</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4237,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0374828</v>
+        <v>0.0357971</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0912309</v>
+        <v>0.0365144</v>
       </c>
       <c r="D5" t="n">
-        <v>0.039507</v>
+        <v>0.09283959999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0388051</v>
+        <v>0.0375457</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0391281</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4257,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0380111</v>
+        <v>0.0352303</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09865980000000001</v>
+        <v>0.0384053</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0400013</v>
+        <v>0.100837</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0392582</v>
+        <v>0.0375375</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0397294</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4277,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0388728</v>
+        <v>0.0359432</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0639029</v>
+        <v>0.0368626</v>
       </c>
       <c r="D7" t="n">
-        <v>0.039996</v>
+        <v>0.0617056</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0398032</v>
+        <v>0.0382128</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0400477</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4297,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0381829</v>
+        <v>0.0364314</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0671742</v>
+        <v>0.037282</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0440082</v>
+        <v>0.0661419</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0411988</v>
+        <v>0.0397135</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0419301</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4317,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0425895</v>
+        <v>0.0368029</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0704231</v>
+        <v>0.0374522</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0437096</v>
+        <v>0.07105400000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0440196</v>
+        <v>0.0386037</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0404985</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4337,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0459316</v>
+        <v>0.0429614</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07629039999999999</v>
+        <v>0.042089</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0424019</v>
+        <v>0.07495</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0442995</v>
+        <v>0.0396365</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0405578</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4357,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0457716</v>
+        <v>0.0430483</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0811853</v>
+        <v>0.0419096</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0431894</v>
+        <v>0.08101120000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0445682</v>
+        <v>0.0399896</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0408811</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4377,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0457485</v>
+        <v>0.0431818</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0866314</v>
+        <v>0.0420074</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0448318</v>
+        <v>0.08735039999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0449393</v>
+        <v>0.0403824</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0410548</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4397,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.045837</v>
+        <v>0.0434436</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0921819</v>
+        <v>0.0421568</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0452432</v>
+        <v>0.0916275</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0450714</v>
+        <v>0.0406436</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0414417</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4417,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0460386</v>
+        <v>0.0435956</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0969554</v>
+        <v>0.0426463</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0441651</v>
+        <v>0.0971137</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0454372</v>
+        <v>0.0410314</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0417256</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4437,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0450086</v>
+        <v>0.0435861</v>
       </c>
       <c r="C15" t="n">
-        <v>0.103273</v>
+        <v>0.0423531</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0450949</v>
+        <v>0.102326</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0458403</v>
+        <v>0.0412929</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.0420477</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4457,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0458687</v>
+        <v>0.0436961</v>
       </c>
       <c r="C16" t="n">
-        <v>0.108661</v>
+        <v>0.0425658</v>
       </c>
       <c r="D16" t="n">
-        <v>0.044816</v>
+        <v>0.107275</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0461921</v>
+        <v>0.0415211</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0423193</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4477,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0460954</v>
+        <v>0.0438079</v>
       </c>
       <c r="C17" t="n">
-        <v>0.113626</v>
+        <v>0.0433271</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0457847</v>
+        <v>0.112386</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0463296</v>
+        <v>0.0422994</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0426057</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4497,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0464314</v>
+        <v>0.0438206</v>
       </c>
       <c r="C18" t="n">
-        <v>0.118834</v>
+        <v>0.0427331</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0471403</v>
+        <v>0.116985</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0466557</v>
+        <v>0.0421695</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0429901</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4517,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0463105</v>
+        <v>0.0441266</v>
       </c>
       <c r="C19" t="n">
-        <v>0.123862</v>
+        <v>0.0428534</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0459266</v>
+        <v>0.12156</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0468139</v>
+        <v>0.04241</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.0431322</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4537,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.045669</v>
+        <v>0.0441767</v>
       </c>
       <c r="C20" t="n">
-        <v>0.126641</v>
+        <v>0.0431105</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0450246</v>
+        <v>0.125104</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0475379</v>
+        <v>0.0427695</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0438398</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4557,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0458162</v>
+        <v>0.0444171</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0882973</v>
+        <v>0.0434036</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0454757</v>
+        <v>0.0890151</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0456452</v>
+        <v>0.0442931</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0446181</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4577,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0461255</v>
+        <v>0.044896</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0909295</v>
+        <v>0.0440469</v>
       </c>
       <c r="D22" t="n">
-        <v>0.049916</v>
+        <v>0.09179329999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0496482</v>
+        <v>0.0466862</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0485898</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4597,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0461954</v>
+        <v>0.0455039</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0943804</v>
+        <v>0.0452512</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0461117</v>
+        <v>0.094915</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0470346</v>
+        <v>0.0451403</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0465627</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4617,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0492388</v>
+        <v>0.0486723</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0981544</v>
+        <v>0.0498299</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0460395</v>
+        <v>0.0989618</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0469561</v>
+        <v>0.0456813</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0468157</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4637,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0495096</v>
+        <v>0.0486952</v>
       </c>
       <c r="C25" t="n">
-        <v>0.101809</v>
+        <v>0.0497967</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0465287</v>
+        <v>0.10202</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0471474</v>
+        <v>0.0458406</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0469753</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4657,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0493532</v>
+        <v>0.0487746</v>
       </c>
       <c r="C26" t="n">
-        <v>0.105489</v>
+        <v>0.0500451</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0466771</v>
+        <v>0.105724</v>
       </c>
       <c r="E26" t="n">
-        <v>0.047139</v>
+        <v>0.0461734</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0472632</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4677,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0494002</v>
+        <v>0.0489315</v>
       </c>
       <c r="C27" t="n">
-        <v>0.109097</v>
+        <v>0.0500876</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0472044</v>
+        <v>0.109818</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0473973</v>
+        <v>0.0465692</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0476234</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4697,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0496448</v>
+        <v>0.0492176</v>
       </c>
       <c r="C28" t="n">
-        <v>0.11324</v>
+        <v>0.0502627</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0472846</v>
+        <v>0.113835</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0476188</v>
+        <v>0.0466281</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.047929</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4717,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0497654</v>
+        <v>0.0490935</v>
       </c>
       <c r="C29" t="n">
-        <v>0.117344</v>
+        <v>0.0502862</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0475954</v>
+        <v>0.117821</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0479002</v>
+        <v>0.0469302</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0481819</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4737,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0498244</v>
+        <v>0.0490577</v>
       </c>
       <c r="C30" t="n">
-        <v>0.121794</v>
+        <v>0.050097</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0482264</v>
+        <v>0.121807</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0484912</v>
+        <v>0.0471343</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0480935</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4757,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0499602</v>
+        <v>0.0490868</v>
       </c>
       <c r="C31" t="n">
-        <v>0.125545</v>
+        <v>0.0504616</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0482008</v>
+        <v>0.126011</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0485793</v>
+        <v>0.0475652</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0487502</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4777,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0500927</v>
+        <v>0.0492361</v>
       </c>
       <c r="C32" t="n">
-        <v>0.12928</v>
+        <v>0.0504018</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0483934</v>
+        <v>0.129128</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0491014</v>
+        <v>0.0478704</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.0486684</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4797,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0502363</v>
+        <v>0.0493264</v>
       </c>
       <c r="C33" t="n">
-        <v>0.132911</v>
+        <v>0.0505037</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0489243</v>
+        <v>0.132704</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0493162</v>
+        <v>0.0481099</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.0493288</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4817,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0504099</v>
+        <v>0.0495444</v>
       </c>
       <c r="C34" t="n">
-        <v>0.136782</v>
+        <v>0.0506094</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0499167</v>
+        <v>0.135949</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0503946</v>
+        <v>0.0483375</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.0502437</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4837,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0505422</v>
+        <v>0.0501832</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0957698</v>
+        <v>0.0513258</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0542352</v>
+        <v>0.0969979</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0533041</v>
+        <v>0.0518208</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.0543136</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4857,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0511026</v>
+        <v>0.0501854</v>
       </c>
       <c r="C36" t="n">
-        <v>0.09807109999999999</v>
+        <v>0.0516644</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0611473</v>
+        <v>0.099382</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0622817</v>
+        <v>0.0588372</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.0627332</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4877,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0535217</v>
+        <v>0.0546754</v>
       </c>
       <c r="C37" t="n">
-        <v>0.100421</v>
+        <v>0.0555649</v>
       </c>
       <c r="D37" t="n">
-        <v>0.050262</v>
+        <v>0.101549</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0501242</v>
+        <v>0.0492769</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0500464</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4897,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0544468</v>
+        <v>0.0548323</v>
       </c>
       <c r="C38" t="n">
-        <v>0.103231</v>
+        <v>0.0563784</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0500421</v>
+        <v>0.104252</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0504681</v>
+        <v>0.0493414</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.0505001</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4917,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0541619</v>
+        <v>0.0534163</v>
       </c>
       <c r="C39" t="n">
-        <v>0.106181</v>
+        <v>0.0563855</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0502398</v>
+        <v>0.107047</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0507227</v>
+        <v>0.0494699</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.0510057</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4937,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0543881</v>
+        <v>0.0535667</v>
       </c>
       <c r="C40" t="n">
-        <v>0.109651</v>
+        <v>0.0565111</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0506078</v>
+        <v>0.110313</v>
       </c>
       <c r="E40" t="n">
-        <v>0.051314</v>
+        <v>0.0499764</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.0512291</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4957,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0537541</v>
+        <v>0.0537793</v>
       </c>
       <c r="C41" t="n">
-        <v>0.113182</v>
+        <v>0.0566288</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0510901</v>
+        <v>0.113741</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0513013</v>
+        <v>0.0502298</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.0515117</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4977,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0545057</v>
+        <v>0.0537629</v>
       </c>
       <c r="C42" t="n">
-        <v>0.116936</v>
+        <v>0.0567006</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0515245</v>
+        <v>0.117296</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0516813</v>
+        <v>0.0506133</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.0515681</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4997,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0546025</v>
+        <v>0.0537325</v>
       </c>
       <c r="C43" t="n">
-        <v>0.120901</v>
+        <v>0.0568043</v>
       </c>
       <c r="D43" t="n">
-        <v>0.052338</v>
+        <v>0.121262</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0519389</v>
+        <v>0.051023</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.051995</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +5017,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.05472</v>
+        <v>0.0540932</v>
       </c>
       <c r="C44" t="n">
-        <v>0.125105</v>
+        <v>0.0568303</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0520591</v>
+        <v>0.125197</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0522631</v>
+        <v>0.0514217</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.0521128</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +5037,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0548982</v>
+        <v>0.0544895</v>
       </c>
       <c r="C45" t="n">
-        <v>0.129137</v>
+        <v>0.0569714</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0532014</v>
+        <v>0.12918</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0525514</v>
+        <v>0.0514506</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.0526581</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +5057,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0544204</v>
+        <v>0.0544117</v>
       </c>
       <c r="C46" t="n">
-        <v>0.132994</v>
+        <v>0.0569939</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0534659</v>
+        <v>0.132719</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0530391</v>
+        <v>0.0519031</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.0533346</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +5077,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0551822</v>
+        <v>0.0546072</v>
       </c>
       <c r="C47" t="n">
-        <v>0.136212</v>
+        <v>0.0571782</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0547791</v>
+        <v>0.135843</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0542788</v>
+        <v>0.053205</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.0551921</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +5097,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0551335</v>
+        <v>0.0552546</v>
       </c>
       <c r="C48" t="n">
-        <v>0.140076</v>
+        <v>0.0575942</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0580283</v>
+        <v>0.139528</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0569612</v>
+        <v>0.0558953</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.0582327</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +5117,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0552376</v>
+        <v>0.0563148</v>
       </c>
       <c r="C49" t="n">
-        <v>0.143223</v>
+        <v>0.0584145</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0616923</v>
+        <v>0.142386</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0614118</v>
+        <v>0.0598524</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.0625276</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +5137,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0571031</v>
+        <v>0.0587726</v>
       </c>
       <c r="C50" t="n">
-        <v>0.100147</v>
+        <v>0.0608284</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0663343</v>
+        <v>0.101469</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0668554</v>
+        <v>0.06470190000000001</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.06786929999999999</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5157,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0610792</v>
+        <v>0.0620344</v>
       </c>
       <c r="C51" t="n">
-        <v>0.102449</v>
+        <v>0.06376419999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0542125</v>
+        <v>0.103693</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0527643</v>
+        <v>0.0535312</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.0529993</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5177,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.065972</v>
+        <v>0.0672002</v>
       </c>
       <c r="C52" t="n">
-        <v>0.105092</v>
+        <v>0.0707218</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0531158</v>
+        <v>0.106141</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0545724</v>
+        <v>0.0523317</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.0530632</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5197,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0606492</v>
+        <v>0.0604152</v>
       </c>
       <c r="C53" t="n">
-        <v>0.107851</v>
+        <v>0.06325989999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0533198</v>
+        <v>0.108988</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0548202</v>
+        <v>0.0528922</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.0536789</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5217,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0606431</v>
+        <v>0.0603353</v>
       </c>
       <c r="C54" t="n">
-        <v>0.111134</v>
+        <v>0.0631852</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0538455</v>
+        <v>0.112</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0551523</v>
+        <v>0.0530502</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.0539703</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5237,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0607801</v>
+        <v>0.060562</v>
       </c>
       <c r="C55" t="n">
-        <v>0.114776</v>
+        <v>0.06334190000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0542572</v>
+        <v>0.115469</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0554468</v>
+        <v>0.0534054</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.0543438</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5257,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0608857</v>
+        <v>0.0606829</v>
       </c>
       <c r="C56" t="n">
-        <v>0.118679</v>
+        <v>0.0636038</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0545022</v>
+        <v>0.119049</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0556837</v>
+        <v>0.0538335</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.0546198</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5277,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0611466</v>
+        <v>0.0611906</v>
       </c>
       <c r="C57" t="n">
-        <v>0.122773</v>
+        <v>0.06374109999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0552693</v>
+        <v>0.12294</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0565461</v>
+        <v>0.0542517</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.0554292</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5297,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.061403</v>
+        <v>0.0612313</v>
       </c>
       <c r="C58" t="n">
-        <v>0.126871</v>
+        <v>0.06404029999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0567612</v>
+        <v>0.126692</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0571251</v>
+        <v>0.0547309</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.0558868</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5317,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0612769</v>
+        <v>0.0612687</v>
       </c>
       <c r="C59" t="n">
-        <v>0.131144</v>
+        <v>0.06397890000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0575195</v>
+        <v>0.130456</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0578647</v>
+        <v>0.055343</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.0570932</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5337,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0616039</v>
+        <v>0.0615568</v>
       </c>
       <c r="C60" t="n">
-        <v>0.135199</v>
+        <v>0.0642218</v>
       </c>
       <c r="D60" t="n">
-        <v>0.059095</v>
+        <v>0.134237</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0594306</v>
+        <v>0.0567117</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.0587697</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5357,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0620731</v>
+        <v>0.0616333</v>
       </c>
       <c r="C61" t="n">
-        <v>0.138966</v>
+        <v>0.06487850000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0608092</v>
+        <v>0.138272</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0618664</v>
+        <v>0.0589873</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.0612919</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5377,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0626871</v>
+        <v>0.0621054</v>
       </c>
       <c r="C62" t="n">
-        <v>0.142712</v>
+        <v>0.0654826</v>
       </c>
       <c r="D62" t="n">
-        <v>0.063307</v>
+        <v>0.14179</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0649402</v>
+        <v>0.0614189</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.06444179999999999</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5397,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0637397</v>
+        <v>0.0643078</v>
       </c>
       <c r="C63" t="n">
-        <v>0.146576</v>
+        <v>0.067373</v>
       </c>
       <c r="D63" t="n">
-        <v>0.06605900000000001</v>
+        <v>0.145201</v>
       </c>
       <c r="E63" t="n">
-        <v>0.06843109999999999</v>
+        <v>0.06427910000000001</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.0677676</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5417,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0648852</v>
+        <v>0.06573420000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.11085</v>
+        <v>0.0697709</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0699621</v>
+        <v>0.109554</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0728352</v>
+        <v>0.06837</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.0728787</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5437,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0680984</v>
+        <v>0.06881429999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>0.113498</v>
+        <v>0.07318860000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0762138</v>
+        <v>0.113961</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0797804</v>
+        <v>0.0743385</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.07975260000000001</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5457,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.071645</v>
+        <v>0.0725915</v>
       </c>
       <c r="C66" t="n">
-        <v>0.117681</v>
+        <v>0.0782877</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0574235</v>
+        <v>0.115412</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0596386</v>
+        <v>0.057257</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.0594095</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5477,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0711421</v>
+        <v>0.071385</v>
       </c>
       <c r="C67" t="n">
-        <v>0.121573</v>
+        <v>0.0718442</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0577276</v>
+        <v>0.120826</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0603465</v>
+        <v>0.0557436</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.0602819</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5497,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.07125339999999999</v>
+        <v>0.0720384</v>
       </c>
       <c r="C68" t="n">
-        <v>0.12775</v>
+        <v>0.07203710000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0569315</v>
+        <v>0.126733</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0614461</v>
+        <v>0.0565948</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.060856</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5517,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0717465</v>
+        <v>0.07369299999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>0.133607</v>
+        <v>0.0726405</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0577694</v>
+        <v>0.132794</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0621139</v>
+        <v>0.0584031</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.062152</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5537,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0711126</v>
+        <v>0.0723954</v>
       </c>
       <c r="C70" t="n">
-        <v>0.140209</v>
+        <v>0.0732922</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0581492</v>
+        <v>0.137619</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0632897</v>
+        <v>0.0569066</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.0631338</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5557,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0732076</v>
+        <v>0.0729592</v>
       </c>
       <c r="C71" t="n">
-        <v>0.145932</v>
+        <v>0.0739205</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0586853</v>
+        <v>0.143169</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0641511</v>
+        <v>0.0580634</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.06425069999999999</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5577,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0728114</v>
+        <v>0.0753562</v>
       </c>
       <c r="C72" t="n">
-        <v>0.1532</v>
+        <v>0.0742666</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0596597</v>
+        <v>0.150322</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0658046</v>
+        <v>0.0584939</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.06591610000000001</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5597,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0727259</v>
+        <v>0.07483049999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>0.15803</v>
+        <v>0.07568220000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0610899</v>
+        <v>0.157195</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0675543</v>
+        <v>0.059525</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.0682712</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5617,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.076167</v>
+        <v>0.07507419999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>0.169676</v>
+        <v>0.07671260000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>0.06276130000000001</v>
+        <v>0.167482</v>
       </c>
       <c r="E74" t="n">
-        <v>0.07070419999999999</v>
+        <v>0.0614127</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.0708251</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5637,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0767152</v>
+        <v>0.0763151</v>
       </c>
       <c r="C75" t="n">
-        <v>0.177324</v>
+        <v>0.0770537</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0644412</v>
+        <v>0.174881</v>
       </c>
       <c r="E75" t="n">
-        <v>0.073481</v>
+        <v>0.063081</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.07405680000000001</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5657,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0770243</v>
+        <v>0.07658089999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.184738</v>
+        <v>0.0787598</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0663261</v>
+        <v>0.181854</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0766908</v>
+        <v>0.0655092</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.0779995</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5677,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.07400909999999999</v>
+        <v>0.0772299</v>
       </c>
       <c r="C77" t="n">
-        <v>0.192964</v>
+        <v>0.0808388</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0698233</v>
+        <v>0.194227</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0808659</v>
+        <v>0.06817189999999999</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.0822309</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5697,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0806209</v>
+        <v>0.0778784</v>
       </c>
       <c r="C78" t="n">
-        <v>0.186075</v>
+        <v>0.0840129</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0738944</v>
+        <v>0.185841</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0861437</v>
+        <v>0.0714284</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.0872882</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5717,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0808717</v>
+        <v>0.0819858</v>
       </c>
       <c r="C79" t="n">
-        <v>0.19378</v>
+        <v>0.0880306</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0795028</v>
+        <v>0.193814</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0950183</v>
+        <v>0.077153</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.09502240000000001</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5737,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0858705</v>
+        <v>0.08486200000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>0.202511</v>
+        <v>0.09394130000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>0.103619</v>
+        <v>0.202301</v>
       </c>
       <c r="E80" t="n">
-        <v>0.103997</v>
+        <v>0.105019</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.102976</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5757,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.17242</v>
+        <v>0.172868</v>
       </c>
       <c r="C81" t="n">
-        <v>0.210641</v>
+        <v>0.141011</v>
       </c>
       <c r="D81" t="n">
-        <v>0.105747</v>
+        <v>0.211255</v>
       </c>
       <c r="E81" t="n">
-        <v>0.106713</v>
+        <v>0.108536</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.103748</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5777,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.173234</v>
+        <v>0.175805</v>
       </c>
       <c r="C82" t="n">
-        <v>0.218041</v>
+        <v>0.141645</v>
       </c>
       <c r="D82" t="n">
-        <v>0.108167</v>
+        <v>0.218885</v>
       </c>
       <c r="E82" t="n">
-        <v>0.107369</v>
+        <v>0.110547</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.105589</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5797,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.174516</v>
+        <v>0.176921</v>
       </c>
       <c r="C83" t="n">
-        <v>0.230501</v>
+        <v>0.142142</v>
       </c>
       <c r="D83" t="n">
-        <v>0.110812</v>
+        <v>0.227483</v>
       </c>
       <c r="E83" t="n">
-        <v>0.108097</v>
+        <v>0.113079</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.106144</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5817,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.175288</v>
+        <v>0.177431</v>
       </c>
       <c r="C84" t="n">
-        <v>0.236438</v>
+        <v>0.143213</v>
       </c>
       <c r="D84" t="n">
-        <v>0.11323</v>
+        <v>0.238655</v>
       </c>
       <c r="E84" t="n">
-        <v>0.109385</v>
+        <v>0.114596</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.107014</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5837,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.17595</v>
+        <v>0.178638</v>
       </c>
       <c r="C85" t="n">
-        <v>0.246596</v>
+        <v>0.14304</v>
       </c>
       <c r="D85" t="n">
-        <v>0.115158</v>
+        <v>0.24996</v>
       </c>
       <c r="E85" t="n">
-        <v>0.106922</v>
+        <v>0.116211</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.111154</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5857,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.176966</v>
+        <v>0.178366</v>
       </c>
       <c r="C86" t="n">
-        <v>0.258008</v>
+        <v>0.1445</v>
       </c>
       <c r="D86" t="n">
-        <v>0.117338</v>
+        <v>0.256979</v>
       </c>
       <c r="E86" t="n">
-        <v>0.108241</v>
+        <v>0.118273</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.112622</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5877,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.176967</v>
+        <v>0.179477</v>
       </c>
       <c r="C87" t="n">
-        <v>0.265916</v>
+        <v>0.14529</v>
       </c>
       <c r="D87" t="n">
-        <v>0.121623</v>
+        <v>0.271024</v>
       </c>
       <c r="E87" t="n">
-        <v>0.110814</v>
+        <v>0.120267</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.114315</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5897,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.178842</v>
+        <v>0.18075</v>
       </c>
       <c r="C88" t="n">
-        <v>0.277737</v>
+        <v>0.147587</v>
       </c>
       <c r="D88" t="n">
-        <v>0.122406</v>
+        <v>0.279166</v>
       </c>
       <c r="E88" t="n">
-        <v>0.115257</v>
+        <v>0.123143</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.11484</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5917,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.178928</v>
+        <v>0.180698</v>
       </c>
       <c r="C89" t="n">
-        <v>0.286251</v>
+        <v>0.147565</v>
       </c>
       <c r="D89" t="n">
-        <v>0.124587</v>
+        <v>0.288677</v>
       </c>
       <c r="E89" t="n">
-        <v>0.117419</v>
+        <v>0.126309</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.116774</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5937,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.178996</v>
+        <v>0.181212</v>
       </c>
       <c r="C90" t="n">
-        <v>0.295204</v>
+        <v>0.15063</v>
       </c>
       <c r="D90" t="n">
-        <v>0.126967</v>
+        <v>0.298792</v>
       </c>
       <c r="E90" t="n">
-        <v>0.11966</v>
+        <v>0.128882</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.116988</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5957,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.180976</v>
+        <v>0.183702</v>
       </c>
       <c r="C91" t="n">
-        <v>0.305147</v>
+        <v>0.150216</v>
       </c>
       <c r="D91" t="n">
-        <v>0.129493</v>
+        <v>0.309646</v>
       </c>
       <c r="E91" t="n">
-        <v>0.121091</v>
+        <v>0.13026</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.121187</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5977,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.182073</v>
+        <v>0.183543</v>
       </c>
       <c r="C92" t="n">
-        <v>0.289942</v>
+        <v>0.152806</v>
       </c>
       <c r="D92" t="n">
-        <v>0.134508</v>
+        <v>0.289594</v>
       </c>
       <c r="E92" t="n">
-        <v>0.127253</v>
+        <v>0.133516</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.126088</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5997,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.183329</v>
+        <v>0.184684</v>
       </c>
       <c r="C93" t="n">
-        <v>0.29692</v>
+        <v>0.156688</v>
       </c>
       <c r="D93" t="n">
-        <v>0.137897</v>
+        <v>0.294366</v>
       </c>
       <c r="E93" t="n">
-        <v>0.131306</v>
+        <v>0.137893</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.135418</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +6017,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.185359</v>
+        <v>0.185819</v>
       </c>
       <c r="C94" t="n">
-        <v>0.304534</v>
+        <v>0.163676</v>
       </c>
       <c r="D94" t="n">
-        <v>0.206944</v>
+        <v>0.300517</v>
       </c>
       <c r="E94" t="n">
-        <v>0.201728</v>
+        <v>0.207367</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.200837</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +6037,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.239017</v>
+        <v>0.245845</v>
       </c>
       <c r="C95" t="n">
-        <v>0.309088</v>
+        <v>0.222476</v>
       </c>
       <c r="D95" t="n">
-        <v>0.209388</v>
+        <v>0.307135</v>
       </c>
       <c r="E95" t="n">
-        <v>0.201463</v>
+        <v>0.20944</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.201881</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +6057,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.23915</v>
+        <v>0.246039</v>
       </c>
       <c r="C96" t="n">
-        <v>0.31577</v>
+        <v>0.222574</v>
       </c>
       <c r="D96" t="n">
-        <v>0.201077</v>
+        <v>0.318586</v>
       </c>
       <c r="E96" t="n">
-        <v>0.202263</v>
+        <v>0.210249</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.203052</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +6077,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.240169</v>
+        <v>0.24533</v>
       </c>
       <c r="C97" t="n">
-        <v>0.326997</v>
+        <v>0.223549</v>
       </c>
       <c r="D97" t="n">
-        <v>0.211789</v>
+        <v>0.324478</v>
       </c>
       <c r="E97" t="n">
-        <v>0.203169</v>
+        <v>0.212856</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.20382</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +6097,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.239318</v>
+        <v>0.244827</v>
       </c>
       <c r="C98" t="n">
-        <v>0.331393</v>
+        <v>0.223659</v>
       </c>
       <c r="D98" t="n">
-        <v>0.21343</v>
+        <v>0.3337</v>
       </c>
       <c r="E98" t="n">
-        <v>0.204418</v>
+        <v>0.213877</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.20512</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +6117,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.239365</v>
+        <v>0.24577</v>
       </c>
       <c r="C99" t="n">
-        <v>0.340661</v>
+        <v>0.224062</v>
       </c>
       <c r="D99" t="n">
-        <v>0.215283</v>
+        <v>0.341612</v>
       </c>
       <c r="E99" t="n">
-        <v>0.20554</v>
+        <v>0.215677</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.206863</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +6137,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.240132</v>
+        <v>0.245888</v>
       </c>
       <c r="C100" t="n">
-        <v>0.349097</v>
+        <v>0.224664</v>
       </c>
       <c r="D100" t="n">
-        <v>0.209716</v>
+        <v>0.349666</v>
       </c>
       <c r="E100" t="n">
-        <v>0.206491</v>
+        <v>0.21754</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.208216</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +6157,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.240362</v>
+        <v>0.245962</v>
       </c>
       <c r="C101" t="n">
-        <v>0.35782</v>
+        <v>0.225261</v>
       </c>
       <c r="D101" t="n">
-        <v>0.220694</v>
+        <v>0.359541</v>
       </c>
       <c r="E101" t="n">
-        <v>0.208082</v>
+        <v>0.219257</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.210075</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +6177,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.240132</v>
+        <v>0.246433</v>
       </c>
       <c r="C102" t="n">
-        <v>0.369594</v>
+        <v>0.226013</v>
       </c>
       <c r="D102" t="n">
-        <v>0.214451</v>
+        <v>0.368452</v>
       </c>
       <c r="E102" t="n">
-        <v>0.209534</v>
+        <v>0.220846</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.21061</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +6197,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.240588</v>
+        <v>0.246618</v>
       </c>
       <c r="C103" t="n">
-        <v>0.378776</v>
+        <v>0.227369</v>
       </c>
       <c r="D103" t="n">
-        <v>0.224667</v>
+        <v>0.378822</v>
       </c>
       <c r="E103" t="n">
-        <v>0.213916</v>
+        <v>0.223221</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.213295</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +6217,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.240941</v>
+        <v>0.246004</v>
       </c>
       <c r="C104" t="n">
-        <v>0.387298</v>
+        <v>0.229012</v>
       </c>
       <c r="D104" t="n">
-        <v>0.225814</v>
+        <v>0.387174</v>
       </c>
       <c r="E104" t="n">
-        <v>0.215015</v>
+        <v>0.22626</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.214972</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +6237,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.241561</v>
+        <v>0.247256</v>
       </c>
       <c r="C105" t="n">
-        <v>0.394543</v>
+        <v>0.230546</v>
       </c>
       <c r="D105" t="n">
-        <v>0.229303</v>
+        <v>0.39664</v>
       </c>
       <c r="E105" t="n">
-        <v>0.218772</v>
+        <v>0.227643</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.219675</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +6257,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.243135</v>
+        <v>0.248596</v>
       </c>
       <c r="C106" t="n">
-        <v>0.407439</v>
+        <v>0.232616</v>
       </c>
       <c r="D106" t="n">
-        <v>0.224307</v>
+        <v>0.40686</v>
       </c>
       <c r="E106" t="n">
-        <v>0.22396</v>
+        <v>0.231374</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.224376</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +6277,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.244686</v>
+        <v>0.24894</v>
       </c>
       <c r="C107" t="n">
-        <v>0.351419</v>
+        <v>0.236977</v>
       </c>
       <c r="D107" t="n">
-        <v>0.236372</v>
+        <v>0.351631</v>
       </c>
       <c r="E107" t="n">
-        <v>0.230437</v>
+        <v>0.235145</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.229993</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +6297,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.24656</v>
+        <v>0.252099</v>
       </c>
       <c r="C108" t="n">
-        <v>0.356603</v>
+        <v>0.241618</v>
       </c>
       <c r="D108" t="n">
-        <v>0.253804</v>
+        <v>0.357842</v>
       </c>
       <c r="E108" t="n">
-        <v>0.247247</v>
+        <v>0.252858</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.253586</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +6317,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.251784</v>
+        <v>0.257227</v>
       </c>
       <c r="C109" t="n">
-        <v>0.362207</v>
+        <v>0.250055</v>
       </c>
       <c r="D109" t="n">
-        <v>0.255824</v>
+        <v>0.358964</v>
       </c>
       <c r="E109" t="n">
-        <v>0.251259</v>
+        <v>0.255008</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.25443</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6337,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.267814</v>
+        <v>0.283292</v>
       </c>
       <c r="C110" t="n">
-        <v>0.368764</v>
+        <v>0.275911</v>
       </c>
       <c r="D110" t="n">
-        <v>0.250782</v>
+        <v>0.366028</v>
       </c>
       <c r="E110" t="n">
-        <v>0.256149</v>
+        <v>0.253055</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.255859</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6357,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.267591</v>
+        <v>0.282895</v>
       </c>
       <c r="C111" t="n">
-        <v>0.376073</v>
+        <v>0.27728</v>
       </c>
       <c r="D111" t="n">
-        <v>0.253542</v>
+        <v>0.377208</v>
       </c>
       <c r="E111" t="n">
-        <v>0.256875</v>
+        <v>0.252725</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.258241</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6377,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.272568</v>
+        <v>0.281512</v>
       </c>
       <c r="C112" t="n">
-        <v>0.382758</v>
+        <v>0.276891</v>
       </c>
       <c r="D112" t="n">
-        <v>0.252167</v>
+        <v>0.381217</v>
       </c>
       <c r="E112" t="n">
-        <v>0.259465</v>
+        <v>0.252151</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.259615</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6397,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.273522</v>
+        <v>0.283849</v>
       </c>
       <c r="C113" t="n">
-        <v>0.390857</v>
+        <v>0.278844</v>
       </c>
       <c r="D113" t="n">
-        <v>0.256475</v>
+        <v>0.390321</v>
       </c>
       <c r="E113" t="n">
-        <v>0.261841</v>
+        <v>0.254793</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.261653</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6417,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.268056</v>
+        <v>0.281427</v>
       </c>
       <c r="C114" t="n">
-        <v>0.398097</v>
+        <v>0.278757</v>
       </c>
       <c r="D114" t="n">
-        <v>0.258565</v>
+        <v>0.398738</v>
       </c>
       <c r="E114" t="n">
-        <v>0.260129</v>
+        <v>0.257258</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.263387</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6437,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.271321</v>
+        <v>0.282175</v>
       </c>
       <c r="C115" t="n">
-        <v>0.403955</v>
+        <v>0.281476</v>
       </c>
       <c r="D115" t="n">
-        <v>0.261221</v>
+        <v>0.406435</v>
       </c>
       <c r="E115" t="n">
-        <v>0.264379</v>
+        <v>0.25938</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.266901</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6457,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.273706</v>
+        <v>0.282086</v>
       </c>
       <c r="C116" t="n">
-        <v>0.412813</v>
+        <v>0.280915</v>
       </c>
       <c r="D116" t="n">
-        <v>0.259099</v>
+        <v>0.41417</v>
       </c>
       <c r="E116" t="n">
-        <v>0.266034</v>
+        <v>0.262355</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.270097</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6477,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.275847</v>
+        <v>0.283447</v>
       </c>
       <c r="C117" t="n">
-        <v>0.422192</v>
+        <v>0.28229</v>
       </c>
       <c r="D117" t="n">
-        <v>0.267592</v>
+        <v>0.423423</v>
       </c>
       <c r="E117" t="n">
-        <v>0.272702</v>
+        <v>0.266001</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.273692</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6497,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.275354</v>
+        <v>0.283981</v>
       </c>
       <c r="C118" t="n">
-        <v>0.434794</v>
+        <v>0.281884</v>
       </c>
       <c r="D118" t="n">
-        <v>0.265607</v>
+        <v>0.431439</v>
       </c>
       <c r="E118" t="n">
-        <v>0.27412</v>
+        <v>0.26867</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.27719</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6517,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.277379</v>
+        <v>0.284879</v>
       </c>
       <c r="C119" t="n">
-        <v>0.442018</v>
+        <v>0.284544</v>
       </c>
       <c r="D119" t="n">
-        <v>0.268432</v>
+        <v>0.444254</v>
       </c>
       <c r="E119" t="n">
-        <v>0.281154</v>
+        <v>0.27237</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.282519</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6537,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.276823</v>
+        <v>0.283827</v>
       </c>
       <c r="C120" t="n">
-        <v>0.454986</v>
+        <v>0.286533</v>
       </c>
       <c r="D120" t="n">
-        <v>0.272786</v>
+        <v>0.452912</v>
       </c>
       <c r="E120" t="n">
-        <v>0.282329</v>
+        <v>0.275959</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.283275</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6557,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.281277</v>
+        <v>0.286031</v>
       </c>
       <c r="C121" t="n">
-        <v>0.377338</v>
+        <v>0.290879</v>
       </c>
       <c r="D121" t="n">
-        <v>0.281729</v>
+        <v>0.377929</v>
       </c>
       <c r="E121" t="n">
-        <v>0.291279</v>
+        <v>0.28042</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.292687</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6577,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.281276</v>
+        <v>0.289477</v>
       </c>
       <c r="C122" t="n">
-        <v>0.384105</v>
+        <v>0.29554</v>
       </c>
       <c r="D122" t="n">
-        <v>0.285739</v>
+        <v>0.384297</v>
       </c>
       <c r="E122" t="n">
-        <v>0.299607</v>
+        <v>0.286949</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.30106</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6597,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.284197</v>
+        <v>0.292397</v>
       </c>
       <c r="C123" t="n">
-        <v>0.386168</v>
+        <v>0.303346</v>
       </c>
       <c r="D123" t="n">
-        <v>0.275568</v>
+        <v>0.38999</v>
       </c>
       <c r="E123" t="n">
-        <v>0.285468</v>
+        <v>0.274863</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.28618</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6617,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.341221</v>
+        <v>0.362328</v>
       </c>
       <c r="C124" t="n">
-        <v>0.398034</v>
+        <v>0.352755</v>
       </c>
       <c r="D124" t="n">
-        <v>0.276036</v>
+        <v>0.394285</v>
       </c>
       <c r="E124" t="n">
-        <v>0.288532</v>
+        <v>0.275334</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.287403</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6637,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.341363</v>
+        <v>0.362885</v>
       </c>
       <c r="C125" t="n">
-        <v>0.404753</v>
+        <v>0.352788</v>
       </c>
       <c r="D125" t="n">
-        <v>0.274776</v>
+        <v>0.403921</v>
       </c>
       <c r="E125" t="n">
-        <v>0.289754</v>
+        <v>0.278157</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.288705</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6657,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.350042</v>
+        <v>0.361573</v>
       </c>
       <c r="C126" t="n">
-        <v>0.407408</v>
+        <v>0.353169</v>
       </c>
       <c r="D126" t="n">
-        <v>0.278142</v>
+        <v>0.408258</v>
       </c>
       <c r="E126" t="n">
-        <v>0.290476</v>
+        <v>0.280825</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.292401</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6677,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.34846</v>
+        <v>0.35525</v>
       </c>
       <c r="C127" t="n">
-        <v>0.416843</v>
+        <v>0.354036</v>
       </c>
       <c r="D127" t="n">
-        <v>0.284688</v>
+        <v>0.415054</v>
       </c>
       <c r="E127" t="n">
-        <v>0.294623</v>
+        <v>0.28389</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.293845</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6697,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.342653</v>
+        <v>0.362168</v>
       </c>
       <c r="C128" t="n">
-        <v>0.423847</v>
+        <v>0.354965</v>
       </c>
       <c r="D128" t="n">
-        <v>0.287183</v>
+        <v>0.429428</v>
       </c>
       <c r="E128" t="n">
-        <v>0.296831</v>
+        <v>0.286138</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.297141</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6717,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.348682</v>
+        <v>0.36291</v>
       </c>
       <c r="C129" t="n">
-        <v>0.437318</v>
+        <v>0.355081</v>
       </c>
       <c r="D129" t="n">
-        <v>0.286484</v>
+        <v>0.435416</v>
       </c>
       <c r="E129" t="n">
-        <v>0.300025</v>
+        <v>0.285197</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.299318</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6737,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.347392</v>
+        <v>0.36296</v>
       </c>
       <c r="C130" t="n">
-        <v>0.442319</v>
+        <v>0.356425</v>
       </c>
       <c r="D130" t="n">
-        <v>0.294691</v>
+        <v>0.444803</v>
       </c>
       <c r="E130" t="n">
-        <v>0.297515</v>
+        <v>0.292839</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.297409</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6757,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.348106</v>
+        <v>0.361744</v>
       </c>
       <c r="C131" t="n">
-        <v>0.449393</v>
+        <v>0.357479</v>
       </c>
       <c r="D131" t="n">
-        <v>0.298342</v>
+        <v>0.452559</v>
       </c>
       <c r="E131" t="n">
-        <v>0.301607</v>
+        <v>0.296349</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.303166</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6777,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.348514</v>
+        <v>0.362248</v>
       </c>
       <c r="C132" t="n">
-        <v>0.456179</v>
+        <v>0.359279</v>
       </c>
       <c r="D132" t="n">
-        <v>0.302378</v>
+        <v>0.458082</v>
       </c>
       <c r="E132" t="n">
-        <v>0.307051</v>
+        <v>0.300737</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.308971</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6797,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.351307</v>
+        <v>0.363945</v>
       </c>
       <c r="C133" t="n">
-        <v>0.465057</v>
+        <v>0.361176</v>
       </c>
       <c r="D133" t="n">
-        <v>0.306703</v>
+        <v>0.470125</v>
       </c>
       <c r="E133" t="n">
-        <v>0.313554</v>
+        <v>0.29898</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.314125</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6817,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.344256</v>
+        <v>0.362311</v>
       </c>
       <c r="C134" t="n">
-        <v>0.484963</v>
+        <v>0.364554</v>
       </c>
       <c r="D134" t="n">
-        <v>0.311557</v>
+        <v>0.476963</v>
       </c>
       <c r="E134" t="n">
-        <v>0.320845</v>
+        <v>0.309393</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.323397</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6837,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.353284</v>
+        <v>0.364735</v>
       </c>
       <c r="C135" t="n">
-        <v>0.394493</v>
+        <v>0.36856</v>
       </c>
       <c r="D135" t="n">
-        <v>0.312717</v>
+        <v>0.391294</v>
       </c>
       <c r="E135" t="n">
-        <v>0.331346</v>
+        <v>0.315928</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.333707</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6857,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.357024</v>
+        <v>0.365323</v>
       </c>
       <c r="C136" t="n">
-        <v>0.40063</v>
+        <v>0.372403</v>
       </c>
       <c r="D136" t="n">
-        <v>0.320367</v>
+        <v>0.40076</v>
       </c>
       <c r="E136" t="n">
-        <v>0.347191</v>
+        <v>0.324583</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.347818</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6877,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.349975</v>
+        <v>0.371192</v>
       </c>
       <c r="C137" t="n">
-        <v>0.401471</v>
+        <v>0.381756</v>
       </c>
       <c r="D137" t="n">
-        <v>0.29178</v>
+        <v>0.404953</v>
       </c>
       <c r="E137" t="n">
-        <v>0.30542</v>
+        <v>0.296177</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.306435</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6897,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.407786</v>
+        <v>0.428225</v>
       </c>
       <c r="C138" t="n">
-        <v>0.411825</v>
+        <v>0.39593</v>
       </c>
       <c r="D138" t="n">
-        <v>0.298394</v>
+        <v>0.41139</v>
       </c>
       <c r="E138" t="n">
-        <v>0.304121</v>
+        <v>0.297863</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.308493</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6917,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.407354</v>
+        <v>0.427264</v>
       </c>
       <c r="C139" t="n">
-        <v>0.420264</v>
+        <v>0.396599</v>
       </c>
       <c r="D139" t="n">
-        <v>0.300982</v>
+        <v>0.420431</v>
       </c>
       <c r="E139" t="n">
-        <v>0.30958</v>
+        <v>0.295327</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.310026</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6937,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.406284</v>
+        <v>0.420128</v>
       </c>
       <c r="C140" t="n">
-        <v>0.420585</v>
+        <v>0.396871</v>
       </c>
       <c r="D140" t="n">
-        <v>0.302646</v>
+        <v>0.422941</v>
       </c>
       <c r="E140" t="n">
-        <v>0.310556</v>
+        <v>0.301806</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.309494</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6957,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.40789</v>
+        <v>0.426611</v>
       </c>
       <c r="C141" t="n">
-        <v>0.43611</v>
+        <v>0.39744</v>
       </c>
       <c r="D141" t="n">
-        <v>0.30524</v>
+        <v>0.434655</v>
       </c>
       <c r="E141" t="n">
-        <v>0.315476</v>
+        <v>0.304053</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.315896</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6977,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.406563</v>
+        <v>0.419781</v>
       </c>
       <c r="C142" t="n">
-        <v>0.437907</v>
+        <v>0.398172</v>
       </c>
       <c r="D142" t="n">
-        <v>0.307288</v>
+        <v>0.440461</v>
       </c>
       <c r="E142" t="n">
-        <v>0.310525</v>
+        <v>0.306636</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.319022</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6997,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.405892</v>
+        <v>0.426939</v>
       </c>
       <c r="C143" t="n">
-        <v>0.452779</v>
+        <v>0.394128</v>
       </c>
       <c r="D143" t="n">
-        <v>0.303561</v>
+        <v>0.44964</v>
       </c>
       <c r="E143" t="n">
-        <v>0.318136</v>
+        <v>0.309704</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.31931</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -560,430 +560,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0194751</v>
+                  <v>0.0193848</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0195629</v>
+                  <v>0.0194619</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.019489</v>
+                  <v>0.0193778</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0195779</v>
+                  <v>0.0194707</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0196134</v>
+                  <v>0.0196489</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0197913</v>
+                  <v>0.0196529</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0199155</v>
+                  <v>0.0199483</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0201101</v>
+                  <v>0.0201947</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0196084</v>
+                  <v>0.0192209</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0195614</v>
+                  <v>0.019424</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0196347</v>
+                  <v>0.0197447</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0198925</v>
+                  <v>0.0197918</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0200039</v>
+                  <v>0.0198616</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0201837</v>
+                  <v>0.0200231</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0200675</v>
+                  <v>0.0201789</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0201647</v>
+                  <v>0.0202069</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0202739</v>
+                  <v>0.0204096</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0202086</v>
+                  <v>0.0205851</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0205069</v>
+                  <v>0.0206359</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0207083</v>
+                  <v>0.0208679</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0211543</v>
+                  <v>0.0211078</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0230484</v>
+                  <v>0.0248881</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0206813</v>
+                  <v>0.0203805</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0207405</v>
+                  <v>0.0204958</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0207665</v>
+                  <v>0.0206497</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0209769</v>
+                  <v>0.0208718</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.021056</v>
+                  <v>0.0210186</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0212252</v>
+                  <v>0.0211438</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0213505</v>
+                  <v>0.0213385</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0215039</v>
+                  <v>0.021513</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0217981</v>
+                  <v>0.0220629</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0221214</v>
+                  <v>0.0221137</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.023275</v>
+                  <v>0.0228733</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0250124</v>
+                  <v>0.0243698</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0266118</v>
+                  <v>0.0271109</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0311996</v>
+                  <v>0.0312224</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0216211</v>
+                  <v>0.0214949</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0218931</v>
+                  <v>0.0218569</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0219329</v>
+                  <v>0.0217457</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0221215</v>
+                  <v>0.0220473</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0222904</v>
+                  <v>0.0222951</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0224773</v>
+                  <v>0.0224305</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0228221</v>
+                  <v>0.0226572</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0230365</v>
+                  <v>0.0229888</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0235124</v>
+                  <v>0.0234883</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.02408</v>
+                  <v>0.0238963</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.025044</v>
+                  <v>0.025005</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0279553</v>
+                  <v>0.0268192</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0304389</v>
+                  <v>0.029844</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0353825</v>
+                  <v>0.0336676</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0392081</v>
+                  <v>0.03842</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0230524</v>
+                  <v>0.0233104</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0234244</v>
+                  <v>0.023341</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0234108</v>
+                  <v>0.0237441</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0239286</v>
+                  <v>0.0239331</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0240818</v>
+                  <v>0.0241352</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.024439</v>
+                  <v>0.024359</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0247787</v>
+                  <v>0.0245657</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0252449</v>
+                  <v>0.0251086</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0265282</v>
+                  <v>0.0260587</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0274839</v>
+                  <v>0.0274484</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0294202</v>
+                  <v>0.0293528</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.032256</v>
+                  <v>0.0319897</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.035998</v>
+                  <v>0.0356338</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0410284</v>
+                  <v>0.0409657</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0292854</v>
+                  <v>0.0289145</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0293731</v>
+                  <v>0.0290849</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0295223</v>
+                  <v>0.0291312</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0297504</v>
+                  <v>0.0292314</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0300985</v>
+                  <v>0.0295317</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0302054</v>
+                  <v>0.0298013</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.030751</v>
+                  <v>0.0301607</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0311922</v>
+                  <v>0.030776</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0320559</v>
+                  <v>0.0317162</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0331467</v>
+                  <v>0.0328879</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0348991</v>
+                  <v>0.0346028</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0373412</v>
+                  <v>0.0370192</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0409062</v>
+                  <v>0.0402907</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0457293</v>
+                  <v>0.0451694</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0555257</v>
+                  <v>0.0547573</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0577904</v>
+                  <v>0.0555636</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.055792</v>
+                  <v>0.055387</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0560207</v>
+                  <v>0.0554725</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0561087</v>
+                  <v>0.0557169</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0563414</v>
+                  <v>0.0559509</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.056655</v>
+                  <v>0.0560586</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0571958</v>
+                  <v>0.0562625</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.057884</v>
+                  <v>0.0567185</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0582425</v>
+                  <v>0.0576972</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0592452</v>
+                  <v>0.0587159</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0608211</v>
+                  <v>0.060325</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0633513</v>
+                  <v>0.0629981</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.06725390000000001</v>
+                  <v>0.06682589999999999</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0858208</v>
+                  <v>0.0858251</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.08577170000000001</v>
+                  <v>0.0857677</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.08594590000000001</v>
+                  <v>0.085906</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.08606900000000001</v>
+                  <v>0.0859969</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.08616749999999999</v>
+                  <v>0.086075</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.08662789999999999</v>
+                  <v>0.0861682</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0864133</v>
+                  <v>0.08647729999999999</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.088181</v>
+                  <v>0.0867111</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0871123</v>
+                  <v>0.08710229999999999</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0876926</v>
+                  <v>0.08776050000000001</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0885166</v>
+                  <v>0.08850959999999999</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0897474</v>
+                  <v>0.0897652</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.09172080000000001</v>
+                  <v>0.09188499999999999</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0949308</v>
+                  <v>0.0952229</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0997827</v>
+                  <v>0.100016</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.109009</v>
+                  <v>0.108131</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.108902</v>
+                  <v>0.108075</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.109017</v>
+                  <v>0.108184</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.109219</v>
+                  <v>0.10833</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.109295</v>
+                  <v>0.108539</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.109582</v>
+                  <v>0.108599</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.109729</v>
+                  <v>0.108799</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.110229</v>
+                  <v>0.109382</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.110875</v>
+                  <v>0.109872</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.111655</v>
+                  <v>0.121679</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.112821</v>
+                  <v>0.11203</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.114619</v>
+                  <v>0.113814</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.117464</v>
+                  <v>0.116862</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.122013</v>
+                  <v>0.121543</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.139209</v>
+                  <v>0.140062</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.139131</v>
+                  <v>0.140058</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.139496</v>
+                  <v>0.139603</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.139621</v>
+                  <v>0.139793</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.13995</v>
+                  <v>0.139755</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.14025</v>
+                  <v>0.139773</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.140479</v>
+                  <v>0.139973</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.142087</v>
+                  <v>0.140326</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.141701</v>
+                  <v>0.140658</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.142135</v>
+                  <v>0.140894</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.143369</v>
+                  <v>0.1421</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.14492</v>
+                  <v>0.143547</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.147621</v>
+                  <v>0.146307</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.151632</v>
+                  <v>0.150172</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.157728</v>
+                  <v>0.158166</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.157774</v>
+                  <v>0.158195</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.157822</v>
+                  <v>0.15855</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.158086</v>
+                  <v>0.158668</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.158035</v>
+                  <v>0.159246</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.178791</v>
+                  <v>0.158584</v>
                 </pt>
               </numCache>
             </numRef>
@@ -999,7 +999,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_map</v>
+                  <v>absl::node_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1462,430 +1462,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0365145</v>
+                  <v>0.0175627</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0396988</v>
+                  <v>0.0175947</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0447642</v>
+                  <v>0.0176587</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0498033</v>
+                  <v>0.0177658</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0537687</v>
+                  <v>0.0179719</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0315887</v>
+                  <v>0.018025</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0336489</v>
+                  <v>0.0181412</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0356574</v>
+                  <v>0.0187716</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0376125</v>
+                  <v>0.0181729</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0405804</v>
+                  <v>0.0183363</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0447308</v>
+                  <v>0.018272</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.047286</v>
+                  <v>0.0186146</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0503759</v>
+                  <v>0.0185738</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0539423</v>
+                  <v>0.0189054</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0578276</v>
+                  <v>0.0189311</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0614582</v>
+                  <v>0.0193473</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0653006</v>
+                  <v>0.0191405</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0680994</v>
+                  <v>0.0193073</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0704849</v>
+                  <v>0.0193</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0446121</v>
+                  <v>0.0195934</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.047444</v>
+                  <v>0.0204342</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0493842</v>
+                  <v>0.0258092</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0514984</v>
+                  <v>0.0194516</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0543429</v>
+                  <v>0.0195151</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0563413</v>
+                  <v>0.019712</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0616033</v>
+                  <v>0.0198041</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0643247</v>
+                  <v>0.0200263</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0662176</v>
+                  <v>0.0201955</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0698588</v>
+                  <v>0.0204215</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.07215820000000001</v>
+                  <v>0.020546</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0748846</v>
+                  <v>0.0208661</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0769565</v>
+                  <v>0.0211468</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0791249</v>
+                  <v>0.0216524</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0519505</v>
+                  <v>0.0228986</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0537373</v>
+                  <v>0.0250296</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0560572</v>
+                  <v>0.0299358</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0580173</v>
+                  <v>0.0207518</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0596857</v>
+                  <v>0.0209239</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0624772</v>
+                  <v>0.0210062</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.06461600000000001</v>
+                  <v>0.0212501</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0672449</v>
+                  <v>0.0213877</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.06969930000000001</v>
+                  <v>0.0216913</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.07249079999999999</v>
+                  <v>0.0219272</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.07484499999999999</v>
+                  <v>0.022197</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0778189</v>
+                  <v>0.022681</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0800609</v>
+                  <v>0.0234421</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0823764</v>
+                  <v>0.0240753</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0844506</v>
+                  <v>0.0257732</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0578649</v>
+                  <v>0.0285813</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0591875</v>
+                  <v>0.0324607</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0615245</v>
+                  <v>0.0380034</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0639034</v>
+                  <v>0.0220148</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0656783</v>
+                  <v>0.0221262</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0679548</v>
+                  <v>0.0223024</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0705563</v>
+                  <v>0.022656</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0733139</v>
+                  <v>0.0228134</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0760695</v>
+                  <v>0.0231381</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.07903490000000001</v>
+                  <v>0.0235722</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.080972</v>
+                  <v>0.0241989</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.08393299999999999</v>
+                  <v>0.025026</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.08583780000000001</v>
+                  <v>0.0264049</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.08868760000000001</v>
+                  <v>0.0283304</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0634653</v>
+                  <v>0.0308026</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0660341</v>
+                  <v>0.0349232</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.068684</v>
+                  <v>0.0401922</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0716908</v>
+                  <v>0.0246507</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0754389</v>
+                  <v>0.0249507</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0780781</v>
+                  <v>0.0249084</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.08159859999999999</v>
+                  <v>0.025417</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0866746</v>
+                  <v>0.025691</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0889358</v>
+                  <v>0.0262707</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0945853</v>
+                  <v>0.0268015</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0982999</v>
+                  <v>0.0274789</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.102978</v>
+                  <v>0.0288561</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.106901</v>
+                  <v>0.030155</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.112317</v>
+                  <v>0.0326295</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.09733840000000001</v>
+                  <v>0.0355582</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.101335</v>
+                  <v>0.0387886</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.105975</v>
+                  <v>0.0442776</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.110132</v>
+                  <v>0.0354786</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.115172</v>
+                  <v>0.0356873</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.121209</v>
+                  <v>0.0359896</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.126205</v>
+                  <v>0.0361447</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.131141</v>
+                  <v>0.0365455</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.137704</v>
+                  <v>0.0370387</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.143051</v>
+                  <v>0.0374911</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.149748</v>
+                  <v>0.0382015</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.154568</v>
+                  <v>0.0393225</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.16029</v>
+                  <v>0.0405886</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.166513</v>
+                  <v>0.0425901</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.145912</v>
+                  <v>0.0454562</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.149301</v>
+                  <v>0.0496657</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.152309</v>
+                  <v>0.0553023</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.157221</v>
+                  <v>0.07135279999999999</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.160664</v>
+                  <v>0.0716075</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.166029</v>
+                  <v>0.0718963</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.170781</v>
+                  <v>0.0721396</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.175608</v>
+                  <v>0.07288070000000001</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.181033</v>
+                  <v>0.07289329999999999</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.186455</v>
+                  <v>0.073226</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.192398</v>
+                  <v>0.073786</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.199037</v>
+                  <v>0.0744944</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.203931</v>
+                  <v>0.07550759999999999</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.210695</v>
+                  <v>0.0775174</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.216678</v>
+                  <v>0.0796972</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.181859</v>
+                  <v>0.0833348</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.199868</v>
+                  <v>0.08797199999999999</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.193515</v>
+                  <v>0.0954035</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.192797</v>
+                  <v>0.0996648</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.196994</v>
+                  <v>0.0977754</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.201949</v>
+                  <v>0.0978999</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.206787</v>
+                  <v>0.0981046</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.212581</v>
+                  <v>0.0988192</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.217678</v>
+                  <v>0.0991438</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.223918</v>
+                  <v>0.102822</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.229518</v>
+                  <v>0.100287</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.23542</v>
+                  <v>0.101658</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.241207</v>
+                  <v>0.103364</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.247384</v>
+                  <v>0.105254</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.199268</v>
+                  <v>0.108244</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.202036</v>
+                  <v>0.11305</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.205435</v>
+                  <v>0.119961</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.209778</v>
+                  <v>0.13336</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.213788</v>
+                  <v>0.133718</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.218497</v>
+                  <v>0.133814</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.22327</v>
+                  <v>0.133896</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.228488</v>
+                  <v>0.134135</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.234375</v>
+                  <v>0.134577</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.240447</v>
+                  <v>0.135148</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.24599</v>
+                  <v>0.135817</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.251978</v>
+                  <v>0.136846</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.257944</v>
+                  <v>0.13806</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.268641</v>
+                  <v>0.139958</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.209616</v>
+                  <v>0.14262</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.212749</v>
+                  <v>0.146392</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.216194</v>
+                  <v>0.152046</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.220147</v>
+                  <v>0.152616</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.224171</v>
+                  <v>0.153035</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.229194</v>
+                  <v>0.153122</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.234298</v>
+                  <v>0.153483</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.239466</v>
+                  <v>0.153843</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.245367</v>
+                  <v>0.153735</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1901,7 +1901,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_flat_map</v>
+                  <v>boost::unordered_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -2364,430 +2364,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0196261</v>
+                  <v>0.0349354</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0197912</v>
+                  <v>0.0372243</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0198901</v>
+                  <v>0.0433747</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0199582</v>
+                  <v>0.0462062</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0201314</v>
+                  <v>0.0510849</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0201829</v>
+                  <v>0.0306249</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0207955</v>
+                  <v>0.0325</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0194471</v>
+                  <v>0.0346322</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0195449</v>
+                  <v>0.0364502</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.019867</v>
+                  <v>0.0397791</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0201596</v>
+                  <v>0.0431275</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0201363</v>
+                  <v>0.0471309</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0205715</v>
+                  <v>0.0496454</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.021072</v>
+                  <v>0.0533765</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0210413</v>
+                  <v>0.0571097</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0212453</v>
+                  <v>0.0602121</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0213354</v>
+                  <v>0.0639561</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0214148</v>
+                  <v>0.0669614</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0218501</v>
+                  <v>0.070434</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0224228</v>
+                  <v>0.0451085</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0237556</v>
+                  <v>0.046578</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0210571</v>
+                  <v>0.0525073</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0212586</v>
+                  <v>0.0537413</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0214644</v>
+                  <v>0.056061</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0215637</v>
+                  <v>0.0582335</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.021764</v>
+                  <v>0.0604336</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0221105</v>
+                  <v>0.063626</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.022421</v>
+                  <v>0.06649049999999999</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0226251</v>
+                  <v>0.0688616</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0229748</v>
+                  <v>0.07168040000000001</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.02343</v>
+                  <v>0.0746487</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0239333</v>
+                  <v>0.07752729999999999</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0247176</v>
+                  <v>0.07917970000000001</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0263657</v>
+                  <v>0.0529663</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0292434</v>
+                  <v>0.0547963</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0221968</v>
+                  <v>0.0564959</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0224122</v>
+                  <v>0.0580906</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0226233</v>
+                  <v>0.0601554</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0229104</v>
+                  <v>0.06259190000000001</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0231873</v>
+                  <v>0.0644839</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0235225</v>
+                  <v>0.0672614</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0245394</v>
+                  <v>0.06977800000000001</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0242028</v>
+                  <v>0.0726223</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0246188</v>
+                  <v>0.0752708</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0255792</v>
+                  <v>0.0774999</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0258658</v>
+                  <v>0.0799808</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0269256</v>
+                  <v>0.0821132</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.029475</v>
+                  <v>0.0838373</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0328029</v>
+                  <v>0.057428</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0229759</v>
+                  <v>0.0590788</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0231768</v>
+                  <v>0.0613427</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0234395</v>
+                  <v>0.06343699999999999</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.023729</v>
+                  <v>0.06561989999999999</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0240074</v>
+                  <v>0.0681055</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.024327</v>
+                  <v>0.070746</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0247229</v>
+                  <v>0.0727792</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.025276</v>
+                  <v>0.0757994</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0257848</v>
+                  <v>0.07800020000000001</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0264266</v>
+                  <v>0.08056480000000001</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0273739</v>
+                  <v>0.08313520000000001</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0289127</v>
+                  <v>0.0855432</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0313813</v>
+                  <v>0.0898707</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0347866</v>
+                  <v>0.0657703</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0405541</v>
+                  <v>0.06761300000000001</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0251501</v>
+                  <v>0.0706816</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0254762</v>
+                  <v>0.0736002</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0257275</v>
+                  <v>0.07693999999999999</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0260131</v>
+                  <v>0.0791196</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0263866</v>
+                  <v>0.0839456</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0261122</v>
+                  <v>0.0874417</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0272077</v>
+                  <v>0.0915048</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0281149</v>
+                  <v>0.0958411</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0283556</v>
+                  <v>0.100017</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0292696</v>
+                  <v>0.10394</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0306653</v>
+                  <v>0.107671</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0333493</v>
+                  <v>0.113168</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0363328</v>
+                  <v>0.0979264</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0412171</v>
+                  <v>0.101481</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0356659</v>
+                  <v>0.105553</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0363526</v>
+                  <v>0.11045</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0371667</v>
+                  <v>0.115302</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0379171</v>
+                  <v>0.120141</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0386585</v>
+                  <v>0.125522</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0393656</v>
+                  <v>0.130499</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0400877</v>
+                  <v>0.135999</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0412195</v>
+                  <v>0.141492</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0419461</v>
+                  <v>0.147983</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0430021</v>
+                  <v>0.153941</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0442752</v>
+                  <v>0.160131</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.046052</v>
+                  <v>0.165987</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0487434</v>
+                  <v>0.145305</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0533016</v>
+                  <v>0.149575</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0713101</v>
+                  <v>0.15412</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.07162789999999999</v>
+                  <v>0.156752</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0721873</v>
+                  <v>0.161486</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0726131</v>
+                  <v>0.165355</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0731451</v>
+                  <v>0.171084</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.073726</v>
+                  <v>0.175965</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0743772</v>
+                  <v>0.181715</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0751235</v>
+                  <v>0.18689</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0758935</v>
+                  <v>0.193063</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.07695730000000001</v>
+                  <v>0.198751</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.07818170000000001</v>
+                  <v>0.204087</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0798373</v>
+                  <v>0.211733</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.08226</v>
+                  <v>0.21659</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0859181</v>
+                  <v>0.182251</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.08945119999999999</v>
+                  <v>0.185854</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0901479</v>
+                  <v>0.189322</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0909215</v>
+                  <v>0.193413</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0917118</v>
+                  <v>0.19773</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.09258719999999999</v>
+                  <v>0.202287</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.09357890000000001</v>
+                  <v>0.208167</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.09464</v>
+                  <v>0.212927</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0957011</v>
+                  <v>0.218337</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0970447</v>
+                  <v>0.224385</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0984414</v>
+                  <v>0.230112</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.101572</v>
+                  <v>0.236296</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.102157</v>
+                  <v>0.242636</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.104633</v>
+                  <v>0.248114</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.108505</v>
+                  <v>0.200198</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.114455</v>
+                  <v>0.202936</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.107135</v>
+                  <v>0.206116</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.10814</v>
+                  <v>0.209939</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.109179</v>
+                  <v>0.214804</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.110339</v>
+                  <v>0.220161</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.111555</v>
+                  <v>0.223485</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.117399</v>
+                  <v>0.229261</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.11438</v>
+                  <v>0.235257</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.115714</v>
+                  <v>0.24097</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.117191</v>
+                  <v>0.246462</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.11914</v>
+                  <v>0.253085</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.121337</v>
+                  <v>0.258205</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.127893</v>
+                  <v>0.265025</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.128374</v>
+                  <v>0.210482</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.134621</v>
+                  <v>0.213193</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.118436</v>
+                  <v>0.219024</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.119542</v>
+                  <v>0.221271</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.120555</v>
+                  <v>0.22573</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.124935</v>
+                  <v>0.229762</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.12278</v>
+                  <v>0.23492</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.123993</v>
+                  <v>0.24055</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.125349</v>
+                  <v>0.245786</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2803,7 +2803,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_node_map</v>
+                  <v>boost::unordered_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -3266,430 +3266,1332 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0206785</v>
+                  <v>0.0197894</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0207813</v>
+                  <v>0.0201052</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0208833</v>
+                  <v>0.0201236</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0207783</v>
+                  <v>0.0200332</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0207749</v>
+                  <v>0.0203125</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.020897</v>
+                  <v>0.0206254</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0212215</v>
+                  <v>0.0213259</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0216661</v>
+                  <v>0.019472</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0216931</v>
+                  <v>0.0198448</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0219577</v>
+                  <v>0.019895</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0219969</v>
+                  <v>0.0201555</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0221826</v>
+                  <v>0.0202462</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0225411</v>
+                  <v>0.0204734</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0228079</v>
+                  <v>0.0207159</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0227173</v>
+                  <v>0.0208968</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0227772</v>
+                  <v>0.021277</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0230473</v>
+                  <v>0.0214165</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0229634</v>
+                  <v>0.0217844</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0230157</v>
+                  <v>0.0221565</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0234205</v>
+                  <v>0.0230293</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0244919</v>
+                  <v>0.02607</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.023336</v>
+                  <v>0.0209819</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0235586</v>
+                  <v>0.0211275</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0238225</v>
+                  <v>0.0213664</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0237382</v>
+                  <v>0.021552</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0238801</v>
+                  <v>0.0217889</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0241333</v>
+                  <v>0.022141</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0244564</v>
+                  <v>0.0224621</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0245499</v>
+                  <v>0.0227454</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0247842</v>
+                  <v>0.0230891</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0251216</v>
+                  <v>0.0235791</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0254613</v>
+                  <v>0.0243147</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0260233</v>
+                  <v>0.0254992</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0270699</v>
+                  <v>0.0276103</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0306774</v>
+                  <v>0.0319471</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0245451</v>
+                  <v>0.0222259</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0247372</v>
+                  <v>0.0224589</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.024937</v>
+                  <v>0.0225931</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0252111</v>
+                  <v>0.0229286</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0253094</v>
+                  <v>0.0231774</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0255793</v>
+                  <v>0.0240694</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0257865</v>
+                  <v>0.0239096</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0260194</v>
+                  <v>0.0242348</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.026382</v>
+                  <v>0.0247279</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0268562</v>
+                  <v>0.0255188</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0274538</v>
+                  <v>0.0264864</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0286629</v>
+                  <v>0.0279806</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.030666</v>
+                  <v>0.0306931</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0341753</v>
+                  <v>0.0341211</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0248564</v>
+                  <v>0.0229859</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0250656</v>
+                  <v>0.0231886</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0253725</v>
+                  <v>0.0234438</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0256172</v>
+                  <v>0.0237361</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.025785</v>
+                  <v>0.0240592</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0260479</v>
+                  <v>0.0243611</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0265271</v>
+                  <v>0.0247697</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0269807</v>
+                  <v>0.0252948</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0273609</v>
+                  <v>0.0259223</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0280786</v>
+                  <v>0.026794</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0290054</v>
+                  <v>0.027927</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0305336</v>
+                  <v>0.0297296</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0329544</v>
+                  <v>0.0320666</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0362898</v>
+                  <v>0.0355204</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0419218</v>
+                  <v>0.040984</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.026637</v>
+                  <v>0.0253889</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0267861</v>
+                  <v>0.0250649</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0277745</v>
+                  <v>0.0253452</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0273026</v>
+                  <v>0.0255558</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0277491</v>
+                  <v>0.0259444</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0281135</v>
+                  <v>0.0264835</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0285725</v>
+                  <v>0.0277257</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0291539</v>
+                  <v>0.0278552</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0301281</v>
+                  <v>0.0284422</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0315789</v>
+                  <v>0.0297968</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.032797</v>
+                  <v>0.0311555</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0350439</v>
+                  <v>0.033579</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0383708</v>
+                  <v>0.036514</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0434181</v>
+                  <v>0.041536</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0335094</v>
+                  <v>0.0361322</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.033843</v>
+                  <v>0.0366932</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0344867</v>
+                  <v>0.0376074</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0348016</v>
+                  <v>0.0384358</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0352056</v>
+                  <v>0.0391975</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0360305</v>
+                  <v>0.0400954</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0367309</v>
+                  <v>0.0407676</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0372919</v>
+                  <v>0.0415868</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0386863</v>
+                  <v>0.0424312</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0396944</v>
+                  <v>0.0440182</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0417616</v>
+                  <v>0.0448619</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0440648</v>
+                  <v>0.0466044</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0474931</v>
+                  <v>0.0522096</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.052939</v>
+                  <v>0.0533849</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.06786490000000001</v>
+                  <v>0.07120079999999999</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.068254</v>
+                  <v>0.074347</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.06875249999999999</v>
+                  <v>0.0720843</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0691842</v>
+                  <v>0.0726903</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.06990540000000001</v>
+                  <v>0.0733799</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.07045410000000001</v>
+                  <v>0.0737217</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0711215</v>
+                  <v>0.0743284</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0718926</v>
+                  <v>0.07510169999999999</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0728032</v>
+                  <v>0.0759703</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.07412000000000001</v>
+                  <v>0.0768456</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.07561420000000001</v>
+                  <v>0.078163</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0777135</v>
+                  <v>0.08907039999999999</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.08079749999999999</v>
+                  <v>0.0824233</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0859578</v>
+                  <v>0.0859721</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0926965</v>
+                  <v>0.0888313</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0931657</v>
+                  <v>0.0893418</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.09363</v>
+                  <v>0.09014900000000001</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0942807</v>
+                  <v>0.0909683</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0949342</v>
+                  <v>0.091824</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0956124</v>
+                  <v>0.0928055</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.09643110000000001</v>
+                  <v>0.0937335</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0974578</v>
+                  <v>0.0949487</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.09865409999999999</v>
+                  <v>0.0960443</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.099985</v>
+                  <v>0.1104</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.101915</v>
+                  <v>0.0990668</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.10417</v>
+                  <v>0.101151</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.107355</v>
+                  <v>0.103725</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.111855</v>
+                  <v>0.107499</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.119295</v>
+                  <v>0.11348</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.111174</v>
+                  <v>0.107438</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.113436</v>
+                  <v>0.108556</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.112627</v>
+                  <v>0.109643</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.113487</v>
+                  <v>0.110714</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.114491</v>
+                  <v>0.111891</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.116157</v>
+                  <v>0.113163</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.116856</v>
+                  <v>0.114402</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.118562</v>
+                  <v>0.119551</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.120523</v>
+                  <v>0.117449</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.121962</v>
+                  <v>0.11945</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.124397</v>
+                  <v>0.121615</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.127842</v>
+                  <v>0.124506</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.14034</v>
+                  <v>0.128529</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.13989</v>
+                  <v>0.136396</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.123322</v>
+                  <v>0.118386</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.124097</v>
+                  <v>0.120885</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.124887</v>
+                  <v>0.121618</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.126237</v>
+                  <v>0.121781</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.12706</v>
+                  <v>0.123325</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.127951</v>
+                  <v>0.123784</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.129431</v>
+                  <v>0.125183</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>plot!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF66FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>plot!$A$2:$A$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>10000</v>
+                </pt>
+                <pt idx="1">
+                  <v>10500</v>
+                </pt>
+                <pt idx="2">
+                  <v>11025</v>
+                </pt>
+                <pt idx="3">
+                  <v>11576</v>
+                </pt>
+                <pt idx="4">
+                  <v>12154</v>
+                </pt>
+                <pt idx="5">
+                  <v>12760</v>
+                </pt>
+                <pt idx="6">
+                  <v>13396</v>
+                </pt>
+                <pt idx="7">
+                  <v>14063</v>
+                </pt>
+                <pt idx="8">
+                  <v>14763</v>
+                </pt>
+                <pt idx="9">
+                  <v>15498</v>
+                </pt>
+                <pt idx="10">
+                  <v>16269</v>
+                </pt>
+                <pt idx="11">
+                  <v>17078</v>
+                </pt>
+                <pt idx="12">
+                  <v>17927</v>
+                </pt>
+                <pt idx="13">
+                  <v>18818</v>
+                </pt>
+                <pt idx="14">
+                  <v>19753</v>
+                </pt>
+                <pt idx="15">
+                  <v>20734</v>
+                </pt>
+                <pt idx="16">
+                  <v>21764</v>
+                </pt>
+                <pt idx="17">
+                  <v>22845</v>
+                </pt>
+                <pt idx="18">
+                  <v>23980</v>
+                </pt>
+                <pt idx="19">
+                  <v>25171</v>
+                </pt>
+                <pt idx="20">
+                  <v>26421</v>
+                </pt>
+                <pt idx="21">
+                  <v>27733</v>
+                </pt>
+                <pt idx="22">
+                  <v>29110</v>
+                </pt>
+                <pt idx="23">
+                  <v>30555</v>
+                </pt>
+                <pt idx="24">
+                  <v>32072</v>
+                </pt>
+                <pt idx="25">
+                  <v>33664</v>
+                </pt>
+                <pt idx="26">
+                  <v>35335</v>
+                </pt>
+                <pt idx="27">
+                  <v>37089</v>
+                </pt>
+                <pt idx="28">
+                  <v>38930</v>
+                </pt>
+                <pt idx="29">
+                  <v>40863</v>
+                </pt>
+                <pt idx="30">
+                  <v>42892</v>
+                </pt>
+                <pt idx="31">
+                  <v>45022</v>
+                </pt>
+                <pt idx="32">
+                  <v>47258</v>
+                </pt>
+                <pt idx="33">
+                  <v>49605</v>
+                </pt>
+                <pt idx="34">
+                  <v>52069</v>
+                </pt>
+                <pt idx="35">
+                  <v>54656</v>
+                </pt>
+                <pt idx="36">
+                  <v>57372</v>
+                </pt>
+                <pt idx="37">
+                  <v>60223</v>
+                </pt>
+                <pt idx="38">
+                  <v>63216</v>
+                </pt>
+                <pt idx="39">
+                  <v>66358</v>
+                </pt>
+                <pt idx="40">
+                  <v>69657</v>
+                </pt>
+                <pt idx="41">
+                  <v>73120</v>
+                </pt>
+                <pt idx="42">
+                  <v>76756</v>
+                </pt>
+                <pt idx="43">
+                  <v>80573</v>
+                </pt>
+                <pt idx="44">
+                  <v>84580</v>
+                </pt>
+                <pt idx="45">
+                  <v>88787</v>
+                </pt>
+                <pt idx="46">
+                  <v>93204</v>
+                </pt>
+                <pt idx="47">
+                  <v>97841</v>
+                </pt>
+                <pt idx="48">
+                  <v>102709</v>
+                </pt>
+                <pt idx="49">
+                  <v>107820</v>
+                </pt>
+                <pt idx="50">
+                  <v>113186</v>
+                </pt>
+                <pt idx="51">
+                  <v>118820</v>
+                </pt>
+                <pt idx="52">
+                  <v>124735</v>
+                </pt>
+                <pt idx="53">
+                  <v>130945</v>
+                </pt>
+                <pt idx="54">
+                  <v>137465</v>
+                </pt>
+                <pt idx="55">
+                  <v>144311</v>
+                </pt>
+                <pt idx="56">
+                  <v>151499</v>
+                </pt>
+                <pt idx="57">
+                  <v>159046</v>
+                </pt>
+                <pt idx="58">
+                  <v>166970</v>
+                </pt>
+                <pt idx="59">
+                  <v>175290</v>
+                </pt>
+                <pt idx="60">
+                  <v>184026</v>
+                </pt>
+                <pt idx="61">
+                  <v>193198</v>
+                </pt>
+                <pt idx="62">
+                  <v>202828</v>
+                </pt>
+                <pt idx="63">
+                  <v>212939</v>
+                </pt>
+                <pt idx="64">
+                  <v>223555</v>
+                </pt>
+                <pt idx="65">
+                  <v>234701</v>
+                </pt>
+                <pt idx="66">
+                  <v>246404</v>
+                </pt>
+                <pt idx="67">
+                  <v>258692</v>
+                </pt>
+                <pt idx="68">
+                  <v>271594</v>
+                </pt>
+                <pt idx="69">
+                  <v>285141</v>
+                </pt>
+                <pt idx="70">
+                  <v>299365</v>
+                </pt>
+                <pt idx="71">
+                  <v>314300</v>
+                </pt>
+                <pt idx="72">
+                  <v>329981</v>
+                </pt>
+                <pt idx="73">
+                  <v>346446</v>
+                </pt>
+                <pt idx="74">
+                  <v>363734</v>
+                </pt>
+                <pt idx="75">
+                  <v>381886</v>
+                </pt>
+                <pt idx="76">
+                  <v>400945</v>
+                </pt>
+                <pt idx="77">
+                  <v>420956</v>
+                </pt>
+                <pt idx="78">
+                  <v>441967</v>
+                </pt>
+                <pt idx="79">
+                  <v>464028</v>
+                </pt>
+                <pt idx="80">
+                  <v>487192</v>
+                </pt>
+                <pt idx="81">
+                  <v>511514</v>
+                </pt>
+                <pt idx="82">
+                  <v>537052</v>
+                </pt>
+                <pt idx="83">
+                  <v>563866</v>
+                </pt>
+                <pt idx="84">
+                  <v>592020</v>
+                </pt>
+                <pt idx="85">
+                  <v>621581</v>
+                </pt>
+                <pt idx="86">
+                  <v>652620</v>
+                </pt>
+                <pt idx="87">
+                  <v>685210</v>
+                </pt>
+                <pt idx="88">
+                  <v>719429</v>
+                </pt>
+                <pt idx="89">
+                  <v>755358</v>
+                </pt>
+                <pt idx="90">
+                  <v>793083</v>
+                </pt>
+                <pt idx="91">
+                  <v>832694</v>
+                </pt>
+                <pt idx="92">
+                  <v>874285</v>
+                </pt>
+                <pt idx="93">
+                  <v>917955</v>
+                </pt>
+                <pt idx="94">
+                  <v>963808</v>
+                </pt>
+                <pt idx="95">
+                  <v>1011953</v>
+                </pt>
+                <pt idx="96">
+                  <v>1062505</v>
+                </pt>
+                <pt idx="97">
+                  <v>1115584</v>
+                </pt>
+                <pt idx="98">
+                  <v>1171316</v>
+                </pt>
+                <pt idx="99">
+                  <v>1229834</v>
+                </pt>
+                <pt idx="100">
+                  <v>1291277</v>
+                </pt>
+                <pt idx="101">
+                  <v>1355792</v>
+                </pt>
+                <pt idx="102">
+                  <v>1423532</v>
+                </pt>
+                <pt idx="103">
+                  <v>1494659</v>
+                </pt>
+                <pt idx="104">
+                  <v>1569342</v>
+                </pt>
+                <pt idx="105">
+                  <v>1647759</v>
+                </pt>
+                <pt idx="106">
+                  <v>1730096</v>
+                </pt>
+                <pt idx="107">
+                  <v>1816549</v>
+                </pt>
+                <pt idx="108">
+                  <v>1907324</v>
+                </pt>
+                <pt idx="109">
+                  <v>2002637</v>
+                </pt>
+                <pt idx="110">
+                  <v>2102715</v>
+                </pt>
+                <pt idx="111">
+                  <v>2207796</v>
+                </pt>
+                <pt idx="112">
+                  <v>2318131</v>
+                </pt>
+                <pt idx="113">
+                  <v>2433982</v>
+                </pt>
+                <pt idx="114">
+                  <v>2555625</v>
+                </pt>
+                <pt idx="115">
+                  <v>2683350</v>
+                </pt>
+                <pt idx="116">
+                  <v>2817461</v>
+                </pt>
+                <pt idx="117">
+                  <v>2958277</v>
+                </pt>
+                <pt idx="118">
+                  <v>3106133</v>
+                </pt>
+                <pt idx="119">
+                  <v>3261381</v>
+                </pt>
+                <pt idx="120">
+                  <v>3424391</v>
+                </pt>
+                <pt idx="121">
+                  <v>3595551</v>
+                </pt>
+                <pt idx="122">
+                  <v>3775269</v>
+                </pt>
+                <pt idx="123">
+                  <v>3963972</v>
+                </pt>
+                <pt idx="124">
+                  <v>4162110</v>
+                </pt>
+                <pt idx="125">
+                  <v>4370154</v>
+                </pt>
+                <pt idx="126">
+                  <v>4588600</v>
+                </pt>
+                <pt idx="127">
+                  <v>4817968</v>
+                </pt>
+                <pt idx="128">
+                  <v>5058804</v>
+                </pt>
+                <pt idx="129">
+                  <v>5311681</v>
+                </pt>
+                <pt idx="130">
+                  <v>5577201</v>
+                </pt>
+                <pt idx="131">
+                  <v>5855997</v>
+                </pt>
+                <pt idx="132">
+                  <v>6148732</v>
+                </pt>
+                <pt idx="133">
+                  <v>6456103</v>
+                </pt>
+                <pt idx="134">
+                  <v>6778842</v>
+                </pt>
+                <pt idx="135">
+                  <v>7117717</v>
+                </pt>
+                <pt idx="136">
+                  <v>7473535</v>
+                </pt>
+                <pt idx="137">
+                  <v>7847143</v>
+                </pt>
+                <pt idx="138">
+                  <v>8239431</v>
+                </pt>
+                <pt idx="139">
+                  <v>8651333</v>
+                </pt>
+                <pt idx="140">
+                  <v>9083830</v>
+                </pt>
+                <pt idx="141">
+                  <v>9537951</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>plot!$F$2:$F$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>0.0207038</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.0209254</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.0210935</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.0211706</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.0212118</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.0213994</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.0221416</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.0217383</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.021984</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.0219441</v>
+                </pt>
+                <pt idx="10">
+                  <v>0.0222077</v>
+                </pt>
+                <pt idx="11">
+                  <v>0.0225074</v>
+                </pt>
+                <pt idx="12">
+                  <v>0.0225264</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.0227424</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.0228512</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.022922</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.0231906</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.0233755</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.0238266</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.0248271</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.0279618</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.0233915</v>
+                </pt>
+                <pt idx="22">
+                  <v>0.0234442</v>
+                </pt>
+                <pt idx="23">
+                  <v>0.0236222</v>
+                </pt>
+                <pt idx="24">
+                  <v>0.0237763</v>
+                </pt>
+                <pt idx="25">
+                  <v>0.0240463</v>
+                </pt>
+                <pt idx="26">
+                  <v>0.0242566</v>
+                </pt>
+                <pt idx="27">
+                  <v>0.0245442</v>
+                </pt>
+                <pt idx="28">
+                  <v>0.0247829</v>
+                </pt>
+                <pt idx="29">
+                  <v>0.0251674</v>
+                </pt>
+                <pt idx="30">
+                  <v>0.0255784</v>
+                </pt>
+                <pt idx="31">
+                  <v>0.0262318</v>
+                </pt>
+                <pt idx="32">
+                  <v>0.0271806</v>
+                </pt>
+                <pt idx="33">
+                  <v>0.0296471</v>
+                </pt>
+                <pt idx="34">
+                  <v>0.0340328</v>
+                </pt>
+                <pt idx="35">
+                  <v>0.0245842</v>
+                </pt>
+                <pt idx="36">
+                  <v>0.0247098</v>
+                </pt>
+                <pt idx="37">
+                  <v>0.0249816</v>
+                </pt>
+                <pt idx="38">
+                  <v>0.0251795</v>
+                </pt>
+                <pt idx="39">
+                  <v>0.0253233</v>
+                </pt>
+                <pt idx="40">
+                  <v>0.0256274</v>
+                </pt>
+                <pt idx="41">
+                  <v>0.0259189</v>
+                </pt>
+                <pt idx="42">
+                  <v>0.0261494</v>
+                </pt>
+                <pt idx="43">
+                  <v>0.026656</v>
+                </pt>
+                <pt idx="44">
+                  <v>0.0272972</v>
+                </pt>
+                <pt idx="45">
+                  <v>0.0281227</v>
+                </pt>
+                <pt idx="46">
+                  <v>0.0297722</v>
+                </pt>
+                <pt idx="47">
+                  <v>0.0320114</v>
+                </pt>
+                <pt idx="48">
+                  <v>0.0359768</v>
+                </pt>
+                <pt idx="49">
+                  <v>0.0249922</v>
+                </pt>
+                <pt idx="50">
+                  <v>0.0251284</v>
+                </pt>
+                <pt idx="51">
+                  <v>0.0254049</v>
+                </pt>
+                <pt idx="52">
+                  <v>0.0255729</v>
+                </pt>
+                <pt idx="53">
+                  <v>0.0259531</v>
+                </pt>
+                <pt idx="54">
+                  <v>0.0261395</v>
+                </pt>
+                <pt idx="55">
+                  <v>0.0265401</v>
+                </pt>
+                <pt idx="56">
+                  <v>0.0270227</v>
+                </pt>
+                <pt idx="57">
+                  <v>0.0276978</v>
+                </pt>
+                <pt idx="58">
+                  <v>0.0284369</v>
+                </pt>
+                <pt idx="59">
+                  <v>0.0295769</v>
+                </pt>
+                <pt idx="60">
+                  <v>0.0313434</v>
+                </pt>
+                <pt idx="61">
+                  <v>0.0337604</v>
+                </pt>
+                <pt idx="62">
+                  <v>0.0372556</v>
+                </pt>
+                <pt idx="63">
+                  <v>0.042835</v>
+                </pt>
+                <pt idx="64">
+                  <v>0.0265858</v>
+                </pt>
+                <pt idx="65">
+                  <v>0.0269848</v>
+                </pt>
+                <pt idx="66">
+                  <v>0.0272039</v>
+                </pt>
+                <pt idx="67">
+                  <v>0.0274478</v>
+                </pt>
+                <pt idx="68">
+                  <v>0.0278812</v>
+                </pt>
+                <pt idx="69">
+                  <v>0.0281991</v>
+                </pt>
+                <pt idx="70">
+                  <v>0.0287265</v>
+                </pt>
+                <pt idx="71">
+                  <v>0.0295737</v>
+                </pt>
+                <pt idx="72">
+                  <v>0.0303666</v>
+                </pt>
+                <pt idx="73">
+                  <v>0.0315994</v>
+                </pt>
+                <pt idx="74">
+                  <v>0.0332608</v>
+                </pt>
+                <pt idx="75">
+                  <v>0.0355532</v>
+                </pt>
+                <pt idx="76">
+                  <v>0.038887</v>
+                </pt>
+                <pt idx="77">
+                  <v>0.0440891</v>
+                </pt>
+                <pt idx="78">
+                  <v>0.0335026</v>
+                </pt>
+                <pt idx="79">
+                  <v>0.0336411</v>
+                </pt>
+                <pt idx="80">
+                  <v>0.0340919</v>
+                </pt>
+                <pt idx="81">
+                  <v>0.0347245</v>
+                </pt>
+                <pt idx="82">
+                  <v>0.0350658</v>
+                </pt>
+                <pt idx="83">
+                  <v>0.035695</v>
+                </pt>
+                <pt idx="84">
+                  <v>0.036408</v>
+                </pt>
+                <pt idx="85">
+                  <v>0.0372398</v>
+                </pt>
+                <pt idx="86">
+                  <v>0.0382203</v>
+                </pt>
+                <pt idx="87">
+                  <v>0.0395911</v>
+                </pt>
+                <pt idx="88">
+                  <v>0.0413396</v>
+                </pt>
+                <pt idx="89">
+                  <v>0.0440599</v>
+                </pt>
+                <pt idx="90">
+                  <v>0.0478185</v>
+                </pt>
+                <pt idx="91">
+                  <v>0.0531663</v>
+                </pt>
+                <pt idx="92">
+                  <v>0.0674756</v>
+                </pt>
+                <pt idx="93">
+                  <v>0.0678738</v>
+                </pt>
+                <pt idx="94">
+                  <v>0.06835280000000001</v>
+                </pt>
+                <pt idx="95">
+                  <v>0.0688624</v>
+                </pt>
+                <pt idx="96">
+                  <v>0.07131179999999999</v>
+                </pt>
+                <pt idx="97">
+                  <v>0.07247720000000001</v>
+                </pt>
+                <pt idx="98">
+                  <v>0.0707691</v>
+                </pt>
+                <pt idx="99">
+                  <v>0.0715047</v>
+                </pt>
+                <pt idx="100">
+                  <v>0.0724716</v>
+                </pt>
+                <pt idx="101">
+                  <v>0.07365339999999999</v>
+                </pt>
+                <pt idx="102">
+                  <v>0.0752357</v>
+                </pt>
+                <pt idx="103">
+                  <v>0.07733470000000001</v>
+                </pt>
+                <pt idx="104">
+                  <v>0.0805929</v>
+                </pt>
+                <pt idx="105">
+                  <v>0.08521570000000001</v>
+                </pt>
+                <pt idx="106">
+                  <v>0.09318120000000001</v>
+                </pt>
+                <pt idx="107">
+                  <v>0.0937201</v>
+                </pt>
+                <pt idx="108">
+                  <v>0.0947561</v>
+                </pt>
+                <pt idx="109">
+                  <v>0.0946718</v>
+                </pt>
+                <pt idx="110">
+                  <v>0.0954238</v>
+                </pt>
+                <pt idx="111">
+                  <v>0.0960589</v>
+                </pt>
+                <pt idx="112">
+                  <v>0.09680229999999999</v>
+                </pt>
+                <pt idx="113">
+                  <v>0.09780510000000001</v>
+                </pt>
+                <pt idx="114">
+                  <v>0.0989189</v>
+                </pt>
+                <pt idx="115">
+                  <v>0.100379</v>
+                </pt>
+                <pt idx="116">
+                  <v>0.102046</v>
+                </pt>
+                <pt idx="117">
+                  <v>0.104462</v>
+                </pt>
+                <pt idx="118">
+                  <v>0.107403</v>
+                </pt>
+                <pt idx="119">
+                  <v>0.123425</v>
+                </pt>
+                <pt idx="120">
+                  <v>0.119466</v>
+                </pt>
+                <pt idx="121">
+                  <v>0.111747</v>
+                </pt>
+                <pt idx="122">
+                  <v>0.112366</v>
+                </pt>
+                <pt idx="123">
+                  <v>0.113098</v>
+                </pt>
+                <pt idx="124">
+                  <v>0.113718</v>
+                </pt>
+                <pt idx="125">
+                  <v>0.114767</v>
+                </pt>
+                <pt idx="126">
+                  <v>0.115834</v>
+                </pt>
+                <pt idx="127">
+                  <v>0.117009</v>
+                </pt>
+                <pt idx="128">
+                  <v>0.11837</v>
+                </pt>
+                <pt idx="129">
+                  <v>0.120045</v>
+                </pt>
+                <pt idx="130">
+                  <v>0.122017</v>
+                </pt>
+                <pt idx="131">
+                  <v>0.124441</v>
+                </pt>
+                <pt idx="132">
+                  <v>0.12801</v>
+                </pt>
+                <pt idx="133">
+                  <v>0.132847</v>
+                </pt>
+                <pt idx="134">
+                  <v>0.140151</v>
+                </pt>
+                <pt idx="135">
+                  <v>0.123723</v>
+                </pt>
+                <pt idx="136">
+                  <v>0.124728</v>
+                </pt>
+                <pt idx="137">
+                  <v>0.125981</v>
+                </pt>
+                <pt idx="138">
+                  <v>0.126212</v>
+                </pt>
+                <pt idx="139">
+                  <v>0.127737</v>
+                </pt>
+                <pt idx="140">
+                  <v>0.127931</v>
+                </pt>
+                <pt idx="141">
+                  <v>0.129179</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3792,7 +4694,7 @@
           <x val="0.09943851078021188"/>
           <y val="0.05455922082745843"/>
           <w val="0.3308817338426756"/>
-          <h val="0.2472877044215627"/>
+          <h val="0.3091096305269533"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -4142,7 +5044,7 @@
   <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4158,15 +5060,20 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>absl::node_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::unordered_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::unordered_flat_map</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>boost::unordered_node_map</t>
         </is>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0350908</v>
+        <v>0.0365221</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0367167</v>
+        <v>0.0371243</v>
       </c>
       <c r="D2" t="n">
-        <v>0.071093</v>
+        <v>0.07277019999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0362821</v>
+        <v>0.0367617</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0381828</v>
+        <v>0.0388622</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0357671</v>
+        <v>0.0367866</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0366569</v>
+        <v>0.0368395</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07754949999999999</v>
+        <v>0.0795009</v>
       </c>
       <c r="E3" t="n">
-        <v>0.036364</v>
+        <v>0.0368252</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0387491</v>
+        <v>0.0392868</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0357208</v>
+        <v>0.0366331</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0365276</v>
+        <v>0.0369895</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0853438</v>
+        <v>0.086807</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0372978</v>
+        <v>0.0377191</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0389359</v>
+        <v>0.0390169</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0357971</v>
+        <v>0.0368039</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0365144</v>
+        <v>0.0371828</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09283959999999999</v>
+        <v>0.09416529999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0375457</v>
+        <v>0.0380671</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0391281</v>
+        <v>0.03945</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0352303</v>
+        <v>0.0365797</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0384053</v>
+        <v>0.0383385</v>
       </c>
       <c r="D6" t="n">
-        <v>0.100837</v>
+        <v>0.10141</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0375375</v>
+        <v>0.037951</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0397294</v>
+        <v>0.0399683</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0359432</v>
+        <v>0.0371802</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0368626</v>
+        <v>0.0372345</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0617056</v>
+        <v>0.06273289999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0382128</v>
+        <v>0.0382852</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0400477</v>
+        <v>0.040345</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0364314</v>
+        <v>0.0373266</v>
       </c>
       <c r="C8" t="n">
-        <v>0.037282</v>
+        <v>0.0376417</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0661419</v>
+        <v>0.0661332</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0397135</v>
+        <v>0.0401081</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0419301</v>
+        <v>0.0420985</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0368029</v>
+        <v>0.0379697</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0374522</v>
+        <v>0.0382609</v>
       </c>
       <c r="D9" t="n">
-        <v>0.07105400000000001</v>
+        <v>0.0715031</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0386037</v>
+        <v>0.038775</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0404985</v>
+        <v>0.0409998</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0429614</v>
+        <v>0.0428584</v>
       </c>
       <c r="C10" t="n">
-        <v>0.042089</v>
+        <v>0.0433156</v>
       </c>
       <c r="D10" t="n">
-        <v>0.07495</v>
+        <v>0.07566589999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0396365</v>
+        <v>0.0396226</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0405578</v>
+        <v>0.0413211</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0430483</v>
+        <v>0.0431907</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0419096</v>
+        <v>0.0435501</v>
       </c>
       <c r="D11" t="n">
-        <v>0.08101120000000001</v>
+        <v>0.0823332</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0399896</v>
+        <v>0.0398412</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0408811</v>
+        <v>0.041315</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0431818</v>
+        <v>0.0431728</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0420074</v>
+        <v>0.0433038</v>
       </c>
       <c r="D12" t="n">
-        <v>0.08735039999999999</v>
+        <v>0.0875026</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0403824</v>
+        <v>0.0401933</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0410548</v>
+        <v>0.0417016</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0434436</v>
+        <v>0.0431965</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0421568</v>
+        <v>0.0433627</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0916275</v>
+        <v>0.0914808</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0406436</v>
+        <v>0.040606</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0414417</v>
+        <v>0.0418995</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0435956</v>
+        <v>0.0431305</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0426463</v>
+        <v>0.0432571</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0971137</v>
+        <v>0.0972244</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0410314</v>
+        <v>0.0405778</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0417256</v>
+        <v>0.0421581</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0435861</v>
+        <v>0.0434225</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0423531</v>
+        <v>0.0435256</v>
       </c>
       <c r="D15" t="n">
-        <v>0.102326</v>
+        <v>0.102502</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0412929</v>
+        <v>0.0409327</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0420477</v>
+        <v>0.0425915</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0436961</v>
+        <v>0.043567</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0425658</v>
+        <v>0.0437175</v>
       </c>
       <c r="D16" t="n">
-        <v>0.107275</v>
+        <v>0.107697</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0415211</v>
+        <v>0.041368</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0423193</v>
+        <v>0.0428653</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0438079</v>
+        <v>0.0439896</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0433271</v>
+        <v>0.0436962</v>
       </c>
       <c r="D17" t="n">
-        <v>0.112386</v>
+        <v>0.112637</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0422994</v>
+        <v>0.0416069</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0426057</v>
+        <v>0.0431235</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0438206</v>
+        <v>0.043896</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0427331</v>
+        <v>0.0438252</v>
       </c>
       <c r="D18" t="n">
-        <v>0.116985</v>
+        <v>0.117233</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0421695</v>
+        <v>0.0418435</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0429901</v>
+        <v>0.0433745</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0441266</v>
+        <v>0.0439886</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0428534</v>
+        <v>0.0439148</v>
       </c>
       <c r="D19" t="n">
-        <v>0.12156</v>
+        <v>0.121785</v>
       </c>
       <c r="E19" t="n">
-        <v>0.04241</v>
+        <v>0.0420431</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0431322</v>
+        <v>0.0437107</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0441767</v>
+        <v>0.0443742</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0431105</v>
+        <v>0.0440908</v>
       </c>
       <c r="D20" t="n">
-        <v>0.125104</v>
+        <v>0.12527</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0427695</v>
+        <v>0.0427174</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0438398</v>
+        <v>0.0441692</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0444171</v>
+        <v>0.0445888</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0434036</v>
+        <v>0.044022</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0890151</v>
+        <v>0.08899170000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0442931</v>
+        <v>0.0446727</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0446181</v>
+        <v>0.0447869</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.044896</v>
+        <v>0.0451449</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0440469</v>
+        <v>0.0441595</v>
       </c>
       <c r="D22" t="n">
-        <v>0.09179329999999999</v>
+        <v>0.0918301</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0466862</v>
+        <v>0.0473862</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0485898</v>
+        <v>0.0485592</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0455039</v>
+        <v>0.0456581</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0452512</v>
+        <v>0.0449806</v>
       </c>
       <c r="D23" t="n">
-        <v>0.094915</v>
+        <v>0.09490750000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0451403</v>
+        <v>0.0460329</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0465627</v>
+        <v>0.0467465</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0486723</v>
+        <v>0.0489164</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0498299</v>
+        <v>0.049829</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0989618</v>
+        <v>0.0988112</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0456813</v>
+        <v>0.0456725</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0468157</v>
+        <v>0.0466746</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0486952</v>
+        <v>0.0490255</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0497967</v>
+        <v>0.0498883</v>
       </c>
       <c r="D25" t="n">
-        <v>0.10202</v>
+        <v>0.10189</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0458406</v>
+        <v>0.0460452</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0469753</v>
+        <v>0.0468139</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0487746</v>
+        <v>0.0490199</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0500451</v>
+        <v>0.0500314</v>
       </c>
       <c r="D26" t="n">
-        <v>0.105724</v>
+        <v>0.105655</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0461734</v>
+        <v>0.0459852</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0472632</v>
+        <v>0.0471885</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0489315</v>
+        <v>0.0489209</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0500876</v>
+        <v>0.0501077</v>
       </c>
       <c r="D27" t="n">
-        <v>0.109818</v>
+        <v>0.109707</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0465692</v>
+        <v>0.046474</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0476234</v>
+        <v>0.047285</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0492176</v>
+        <v>0.0489238</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0502627</v>
+        <v>0.0502645</v>
       </c>
       <c r="D28" t="n">
-        <v>0.113835</v>
+        <v>0.11389</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0466281</v>
+        <v>0.0467539</v>
       </c>
       <c r="F28" t="n">
-        <v>0.047929</v>
+        <v>0.0477424</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0490935</v>
+        <v>0.0492865</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0502862</v>
+        <v>0.0503238</v>
       </c>
       <c r="D29" t="n">
-        <v>0.117821</v>
+        <v>0.117949</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0469302</v>
+        <v>0.0469892</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0481819</v>
+        <v>0.0480637</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0490577</v>
+        <v>0.0489679</v>
       </c>
       <c r="C30" t="n">
-        <v>0.050097</v>
+        <v>0.0499404</v>
       </c>
       <c r="D30" t="n">
-        <v>0.121807</v>
+        <v>0.121789</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0471343</v>
+        <v>0.0473946</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0480935</v>
+        <v>0.0478742</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0490868</v>
+        <v>0.0491404</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0504616</v>
+        <v>0.0505186</v>
       </c>
       <c r="D31" t="n">
-        <v>0.126011</v>
+        <v>0.125992</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0475652</v>
+        <v>0.0475319</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0487502</v>
+        <v>0.0485287</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0492361</v>
+        <v>0.049117</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0504018</v>
+        <v>0.0502546</v>
       </c>
       <c r="D32" t="n">
-        <v>0.129128</v>
+        <v>0.129243</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0478704</v>
+        <v>0.0480394</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0486684</v>
+        <v>0.0484367</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0493264</v>
+        <v>0.0495133</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0505037</v>
+        <v>0.0505069</v>
       </c>
       <c r="D33" t="n">
-        <v>0.132704</v>
+        <v>0.132775</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0481099</v>
+        <v>0.0481956</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0493288</v>
+        <v>0.0491031</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0495444</v>
+        <v>0.0494159</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0506094</v>
+        <v>0.0505382</v>
       </c>
       <c r="D34" t="n">
-        <v>0.135949</v>
+        <v>0.135973</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0483375</v>
+        <v>0.0490733</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0502437</v>
+        <v>0.0508531</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0501832</v>
+        <v>0.0499744</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0513258</v>
+        <v>0.0511794</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0969979</v>
+        <v>0.09690790000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0518208</v>
+        <v>0.0521483</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0543136</v>
+        <v>0.0540145</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0501854</v>
+        <v>0.0505759</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0516644</v>
+        <v>0.051653</v>
       </c>
       <c r="D36" t="n">
-        <v>0.099382</v>
+        <v>0.0993439</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0588372</v>
+        <v>0.0589616</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0627332</v>
+        <v>0.0636094</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0546754</v>
+        <v>0.0541091</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0555649</v>
+        <v>0.0558469</v>
       </c>
       <c r="D37" t="n">
-        <v>0.101549</v>
+        <v>0.101514</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0492769</v>
+        <v>0.0496575</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0500464</v>
+        <v>0.0502323</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0548323</v>
+        <v>0.0547818</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0563784</v>
+        <v>0.0565301</v>
       </c>
       <c r="D38" t="n">
-        <v>0.104252</v>
+        <v>0.104206</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0493414</v>
+        <v>0.0493773</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0505001</v>
+        <v>0.0503719</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0534163</v>
+        <v>0.0536595</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0563855</v>
+        <v>0.0565595</v>
       </c>
       <c r="D39" t="n">
-        <v>0.107047</v>
+        <v>0.10719</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0494699</v>
+        <v>0.0497035</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0510057</v>
+        <v>0.0508452</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0535667</v>
+        <v>0.0542496</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0565111</v>
+        <v>0.0567055</v>
       </c>
       <c r="D40" t="n">
-        <v>0.110313</v>
+        <v>0.110384</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0499764</v>
+        <v>0.050037</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0512291</v>
+        <v>0.0511711</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0537793</v>
+        <v>0.053756</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0566288</v>
+        <v>0.0567524</v>
       </c>
       <c r="D41" t="n">
-        <v>0.113741</v>
+        <v>0.11373</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0502298</v>
+        <v>0.0504902</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0515117</v>
+        <v>0.051434</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0537629</v>
+        <v>0.0538374</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0567006</v>
+        <v>0.0568492</v>
       </c>
       <c r="D42" t="n">
-        <v>0.117296</v>
+        <v>0.117301</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0506133</v>
+        <v>0.0506038</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0515681</v>
+        <v>0.0517103</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0537325</v>
+        <v>0.0542126</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0568043</v>
+        <v>0.0569528</v>
       </c>
       <c r="D43" t="n">
-        <v>0.121262</v>
+        <v>0.121247</v>
       </c>
       <c r="E43" t="n">
-        <v>0.051023</v>
+        <v>0.0510081</v>
       </c>
       <c r="F43" t="n">
-        <v>0.051995</v>
+        <v>0.0518545</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0540932</v>
+        <v>0.0540499</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0568303</v>
+        <v>0.0570106</v>
       </c>
       <c r="D44" t="n">
-        <v>0.125197</v>
+        <v>0.125213</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0514217</v>
+        <v>0.0512676</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0521128</v>
+        <v>0.0521142</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0544895</v>
+        <v>0.0543352</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0569714</v>
+        <v>0.0571714</v>
       </c>
       <c r="D45" t="n">
-        <v>0.12918</v>
+        <v>0.129066</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0514506</v>
+        <v>0.051807</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0526581</v>
+        <v>0.0526751</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0544117</v>
+        <v>0.0543384</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0569939</v>
+        <v>0.0572188</v>
       </c>
       <c r="D46" t="n">
-        <v>0.132719</v>
+        <v>0.132701</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0519031</v>
+        <v>0.0522683</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0533346</v>
+        <v>0.0533675</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0546072</v>
+        <v>0.0547001</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0571782</v>
+        <v>0.0573609</v>
       </c>
       <c r="D47" t="n">
-        <v>0.135843</v>
+        <v>0.135836</v>
       </c>
       <c r="E47" t="n">
-        <v>0.053205</v>
+        <v>0.0534122</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0551921</v>
+        <v>0.0551227</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0552546</v>
+        <v>0.0552213</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0575942</v>
+        <v>0.0577841</v>
       </c>
       <c r="D48" t="n">
-        <v>0.139528</v>
+        <v>0.139559</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0558953</v>
+        <v>0.0558111</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0582327</v>
+        <v>0.0585128</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0563148</v>
+        <v>0.0561274</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0584145</v>
+        <v>0.0586327</v>
       </c>
       <c r="D49" t="n">
-        <v>0.142386</v>
+        <v>0.142486</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0598524</v>
+        <v>0.0603465</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0625276</v>
+        <v>0.0627732</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0587726</v>
+        <v>0.058919</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0608284</v>
+        <v>0.0609132</v>
       </c>
       <c r="D50" t="n">
-        <v>0.101469</v>
+        <v>0.101425</v>
       </c>
       <c r="E50" t="n">
-        <v>0.06470190000000001</v>
+        <v>0.0647534</v>
       </c>
       <c r="F50" t="n">
-        <v>0.06786929999999999</v>
+        <v>0.06772830000000001</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0620344</v>
+        <v>0.0625619</v>
       </c>
       <c r="C51" t="n">
-        <v>0.06376419999999999</v>
+        <v>0.0638803</v>
       </c>
       <c r="D51" t="n">
-        <v>0.103693</v>
+        <v>0.103741</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0535312</v>
+        <v>0.0533481</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0529993</v>
+        <v>0.0529976</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0672002</v>
+        <v>0.0675364</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0707218</v>
+        <v>0.07016890000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>0.106141</v>
+        <v>0.106202</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0523317</v>
+        <v>0.0521401</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0530632</v>
+        <v>0.0535014</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0604152</v>
+        <v>0.060812</v>
       </c>
       <c r="C53" t="n">
-        <v>0.06325989999999999</v>
+        <v>0.0632254</v>
       </c>
       <c r="D53" t="n">
-        <v>0.108988</v>
+        <v>0.109041</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0528922</v>
+        <v>0.0525015</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0536789</v>
+        <v>0.0536655</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0603353</v>
+        <v>0.0605871</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0631852</v>
+        <v>0.0631835</v>
       </c>
       <c r="D54" t="n">
-        <v>0.112</v>
+        <v>0.112039</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0530502</v>
+        <v>0.0531454</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0539703</v>
+        <v>0.0538728</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.060562</v>
+        <v>0.060684</v>
       </c>
       <c r="C55" t="n">
-        <v>0.06334190000000001</v>
+        <v>0.0633594</v>
       </c>
       <c r="D55" t="n">
-        <v>0.115469</v>
+        <v>0.11552</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0534054</v>
+        <v>0.0533273</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0543438</v>
+        <v>0.0552748</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0606829</v>
+        <v>0.0606587</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0636038</v>
+        <v>0.06420430000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>0.119049</v>
+        <v>0.119125</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0538335</v>
+        <v>0.0538933</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0546198</v>
+        <v>0.0546292</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0611906</v>
+        <v>0.0605617</v>
       </c>
       <c r="C57" t="n">
-        <v>0.06374109999999999</v>
+        <v>0.0636945</v>
       </c>
       <c r="D57" t="n">
-        <v>0.12294</v>
+        <v>0.123058</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0542517</v>
+        <v>0.0541095</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0554292</v>
+        <v>0.0559701</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0612313</v>
+        <v>0.0609978</v>
       </c>
       <c r="C58" t="n">
-        <v>0.06404029999999999</v>
+        <v>0.0640018</v>
       </c>
       <c r="D58" t="n">
-        <v>0.126692</v>
+        <v>0.126778</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0547309</v>
+        <v>0.054872</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0558868</v>
+        <v>0.0558738</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0612687</v>
+        <v>0.0608842</v>
       </c>
       <c r="C59" t="n">
-        <v>0.06397890000000001</v>
+        <v>0.06460299999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.130456</v>
+        <v>0.130485</v>
       </c>
       <c r="E59" t="n">
-        <v>0.055343</v>
+        <v>0.0554849</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0570932</v>
+        <v>0.057238</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0615568</v>
+        <v>0.0610121</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0642218</v>
+        <v>0.0642596</v>
       </c>
       <c r="D60" t="n">
-        <v>0.134237</v>
+        <v>0.134242</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0567117</v>
+        <v>0.0568915</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0587697</v>
+        <v>0.0594979</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0616333</v>
+        <v>0.0615643</v>
       </c>
       <c r="C61" t="n">
-        <v>0.06487850000000001</v>
+        <v>0.06469519999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.138272</v>
+        <v>0.138282</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0589873</v>
+        <v>0.0587319</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0612919</v>
+        <v>0.0609171</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0621054</v>
+        <v>0.062468</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0654826</v>
+        <v>0.0655304</v>
       </c>
       <c r="D62" t="n">
-        <v>0.14179</v>
+        <v>0.141905</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0614189</v>
+        <v>0.0610761</v>
       </c>
       <c r="F62" t="n">
-        <v>0.06444179999999999</v>
+        <v>0.06449530000000001</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0643078</v>
+        <v>0.06436360000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.067373</v>
+        <v>0.0671283</v>
       </c>
       <c r="D63" t="n">
-        <v>0.145201</v>
+        <v>0.145218</v>
       </c>
       <c r="E63" t="n">
-        <v>0.06427910000000001</v>
+        <v>0.06401519999999999</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0677676</v>
+        <v>0.0682642</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.06573420000000001</v>
+        <v>0.0660839</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0697709</v>
+        <v>0.06958250000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.109554</v>
+        <v>0.108961</v>
       </c>
       <c r="E64" t="n">
-        <v>0.06837</v>
+        <v>0.0680465</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0728787</v>
+        <v>0.0734765</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.06881429999999999</v>
+        <v>0.069179</v>
       </c>
       <c r="C65" t="n">
-        <v>0.07318860000000001</v>
+        <v>0.07349559999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>0.113961</v>
+        <v>0.111479</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0743385</v>
+        <v>0.074304</v>
       </c>
       <c r="F65" t="n">
-        <v>0.07975260000000001</v>
+        <v>0.0802175</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0725915</v>
+        <v>0.07234110000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0782877</v>
+        <v>0.07829609999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>0.115412</v>
+        <v>0.114536</v>
       </c>
       <c r="E66" t="n">
-        <v>0.057257</v>
+        <v>0.057201</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0594095</v>
+        <v>0.0591688</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.071385</v>
+        <v>0.0725307</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0718442</v>
+        <v>0.0714371</v>
       </c>
       <c r="D67" t="n">
-        <v>0.120826</v>
+        <v>0.118195</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0557436</v>
+        <v>0.0558698</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0602819</v>
+        <v>0.0596128</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0720384</v>
+        <v>0.0721562</v>
       </c>
       <c r="C68" t="n">
-        <v>0.07203710000000001</v>
+        <v>0.071966</v>
       </c>
       <c r="D68" t="n">
-        <v>0.126733</v>
+        <v>0.12386</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0565948</v>
+        <v>0.0564056</v>
       </c>
       <c r="F68" t="n">
-        <v>0.060856</v>
+        <v>0.060876</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.07369299999999999</v>
+        <v>0.0730484</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0726405</v>
+        <v>0.07241839999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.132794</v>
+        <v>0.129462</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0584031</v>
+        <v>0.0568881</v>
       </c>
       <c r="F69" t="n">
-        <v>0.062152</v>
+        <v>0.0616001</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0723954</v>
+        <v>0.0736392</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0732922</v>
+        <v>0.0728548</v>
       </c>
       <c r="D70" t="n">
-        <v>0.137619</v>
+        <v>0.134865</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0569066</v>
+        <v>0.0572095</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0631338</v>
+        <v>0.0626376</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0729592</v>
+        <v>0.0741223</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0739205</v>
+        <v>0.0734331</v>
       </c>
       <c r="D71" t="n">
-        <v>0.143169</v>
+        <v>0.141469</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0580634</v>
+        <v>0.0578573</v>
       </c>
       <c r="F71" t="n">
-        <v>0.06425069999999999</v>
+        <v>0.0644208</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0753562</v>
+        <v>0.07244399999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0742666</v>
+        <v>0.0738197</v>
       </c>
       <c r="D72" t="n">
-        <v>0.150322</v>
+        <v>0.147469</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0584939</v>
+        <v>0.0584412</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06591610000000001</v>
+        <v>0.0661347</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.07483049999999999</v>
+        <v>0.07366350000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>0.07568220000000001</v>
+        <v>0.07509929999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.157195</v>
+        <v>0.155398</v>
       </c>
       <c r="E73" t="n">
-        <v>0.059525</v>
+        <v>0.0595144</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0682712</v>
+        <v>0.06774570000000001</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.07507419999999999</v>
+        <v>0.0727252</v>
       </c>
       <c r="C74" t="n">
-        <v>0.07671260000000001</v>
+        <v>0.0758558</v>
       </c>
       <c r="D74" t="n">
-        <v>0.167482</v>
+        <v>0.165805</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0614127</v>
+        <v>0.060855</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0708251</v>
+        <v>0.0701609</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0763151</v>
+        <v>0.0732888</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0770537</v>
+        <v>0.0778423</v>
       </c>
       <c r="D75" t="n">
-        <v>0.174881</v>
+        <v>0.175288</v>
       </c>
       <c r="E75" t="n">
-        <v>0.063081</v>
+        <v>0.0622059</v>
       </c>
       <c r="F75" t="n">
-        <v>0.07405680000000001</v>
+        <v>0.0736892</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.07658089999999999</v>
+        <v>0.07415140000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0787598</v>
+        <v>0.0796775</v>
       </c>
       <c r="D76" t="n">
-        <v>0.181854</v>
+        <v>0.181092</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0655092</v>
+        <v>0.0643213</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0779995</v>
+        <v>0.0770333</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0772299</v>
+        <v>0.0741666</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0808388</v>
+        <v>0.0815179</v>
       </c>
       <c r="D77" t="n">
-        <v>0.194227</v>
+        <v>0.192976</v>
       </c>
       <c r="E77" t="n">
-        <v>0.06817189999999999</v>
+        <v>0.06694410000000001</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0822309</v>
+        <v>0.0814694</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0778784</v>
+        <v>0.0789714</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0840129</v>
+        <v>0.0842248</v>
       </c>
       <c r="D78" t="n">
-        <v>0.185841</v>
+        <v>0.188649</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0714284</v>
+        <v>0.0708372</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0872882</v>
+        <v>0.0872662</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0819858</v>
+        <v>0.0814439</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0880306</v>
+        <v>0.0885104</v>
       </c>
       <c r="D79" t="n">
-        <v>0.193814</v>
+        <v>0.194407</v>
       </c>
       <c r="E79" t="n">
-        <v>0.077153</v>
+        <v>0.0763923</v>
       </c>
       <c r="F79" t="n">
-        <v>0.09502240000000001</v>
+        <v>0.0950201</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.08486200000000001</v>
+        <v>0.0857024</v>
       </c>
       <c r="C80" t="n">
-        <v>0.09394130000000001</v>
+        <v>0.0939459</v>
       </c>
       <c r="D80" t="n">
-        <v>0.202301</v>
+        <v>0.203188</v>
       </c>
       <c r="E80" t="n">
-        <v>0.105019</v>
+        <v>0.102031</v>
       </c>
       <c r="F80" t="n">
-        <v>0.102976</v>
+        <v>0.10238</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.172868</v>
+        <v>0.172411</v>
       </c>
       <c r="C81" t="n">
-        <v>0.141011</v>
+        <v>0.140509</v>
       </c>
       <c r="D81" t="n">
-        <v>0.211255</v>
+        <v>0.212274</v>
       </c>
       <c r="E81" t="n">
-        <v>0.108536</v>
+        <v>0.106537</v>
       </c>
       <c r="F81" t="n">
-        <v>0.103748</v>
+        <v>0.103456</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.175805</v>
+        <v>0.174134</v>
       </c>
       <c r="C82" t="n">
-        <v>0.141645</v>
+        <v>0.141199</v>
       </c>
       <c r="D82" t="n">
-        <v>0.218885</v>
+        <v>0.219165</v>
       </c>
       <c r="E82" t="n">
-        <v>0.110547</v>
+        <v>0.108938</v>
       </c>
       <c r="F82" t="n">
-        <v>0.105589</v>
+        <v>0.104155</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.176921</v>
+        <v>0.174591</v>
       </c>
       <c r="C83" t="n">
-        <v>0.142142</v>
+        <v>0.141947</v>
       </c>
       <c r="D83" t="n">
-        <v>0.227483</v>
+        <v>0.227998</v>
       </c>
       <c r="E83" t="n">
-        <v>0.113079</v>
+        <v>0.109352</v>
       </c>
       <c r="F83" t="n">
-        <v>0.106144</v>
+        <v>0.105373</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.177431</v>
+        <v>0.175618</v>
       </c>
       <c r="C84" t="n">
-        <v>0.143213</v>
+        <v>0.143203</v>
       </c>
       <c r="D84" t="n">
-        <v>0.238655</v>
+        <v>0.238356</v>
       </c>
       <c r="E84" t="n">
-        <v>0.114596</v>
+        <v>0.112469</v>
       </c>
       <c r="F84" t="n">
-        <v>0.107014</v>
+        <v>0.106218</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.178638</v>
+        <v>0.177372</v>
       </c>
       <c r="C85" t="n">
-        <v>0.14304</v>
+        <v>0.142893</v>
       </c>
       <c r="D85" t="n">
-        <v>0.24996</v>
+        <v>0.250935</v>
       </c>
       <c r="E85" t="n">
-        <v>0.116211</v>
+        <v>0.113632</v>
       </c>
       <c r="F85" t="n">
-        <v>0.111154</v>
+        <v>0.10715</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.178366</v>
+        <v>0.176718</v>
       </c>
       <c r="C86" t="n">
-        <v>0.1445</v>
+        <v>0.144265</v>
       </c>
       <c r="D86" t="n">
-        <v>0.256979</v>
+        <v>0.257872</v>
       </c>
       <c r="E86" t="n">
-        <v>0.118273</v>
+        <v>0.115698</v>
       </c>
       <c r="F86" t="n">
-        <v>0.112622</v>
+        <v>0.108312</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.179477</v>
+        <v>0.177023</v>
       </c>
       <c r="C87" t="n">
-        <v>0.14529</v>
+        <v>0.144798</v>
       </c>
       <c r="D87" t="n">
-        <v>0.271024</v>
+        <v>0.271159</v>
       </c>
       <c r="E87" t="n">
-        <v>0.120267</v>
+        <v>0.116807</v>
       </c>
       <c r="F87" t="n">
-        <v>0.114315</v>
+        <v>0.110335</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.18075</v>
+        <v>0.177794</v>
       </c>
       <c r="C88" t="n">
-        <v>0.147587</v>
+        <v>0.145624</v>
       </c>
       <c r="D88" t="n">
-        <v>0.279166</v>
+        <v>0.279253</v>
       </c>
       <c r="E88" t="n">
-        <v>0.123143</v>
+        <v>0.12012</v>
       </c>
       <c r="F88" t="n">
-        <v>0.11484</v>
+        <v>0.114873</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.180698</v>
+        <v>0.178511</v>
       </c>
       <c r="C89" t="n">
-        <v>0.147565</v>
+        <v>0.147081</v>
       </c>
       <c r="D89" t="n">
-        <v>0.288677</v>
+        <v>0.289369</v>
       </c>
       <c r="E89" t="n">
-        <v>0.126309</v>
+        <v>0.122547</v>
       </c>
       <c r="F89" t="n">
-        <v>0.116774</v>
+        <v>0.114549</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.181212</v>
+        <v>0.178767</v>
       </c>
       <c r="C90" t="n">
-        <v>0.15063</v>
+        <v>0.148207</v>
       </c>
       <c r="D90" t="n">
-        <v>0.298792</v>
+        <v>0.298806</v>
       </c>
       <c r="E90" t="n">
-        <v>0.128882</v>
+        <v>0.124755</v>
       </c>
       <c r="F90" t="n">
-        <v>0.116988</v>
+        <v>0.119444</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.183702</v>
+        <v>0.18037</v>
       </c>
       <c r="C91" t="n">
-        <v>0.150216</v>
+        <v>0.151717</v>
       </c>
       <c r="D91" t="n">
-        <v>0.309646</v>
+        <v>0.30835</v>
       </c>
       <c r="E91" t="n">
-        <v>0.13026</v>
+        <v>0.128828</v>
       </c>
       <c r="F91" t="n">
-        <v>0.121187</v>
+        <v>0.12017</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.183543</v>
+        <v>0.182469</v>
       </c>
       <c r="C92" t="n">
-        <v>0.152806</v>
+        <v>0.152269</v>
       </c>
       <c r="D92" t="n">
-        <v>0.289594</v>
+        <v>0.287988</v>
       </c>
       <c r="E92" t="n">
-        <v>0.133516</v>
+        <v>0.131995</v>
       </c>
       <c r="F92" t="n">
-        <v>0.126088</v>
+        <v>0.12708</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.184684</v>
+        <v>0.18323</v>
       </c>
       <c r="C93" t="n">
-        <v>0.156688</v>
+        <v>0.157817</v>
       </c>
       <c r="D93" t="n">
-        <v>0.294366</v>
+        <v>0.293038</v>
       </c>
       <c r="E93" t="n">
-        <v>0.137893</v>
+        <v>0.136428</v>
       </c>
       <c r="F93" t="n">
-        <v>0.135418</v>
+        <v>0.132176</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.185819</v>
+        <v>0.185314</v>
       </c>
       <c r="C94" t="n">
-        <v>0.163676</v>
+        <v>0.162595</v>
       </c>
       <c r="D94" t="n">
-        <v>0.300517</v>
+        <v>0.298972</v>
       </c>
       <c r="E94" t="n">
-        <v>0.207367</v>
+        <v>0.205224</v>
       </c>
       <c r="F94" t="n">
-        <v>0.200837</v>
+        <v>0.199571</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.245845</v>
+        <v>0.243186</v>
       </c>
       <c r="C95" t="n">
-        <v>0.222476</v>
+        <v>0.221062</v>
       </c>
       <c r="D95" t="n">
-        <v>0.307135</v>
+        <v>0.305169</v>
       </c>
       <c r="E95" t="n">
-        <v>0.20944</v>
+        <v>0.209872</v>
       </c>
       <c r="F95" t="n">
-        <v>0.201881</v>
+        <v>0.200609</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.246039</v>
+        <v>0.243707</v>
       </c>
       <c r="C96" t="n">
-        <v>0.222574</v>
+        <v>0.221355</v>
       </c>
       <c r="D96" t="n">
-        <v>0.318586</v>
+        <v>0.317332</v>
       </c>
       <c r="E96" t="n">
-        <v>0.210249</v>
+        <v>0.208868</v>
       </c>
       <c r="F96" t="n">
-        <v>0.203052</v>
+        <v>0.20181</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.24533</v>
+        <v>0.244167</v>
       </c>
       <c r="C97" t="n">
-        <v>0.223549</v>
+        <v>0.221718</v>
       </c>
       <c r="D97" t="n">
-        <v>0.324478</v>
+        <v>0.323202</v>
       </c>
       <c r="E97" t="n">
-        <v>0.212856</v>
+        <v>0.210798</v>
       </c>
       <c r="F97" t="n">
-        <v>0.20382</v>
+        <v>0.202603</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.244827</v>
+        <v>0.243906</v>
       </c>
       <c r="C98" t="n">
-        <v>0.223659</v>
+        <v>0.221937</v>
       </c>
       <c r="D98" t="n">
-        <v>0.3337</v>
+        <v>0.332279</v>
       </c>
       <c r="E98" t="n">
-        <v>0.213877</v>
+        <v>0.212165</v>
       </c>
       <c r="F98" t="n">
-        <v>0.20512</v>
+        <v>0.203898</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.24577</v>
+        <v>0.243829</v>
       </c>
       <c r="C99" t="n">
-        <v>0.224062</v>
+        <v>0.22233</v>
       </c>
       <c r="D99" t="n">
-        <v>0.341612</v>
+        <v>0.340037</v>
       </c>
       <c r="E99" t="n">
-        <v>0.215677</v>
+        <v>0.214454</v>
       </c>
       <c r="F99" t="n">
-        <v>0.206863</v>
+        <v>0.205097</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.245888</v>
+        <v>0.244595</v>
       </c>
       <c r="C100" t="n">
-        <v>0.224664</v>
+        <v>0.222892</v>
       </c>
       <c r="D100" t="n">
-        <v>0.349666</v>
+        <v>0.347827</v>
       </c>
       <c r="E100" t="n">
-        <v>0.21754</v>
+        <v>0.215574</v>
       </c>
       <c r="F100" t="n">
-        <v>0.208216</v>
+        <v>0.207788</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.245962</v>
+        <v>0.244716</v>
       </c>
       <c r="C101" t="n">
-        <v>0.225261</v>
+        <v>0.223381</v>
       </c>
       <c r="D101" t="n">
-        <v>0.359541</v>
+        <v>0.357851</v>
       </c>
       <c r="E101" t="n">
-        <v>0.219257</v>
+        <v>0.218227</v>
       </c>
       <c r="F101" t="n">
-        <v>0.210075</v>
+        <v>0.207833</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.246433</v>
+        <v>0.244508</v>
       </c>
       <c r="C102" t="n">
-        <v>0.226013</v>
+        <v>0.22409</v>
       </c>
       <c r="D102" t="n">
-        <v>0.368452</v>
+        <v>0.366883</v>
       </c>
       <c r="E102" t="n">
-        <v>0.220846</v>
+        <v>0.219519</v>
       </c>
       <c r="F102" t="n">
-        <v>0.21061</v>
+        <v>0.21169</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.246618</v>
+        <v>0.24507</v>
       </c>
       <c r="C103" t="n">
-        <v>0.227369</v>
+        <v>0.225299</v>
       </c>
       <c r="D103" t="n">
-        <v>0.378822</v>
+        <v>0.377215</v>
       </c>
       <c r="E103" t="n">
-        <v>0.223221</v>
+        <v>0.223006</v>
       </c>
       <c r="F103" t="n">
-        <v>0.213295</v>
+        <v>0.211558</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.246004</v>
+        <v>0.24469</v>
       </c>
       <c r="C104" t="n">
-        <v>0.229012</v>
+        <v>0.226785</v>
       </c>
       <c r="D104" t="n">
-        <v>0.387174</v>
+        <v>0.38538</v>
       </c>
       <c r="E104" t="n">
-        <v>0.22626</v>
+        <v>0.223725</v>
       </c>
       <c r="F104" t="n">
-        <v>0.214972</v>
+        <v>0.214739</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.247256</v>
+        <v>0.245528</v>
       </c>
       <c r="C105" t="n">
-        <v>0.230546</v>
+        <v>0.22841</v>
       </c>
       <c r="D105" t="n">
-        <v>0.39664</v>
+        <v>0.395486</v>
       </c>
       <c r="E105" t="n">
-        <v>0.227643</v>
+        <v>0.22704</v>
       </c>
       <c r="F105" t="n">
-        <v>0.219675</v>
+        <v>0.217319</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.248596</v>
+        <v>0.246472</v>
       </c>
       <c r="C106" t="n">
-        <v>0.232616</v>
+        <v>0.230755</v>
       </c>
       <c r="D106" t="n">
-        <v>0.40686</v>
+        <v>0.40519</v>
       </c>
       <c r="E106" t="n">
-        <v>0.231374</v>
+        <v>0.229866</v>
       </c>
       <c r="F106" t="n">
-        <v>0.224376</v>
+        <v>0.222266</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.24894</v>
+        <v>0.247837</v>
       </c>
       <c r="C107" t="n">
-        <v>0.236977</v>
+        <v>0.234472</v>
       </c>
       <c r="D107" t="n">
-        <v>0.351631</v>
+        <v>0.349499</v>
       </c>
       <c r="E107" t="n">
-        <v>0.235145</v>
+        <v>0.23382</v>
       </c>
       <c r="F107" t="n">
-        <v>0.229993</v>
+        <v>0.227214</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.252099</v>
+        <v>0.251079</v>
       </c>
       <c r="C108" t="n">
-        <v>0.241618</v>
+        <v>0.239282</v>
       </c>
       <c r="D108" t="n">
-        <v>0.357842</v>
+        <v>0.355888</v>
       </c>
       <c r="E108" t="n">
-        <v>0.252858</v>
+        <v>0.251015</v>
       </c>
       <c r="F108" t="n">
-        <v>0.253586</v>
+        <v>0.251471</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.257227</v>
+        <v>0.254875</v>
       </c>
       <c r="C109" t="n">
-        <v>0.250055</v>
+        <v>0.247764</v>
       </c>
       <c r="D109" t="n">
-        <v>0.358964</v>
+        <v>0.356718</v>
       </c>
       <c r="E109" t="n">
-        <v>0.255008</v>
+        <v>0.252551</v>
       </c>
       <c r="F109" t="n">
-        <v>0.25443</v>
+        <v>0.252298</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.283292</v>
+        <v>0.280712</v>
       </c>
       <c r="C110" t="n">
-        <v>0.275911</v>
+        <v>0.275545</v>
       </c>
       <c r="D110" t="n">
-        <v>0.366028</v>
+        <v>0.364107</v>
       </c>
       <c r="E110" t="n">
-        <v>0.253055</v>
+        <v>0.248802</v>
       </c>
       <c r="F110" t="n">
-        <v>0.255859</v>
+        <v>0.254095</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.282895</v>
+        <v>0.280767</v>
       </c>
       <c r="C111" t="n">
-        <v>0.27728</v>
+        <v>0.275292</v>
       </c>
       <c r="D111" t="n">
-        <v>0.377208</v>
+        <v>0.37519</v>
       </c>
       <c r="E111" t="n">
-        <v>0.252725</v>
+        <v>0.250726</v>
       </c>
       <c r="F111" t="n">
-        <v>0.258241</v>
+        <v>0.255476</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.281512</v>
+        <v>0.280894</v>
       </c>
       <c r="C112" t="n">
-        <v>0.276891</v>
+        <v>0.275327</v>
       </c>
       <c r="D112" t="n">
-        <v>0.381217</v>
+        <v>0.379342</v>
       </c>
       <c r="E112" t="n">
-        <v>0.252151</v>
+        <v>0.249994</v>
       </c>
       <c r="F112" t="n">
-        <v>0.259615</v>
+        <v>0.256977</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.283849</v>
+        <v>0.28078</v>
       </c>
       <c r="C113" t="n">
-        <v>0.278844</v>
+        <v>0.275115</v>
       </c>
       <c r="D113" t="n">
-        <v>0.390321</v>
+        <v>0.388319</v>
       </c>
       <c r="E113" t="n">
-        <v>0.254793</v>
+        <v>0.252615</v>
       </c>
       <c r="F113" t="n">
-        <v>0.261653</v>
+        <v>0.259328</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.281427</v>
+        <v>0.28247</v>
       </c>
       <c r="C114" t="n">
-        <v>0.278757</v>
+        <v>0.277337</v>
       </c>
       <c r="D114" t="n">
-        <v>0.398738</v>
+        <v>0.396501</v>
       </c>
       <c r="E114" t="n">
-        <v>0.257258</v>
+        <v>0.255505</v>
       </c>
       <c r="F114" t="n">
-        <v>0.263387</v>
+        <v>0.262264</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.282175</v>
+        <v>0.281517</v>
       </c>
       <c r="C115" t="n">
-        <v>0.281476</v>
+        <v>0.277584</v>
       </c>
       <c r="D115" t="n">
-        <v>0.406435</v>
+        <v>0.404189</v>
       </c>
       <c r="E115" t="n">
-        <v>0.25938</v>
+        <v>0.258118</v>
       </c>
       <c r="F115" t="n">
-        <v>0.266901</v>
+        <v>0.264968</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.282086</v>
+        <v>0.280868</v>
       </c>
       <c r="C116" t="n">
-        <v>0.280915</v>
+        <v>0.278355</v>
       </c>
       <c r="D116" t="n">
-        <v>0.41417</v>
+        <v>0.411981</v>
       </c>
       <c r="E116" t="n">
-        <v>0.262355</v>
+        <v>0.260795</v>
       </c>
       <c r="F116" t="n">
-        <v>0.270097</v>
+        <v>0.267595</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.283447</v>
+        <v>0.281654</v>
       </c>
       <c r="C117" t="n">
-        <v>0.28229</v>
+        <v>0.279953</v>
       </c>
       <c r="D117" t="n">
-        <v>0.423423</v>
+        <v>0.421089</v>
       </c>
       <c r="E117" t="n">
-        <v>0.266001</v>
+        <v>0.264037</v>
       </c>
       <c r="F117" t="n">
-        <v>0.273692</v>
+        <v>0.271225</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.283981</v>
+        <v>0.283037</v>
       </c>
       <c r="C118" t="n">
-        <v>0.281884</v>
+        <v>0.282238</v>
       </c>
       <c r="D118" t="n">
-        <v>0.431439</v>
+        <v>0.429154</v>
       </c>
       <c r="E118" t="n">
-        <v>0.26867</v>
+        <v>0.266681</v>
       </c>
       <c r="F118" t="n">
-        <v>0.27719</v>
+        <v>0.274928</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.284879</v>
+        <v>0.282042</v>
       </c>
       <c r="C119" t="n">
-        <v>0.284544</v>
+        <v>0.283199</v>
       </c>
       <c r="D119" t="n">
-        <v>0.444254</v>
+        <v>0.442056</v>
       </c>
       <c r="E119" t="n">
-        <v>0.27237</v>
+        <v>0.270218</v>
       </c>
       <c r="F119" t="n">
-        <v>0.282519</v>
+        <v>0.280075</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.283827</v>
+        <v>0.282604</v>
       </c>
       <c r="C120" t="n">
-        <v>0.286533</v>
+        <v>0.285829</v>
       </c>
       <c r="D120" t="n">
-        <v>0.452912</v>
+        <v>0.450895</v>
       </c>
       <c r="E120" t="n">
-        <v>0.275959</v>
+        <v>0.274295</v>
       </c>
       <c r="F120" t="n">
-        <v>0.283275</v>
+        <v>0.28124</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.286031</v>
+        <v>0.28528</v>
       </c>
       <c r="C121" t="n">
-        <v>0.290879</v>
+        <v>0.28845</v>
       </c>
       <c r="D121" t="n">
-        <v>0.377929</v>
+        <v>0.376608</v>
       </c>
       <c r="E121" t="n">
-        <v>0.28042</v>
+        <v>0.279318</v>
       </c>
       <c r="F121" t="n">
-        <v>0.292687</v>
+        <v>0.288505</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.289477</v>
+        <v>0.286728</v>
       </c>
       <c r="C122" t="n">
-        <v>0.29554</v>
+        <v>0.29506</v>
       </c>
       <c r="D122" t="n">
-        <v>0.384297</v>
+        <v>0.382425</v>
       </c>
       <c r="E122" t="n">
-        <v>0.286949</v>
+        <v>0.285524</v>
       </c>
       <c r="F122" t="n">
-        <v>0.30106</v>
+        <v>0.29863</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.292397</v>
+        <v>0.291815</v>
       </c>
       <c r="C123" t="n">
-        <v>0.303346</v>
+        <v>0.301742</v>
       </c>
       <c r="D123" t="n">
-        <v>0.38999</v>
+        <v>0.387783</v>
       </c>
       <c r="E123" t="n">
-        <v>0.274863</v>
+        <v>0.273756</v>
       </c>
       <c r="F123" t="n">
-        <v>0.28618</v>
+        <v>0.284302</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.362328</v>
+        <v>0.360413</v>
       </c>
       <c r="C124" t="n">
-        <v>0.352755</v>
+        <v>0.350184</v>
       </c>
       <c r="D124" t="n">
-        <v>0.394285</v>
+        <v>0.392151</v>
       </c>
       <c r="E124" t="n">
-        <v>0.275334</v>
+        <v>0.273866</v>
       </c>
       <c r="F124" t="n">
-        <v>0.287403</v>
+        <v>0.286285</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.362885</v>
+        <v>0.360084</v>
       </c>
       <c r="C125" t="n">
-        <v>0.352788</v>
+        <v>0.351007</v>
       </c>
       <c r="D125" t="n">
-        <v>0.403921</v>
+        <v>0.401649</v>
       </c>
       <c r="E125" t="n">
-        <v>0.278157</v>
+        <v>0.276444</v>
       </c>
       <c r="F125" t="n">
-        <v>0.288705</v>
+        <v>0.288227</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.361573</v>
+        <v>0.361988</v>
       </c>
       <c r="C126" t="n">
-        <v>0.353169</v>
+        <v>0.35121</v>
       </c>
       <c r="D126" t="n">
-        <v>0.408258</v>
+        <v>0.40851</v>
       </c>
       <c r="E126" t="n">
-        <v>0.280825</v>
+        <v>0.279376</v>
       </c>
       <c r="F126" t="n">
-        <v>0.292401</v>
+        <v>0.290486</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.35525</v>
+        <v>0.361804</v>
       </c>
       <c r="C127" t="n">
-        <v>0.354036</v>
+        <v>0.352234</v>
       </c>
       <c r="D127" t="n">
-        <v>0.415054</v>
+        <v>0.413419</v>
       </c>
       <c r="E127" t="n">
-        <v>0.28389</v>
+        <v>0.282202</v>
       </c>
       <c r="F127" t="n">
-        <v>0.293845</v>
+        <v>0.293098</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.362168</v>
+        <v>0.361712</v>
       </c>
       <c r="C128" t="n">
-        <v>0.354965</v>
+        <v>0.352083</v>
       </c>
       <c r="D128" t="n">
-        <v>0.429428</v>
+        <v>0.427285</v>
       </c>
       <c r="E128" t="n">
-        <v>0.286138</v>
+        <v>0.285154</v>
       </c>
       <c r="F128" t="n">
-        <v>0.297141</v>
+        <v>0.296339</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.36291</v>
+        <v>0.360992</v>
       </c>
       <c r="C129" t="n">
-        <v>0.355081</v>
+        <v>0.353485</v>
       </c>
       <c r="D129" t="n">
-        <v>0.435416</v>
+        <v>0.433478</v>
       </c>
       <c r="E129" t="n">
-        <v>0.285197</v>
+        <v>0.288084</v>
       </c>
       <c r="F129" t="n">
-        <v>0.299318</v>
+        <v>0.299342</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.36296</v>
+        <v>0.360453</v>
       </c>
       <c r="C130" t="n">
-        <v>0.356425</v>
+        <v>0.354926</v>
       </c>
       <c r="D130" t="n">
-        <v>0.444803</v>
+        <v>0.44282</v>
       </c>
       <c r="E130" t="n">
-        <v>0.292839</v>
+        <v>0.291402</v>
       </c>
       <c r="F130" t="n">
-        <v>0.297409</v>
+        <v>0.296308</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.361744</v>
+        <v>0.361655</v>
       </c>
       <c r="C131" t="n">
-        <v>0.357479</v>
+        <v>0.355659</v>
       </c>
       <c r="D131" t="n">
-        <v>0.452559</v>
+        <v>0.450654</v>
       </c>
       <c r="E131" t="n">
-        <v>0.296349</v>
+        <v>0.295177</v>
       </c>
       <c r="F131" t="n">
-        <v>0.303166</v>
+        <v>0.301085</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.362248</v>
+        <v>0.360622</v>
       </c>
       <c r="C132" t="n">
-        <v>0.359279</v>
+        <v>0.357297</v>
       </c>
       <c r="D132" t="n">
-        <v>0.458082</v>
+        <v>0.456556</v>
       </c>
       <c r="E132" t="n">
-        <v>0.300737</v>
+        <v>0.298619</v>
       </c>
       <c r="F132" t="n">
-        <v>0.308971</v>
+        <v>0.30629</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.363945</v>
+        <v>0.360835</v>
       </c>
       <c r="C133" t="n">
-        <v>0.361176</v>
+        <v>0.359755</v>
       </c>
       <c r="D133" t="n">
-        <v>0.470125</v>
+        <v>0.468503</v>
       </c>
       <c r="E133" t="n">
-        <v>0.29898</v>
+        <v>0.303067</v>
       </c>
       <c r="F133" t="n">
-        <v>0.314125</v>
+        <v>0.312221</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.362311</v>
+        <v>0.36185</v>
       </c>
       <c r="C134" t="n">
-        <v>0.364554</v>
+        <v>0.36245</v>
       </c>
       <c r="D134" t="n">
-        <v>0.476963</v>
+        <v>0.478435</v>
       </c>
       <c r="E134" t="n">
-        <v>0.309393</v>
+        <v>0.307928</v>
       </c>
       <c r="F134" t="n">
-        <v>0.323397</v>
+        <v>0.321565</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.364735</v>
+        <v>0.362117</v>
       </c>
       <c r="C135" t="n">
-        <v>0.36856</v>
+        <v>0.365996</v>
       </c>
       <c r="D135" t="n">
-        <v>0.391294</v>
+        <v>0.392264</v>
       </c>
       <c r="E135" t="n">
-        <v>0.315928</v>
+        <v>0.31403</v>
       </c>
       <c r="F135" t="n">
-        <v>0.333707</v>
+        <v>0.332319</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.365323</v>
+        <v>0.364489</v>
       </c>
       <c r="C136" t="n">
-        <v>0.372403</v>
+        <v>0.370591</v>
       </c>
       <c r="D136" t="n">
-        <v>0.40076</v>
+        <v>0.398898</v>
       </c>
       <c r="E136" t="n">
-        <v>0.324583</v>
+        <v>0.322787</v>
       </c>
       <c r="F136" t="n">
-        <v>0.347818</v>
+        <v>0.34704</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.371192</v>
+        <v>0.368352</v>
       </c>
       <c r="C137" t="n">
-        <v>0.381756</v>
+        <v>0.379589</v>
       </c>
       <c r="D137" t="n">
-        <v>0.404953</v>
+        <v>0.403357</v>
       </c>
       <c r="E137" t="n">
-        <v>0.296177</v>
+        <v>0.293805</v>
       </c>
       <c r="F137" t="n">
-        <v>0.306435</v>
+        <v>0.304706</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.428225</v>
+        <v>0.425079</v>
       </c>
       <c r="C138" t="n">
-        <v>0.39593</v>
+        <v>0.394571</v>
       </c>
       <c r="D138" t="n">
-        <v>0.41139</v>
+        <v>0.410777</v>
       </c>
       <c r="E138" t="n">
-        <v>0.297863</v>
+        <v>0.296123</v>
       </c>
       <c r="F138" t="n">
-        <v>0.308493</v>
+        <v>0.306536</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.427264</v>
+        <v>0.425541</v>
       </c>
       <c r="C139" t="n">
-        <v>0.396599</v>
+        <v>0.394764</v>
       </c>
       <c r="D139" t="n">
-        <v>0.420431</v>
+        <v>0.418694</v>
       </c>
       <c r="E139" t="n">
-        <v>0.295327</v>
+        <v>0.2985</v>
       </c>
       <c r="F139" t="n">
-        <v>0.310026</v>
+        <v>0.309018</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.420128</v>
+        <v>0.425567</v>
       </c>
       <c r="C140" t="n">
-        <v>0.396871</v>
+        <v>0.395236</v>
       </c>
       <c r="D140" t="n">
-        <v>0.422941</v>
+        <v>0.423651</v>
       </c>
       <c r="E140" t="n">
-        <v>0.301806</v>
+        <v>0.300476</v>
       </c>
       <c r="F140" t="n">
-        <v>0.309494</v>
+        <v>0.311622</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.426611</v>
+        <v>0.425855</v>
       </c>
       <c r="C141" t="n">
-        <v>0.39744</v>
+        <v>0.396658</v>
       </c>
       <c r="D141" t="n">
-        <v>0.434655</v>
+        <v>0.432709</v>
       </c>
       <c r="E141" t="n">
-        <v>0.304053</v>
+        <v>0.302672</v>
       </c>
       <c r="F141" t="n">
-        <v>0.315896</v>
+        <v>0.313944</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.419781</v>
+        <v>0.425552</v>
       </c>
       <c r="C142" t="n">
-        <v>0.398172</v>
+        <v>0.397113</v>
       </c>
       <c r="D142" t="n">
-        <v>0.440461</v>
+        <v>0.438486</v>
       </c>
       <c r="E142" t="n">
-        <v>0.306636</v>
+        <v>0.304993</v>
       </c>
       <c r="F142" t="n">
-        <v>0.319022</v>
+        <v>0.317274</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.426939</v>
+        <v>0.425357</v>
       </c>
       <c r="C143" t="n">
-        <v>0.394128</v>
+        <v>0.398042</v>
       </c>
       <c r="D143" t="n">
-        <v>0.44964</v>
+        <v>0.448064</v>
       </c>
       <c r="E143" t="n">
-        <v>0.309704</v>
+        <v>0.307869</v>
       </c>
       <c r="F143" t="n">
-        <v>0.31931</v>
+        <v>0.31754</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0365221</v>
+        <v>0.0363836</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0371243</v>
+        <v>0.0366304</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07277019999999999</v>
+        <v>0.0728708</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0367617</v>
+        <v>0.0367742</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0388622</v>
+        <v>0.0382099</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0367866</v>
+        <v>0.0358545</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0368395</v>
+        <v>0.036187</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0795009</v>
+        <v>0.0787895</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0368252</v>
+        <v>0.0369099</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0392868</v>
+        <v>0.0385904</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0366331</v>
+        <v>0.0359363</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0369895</v>
+        <v>0.0366708</v>
       </c>
       <c r="D4" t="n">
-        <v>0.086807</v>
+        <v>0.08662739999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0377191</v>
+        <v>0.037522</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0390169</v>
+        <v>0.0389238</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0368039</v>
+        <v>0.0365034</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0371828</v>
+        <v>0.0366627</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09416529999999999</v>
+        <v>0.0930014</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0380671</v>
+        <v>0.0381537</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03945</v>
+        <v>0.0391438</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0365797</v>
+        <v>0.03576</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0383385</v>
+        <v>0.0370641</v>
       </c>
       <c r="D6" t="n">
-        <v>0.10141</v>
+        <v>0.101172</v>
       </c>
       <c r="E6" t="n">
-        <v>0.037951</v>
+        <v>0.0380518</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0399683</v>
+        <v>0.0395111</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0371802</v>
+        <v>0.037224</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0372345</v>
+        <v>0.0370242</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06273289999999999</v>
+        <v>0.0620965</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0382852</v>
+        <v>0.0382173</v>
       </c>
       <c r="F7" t="n">
-        <v>0.040345</v>
+        <v>0.0401549</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0373266</v>
+        <v>0.0368704</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0376417</v>
+        <v>0.0371459</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0661332</v>
+        <v>0.06603580000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0401081</v>
+        <v>0.0394254</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0420985</v>
+        <v>0.0416699</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0379697</v>
+        <v>0.0377799</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0382609</v>
+        <v>0.0376708</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0715031</v>
+        <v>0.0718432</v>
       </c>
       <c r="E9" t="n">
-        <v>0.038775</v>
+        <v>0.0386505</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0409998</v>
+        <v>0.0405741</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0428584</v>
+        <v>0.042723</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0433156</v>
+        <v>0.0425543</v>
       </c>
       <c r="D10" t="n">
-        <v>0.07566589999999999</v>
+        <v>0.0750079</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0396226</v>
+        <v>0.0392287</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0413211</v>
+        <v>0.0405552</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0431907</v>
+        <v>0.042985</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0435501</v>
+        <v>0.0426261</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0823332</v>
+        <v>0.0810471</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0398412</v>
+        <v>0.0396855</v>
       </c>
       <c r="F11" t="n">
-        <v>0.041315</v>
+        <v>0.0407804</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0431728</v>
+        <v>0.0430325</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0433038</v>
+        <v>0.0427538</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0875026</v>
+        <v>0.0871509</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0401933</v>
+        <v>0.040057</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0417016</v>
+        <v>0.0410569</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0431965</v>
+        <v>0.0432122</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0433627</v>
+        <v>0.0429658</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0914808</v>
+        <v>0.091312</v>
       </c>
       <c r="E13" t="n">
-        <v>0.040606</v>
+        <v>0.0403495</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0418995</v>
+        <v>0.0413964</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0431305</v>
+        <v>0.0433993</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0432571</v>
+        <v>0.042867</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0972244</v>
+        <v>0.096927</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0405778</v>
+        <v>0.0409521</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0421581</v>
+        <v>0.0417166</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0434225</v>
+        <v>0.0432976</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0435256</v>
+        <v>0.0432303</v>
       </c>
       <c r="D15" t="n">
-        <v>0.102502</v>
+        <v>0.102785</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0409327</v>
+        <v>0.0411972</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0425915</v>
+        <v>0.0420268</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.043567</v>
+        <v>0.0434375</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0437175</v>
+        <v>0.0433123</v>
       </c>
       <c r="D16" t="n">
-        <v>0.107697</v>
+        <v>0.107664</v>
       </c>
       <c r="E16" t="n">
-        <v>0.041368</v>
+        <v>0.0412223</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0428653</v>
+        <v>0.0423697</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0439896</v>
+        <v>0.0437191</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0436962</v>
+        <v>0.0431437</v>
       </c>
       <c r="D17" t="n">
-        <v>0.112637</v>
+        <v>0.112594</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0416069</v>
+        <v>0.0416899</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0431235</v>
+        <v>0.0426768</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.043896</v>
+        <v>0.0436704</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0438252</v>
+        <v>0.0433012</v>
       </c>
       <c r="D18" t="n">
-        <v>0.117233</v>
+        <v>0.117326</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0418435</v>
+        <v>0.0417693</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0433745</v>
+        <v>0.0428601</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0439886</v>
+        <v>0.0439357</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0439148</v>
+        <v>0.0436144</v>
       </c>
       <c r="D19" t="n">
-        <v>0.121785</v>
+        <v>0.121811</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0420431</v>
+        <v>0.0421462</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0437107</v>
+        <v>0.0431902</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0443742</v>
+        <v>0.0441298</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0440908</v>
+        <v>0.0437126</v>
       </c>
       <c r="D20" t="n">
-        <v>0.12527</v>
+        <v>0.12513</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0427174</v>
+        <v>0.0431124</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0441692</v>
+        <v>0.0438559</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0445888</v>
+        <v>0.0443656</v>
       </c>
       <c r="C21" t="n">
-        <v>0.044022</v>
+        <v>0.0439732</v>
       </c>
       <c r="D21" t="n">
-        <v>0.08899170000000001</v>
+        <v>0.0888941</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0446727</v>
+        <v>0.0437288</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0447869</v>
+        <v>0.0449527</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0451449</v>
+        <v>0.0447089</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0441595</v>
+        <v>0.0441354</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0918301</v>
+        <v>0.0917799</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0473862</v>
+        <v>0.0468034</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0485592</v>
+        <v>0.0487533</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0456581</v>
+        <v>0.0453128</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0449806</v>
+        <v>0.0448447</v>
       </c>
       <c r="D23" t="n">
-        <v>0.09490750000000001</v>
+        <v>0.0949179</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0460329</v>
+        <v>0.0452938</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0467465</v>
+        <v>0.0462398</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0489164</v>
+        <v>0.0493366</v>
       </c>
       <c r="C24" t="n">
-        <v>0.049829</v>
+        <v>0.0500886</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0988112</v>
+        <v>0.0990747</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0456725</v>
+        <v>0.045631</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0466746</v>
+        <v>0.0464545</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0490255</v>
+        <v>0.0489248</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0498883</v>
+        <v>0.0500852</v>
       </c>
       <c r="D25" t="n">
-        <v>0.10189</v>
+        <v>0.101995</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0460452</v>
+        <v>0.0457742</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0468139</v>
+        <v>0.0466705</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0490199</v>
+        <v>0.0489703</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0500314</v>
+        <v>0.0502046</v>
       </c>
       <c r="D26" t="n">
-        <v>0.105655</v>
+        <v>0.105704</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0459852</v>
+        <v>0.0460948</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0471885</v>
+        <v>0.0469613</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0489209</v>
+        <v>0.0488399</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0501077</v>
+        <v>0.0502062</v>
       </c>
       <c r="D27" t="n">
-        <v>0.109707</v>
+        <v>0.109671</v>
       </c>
       <c r="E27" t="n">
-        <v>0.046474</v>
+        <v>0.046475</v>
       </c>
       <c r="F27" t="n">
-        <v>0.047285</v>
+        <v>0.0473222</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0489238</v>
+        <v>0.0489815</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0502645</v>
+        <v>0.0502797</v>
       </c>
       <c r="D28" t="n">
-        <v>0.11389</v>
+        <v>0.113643</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0467539</v>
+        <v>0.0466212</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0477424</v>
+        <v>0.0475421</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0492865</v>
+        <v>0.0492989</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0503238</v>
+        <v>0.0504769</v>
       </c>
       <c r="D29" t="n">
-        <v>0.117949</v>
+        <v>0.117955</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0469892</v>
+        <v>0.0468592</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0480637</v>
+        <v>0.0478112</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0489679</v>
+        <v>0.0489285</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0499404</v>
+        <v>0.0501476</v>
       </c>
       <c r="D30" t="n">
-        <v>0.121789</v>
+        <v>0.121566</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0473946</v>
+        <v>0.0478105</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0478742</v>
+        <v>0.0479986</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0491404</v>
+        <v>0.0492229</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0505186</v>
+        <v>0.0505641</v>
       </c>
       <c r="D31" t="n">
-        <v>0.125992</v>
+        <v>0.125973</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0475319</v>
+        <v>0.0475631</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0485287</v>
+        <v>0.0483825</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.049117</v>
+        <v>0.0490826</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0502546</v>
+        <v>0.050253</v>
       </c>
       <c r="D32" t="n">
-        <v>0.129243</v>
+        <v>0.129067</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0480394</v>
+        <v>0.0482767</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0484367</v>
+        <v>0.048474</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0495133</v>
+        <v>0.0493591</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0505069</v>
+        <v>0.0508512</v>
       </c>
       <c r="D33" t="n">
-        <v>0.132775</v>
+        <v>0.132804</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0481956</v>
+        <v>0.0480273</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0491031</v>
+        <v>0.0490827</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0494159</v>
+        <v>0.0494657</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0505382</v>
+        <v>0.0505112</v>
       </c>
       <c r="D34" t="n">
-        <v>0.135973</v>
+        <v>0.135907</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0490733</v>
+        <v>0.048475</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0508531</v>
+        <v>0.0496807</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0499744</v>
+        <v>0.0499626</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0511794</v>
+        <v>0.0511423</v>
       </c>
       <c r="D35" t="n">
-        <v>0.09690790000000001</v>
+        <v>0.0968469</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0521483</v>
+        <v>0.0518263</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0540145</v>
+        <v>0.054235</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0505759</v>
+        <v>0.0502806</v>
       </c>
       <c r="C36" t="n">
-        <v>0.051653</v>
+        <v>0.0516729</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0993439</v>
+        <v>0.09941990000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0589616</v>
+        <v>0.0587061</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0636094</v>
+        <v>0.0623116</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0541091</v>
+        <v>0.0543575</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0558469</v>
+        <v>0.0557612</v>
       </c>
       <c r="D37" t="n">
-        <v>0.101514</v>
+        <v>0.101474</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0496575</v>
+        <v>0.0499024</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0502323</v>
+        <v>0.0501862</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0547818</v>
+        <v>0.0554946</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0565301</v>
+        <v>0.0559807</v>
       </c>
       <c r="D38" t="n">
-        <v>0.104206</v>
+        <v>0.104077</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0493773</v>
+        <v>0.0497637</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0503719</v>
+        <v>0.0503055</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0536595</v>
+        <v>0.0536547</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0565595</v>
+        <v>0.0560147</v>
       </c>
       <c r="D39" t="n">
-        <v>0.10719</v>
+        <v>0.107222</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0497035</v>
+        <v>0.049814</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0508452</v>
+        <v>0.0506864</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0542496</v>
+        <v>0.0533135</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0567055</v>
+        <v>0.0560809</v>
       </c>
       <c r="D40" t="n">
-        <v>0.110384</v>
+        <v>0.110515</v>
       </c>
       <c r="E40" t="n">
-        <v>0.050037</v>
+        <v>0.0502624</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0511711</v>
+        <v>0.0509965</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.053756</v>
+        <v>0.05489</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0567524</v>
+        <v>0.0561206</v>
       </c>
       <c r="D41" t="n">
-        <v>0.11373</v>
+        <v>0.113759</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0504902</v>
+        <v>0.050487</v>
       </c>
       <c r="F41" t="n">
-        <v>0.051434</v>
+        <v>0.0512577</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0538374</v>
+        <v>0.0542658</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0568492</v>
+        <v>0.0563363</v>
       </c>
       <c r="D42" t="n">
-        <v>0.117301</v>
+        <v>0.117379</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0506038</v>
+        <v>0.0509418</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0517103</v>
+        <v>0.0513173</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0542126</v>
+        <v>0.0539976</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0569528</v>
+        <v>0.0562883</v>
       </c>
       <c r="D43" t="n">
-        <v>0.121247</v>
+        <v>0.121339</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0510081</v>
+        <v>0.0513512</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0518545</v>
+        <v>0.0516978</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0540499</v>
+        <v>0.0552351</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0570106</v>
+        <v>0.0564824</v>
       </c>
       <c r="D44" t="n">
-        <v>0.125213</v>
+        <v>0.125198</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0512676</v>
+        <v>0.0517284</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0521142</v>
+        <v>0.0518988</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0543352</v>
+        <v>0.0547435</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0571714</v>
+        <v>0.0565372</v>
       </c>
       <c r="D45" t="n">
-        <v>0.129066</v>
+        <v>0.129169</v>
       </c>
       <c r="E45" t="n">
-        <v>0.051807</v>
+        <v>0.0517255</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0526751</v>
+        <v>0.0524628</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0543384</v>
+        <v>0.0555885</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0572188</v>
+        <v>0.0568275</v>
       </c>
       <c r="D46" t="n">
-        <v>0.132701</v>
+        <v>0.132734</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0522683</v>
+        <v>0.0521485</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0533675</v>
+        <v>0.0531776</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0547001</v>
+        <v>0.0558281</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0573609</v>
+        <v>0.0570481</v>
       </c>
       <c r="D47" t="n">
-        <v>0.135836</v>
+        <v>0.135931</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0534122</v>
+        <v>0.0534789</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0551227</v>
+        <v>0.0551904</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0552213</v>
+        <v>0.0558176</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0577841</v>
+        <v>0.0572846</v>
       </c>
       <c r="D48" t="n">
-        <v>0.139559</v>
+        <v>0.139607</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0558111</v>
+        <v>0.0559248</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0585128</v>
+        <v>0.0584317</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0561274</v>
+        <v>0.0566039</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0586327</v>
+        <v>0.0582122</v>
       </c>
       <c r="D49" t="n">
-        <v>0.142486</v>
+        <v>0.142483</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0603465</v>
+        <v>0.0597888</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0627732</v>
+        <v>0.0629427</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.058919</v>
+        <v>0.0584163</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0609132</v>
+        <v>0.0603805</v>
       </c>
       <c r="D50" t="n">
-        <v>0.101425</v>
+        <v>0.101443</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0647534</v>
+        <v>0.06454029999999999</v>
       </c>
       <c r="F50" t="n">
-        <v>0.06772830000000001</v>
+        <v>0.0675486</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0625619</v>
+        <v>0.0622111</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0638803</v>
+        <v>0.0636158</v>
       </c>
       <c r="D51" t="n">
-        <v>0.103741</v>
+        <v>0.103657</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0533481</v>
+        <v>0.0524088</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0529976</v>
+        <v>0.0529998</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0675364</v>
+        <v>0.0670637</v>
       </c>
       <c r="C52" t="n">
-        <v>0.07016890000000001</v>
+        <v>0.07012069999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>0.106202</v>
+        <v>0.106107</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0521401</v>
+        <v>0.0523617</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0535014</v>
+        <v>0.0533695</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.060812</v>
+        <v>0.0608999</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0632254</v>
+        <v>0.06324200000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>0.109041</v>
+        <v>0.10917</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0525015</v>
+        <v>0.0529596</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0536655</v>
+        <v>0.0537069</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0605871</v>
+        <v>0.0604538</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0631835</v>
+        <v>0.0634681</v>
       </c>
       <c r="D54" t="n">
-        <v>0.112039</v>
+        <v>0.111993</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0531454</v>
+        <v>0.0532388</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0538728</v>
+        <v>0.0539955</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.060684</v>
+        <v>0.0606006</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0633594</v>
+        <v>0.0634694</v>
       </c>
       <c r="D55" t="n">
-        <v>0.11552</v>
+        <v>0.115615</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0533273</v>
+        <v>0.0536633</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0552748</v>
+        <v>0.0544634</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0606587</v>
+        <v>0.0606243</v>
       </c>
       <c r="C56" t="n">
-        <v>0.06420430000000001</v>
+        <v>0.0634663</v>
       </c>
       <c r="D56" t="n">
-        <v>0.119125</v>
+        <v>0.119239</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0538933</v>
+        <v>0.0538921</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0546292</v>
+        <v>0.0547472</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0605617</v>
+        <v>0.0609336</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0636945</v>
+        <v>0.0637245</v>
       </c>
       <c r="D57" t="n">
-        <v>0.123058</v>
+        <v>0.123085</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0541095</v>
+        <v>0.0545758</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0559701</v>
+        <v>0.0554348</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0609978</v>
+        <v>0.0616995</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0640018</v>
+        <v>0.06411799999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>0.126778</v>
+        <v>0.126798</v>
       </c>
       <c r="E58" t="n">
-        <v>0.054872</v>
+        <v>0.0548661</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0558738</v>
+        <v>0.0559399</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0608842</v>
+        <v>0.0614875</v>
       </c>
       <c r="C59" t="n">
-        <v>0.06460299999999999</v>
+        <v>0.064153</v>
       </c>
       <c r="D59" t="n">
-        <v>0.130485</v>
+        <v>0.130648</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0554849</v>
+        <v>0.0555505</v>
       </c>
       <c r="F59" t="n">
-        <v>0.057238</v>
+        <v>0.0584274</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0610121</v>
+        <v>0.0615205</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0642596</v>
+        <v>0.0655168</v>
       </c>
       <c r="D60" t="n">
-        <v>0.134242</v>
+        <v>0.134528</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0568915</v>
+        <v>0.0570061</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0594979</v>
+        <v>0.058955</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0615643</v>
+        <v>0.0619972</v>
       </c>
       <c r="C61" t="n">
-        <v>0.06469519999999999</v>
+        <v>0.0663744</v>
       </c>
       <c r="D61" t="n">
-        <v>0.138282</v>
+        <v>0.138448</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0587319</v>
+        <v>0.0590275</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0609171</v>
+        <v>0.0622339</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.062468</v>
+        <v>0.0624112</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0655304</v>
+        <v>0.066263</v>
       </c>
       <c r="D62" t="n">
-        <v>0.141905</v>
+        <v>0.142027</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0610761</v>
+        <v>0.0614459</v>
       </c>
       <c r="F62" t="n">
-        <v>0.06449530000000001</v>
+        <v>0.0649856</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.06436360000000001</v>
+        <v>0.0647649</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0671283</v>
+        <v>0.0683486</v>
       </c>
       <c r="D63" t="n">
-        <v>0.145218</v>
+        <v>0.145151</v>
       </c>
       <c r="E63" t="n">
-        <v>0.06401519999999999</v>
+        <v>0.0643258</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0682642</v>
+        <v>0.0683981</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0660839</v>
+        <v>0.06648850000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.06958250000000001</v>
+        <v>0.0703192</v>
       </c>
       <c r="D64" t="n">
-        <v>0.108961</v>
+        <v>0.110314</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0680465</v>
+        <v>0.0684616</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0734765</v>
+        <v>0.07285899999999999</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.069179</v>
+        <v>0.06918680000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>0.07349559999999999</v>
+        <v>0.0735027</v>
       </c>
       <c r="D65" t="n">
-        <v>0.111479</v>
+        <v>0.111274</v>
       </c>
       <c r="E65" t="n">
-        <v>0.074304</v>
+        <v>0.0747274</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0802175</v>
+        <v>0.0798605</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.07234110000000001</v>
+        <v>0.0727204</v>
       </c>
       <c r="C66" t="n">
-        <v>0.07829609999999999</v>
+        <v>0.0787544</v>
       </c>
       <c r="D66" t="n">
-        <v>0.114536</v>
+        <v>0.116649</v>
       </c>
       <c r="E66" t="n">
-        <v>0.057201</v>
+        <v>0.0568517</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0591688</v>
+        <v>0.0596434</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0725307</v>
+        <v>0.0701006</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0714371</v>
+        <v>0.0715252</v>
       </c>
       <c r="D67" t="n">
-        <v>0.118195</v>
+        <v>0.118725</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0558698</v>
+        <v>0.0553847</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0596128</v>
+        <v>0.0600866</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0721562</v>
+        <v>0.0701468</v>
       </c>
       <c r="C68" t="n">
-        <v>0.071966</v>
+        <v>0.0718509</v>
       </c>
       <c r="D68" t="n">
-        <v>0.12386</v>
+        <v>0.123963</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0564056</v>
+        <v>0.055969</v>
       </c>
       <c r="F68" t="n">
-        <v>0.060876</v>
+        <v>0.0611301</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0730484</v>
+        <v>0.0702864</v>
       </c>
       <c r="C69" t="n">
-        <v>0.07241839999999999</v>
+        <v>0.07246</v>
       </c>
       <c r="D69" t="n">
-        <v>0.129462</v>
+        <v>0.129955</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0568881</v>
+        <v>0.0579449</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0616001</v>
+        <v>0.0618511</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0736392</v>
+        <v>0.0709626</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0728548</v>
+        <v>0.0732614</v>
       </c>
       <c r="D70" t="n">
-        <v>0.134865</v>
+        <v>0.135684</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0572095</v>
+        <v>0.0588413</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0626376</v>
+        <v>0.0633253</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0741223</v>
+        <v>0.07014529999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0734331</v>
+        <v>0.0736156</v>
       </c>
       <c r="D71" t="n">
-        <v>0.141469</v>
+        <v>0.141882</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0578573</v>
+        <v>0.0580385</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0644208</v>
+        <v>0.0643801</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.07244399999999999</v>
+        <v>0.0726651</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0738197</v>
+        <v>0.0736286</v>
       </c>
       <c r="D72" t="n">
-        <v>0.147469</v>
+        <v>0.148044</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0584412</v>
+        <v>0.0580951</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0661347</v>
+        <v>0.0668137</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.07366350000000001</v>
+        <v>0.071369</v>
       </c>
       <c r="C73" t="n">
-        <v>0.07509929999999999</v>
+        <v>0.0749298</v>
       </c>
       <c r="D73" t="n">
-        <v>0.155398</v>
+        <v>0.15545</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0595144</v>
+        <v>0.0591011</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06774570000000001</v>
+        <v>0.0680564</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0727252</v>
+        <v>0.0727377</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0758558</v>
+        <v>0.0757622</v>
       </c>
       <c r="D74" t="n">
-        <v>0.165805</v>
+        <v>0.165596</v>
       </c>
       <c r="E74" t="n">
-        <v>0.060855</v>
+        <v>0.0609655</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0701609</v>
+        <v>0.07070940000000001</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0732888</v>
+        <v>0.07347819999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0778423</v>
+        <v>0.0773257</v>
       </c>
       <c r="D75" t="n">
-        <v>0.175288</v>
+        <v>0.174425</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0622059</v>
+        <v>0.0621445</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0736892</v>
+        <v>0.0737352</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.07415140000000001</v>
+        <v>0.0737643</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0796775</v>
+        <v>0.0791804</v>
       </c>
       <c r="D76" t="n">
-        <v>0.181092</v>
+        <v>0.181991</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0643213</v>
+        <v>0.06449729999999999</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0770333</v>
+        <v>0.0775798</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0741666</v>
+        <v>0.0754702</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0815179</v>
+        <v>0.0811882</v>
       </c>
       <c r="D77" t="n">
-        <v>0.192976</v>
+        <v>0.193301</v>
       </c>
       <c r="E77" t="n">
-        <v>0.06694410000000001</v>
+        <v>0.0671489</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0814694</v>
+        <v>0.08203240000000001</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0789714</v>
+        <v>0.0769051</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0842248</v>
+        <v>0.08363760000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.188649</v>
+        <v>0.186542</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0708372</v>
+        <v>0.0706727</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0872662</v>
+        <v>0.0876329</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0814439</v>
+        <v>0.07812280000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0885104</v>
+        <v>0.0877033</v>
       </c>
       <c r="D79" t="n">
-        <v>0.194407</v>
+        <v>0.19437</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0763923</v>
+        <v>0.0764537</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0950201</v>
+        <v>0.0950211</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0857024</v>
+        <v>0.08259710000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0939459</v>
+        <v>0.09335209999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>0.203188</v>
+        <v>0.202465</v>
       </c>
       <c r="E80" t="n">
-        <v>0.102031</v>
+        <v>0.105601</v>
       </c>
       <c r="F80" t="n">
-        <v>0.10238</v>
+        <v>0.104812</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.172411</v>
+        <v>0.174288</v>
       </c>
       <c r="C81" t="n">
-        <v>0.140509</v>
+        <v>0.141173</v>
       </c>
       <c r="D81" t="n">
-        <v>0.212274</v>
+        <v>0.211614</v>
       </c>
       <c r="E81" t="n">
-        <v>0.106537</v>
+        <v>0.10818</v>
       </c>
       <c r="F81" t="n">
-        <v>0.103456</v>
+        <v>0.105544</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.174134</v>
+        <v>0.175784</v>
       </c>
       <c r="C82" t="n">
-        <v>0.141199</v>
+        <v>0.141621</v>
       </c>
       <c r="D82" t="n">
-        <v>0.219165</v>
+        <v>0.218124</v>
       </c>
       <c r="E82" t="n">
-        <v>0.108938</v>
+        <v>0.110817</v>
       </c>
       <c r="F82" t="n">
-        <v>0.104155</v>
+        <v>0.106511</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.174591</v>
+        <v>0.177029</v>
       </c>
       <c r="C83" t="n">
-        <v>0.141947</v>
+        <v>0.142182</v>
       </c>
       <c r="D83" t="n">
-        <v>0.227998</v>
+        <v>0.226832</v>
       </c>
       <c r="E83" t="n">
-        <v>0.109352</v>
+        <v>0.111618</v>
       </c>
       <c r="F83" t="n">
-        <v>0.105373</v>
+        <v>0.107341</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.175618</v>
+        <v>0.177561</v>
       </c>
       <c r="C84" t="n">
-        <v>0.143203</v>
+        <v>0.143043</v>
       </c>
       <c r="D84" t="n">
-        <v>0.238356</v>
+        <v>0.238328</v>
       </c>
       <c r="E84" t="n">
-        <v>0.112469</v>
+        <v>0.113907</v>
       </c>
       <c r="F84" t="n">
-        <v>0.106218</v>
+        <v>0.10834</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.177372</v>
+        <v>0.177375</v>
       </c>
       <c r="C85" t="n">
-        <v>0.142893</v>
+        <v>0.143379</v>
       </c>
       <c r="D85" t="n">
-        <v>0.250935</v>
+        <v>0.250353</v>
       </c>
       <c r="E85" t="n">
-        <v>0.113632</v>
+        <v>0.115568</v>
       </c>
       <c r="F85" t="n">
-        <v>0.10715</v>
+        <v>0.110158</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.176718</v>
+        <v>0.178442</v>
       </c>
       <c r="C86" t="n">
-        <v>0.144265</v>
+        <v>0.144207</v>
       </c>
       <c r="D86" t="n">
-        <v>0.257872</v>
+        <v>0.258427</v>
       </c>
       <c r="E86" t="n">
-        <v>0.115698</v>
+        <v>0.117953</v>
       </c>
       <c r="F86" t="n">
-        <v>0.108312</v>
+        <v>0.112515</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.177023</v>
+        <v>0.179222</v>
       </c>
       <c r="C87" t="n">
-        <v>0.144798</v>
+        <v>0.144983</v>
       </c>
       <c r="D87" t="n">
-        <v>0.271159</v>
+        <v>0.272063</v>
       </c>
       <c r="E87" t="n">
-        <v>0.116807</v>
+        <v>0.120165</v>
       </c>
       <c r="F87" t="n">
-        <v>0.110335</v>
+        <v>0.113811</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.177794</v>
+        <v>0.180691</v>
       </c>
       <c r="C88" t="n">
-        <v>0.145624</v>
+        <v>0.148009</v>
       </c>
       <c r="D88" t="n">
-        <v>0.279253</v>
+        <v>0.27928</v>
       </c>
       <c r="E88" t="n">
-        <v>0.12012</v>
+        <v>0.122147</v>
       </c>
       <c r="F88" t="n">
-        <v>0.114873</v>
+        <v>0.113414</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.178511</v>
+        <v>0.18023</v>
       </c>
       <c r="C89" t="n">
-        <v>0.147081</v>
+        <v>0.14726</v>
       </c>
       <c r="D89" t="n">
-        <v>0.289369</v>
+        <v>0.289974</v>
       </c>
       <c r="E89" t="n">
-        <v>0.122547</v>
+        <v>0.123855</v>
       </c>
       <c r="F89" t="n">
-        <v>0.114549</v>
+        <v>0.115003</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.178767</v>
+        <v>0.181406</v>
       </c>
       <c r="C90" t="n">
-        <v>0.148207</v>
+        <v>0.150278</v>
       </c>
       <c r="D90" t="n">
-        <v>0.298806</v>
+        <v>0.299346</v>
       </c>
       <c r="E90" t="n">
-        <v>0.124755</v>
+        <v>0.125914</v>
       </c>
       <c r="F90" t="n">
-        <v>0.119444</v>
+        <v>0.117207</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.18037</v>
+        <v>0.182442</v>
       </c>
       <c r="C91" t="n">
-        <v>0.151717</v>
+        <v>0.150654</v>
       </c>
       <c r="D91" t="n">
-        <v>0.30835</v>
+        <v>0.308884</v>
       </c>
       <c r="E91" t="n">
-        <v>0.128828</v>
+        <v>0.129534</v>
       </c>
       <c r="F91" t="n">
-        <v>0.12017</v>
+        <v>0.123495</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.182469</v>
+        <v>0.182731</v>
       </c>
       <c r="C92" t="n">
-        <v>0.152269</v>
+        <v>0.153772</v>
       </c>
       <c r="D92" t="n">
-        <v>0.287988</v>
+        <v>0.289197</v>
       </c>
       <c r="E92" t="n">
-        <v>0.131995</v>
+        <v>0.131186</v>
       </c>
       <c r="F92" t="n">
-        <v>0.12708</v>
+        <v>0.126107</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.18323</v>
+        <v>0.183772</v>
       </c>
       <c r="C93" t="n">
-        <v>0.157817</v>
+        <v>0.156114</v>
       </c>
       <c r="D93" t="n">
-        <v>0.293038</v>
+        <v>0.294186</v>
       </c>
       <c r="E93" t="n">
-        <v>0.136428</v>
+        <v>0.135712</v>
       </c>
       <c r="F93" t="n">
-        <v>0.132176</v>
+        <v>0.132962</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.185314</v>
+        <v>0.184941</v>
       </c>
       <c r="C94" t="n">
-        <v>0.162595</v>
+        <v>0.160935</v>
       </c>
       <c r="D94" t="n">
-        <v>0.298972</v>
+        <v>0.300989</v>
       </c>
       <c r="E94" t="n">
-        <v>0.205224</v>
+        <v>0.207242</v>
       </c>
       <c r="F94" t="n">
-        <v>0.199571</v>
+        <v>0.200956</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.243186</v>
+        <v>0.24505</v>
       </c>
       <c r="C95" t="n">
-        <v>0.221062</v>
+        <v>0.222744</v>
       </c>
       <c r="D95" t="n">
-        <v>0.305169</v>
+        <v>0.30718</v>
       </c>
       <c r="E95" t="n">
-        <v>0.209872</v>
+        <v>0.208781</v>
       </c>
       <c r="F95" t="n">
-        <v>0.200609</v>
+        <v>0.201942</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.243707</v>
+        <v>0.245438</v>
       </c>
       <c r="C96" t="n">
-        <v>0.221355</v>
+        <v>0.222961</v>
       </c>
       <c r="D96" t="n">
-        <v>0.317332</v>
+        <v>0.318119</v>
       </c>
       <c r="E96" t="n">
-        <v>0.208868</v>
+        <v>0.210113</v>
       </c>
       <c r="F96" t="n">
-        <v>0.20181</v>
+        <v>0.203439</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.244167</v>
+        <v>0.245585</v>
       </c>
       <c r="C97" t="n">
-        <v>0.221718</v>
+        <v>0.223553</v>
       </c>
       <c r="D97" t="n">
-        <v>0.323202</v>
+        <v>0.324438</v>
       </c>
       <c r="E97" t="n">
-        <v>0.210798</v>
+        <v>0.212337</v>
       </c>
       <c r="F97" t="n">
-        <v>0.202603</v>
+        <v>0.203959</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.243906</v>
+        <v>0.245868</v>
       </c>
       <c r="C98" t="n">
-        <v>0.221937</v>
+        <v>0.223776</v>
       </c>
       <c r="D98" t="n">
-        <v>0.332279</v>
+        <v>0.333853</v>
       </c>
       <c r="E98" t="n">
-        <v>0.212165</v>
+        <v>0.21432</v>
       </c>
       <c r="F98" t="n">
-        <v>0.203898</v>
+        <v>0.205309</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.243829</v>
+        <v>0.245887</v>
       </c>
       <c r="C99" t="n">
-        <v>0.22233</v>
+        <v>0.224184</v>
       </c>
       <c r="D99" t="n">
-        <v>0.340037</v>
+        <v>0.341549</v>
       </c>
       <c r="E99" t="n">
-        <v>0.214454</v>
+        <v>0.215578</v>
       </c>
       <c r="F99" t="n">
-        <v>0.205097</v>
+        <v>0.207078</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.244595</v>
+        <v>0.245671</v>
       </c>
       <c r="C100" t="n">
-        <v>0.222892</v>
+        <v>0.22467</v>
       </c>
       <c r="D100" t="n">
-        <v>0.347827</v>
+        <v>0.34999</v>
       </c>
       <c r="E100" t="n">
-        <v>0.215574</v>
+        <v>0.217944</v>
       </c>
       <c r="F100" t="n">
-        <v>0.207788</v>
+        <v>0.208264</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.244716</v>
+        <v>0.245938</v>
       </c>
       <c r="C101" t="n">
-        <v>0.223381</v>
+        <v>0.225535</v>
       </c>
       <c r="D101" t="n">
-        <v>0.357851</v>
+        <v>0.36056</v>
       </c>
       <c r="E101" t="n">
-        <v>0.218227</v>
+        <v>0.219339</v>
       </c>
       <c r="F101" t="n">
-        <v>0.207833</v>
+        <v>0.20902</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.244508</v>
+        <v>0.246448</v>
       </c>
       <c r="C102" t="n">
-        <v>0.22409</v>
+        <v>0.226066</v>
       </c>
       <c r="D102" t="n">
-        <v>0.366883</v>
+        <v>0.369345</v>
       </c>
       <c r="E102" t="n">
-        <v>0.219519</v>
+        <v>0.22163</v>
       </c>
       <c r="F102" t="n">
-        <v>0.21169</v>
+        <v>0.20994</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.24507</v>
+        <v>0.246448</v>
       </c>
       <c r="C103" t="n">
-        <v>0.225299</v>
+        <v>0.227339</v>
       </c>
       <c r="D103" t="n">
-        <v>0.377215</v>
+        <v>0.379223</v>
       </c>
       <c r="E103" t="n">
-        <v>0.223006</v>
+        <v>0.224149</v>
       </c>
       <c r="F103" t="n">
-        <v>0.211558</v>
+        <v>0.213268</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.24469</v>
+        <v>0.247165</v>
       </c>
       <c r="C104" t="n">
-        <v>0.226785</v>
+        <v>0.228044</v>
       </c>
       <c r="D104" t="n">
-        <v>0.38538</v>
+        <v>0.387118</v>
       </c>
       <c r="E104" t="n">
-        <v>0.223725</v>
+        <v>0.225974</v>
       </c>
       <c r="F104" t="n">
-        <v>0.214739</v>
+        <v>0.215472</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.245528</v>
+        <v>0.24705</v>
       </c>
       <c r="C105" t="n">
-        <v>0.22841</v>
+        <v>0.230186</v>
       </c>
       <c r="D105" t="n">
-        <v>0.395486</v>
+        <v>0.396581</v>
       </c>
       <c r="E105" t="n">
-        <v>0.22704</v>
+        <v>0.229161</v>
       </c>
       <c r="F105" t="n">
-        <v>0.217319</v>
+        <v>0.21778</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.246472</v>
+        <v>0.248692</v>
       </c>
       <c r="C106" t="n">
-        <v>0.230755</v>
+        <v>0.232474</v>
       </c>
       <c r="D106" t="n">
-        <v>0.40519</v>
+        <v>0.406794</v>
       </c>
       <c r="E106" t="n">
-        <v>0.229866</v>
+        <v>0.231978</v>
       </c>
       <c r="F106" t="n">
-        <v>0.222266</v>
+        <v>0.222959</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.247837</v>
+        <v>0.249442</v>
       </c>
       <c r="C107" t="n">
-        <v>0.234472</v>
+        <v>0.2367</v>
       </c>
       <c r="D107" t="n">
-        <v>0.349499</v>
+        <v>0.352206</v>
       </c>
       <c r="E107" t="n">
-        <v>0.23382</v>
+        <v>0.236422</v>
       </c>
       <c r="F107" t="n">
-        <v>0.227214</v>
+        <v>0.230542</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.251079</v>
+        <v>0.252903</v>
       </c>
       <c r="C108" t="n">
-        <v>0.239282</v>
+        <v>0.241131</v>
       </c>
       <c r="D108" t="n">
-        <v>0.355888</v>
+        <v>0.357433</v>
       </c>
       <c r="E108" t="n">
-        <v>0.251015</v>
+        <v>0.253379</v>
       </c>
       <c r="F108" t="n">
-        <v>0.251471</v>
+        <v>0.254292</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.254875</v>
+        <v>0.256975</v>
       </c>
       <c r="C109" t="n">
-        <v>0.247764</v>
+        <v>0.2495</v>
       </c>
       <c r="D109" t="n">
-        <v>0.356718</v>
+        <v>0.358619</v>
       </c>
       <c r="E109" t="n">
-        <v>0.252551</v>
+        <v>0.254816</v>
       </c>
       <c r="F109" t="n">
-        <v>0.252298</v>
+        <v>0.253995</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.280712</v>
+        <v>0.282157</v>
       </c>
       <c r="C110" t="n">
-        <v>0.275545</v>
+        <v>0.27863</v>
       </c>
       <c r="D110" t="n">
-        <v>0.364107</v>
+        <v>0.366277</v>
       </c>
       <c r="E110" t="n">
-        <v>0.248802</v>
+        <v>0.251828</v>
       </c>
       <c r="F110" t="n">
-        <v>0.254095</v>
+        <v>0.256179</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.280767</v>
+        <v>0.281146</v>
       </c>
       <c r="C111" t="n">
-        <v>0.275292</v>
+        <v>0.277612</v>
       </c>
       <c r="D111" t="n">
-        <v>0.37519</v>
+        <v>0.377215</v>
       </c>
       <c r="E111" t="n">
-        <v>0.250726</v>
+        <v>0.25277</v>
       </c>
       <c r="F111" t="n">
-        <v>0.255476</v>
+        <v>0.257669</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.280894</v>
+        <v>0.283047</v>
       </c>
       <c r="C112" t="n">
-        <v>0.275327</v>
+        <v>0.27746</v>
       </c>
       <c r="D112" t="n">
-        <v>0.379342</v>
+        <v>0.3823</v>
       </c>
       <c r="E112" t="n">
-        <v>0.249994</v>
+        <v>0.252043</v>
       </c>
       <c r="F112" t="n">
-        <v>0.256977</v>
+        <v>0.258876</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.28078</v>
+        <v>0.282949</v>
       </c>
       <c r="C113" t="n">
-        <v>0.275115</v>
+        <v>0.278326</v>
       </c>
       <c r="D113" t="n">
-        <v>0.388319</v>
+        <v>0.391008</v>
       </c>
       <c r="E113" t="n">
-        <v>0.252615</v>
+        <v>0.254997</v>
       </c>
       <c r="F113" t="n">
-        <v>0.259328</v>
+        <v>0.261234</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.28247</v>
+        <v>0.283058</v>
       </c>
       <c r="C114" t="n">
-        <v>0.277337</v>
+        <v>0.279086</v>
       </c>
       <c r="D114" t="n">
-        <v>0.396501</v>
+        <v>0.399512</v>
       </c>
       <c r="E114" t="n">
-        <v>0.255505</v>
+        <v>0.257649</v>
       </c>
       <c r="F114" t="n">
-        <v>0.262264</v>
+        <v>0.263767</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.281517</v>
+        <v>0.283067</v>
       </c>
       <c r="C115" t="n">
-        <v>0.277584</v>
+        <v>0.281037</v>
       </c>
       <c r="D115" t="n">
-        <v>0.404189</v>
+        <v>0.406867</v>
       </c>
       <c r="E115" t="n">
-        <v>0.258118</v>
+        <v>0.260169</v>
       </c>
       <c r="F115" t="n">
-        <v>0.264968</v>
+        <v>0.266268</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.280868</v>
+        <v>0.283493</v>
       </c>
       <c r="C116" t="n">
-        <v>0.278355</v>
+        <v>0.281219</v>
       </c>
       <c r="D116" t="n">
-        <v>0.411981</v>
+        <v>0.414694</v>
       </c>
       <c r="E116" t="n">
-        <v>0.260795</v>
+        <v>0.262389</v>
       </c>
       <c r="F116" t="n">
-        <v>0.267595</v>
+        <v>0.269543</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.281654</v>
+        <v>0.282376</v>
       </c>
       <c r="C117" t="n">
-        <v>0.279953</v>
+        <v>0.281406</v>
       </c>
       <c r="D117" t="n">
-        <v>0.421089</v>
+        <v>0.423686</v>
       </c>
       <c r="E117" t="n">
-        <v>0.264037</v>
+        <v>0.265715</v>
       </c>
       <c r="F117" t="n">
-        <v>0.271225</v>
+        <v>0.272922</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.283037</v>
+        <v>0.285647</v>
       </c>
       <c r="C118" t="n">
-        <v>0.282238</v>
+        <v>0.282594</v>
       </c>
       <c r="D118" t="n">
-        <v>0.429154</v>
+        <v>0.431942</v>
       </c>
       <c r="E118" t="n">
-        <v>0.266681</v>
+        <v>0.268529</v>
       </c>
       <c r="F118" t="n">
-        <v>0.274928</v>
+        <v>0.277094</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.282042</v>
+        <v>0.285184</v>
       </c>
       <c r="C119" t="n">
-        <v>0.283199</v>
+        <v>0.285192</v>
       </c>
       <c r="D119" t="n">
-        <v>0.442056</v>
+        <v>0.444724</v>
       </c>
       <c r="E119" t="n">
-        <v>0.270218</v>
+        <v>0.272204</v>
       </c>
       <c r="F119" t="n">
-        <v>0.280075</v>
+        <v>0.282577</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.282604</v>
+        <v>0.28429</v>
       </c>
       <c r="C120" t="n">
-        <v>0.285829</v>
+        <v>0.288471</v>
       </c>
       <c r="D120" t="n">
-        <v>0.450895</v>
+        <v>0.453371</v>
       </c>
       <c r="E120" t="n">
-        <v>0.274295</v>
+        <v>0.276169</v>
       </c>
       <c r="F120" t="n">
-        <v>0.28124</v>
+        <v>0.283344</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.28528</v>
+        <v>0.286902</v>
       </c>
       <c r="C121" t="n">
-        <v>0.28845</v>
+        <v>0.290091</v>
       </c>
       <c r="D121" t="n">
-        <v>0.376608</v>
+        <v>0.379006</v>
       </c>
       <c r="E121" t="n">
-        <v>0.279318</v>
+        <v>0.280608</v>
       </c>
       <c r="F121" t="n">
-        <v>0.288505</v>
+        <v>0.292778</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.286728</v>
+        <v>0.290341</v>
       </c>
       <c r="C122" t="n">
-        <v>0.29506</v>
+        <v>0.295461</v>
       </c>
       <c r="D122" t="n">
-        <v>0.382425</v>
+        <v>0.384506</v>
       </c>
       <c r="E122" t="n">
-        <v>0.285524</v>
+        <v>0.28729</v>
       </c>
       <c r="F122" t="n">
-        <v>0.29863</v>
+        <v>0.300261</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.291815</v>
+        <v>0.292111</v>
       </c>
       <c r="C123" t="n">
-        <v>0.301742</v>
+        <v>0.304108</v>
       </c>
       <c r="D123" t="n">
-        <v>0.387783</v>
+        <v>0.38986</v>
       </c>
       <c r="E123" t="n">
-        <v>0.273756</v>
+        <v>0.275178</v>
       </c>
       <c r="F123" t="n">
-        <v>0.284302</v>
+        <v>0.285981</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.360413</v>
+        <v>0.36238</v>
       </c>
       <c r="C124" t="n">
-        <v>0.350184</v>
+        <v>0.354667</v>
       </c>
       <c r="D124" t="n">
-        <v>0.392151</v>
+        <v>0.394497</v>
       </c>
       <c r="E124" t="n">
-        <v>0.273866</v>
+        <v>0.275841</v>
       </c>
       <c r="F124" t="n">
-        <v>0.286285</v>
+        <v>0.287945</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.360084</v>
+        <v>0.363544</v>
       </c>
       <c r="C125" t="n">
-        <v>0.351007</v>
+        <v>0.353046</v>
       </c>
       <c r="D125" t="n">
-        <v>0.401649</v>
+        <v>0.403863</v>
       </c>
       <c r="E125" t="n">
-        <v>0.276444</v>
+        <v>0.278498</v>
       </c>
       <c r="F125" t="n">
-        <v>0.288227</v>
+        <v>0.289758</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.361988</v>
+        <v>0.36479</v>
       </c>
       <c r="C126" t="n">
-        <v>0.35121</v>
+        <v>0.354189</v>
       </c>
       <c r="D126" t="n">
-        <v>0.40851</v>
+        <v>0.410568</v>
       </c>
       <c r="E126" t="n">
-        <v>0.279376</v>
+        <v>0.281033</v>
       </c>
       <c r="F126" t="n">
-        <v>0.290486</v>
+        <v>0.292232</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.361804</v>
+        <v>0.363306</v>
       </c>
       <c r="C127" t="n">
-        <v>0.352234</v>
+        <v>0.355127</v>
       </c>
       <c r="D127" t="n">
-        <v>0.413419</v>
+        <v>0.415744</v>
       </c>
       <c r="E127" t="n">
-        <v>0.282202</v>
+        <v>0.283851</v>
       </c>
       <c r="F127" t="n">
-        <v>0.293098</v>
+        <v>0.295172</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.361712</v>
+        <v>0.364686</v>
       </c>
       <c r="C128" t="n">
-        <v>0.352083</v>
+        <v>0.355256</v>
       </c>
       <c r="D128" t="n">
-        <v>0.427285</v>
+        <v>0.429195</v>
       </c>
       <c r="E128" t="n">
-        <v>0.285154</v>
+        <v>0.287025</v>
       </c>
       <c r="F128" t="n">
-        <v>0.296339</v>
+        <v>0.297708</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.360992</v>
+        <v>0.362605</v>
       </c>
       <c r="C129" t="n">
-        <v>0.353485</v>
+        <v>0.355251</v>
       </c>
       <c r="D129" t="n">
-        <v>0.433478</v>
+        <v>0.435611</v>
       </c>
       <c r="E129" t="n">
-        <v>0.288084</v>
+        <v>0.290002</v>
       </c>
       <c r="F129" t="n">
-        <v>0.299342</v>
+        <v>0.301135</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.360453</v>
+        <v>0.363351</v>
       </c>
       <c r="C130" t="n">
-        <v>0.354926</v>
+        <v>0.35686</v>
       </c>
       <c r="D130" t="n">
-        <v>0.44282</v>
+        <v>0.444601</v>
       </c>
       <c r="E130" t="n">
-        <v>0.291402</v>
+        <v>0.29281</v>
       </c>
       <c r="F130" t="n">
-        <v>0.296308</v>
+        <v>0.297422</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.361655</v>
+        <v>0.362493</v>
       </c>
       <c r="C131" t="n">
-        <v>0.355659</v>
+        <v>0.358006</v>
       </c>
       <c r="D131" t="n">
-        <v>0.450654</v>
+        <v>0.453301</v>
       </c>
       <c r="E131" t="n">
-        <v>0.295177</v>
+        <v>0.296726</v>
       </c>
       <c r="F131" t="n">
-        <v>0.301085</v>
+        <v>0.302411</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.360622</v>
+        <v>0.363967</v>
       </c>
       <c r="C132" t="n">
-        <v>0.357297</v>
+        <v>0.359601</v>
       </c>
       <c r="D132" t="n">
-        <v>0.456556</v>
+        <v>0.459476</v>
       </c>
       <c r="E132" t="n">
-        <v>0.298619</v>
+        <v>0.300623</v>
       </c>
       <c r="F132" t="n">
-        <v>0.30629</v>
+        <v>0.30853</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.360835</v>
+        <v>0.363504</v>
       </c>
       <c r="C133" t="n">
-        <v>0.359755</v>
+        <v>0.362433</v>
       </c>
       <c r="D133" t="n">
-        <v>0.468503</v>
+        <v>0.470839</v>
       </c>
       <c r="E133" t="n">
-        <v>0.303067</v>
+        <v>0.304882</v>
       </c>
       <c r="F133" t="n">
-        <v>0.312221</v>
+        <v>0.314234</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.36185</v>
+        <v>0.362488</v>
       </c>
       <c r="C134" t="n">
-        <v>0.36245</v>
+        <v>0.365226</v>
       </c>
       <c r="D134" t="n">
-        <v>0.478435</v>
+        <v>0.4806</v>
       </c>
       <c r="E134" t="n">
-        <v>0.307928</v>
+        <v>0.309632</v>
       </c>
       <c r="F134" t="n">
-        <v>0.321565</v>
+        <v>0.322771</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.362117</v>
+        <v>0.365565</v>
       </c>
       <c r="C135" t="n">
-        <v>0.365996</v>
+        <v>0.368913</v>
       </c>
       <c r="D135" t="n">
-        <v>0.392264</v>
+        <v>0.394579</v>
       </c>
       <c r="E135" t="n">
-        <v>0.31403</v>
+        <v>0.316239</v>
       </c>
       <c r="F135" t="n">
-        <v>0.332319</v>
+        <v>0.33444</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.364489</v>
+        <v>0.367263</v>
       </c>
       <c r="C136" t="n">
-        <v>0.370591</v>
+        <v>0.37368</v>
       </c>
       <c r="D136" t="n">
-        <v>0.398898</v>
+        <v>0.401437</v>
       </c>
       <c r="E136" t="n">
-        <v>0.322787</v>
+        <v>0.324684</v>
       </c>
       <c r="F136" t="n">
-        <v>0.34704</v>
+        <v>0.349555</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.368352</v>
+        <v>0.368308</v>
       </c>
       <c r="C137" t="n">
-        <v>0.379589</v>
+        <v>0.381978</v>
       </c>
       <c r="D137" t="n">
-        <v>0.403357</v>
+        <v>0.405497</v>
       </c>
       <c r="E137" t="n">
-        <v>0.293805</v>
+        <v>0.295648</v>
       </c>
       <c r="F137" t="n">
-        <v>0.304706</v>
+        <v>0.306444</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.425079</v>
+        <v>0.4281</v>
       </c>
       <c r="C138" t="n">
-        <v>0.394571</v>
+        <v>0.39654</v>
       </c>
       <c r="D138" t="n">
-        <v>0.410777</v>
+        <v>0.413391</v>
       </c>
       <c r="E138" t="n">
-        <v>0.296123</v>
+        <v>0.298121</v>
       </c>
       <c r="F138" t="n">
-        <v>0.306536</v>
+        <v>0.308881</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.425541</v>
+        <v>0.428158</v>
       </c>
       <c r="C139" t="n">
-        <v>0.394764</v>
+        <v>0.397413</v>
       </c>
       <c r="D139" t="n">
-        <v>0.418694</v>
+        <v>0.420932</v>
       </c>
       <c r="E139" t="n">
-        <v>0.2985</v>
+        <v>0.300451</v>
       </c>
       <c r="F139" t="n">
-        <v>0.309018</v>
+        <v>0.310363</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.425567</v>
+        <v>0.427979</v>
       </c>
       <c r="C140" t="n">
-        <v>0.395236</v>
+        <v>0.397372</v>
       </c>
       <c r="D140" t="n">
-        <v>0.423651</v>
+        <v>0.426057</v>
       </c>
       <c r="E140" t="n">
-        <v>0.300476</v>
+        <v>0.30249</v>
       </c>
       <c r="F140" t="n">
-        <v>0.311622</v>
+        <v>0.31334</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.425855</v>
+        <v>0.428461</v>
       </c>
       <c r="C141" t="n">
-        <v>0.396658</v>
+        <v>0.398122</v>
       </c>
       <c r="D141" t="n">
-        <v>0.432709</v>
+        <v>0.435204</v>
       </c>
       <c r="E141" t="n">
-        <v>0.302672</v>
+        <v>0.304723</v>
       </c>
       <c r="F141" t="n">
-        <v>0.313944</v>
+        <v>0.316239</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.425552</v>
+        <v>0.42764</v>
       </c>
       <c r="C142" t="n">
-        <v>0.397113</v>
+        <v>0.400003</v>
       </c>
       <c r="D142" t="n">
-        <v>0.438486</v>
+        <v>0.441447</v>
       </c>
       <c r="E142" t="n">
-        <v>0.304993</v>
+        <v>0.307192</v>
       </c>
       <c r="F142" t="n">
-        <v>0.317274</v>
+        <v>0.318602</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.425357</v>
+        <v>0.42765</v>
       </c>
       <c r="C143" t="n">
-        <v>0.398042</v>
+        <v>0.400308</v>
       </c>
       <c r="D143" t="n">
-        <v>0.448064</v>
+        <v>0.450467</v>
       </c>
       <c r="E143" t="n">
-        <v>0.307869</v>
+        <v>0.309415</v>
       </c>
       <c r="F143" t="n">
-        <v>0.31754</v>
+        <v>0.322608</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0363836</v>
+        <v>0.0363924</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0366304</v>
+        <v>0.0362751</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0728708</v>
+        <v>0.07116989999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0367742</v>
+        <v>0.036502</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0382099</v>
+        <v>0.0383086</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0358545</v>
+        <v>0.0361206</v>
       </c>
       <c r="C3" t="n">
-        <v>0.036187</v>
+        <v>0.0365868</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0787895</v>
+        <v>0.0774889</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0369099</v>
+        <v>0.0370996</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0385904</v>
+        <v>0.0386608</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0359363</v>
+        <v>0.0353469</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0366708</v>
+        <v>0.0363034</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08662739999999999</v>
+        <v>0.0858554</v>
       </c>
       <c r="E4" t="n">
-        <v>0.037522</v>
+        <v>0.0373025</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0389238</v>
+        <v>0.0387569</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0365034</v>
+        <v>0.0354235</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0366627</v>
+        <v>0.036558</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0930014</v>
+        <v>0.0927833</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0381537</v>
+        <v>0.037617</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0391438</v>
+        <v>0.0389874</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03576</v>
+        <v>0.0357377</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0370641</v>
+        <v>0.0367256</v>
       </c>
       <c r="D6" t="n">
-        <v>0.101172</v>
+        <v>0.100767</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0380518</v>
+        <v>0.0375873</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0395111</v>
+        <v>0.0393824</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.037224</v>
+        <v>0.0361949</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0370242</v>
+        <v>0.0366709</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0620965</v>
+        <v>0.0617086</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0382173</v>
+        <v>0.0380864</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0401549</v>
+        <v>0.0401462</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0368704</v>
+        <v>0.0360441</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0371459</v>
+        <v>0.0375337</v>
       </c>
       <c r="D8" t="n">
-        <v>0.06603580000000001</v>
+        <v>0.0657049</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0394254</v>
+        <v>0.0397651</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0416699</v>
+        <v>0.0413384</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0377799</v>
+        <v>0.0365685</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0376708</v>
+        <v>0.0377279</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0718432</v>
+        <v>0.0718258</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0386505</v>
+        <v>0.0399049</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0405741</v>
+        <v>0.0409801</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.042723</v>
+        <v>0.0432374</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0425543</v>
+        <v>0.0425863</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0750079</v>
+        <v>0.0755035</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0392287</v>
+        <v>0.0402581</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0405552</v>
+        <v>0.0409969</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.042985</v>
+        <v>0.0433186</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0426261</v>
+        <v>0.042609</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0810471</v>
+        <v>0.0808953</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0396855</v>
+        <v>0.0405493</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0407804</v>
+        <v>0.0412384</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0430325</v>
+        <v>0.0434002</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0427538</v>
+        <v>0.0427204</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0871509</v>
+        <v>0.0867665</v>
       </c>
       <c r="E12" t="n">
-        <v>0.040057</v>
+        <v>0.0408852</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0410569</v>
+        <v>0.0416635</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0432122</v>
+        <v>0.0435097</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0429658</v>
+        <v>0.0429078</v>
       </c>
       <c r="D13" t="n">
-        <v>0.091312</v>
+        <v>0.0913003</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0403495</v>
+        <v>0.0409442</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0413964</v>
+        <v>0.0419274</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0433993</v>
+        <v>0.0434852</v>
       </c>
       <c r="C14" t="n">
-        <v>0.042867</v>
+        <v>0.0430329</v>
       </c>
       <c r="D14" t="n">
-        <v>0.096927</v>
+        <v>0.0969691</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0409521</v>
+        <v>0.0415198</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0417166</v>
+        <v>0.0422545</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0432976</v>
+        <v>0.0436589</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0432303</v>
+        <v>0.0431424</v>
       </c>
       <c r="D15" t="n">
-        <v>0.102785</v>
+        <v>0.102512</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0411972</v>
+        <v>0.0418227</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0420268</v>
+        <v>0.0426564</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0434375</v>
+        <v>0.0437482</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0433123</v>
+        <v>0.0432795</v>
       </c>
       <c r="D16" t="n">
-        <v>0.107664</v>
+        <v>0.107569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0412223</v>
+        <v>0.0417131</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0423697</v>
+        <v>0.0429868</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0437191</v>
+        <v>0.0438374</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0431437</v>
+        <v>0.0440366</v>
       </c>
       <c r="D17" t="n">
-        <v>0.112594</v>
+        <v>0.112772</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0416899</v>
+        <v>0.0420991</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0426768</v>
+        <v>0.0431717</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0436704</v>
+        <v>0.0438995</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0433012</v>
+        <v>0.0434389</v>
       </c>
       <c r="D18" t="n">
-        <v>0.117326</v>
+        <v>0.117063</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0417693</v>
+        <v>0.0424759</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0428601</v>
+        <v>0.0434372</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0439357</v>
+        <v>0.0439552</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0436144</v>
+        <v>0.0436109</v>
       </c>
       <c r="D19" t="n">
-        <v>0.121811</v>
+        <v>0.121447</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0421462</v>
+        <v>0.0425657</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0431902</v>
+        <v>0.043762</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0441298</v>
+        <v>0.0440738</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0437126</v>
+        <v>0.043702</v>
       </c>
       <c r="D20" t="n">
-        <v>0.12513</v>
+        <v>0.124997</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0431124</v>
+        <v>0.0431233</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0438559</v>
+        <v>0.044135</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0443656</v>
+        <v>0.0443404</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0439732</v>
+        <v>0.0435883</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0888941</v>
+        <v>0.0892165</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0437288</v>
+        <v>0.0440015</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0449527</v>
+        <v>0.0449494</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0447089</v>
+        <v>0.0447724</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0441354</v>
+        <v>0.0441831</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0917799</v>
+        <v>0.0919097</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0468034</v>
+        <v>0.0474451</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0487533</v>
+        <v>0.0488247</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0453128</v>
+        <v>0.0454077</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0448447</v>
+        <v>0.0448717</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0949179</v>
+        <v>0.0949171</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0452938</v>
+        <v>0.0452567</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0462398</v>
+        <v>0.04662</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0493366</v>
+        <v>0.0491906</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0500886</v>
+        <v>0.0499038</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0990747</v>
+        <v>0.09886739999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>0.045631</v>
+        <v>0.0457594</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0464545</v>
+        <v>0.0467301</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0489248</v>
+        <v>0.0490382</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0500852</v>
+        <v>0.0498687</v>
       </c>
       <c r="D25" t="n">
-        <v>0.101995</v>
+        <v>0.101845</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0457742</v>
+        <v>0.0460414</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0466705</v>
+        <v>0.0468777</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0489703</v>
+        <v>0.0490747</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0502046</v>
+        <v>0.0500386</v>
       </c>
       <c r="D26" t="n">
-        <v>0.105704</v>
+        <v>0.105712</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0460948</v>
+        <v>0.0464334</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0469613</v>
+        <v>0.0474738</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0488399</v>
+        <v>0.0491034</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0502062</v>
+        <v>0.0501216</v>
       </c>
       <c r="D27" t="n">
-        <v>0.109671</v>
+        <v>0.109661</v>
       </c>
       <c r="E27" t="n">
-        <v>0.046475</v>
+        <v>0.0468406</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0473222</v>
+        <v>0.0477397</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0489815</v>
+        <v>0.0493006</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0502797</v>
+        <v>0.0503197</v>
       </c>
       <c r="D28" t="n">
-        <v>0.113643</v>
+        <v>0.113589</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0466212</v>
+        <v>0.0472241</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0475421</v>
+        <v>0.047802</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0492989</v>
+        <v>0.0494524</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0504769</v>
+        <v>0.0503337</v>
       </c>
       <c r="D29" t="n">
-        <v>0.117955</v>
+        <v>0.11787</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0468592</v>
+        <v>0.0473334</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0478112</v>
+        <v>0.048083</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0489285</v>
+        <v>0.0494036</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0501476</v>
+        <v>0.0503538</v>
       </c>
       <c r="D30" t="n">
-        <v>0.121566</v>
+        <v>0.121778</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0478105</v>
+        <v>0.0473468</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0479986</v>
+        <v>0.0490164</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0492229</v>
+        <v>0.0493536</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0505641</v>
+        <v>0.0505598</v>
       </c>
       <c r="D31" t="n">
-        <v>0.125973</v>
+        <v>0.126017</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0475631</v>
+        <v>0.0477595</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0483825</v>
+        <v>0.0486401</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0490826</v>
+        <v>0.0495731</v>
       </c>
       <c r="C32" t="n">
-        <v>0.050253</v>
+        <v>0.0506385</v>
       </c>
       <c r="D32" t="n">
-        <v>0.129067</v>
+        <v>0.129137</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0482767</v>
+        <v>0.0479497</v>
       </c>
       <c r="F32" t="n">
-        <v>0.048474</v>
+        <v>0.0496189</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0493591</v>
+        <v>0.0496797</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0508512</v>
+        <v>0.0506554</v>
       </c>
       <c r="D33" t="n">
-        <v>0.132804</v>
+        <v>0.132718</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0480273</v>
+        <v>0.0486302</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0490827</v>
+        <v>0.049351</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0494657</v>
+        <v>0.049897</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0505112</v>
+        <v>0.05088</v>
       </c>
       <c r="D34" t="n">
-        <v>0.135907</v>
+        <v>0.135966</v>
       </c>
       <c r="E34" t="n">
-        <v>0.048475</v>
+        <v>0.0487558</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0496807</v>
+        <v>0.0500759</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0499626</v>
+        <v>0.0501409</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0511423</v>
+        <v>0.051432</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0968469</v>
+        <v>0.0969798</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0518263</v>
+        <v>0.0520559</v>
       </c>
       <c r="F35" t="n">
-        <v>0.054235</v>
+        <v>0.0544715</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0502806</v>
+        <v>0.0506724</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0516729</v>
+        <v>0.0517352</v>
       </c>
       <c r="D36" t="n">
-        <v>0.09941990000000001</v>
+        <v>0.0993021</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0587061</v>
+        <v>0.0592435</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0623116</v>
+        <v>0.0625184</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0543575</v>
+        <v>0.0543506</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0557612</v>
+        <v>0.055609</v>
       </c>
       <c r="D37" t="n">
-        <v>0.101474</v>
+        <v>0.10152</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0499024</v>
+        <v>0.0494492</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0501862</v>
+        <v>0.0504809</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0554946</v>
+        <v>0.0547038</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0559807</v>
+        <v>0.0561837</v>
       </c>
       <c r="D38" t="n">
-        <v>0.104077</v>
+        <v>0.104125</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0497637</v>
+        <v>0.0492967</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0503055</v>
+        <v>0.0504754</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0536547</v>
+        <v>0.0531769</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0560147</v>
+        <v>0.0561675</v>
       </c>
       <c r="D39" t="n">
-        <v>0.107222</v>
+        <v>0.107174</v>
       </c>
       <c r="E39" t="n">
-        <v>0.049814</v>
+        <v>0.0495439</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0506864</v>
+        <v>0.0510921</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0533135</v>
+        <v>0.0536917</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0560809</v>
+        <v>0.0563811</v>
       </c>
       <c r="D40" t="n">
-        <v>0.110515</v>
+        <v>0.110379</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0502624</v>
+        <v>0.0498583</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0509965</v>
+        <v>0.0512803</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.05489</v>
+        <v>0.0536847</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0561206</v>
+        <v>0.0563934</v>
       </c>
       <c r="D41" t="n">
-        <v>0.113759</v>
+        <v>0.113783</v>
       </c>
       <c r="E41" t="n">
-        <v>0.050487</v>
+        <v>0.0502318</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0512577</v>
+        <v>0.051581</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0542658</v>
+        <v>0.053775</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0563363</v>
+        <v>0.0565536</v>
       </c>
       <c r="D42" t="n">
-        <v>0.117379</v>
+        <v>0.117373</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0509418</v>
+        <v>0.050634</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0513173</v>
+        <v>0.0516389</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0539976</v>
+        <v>0.0541119</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0562883</v>
+        <v>0.0566524</v>
       </c>
       <c r="D43" t="n">
-        <v>0.121339</v>
+        <v>0.121226</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0513512</v>
+        <v>0.0508952</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0516978</v>
+        <v>0.0519544</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0552351</v>
+        <v>0.0539592</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0564824</v>
+        <v>0.0566946</v>
       </c>
       <c r="D44" t="n">
-        <v>0.125198</v>
+        <v>0.125159</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0517284</v>
+        <v>0.0512506</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0518988</v>
+        <v>0.0523349</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0547435</v>
+        <v>0.0544789</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0565372</v>
+        <v>0.0568241</v>
       </c>
       <c r="D45" t="n">
-        <v>0.129169</v>
+        <v>0.129168</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0517255</v>
+        <v>0.0515808</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0524628</v>
+        <v>0.052897</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0555885</v>
+        <v>0.0543401</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0568275</v>
+        <v>0.0569017</v>
       </c>
       <c r="D46" t="n">
-        <v>0.132734</v>
+        <v>0.13275</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0521485</v>
+        <v>0.0521062</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0531776</v>
+        <v>0.0535812</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0558281</v>
+        <v>0.0544335</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0570481</v>
+        <v>0.0570797</v>
       </c>
       <c r="D47" t="n">
-        <v>0.135931</v>
+        <v>0.135907</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0534789</v>
+        <v>0.0531529</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0551904</v>
+        <v>0.0552925</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0558176</v>
+        <v>0.0550909</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0572846</v>
+        <v>0.0575015</v>
       </c>
       <c r="D48" t="n">
-        <v>0.139607</v>
+        <v>0.139619</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0559248</v>
+        <v>0.056255</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0584317</v>
+        <v>0.0586948</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0566039</v>
+        <v>0.055453</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0582122</v>
+        <v>0.0583761</v>
       </c>
       <c r="D49" t="n">
-        <v>0.142483</v>
+        <v>0.142543</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0597888</v>
+        <v>0.0597913</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0629427</v>
+        <v>0.06266289999999999</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0584163</v>
+        <v>0.0599148</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0603805</v>
+        <v>0.060691</v>
       </c>
       <c r="D50" t="n">
-        <v>0.101443</v>
+        <v>0.10134</v>
       </c>
       <c r="E50" t="n">
-        <v>0.06454029999999999</v>
+        <v>0.0645556</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0675486</v>
+        <v>0.0680094</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0622111</v>
+        <v>0.06253930000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0636158</v>
+        <v>0.0643587</v>
       </c>
       <c r="D51" t="n">
-        <v>0.103657</v>
+        <v>0.103713</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0524088</v>
+        <v>0.0523494</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0529998</v>
+        <v>0.0533322</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0670637</v>
+        <v>0.06762029999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>0.07012069999999999</v>
+        <v>0.0705316</v>
       </c>
       <c r="D52" t="n">
-        <v>0.106107</v>
+        <v>0.106179</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0523617</v>
+        <v>0.0521449</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0533695</v>
+        <v>0.0533861</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0608999</v>
+        <v>0.0611729</v>
       </c>
       <c r="C53" t="n">
-        <v>0.06324200000000001</v>
+        <v>0.0633586</v>
       </c>
       <c r="D53" t="n">
-        <v>0.10917</v>
+        <v>0.109021</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0529596</v>
+        <v>0.0526344</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0537069</v>
+        <v>0.054057</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0604538</v>
+        <v>0.06044</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0634681</v>
+        <v>0.0632751</v>
       </c>
       <c r="D54" t="n">
-        <v>0.111993</v>
+        <v>0.112084</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0532388</v>
+        <v>0.0531469</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0539955</v>
+        <v>0.0543147</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0606006</v>
+        <v>0.0604955</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0634694</v>
+        <v>0.063481</v>
       </c>
       <c r="D55" t="n">
-        <v>0.115615</v>
+        <v>0.115641</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0536633</v>
+        <v>0.0534851</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0544634</v>
+        <v>0.054758</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0606243</v>
+        <v>0.060775</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0634663</v>
+        <v>0.06374829999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.119239</v>
+        <v>0.119184</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0538921</v>
+        <v>0.0538382</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0547472</v>
+        <v>0.0550591</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0609336</v>
+        <v>0.0609143</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0637245</v>
+        <v>0.06390700000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>0.123085</v>
+        <v>0.122992</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0545758</v>
+        <v>0.0544596</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0554348</v>
+        <v>0.0554373</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0616995</v>
+        <v>0.0612029</v>
       </c>
       <c r="C58" t="n">
-        <v>0.06411799999999999</v>
+        <v>0.0641636</v>
       </c>
       <c r="D58" t="n">
-        <v>0.126798</v>
+        <v>0.126742</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0548661</v>
+        <v>0.0549774</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0559399</v>
+        <v>0.0568637</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0614875</v>
+        <v>0.0618674</v>
       </c>
       <c r="C59" t="n">
-        <v>0.064153</v>
+        <v>0.0642093</v>
       </c>
       <c r="D59" t="n">
-        <v>0.130648</v>
+        <v>0.130481</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0555505</v>
+        <v>0.0554882</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0584274</v>
+        <v>0.0580429</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0615205</v>
+        <v>0.0611881</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0655168</v>
+        <v>0.06442390000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>0.134528</v>
+        <v>0.134353</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0570061</v>
+        <v>0.0568182</v>
       </c>
       <c r="F60" t="n">
-        <v>0.058955</v>
+        <v>0.0590875</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0619972</v>
+        <v>0.0623779</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0663744</v>
+        <v>0.0652406</v>
       </c>
       <c r="D61" t="n">
-        <v>0.138448</v>
+        <v>0.138391</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0590275</v>
+        <v>0.0591712</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0622339</v>
+        <v>0.0612156</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0624112</v>
+        <v>0.0627567</v>
       </c>
       <c r="C62" t="n">
-        <v>0.066263</v>
+        <v>0.0662534</v>
       </c>
       <c r="D62" t="n">
-        <v>0.142027</v>
+        <v>0.141962</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0614459</v>
+        <v>0.0615541</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0649856</v>
+        <v>0.06451850000000001</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0647649</v>
+        <v>0.0649375</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0683486</v>
+        <v>0.0674742</v>
       </c>
       <c r="D63" t="n">
-        <v>0.145151</v>
+        <v>0.145211</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0643258</v>
+        <v>0.0644252</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0683981</v>
+        <v>0.0680917</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.06648850000000001</v>
+        <v>0.0665815</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0703192</v>
+        <v>0.06966559999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>0.110314</v>
+        <v>0.109189</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0684616</v>
+        <v>0.0680828</v>
       </c>
       <c r="F64" t="n">
-        <v>0.07285899999999999</v>
+        <v>0.0727144</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.06918680000000001</v>
+        <v>0.0695847</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0735027</v>
+        <v>0.07284210000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>0.111274</v>
+        <v>0.111716</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0747274</v>
+        <v>0.0742794</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0798605</v>
+        <v>0.0805125</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0727204</v>
+        <v>0.073118</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0787544</v>
+        <v>0.0783822</v>
       </c>
       <c r="D66" t="n">
-        <v>0.116649</v>
+        <v>0.114297</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0568517</v>
+        <v>0.0561376</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0596434</v>
+        <v>0.0596425</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0701006</v>
+        <v>0.0774741</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0715252</v>
+        <v>0.071561</v>
       </c>
       <c r="D67" t="n">
-        <v>0.118725</v>
+        <v>0.119365</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0553847</v>
+        <v>0.0571974</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0600866</v>
+        <v>0.0601234</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0701468</v>
+        <v>0.0783659</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0718509</v>
+        <v>0.07167949999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.123963</v>
+        <v>0.123646</v>
       </c>
       <c r="E68" t="n">
-        <v>0.055969</v>
+        <v>0.0575811</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0611301</v>
+        <v>0.0609692</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0702864</v>
+        <v>0.07731159999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>0.07246</v>
+        <v>0.0723234</v>
       </c>
       <c r="D69" t="n">
-        <v>0.129955</v>
+        <v>0.129521</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0579449</v>
+        <v>0.058205</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0618511</v>
+        <v>0.0618474</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0709626</v>
+        <v>0.0803314</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0732614</v>
+        <v>0.0729751</v>
       </c>
       <c r="D70" t="n">
-        <v>0.135684</v>
+        <v>0.134421</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0588413</v>
+        <v>0.0591112</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0633253</v>
+        <v>0.06311559999999999</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.07014529999999999</v>
+        <v>0.0806212</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0736156</v>
+        <v>0.0737618</v>
       </c>
       <c r="D71" t="n">
-        <v>0.141882</v>
+        <v>0.140819</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0580385</v>
+        <v>0.0587814</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0643801</v>
+        <v>0.0647667</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0726651</v>
+        <v>0.0769885</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0736286</v>
+        <v>0.0757148</v>
       </c>
       <c r="D72" t="n">
-        <v>0.148044</v>
+        <v>0.148446</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0580951</v>
+        <v>0.0608364</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0668137</v>
+        <v>0.06680700000000001</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.071369</v>
+        <v>0.07848049999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0749298</v>
+        <v>0.0755248</v>
       </c>
       <c r="D73" t="n">
-        <v>0.15545</v>
+        <v>0.156856</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0591011</v>
+        <v>0.0620653</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0680564</v>
+        <v>0.0680207</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0727377</v>
+        <v>0.07809049999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0757622</v>
+        <v>0.076344</v>
       </c>
       <c r="D74" t="n">
-        <v>0.165596</v>
+        <v>0.166304</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0609655</v>
+        <v>0.06253980000000001</v>
       </c>
       <c r="F74" t="n">
-        <v>0.07070940000000001</v>
+        <v>0.0713249</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.07347819999999999</v>
+        <v>0.07894710000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0773257</v>
+        <v>0.0793512</v>
       </c>
       <c r="D75" t="n">
-        <v>0.174425</v>
+        <v>0.174885</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0621445</v>
+        <v>0.06382069999999999</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0737352</v>
+        <v>0.0741366</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0737643</v>
+        <v>0.0800305</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0791804</v>
+        <v>0.08088770000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>0.181991</v>
+        <v>0.181224</v>
       </c>
       <c r="E76" t="n">
-        <v>0.06449729999999999</v>
+        <v>0.0662778</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0775798</v>
+        <v>0.0768276</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0754702</v>
+        <v>0.0812306</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0811882</v>
+        <v>0.0826007</v>
       </c>
       <c r="D77" t="n">
-        <v>0.193301</v>
+        <v>0.193807</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0671489</v>
+        <v>0.0689311</v>
       </c>
       <c r="F77" t="n">
-        <v>0.08203240000000001</v>
+        <v>0.081784</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0769051</v>
+        <v>0.0868606</v>
       </c>
       <c r="C78" t="n">
-        <v>0.08363760000000001</v>
+        <v>0.08572589999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>0.186542</v>
+        <v>0.187037</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0706727</v>
+        <v>0.0727855</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0876329</v>
+        <v>0.08729770000000001</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.07812280000000001</v>
+        <v>0.0881226</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0877033</v>
+        <v>0.09088010000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>0.19437</v>
+        <v>0.194577</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0764537</v>
+        <v>0.0784758</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0950211</v>
+        <v>0.0950135</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.08259710000000001</v>
+        <v>0.0905112</v>
       </c>
       <c r="C80" t="n">
-        <v>0.09335209999999999</v>
+        <v>0.0959068</v>
       </c>
       <c r="D80" t="n">
-        <v>0.202465</v>
+        <v>0.202212</v>
       </c>
       <c r="E80" t="n">
-        <v>0.105601</v>
+        <v>0.104236</v>
       </c>
       <c r="F80" t="n">
-        <v>0.104812</v>
+        <v>0.103241</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.174288</v>
+        <v>0.172438</v>
       </c>
       <c r="C81" t="n">
-        <v>0.141173</v>
+        <v>0.140788</v>
       </c>
       <c r="D81" t="n">
-        <v>0.211614</v>
+        <v>0.211218</v>
       </c>
       <c r="E81" t="n">
-        <v>0.10818</v>
+        <v>0.10658</v>
       </c>
       <c r="F81" t="n">
-        <v>0.105544</v>
+        <v>0.104582</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.175784</v>
+        <v>0.175854</v>
       </c>
       <c r="C82" t="n">
-        <v>0.141621</v>
+        <v>0.141092</v>
       </c>
       <c r="D82" t="n">
-        <v>0.218124</v>
+        <v>0.21894</v>
       </c>
       <c r="E82" t="n">
-        <v>0.110817</v>
+        <v>0.109408</v>
       </c>
       <c r="F82" t="n">
-        <v>0.106511</v>
+        <v>0.105035</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.177029</v>
+        <v>0.176235</v>
       </c>
       <c r="C83" t="n">
-        <v>0.142182</v>
+        <v>0.141914</v>
       </c>
       <c r="D83" t="n">
-        <v>0.226832</v>
+        <v>0.226795</v>
       </c>
       <c r="E83" t="n">
-        <v>0.111618</v>
+        <v>0.111612</v>
       </c>
       <c r="F83" t="n">
-        <v>0.107341</v>
+        <v>0.105773</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.177561</v>
+        <v>0.177484</v>
       </c>
       <c r="C84" t="n">
-        <v>0.143043</v>
+        <v>0.142654</v>
       </c>
       <c r="D84" t="n">
-        <v>0.238328</v>
+        <v>0.238398</v>
       </c>
       <c r="E84" t="n">
-        <v>0.113907</v>
+        <v>0.113194</v>
       </c>
       <c r="F84" t="n">
-        <v>0.10834</v>
+        <v>0.106644</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.177375</v>
+        <v>0.178001</v>
       </c>
       <c r="C85" t="n">
-        <v>0.143379</v>
+        <v>0.142905</v>
       </c>
       <c r="D85" t="n">
-        <v>0.250353</v>
+        <v>0.250666</v>
       </c>
       <c r="E85" t="n">
-        <v>0.115568</v>
+        <v>0.116391</v>
       </c>
       <c r="F85" t="n">
-        <v>0.110158</v>
+        <v>0.109174</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.178442</v>
+        <v>0.179354</v>
       </c>
       <c r="C86" t="n">
-        <v>0.144207</v>
+        <v>0.144412</v>
       </c>
       <c r="D86" t="n">
-        <v>0.258427</v>
+        <v>0.257327</v>
       </c>
       <c r="E86" t="n">
-        <v>0.117953</v>
+        <v>0.118597</v>
       </c>
       <c r="F86" t="n">
-        <v>0.112515</v>
+        <v>0.110229</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.179222</v>
+        <v>0.179478</v>
       </c>
       <c r="C87" t="n">
-        <v>0.144983</v>
+        <v>0.144862</v>
       </c>
       <c r="D87" t="n">
-        <v>0.272063</v>
+        <v>0.271213</v>
       </c>
       <c r="E87" t="n">
-        <v>0.120165</v>
+        <v>0.119978</v>
       </c>
       <c r="F87" t="n">
-        <v>0.113811</v>
+        <v>0.112618</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.180691</v>
+        <v>0.180823</v>
       </c>
       <c r="C88" t="n">
-        <v>0.148009</v>
+        <v>0.147976</v>
       </c>
       <c r="D88" t="n">
-        <v>0.27928</v>
+        <v>0.278444</v>
       </c>
       <c r="E88" t="n">
-        <v>0.122147</v>
+        <v>0.122745</v>
       </c>
       <c r="F88" t="n">
-        <v>0.113414</v>
+        <v>0.115171</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.18023</v>
+        <v>0.180083</v>
       </c>
       <c r="C89" t="n">
-        <v>0.14726</v>
+        <v>0.147218</v>
       </c>
       <c r="D89" t="n">
-        <v>0.289974</v>
+        <v>0.289196</v>
       </c>
       <c r="E89" t="n">
-        <v>0.123855</v>
+        <v>0.124417</v>
       </c>
       <c r="F89" t="n">
-        <v>0.115003</v>
+        <v>0.114666</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.181406</v>
+        <v>0.181721</v>
       </c>
       <c r="C90" t="n">
-        <v>0.150278</v>
+        <v>0.150477</v>
       </c>
       <c r="D90" t="n">
-        <v>0.299346</v>
+        <v>0.298977</v>
       </c>
       <c r="E90" t="n">
-        <v>0.125914</v>
+        <v>0.126987</v>
       </c>
       <c r="F90" t="n">
-        <v>0.117207</v>
+        <v>0.122503</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.182442</v>
+        <v>0.181851</v>
       </c>
       <c r="C91" t="n">
-        <v>0.150654</v>
+        <v>0.154313</v>
       </c>
       <c r="D91" t="n">
-        <v>0.308884</v>
+        <v>0.309186</v>
       </c>
       <c r="E91" t="n">
-        <v>0.129534</v>
+        <v>0.130661</v>
       </c>
       <c r="F91" t="n">
-        <v>0.123495</v>
+        <v>0.121446</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.182731</v>
+        <v>0.183149</v>
       </c>
       <c r="C92" t="n">
-        <v>0.153772</v>
+        <v>0.153313</v>
       </c>
       <c r="D92" t="n">
-        <v>0.289197</v>
+        <v>0.288379</v>
       </c>
       <c r="E92" t="n">
-        <v>0.131186</v>
+        <v>0.133055</v>
       </c>
       <c r="F92" t="n">
-        <v>0.126107</v>
+        <v>0.131165</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.183772</v>
+        <v>0.184386</v>
       </c>
       <c r="C93" t="n">
-        <v>0.156114</v>
+        <v>0.159793</v>
       </c>
       <c r="D93" t="n">
-        <v>0.294186</v>
+        <v>0.293084</v>
       </c>
       <c r="E93" t="n">
-        <v>0.135712</v>
+        <v>0.137595</v>
       </c>
       <c r="F93" t="n">
-        <v>0.132962</v>
+        <v>0.13648</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.184941</v>
+        <v>0.185499</v>
       </c>
       <c r="C94" t="n">
-        <v>0.160935</v>
+        <v>0.162741</v>
       </c>
       <c r="D94" t="n">
-        <v>0.300989</v>
+        <v>0.29981</v>
       </c>
       <c r="E94" t="n">
-        <v>0.207242</v>
+        <v>0.205752</v>
       </c>
       <c r="F94" t="n">
-        <v>0.200956</v>
+        <v>0.199731</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.24505</v>
+        <v>0.24412</v>
       </c>
       <c r="C95" t="n">
-        <v>0.222744</v>
+        <v>0.22152</v>
       </c>
       <c r="D95" t="n">
-        <v>0.30718</v>
+        <v>0.306073</v>
       </c>
       <c r="E95" t="n">
-        <v>0.208781</v>
+        <v>0.20748</v>
       </c>
       <c r="F95" t="n">
-        <v>0.201942</v>
+        <v>0.200718</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.245438</v>
+        <v>0.244363</v>
       </c>
       <c r="C96" t="n">
-        <v>0.222961</v>
+        <v>0.221944</v>
       </c>
       <c r="D96" t="n">
-        <v>0.318119</v>
+        <v>0.317382</v>
       </c>
       <c r="E96" t="n">
-        <v>0.210113</v>
+        <v>0.209701</v>
       </c>
       <c r="F96" t="n">
-        <v>0.203439</v>
+        <v>0.20247</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.245585</v>
+        <v>0.244163</v>
       </c>
       <c r="C97" t="n">
-        <v>0.223553</v>
+        <v>0.22249</v>
       </c>
       <c r="D97" t="n">
-        <v>0.324438</v>
+        <v>0.323169</v>
       </c>
       <c r="E97" t="n">
-        <v>0.212337</v>
+        <v>0.211107</v>
       </c>
       <c r="F97" t="n">
-        <v>0.203959</v>
+        <v>0.20274</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.245868</v>
+        <v>0.244649</v>
       </c>
       <c r="C98" t="n">
-        <v>0.223776</v>
+        <v>0.222701</v>
       </c>
       <c r="D98" t="n">
-        <v>0.333853</v>
+        <v>0.332463</v>
       </c>
       <c r="E98" t="n">
-        <v>0.21432</v>
+        <v>0.21273</v>
       </c>
       <c r="F98" t="n">
-        <v>0.205309</v>
+        <v>0.204182</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.245887</v>
+        <v>0.244632</v>
       </c>
       <c r="C99" t="n">
-        <v>0.224184</v>
+        <v>0.223228</v>
       </c>
       <c r="D99" t="n">
-        <v>0.341549</v>
+        <v>0.340205</v>
       </c>
       <c r="E99" t="n">
-        <v>0.215578</v>
+        <v>0.214747</v>
       </c>
       <c r="F99" t="n">
-        <v>0.207078</v>
+        <v>0.205024</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.245671</v>
+        <v>0.24477</v>
       </c>
       <c r="C100" t="n">
-        <v>0.22467</v>
+        <v>0.223741</v>
       </c>
       <c r="D100" t="n">
-        <v>0.34999</v>
+        <v>0.348699</v>
       </c>
       <c r="E100" t="n">
-        <v>0.217944</v>
+        <v>0.216584</v>
       </c>
       <c r="F100" t="n">
-        <v>0.208264</v>
+        <v>0.207906</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.245938</v>
+        <v>0.2448</v>
       </c>
       <c r="C101" t="n">
-        <v>0.225535</v>
+        <v>0.224172</v>
       </c>
       <c r="D101" t="n">
-        <v>0.36056</v>
+        <v>0.358674</v>
       </c>
       <c r="E101" t="n">
-        <v>0.219339</v>
+        <v>0.217949</v>
       </c>
       <c r="F101" t="n">
-        <v>0.20902</v>
+        <v>0.208517</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.246448</v>
+        <v>0.244977</v>
       </c>
       <c r="C102" t="n">
-        <v>0.226066</v>
+        <v>0.225139</v>
       </c>
       <c r="D102" t="n">
-        <v>0.369345</v>
+        <v>0.367613</v>
       </c>
       <c r="E102" t="n">
-        <v>0.22163</v>
+        <v>0.220308</v>
       </c>
       <c r="F102" t="n">
-        <v>0.20994</v>
+        <v>0.21065</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.246448</v>
+        <v>0.245162</v>
       </c>
       <c r="C103" t="n">
-        <v>0.227339</v>
+        <v>0.226154</v>
       </c>
       <c r="D103" t="n">
-        <v>0.379223</v>
+        <v>0.377587</v>
       </c>
       <c r="E103" t="n">
-        <v>0.224149</v>
+        <v>0.222069</v>
       </c>
       <c r="F103" t="n">
-        <v>0.213268</v>
+        <v>0.21284</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.247165</v>
+        <v>0.245056</v>
       </c>
       <c r="C104" t="n">
-        <v>0.228044</v>
+        <v>0.227222</v>
       </c>
       <c r="D104" t="n">
-        <v>0.387118</v>
+        <v>0.385578</v>
       </c>
       <c r="E104" t="n">
-        <v>0.225974</v>
+        <v>0.224869</v>
       </c>
       <c r="F104" t="n">
-        <v>0.215472</v>
+        <v>0.215384</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.24705</v>
+        <v>0.245363</v>
       </c>
       <c r="C105" t="n">
-        <v>0.230186</v>
+        <v>0.228986</v>
       </c>
       <c r="D105" t="n">
-        <v>0.396581</v>
+        <v>0.395407</v>
       </c>
       <c r="E105" t="n">
-        <v>0.229161</v>
+        <v>0.227079</v>
       </c>
       <c r="F105" t="n">
-        <v>0.21778</v>
+        <v>0.218702</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.248692</v>
+        <v>0.247534</v>
       </c>
       <c r="C106" t="n">
-        <v>0.232474</v>
+        <v>0.231127</v>
       </c>
       <c r="D106" t="n">
-        <v>0.406794</v>
+        <v>0.404782</v>
       </c>
       <c r="E106" t="n">
-        <v>0.231978</v>
+        <v>0.230403</v>
       </c>
       <c r="F106" t="n">
-        <v>0.222959</v>
+        <v>0.222941</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.249442</v>
+        <v>0.248298</v>
       </c>
       <c r="C107" t="n">
-        <v>0.2367</v>
+        <v>0.235053</v>
       </c>
       <c r="D107" t="n">
-        <v>0.352206</v>
+        <v>0.350236</v>
       </c>
       <c r="E107" t="n">
-        <v>0.236422</v>
+        <v>0.233968</v>
       </c>
       <c r="F107" t="n">
-        <v>0.230542</v>
+        <v>0.228536</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.252903</v>
+        <v>0.250671</v>
       </c>
       <c r="C108" t="n">
-        <v>0.241131</v>
+        <v>0.240005</v>
       </c>
       <c r="D108" t="n">
-        <v>0.357433</v>
+        <v>0.355467</v>
       </c>
       <c r="E108" t="n">
-        <v>0.253379</v>
+        <v>0.252034</v>
       </c>
       <c r="F108" t="n">
-        <v>0.254292</v>
+        <v>0.251173</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.256975</v>
+        <v>0.255687</v>
       </c>
       <c r="C109" t="n">
-        <v>0.2495</v>
+        <v>0.248477</v>
       </c>
       <c r="D109" t="n">
-        <v>0.358619</v>
+        <v>0.356709</v>
       </c>
       <c r="E109" t="n">
-        <v>0.254816</v>
+        <v>0.253317</v>
       </c>
       <c r="F109" t="n">
-        <v>0.253995</v>
+        <v>0.252764</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.282157</v>
+        <v>0.281201</v>
       </c>
       <c r="C110" t="n">
-        <v>0.27863</v>
+        <v>0.277965</v>
       </c>
       <c r="D110" t="n">
-        <v>0.366277</v>
+        <v>0.364609</v>
       </c>
       <c r="E110" t="n">
-        <v>0.251828</v>
+        <v>0.249852</v>
       </c>
       <c r="F110" t="n">
-        <v>0.256179</v>
+        <v>0.254032</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.281146</v>
+        <v>0.28178</v>
       </c>
       <c r="C111" t="n">
-        <v>0.277612</v>
+        <v>0.275024</v>
       </c>
       <c r="D111" t="n">
-        <v>0.377215</v>
+        <v>0.375529</v>
       </c>
       <c r="E111" t="n">
-        <v>0.25277</v>
+        <v>0.251298</v>
       </c>
       <c r="F111" t="n">
-        <v>0.257669</v>
+        <v>0.255839</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.283047</v>
+        <v>0.283134</v>
       </c>
       <c r="C112" t="n">
-        <v>0.27746</v>
+        <v>0.27605</v>
       </c>
       <c r="D112" t="n">
-        <v>0.3823</v>
+        <v>0.379795</v>
       </c>
       <c r="E112" t="n">
-        <v>0.252043</v>
+        <v>0.250389</v>
       </c>
       <c r="F112" t="n">
-        <v>0.258876</v>
+        <v>0.257886</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.282949</v>
+        <v>0.280329</v>
       </c>
       <c r="C113" t="n">
-        <v>0.278326</v>
+        <v>0.275364</v>
       </c>
       <c r="D113" t="n">
-        <v>0.391008</v>
+        <v>0.388863</v>
       </c>
       <c r="E113" t="n">
-        <v>0.254997</v>
+        <v>0.253327</v>
       </c>
       <c r="F113" t="n">
-        <v>0.261234</v>
+        <v>0.259629</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.283058</v>
+        <v>0.282171</v>
       </c>
       <c r="C114" t="n">
-        <v>0.279086</v>
+        <v>0.2778</v>
       </c>
       <c r="D114" t="n">
-        <v>0.399512</v>
+        <v>0.397067</v>
       </c>
       <c r="E114" t="n">
-        <v>0.257649</v>
+        <v>0.256173</v>
       </c>
       <c r="F114" t="n">
-        <v>0.263767</v>
+        <v>0.262306</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.283067</v>
+        <v>0.282645</v>
       </c>
       <c r="C115" t="n">
-        <v>0.281037</v>
+        <v>0.277299</v>
       </c>
       <c r="D115" t="n">
-        <v>0.406867</v>
+        <v>0.404428</v>
       </c>
       <c r="E115" t="n">
-        <v>0.260169</v>
+        <v>0.258719</v>
       </c>
       <c r="F115" t="n">
-        <v>0.266268</v>
+        <v>0.264487</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.283493</v>
+        <v>0.281737</v>
       </c>
       <c r="C116" t="n">
-        <v>0.281219</v>
+        <v>0.279803</v>
       </c>
       <c r="D116" t="n">
-        <v>0.414694</v>
+        <v>0.41243</v>
       </c>
       <c r="E116" t="n">
-        <v>0.262389</v>
+        <v>0.260936</v>
       </c>
       <c r="F116" t="n">
-        <v>0.269543</v>
+        <v>0.26786</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.282376</v>
+        <v>0.281802</v>
       </c>
       <c r="C117" t="n">
-        <v>0.281406</v>
+        <v>0.280546</v>
       </c>
       <c r="D117" t="n">
-        <v>0.423686</v>
+        <v>0.421576</v>
       </c>
       <c r="E117" t="n">
-        <v>0.265715</v>
+        <v>0.264476</v>
       </c>
       <c r="F117" t="n">
-        <v>0.272922</v>
+        <v>0.271744</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.285647</v>
+        <v>0.283137</v>
       </c>
       <c r="C118" t="n">
-        <v>0.282594</v>
+        <v>0.28177</v>
       </c>
       <c r="D118" t="n">
-        <v>0.431942</v>
+        <v>0.429857</v>
       </c>
       <c r="E118" t="n">
-        <v>0.268529</v>
+        <v>0.26724</v>
       </c>
       <c r="F118" t="n">
-        <v>0.277094</v>
+        <v>0.276399</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.285184</v>
+        <v>0.28356</v>
       </c>
       <c r="C119" t="n">
-        <v>0.285192</v>
+        <v>0.282302</v>
       </c>
       <c r="D119" t="n">
-        <v>0.444724</v>
+        <v>0.442991</v>
       </c>
       <c r="E119" t="n">
-        <v>0.272204</v>
+        <v>0.270421</v>
       </c>
       <c r="F119" t="n">
-        <v>0.282577</v>
+        <v>0.280897</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.28429</v>
+        <v>0.283184</v>
       </c>
       <c r="C120" t="n">
-        <v>0.288471</v>
+        <v>0.28626</v>
       </c>
       <c r="D120" t="n">
-        <v>0.453371</v>
+        <v>0.451633</v>
       </c>
       <c r="E120" t="n">
-        <v>0.276169</v>
+        <v>0.274535</v>
       </c>
       <c r="F120" t="n">
-        <v>0.283344</v>
+        <v>0.28148</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.286902</v>
+        <v>0.285968</v>
       </c>
       <c r="C121" t="n">
-        <v>0.290091</v>
+        <v>0.289825</v>
       </c>
       <c r="D121" t="n">
-        <v>0.379006</v>
+        <v>0.377351</v>
       </c>
       <c r="E121" t="n">
-        <v>0.280608</v>
+        <v>0.279665</v>
       </c>
       <c r="F121" t="n">
-        <v>0.292778</v>
+        <v>0.290128</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.290341</v>
+        <v>0.287339</v>
       </c>
       <c r="C122" t="n">
-        <v>0.295461</v>
+        <v>0.294159</v>
       </c>
       <c r="D122" t="n">
-        <v>0.384506</v>
+        <v>0.383076</v>
       </c>
       <c r="E122" t="n">
-        <v>0.28729</v>
+        <v>0.286145</v>
       </c>
       <c r="F122" t="n">
-        <v>0.300261</v>
+        <v>0.299998</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.292111</v>
+        <v>0.29155</v>
       </c>
       <c r="C123" t="n">
-        <v>0.304108</v>
+        <v>0.303498</v>
       </c>
       <c r="D123" t="n">
-        <v>0.38986</v>
+        <v>0.388212</v>
       </c>
       <c r="E123" t="n">
-        <v>0.275178</v>
+        <v>0.274508</v>
       </c>
       <c r="F123" t="n">
-        <v>0.285981</v>
+        <v>0.284709</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.36238</v>
+        <v>0.362414</v>
       </c>
       <c r="C124" t="n">
-        <v>0.354667</v>
+        <v>0.351003</v>
       </c>
       <c r="D124" t="n">
-        <v>0.394497</v>
+        <v>0.392594</v>
       </c>
       <c r="E124" t="n">
-        <v>0.275841</v>
+        <v>0.273511</v>
       </c>
       <c r="F124" t="n">
-        <v>0.287945</v>
+        <v>0.286383</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.363544</v>
+        <v>0.362207</v>
       </c>
       <c r="C125" t="n">
-        <v>0.353046</v>
+        <v>0.351098</v>
       </c>
       <c r="D125" t="n">
-        <v>0.403863</v>
+        <v>0.402588</v>
       </c>
       <c r="E125" t="n">
-        <v>0.278498</v>
+        <v>0.276467</v>
       </c>
       <c r="F125" t="n">
-        <v>0.289758</v>
+        <v>0.289052</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.36479</v>
+        <v>0.361987</v>
       </c>
       <c r="C126" t="n">
-        <v>0.354189</v>
+        <v>0.352311</v>
       </c>
       <c r="D126" t="n">
-        <v>0.410568</v>
+        <v>0.409041</v>
       </c>
       <c r="E126" t="n">
-        <v>0.281033</v>
+        <v>0.279476</v>
       </c>
       <c r="F126" t="n">
-        <v>0.292232</v>
+        <v>0.291052</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.363306</v>
+        <v>0.362502</v>
       </c>
       <c r="C127" t="n">
-        <v>0.355127</v>
+        <v>0.351681</v>
       </c>
       <c r="D127" t="n">
-        <v>0.415744</v>
+        <v>0.413941</v>
       </c>
       <c r="E127" t="n">
-        <v>0.283851</v>
+        <v>0.281563</v>
       </c>
       <c r="F127" t="n">
-        <v>0.295172</v>
+        <v>0.293288</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.364686</v>
+        <v>0.361507</v>
       </c>
       <c r="C128" t="n">
-        <v>0.355256</v>
+        <v>0.352466</v>
       </c>
       <c r="D128" t="n">
-        <v>0.429195</v>
+        <v>0.427869</v>
       </c>
       <c r="E128" t="n">
-        <v>0.287025</v>
+        <v>0.284948</v>
       </c>
       <c r="F128" t="n">
-        <v>0.297708</v>
+        <v>0.296523</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.362605</v>
+        <v>0.361371</v>
       </c>
       <c r="C129" t="n">
-        <v>0.355251</v>
+        <v>0.353677</v>
       </c>
       <c r="D129" t="n">
-        <v>0.435611</v>
+        <v>0.433911</v>
       </c>
       <c r="E129" t="n">
-        <v>0.290002</v>
+        <v>0.287288</v>
       </c>
       <c r="F129" t="n">
-        <v>0.301135</v>
+        <v>0.299134</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.363351</v>
+        <v>0.360493</v>
       </c>
       <c r="C130" t="n">
-        <v>0.35686</v>
+        <v>0.354501</v>
       </c>
       <c r="D130" t="n">
-        <v>0.444601</v>
+        <v>0.443466</v>
       </c>
       <c r="E130" t="n">
-        <v>0.29281</v>
+        <v>0.290775</v>
       </c>
       <c r="F130" t="n">
-        <v>0.297422</v>
+        <v>0.296538</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.362493</v>
+        <v>0.359258</v>
       </c>
       <c r="C131" t="n">
-        <v>0.358006</v>
+        <v>0.356037</v>
       </c>
       <c r="D131" t="n">
-        <v>0.453301</v>
+        <v>0.45138</v>
       </c>
       <c r="E131" t="n">
-        <v>0.296726</v>
+        <v>0.295043</v>
       </c>
       <c r="F131" t="n">
-        <v>0.302411</v>
+        <v>0.301581</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.363967</v>
+        <v>0.360083</v>
       </c>
       <c r="C132" t="n">
-        <v>0.359601</v>
+        <v>0.358295</v>
       </c>
       <c r="D132" t="n">
-        <v>0.459476</v>
+        <v>0.457201</v>
       </c>
       <c r="E132" t="n">
-        <v>0.300623</v>
+        <v>0.298441</v>
       </c>
       <c r="F132" t="n">
-        <v>0.30853</v>
+        <v>0.307363</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.363504</v>
+        <v>0.361517</v>
       </c>
       <c r="C133" t="n">
-        <v>0.362433</v>
+        <v>0.359064</v>
       </c>
       <c r="D133" t="n">
-        <v>0.470839</v>
+        <v>0.468478</v>
       </c>
       <c r="E133" t="n">
-        <v>0.304882</v>
+        <v>0.302605</v>
       </c>
       <c r="F133" t="n">
-        <v>0.314234</v>
+        <v>0.312585</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.362488</v>
+        <v>0.361307</v>
       </c>
       <c r="C134" t="n">
-        <v>0.365226</v>
+        <v>0.361513</v>
       </c>
       <c r="D134" t="n">
-        <v>0.4806</v>
+        <v>0.478658</v>
       </c>
       <c r="E134" t="n">
-        <v>0.309632</v>
+        <v>0.307184</v>
       </c>
       <c r="F134" t="n">
-        <v>0.322771</v>
+        <v>0.321867</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.365565</v>
+        <v>0.363254</v>
       </c>
       <c r="C135" t="n">
-        <v>0.368913</v>
+        <v>0.366284</v>
       </c>
       <c r="D135" t="n">
-        <v>0.394579</v>
+        <v>0.391915</v>
       </c>
       <c r="E135" t="n">
-        <v>0.316239</v>
+        <v>0.313524</v>
       </c>
       <c r="F135" t="n">
-        <v>0.33444</v>
+        <v>0.332224</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.367263</v>
+        <v>0.365219</v>
       </c>
       <c r="C136" t="n">
-        <v>0.37368</v>
+        <v>0.370822</v>
       </c>
       <c r="D136" t="n">
-        <v>0.401437</v>
+        <v>0.398517</v>
       </c>
       <c r="E136" t="n">
-        <v>0.324684</v>
+        <v>0.322057</v>
       </c>
       <c r="F136" t="n">
-        <v>0.349555</v>
+        <v>0.34774</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.368308</v>
+        <v>0.366591</v>
       </c>
       <c r="C137" t="n">
-        <v>0.381978</v>
+        <v>0.3789</v>
       </c>
       <c r="D137" t="n">
-        <v>0.405497</v>
+        <v>0.402758</v>
       </c>
       <c r="E137" t="n">
-        <v>0.295648</v>
+        <v>0.293867</v>
       </c>
       <c r="F137" t="n">
-        <v>0.306444</v>
+        <v>0.303662</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.4281</v>
+        <v>0.425587</v>
       </c>
       <c r="C138" t="n">
-        <v>0.39654</v>
+        <v>0.392975</v>
       </c>
       <c r="D138" t="n">
-        <v>0.413391</v>
+        <v>0.410504</v>
       </c>
       <c r="E138" t="n">
-        <v>0.298121</v>
+        <v>0.296401</v>
       </c>
       <c r="F138" t="n">
-        <v>0.308881</v>
+        <v>0.305772</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.428158</v>
+        <v>0.425964</v>
       </c>
       <c r="C139" t="n">
-        <v>0.397413</v>
+        <v>0.393166</v>
       </c>
       <c r="D139" t="n">
-        <v>0.420932</v>
+        <v>0.41819</v>
       </c>
       <c r="E139" t="n">
-        <v>0.300451</v>
+        <v>0.298201</v>
       </c>
       <c r="F139" t="n">
-        <v>0.310363</v>
+        <v>0.307856</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.427979</v>
+        <v>0.427418</v>
       </c>
       <c r="C140" t="n">
-        <v>0.397372</v>
+        <v>0.393424</v>
       </c>
       <c r="D140" t="n">
-        <v>0.426057</v>
+        <v>0.423549</v>
       </c>
       <c r="E140" t="n">
-        <v>0.30249</v>
+        <v>0.296827</v>
       </c>
       <c r="F140" t="n">
-        <v>0.31334</v>
+        <v>0.310465</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.428461</v>
+        <v>0.427212</v>
       </c>
       <c r="C141" t="n">
-        <v>0.398122</v>
+        <v>0.394501</v>
       </c>
       <c r="D141" t="n">
-        <v>0.435204</v>
+        <v>0.431396</v>
       </c>
       <c r="E141" t="n">
-        <v>0.304723</v>
+        <v>0.304367</v>
       </c>
       <c r="F141" t="n">
-        <v>0.316239</v>
+        <v>0.313103</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.42764</v>
+        <v>0.427351</v>
       </c>
       <c r="C142" t="n">
-        <v>0.400003</v>
+        <v>0.395503</v>
       </c>
       <c r="D142" t="n">
-        <v>0.441447</v>
+        <v>0.438533</v>
       </c>
       <c r="E142" t="n">
-        <v>0.307192</v>
+        <v>0.306746</v>
       </c>
       <c r="F142" t="n">
-        <v>0.318602</v>
+        <v>0.316149</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.42765</v>
+        <v>0.424768</v>
       </c>
       <c r="C143" t="n">
-        <v>0.400308</v>
+        <v>0.396943</v>
       </c>
       <c r="D143" t="n">
-        <v>0.450467</v>
+        <v>0.448105</v>
       </c>
       <c r="E143" t="n">
-        <v>0.309415</v>
+        <v>0.307796</v>
       </c>
       <c r="F143" t="n">
-        <v>0.322608</v>
+        <v>0.31658</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0365221</v>
+        <v>0.0351389</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0371243</v>
+        <v>0.036768</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07277019999999999</v>
+        <v>0.0711904</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0367617</v>
+        <v>0.0362835</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0388622</v>
+        <v>0.038368</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0367866</v>
+        <v>0.0358438</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0368395</v>
+        <v>0.0366665</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0795009</v>
+        <v>0.0781092</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0368252</v>
+        <v>0.0363576</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0392868</v>
+        <v>0.0384815</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0366331</v>
+        <v>0.035818</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0369895</v>
+        <v>0.0365309</v>
       </c>
       <c r="D4" t="n">
-        <v>0.086807</v>
+        <v>0.0858985</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0377191</v>
+        <v>0.0373601</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0390169</v>
+        <v>0.038994</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0368039</v>
+        <v>0.035885</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0371828</v>
+        <v>0.0367167</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09416529999999999</v>
+        <v>0.0914423</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0380671</v>
+        <v>0.0374093</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03945</v>
+        <v>0.0391548</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0365797</v>
+        <v>0.0358259</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0383385</v>
+        <v>0.0364837</v>
       </c>
       <c r="D6" t="n">
-        <v>0.10141</v>
+        <v>0.099812</v>
       </c>
       <c r="E6" t="n">
-        <v>0.037951</v>
+        <v>0.0375071</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0399683</v>
+        <v>0.0396161</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0371802</v>
+        <v>0.0361579</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0372345</v>
+        <v>0.0369564</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06273289999999999</v>
+        <v>0.0616388</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0382852</v>
+        <v>0.0381632</v>
       </c>
       <c r="F7" t="n">
-        <v>0.040345</v>
+        <v>0.0403044</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0373266</v>
+        <v>0.0364722</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0376417</v>
+        <v>0.0372976</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0661332</v>
+        <v>0.065321</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0401081</v>
+        <v>0.0395305</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0420985</v>
+        <v>0.0416581</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0379697</v>
+        <v>0.0368525</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0382609</v>
+        <v>0.0378811</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0715031</v>
+        <v>0.0708149</v>
       </c>
       <c r="E9" t="n">
-        <v>0.038775</v>
+        <v>0.0391494</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0409998</v>
+        <v>0.0404345</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0428584</v>
+        <v>0.0434643</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0433156</v>
+        <v>0.0428547</v>
       </c>
       <c r="D10" t="n">
-        <v>0.07566589999999999</v>
+        <v>0.0750504</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0396226</v>
+        <v>0.0397073</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0413211</v>
+        <v>0.0404767</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0431907</v>
+        <v>0.0433779</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0435501</v>
+        <v>0.0430401</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0823332</v>
+        <v>0.0806361</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0398412</v>
+        <v>0.0400263</v>
       </c>
       <c r="F11" t="n">
-        <v>0.041315</v>
+        <v>0.0407556</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0431728</v>
+        <v>0.0433738</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0433038</v>
+        <v>0.0427443</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0875026</v>
+        <v>0.0868573</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0401933</v>
+        <v>0.0398371</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0417016</v>
+        <v>0.0411172</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0431965</v>
+        <v>0.0436254</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0433627</v>
+        <v>0.0428585</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0914808</v>
+        <v>0.09124450000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>0.040606</v>
+        <v>0.040941</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0418995</v>
+        <v>0.0414115</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0431305</v>
+        <v>0.0436387</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0432571</v>
+        <v>0.043016</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0972244</v>
+        <v>0.0968518</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0405778</v>
+        <v>0.0411508</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0421581</v>
+        <v>0.0417676</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0434225</v>
+        <v>0.0438363</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0435256</v>
+        <v>0.0429142</v>
       </c>
       <c r="D15" t="n">
-        <v>0.102502</v>
+        <v>0.102402</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0409327</v>
+        <v>0.0413795</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0425915</v>
+        <v>0.0420939</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.043567</v>
+        <v>0.0439634</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0437175</v>
+        <v>0.0430624</v>
       </c>
       <c r="D16" t="n">
-        <v>0.107697</v>
+        <v>0.107571</v>
       </c>
       <c r="E16" t="n">
-        <v>0.041368</v>
+        <v>0.0415857</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0428653</v>
+        <v>0.0424339</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0439896</v>
+        <v>0.044235</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0436962</v>
+        <v>0.0435052</v>
       </c>
       <c r="D17" t="n">
-        <v>0.112637</v>
+        <v>0.112614</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0416069</v>
+        <v>0.0418065</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0431235</v>
+        <v>0.0426966</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.043896</v>
+        <v>0.0440898</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0438252</v>
+        <v>0.0432628</v>
       </c>
       <c r="D18" t="n">
-        <v>0.117233</v>
+        <v>0.117023</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0418435</v>
+        <v>0.0423175</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0433745</v>
+        <v>0.0430607</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0439886</v>
+        <v>0.0440312</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0439148</v>
+        <v>0.0433534</v>
       </c>
       <c r="D19" t="n">
-        <v>0.121785</v>
+        <v>0.121458</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0420431</v>
+        <v>0.0424329</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0437107</v>
+        <v>0.0432042</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0443742</v>
+        <v>0.0446051</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0440908</v>
+        <v>0.0435779</v>
       </c>
       <c r="D20" t="n">
-        <v>0.12527</v>
+        <v>0.124933</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0427174</v>
+        <v>0.0427829</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0441692</v>
+        <v>0.0438791</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0445888</v>
+        <v>0.044819</v>
       </c>
       <c r="C21" t="n">
-        <v>0.044022</v>
+        <v>0.0437079</v>
       </c>
       <c r="D21" t="n">
-        <v>0.08899170000000001</v>
+        <v>0.0888516</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0446727</v>
+        <v>0.0437617</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0447869</v>
+        <v>0.0447406</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0451449</v>
+        <v>0.0450704</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0441595</v>
+        <v>0.0442072</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0918301</v>
+        <v>0.0919932</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0473862</v>
+        <v>0.0470936</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0485592</v>
+        <v>0.0485352</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0456581</v>
+        <v>0.0458768</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0449806</v>
+        <v>0.0451697</v>
       </c>
       <c r="D23" t="n">
-        <v>0.09490750000000001</v>
+        <v>0.0949581</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0460329</v>
+        <v>0.0449735</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0467465</v>
+        <v>0.0461555</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0489164</v>
+        <v>0.0487574</v>
       </c>
       <c r="C24" t="n">
-        <v>0.049829</v>
+        <v>0.0496136</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0988112</v>
+        <v>0.0988334</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0456725</v>
+        <v>0.045456</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0466746</v>
+        <v>0.0464559</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0490255</v>
+        <v>0.0488402</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0498883</v>
+        <v>0.0496628</v>
       </c>
       <c r="D25" t="n">
-        <v>0.10189</v>
+        <v>0.101752</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0460452</v>
+        <v>0.0457858</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0468139</v>
+        <v>0.0467004</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0490199</v>
+        <v>0.0488301</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0500314</v>
+        <v>0.0498713</v>
       </c>
       <c r="D26" t="n">
-        <v>0.105655</v>
+        <v>0.105418</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0459852</v>
+        <v>0.0462844</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0471885</v>
+        <v>0.0473127</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0489209</v>
+        <v>0.0488347</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0501077</v>
+        <v>0.0499036</v>
       </c>
       <c r="D27" t="n">
-        <v>0.109707</v>
+        <v>0.109549</v>
       </c>
       <c r="E27" t="n">
-        <v>0.046474</v>
+        <v>0.0465586</v>
       </c>
       <c r="F27" t="n">
-        <v>0.047285</v>
+        <v>0.047575</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0489238</v>
+        <v>0.0490038</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0502645</v>
+        <v>0.0501113</v>
       </c>
       <c r="D28" t="n">
-        <v>0.11389</v>
+        <v>0.11378</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0467539</v>
+        <v>0.0468117</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0477424</v>
+        <v>0.0475563</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0492865</v>
+        <v>0.0491756</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0503238</v>
+        <v>0.0501483</v>
       </c>
       <c r="D29" t="n">
-        <v>0.117949</v>
+        <v>0.117761</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0469892</v>
+        <v>0.047134</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0480637</v>
+        <v>0.0478805</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0489679</v>
+        <v>0.0489721</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0499404</v>
+        <v>0.0500128</v>
       </c>
       <c r="D30" t="n">
-        <v>0.121789</v>
+        <v>0.121774</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0473946</v>
+        <v>0.0475435</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0478742</v>
+        <v>0.0484036</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0491404</v>
+        <v>0.0491714</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0505186</v>
+        <v>0.0503451</v>
       </c>
       <c r="D31" t="n">
-        <v>0.125992</v>
+        <v>0.125862</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0475319</v>
+        <v>0.0475242</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0485287</v>
+        <v>0.0484551</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.049117</v>
+        <v>0.0491128</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0502546</v>
+        <v>0.0503411</v>
       </c>
       <c r="D32" t="n">
-        <v>0.129243</v>
+        <v>0.129214</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0480394</v>
+        <v>0.0481237</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0484367</v>
+        <v>0.0489102</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0495133</v>
+        <v>0.0493592</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0505069</v>
+        <v>0.0504417</v>
       </c>
       <c r="D33" t="n">
-        <v>0.132775</v>
+        <v>0.132646</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0481956</v>
+        <v>0.0481539</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0491031</v>
+        <v>0.0489899</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0494159</v>
+        <v>0.0493899</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0505382</v>
+        <v>0.0506091</v>
       </c>
       <c r="D34" t="n">
-        <v>0.135973</v>
+        <v>0.136</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0490733</v>
+        <v>0.0484294</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0508531</v>
+        <v>0.0498598</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0499744</v>
+        <v>0.0501464</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0511794</v>
+        <v>0.0511488</v>
       </c>
       <c r="D35" t="n">
-        <v>0.09690790000000001</v>
+        <v>0.0969059</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0521483</v>
+        <v>0.0519472</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0540145</v>
+        <v>0.0539989</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0505759</v>
+        <v>0.0503353</v>
       </c>
       <c r="C36" t="n">
-        <v>0.051653</v>
+        <v>0.0520375</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0993439</v>
+        <v>0.0993903</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0589616</v>
+        <v>0.0592407</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0636094</v>
+        <v>0.0623509</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0541091</v>
+        <v>0.0531733</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0558469</v>
+        <v>0.055598</v>
       </c>
       <c r="D37" t="n">
-        <v>0.101514</v>
+        <v>0.101465</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0496575</v>
+        <v>0.0495596</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0502323</v>
+        <v>0.0503693</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0547818</v>
+        <v>0.0541366</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0565301</v>
+        <v>0.0571788</v>
       </c>
       <c r="D38" t="n">
-        <v>0.104206</v>
+        <v>0.104351</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0493773</v>
+        <v>0.0493257</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0503719</v>
+        <v>0.0505035</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0536595</v>
+        <v>0.0531957</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0565595</v>
+        <v>0.0571749</v>
       </c>
       <c r="D39" t="n">
-        <v>0.10719</v>
+        <v>0.107322</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0497035</v>
+        <v>0.0497493</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0508452</v>
+        <v>0.0510929</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0542496</v>
+        <v>0.0533629</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0567055</v>
+        <v>0.0573878</v>
       </c>
       <c r="D40" t="n">
-        <v>0.110384</v>
+        <v>0.110511</v>
       </c>
       <c r="E40" t="n">
-        <v>0.050037</v>
+        <v>0.0500585</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0511711</v>
+        <v>0.0512745</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.053756</v>
+        <v>0.0534829</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0567524</v>
+        <v>0.0574398</v>
       </c>
       <c r="D41" t="n">
-        <v>0.11373</v>
+        <v>0.113847</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0504902</v>
+        <v>0.0503074</v>
       </c>
       <c r="F41" t="n">
-        <v>0.051434</v>
+        <v>0.0516261</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0538374</v>
+        <v>0.0534274</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0568492</v>
+        <v>0.0575265</v>
       </c>
       <c r="D42" t="n">
-        <v>0.117301</v>
+        <v>0.117395</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0506038</v>
+        <v>0.0508207</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0517103</v>
+        <v>0.0517129</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0542126</v>
+        <v>0.0535009</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0569528</v>
+        <v>0.0576735</v>
       </c>
       <c r="D43" t="n">
-        <v>0.121247</v>
+        <v>0.121294</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0510081</v>
+        <v>0.0509801</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0518545</v>
+        <v>0.0520917</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0540499</v>
+        <v>0.0538449</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0570106</v>
+        <v>0.0577128</v>
       </c>
       <c r="D44" t="n">
-        <v>0.125213</v>
+        <v>0.12528</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0512676</v>
+        <v>0.0514287</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0521142</v>
+        <v>0.052176</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0543352</v>
+        <v>0.0538293</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0571714</v>
+        <v>0.0578393</v>
       </c>
       <c r="D45" t="n">
-        <v>0.129066</v>
+        <v>0.129186</v>
       </c>
       <c r="E45" t="n">
-        <v>0.051807</v>
+        <v>0.0517667</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0526751</v>
+        <v>0.0524794</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0543384</v>
+        <v>0.0540855</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0572188</v>
+        <v>0.0578772</v>
       </c>
       <c r="D46" t="n">
-        <v>0.132701</v>
+        <v>0.132776</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0522683</v>
+        <v>0.0522661</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0533675</v>
+        <v>0.0531715</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0547001</v>
+        <v>0.054252</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0573609</v>
+        <v>0.0581282</v>
       </c>
       <c r="D47" t="n">
-        <v>0.135836</v>
+        <v>0.135897</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0534122</v>
+        <v>0.0533063</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0551227</v>
+        <v>0.0550163</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0552213</v>
+        <v>0.0547263</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0577841</v>
+        <v>0.0585256</v>
       </c>
       <c r="D48" t="n">
-        <v>0.139559</v>
+        <v>0.139614</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0558111</v>
+        <v>0.0557912</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0585128</v>
+        <v>0.0588111</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0561274</v>
+        <v>0.0559583</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0586327</v>
+        <v>0.059354</v>
       </c>
       <c r="D49" t="n">
-        <v>0.142486</v>
+        <v>0.142503</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0603465</v>
+        <v>0.0600825</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0627732</v>
+        <v>0.0626898</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.058919</v>
+        <v>0.058923</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0609132</v>
+        <v>0.0616224</v>
       </c>
       <c r="D50" t="n">
-        <v>0.101425</v>
+        <v>0.101393</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0647534</v>
+        <v>0.0649064</v>
       </c>
       <c r="F50" t="n">
-        <v>0.06772830000000001</v>
+        <v>0.0690519</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0625619</v>
+        <v>0.0622344</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0638803</v>
+        <v>0.0641547</v>
       </c>
       <c r="D51" t="n">
-        <v>0.103741</v>
+        <v>0.103698</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0533481</v>
+        <v>0.0531521</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0529976</v>
+        <v>0.0531517</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0675364</v>
+        <v>0.06682390000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>0.07016890000000001</v>
+        <v>0.07068049999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>0.106202</v>
+        <v>0.106158</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0521401</v>
+        <v>0.0521975</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0535014</v>
+        <v>0.0533493</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.060812</v>
+        <v>0.060643</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0632254</v>
+        <v>0.0634305</v>
       </c>
       <c r="D53" t="n">
-        <v>0.109041</v>
+        <v>0.109013</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0525015</v>
+        <v>0.0526854</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0536655</v>
+        <v>0.0538779</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0605871</v>
+        <v>0.0604271</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0631835</v>
+        <v>0.06334960000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>0.112039</v>
+        <v>0.112018</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0531454</v>
+        <v>0.0529724</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0538728</v>
+        <v>0.0541366</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.060684</v>
+        <v>0.060643</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0633594</v>
+        <v>0.0636202</v>
       </c>
       <c r="D55" t="n">
-        <v>0.11552</v>
+        <v>0.115661</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0533273</v>
+        <v>0.0534323</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0552748</v>
+        <v>0.054567</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0606587</v>
+        <v>0.0609728</v>
       </c>
       <c r="C56" t="n">
-        <v>0.06420430000000001</v>
+        <v>0.0637139</v>
       </c>
       <c r="D56" t="n">
-        <v>0.119125</v>
+        <v>0.119126</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0538933</v>
+        <v>0.0537648</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0546292</v>
+        <v>0.0549022</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0605617</v>
+        <v>0.0609736</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0636945</v>
+        <v>0.06442639999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.123058</v>
+        <v>0.123033</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0541095</v>
+        <v>0.0543751</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0559701</v>
+        <v>0.0554356</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0609978</v>
+        <v>0.0613187</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0640018</v>
+        <v>0.0640825</v>
       </c>
       <c r="D58" t="n">
-        <v>0.126778</v>
+        <v>0.126766</v>
       </c>
       <c r="E58" t="n">
-        <v>0.054872</v>
+        <v>0.0549492</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0558738</v>
+        <v>0.0558573</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0608842</v>
+        <v>0.0614116</v>
       </c>
       <c r="C59" t="n">
-        <v>0.06460299999999999</v>
+        <v>0.0643389</v>
       </c>
       <c r="D59" t="n">
-        <v>0.130485</v>
+        <v>0.130526</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0554849</v>
+        <v>0.0553315</v>
       </c>
       <c r="F59" t="n">
-        <v>0.057238</v>
+        <v>0.0575778</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0610121</v>
+        <v>0.0613646</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0642596</v>
+        <v>0.06479849999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>0.134242</v>
+        <v>0.134403</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0568915</v>
+        <v>0.0568678</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0594979</v>
+        <v>0.0598912</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0615643</v>
+        <v>0.0616606</v>
       </c>
       <c r="C61" t="n">
-        <v>0.06469519999999999</v>
+        <v>0.0654605</v>
       </c>
       <c r="D61" t="n">
-        <v>0.138282</v>
+        <v>0.138735</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0587319</v>
+        <v>0.0588155</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0609171</v>
+        <v>0.0617471</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.062468</v>
+        <v>0.0626573</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0655304</v>
+        <v>0.0664115</v>
       </c>
       <c r="D62" t="n">
-        <v>0.141905</v>
+        <v>0.142209</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0610761</v>
+        <v>0.0612123</v>
       </c>
       <c r="F62" t="n">
-        <v>0.06449530000000001</v>
+        <v>0.0649237</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.06436360000000001</v>
+        <v>0.0644501</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0671283</v>
+        <v>0.0681123</v>
       </c>
       <c r="D63" t="n">
-        <v>0.145218</v>
+        <v>0.145402</v>
       </c>
       <c r="E63" t="n">
-        <v>0.06401519999999999</v>
+        <v>0.0640978</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0682642</v>
+        <v>0.0681128</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0660839</v>
+        <v>0.0662677</v>
       </c>
       <c r="C64" t="n">
-        <v>0.06958250000000001</v>
+        <v>0.07019549999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>0.108961</v>
+        <v>0.111743</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0680465</v>
+        <v>0.0682204</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0734765</v>
+        <v>0.07293040000000001</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.069179</v>
+        <v>0.0687898</v>
       </c>
       <c r="C65" t="n">
-        <v>0.07349559999999999</v>
+        <v>0.0737334</v>
       </c>
       <c r="D65" t="n">
-        <v>0.111479</v>
+        <v>0.114703</v>
       </c>
       <c r="E65" t="n">
-        <v>0.074304</v>
+        <v>0.07425660000000001</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0802175</v>
+        <v>0.08037130000000001</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.07234110000000001</v>
+        <v>0.0726364</v>
       </c>
       <c r="C66" t="n">
-        <v>0.07829609999999999</v>
+        <v>0.07846939999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>0.114536</v>
+        <v>0.118013</v>
       </c>
       <c r="E66" t="n">
-        <v>0.057201</v>
+        <v>0.0550552</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0591688</v>
+        <v>0.0596444</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0725307</v>
+        <v>0.0704086</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0714371</v>
+        <v>0.07140249999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.118195</v>
+        <v>0.123404</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0558698</v>
+        <v>0.0564784</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0596128</v>
+        <v>0.0601772</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0721562</v>
+        <v>0.07059169999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>0.071966</v>
+        <v>0.0716043</v>
       </c>
       <c r="D68" t="n">
-        <v>0.12386</v>
+        <v>0.126297</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0564056</v>
+        <v>0.0561789</v>
       </c>
       <c r="F68" t="n">
-        <v>0.060876</v>
+        <v>0.0611507</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0730484</v>
+        <v>0.0717301</v>
       </c>
       <c r="C69" t="n">
-        <v>0.07241839999999999</v>
+        <v>0.0722329</v>
       </c>
       <c r="D69" t="n">
-        <v>0.129462</v>
+        <v>0.132229</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0568881</v>
+        <v>0.0564131</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0616001</v>
+        <v>0.062087</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0736392</v>
+        <v>0.0710732</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0728548</v>
+        <v>0.07264619999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>0.134865</v>
+        <v>0.138427</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0572095</v>
+        <v>0.0568276</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0626376</v>
+        <v>0.0631327</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0741223</v>
+        <v>0.0715644</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0734331</v>
+        <v>0.0735792</v>
       </c>
       <c r="D71" t="n">
-        <v>0.141469</v>
+        <v>0.144399</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0578573</v>
+        <v>0.057751</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0644208</v>
+        <v>0.0645698</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.07244399999999999</v>
+        <v>0.0735437</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0738197</v>
+        <v>0.0742317</v>
       </c>
       <c r="D72" t="n">
-        <v>0.147469</v>
+        <v>0.151011</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0584412</v>
+        <v>0.0583361</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0661347</v>
+        <v>0.0662766</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.07366350000000001</v>
+        <v>0.073419</v>
       </c>
       <c r="C73" t="n">
-        <v>0.07509929999999999</v>
+        <v>0.07508819999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.155398</v>
+        <v>0.160168</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0595144</v>
+        <v>0.0593625</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06774570000000001</v>
+        <v>0.0685601</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0727252</v>
+        <v>0.07316350000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0758558</v>
+        <v>0.07596219999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>0.165805</v>
+        <v>0.16888</v>
       </c>
       <c r="E74" t="n">
-        <v>0.060855</v>
+        <v>0.060794</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0701609</v>
+        <v>0.07062209999999999</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0732888</v>
+        <v>0.0743901</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0778423</v>
+        <v>0.077639</v>
       </c>
       <c r="D75" t="n">
-        <v>0.175288</v>
+        <v>0.176457</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0622059</v>
+        <v>0.0623204</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0736892</v>
+        <v>0.0740171</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.07415140000000001</v>
+        <v>0.0742507</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0796775</v>
+        <v>0.07937420000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>0.181092</v>
+        <v>0.182113</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0643213</v>
+        <v>0.0642803</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0770333</v>
+        <v>0.0776206</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0741666</v>
+        <v>0.07672470000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0815179</v>
+        <v>0.0818702</v>
       </c>
       <c r="D77" t="n">
-        <v>0.192976</v>
+        <v>0.19346</v>
       </c>
       <c r="E77" t="n">
-        <v>0.06694410000000001</v>
+        <v>0.0669426</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0814694</v>
+        <v>0.0817262</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0789714</v>
+        <v>0.07790999999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0842248</v>
+        <v>0.0838469</v>
       </c>
       <c r="D78" t="n">
-        <v>0.188649</v>
+        <v>0.186231</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0708372</v>
+        <v>0.0708776</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0872662</v>
+        <v>0.08770120000000001</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0814439</v>
+        <v>0.07959040000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0885104</v>
+        <v>0.08782619999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>0.194407</v>
+        <v>0.19353</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0763923</v>
+        <v>0.0764748</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0950201</v>
+        <v>0.0950288</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0857024</v>
+        <v>0.0849758</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0939459</v>
+        <v>0.0934561</v>
       </c>
       <c r="D80" t="n">
-        <v>0.203188</v>
+        <v>0.202103</v>
       </c>
       <c r="E80" t="n">
-        <v>0.102031</v>
+        <v>0.105651</v>
       </c>
       <c r="F80" t="n">
-        <v>0.10238</v>
+        <v>0.103259</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.172411</v>
+        <v>0.172431</v>
       </c>
       <c r="C81" t="n">
-        <v>0.140509</v>
+        <v>0.141413</v>
       </c>
       <c r="D81" t="n">
-        <v>0.212274</v>
+        <v>0.210831</v>
       </c>
       <c r="E81" t="n">
-        <v>0.106537</v>
+        <v>0.106224</v>
       </c>
       <c r="F81" t="n">
-        <v>0.103456</v>
+        <v>0.104447</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.174134</v>
+        <v>0.175952</v>
       </c>
       <c r="C82" t="n">
-        <v>0.141199</v>
+        <v>0.141816</v>
       </c>
       <c r="D82" t="n">
-        <v>0.219165</v>
+        <v>0.218097</v>
       </c>
       <c r="E82" t="n">
-        <v>0.108938</v>
+        <v>0.108549</v>
       </c>
       <c r="F82" t="n">
-        <v>0.104155</v>
+        <v>0.104762</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.174591</v>
+        <v>0.176683</v>
       </c>
       <c r="C83" t="n">
-        <v>0.141947</v>
+        <v>0.142461</v>
       </c>
       <c r="D83" t="n">
-        <v>0.227998</v>
+        <v>0.227017</v>
       </c>
       <c r="E83" t="n">
-        <v>0.109352</v>
+        <v>0.111744</v>
       </c>
       <c r="F83" t="n">
-        <v>0.105373</v>
+        <v>0.106032</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.175618</v>
+        <v>0.17694</v>
       </c>
       <c r="C84" t="n">
-        <v>0.143203</v>
+        <v>0.143511</v>
       </c>
       <c r="D84" t="n">
-        <v>0.238356</v>
+        <v>0.237872</v>
       </c>
       <c r="E84" t="n">
-        <v>0.112469</v>
+        <v>0.113973</v>
       </c>
       <c r="F84" t="n">
-        <v>0.106218</v>
+        <v>0.107237</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.177372</v>
+        <v>0.177484</v>
       </c>
       <c r="C85" t="n">
-        <v>0.142893</v>
+        <v>0.143434</v>
       </c>
       <c r="D85" t="n">
-        <v>0.250935</v>
+        <v>0.24966</v>
       </c>
       <c r="E85" t="n">
-        <v>0.113632</v>
+        <v>0.116468</v>
       </c>
       <c r="F85" t="n">
-        <v>0.10715</v>
+        <v>0.107536</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.176718</v>
+        <v>0.178681</v>
       </c>
       <c r="C86" t="n">
-        <v>0.144265</v>
+        <v>0.145001</v>
       </c>
       <c r="D86" t="n">
-        <v>0.257872</v>
+        <v>0.257579</v>
       </c>
       <c r="E86" t="n">
-        <v>0.115698</v>
+        <v>0.118697</v>
       </c>
       <c r="F86" t="n">
-        <v>0.108312</v>
+        <v>0.108782</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.177023</v>
+        <v>0.180175</v>
       </c>
       <c r="C87" t="n">
-        <v>0.144798</v>
+        <v>0.145643</v>
       </c>
       <c r="D87" t="n">
-        <v>0.271159</v>
+        <v>0.271211</v>
       </c>
       <c r="E87" t="n">
-        <v>0.116807</v>
+        <v>0.12071</v>
       </c>
       <c r="F87" t="n">
-        <v>0.110335</v>
+        <v>0.109804</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.177794</v>
+        <v>0.180479</v>
       </c>
       <c r="C88" t="n">
-        <v>0.145624</v>
+        <v>0.144676</v>
       </c>
       <c r="D88" t="n">
-        <v>0.279253</v>
+        <v>0.279509</v>
       </c>
       <c r="E88" t="n">
-        <v>0.12012</v>
+        <v>0.124062</v>
       </c>
       <c r="F88" t="n">
-        <v>0.114873</v>
+        <v>0.111655</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.178511</v>
+        <v>0.180798</v>
       </c>
       <c r="C89" t="n">
-        <v>0.147081</v>
+        <v>0.147718</v>
       </c>
       <c r="D89" t="n">
-        <v>0.289369</v>
+        <v>0.288815</v>
       </c>
       <c r="E89" t="n">
-        <v>0.122547</v>
+        <v>0.126157</v>
       </c>
       <c r="F89" t="n">
-        <v>0.114549</v>
+        <v>0.116778</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.178767</v>
+        <v>0.180769</v>
       </c>
       <c r="C90" t="n">
-        <v>0.148207</v>
+        <v>0.14721</v>
       </c>
       <c r="D90" t="n">
-        <v>0.298806</v>
+        <v>0.298864</v>
       </c>
       <c r="E90" t="n">
-        <v>0.124755</v>
+        <v>0.128415</v>
       </c>
       <c r="F90" t="n">
-        <v>0.119444</v>
+        <v>0.116886</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.18037</v>
+        <v>0.181131</v>
       </c>
       <c r="C91" t="n">
-        <v>0.151717</v>
+        <v>0.150806</v>
       </c>
       <c r="D91" t="n">
-        <v>0.30835</v>
+        <v>0.309504</v>
       </c>
       <c r="E91" t="n">
-        <v>0.128828</v>
+        <v>0.12898</v>
       </c>
       <c r="F91" t="n">
-        <v>0.12017</v>
+        <v>0.121726</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.182469</v>
+        <v>0.183383</v>
       </c>
       <c r="C92" t="n">
-        <v>0.152269</v>
+        <v>0.153205</v>
       </c>
       <c r="D92" t="n">
-        <v>0.287988</v>
+        <v>0.288435</v>
       </c>
       <c r="E92" t="n">
-        <v>0.131995</v>
+        <v>0.132097</v>
       </c>
       <c r="F92" t="n">
-        <v>0.12708</v>
+        <v>0.126975</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.18323</v>
+        <v>0.184374</v>
       </c>
       <c r="C93" t="n">
-        <v>0.157817</v>
+        <v>0.157205</v>
       </c>
       <c r="D93" t="n">
-        <v>0.293038</v>
+        <v>0.293451</v>
       </c>
       <c r="E93" t="n">
-        <v>0.136428</v>
+        <v>0.136479</v>
       </c>
       <c r="F93" t="n">
-        <v>0.132176</v>
+        <v>0.134671</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.185314</v>
+        <v>0.186294</v>
       </c>
       <c r="C94" t="n">
-        <v>0.162595</v>
+        <v>0.163862</v>
       </c>
       <c r="D94" t="n">
-        <v>0.298972</v>
+        <v>0.299727</v>
       </c>
       <c r="E94" t="n">
-        <v>0.205224</v>
+        <v>0.206243</v>
       </c>
       <c r="F94" t="n">
-        <v>0.199571</v>
+        <v>0.19984</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.243186</v>
+        <v>0.244357</v>
       </c>
       <c r="C95" t="n">
-        <v>0.221062</v>
+        <v>0.221576</v>
       </c>
       <c r="D95" t="n">
-        <v>0.305169</v>
+        <v>0.306101</v>
       </c>
       <c r="E95" t="n">
-        <v>0.209872</v>
+        <v>0.207898</v>
       </c>
       <c r="F95" t="n">
-        <v>0.200609</v>
+        <v>0.201024</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.243707</v>
+        <v>0.244746</v>
       </c>
       <c r="C96" t="n">
-        <v>0.221355</v>
+        <v>0.221447</v>
       </c>
       <c r="D96" t="n">
-        <v>0.317332</v>
+        <v>0.317543</v>
       </c>
       <c r="E96" t="n">
-        <v>0.208868</v>
+        <v>0.209982</v>
       </c>
       <c r="F96" t="n">
-        <v>0.20181</v>
+        <v>0.202818</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.244167</v>
+        <v>0.244332</v>
       </c>
       <c r="C97" t="n">
-        <v>0.221718</v>
+        <v>0.222263</v>
       </c>
       <c r="D97" t="n">
-        <v>0.323202</v>
+        <v>0.323313</v>
       </c>
       <c r="E97" t="n">
-        <v>0.210798</v>
+        <v>0.211134</v>
       </c>
       <c r="F97" t="n">
-        <v>0.202603</v>
+        <v>0.203073</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.243906</v>
+        <v>0.244719</v>
       </c>
       <c r="C98" t="n">
-        <v>0.221937</v>
+        <v>0.222519</v>
       </c>
       <c r="D98" t="n">
-        <v>0.332279</v>
+        <v>0.332796</v>
       </c>
       <c r="E98" t="n">
-        <v>0.212165</v>
+        <v>0.213242</v>
       </c>
       <c r="F98" t="n">
-        <v>0.203898</v>
+        <v>0.204178</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.243829</v>
+        <v>0.2451</v>
       </c>
       <c r="C99" t="n">
-        <v>0.22233</v>
+        <v>0.223135</v>
       </c>
       <c r="D99" t="n">
-        <v>0.340037</v>
+        <v>0.340445</v>
       </c>
       <c r="E99" t="n">
-        <v>0.214454</v>
+        <v>0.214395</v>
       </c>
       <c r="F99" t="n">
-        <v>0.205097</v>
+        <v>0.20577</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.244595</v>
+        <v>0.245071</v>
       </c>
       <c r="C100" t="n">
-        <v>0.222892</v>
+        <v>0.223362</v>
       </c>
       <c r="D100" t="n">
-        <v>0.347827</v>
+        <v>0.348945</v>
       </c>
       <c r="E100" t="n">
-        <v>0.215574</v>
+        <v>0.217034</v>
       </c>
       <c r="F100" t="n">
-        <v>0.207788</v>
+        <v>0.206844</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.244716</v>
+        <v>0.244681</v>
       </c>
       <c r="C101" t="n">
-        <v>0.223381</v>
+        <v>0.224296</v>
       </c>
       <c r="D101" t="n">
-        <v>0.357851</v>
+        <v>0.35879</v>
       </c>
       <c r="E101" t="n">
-        <v>0.218227</v>
+        <v>0.218057</v>
       </c>
       <c r="F101" t="n">
-        <v>0.207833</v>
+        <v>0.208665</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.244508</v>
+        <v>0.244831</v>
       </c>
       <c r="C102" t="n">
-        <v>0.22409</v>
+        <v>0.22489</v>
       </c>
       <c r="D102" t="n">
-        <v>0.366883</v>
+        <v>0.367661</v>
       </c>
       <c r="E102" t="n">
-        <v>0.219519</v>
+        <v>0.220422</v>
       </c>
       <c r="F102" t="n">
-        <v>0.21169</v>
+        <v>0.210285</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.24507</v>
+        <v>0.245103</v>
       </c>
       <c r="C103" t="n">
-        <v>0.225299</v>
+        <v>0.226152</v>
       </c>
       <c r="D103" t="n">
-        <v>0.377215</v>
+        <v>0.378468</v>
       </c>
       <c r="E103" t="n">
-        <v>0.223006</v>
+        <v>0.222186</v>
       </c>
       <c r="F103" t="n">
-        <v>0.211558</v>
+        <v>0.2124</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.24469</v>
+        <v>0.245213</v>
       </c>
       <c r="C104" t="n">
-        <v>0.226785</v>
+        <v>0.227158</v>
       </c>
       <c r="D104" t="n">
-        <v>0.38538</v>
+        <v>0.386108</v>
       </c>
       <c r="E104" t="n">
-        <v>0.223725</v>
+        <v>0.224443</v>
       </c>
       <c r="F104" t="n">
-        <v>0.214739</v>
+        <v>0.215354</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.245528</v>
+        <v>0.245583</v>
       </c>
       <c r="C105" t="n">
-        <v>0.22841</v>
+        <v>0.228935</v>
       </c>
       <c r="D105" t="n">
-        <v>0.395486</v>
+        <v>0.395935</v>
       </c>
       <c r="E105" t="n">
-        <v>0.22704</v>
+        <v>0.227916</v>
       </c>
       <c r="F105" t="n">
-        <v>0.217319</v>
+        <v>0.218741</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.246472</v>
+        <v>0.246818</v>
       </c>
       <c r="C106" t="n">
-        <v>0.230755</v>
+        <v>0.231656</v>
       </c>
       <c r="D106" t="n">
-        <v>0.40519</v>
+        <v>0.406081</v>
       </c>
       <c r="E106" t="n">
-        <v>0.229866</v>
+        <v>0.230935</v>
       </c>
       <c r="F106" t="n">
-        <v>0.222266</v>
+        <v>0.223013</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.247837</v>
+        <v>0.247711</v>
       </c>
       <c r="C107" t="n">
-        <v>0.234472</v>
+        <v>0.235282</v>
       </c>
       <c r="D107" t="n">
-        <v>0.349499</v>
+        <v>0.35024</v>
       </c>
       <c r="E107" t="n">
-        <v>0.23382</v>
+        <v>0.234728</v>
       </c>
       <c r="F107" t="n">
-        <v>0.227214</v>
+        <v>0.228124</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.251079</v>
+        <v>0.251493</v>
       </c>
       <c r="C108" t="n">
-        <v>0.239282</v>
+        <v>0.240192</v>
       </c>
       <c r="D108" t="n">
-        <v>0.355888</v>
+        <v>0.355977</v>
       </c>
       <c r="E108" t="n">
-        <v>0.251015</v>
+        <v>0.25208</v>
       </c>
       <c r="F108" t="n">
-        <v>0.251471</v>
+        <v>0.251336</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.254875</v>
+        <v>0.255903</v>
       </c>
       <c r="C109" t="n">
-        <v>0.247764</v>
+        <v>0.248349</v>
       </c>
       <c r="D109" t="n">
-        <v>0.356718</v>
+        <v>0.357218</v>
       </c>
       <c r="E109" t="n">
-        <v>0.252551</v>
+        <v>0.253848</v>
       </c>
       <c r="F109" t="n">
-        <v>0.252298</v>
+        <v>0.25397</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.280712</v>
+        <v>0.281139</v>
       </c>
       <c r="C110" t="n">
-        <v>0.275545</v>
+        <v>0.276175</v>
       </c>
       <c r="D110" t="n">
-        <v>0.364107</v>
+        <v>0.365096</v>
       </c>
       <c r="E110" t="n">
-        <v>0.248802</v>
+        <v>0.249674</v>
       </c>
       <c r="F110" t="n">
-        <v>0.254095</v>
+        <v>0.254761</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.280767</v>
+        <v>0.280134</v>
       </c>
       <c r="C111" t="n">
-        <v>0.275292</v>
+        <v>0.276326</v>
       </c>
       <c r="D111" t="n">
-        <v>0.37519</v>
+        <v>0.376283</v>
       </c>
       <c r="E111" t="n">
-        <v>0.250726</v>
+        <v>0.251339</v>
       </c>
       <c r="F111" t="n">
-        <v>0.255476</v>
+        <v>0.256916</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.280894</v>
+        <v>0.281165</v>
       </c>
       <c r="C112" t="n">
-        <v>0.275327</v>
+        <v>0.277356</v>
       </c>
       <c r="D112" t="n">
-        <v>0.379342</v>
+        <v>0.380012</v>
       </c>
       <c r="E112" t="n">
-        <v>0.249994</v>
+        <v>0.250557</v>
       </c>
       <c r="F112" t="n">
-        <v>0.256977</v>
+        <v>0.258268</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.28078</v>
+        <v>0.281905</v>
       </c>
       <c r="C113" t="n">
-        <v>0.275115</v>
+        <v>0.27719</v>
       </c>
       <c r="D113" t="n">
-        <v>0.388319</v>
+        <v>0.389365</v>
       </c>
       <c r="E113" t="n">
-        <v>0.252615</v>
+        <v>0.253437</v>
       </c>
       <c r="F113" t="n">
-        <v>0.259328</v>
+        <v>0.260052</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.28247</v>
+        <v>0.281584</v>
       </c>
       <c r="C114" t="n">
-        <v>0.277337</v>
+        <v>0.276799</v>
       </c>
       <c r="D114" t="n">
-        <v>0.396501</v>
+        <v>0.397468</v>
       </c>
       <c r="E114" t="n">
-        <v>0.255505</v>
+        <v>0.255918</v>
       </c>
       <c r="F114" t="n">
-        <v>0.262264</v>
+        <v>0.262381</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.281517</v>
+        <v>0.280947</v>
       </c>
       <c r="C115" t="n">
-        <v>0.277584</v>
+        <v>0.277524</v>
       </c>
       <c r="D115" t="n">
-        <v>0.404189</v>
+        <v>0.405137</v>
       </c>
       <c r="E115" t="n">
-        <v>0.258118</v>
+        <v>0.258479</v>
       </c>
       <c r="F115" t="n">
-        <v>0.264968</v>
+        <v>0.2653</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.280868</v>
+        <v>0.281871</v>
       </c>
       <c r="C116" t="n">
-        <v>0.278355</v>
+        <v>0.281108</v>
       </c>
       <c r="D116" t="n">
-        <v>0.411981</v>
+        <v>0.413389</v>
       </c>
       <c r="E116" t="n">
-        <v>0.260795</v>
+        <v>0.260935</v>
       </c>
       <c r="F116" t="n">
-        <v>0.267595</v>
+        <v>0.268572</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.281654</v>
+        <v>0.283246</v>
       </c>
       <c r="C117" t="n">
-        <v>0.279953</v>
+        <v>0.28066</v>
       </c>
       <c r="D117" t="n">
-        <v>0.421089</v>
+        <v>0.421704</v>
       </c>
       <c r="E117" t="n">
-        <v>0.264037</v>
+        <v>0.264595</v>
       </c>
       <c r="F117" t="n">
-        <v>0.271225</v>
+        <v>0.27155</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.283037</v>
+        <v>0.284208</v>
       </c>
       <c r="C118" t="n">
-        <v>0.282238</v>
+        <v>0.280505</v>
       </c>
       <c r="D118" t="n">
-        <v>0.429154</v>
+        <v>0.429909</v>
       </c>
       <c r="E118" t="n">
-        <v>0.266681</v>
+        <v>0.267285</v>
       </c>
       <c r="F118" t="n">
-        <v>0.274928</v>
+        <v>0.275156</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.282042</v>
+        <v>0.284476</v>
       </c>
       <c r="C119" t="n">
-        <v>0.283199</v>
+        <v>0.283389</v>
       </c>
       <c r="D119" t="n">
-        <v>0.442056</v>
+        <v>0.4429</v>
       </c>
       <c r="E119" t="n">
-        <v>0.270218</v>
+        <v>0.271006</v>
       </c>
       <c r="F119" t="n">
-        <v>0.280075</v>
+        <v>0.280737</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.282604</v>
+        <v>0.282146</v>
       </c>
       <c r="C120" t="n">
-        <v>0.285829</v>
+        <v>0.286394</v>
       </c>
       <c r="D120" t="n">
-        <v>0.450895</v>
+        <v>0.451751</v>
       </c>
       <c r="E120" t="n">
-        <v>0.274295</v>
+        <v>0.274567</v>
       </c>
       <c r="F120" t="n">
-        <v>0.28124</v>
+        <v>0.282145</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.28528</v>
+        <v>0.286561</v>
       </c>
       <c r="C121" t="n">
-        <v>0.28845</v>
+        <v>0.290438</v>
       </c>
       <c r="D121" t="n">
-        <v>0.376608</v>
+        <v>0.377814</v>
       </c>
       <c r="E121" t="n">
-        <v>0.279318</v>
+        <v>0.27969</v>
       </c>
       <c r="F121" t="n">
-        <v>0.288505</v>
+        <v>0.291013</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.286728</v>
+        <v>0.288644</v>
       </c>
       <c r="C122" t="n">
-        <v>0.29506</v>
+        <v>0.29447</v>
       </c>
       <c r="D122" t="n">
-        <v>0.382425</v>
+        <v>0.383252</v>
       </c>
       <c r="E122" t="n">
-        <v>0.285524</v>
+        <v>0.285981</v>
       </c>
       <c r="F122" t="n">
-        <v>0.29863</v>
+        <v>0.299173</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.291815</v>
+        <v>0.291667</v>
       </c>
       <c r="C123" t="n">
-        <v>0.301742</v>
+        <v>0.302398</v>
       </c>
       <c r="D123" t="n">
-        <v>0.387783</v>
+        <v>0.389096</v>
       </c>
       <c r="E123" t="n">
-        <v>0.273756</v>
+        <v>0.274394</v>
       </c>
       <c r="F123" t="n">
-        <v>0.284302</v>
+        <v>0.285087</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.360413</v>
+        <v>0.361116</v>
       </c>
       <c r="C124" t="n">
-        <v>0.350184</v>
+        <v>0.351647</v>
       </c>
       <c r="D124" t="n">
-        <v>0.392151</v>
+        <v>0.392776</v>
       </c>
       <c r="E124" t="n">
-        <v>0.273866</v>
+        <v>0.274589</v>
       </c>
       <c r="F124" t="n">
-        <v>0.286285</v>
+        <v>0.287322</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.360084</v>
+        <v>0.362061</v>
       </c>
       <c r="C125" t="n">
-        <v>0.351007</v>
+        <v>0.350667</v>
       </c>
       <c r="D125" t="n">
-        <v>0.401649</v>
+        <v>0.402151</v>
       </c>
       <c r="E125" t="n">
-        <v>0.276444</v>
+        <v>0.276639</v>
       </c>
       <c r="F125" t="n">
-        <v>0.288227</v>
+        <v>0.288553</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.361988</v>
+        <v>0.361983</v>
       </c>
       <c r="C126" t="n">
-        <v>0.35121</v>
+        <v>0.351839</v>
       </c>
       <c r="D126" t="n">
-        <v>0.40851</v>
+        <v>0.408893</v>
       </c>
       <c r="E126" t="n">
-        <v>0.279376</v>
+        <v>0.279577</v>
       </c>
       <c r="F126" t="n">
-        <v>0.290486</v>
+        <v>0.291163</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.361804</v>
+        <v>0.362594</v>
       </c>
       <c r="C127" t="n">
-        <v>0.352234</v>
+        <v>0.352917</v>
       </c>
       <c r="D127" t="n">
-        <v>0.413419</v>
+        <v>0.413964</v>
       </c>
       <c r="E127" t="n">
-        <v>0.282202</v>
+        <v>0.282221</v>
       </c>
       <c r="F127" t="n">
-        <v>0.293098</v>
+        <v>0.293746</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.361712</v>
+        <v>0.361638</v>
       </c>
       <c r="C128" t="n">
-        <v>0.352083</v>
+        <v>0.353255</v>
       </c>
       <c r="D128" t="n">
-        <v>0.427285</v>
+        <v>0.427507</v>
       </c>
       <c r="E128" t="n">
-        <v>0.285154</v>
+        <v>0.285292</v>
       </c>
       <c r="F128" t="n">
-        <v>0.296339</v>
+        <v>0.296285</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.360992</v>
+        <v>0.36257</v>
       </c>
       <c r="C129" t="n">
-        <v>0.353485</v>
+        <v>0.354036</v>
       </c>
       <c r="D129" t="n">
-        <v>0.433478</v>
+        <v>0.43413</v>
       </c>
       <c r="E129" t="n">
-        <v>0.288084</v>
+        <v>0.288261</v>
       </c>
       <c r="F129" t="n">
-        <v>0.299342</v>
+        <v>0.299677</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.360453</v>
+        <v>0.361494</v>
       </c>
       <c r="C130" t="n">
-        <v>0.354926</v>
+        <v>0.354692</v>
       </c>
       <c r="D130" t="n">
-        <v>0.44282</v>
+        <v>0.443167</v>
       </c>
       <c r="E130" t="n">
-        <v>0.291402</v>
+        <v>0.291599</v>
       </c>
       <c r="F130" t="n">
-        <v>0.296308</v>
+        <v>0.296206</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.361655</v>
+        <v>0.361015</v>
       </c>
       <c r="C131" t="n">
-        <v>0.355659</v>
+        <v>0.35565</v>
       </c>
       <c r="D131" t="n">
-        <v>0.450654</v>
+        <v>0.451471</v>
       </c>
       <c r="E131" t="n">
-        <v>0.295177</v>
+        <v>0.295446</v>
       </c>
       <c r="F131" t="n">
-        <v>0.301085</v>
+        <v>0.301986</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.360622</v>
+        <v>0.361798</v>
       </c>
       <c r="C132" t="n">
-        <v>0.357297</v>
+        <v>0.3591</v>
       </c>
       <c r="D132" t="n">
-        <v>0.456556</v>
+        <v>0.457071</v>
       </c>
       <c r="E132" t="n">
-        <v>0.298619</v>
+        <v>0.299514</v>
       </c>
       <c r="F132" t="n">
-        <v>0.30629</v>
+        <v>0.307205</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.360835</v>
+        <v>0.361959</v>
       </c>
       <c r="C133" t="n">
-        <v>0.359755</v>
+        <v>0.360186</v>
       </c>
       <c r="D133" t="n">
-        <v>0.468503</v>
+        <v>0.468647</v>
       </c>
       <c r="E133" t="n">
-        <v>0.303067</v>
+        <v>0.302924</v>
       </c>
       <c r="F133" t="n">
-        <v>0.312221</v>
+        <v>0.312819</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.36185</v>
+        <v>0.362238</v>
       </c>
       <c r="C134" t="n">
-        <v>0.36245</v>
+        <v>0.363012</v>
       </c>
       <c r="D134" t="n">
-        <v>0.478435</v>
+        <v>0.47869</v>
       </c>
       <c r="E134" t="n">
-        <v>0.307928</v>
+        <v>0.308151</v>
       </c>
       <c r="F134" t="n">
-        <v>0.321565</v>
+        <v>0.321806</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.362117</v>
+        <v>0.363496</v>
       </c>
       <c r="C135" t="n">
-        <v>0.365996</v>
+        <v>0.36633</v>
       </c>
       <c r="D135" t="n">
-        <v>0.392264</v>
+        <v>0.392373</v>
       </c>
       <c r="E135" t="n">
-        <v>0.31403</v>
+        <v>0.314574</v>
       </c>
       <c r="F135" t="n">
-        <v>0.332319</v>
+        <v>0.332792</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.364489</v>
+        <v>0.365368</v>
       </c>
       <c r="C136" t="n">
-        <v>0.370591</v>
+        <v>0.371731</v>
       </c>
       <c r="D136" t="n">
-        <v>0.398898</v>
+        <v>0.399126</v>
       </c>
       <c r="E136" t="n">
-        <v>0.322787</v>
+        <v>0.322945</v>
       </c>
       <c r="F136" t="n">
-        <v>0.34704</v>
+        <v>0.347293</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.368352</v>
+        <v>0.368885</v>
       </c>
       <c r="C137" t="n">
-        <v>0.379589</v>
+        <v>0.379257</v>
       </c>
       <c r="D137" t="n">
-        <v>0.403357</v>
+        <v>0.403436</v>
       </c>
       <c r="E137" t="n">
-        <v>0.293805</v>
+        <v>0.293668</v>
       </c>
       <c r="F137" t="n">
-        <v>0.304706</v>
+        <v>0.303913</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.425079</v>
+        <v>0.42577</v>
       </c>
       <c r="C138" t="n">
-        <v>0.394571</v>
+        <v>0.393753</v>
       </c>
       <c r="D138" t="n">
-        <v>0.410777</v>
+        <v>0.411044</v>
       </c>
       <c r="E138" t="n">
-        <v>0.296123</v>
+        <v>0.296049</v>
       </c>
       <c r="F138" t="n">
-        <v>0.306536</v>
+        <v>0.30615</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.425541</v>
+        <v>0.425501</v>
       </c>
       <c r="C139" t="n">
-        <v>0.394764</v>
+        <v>0.394275</v>
       </c>
       <c r="D139" t="n">
-        <v>0.418694</v>
+        <v>0.418727</v>
       </c>
       <c r="E139" t="n">
-        <v>0.2985</v>
+        <v>0.297869</v>
       </c>
       <c r="F139" t="n">
-        <v>0.309018</v>
+        <v>0.308433</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.425567</v>
+        <v>0.424836</v>
       </c>
       <c r="C140" t="n">
-        <v>0.395236</v>
+        <v>0.394843</v>
       </c>
       <c r="D140" t="n">
-        <v>0.423651</v>
+        <v>0.423754</v>
       </c>
       <c r="E140" t="n">
-        <v>0.300476</v>
+        <v>0.300337</v>
       </c>
       <c r="F140" t="n">
-        <v>0.311622</v>
+        <v>0.311261</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.425855</v>
+        <v>0.424396</v>
       </c>
       <c r="C141" t="n">
-        <v>0.396658</v>
+        <v>0.395683</v>
       </c>
       <c r="D141" t="n">
-        <v>0.432709</v>
+        <v>0.432623</v>
       </c>
       <c r="E141" t="n">
-        <v>0.302672</v>
+        <v>0.302297</v>
       </c>
       <c r="F141" t="n">
-        <v>0.313944</v>
+        <v>0.313681</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.425552</v>
+        <v>0.424703</v>
       </c>
       <c r="C142" t="n">
-        <v>0.397113</v>
+        <v>0.396825</v>
       </c>
       <c r="D142" t="n">
-        <v>0.438486</v>
+        <v>0.43866</v>
       </c>
       <c r="E142" t="n">
-        <v>0.304993</v>
+        <v>0.304286</v>
       </c>
       <c r="F142" t="n">
-        <v>0.317274</v>
+        <v>0.316511</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.425357</v>
+        <v>0.424615</v>
       </c>
       <c r="C143" t="n">
-        <v>0.398042</v>
+        <v>0.397653</v>
       </c>
       <c r="D143" t="n">
-        <v>0.448064</v>
+        <v>0.447707</v>
       </c>
       <c r="E143" t="n">
-        <v>0.307869</v>
+        <v>0.307313</v>
       </c>
       <c r="F143" t="n">
-        <v>0.31754</v>
+        <v>0.316806</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0351389</v>
+        <v>0.0359582</v>
       </c>
       <c r="C2" t="n">
-        <v>0.036768</v>
+        <v>0.0379324</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0711904</v>
+        <v>0.0723265</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0362835</v>
+        <v>0.0369621</v>
       </c>
       <c r="F2" t="n">
-        <v>0.038368</v>
+        <v>0.0381604</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0358438</v>
+        <v>0.0370541</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0366665</v>
+        <v>0.036545</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0781092</v>
+        <v>0.07815809999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0363576</v>
+        <v>0.0375749</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0384815</v>
+        <v>0.0383992</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.035818</v>
+        <v>0.0370401</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0365309</v>
+        <v>0.0373443</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0858985</v>
+        <v>0.0870138</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0373601</v>
+        <v>0.0376092</v>
       </c>
       <c r="F4" t="n">
-        <v>0.038994</v>
+        <v>0.0391712</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.035885</v>
+        <v>0.0377821</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0367167</v>
+        <v>0.0377124</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0914423</v>
+        <v>0.0936795</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0374093</v>
+        <v>0.0384861</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0391548</v>
+        <v>0.0392779</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0358259</v>
+        <v>0.0371828</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0364837</v>
+        <v>0.0369143</v>
       </c>
       <c r="D6" t="n">
-        <v>0.099812</v>
+        <v>0.100728</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0375071</v>
+        <v>0.0388792</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0396161</v>
+        <v>0.0400747</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0361579</v>
+        <v>0.0379163</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0369564</v>
+        <v>0.0377562</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0616388</v>
+        <v>0.0629989</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0381632</v>
+        <v>0.0385322</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0403044</v>
+        <v>0.040157</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0364722</v>
+        <v>0.0376468</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0372976</v>
+        <v>0.0377623</v>
       </c>
       <c r="D8" t="n">
-        <v>0.065321</v>
+        <v>0.0667802</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0395305</v>
+        <v>0.0403713</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0416581</v>
+        <v>0.0421212</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0368525</v>
+        <v>0.0387044</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0378811</v>
+        <v>0.0385328</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0708149</v>
+        <v>0.0722034</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0391494</v>
+        <v>0.0395682</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0404345</v>
+        <v>0.0423249</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0434643</v>
+        <v>0.0431742</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0428547</v>
+        <v>0.0438578</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0750504</v>
+        <v>0.0761487</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0397073</v>
+        <v>0.0398039</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0404767</v>
+        <v>0.0425789</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0433779</v>
+        <v>0.0434431</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0430401</v>
+        <v>0.0439935</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0806361</v>
+        <v>0.08197500000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0400263</v>
+        <v>0.0401533</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0407556</v>
+        <v>0.0427089</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0433738</v>
+        <v>0.0434813</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0427443</v>
+        <v>0.0441249</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0868573</v>
+        <v>0.0876985</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0398371</v>
+        <v>0.0404459</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0411172</v>
+        <v>0.042964</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0436254</v>
+        <v>0.0437075</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0428585</v>
+        <v>0.0441811</v>
       </c>
       <c r="D13" t="n">
-        <v>0.09124450000000001</v>
+        <v>0.0920888</v>
       </c>
       <c r="E13" t="n">
-        <v>0.040941</v>
+        <v>0.0410919</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0414115</v>
+        <v>0.0432215</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0436387</v>
+        <v>0.0437469</v>
       </c>
       <c r="C14" t="n">
-        <v>0.043016</v>
+        <v>0.0438937</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0968518</v>
+        <v>0.0977151</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0411508</v>
+        <v>0.041233</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0417676</v>
+        <v>0.0436143</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0438363</v>
+        <v>0.0436918</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0429142</v>
+        <v>0.0442786</v>
       </c>
       <c r="D15" t="n">
-        <v>0.102402</v>
+        <v>0.103062</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0413795</v>
+        <v>0.0421032</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0420939</v>
+        <v>0.0439686</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0439634</v>
+        <v>0.0438033</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0430624</v>
+        <v>0.0443548</v>
       </c>
       <c r="D16" t="n">
-        <v>0.107571</v>
+        <v>0.108222</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0415857</v>
+        <v>0.0418855</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0424339</v>
+        <v>0.0441643</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.044235</v>
+        <v>0.0439828</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0435052</v>
+        <v>0.0442136</v>
       </c>
       <c r="D17" t="n">
-        <v>0.112614</v>
+        <v>0.113219</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0418065</v>
+        <v>0.0420653</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0426966</v>
+        <v>0.0446026</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0440898</v>
+        <v>0.0440313</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0432628</v>
+        <v>0.0444542</v>
       </c>
       <c r="D18" t="n">
-        <v>0.117023</v>
+        <v>0.118156</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0423175</v>
+        <v>0.0423793</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0430607</v>
+        <v>0.044756</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0440312</v>
+        <v>0.0439306</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0433534</v>
+        <v>0.0445802</v>
       </c>
       <c r="D19" t="n">
-        <v>0.121458</v>
+        <v>0.122379</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0424329</v>
+        <v>0.0426752</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0432042</v>
+        <v>0.0449963</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0446051</v>
+        <v>0.0443761</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0435779</v>
+        <v>0.0446501</v>
       </c>
       <c r="D20" t="n">
-        <v>0.124933</v>
+        <v>0.125913</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0427829</v>
+        <v>0.042729</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0438791</v>
+        <v>0.0457256</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.044819</v>
+        <v>0.0445366</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0437079</v>
+        <v>0.0445978</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0888516</v>
+        <v>0.0889711</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0437617</v>
+        <v>0.0435944</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0447406</v>
+        <v>0.0455227</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0450704</v>
+        <v>0.0447612</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0442072</v>
+        <v>0.0447066</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0919932</v>
+        <v>0.0919696</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0470936</v>
+        <v>0.0475206</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0485352</v>
+        <v>0.0495644</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0458768</v>
+        <v>0.0458985</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0451697</v>
+        <v>0.0455449</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0949581</v>
+        <v>0.0949808</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0449735</v>
+        <v>0.044875</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0461555</v>
+        <v>0.046</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0487574</v>
+        <v>0.048791</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0496136</v>
+        <v>0.0496923</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0988334</v>
+        <v>0.0986957</v>
       </c>
       <c r="E24" t="n">
-        <v>0.045456</v>
+        <v>0.045399</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0464559</v>
+        <v>0.0461547</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0488402</v>
+        <v>0.0486621</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0496628</v>
+        <v>0.0496521</v>
       </c>
       <c r="D25" t="n">
-        <v>0.101752</v>
+        <v>0.101921</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0457858</v>
+        <v>0.045548</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0467004</v>
+        <v>0.0463836</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0488301</v>
+        <v>0.0486994</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0498713</v>
+        <v>0.0497719</v>
       </c>
       <c r="D26" t="n">
-        <v>0.105418</v>
+        <v>0.105444</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0462844</v>
+        <v>0.0462708</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0473127</v>
+        <v>0.0467384</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0488347</v>
+        <v>0.0486511</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0499036</v>
+        <v>0.0498277</v>
       </c>
       <c r="D27" t="n">
-        <v>0.109549</v>
+        <v>0.109617</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0465586</v>
+        <v>0.0463916</v>
       </c>
       <c r="F27" t="n">
-        <v>0.047575</v>
+        <v>0.0471358</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0490038</v>
+        <v>0.0490221</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0501113</v>
+        <v>0.0498692</v>
       </c>
       <c r="D28" t="n">
-        <v>0.11378</v>
+        <v>0.113746</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0468117</v>
+        <v>0.0466861</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0475563</v>
+        <v>0.047329</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0491756</v>
+        <v>0.0490332</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0501483</v>
+        <v>0.0500596</v>
       </c>
       <c r="D29" t="n">
-        <v>0.117761</v>
+        <v>0.117822</v>
       </c>
       <c r="E29" t="n">
-        <v>0.047134</v>
+        <v>0.0470955</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0478805</v>
+        <v>0.0476098</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0489721</v>
+        <v>0.0488536</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0500128</v>
+        <v>0.049991</v>
       </c>
       <c r="D30" t="n">
-        <v>0.121774</v>
+        <v>0.1217</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0475435</v>
+        <v>0.0473567</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0484036</v>
+        <v>0.0477934</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0491714</v>
+        <v>0.0490098</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0503451</v>
+        <v>0.0502109</v>
       </c>
       <c r="D31" t="n">
-        <v>0.125862</v>
+        <v>0.125916</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0475242</v>
+        <v>0.0473733</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0484551</v>
+        <v>0.0481325</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0491128</v>
+        <v>0.0490271</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0503411</v>
+        <v>0.0500845</v>
       </c>
       <c r="D32" t="n">
-        <v>0.129214</v>
+        <v>0.129145</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0481237</v>
+        <v>0.0478776</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0489102</v>
+        <v>0.0483481</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0493592</v>
+        <v>0.0493012</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0504417</v>
+        <v>0.0504424</v>
       </c>
       <c r="D33" t="n">
-        <v>0.132646</v>
+        <v>0.132616</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0481539</v>
+        <v>0.0482436</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0489899</v>
+        <v>0.0487196</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0493899</v>
+        <v>0.0493289</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0506091</v>
+        <v>0.0503623</v>
       </c>
       <c r="D34" t="n">
-        <v>0.136</v>
+        <v>0.13596</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0484294</v>
+        <v>0.0486556</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0498598</v>
+        <v>0.0500204</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0501464</v>
+        <v>0.0499616</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0511488</v>
+        <v>0.0509169</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0969059</v>
+        <v>0.0967852</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0519472</v>
+        <v>0.0518899</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0539989</v>
+        <v>0.0536891</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0503353</v>
+        <v>0.0505446</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0520375</v>
+        <v>0.0514846</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0993903</v>
+        <v>0.099437</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0592407</v>
+        <v>0.059194</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0623509</v>
+        <v>0.0623351</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0531733</v>
+        <v>0.0542868</v>
       </c>
       <c r="C37" t="n">
-        <v>0.055598</v>
+        <v>0.0553611</v>
       </c>
       <c r="D37" t="n">
-        <v>0.101465</v>
+        <v>0.101483</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0495596</v>
+        <v>0.0493668</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0503693</v>
+        <v>0.0504133</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0541366</v>
+        <v>0.0550596</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0571788</v>
+        <v>0.0559168</v>
       </c>
       <c r="D38" t="n">
-        <v>0.104351</v>
+        <v>0.104181</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0493257</v>
+        <v>0.0493358</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0505035</v>
+        <v>0.0505644</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0531957</v>
+        <v>0.0531317</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0571749</v>
+        <v>0.055999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.107322</v>
+        <v>0.107076</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0497493</v>
+        <v>0.0496887</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0510929</v>
+        <v>0.0510922</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0533629</v>
+        <v>0.0540464</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0573878</v>
+        <v>0.0560107</v>
       </c>
       <c r="D40" t="n">
-        <v>0.110511</v>
+        <v>0.11048</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0500585</v>
+        <v>0.0499736</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0512745</v>
+        <v>0.051369</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0534829</v>
+        <v>0.0540163</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0574398</v>
+        <v>0.0561191</v>
       </c>
       <c r="D41" t="n">
-        <v>0.113847</v>
+        <v>0.1138</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0503074</v>
+        <v>0.0503754</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0516261</v>
+        <v>0.0517613</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0534274</v>
+        <v>0.0541163</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0575265</v>
+        <v>0.0562856</v>
       </c>
       <c r="D42" t="n">
-        <v>0.117395</v>
+        <v>0.117334</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0508207</v>
+        <v>0.0504984</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0517129</v>
+        <v>0.0515834</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0535009</v>
+        <v>0.0538566</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0576735</v>
+        <v>0.0563125</v>
       </c>
       <c r="D43" t="n">
-        <v>0.121294</v>
+        <v>0.121337</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0509801</v>
+        <v>0.0510048</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0520917</v>
+        <v>0.0520237</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0538449</v>
+        <v>0.0543965</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0577128</v>
+        <v>0.0564428</v>
       </c>
       <c r="D44" t="n">
-        <v>0.12528</v>
+        <v>0.125222</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0514287</v>
+        <v>0.0511758</v>
       </c>
       <c r="F44" t="n">
-        <v>0.052176</v>
+        <v>0.0521141</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0538293</v>
+        <v>0.0550436</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0578393</v>
+        <v>0.0565101</v>
       </c>
       <c r="D45" t="n">
-        <v>0.129186</v>
+        <v>0.12922</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0517667</v>
+        <v>0.051746</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0524794</v>
+        <v>0.0524592</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0540855</v>
+        <v>0.0546507</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0578772</v>
+        <v>0.0567852</v>
       </c>
       <c r="D46" t="n">
-        <v>0.132776</v>
+        <v>0.132796</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0522661</v>
+        <v>0.0522037</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0531715</v>
+        <v>0.0531674</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.054252</v>
+        <v>0.0548528</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0581282</v>
+        <v>0.0569599</v>
       </c>
       <c r="D47" t="n">
-        <v>0.135897</v>
+        <v>0.135939</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0533063</v>
+        <v>0.0533651</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0550163</v>
+        <v>0.0548507</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0547263</v>
+        <v>0.0555137</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0585256</v>
+        <v>0.0572768</v>
       </c>
       <c r="D48" t="n">
-        <v>0.139614</v>
+        <v>0.139639</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0557912</v>
+        <v>0.0557456</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0588111</v>
+        <v>0.0589142</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0559583</v>
+        <v>0.0565836</v>
       </c>
       <c r="C49" t="n">
-        <v>0.059354</v>
+        <v>0.0580904</v>
       </c>
       <c r="D49" t="n">
-        <v>0.142503</v>
+        <v>0.14256</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0600825</v>
+        <v>0.0599089</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0626898</v>
+        <v>0.0624115</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.058923</v>
+        <v>0.0595675</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0616224</v>
+        <v>0.0603044</v>
       </c>
       <c r="D50" t="n">
-        <v>0.101393</v>
+        <v>0.101614</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0649064</v>
+        <v>0.0647913</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0690519</v>
+        <v>0.0676471</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0622344</v>
+        <v>0.0632023</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0641547</v>
+        <v>0.06443119999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>0.103698</v>
+        <v>0.103716</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0531521</v>
+        <v>0.0532466</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0531517</v>
+        <v>0.0531524</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.06682390000000001</v>
+        <v>0.0674807</v>
       </c>
       <c r="C52" t="n">
-        <v>0.07068049999999999</v>
+        <v>0.0706454</v>
       </c>
       <c r="D52" t="n">
-        <v>0.106158</v>
+        <v>0.106152</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0521975</v>
+        <v>0.0523876</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0533493</v>
+        <v>0.0534631</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.060643</v>
+        <v>0.0604403</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0634305</v>
+        <v>0.06348230000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>0.109013</v>
+        <v>0.109149</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0526854</v>
+        <v>0.0527435</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0538779</v>
+        <v>0.0538162</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0604271</v>
+        <v>0.0607223</v>
       </c>
       <c r="C54" t="n">
-        <v>0.06334960000000001</v>
+        <v>0.0636143</v>
       </c>
       <c r="D54" t="n">
-        <v>0.112018</v>
+        <v>0.112073</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0529724</v>
+        <v>0.0529982</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0541366</v>
+        <v>0.0539874</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.060643</v>
+        <v>0.0606319</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0636202</v>
+        <v>0.0636582</v>
       </c>
       <c r="D55" t="n">
-        <v>0.115661</v>
+        <v>0.115707</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0534323</v>
+        <v>0.0533554</v>
       </c>
       <c r="F55" t="n">
-        <v>0.054567</v>
+        <v>0.0545325</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0609728</v>
+        <v>0.0608459</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0637139</v>
+        <v>0.0636673</v>
       </c>
       <c r="D56" t="n">
-        <v>0.119126</v>
+        <v>0.119211</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0537648</v>
+        <v>0.0538534</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0549022</v>
+        <v>0.0548636</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0609736</v>
+        <v>0.0605456</v>
       </c>
       <c r="C57" t="n">
-        <v>0.06442639999999999</v>
+        <v>0.0639121</v>
       </c>
       <c r="D57" t="n">
-        <v>0.123033</v>
+        <v>0.123095</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0543751</v>
+        <v>0.0543926</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0554356</v>
+        <v>0.0554367</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0613187</v>
+        <v>0.0609633</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0640825</v>
+        <v>0.06361899999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>0.126766</v>
+        <v>0.126746</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0549492</v>
+        <v>0.0552243</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0558573</v>
+        <v>0.0559599</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0614116</v>
+        <v>0.0611927</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0643389</v>
+        <v>0.06440319999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.130526</v>
+        <v>0.130682</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0553315</v>
+        <v>0.0553917</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0575778</v>
+        <v>0.0571939</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0613646</v>
+        <v>0.0609732</v>
       </c>
       <c r="C60" t="n">
-        <v>0.06479849999999999</v>
+        <v>0.0644975</v>
       </c>
       <c r="D60" t="n">
-        <v>0.134403</v>
+        <v>0.134514</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0568678</v>
+        <v>0.0568466</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0598912</v>
+        <v>0.0591152</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0616606</v>
+        <v>0.061907</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0654605</v>
+        <v>0.06563430000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>0.138735</v>
+        <v>0.138408</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0588155</v>
+        <v>0.0590439</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0617471</v>
+        <v>0.0609483</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0626573</v>
+        <v>0.0621627</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0664115</v>
+        <v>0.0655854</v>
       </c>
       <c r="D62" t="n">
-        <v>0.142209</v>
+        <v>0.142087</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0612123</v>
+        <v>0.06136</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0649237</v>
+        <v>0.06362760000000001</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0644501</v>
+        <v>0.0644366</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0681123</v>
+        <v>0.0673744</v>
       </c>
       <c r="D63" t="n">
-        <v>0.145402</v>
+        <v>0.145318</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0640978</v>
+        <v>0.0642384</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0681128</v>
+        <v>0.0677306</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0662677</v>
+        <v>0.06619510000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.07019549999999999</v>
+        <v>0.0696042</v>
       </c>
       <c r="D64" t="n">
-        <v>0.111743</v>
+        <v>0.109796</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0682204</v>
+        <v>0.06823</v>
       </c>
       <c r="F64" t="n">
-        <v>0.07293040000000001</v>
+        <v>0.0723253</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0687898</v>
+        <v>0.0687943</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0737334</v>
+        <v>0.0732404</v>
       </c>
       <c r="D65" t="n">
-        <v>0.114703</v>
+        <v>0.11241</v>
       </c>
       <c r="E65" t="n">
-        <v>0.07425660000000001</v>
+        <v>0.07444149999999999</v>
       </c>
       <c r="F65" t="n">
-        <v>0.08037130000000001</v>
+        <v>0.08050309999999999</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0726364</v>
+        <v>0.07277309999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>0.07846939999999999</v>
+        <v>0.07833080000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>0.118013</v>
+        <v>0.115121</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0550552</v>
+        <v>0.0553791</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0596444</v>
+        <v>0.059645</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0704086</v>
+        <v>0.0705061</v>
       </c>
       <c r="C67" t="n">
-        <v>0.07140249999999999</v>
+        <v>0.07166599999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.123404</v>
+        <v>0.120725</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0564784</v>
+        <v>0.0557208</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0601772</v>
+        <v>0.0602233</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.07059169999999999</v>
+        <v>0.0711384</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0716043</v>
+        <v>0.0720855</v>
       </c>
       <c r="D68" t="n">
-        <v>0.126297</v>
+        <v>0.125464</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0561789</v>
+        <v>0.0561558</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0611507</v>
+        <v>0.0609731</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0717301</v>
+        <v>0.0713756</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0722329</v>
+        <v>0.072353</v>
       </c>
       <c r="D69" t="n">
-        <v>0.132229</v>
+        <v>0.13057</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0564131</v>
+        <v>0.0568876</v>
       </c>
       <c r="F69" t="n">
-        <v>0.062087</v>
+        <v>0.0621893</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0710732</v>
+        <v>0.0726583</v>
       </c>
       <c r="C70" t="n">
-        <v>0.07264619999999999</v>
+        <v>0.0734055</v>
       </c>
       <c r="D70" t="n">
-        <v>0.138427</v>
+        <v>0.135755</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0568276</v>
+        <v>0.0571402</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0631327</v>
+        <v>0.0631736</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0715644</v>
+        <v>0.0721406</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0735792</v>
+        <v>0.0737105</v>
       </c>
       <c r="D71" t="n">
-        <v>0.144399</v>
+        <v>0.14299</v>
       </c>
       <c r="E71" t="n">
-        <v>0.057751</v>
+        <v>0.0583523</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0645698</v>
+        <v>0.0647297</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0735437</v>
+        <v>0.0752444</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0742317</v>
+        <v>0.0747727</v>
       </c>
       <c r="D72" t="n">
-        <v>0.151011</v>
+        <v>0.150346</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0583361</v>
+        <v>0.0583588</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0662766</v>
+        <v>0.06662510000000001</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.073419</v>
+        <v>0.0723333</v>
       </c>
       <c r="C73" t="n">
-        <v>0.07508819999999999</v>
+        <v>0.07498100000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>0.160168</v>
+        <v>0.157629</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0593625</v>
+        <v>0.0593869</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0685601</v>
+        <v>0.067991</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.07316350000000001</v>
+        <v>0.07491829999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>0.07596219999999999</v>
+        <v>0.0759253</v>
       </c>
       <c r="D74" t="n">
-        <v>0.16888</v>
+        <v>0.16686</v>
       </c>
       <c r="E74" t="n">
-        <v>0.060794</v>
+        <v>0.0606125</v>
       </c>
       <c r="F74" t="n">
-        <v>0.07062209999999999</v>
+        <v>0.0710983</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0743901</v>
+        <v>0.0762188</v>
       </c>
       <c r="C75" t="n">
-        <v>0.077639</v>
+        <v>0.07755720000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.176457</v>
+        <v>0.174587</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0623204</v>
+        <v>0.0625284</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0740171</v>
+        <v>0.073947</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0742507</v>
+        <v>0.076151</v>
       </c>
       <c r="C76" t="n">
-        <v>0.07937420000000001</v>
+        <v>0.0792653</v>
       </c>
       <c r="D76" t="n">
-        <v>0.182113</v>
+        <v>0.180971</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0642803</v>
+        <v>0.0650202</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0776206</v>
+        <v>0.077525</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.07672470000000001</v>
+        <v>0.07617930000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0818702</v>
+        <v>0.0814976</v>
       </c>
       <c r="D77" t="n">
-        <v>0.19346</v>
+        <v>0.193233</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0669426</v>
+        <v>0.0676431</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0817262</v>
+        <v>0.0815753</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.07790999999999999</v>
+        <v>0.077</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0838469</v>
+        <v>0.0843193</v>
       </c>
       <c r="D78" t="n">
-        <v>0.186231</v>
+        <v>0.186024</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0708776</v>
+        <v>0.07140199999999999</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08770120000000001</v>
+        <v>0.0872806</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.07959040000000001</v>
+        <v>0.0784778</v>
       </c>
       <c r="C79" t="n">
-        <v>0.08782619999999999</v>
+        <v>0.087895</v>
       </c>
       <c r="D79" t="n">
-        <v>0.19353</v>
+        <v>0.19402</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0764748</v>
+        <v>0.0771197</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0950288</v>
+        <v>0.0950324</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0849758</v>
+        <v>0.08280659999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0934561</v>
+        <v>0.09369089999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>0.202103</v>
+        <v>0.201903</v>
       </c>
       <c r="E80" t="n">
-        <v>0.105651</v>
+        <v>0.102212</v>
       </c>
       <c r="F80" t="n">
-        <v>0.103259</v>
+        <v>0.104353</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.172431</v>
+        <v>0.174587</v>
       </c>
       <c r="C81" t="n">
-        <v>0.141413</v>
+        <v>0.142616</v>
       </c>
       <c r="D81" t="n">
-        <v>0.210831</v>
+        <v>0.211774</v>
       </c>
       <c r="E81" t="n">
-        <v>0.106224</v>
+        <v>0.105734</v>
       </c>
       <c r="F81" t="n">
-        <v>0.104447</v>
+        <v>0.106352</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.175952</v>
+        <v>0.174366</v>
       </c>
       <c r="C82" t="n">
-        <v>0.141816</v>
+        <v>0.143075</v>
       </c>
       <c r="D82" t="n">
-        <v>0.218097</v>
+        <v>0.218973</v>
       </c>
       <c r="E82" t="n">
-        <v>0.108549</v>
+        <v>0.10907</v>
       </c>
       <c r="F82" t="n">
-        <v>0.104762</v>
+        <v>0.106775</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.176683</v>
+        <v>0.175454</v>
       </c>
       <c r="C83" t="n">
-        <v>0.142461</v>
+        <v>0.143547</v>
       </c>
       <c r="D83" t="n">
-        <v>0.227017</v>
+        <v>0.227166</v>
       </c>
       <c r="E83" t="n">
-        <v>0.111744</v>
+        <v>0.110867</v>
       </c>
       <c r="F83" t="n">
-        <v>0.106032</v>
+        <v>0.108151</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.17694</v>
+        <v>0.176286</v>
       </c>
       <c r="C84" t="n">
-        <v>0.143511</v>
+        <v>0.144351</v>
       </c>
       <c r="D84" t="n">
-        <v>0.237872</v>
+        <v>0.238938</v>
       </c>
       <c r="E84" t="n">
-        <v>0.113973</v>
+        <v>0.112847</v>
       </c>
       <c r="F84" t="n">
-        <v>0.107237</v>
+        <v>0.109039</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.177484</v>
+        <v>0.177368</v>
       </c>
       <c r="C85" t="n">
-        <v>0.143434</v>
+        <v>0.144568</v>
       </c>
       <c r="D85" t="n">
-        <v>0.24966</v>
+        <v>0.251146</v>
       </c>
       <c r="E85" t="n">
-        <v>0.116468</v>
+        <v>0.112793</v>
       </c>
       <c r="F85" t="n">
-        <v>0.107536</v>
+        <v>0.109445</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.178681</v>
+        <v>0.1772</v>
       </c>
       <c r="C86" t="n">
-        <v>0.145001</v>
+        <v>0.145575</v>
       </c>
       <c r="D86" t="n">
-        <v>0.257579</v>
+        <v>0.258939</v>
       </c>
       <c r="E86" t="n">
-        <v>0.118697</v>
+        <v>0.11506</v>
       </c>
       <c r="F86" t="n">
-        <v>0.108782</v>
+        <v>0.110226</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.180175</v>
+        <v>0.178103</v>
       </c>
       <c r="C87" t="n">
-        <v>0.145643</v>
+        <v>0.146105</v>
       </c>
       <c r="D87" t="n">
-        <v>0.271211</v>
+        <v>0.272318</v>
       </c>
       <c r="E87" t="n">
-        <v>0.12071</v>
+        <v>0.117084</v>
       </c>
       <c r="F87" t="n">
-        <v>0.109804</v>
+        <v>0.111143</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.180479</v>
+        <v>0.178427</v>
       </c>
       <c r="C88" t="n">
-        <v>0.144676</v>
+        <v>0.146135</v>
       </c>
       <c r="D88" t="n">
-        <v>0.279509</v>
+        <v>0.280216</v>
       </c>
       <c r="E88" t="n">
-        <v>0.124062</v>
+        <v>0.121896</v>
       </c>
       <c r="F88" t="n">
-        <v>0.111655</v>
+        <v>0.111915</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.180798</v>
+        <v>0.179304</v>
       </c>
       <c r="C89" t="n">
-        <v>0.147718</v>
+        <v>0.148309</v>
       </c>
       <c r="D89" t="n">
-        <v>0.288815</v>
+        <v>0.290935</v>
       </c>
       <c r="E89" t="n">
-        <v>0.126157</v>
+        <v>0.123853</v>
       </c>
       <c r="F89" t="n">
-        <v>0.116778</v>
+        <v>0.114898</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.180769</v>
+        <v>0.179357</v>
       </c>
       <c r="C90" t="n">
-        <v>0.14721</v>
+        <v>0.148568</v>
       </c>
       <c r="D90" t="n">
-        <v>0.298864</v>
+        <v>0.300254</v>
       </c>
       <c r="E90" t="n">
-        <v>0.128415</v>
+        <v>0.126228</v>
       </c>
       <c r="F90" t="n">
-        <v>0.116886</v>
+        <v>0.117112</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.181131</v>
+        <v>0.18132</v>
       </c>
       <c r="C91" t="n">
-        <v>0.150806</v>
+        <v>0.151294</v>
       </c>
       <c r="D91" t="n">
-        <v>0.309504</v>
+        <v>0.310201</v>
       </c>
       <c r="E91" t="n">
-        <v>0.12898</v>
+        <v>0.129243</v>
       </c>
       <c r="F91" t="n">
-        <v>0.121726</v>
+        <v>0.123247</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.183383</v>
+        <v>0.183615</v>
       </c>
       <c r="C92" t="n">
-        <v>0.153205</v>
+        <v>0.153843</v>
       </c>
       <c r="D92" t="n">
-        <v>0.288435</v>
+        <v>0.290152</v>
       </c>
       <c r="E92" t="n">
-        <v>0.132097</v>
+        <v>0.132682</v>
       </c>
       <c r="F92" t="n">
-        <v>0.126975</v>
+        <v>0.126895</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.184374</v>
+        <v>0.184764</v>
       </c>
       <c r="C93" t="n">
-        <v>0.157205</v>
+        <v>0.157576</v>
       </c>
       <c r="D93" t="n">
-        <v>0.293451</v>
+        <v>0.295317</v>
       </c>
       <c r="E93" t="n">
-        <v>0.136479</v>
+        <v>0.137381</v>
       </c>
       <c r="F93" t="n">
-        <v>0.134671</v>
+        <v>0.134018</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.186294</v>
+        <v>0.186656</v>
       </c>
       <c r="C94" t="n">
-        <v>0.163862</v>
+        <v>0.162929</v>
       </c>
       <c r="D94" t="n">
-        <v>0.299727</v>
+        <v>0.301338</v>
       </c>
       <c r="E94" t="n">
-        <v>0.206243</v>
+        <v>0.207428</v>
       </c>
       <c r="F94" t="n">
-        <v>0.19984</v>
+        <v>0.201445</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.244357</v>
+        <v>0.245143</v>
       </c>
       <c r="C95" t="n">
-        <v>0.221576</v>
+        <v>0.222884</v>
       </c>
       <c r="D95" t="n">
-        <v>0.306101</v>
+        <v>0.308145</v>
       </c>
       <c r="E95" t="n">
-        <v>0.207898</v>
+        <v>0.20894</v>
       </c>
       <c r="F95" t="n">
-        <v>0.201024</v>
+        <v>0.202708</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.244746</v>
+        <v>0.245725</v>
       </c>
       <c r="C96" t="n">
-        <v>0.221447</v>
+        <v>0.222701</v>
       </c>
       <c r="D96" t="n">
-        <v>0.317543</v>
+        <v>0.319381</v>
       </c>
       <c r="E96" t="n">
-        <v>0.209982</v>
+        <v>0.210715</v>
       </c>
       <c r="F96" t="n">
-        <v>0.202818</v>
+        <v>0.203714</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.244332</v>
+        <v>0.245074</v>
       </c>
       <c r="C97" t="n">
-        <v>0.222263</v>
+        <v>0.223084</v>
       </c>
       <c r="D97" t="n">
-        <v>0.323313</v>
+        <v>0.325379</v>
       </c>
       <c r="E97" t="n">
-        <v>0.211134</v>
+        <v>0.21195</v>
       </c>
       <c r="F97" t="n">
-        <v>0.203073</v>
+        <v>0.204721</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.244719</v>
+        <v>0.244809</v>
       </c>
       <c r="C98" t="n">
-        <v>0.222519</v>
+        <v>0.223394</v>
       </c>
       <c r="D98" t="n">
-        <v>0.332796</v>
+        <v>0.334708</v>
       </c>
       <c r="E98" t="n">
-        <v>0.213242</v>
+        <v>0.214154</v>
       </c>
       <c r="F98" t="n">
-        <v>0.204178</v>
+        <v>0.20604</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.2451</v>
+        <v>0.245556</v>
       </c>
       <c r="C99" t="n">
-        <v>0.223135</v>
+        <v>0.223928</v>
       </c>
       <c r="D99" t="n">
-        <v>0.340445</v>
+        <v>0.342355</v>
       </c>
       <c r="E99" t="n">
-        <v>0.214395</v>
+        <v>0.215912</v>
       </c>
       <c r="F99" t="n">
-        <v>0.20577</v>
+        <v>0.207355</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.245071</v>
+        <v>0.245804</v>
       </c>
       <c r="C100" t="n">
-        <v>0.223362</v>
+        <v>0.224519</v>
       </c>
       <c r="D100" t="n">
-        <v>0.348945</v>
+        <v>0.350338</v>
       </c>
       <c r="E100" t="n">
-        <v>0.217034</v>
+        <v>0.218149</v>
       </c>
       <c r="F100" t="n">
-        <v>0.206844</v>
+        <v>0.20736</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.244681</v>
+        <v>0.246063</v>
       </c>
       <c r="C101" t="n">
-        <v>0.224296</v>
+        <v>0.224952</v>
       </c>
       <c r="D101" t="n">
-        <v>0.35879</v>
+        <v>0.360124</v>
       </c>
       <c r="E101" t="n">
-        <v>0.218057</v>
+        <v>0.220031</v>
       </c>
       <c r="F101" t="n">
-        <v>0.208665</v>
+        <v>0.209566</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.244831</v>
+        <v>0.246346</v>
       </c>
       <c r="C102" t="n">
-        <v>0.22489</v>
+        <v>0.22596</v>
       </c>
       <c r="D102" t="n">
-        <v>0.367661</v>
+        <v>0.369052</v>
       </c>
       <c r="E102" t="n">
-        <v>0.220422</v>
+        <v>0.221526</v>
       </c>
       <c r="F102" t="n">
-        <v>0.210285</v>
+        <v>0.21147</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.245103</v>
+        <v>0.247115</v>
       </c>
       <c r="C103" t="n">
-        <v>0.226152</v>
+        <v>0.226959</v>
       </c>
       <c r="D103" t="n">
-        <v>0.378468</v>
+        <v>0.379815</v>
       </c>
       <c r="E103" t="n">
-        <v>0.222186</v>
+        <v>0.224166</v>
       </c>
       <c r="F103" t="n">
-        <v>0.2124</v>
+        <v>0.21384</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.245213</v>
+        <v>0.246466</v>
       </c>
       <c r="C104" t="n">
-        <v>0.227158</v>
+        <v>0.228312</v>
       </c>
       <c r="D104" t="n">
-        <v>0.386108</v>
+        <v>0.387825</v>
       </c>
       <c r="E104" t="n">
-        <v>0.224443</v>
+        <v>0.226594</v>
       </c>
       <c r="F104" t="n">
-        <v>0.215354</v>
+        <v>0.215569</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.245583</v>
+        <v>0.247538</v>
       </c>
       <c r="C105" t="n">
-        <v>0.228935</v>
+        <v>0.229842</v>
       </c>
       <c r="D105" t="n">
-        <v>0.395935</v>
+        <v>0.397308</v>
       </c>
       <c r="E105" t="n">
-        <v>0.227916</v>
+        <v>0.229043</v>
       </c>
       <c r="F105" t="n">
-        <v>0.218741</v>
+        <v>0.219013</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.246818</v>
+        <v>0.248858</v>
       </c>
       <c r="C106" t="n">
-        <v>0.231656</v>
+        <v>0.232314</v>
       </c>
       <c r="D106" t="n">
-        <v>0.406081</v>
+        <v>0.407481</v>
       </c>
       <c r="E106" t="n">
-        <v>0.230935</v>
+        <v>0.231999</v>
       </c>
       <c r="F106" t="n">
-        <v>0.223013</v>
+        <v>0.223965</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.247711</v>
+        <v>0.250809</v>
       </c>
       <c r="C107" t="n">
-        <v>0.235282</v>
+        <v>0.235964</v>
       </c>
       <c r="D107" t="n">
-        <v>0.35024</v>
+        <v>0.35261</v>
       </c>
       <c r="E107" t="n">
-        <v>0.234728</v>
+        <v>0.236755</v>
       </c>
       <c r="F107" t="n">
-        <v>0.228124</v>
+        <v>0.228909</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.251493</v>
+        <v>0.253483</v>
       </c>
       <c r="C108" t="n">
-        <v>0.240192</v>
+        <v>0.240742</v>
       </c>
       <c r="D108" t="n">
-        <v>0.355977</v>
+        <v>0.357929</v>
       </c>
       <c r="E108" t="n">
-        <v>0.25208</v>
+        <v>0.253962</v>
       </c>
       <c r="F108" t="n">
-        <v>0.251336</v>
+        <v>0.253988</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.255903</v>
+        <v>0.256971</v>
       </c>
       <c r="C109" t="n">
-        <v>0.248349</v>
+        <v>0.249514</v>
       </c>
       <c r="D109" t="n">
-        <v>0.357218</v>
+        <v>0.359404</v>
       </c>
       <c r="E109" t="n">
-        <v>0.253848</v>
+        <v>0.255802</v>
       </c>
       <c r="F109" t="n">
-        <v>0.25397</v>
+        <v>0.255243</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.281139</v>
+        <v>0.283182</v>
       </c>
       <c r="C110" t="n">
-        <v>0.276175</v>
+        <v>0.277706</v>
       </c>
       <c r="D110" t="n">
-        <v>0.365096</v>
+        <v>0.367387</v>
       </c>
       <c r="E110" t="n">
-        <v>0.249674</v>
+        <v>0.251915</v>
       </c>
       <c r="F110" t="n">
-        <v>0.254761</v>
+        <v>0.257045</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.280134</v>
+        <v>0.284544</v>
       </c>
       <c r="C111" t="n">
-        <v>0.276326</v>
+        <v>0.278422</v>
       </c>
       <c r="D111" t="n">
-        <v>0.376283</v>
+        <v>0.37791</v>
       </c>
       <c r="E111" t="n">
-        <v>0.251339</v>
+        <v>0.253758</v>
       </c>
       <c r="F111" t="n">
-        <v>0.256916</v>
+        <v>0.258392</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.281165</v>
+        <v>0.282933</v>
       </c>
       <c r="C112" t="n">
-        <v>0.277356</v>
+        <v>0.278889</v>
       </c>
       <c r="D112" t="n">
-        <v>0.380012</v>
+        <v>0.382379</v>
       </c>
       <c r="E112" t="n">
-        <v>0.250557</v>
+        <v>0.253384</v>
       </c>
       <c r="F112" t="n">
-        <v>0.258268</v>
+        <v>0.260119</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.281905</v>
+        <v>0.28389</v>
       </c>
       <c r="C113" t="n">
-        <v>0.27719</v>
+        <v>0.279236</v>
       </c>
       <c r="D113" t="n">
-        <v>0.389365</v>
+        <v>0.391477</v>
       </c>
       <c r="E113" t="n">
-        <v>0.253437</v>
+        <v>0.255412</v>
       </c>
       <c r="F113" t="n">
-        <v>0.260052</v>
+        <v>0.261884</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.281584</v>
+        <v>0.283614</v>
       </c>
       <c r="C114" t="n">
-        <v>0.276799</v>
+        <v>0.27851</v>
       </c>
       <c r="D114" t="n">
-        <v>0.397468</v>
+        <v>0.399874</v>
       </c>
       <c r="E114" t="n">
-        <v>0.255918</v>
+        <v>0.258276</v>
       </c>
       <c r="F114" t="n">
-        <v>0.262381</v>
+        <v>0.26441</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.280947</v>
+        <v>0.284251</v>
       </c>
       <c r="C115" t="n">
-        <v>0.277524</v>
+        <v>0.280158</v>
       </c>
       <c r="D115" t="n">
-        <v>0.405137</v>
+        <v>0.407364</v>
       </c>
       <c r="E115" t="n">
-        <v>0.258479</v>
+        <v>0.260536</v>
       </c>
       <c r="F115" t="n">
-        <v>0.2653</v>
+        <v>0.26721</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.281871</v>
+        <v>0.283009</v>
       </c>
       <c r="C116" t="n">
-        <v>0.281108</v>
+        <v>0.281168</v>
       </c>
       <c r="D116" t="n">
-        <v>0.413389</v>
+        <v>0.415177</v>
       </c>
       <c r="E116" t="n">
-        <v>0.260935</v>
+        <v>0.263516</v>
       </c>
       <c r="F116" t="n">
-        <v>0.268572</v>
+        <v>0.270137</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.283246</v>
+        <v>0.285781</v>
       </c>
       <c r="C117" t="n">
-        <v>0.28066</v>
+        <v>0.282565</v>
       </c>
       <c r="D117" t="n">
-        <v>0.421704</v>
+        <v>0.424437</v>
       </c>
       <c r="E117" t="n">
-        <v>0.264595</v>
+        <v>0.266793</v>
       </c>
       <c r="F117" t="n">
-        <v>0.27155</v>
+        <v>0.273402</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.284208</v>
+        <v>0.282856</v>
       </c>
       <c r="C118" t="n">
-        <v>0.280505</v>
+        <v>0.283919</v>
       </c>
       <c r="D118" t="n">
-        <v>0.429909</v>
+        <v>0.432551</v>
       </c>
       <c r="E118" t="n">
-        <v>0.267285</v>
+        <v>0.269589</v>
       </c>
       <c r="F118" t="n">
-        <v>0.275156</v>
+        <v>0.277733</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.284476</v>
+        <v>0.284978</v>
       </c>
       <c r="C119" t="n">
-        <v>0.283389</v>
+        <v>0.284929</v>
       </c>
       <c r="D119" t="n">
-        <v>0.4429</v>
+        <v>0.445187</v>
       </c>
       <c r="E119" t="n">
-        <v>0.271006</v>
+        <v>0.273138</v>
       </c>
       <c r="F119" t="n">
-        <v>0.280737</v>
+        <v>0.282586</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.282146</v>
+        <v>0.28636</v>
       </c>
       <c r="C120" t="n">
-        <v>0.286394</v>
+        <v>0.288001</v>
       </c>
       <c r="D120" t="n">
-        <v>0.451751</v>
+        <v>0.454124</v>
       </c>
       <c r="E120" t="n">
-        <v>0.274567</v>
+        <v>0.276535</v>
       </c>
       <c r="F120" t="n">
-        <v>0.282145</v>
+        <v>0.284238</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.286561</v>
+        <v>0.286987</v>
       </c>
       <c r="C121" t="n">
-        <v>0.290438</v>
+        <v>0.290264</v>
       </c>
       <c r="D121" t="n">
-        <v>0.377814</v>
+        <v>0.380273</v>
       </c>
       <c r="E121" t="n">
-        <v>0.27969</v>
+        <v>0.281048</v>
       </c>
       <c r="F121" t="n">
-        <v>0.291013</v>
+        <v>0.291716</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.288644</v>
+        <v>0.289666</v>
       </c>
       <c r="C122" t="n">
-        <v>0.29447</v>
+        <v>0.295892</v>
       </c>
       <c r="D122" t="n">
-        <v>0.383252</v>
+        <v>0.384941</v>
       </c>
       <c r="E122" t="n">
-        <v>0.285981</v>
+        <v>0.288131</v>
       </c>
       <c r="F122" t="n">
-        <v>0.299173</v>
+        <v>0.301183</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.291667</v>
+        <v>0.293707</v>
       </c>
       <c r="C123" t="n">
-        <v>0.302398</v>
+        <v>0.303257</v>
       </c>
       <c r="D123" t="n">
-        <v>0.389096</v>
+        <v>0.390557</v>
       </c>
       <c r="E123" t="n">
-        <v>0.274394</v>
+        <v>0.276113</v>
       </c>
       <c r="F123" t="n">
-        <v>0.285087</v>
+        <v>0.287247</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.361116</v>
+        <v>0.364857</v>
       </c>
       <c r="C124" t="n">
-        <v>0.351647</v>
+        <v>0.353861</v>
       </c>
       <c r="D124" t="n">
-        <v>0.392776</v>
+        <v>0.395175</v>
       </c>
       <c r="E124" t="n">
-        <v>0.274589</v>
+        <v>0.276143</v>
       </c>
       <c r="F124" t="n">
-        <v>0.287322</v>
+        <v>0.289157</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.362061</v>
+        <v>0.365045</v>
       </c>
       <c r="C125" t="n">
-        <v>0.350667</v>
+        <v>0.353545</v>
       </c>
       <c r="D125" t="n">
-        <v>0.402151</v>
+        <v>0.404914</v>
       </c>
       <c r="E125" t="n">
-        <v>0.276639</v>
+        <v>0.278984</v>
       </c>
       <c r="F125" t="n">
-        <v>0.288553</v>
+        <v>0.290535</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.361983</v>
+        <v>0.36408</v>
       </c>
       <c r="C126" t="n">
-        <v>0.351839</v>
+        <v>0.353506</v>
       </c>
       <c r="D126" t="n">
-        <v>0.408893</v>
+        <v>0.411185</v>
       </c>
       <c r="E126" t="n">
-        <v>0.279577</v>
+        <v>0.282056</v>
       </c>
       <c r="F126" t="n">
-        <v>0.291163</v>
+        <v>0.293289</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.362594</v>
+        <v>0.364383</v>
       </c>
       <c r="C127" t="n">
-        <v>0.352917</v>
+        <v>0.354899</v>
       </c>
       <c r="D127" t="n">
-        <v>0.413964</v>
+        <v>0.416395</v>
       </c>
       <c r="E127" t="n">
-        <v>0.282221</v>
+        <v>0.28426</v>
       </c>
       <c r="F127" t="n">
-        <v>0.293746</v>
+        <v>0.295654</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.361638</v>
+        <v>0.36476</v>
       </c>
       <c r="C128" t="n">
-        <v>0.353255</v>
+        <v>0.35604</v>
       </c>
       <c r="D128" t="n">
-        <v>0.427507</v>
+        <v>0.430251</v>
       </c>
       <c r="E128" t="n">
-        <v>0.285292</v>
+        <v>0.287655</v>
       </c>
       <c r="F128" t="n">
-        <v>0.296285</v>
+        <v>0.298564</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.36257</v>
+        <v>0.364705</v>
       </c>
       <c r="C129" t="n">
-        <v>0.354036</v>
+        <v>0.357474</v>
       </c>
       <c r="D129" t="n">
-        <v>0.43413</v>
+        <v>0.43637</v>
       </c>
       <c r="E129" t="n">
-        <v>0.288261</v>
+        <v>0.290627</v>
       </c>
       <c r="F129" t="n">
-        <v>0.299677</v>
+        <v>0.30192</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.361494</v>
+        <v>0.363626</v>
       </c>
       <c r="C130" t="n">
-        <v>0.354692</v>
+        <v>0.357235</v>
       </c>
       <c r="D130" t="n">
-        <v>0.443167</v>
+        <v>0.44538</v>
       </c>
       <c r="E130" t="n">
-        <v>0.291599</v>
+        <v>0.293587</v>
       </c>
       <c r="F130" t="n">
-        <v>0.296206</v>
+        <v>0.298251</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.361015</v>
+        <v>0.363383</v>
       </c>
       <c r="C131" t="n">
-        <v>0.35565</v>
+        <v>0.358878</v>
       </c>
       <c r="D131" t="n">
-        <v>0.451471</v>
+        <v>0.453447</v>
       </c>
       <c r="E131" t="n">
-        <v>0.295446</v>
+        <v>0.297144</v>
       </c>
       <c r="F131" t="n">
-        <v>0.301986</v>
+        <v>0.304328</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.361798</v>
+        <v>0.36385</v>
       </c>
       <c r="C132" t="n">
-        <v>0.3591</v>
+        <v>0.360744</v>
       </c>
       <c r="D132" t="n">
-        <v>0.457071</v>
+        <v>0.459606</v>
       </c>
       <c r="E132" t="n">
-        <v>0.299514</v>
+        <v>0.30138</v>
       </c>
       <c r="F132" t="n">
-        <v>0.307205</v>
+        <v>0.309597</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.361959</v>
+        <v>0.365176</v>
       </c>
       <c r="C133" t="n">
-        <v>0.360186</v>
+        <v>0.363018</v>
       </c>
       <c r="D133" t="n">
-        <v>0.468647</v>
+        <v>0.471415</v>
       </c>
       <c r="E133" t="n">
-        <v>0.302924</v>
+        <v>0.304882</v>
       </c>
       <c r="F133" t="n">
-        <v>0.312819</v>
+        <v>0.315588</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.362238</v>
+        <v>0.365072</v>
       </c>
       <c r="C134" t="n">
-        <v>0.363012</v>
+        <v>0.365376</v>
       </c>
       <c r="D134" t="n">
-        <v>0.47869</v>
+        <v>0.4816</v>
       </c>
       <c r="E134" t="n">
-        <v>0.308151</v>
+        <v>0.310461</v>
       </c>
       <c r="F134" t="n">
-        <v>0.321806</v>
+        <v>0.324262</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.363496</v>
+        <v>0.365748</v>
       </c>
       <c r="C135" t="n">
-        <v>0.36633</v>
+        <v>0.369121</v>
       </c>
       <c r="D135" t="n">
-        <v>0.392373</v>
+        <v>0.395078</v>
       </c>
       <c r="E135" t="n">
-        <v>0.314574</v>
+        <v>0.316917</v>
       </c>
       <c r="F135" t="n">
-        <v>0.332792</v>
+        <v>0.335304</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.365368</v>
+        <v>0.36718</v>
       </c>
       <c r="C136" t="n">
-        <v>0.371731</v>
+        <v>0.375392</v>
       </c>
       <c r="D136" t="n">
-        <v>0.399126</v>
+        <v>0.400039</v>
       </c>
       <c r="E136" t="n">
-        <v>0.322945</v>
+        <v>0.325632</v>
       </c>
       <c r="F136" t="n">
-        <v>0.347293</v>
+        <v>0.349847</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.368885</v>
+        <v>0.370819</v>
       </c>
       <c r="C137" t="n">
-        <v>0.379257</v>
+        <v>0.383217</v>
       </c>
       <c r="D137" t="n">
-        <v>0.403436</v>
+        <v>0.404016</v>
       </c>
       <c r="E137" t="n">
-        <v>0.293668</v>
+        <v>0.296555</v>
       </c>
       <c r="F137" t="n">
-        <v>0.303913</v>
+        <v>0.307143</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.42577</v>
+        <v>0.429787</v>
       </c>
       <c r="C138" t="n">
-        <v>0.393753</v>
+        <v>0.397799</v>
       </c>
       <c r="D138" t="n">
-        <v>0.411044</v>
+        <v>0.413549</v>
       </c>
       <c r="E138" t="n">
-        <v>0.296049</v>
+        <v>0.298958</v>
       </c>
       <c r="F138" t="n">
-        <v>0.30615</v>
+        <v>0.308609</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.425501</v>
+        <v>0.429431</v>
       </c>
       <c r="C139" t="n">
-        <v>0.394275</v>
+        <v>0.397996</v>
       </c>
       <c r="D139" t="n">
-        <v>0.418727</v>
+        <v>0.418978</v>
       </c>
       <c r="E139" t="n">
-        <v>0.297869</v>
+        <v>0.300993</v>
       </c>
       <c r="F139" t="n">
-        <v>0.308433</v>
+        <v>0.310963</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.424836</v>
+        <v>0.428669</v>
       </c>
       <c r="C140" t="n">
-        <v>0.394843</v>
+        <v>0.397863</v>
       </c>
       <c r="D140" t="n">
-        <v>0.423754</v>
+        <v>0.426494</v>
       </c>
       <c r="E140" t="n">
-        <v>0.300337</v>
+        <v>0.302949</v>
       </c>
       <c r="F140" t="n">
-        <v>0.311261</v>
+        <v>0.313583</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.424396</v>
+        <v>0.429113</v>
       </c>
       <c r="C141" t="n">
-        <v>0.395683</v>
+        <v>0.398981</v>
       </c>
       <c r="D141" t="n">
-        <v>0.432623</v>
+        <v>0.435359</v>
       </c>
       <c r="E141" t="n">
-        <v>0.302297</v>
+        <v>0.305482</v>
       </c>
       <c r="F141" t="n">
-        <v>0.313681</v>
+        <v>0.316364</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.424703</v>
+        <v>0.428459</v>
       </c>
       <c r="C142" t="n">
-        <v>0.396825</v>
+        <v>0.400453</v>
       </c>
       <c r="D142" t="n">
-        <v>0.43866</v>
+        <v>0.441496</v>
       </c>
       <c r="E142" t="n">
-        <v>0.304286</v>
+        <v>0.302115</v>
       </c>
       <c r="F142" t="n">
-        <v>0.316511</v>
+        <v>0.319201</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.424615</v>
+        <v>0.428512</v>
       </c>
       <c r="C143" t="n">
-        <v>0.397653</v>
+        <v>0.400953</v>
       </c>
       <c r="D143" t="n">
-        <v>0.447707</v>
+        <v>0.450943</v>
       </c>
       <c r="E143" t="n">
-        <v>0.307313</v>
+        <v>0.310267</v>
       </c>
       <c r="F143" t="n">
-        <v>0.316806</v>
+        <v>0.322621</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0365221</v>
+        <v>0.0363226</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0371243</v>
+        <v>0.038206</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07277019999999999</v>
+        <v>0.0717798</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0367617</v>
+        <v>0.0373855</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0388622</v>
+        <v>0.038273</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0367866</v>
+        <v>0.0358683</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0368395</v>
+        <v>0.0376346</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0795009</v>
+        <v>0.0778205</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0368252</v>
+        <v>0.0375234</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0392868</v>
+        <v>0.0388517</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0366331</v>
+        <v>0.0357178</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0369895</v>
+        <v>0.0376335</v>
       </c>
       <c r="D4" t="n">
-        <v>0.086807</v>
+        <v>0.08873689999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0377191</v>
+        <v>0.0377973</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0390169</v>
+        <v>0.0388287</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0368039</v>
+        <v>0.0359086</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0371828</v>
+        <v>0.0379948</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09416529999999999</v>
+        <v>0.09499879999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0380671</v>
+        <v>0.0380756</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03945</v>
+        <v>0.0391182</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0365797</v>
+        <v>0.0361799</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0383385</v>
+        <v>0.0377813</v>
       </c>
       <c r="D6" t="n">
-        <v>0.10141</v>
+        <v>0.102755</v>
       </c>
       <c r="E6" t="n">
-        <v>0.037951</v>
+        <v>0.0387026</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0399683</v>
+        <v>0.0400813</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0371802</v>
+        <v>0.0363476</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0372345</v>
+        <v>0.0382638</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06273289999999999</v>
+        <v>0.0646182</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0382852</v>
+        <v>0.0416803</v>
       </c>
       <c r="F7" t="n">
-        <v>0.040345</v>
+        <v>0.0395768</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0373266</v>
+        <v>0.0364987</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0376417</v>
+        <v>0.0386105</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0661332</v>
+        <v>0.06812269999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0401081</v>
+        <v>0.0423049</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0420985</v>
+        <v>0.0398464</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0379697</v>
+        <v>0.0369116</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0382609</v>
+        <v>0.0394189</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0715031</v>
+        <v>0.0731062</v>
       </c>
       <c r="E9" t="n">
-        <v>0.038775</v>
+        <v>0.0424912</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0409998</v>
+        <v>0.0398122</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0428584</v>
+        <v>0.0444575</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0433156</v>
+        <v>0.0430201</v>
       </c>
       <c r="D10" t="n">
-        <v>0.07566589999999999</v>
+        <v>0.07714</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0396226</v>
+        <v>0.0426781</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0413211</v>
+        <v>0.0401647</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0431907</v>
+        <v>0.0443686</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0435501</v>
+        <v>0.0428754</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0823332</v>
+        <v>0.081454</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0398412</v>
+        <v>0.0419267</v>
       </c>
       <c r="F11" t="n">
-        <v>0.041315</v>
+        <v>0.0403295</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0431728</v>
+        <v>0.0445662</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0433038</v>
+        <v>0.043191</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0875026</v>
+        <v>0.0878978</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0401933</v>
+        <v>0.0429846</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0417016</v>
+        <v>0.0414639</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0431965</v>
+        <v>0.0444586</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0433627</v>
+        <v>0.0431885</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0914808</v>
+        <v>0.0926746</v>
       </c>
       <c r="E13" t="n">
-        <v>0.040606</v>
+        <v>0.0435789</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0418995</v>
+        <v>0.0408897</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0431305</v>
+        <v>0.0444916</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0432571</v>
+        <v>0.042866</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0972244</v>
+        <v>0.0968565</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0405778</v>
+        <v>0.0437622</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0421581</v>
+        <v>0.0410508</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0434225</v>
+        <v>0.0446748</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0435256</v>
+        <v>0.044645</v>
       </c>
       <c r="D15" t="n">
-        <v>0.102502</v>
+        <v>0.102153</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0409327</v>
+        <v>0.0433246</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0425915</v>
+        <v>0.0414992</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.043567</v>
+        <v>0.0449172</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0437175</v>
+        <v>0.0450931</v>
       </c>
       <c r="D16" t="n">
-        <v>0.107697</v>
+        <v>0.10765</v>
       </c>
       <c r="E16" t="n">
-        <v>0.041368</v>
+        <v>0.0447051</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0428653</v>
+        <v>0.0416383</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0439896</v>
+        <v>0.0450319</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0436962</v>
+        <v>0.0439815</v>
       </c>
       <c r="D17" t="n">
-        <v>0.112637</v>
+        <v>0.112231</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0416069</v>
+        <v>0.0439378</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0431235</v>
+        <v>0.0421937</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.043896</v>
+        <v>0.0447287</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0438252</v>
+        <v>0.0442092</v>
       </c>
       <c r="D18" t="n">
-        <v>0.117233</v>
+        <v>0.117345</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0418435</v>
+        <v>0.0448273</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0433745</v>
+        <v>0.0432823</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0439886</v>
+        <v>0.0454021</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0439148</v>
+        <v>0.0462211</v>
       </c>
       <c r="D19" t="n">
-        <v>0.121785</v>
+        <v>0.122477</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0420431</v>
+        <v>0.0452248</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0437107</v>
+        <v>0.043093</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0443742</v>
+        <v>0.0450289</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0440908</v>
+        <v>0.0457963</v>
       </c>
       <c r="D20" t="n">
-        <v>0.12527</v>
+        <v>0.125704</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0427174</v>
+        <v>0.0461759</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0441692</v>
+        <v>0.0451022</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0445888</v>
+        <v>0.0454516</v>
       </c>
       <c r="C21" t="n">
-        <v>0.044022</v>
+        <v>0.0459402</v>
       </c>
       <c r="D21" t="n">
-        <v>0.08899170000000001</v>
+        <v>0.0893366</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0446727</v>
+        <v>0.0467729</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0447869</v>
+        <v>0.0467161</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0451449</v>
+        <v>0.0454192</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0441595</v>
+        <v>0.0449812</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0918301</v>
+        <v>0.09203459999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0473862</v>
+        <v>0.0456685</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0485592</v>
+        <v>0.0473693</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0456581</v>
+        <v>0.0462052</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0449806</v>
+        <v>0.0450721</v>
       </c>
       <c r="D23" t="n">
-        <v>0.09490750000000001</v>
+        <v>0.0953705</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0460329</v>
+        <v>0.0470122</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0467465</v>
+        <v>0.0467367</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0489164</v>
+        <v>0.0491335</v>
       </c>
       <c r="C24" t="n">
-        <v>0.049829</v>
+        <v>0.0502822</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0988112</v>
+        <v>0.0985412</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0456725</v>
+        <v>0.0470851</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0466746</v>
+        <v>0.0477769</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0490255</v>
+        <v>0.0489509</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0498883</v>
+        <v>0.0502027</v>
       </c>
       <c r="D25" t="n">
-        <v>0.10189</v>
+        <v>0.102346</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0460452</v>
+        <v>0.0464357</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0468139</v>
+        <v>0.0480846</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0490199</v>
+        <v>0.0490343</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0500314</v>
+        <v>0.0506092</v>
       </c>
       <c r="D26" t="n">
-        <v>0.105655</v>
+        <v>0.10592</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0459852</v>
+        <v>0.0468878</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0471885</v>
+        <v>0.0475668</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0489209</v>
+        <v>0.0489925</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0501077</v>
+        <v>0.0505937</v>
       </c>
       <c r="D27" t="n">
-        <v>0.109707</v>
+        <v>0.110081</v>
       </c>
       <c r="E27" t="n">
-        <v>0.046474</v>
+        <v>0.0485615</v>
       </c>
       <c r="F27" t="n">
-        <v>0.047285</v>
+        <v>0.0485273</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0489238</v>
+        <v>0.0495778</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0502645</v>
+        <v>0.0506718</v>
       </c>
       <c r="D28" t="n">
-        <v>0.11389</v>
+        <v>0.113815</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0467539</v>
+        <v>0.0471974</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0477424</v>
+        <v>0.048687</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0492865</v>
+        <v>0.0496231</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0503238</v>
+        <v>0.0506046</v>
       </c>
       <c r="D29" t="n">
-        <v>0.117949</v>
+        <v>0.11806</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0469892</v>
+        <v>0.0484948</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0480637</v>
+        <v>0.048965</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0489679</v>
+        <v>0.0492269</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0499404</v>
+        <v>0.0507178</v>
       </c>
       <c r="D30" t="n">
-        <v>0.121789</v>
+        <v>0.122068</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0473946</v>
+        <v>0.0486757</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0478742</v>
+        <v>0.0485805</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0491404</v>
+        <v>0.0498498</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0505186</v>
+        <v>0.051038</v>
       </c>
       <c r="D31" t="n">
-        <v>0.125992</v>
+        <v>0.126288</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0475319</v>
+        <v>0.0493045</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0485287</v>
+        <v>0.0486249</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.049117</v>
+        <v>0.0499594</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0502546</v>
+        <v>0.0509997</v>
       </c>
       <c r="D32" t="n">
-        <v>0.129243</v>
+        <v>0.129688</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0480394</v>
+        <v>0.0487691</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0484367</v>
+        <v>0.0492555</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0495133</v>
+        <v>0.0500784</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0505069</v>
+        <v>0.0515864</v>
       </c>
       <c r="D33" t="n">
-        <v>0.132775</v>
+        <v>0.133299</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0481956</v>
+        <v>0.0500014</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0491031</v>
+        <v>0.0517329</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0494159</v>
+        <v>0.0502263</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0505382</v>
+        <v>0.0516247</v>
       </c>
       <c r="D34" t="n">
-        <v>0.135973</v>
+        <v>0.136694</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0490733</v>
+        <v>0.0557818</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0508531</v>
+        <v>0.0574144</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0499744</v>
+        <v>0.0503329</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0511794</v>
+        <v>0.0518702</v>
       </c>
       <c r="D35" t="n">
-        <v>0.09690790000000001</v>
+        <v>0.0966552</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0521483</v>
+        <v>0.0645807</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0540145</v>
+        <v>0.0664167</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0505759</v>
+        <v>0.0504925</v>
       </c>
       <c r="C36" t="n">
-        <v>0.051653</v>
+        <v>0.0523264</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0993439</v>
+        <v>0.0986495</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0589616</v>
+        <v>0.0503923</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0636094</v>
+        <v>0.0510771</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0541091</v>
+        <v>0.052382</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0558469</v>
+        <v>0.0552068</v>
       </c>
       <c r="D37" t="n">
-        <v>0.101514</v>
+        <v>0.101035</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0496575</v>
+        <v>0.0502158</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0502323</v>
+        <v>0.051252</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0547818</v>
+        <v>0.0544511</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0565301</v>
+        <v>0.0570862</v>
       </c>
       <c r="D38" t="n">
-        <v>0.104206</v>
+        <v>0.103952</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0493773</v>
+        <v>0.0511747</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0503719</v>
+        <v>0.0518226</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0536595</v>
+        <v>0.0548732</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0565595</v>
+        <v>0.056279</v>
       </c>
       <c r="D39" t="n">
-        <v>0.10719</v>
+        <v>0.106892</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0497035</v>
+        <v>0.0529916</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0508452</v>
+        <v>0.0519285</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0542496</v>
+        <v>0.0545554</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0567055</v>
+        <v>0.0572378</v>
       </c>
       <c r="D40" t="n">
-        <v>0.110384</v>
+        <v>0.1104</v>
       </c>
       <c r="E40" t="n">
-        <v>0.050037</v>
+        <v>0.0516444</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0511711</v>
+        <v>0.0522774</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.053756</v>
+        <v>0.0556762</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0567524</v>
+        <v>0.0569086</v>
       </c>
       <c r="D41" t="n">
-        <v>0.11373</v>
+        <v>0.113914</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0504902</v>
+        <v>0.0523324</v>
       </c>
       <c r="F41" t="n">
-        <v>0.051434</v>
+        <v>0.0527142</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0538374</v>
+        <v>0.054398</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0568492</v>
+        <v>0.057376</v>
       </c>
       <c r="D42" t="n">
-        <v>0.117301</v>
+        <v>0.117773</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0506038</v>
+        <v>0.0526937</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0517103</v>
+        <v>0.0528988</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0542126</v>
+        <v>0.0550229</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0569528</v>
+        <v>0.0577503</v>
       </c>
       <c r="D43" t="n">
-        <v>0.121247</v>
+        <v>0.121795</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0510081</v>
+        <v>0.0542372</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0518545</v>
+        <v>0.0535665</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0540499</v>
+        <v>0.054417</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0570106</v>
+        <v>0.0576545</v>
       </c>
       <c r="D44" t="n">
-        <v>0.125213</v>
+        <v>0.125836</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0512676</v>
+        <v>0.0547251</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0521142</v>
+        <v>0.0538419</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0543352</v>
+        <v>0.0540499</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0571714</v>
+        <v>0.058079</v>
       </c>
       <c r="D45" t="n">
-        <v>0.129066</v>
+        <v>0.129753</v>
       </c>
       <c r="E45" t="n">
-        <v>0.051807</v>
+        <v>0.0535894</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0526751</v>
+        <v>0.0541329</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0543384</v>
+        <v>0.0552144</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0572188</v>
+        <v>0.0584485</v>
       </c>
       <c r="D46" t="n">
-        <v>0.132701</v>
+        <v>0.13095</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0522683</v>
+        <v>0.0551934</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0533675</v>
+        <v>0.0561202</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0547001</v>
+        <v>0.0548818</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0573609</v>
+        <v>0.0578626</v>
       </c>
       <c r="D47" t="n">
-        <v>0.135836</v>
+        <v>0.135136</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0534122</v>
+        <v>0.0586411</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0551227</v>
+        <v>0.059855</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0552213</v>
+        <v>0.0563402</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0577841</v>
+        <v>0.057761</v>
       </c>
       <c r="D48" t="n">
-        <v>0.139559</v>
+        <v>0.140478</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0558111</v>
+        <v>0.0636583</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0585128</v>
+        <v>0.06443699999999999</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0561274</v>
+        <v>0.0564849</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0586327</v>
+        <v>0.0591136</v>
       </c>
       <c r="D49" t="n">
-        <v>0.142486</v>
+        <v>0.143563</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0603465</v>
+        <v>0.06986879999999999</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0627732</v>
+        <v>0.0708998</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.058919</v>
+        <v>0.0574579</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0609132</v>
+        <v>0.0613742</v>
       </c>
       <c r="D50" t="n">
-        <v>0.101425</v>
+        <v>0.100823</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0647534</v>
+        <v>0.0554313</v>
       </c>
       <c r="F50" t="n">
-        <v>0.06772830000000001</v>
+        <v>0.0544264</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0625619</v>
+        <v>0.0617716</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0638803</v>
+        <v>0.0652002</v>
       </c>
       <c r="D51" t="n">
-        <v>0.103741</v>
+        <v>0.103218</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0533481</v>
+        <v>0.0548278</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0529976</v>
+        <v>0.0546624</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0675364</v>
+        <v>0.0674334</v>
       </c>
       <c r="C52" t="n">
-        <v>0.07016890000000001</v>
+        <v>0.0718916</v>
       </c>
       <c r="D52" t="n">
-        <v>0.106202</v>
+        <v>0.105878</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0521401</v>
+        <v>0.0549793</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0535014</v>
+        <v>0.0549899</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.060812</v>
+        <v>0.0604553</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0632254</v>
+        <v>0.0636279</v>
       </c>
       <c r="D53" t="n">
-        <v>0.109041</v>
+        <v>0.108828</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0525015</v>
+        <v>0.0549512</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0536655</v>
+        <v>0.0555629</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0605871</v>
+        <v>0.0610105</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0631835</v>
+        <v>0.0636806</v>
       </c>
       <c r="D54" t="n">
-        <v>0.112039</v>
+        <v>0.112112</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0531454</v>
+        <v>0.0551209</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0538728</v>
+        <v>0.0557275</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.060684</v>
+        <v>0.0610939</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0633594</v>
+        <v>0.0639554</v>
       </c>
       <c r="D55" t="n">
-        <v>0.11552</v>
+        <v>0.115712</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0533273</v>
+        <v>0.055413</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0552748</v>
+        <v>0.0561108</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0606587</v>
+        <v>0.0607425</v>
       </c>
       <c r="C56" t="n">
-        <v>0.06420430000000001</v>
+        <v>0.0639903</v>
       </c>
       <c r="D56" t="n">
-        <v>0.119125</v>
+        <v>0.119778</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0538933</v>
+        <v>0.0565799</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0546292</v>
+        <v>0.0565492</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0605617</v>
+        <v>0.0612592</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0636945</v>
+        <v>0.0642583</v>
       </c>
       <c r="D57" t="n">
-        <v>0.123058</v>
+        <v>0.123794</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0541095</v>
+        <v>0.0586771</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0559701</v>
+        <v>0.057305</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0609978</v>
+        <v>0.0617602</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0640018</v>
+        <v>0.0645855</v>
       </c>
       <c r="D58" t="n">
-        <v>0.126778</v>
+        <v>0.12559</v>
       </c>
       <c r="E58" t="n">
-        <v>0.054872</v>
+        <v>0.0574611</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0558738</v>
+        <v>0.0580211</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0608842</v>
+        <v>0.0614958</v>
       </c>
       <c r="C59" t="n">
-        <v>0.06460299999999999</v>
+        <v>0.06481720000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>0.130485</v>
+        <v>0.129306</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0554849</v>
+        <v>0.0594291</v>
       </c>
       <c r="F59" t="n">
-        <v>0.057238</v>
+        <v>0.060767</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0610121</v>
+        <v>0.0615372</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0642596</v>
+        <v>0.0649076</v>
       </c>
       <c r="D60" t="n">
-        <v>0.134242</v>
+        <v>0.133359</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0568915</v>
+        <v>0.0620165</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0594979</v>
+        <v>0.0636877</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0615643</v>
+        <v>0.0617624</v>
       </c>
       <c r="C61" t="n">
-        <v>0.06469519999999999</v>
+        <v>0.0657064</v>
       </c>
       <c r="D61" t="n">
-        <v>0.138282</v>
+        <v>0.137843</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0587319</v>
+        <v>0.06556149999999999</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0609171</v>
+        <v>0.06708939999999999</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.062468</v>
+        <v>0.0621025</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0655304</v>
+        <v>0.0656723</v>
       </c>
       <c r="D62" t="n">
-        <v>0.141905</v>
+        <v>0.141531</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0610761</v>
+        <v>0.06916890000000001</v>
       </c>
       <c r="F62" t="n">
-        <v>0.06449530000000001</v>
+        <v>0.0708585</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.06436360000000001</v>
+        <v>0.0638678</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0671283</v>
+        <v>0.0680074</v>
       </c>
       <c r="D63" t="n">
-        <v>0.145218</v>
+        <v>0.144153</v>
       </c>
       <c r="E63" t="n">
-        <v>0.06401519999999999</v>
+        <v>0.0730432</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0682642</v>
+        <v>0.07690669999999999</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0660839</v>
+        <v>0.0654512</v>
       </c>
       <c r="C64" t="n">
-        <v>0.06958250000000001</v>
+        <v>0.070548</v>
       </c>
       <c r="D64" t="n">
-        <v>0.108961</v>
+        <v>0.107871</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0680465</v>
+        <v>0.0586902</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0734765</v>
+        <v>0.0601995</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.069179</v>
+        <v>0.0681295</v>
       </c>
       <c r="C65" t="n">
-        <v>0.07349559999999999</v>
+        <v>0.0742828</v>
       </c>
       <c r="D65" t="n">
-        <v>0.111479</v>
+        <v>0.112827</v>
       </c>
       <c r="E65" t="n">
-        <v>0.074304</v>
+        <v>0.0591326</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0802175</v>
+        <v>0.0607921</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.07234110000000001</v>
+        <v>0.0719953</v>
       </c>
       <c r="C66" t="n">
-        <v>0.07829609999999999</v>
+        <v>0.07929020000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>0.114536</v>
+        <v>0.115649</v>
       </c>
       <c r="E66" t="n">
-        <v>0.057201</v>
+        <v>0.059646</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0591688</v>
+        <v>0.0617482</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0725307</v>
+        <v>0.0726398</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0714371</v>
+        <v>0.0729511</v>
       </c>
       <c r="D67" t="n">
-        <v>0.118195</v>
+        <v>0.120305</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0558698</v>
+        <v>0.0600877</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0596128</v>
+        <v>0.0623769</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0721562</v>
+        <v>0.0727671</v>
       </c>
       <c r="C68" t="n">
-        <v>0.071966</v>
+        <v>0.07319580000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.12386</v>
+        <v>0.126755</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0564056</v>
+        <v>0.0605385</v>
       </c>
       <c r="F68" t="n">
-        <v>0.060876</v>
+        <v>0.0631791</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0730484</v>
+        <v>0.0737215</v>
       </c>
       <c r="C69" t="n">
-        <v>0.07241839999999999</v>
+        <v>0.07379429999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.129462</v>
+        <v>0.13392</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0568881</v>
+        <v>0.0599278</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0616001</v>
+        <v>0.0641606</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0736392</v>
+        <v>0.073647</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0728548</v>
+        <v>0.07439709999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>0.134865</v>
+        <v>0.138585</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0572095</v>
+        <v>0.0605335</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0626376</v>
+        <v>0.0653055</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0741223</v>
+        <v>0.07288260000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0734331</v>
+        <v>0.07538309999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>0.141469</v>
+        <v>0.14666</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0578573</v>
+        <v>0.0623752</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0644208</v>
+        <v>0.0667119</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.07244399999999999</v>
+        <v>0.0731412</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0738197</v>
+        <v>0.0765337</v>
       </c>
       <c r="D72" t="n">
-        <v>0.147469</v>
+        <v>0.155274</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0584412</v>
+        <v>0.0644521</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0661347</v>
+        <v>0.0690418</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.07366350000000001</v>
+        <v>0.0763944</v>
       </c>
       <c r="C73" t="n">
-        <v>0.07509929999999999</v>
+        <v>0.07765950000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>0.155398</v>
+        <v>0.166094</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0595144</v>
+        <v>0.0647189</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06774570000000001</v>
+        <v>0.071993</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0727252</v>
+        <v>0.0747155</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0758558</v>
+        <v>0.07840080000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>0.165805</v>
+        <v>0.173596</v>
       </c>
       <c r="E74" t="n">
-        <v>0.060855</v>
+        <v>0.0678342</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0701609</v>
+        <v>0.07539170000000001</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0732888</v>
+        <v>0.0751214</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0778423</v>
+        <v>0.0798809</v>
       </c>
       <c r="D75" t="n">
-        <v>0.175288</v>
+        <v>0.180653</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0622059</v>
+        <v>0.0696232</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0736892</v>
+        <v>0.0789903</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.07415140000000001</v>
+        <v>0.0753153</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0796775</v>
+        <v>0.08108940000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>0.181092</v>
+        <v>0.192445</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0643213</v>
+        <v>0.0728292</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0770333</v>
+        <v>0.0839425</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0741666</v>
+        <v>0.07782310000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0815179</v>
+        <v>0.0838121</v>
       </c>
       <c r="D77" t="n">
-        <v>0.192976</v>
+        <v>0.204626</v>
       </c>
       <c r="E77" t="n">
-        <v>0.06694410000000001</v>
+        <v>0.07780049999999999</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0814694</v>
+        <v>0.0912269</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0789714</v>
+        <v>0.0798215</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0842248</v>
+        <v>0.0877117</v>
       </c>
       <c r="D78" t="n">
-        <v>0.188649</v>
+        <v>0.204497</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0708372</v>
+        <v>0.0843411</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0872662</v>
+        <v>0.100339</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0814439</v>
+        <v>0.0811003</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0885104</v>
+        <v>0.0915681</v>
       </c>
       <c r="D79" t="n">
-        <v>0.194407</v>
+        <v>0.21151</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0763923</v>
+        <v>0.09509239999999999</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0950201</v>
+        <v>0.109541</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0857024</v>
+        <v>0.0853665</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0939459</v>
+        <v>0.097978</v>
       </c>
       <c r="D80" t="n">
-        <v>0.203188</v>
+        <v>0.214508</v>
       </c>
       <c r="E80" t="n">
-        <v>0.102031</v>
+        <v>0.109416</v>
       </c>
       <c r="F80" t="n">
-        <v>0.10238</v>
+        <v>0.110321</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.172411</v>
+        <v>0.190097</v>
       </c>
       <c r="C81" t="n">
-        <v>0.140509</v>
+        <v>0.15518</v>
       </c>
       <c r="D81" t="n">
-        <v>0.212274</v>
+        <v>0.222878</v>
       </c>
       <c r="E81" t="n">
-        <v>0.106537</v>
+        <v>0.11151</v>
       </c>
       <c r="F81" t="n">
-        <v>0.103456</v>
+        <v>0.111464</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.174134</v>
+        <v>0.1894</v>
       </c>
       <c r="C82" t="n">
-        <v>0.141199</v>
+        <v>0.1563</v>
       </c>
       <c r="D82" t="n">
-        <v>0.219165</v>
+        <v>0.236514</v>
       </c>
       <c r="E82" t="n">
-        <v>0.108938</v>
+        <v>0.103644</v>
       </c>
       <c r="F82" t="n">
-        <v>0.104155</v>
+        <v>0.11274</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.174591</v>
+        <v>0.190604</v>
       </c>
       <c r="C83" t="n">
-        <v>0.141947</v>
+        <v>0.156414</v>
       </c>
       <c r="D83" t="n">
-        <v>0.227998</v>
+        <v>0.24985</v>
       </c>
       <c r="E83" t="n">
-        <v>0.109352</v>
+        <v>0.11579</v>
       </c>
       <c r="F83" t="n">
-        <v>0.105373</v>
+        <v>0.113369</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.175618</v>
+        <v>0.191124</v>
       </c>
       <c r="C84" t="n">
-        <v>0.143203</v>
+        <v>0.156899</v>
       </c>
       <c r="D84" t="n">
-        <v>0.238356</v>
+        <v>0.257801</v>
       </c>
       <c r="E84" t="n">
-        <v>0.112469</v>
+        <v>0.10998</v>
       </c>
       <c r="F84" t="n">
-        <v>0.106218</v>
+        <v>0.114556</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.177372</v>
+        <v>0.192168</v>
       </c>
       <c r="C85" t="n">
-        <v>0.142893</v>
+        <v>0.158219</v>
       </c>
       <c r="D85" t="n">
-        <v>0.250935</v>
+        <v>0.268636</v>
       </c>
       <c r="E85" t="n">
-        <v>0.113632</v>
+        <v>0.117721</v>
       </c>
       <c r="F85" t="n">
-        <v>0.10715</v>
+        <v>0.110884</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.176718</v>
+        <v>0.19315</v>
       </c>
       <c r="C86" t="n">
-        <v>0.144265</v>
+        <v>0.158917</v>
       </c>
       <c r="D86" t="n">
-        <v>0.257872</v>
+        <v>0.281184</v>
       </c>
       <c r="E86" t="n">
-        <v>0.115698</v>
+        <v>0.112436</v>
       </c>
       <c r="F86" t="n">
-        <v>0.108312</v>
+        <v>0.113347</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.177023</v>
+        <v>0.193166</v>
       </c>
       <c r="C87" t="n">
-        <v>0.144798</v>
+        <v>0.159701</v>
       </c>
       <c r="D87" t="n">
-        <v>0.271159</v>
+        <v>0.293208</v>
       </c>
       <c r="E87" t="n">
-        <v>0.116807</v>
+        <v>0.116007</v>
       </c>
       <c r="F87" t="n">
-        <v>0.110335</v>
+        <v>0.118294</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.177794</v>
+        <v>0.194057</v>
       </c>
       <c r="C88" t="n">
-        <v>0.145624</v>
+        <v>0.160504</v>
       </c>
       <c r="D88" t="n">
-        <v>0.279253</v>
+        <v>0.306289</v>
       </c>
       <c r="E88" t="n">
-        <v>0.12012</v>
+        <v>0.120332</v>
       </c>
       <c r="F88" t="n">
-        <v>0.114873</v>
+        <v>0.118768</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.178511</v>
+        <v>0.194861</v>
       </c>
       <c r="C89" t="n">
-        <v>0.147081</v>
+        <v>0.158512</v>
       </c>
       <c r="D89" t="n">
-        <v>0.289369</v>
+        <v>0.311274</v>
       </c>
       <c r="E89" t="n">
-        <v>0.122547</v>
+        <v>0.123265</v>
       </c>
       <c r="F89" t="n">
-        <v>0.114549</v>
+        <v>0.123756</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.178767</v>
+        <v>0.195168</v>
       </c>
       <c r="C90" t="n">
-        <v>0.148207</v>
+        <v>0.16313</v>
       </c>
       <c r="D90" t="n">
-        <v>0.298806</v>
+        <v>0.324453</v>
       </c>
       <c r="E90" t="n">
-        <v>0.124755</v>
+        <v>0.132132</v>
       </c>
       <c r="F90" t="n">
-        <v>0.119444</v>
+        <v>0.127148</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.18037</v>
+        <v>0.196902</v>
       </c>
       <c r="C91" t="n">
-        <v>0.151717</v>
+        <v>0.163426</v>
       </c>
       <c r="D91" t="n">
-        <v>0.30835</v>
+        <v>0.33555</v>
       </c>
       <c r="E91" t="n">
-        <v>0.128828</v>
+        <v>0.135273</v>
       </c>
       <c r="F91" t="n">
-        <v>0.12017</v>
+        <v>0.131268</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.182469</v>
+        <v>0.198768</v>
       </c>
       <c r="C92" t="n">
-        <v>0.152269</v>
+        <v>0.163921</v>
       </c>
       <c r="D92" t="n">
-        <v>0.287988</v>
+        <v>0.317701</v>
       </c>
       <c r="E92" t="n">
-        <v>0.131995</v>
+        <v>0.138152</v>
       </c>
       <c r="F92" t="n">
-        <v>0.12708</v>
+        <v>0.143836</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.18323</v>
+        <v>0.199273</v>
       </c>
       <c r="C93" t="n">
-        <v>0.157817</v>
+        <v>0.170808</v>
       </c>
       <c r="D93" t="n">
-        <v>0.293038</v>
+        <v>0.324258</v>
       </c>
       <c r="E93" t="n">
-        <v>0.136428</v>
+        <v>0.229129</v>
       </c>
       <c r="F93" t="n">
-        <v>0.132176</v>
+        <v>0.216586</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.185314</v>
+        <v>0.201697</v>
       </c>
       <c r="C94" t="n">
-        <v>0.162595</v>
+        <v>0.175559</v>
       </c>
       <c r="D94" t="n">
-        <v>0.298972</v>
+        <v>0.332307</v>
       </c>
       <c r="E94" t="n">
-        <v>0.205224</v>
+        <v>0.220681</v>
       </c>
       <c r="F94" t="n">
-        <v>0.199571</v>
+        <v>0.217439</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.243186</v>
+        <v>0.268097</v>
       </c>
       <c r="C95" t="n">
-        <v>0.221062</v>
+        <v>0.244589</v>
       </c>
       <c r="D95" t="n">
-        <v>0.305169</v>
+        <v>0.338181</v>
       </c>
       <c r="E95" t="n">
-        <v>0.209872</v>
+        <v>0.22254</v>
       </c>
       <c r="F95" t="n">
-        <v>0.200609</v>
+        <v>0.218605</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.243707</v>
+        <v>0.268001</v>
       </c>
       <c r="C96" t="n">
-        <v>0.221355</v>
+        <v>0.24487</v>
       </c>
       <c r="D96" t="n">
-        <v>0.317332</v>
+        <v>0.34433</v>
       </c>
       <c r="E96" t="n">
-        <v>0.208868</v>
+        <v>0.22446</v>
       </c>
       <c r="F96" t="n">
-        <v>0.20181</v>
+        <v>0.219521</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.244167</v>
+        <v>0.268692</v>
       </c>
       <c r="C97" t="n">
-        <v>0.221718</v>
+        <v>0.245086</v>
       </c>
       <c r="D97" t="n">
-        <v>0.323202</v>
+        <v>0.354095</v>
       </c>
       <c r="E97" t="n">
-        <v>0.210798</v>
+        <v>0.225882</v>
       </c>
       <c r="F97" t="n">
-        <v>0.202603</v>
+        <v>0.221535</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.243906</v>
+        <v>0.268287</v>
       </c>
       <c r="C98" t="n">
-        <v>0.221937</v>
+        <v>0.245969</v>
       </c>
       <c r="D98" t="n">
-        <v>0.332279</v>
+        <v>0.360361</v>
       </c>
       <c r="E98" t="n">
-        <v>0.212165</v>
+        <v>0.236551</v>
       </c>
       <c r="F98" t="n">
-        <v>0.203898</v>
+        <v>0.222677</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.243829</v>
+        <v>0.268838</v>
       </c>
       <c r="C99" t="n">
-        <v>0.22233</v>
+        <v>0.245925</v>
       </c>
       <c r="D99" t="n">
-        <v>0.340037</v>
+        <v>0.372968</v>
       </c>
       <c r="E99" t="n">
-        <v>0.214454</v>
+        <v>0.238748</v>
       </c>
       <c r="F99" t="n">
-        <v>0.205097</v>
+        <v>0.223683</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.244595</v>
+        <v>0.268886</v>
       </c>
       <c r="C100" t="n">
-        <v>0.222892</v>
+        <v>0.246495</v>
       </c>
       <c r="D100" t="n">
-        <v>0.347827</v>
+        <v>0.384007</v>
       </c>
       <c r="E100" t="n">
-        <v>0.215574</v>
+        <v>0.232937</v>
       </c>
       <c r="F100" t="n">
-        <v>0.207788</v>
+        <v>0.225104</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.244716</v>
+        <v>0.26915</v>
       </c>
       <c r="C101" t="n">
-        <v>0.223381</v>
+        <v>0.247012</v>
       </c>
       <c r="D101" t="n">
-        <v>0.357851</v>
+        <v>0.392226</v>
       </c>
       <c r="E101" t="n">
-        <v>0.218227</v>
+        <v>0.242429</v>
       </c>
       <c r="F101" t="n">
-        <v>0.207833</v>
+        <v>0.226931</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.244508</v>
+        <v>0.269271</v>
       </c>
       <c r="C102" t="n">
-        <v>0.22409</v>
+        <v>0.247792</v>
       </c>
       <c r="D102" t="n">
-        <v>0.366883</v>
+        <v>0.402036</v>
       </c>
       <c r="E102" t="n">
-        <v>0.219519</v>
+        <v>0.244184</v>
       </c>
       <c r="F102" t="n">
-        <v>0.21169</v>
+        <v>0.229424</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.24507</v>
+        <v>0.268832</v>
       </c>
       <c r="C103" t="n">
-        <v>0.225299</v>
+        <v>0.24892</v>
       </c>
       <c r="D103" t="n">
-        <v>0.377215</v>
+        <v>0.411262</v>
       </c>
       <c r="E103" t="n">
-        <v>0.223006</v>
+        <v>0.240145</v>
       </c>
       <c r="F103" t="n">
-        <v>0.211558</v>
+        <v>0.232143</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.24469</v>
+        <v>0.269487</v>
       </c>
       <c r="C104" t="n">
-        <v>0.226785</v>
+        <v>0.250086</v>
       </c>
       <c r="D104" t="n">
-        <v>0.38538</v>
+        <v>0.421094</v>
       </c>
       <c r="E104" t="n">
-        <v>0.223725</v>
+        <v>0.242928</v>
       </c>
       <c r="F104" t="n">
-        <v>0.214739</v>
+        <v>0.23656</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.245528</v>
+        <v>0.270943</v>
       </c>
       <c r="C105" t="n">
-        <v>0.22841</v>
+        <v>0.251849</v>
       </c>
       <c r="D105" t="n">
-        <v>0.395486</v>
+        <v>0.432729</v>
       </c>
       <c r="E105" t="n">
-        <v>0.22704</v>
+        <v>0.247315</v>
       </c>
       <c r="F105" t="n">
-        <v>0.217319</v>
+        <v>0.240746</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.246472</v>
+        <v>0.272767</v>
       </c>
       <c r="C106" t="n">
-        <v>0.230755</v>
+        <v>0.255072</v>
       </c>
       <c r="D106" t="n">
-        <v>0.40519</v>
+        <v>0.443054</v>
       </c>
       <c r="E106" t="n">
-        <v>0.229866</v>
+        <v>0.257773</v>
       </c>
       <c r="F106" t="n">
-        <v>0.222266</v>
+        <v>0.249742</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.247837</v>
+        <v>0.273138</v>
       </c>
       <c r="C107" t="n">
-        <v>0.234472</v>
+        <v>0.257457</v>
       </c>
       <c r="D107" t="n">
-        <v>0.349499</v>
+        <v>0.380878</v>
       </c>
       <c r="E107" t="n">
-        <v>0.23382</v>
+        <v>0.290544</v>
       </c>
       <c r="F107" t="n">
-        <v>0.227214</v>
+        <v>0.276797</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.251079</v>
+        <v>0.27586</v>
       </c>
       <c r="C108" t="n">
-        <v>0.239282</v>
+        <v>0.26321</v>
       </c>
       <c r="D108" t="n">
-        <v>0.355888</v>
+        <v>0.387194</v>
       </c>
       <c r="E108" t="n">
-        <v>0.251015</v>
+        <v>0.293193</v>
       </c>
       <c r="F108" t="n">
-        <v>0.251471</v>
+        <v>0.278428</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.254875</v>
+        <v>0.280519</v>
       </c>
       <c r="C109" t="n">
-        <v>0.247764</v>
+        <v>0.272346</v>
       </c>
       <c r="D109" t="n">
-        <v>0.356718</v>
+        <v>0.393964</v>
       </c>
       <c r="E109" t="n">
-        <v>0.252551</v>
+        <v>0.295646</v>
       </c>
       <c r="F109" t="n">
-        <v>0.252298</v>
+        <v>0.280685</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.280712</v>
+        <v>0.309043</v>
       </c>
       <c r="C110" t="n">
-        <v>0.275545</v>
+        <v>0.306644</v>
       </c>
       <c r="D110" t="n">
-        <v>0.364107</v>
+        <v>0.40033</v>
       </c>
       <c r="E110" t="n">
-        <v>0.248802</v>
+        <v>0.298892</v>
       </c>
       <c r="F110" t="n">
-        <v>0.254095</v>
+        <v>0.281886</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.280767</v>
+        <v>0.309578</v>
       </c>
       <c r="C111" t="n">
-        <v>0.275292</v>
+        <v>0.306161</v>
       </c>
       <c r="D111" t="n">
-        <v>0.37519</v>
+        <v>0.40778</v>
       </c>
       <c r="E111" t="n">
-        <v>0.250726</v>
+        <v>0.300664</v>
       </c>
       <c r="F111" t="n">
-        <v>0.255476</v>
+        <v>0.283848</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.280894</v>
+        <v>0.307723</v>
       </c>
       <c r="C112" t="n">
-        <v>0.275327</v>
+        <v>0.304467</v>
       </c>
       <c r="D112" t="n">
-        <v>0.379342</v>
+        <v>0.419533</v>
       </c>
       <c r="E112" t="n">
-        <v>0.249994</v>
+        <v>0.302913</v>
       </c>
       <c r="F112" t="n">
-        <v>0.256977</v>
+        <v>0.286141</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.28078</v>
+        <v>0.309389</v>
       </c>
       <c r="C113" t="n">
-        <v>0.275115</v>
+        <v>0.306992</v>
       </c>
       <c r="D113" t="n">
-        <v>0.388319</v>
+        <v>0.428569</v>
       </c>
       <c r="E113" t="n">
-        <v>0.252615</v>
+        <v>0.305584</v>
       </c>
       <c r="F113" t="n">
-        <v>0.259328</v>
+        <v>0.288456</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.28247</v>
+        <v>0.309368</v>
       </c>
       <c r="C114" t="n">
-        <v>0.277337</v>
+        <v>0.306628</v>
       </c>
       <c r="D114" t="n">
-        <v>0.396501</v>
+        <v>0.437452</v>
       </c>
       <c r="E114" t="n">
-        <v>0.255505</v>
+        <v>0.308719</v>
       </c>
       <c r="F114" t="n">
-        <v>0.262264</v>
+        <v>0.292611</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.281517</v>
+        <v>0.309213</v>
       </c>
       <c r="C115" t="n">
-        <v>0.277584</v>
+        <v>0.307776</v>
       </c>
       <c r="D115" t="n">
-        <v>0.404189</v>
+        <v>0.445184</v>
       </c>
       <c r="E115" t="n">
-        <v>0.258118</v>
+        <v>0.311456</v>
       </c>
       <c r="F115" t="n">
-        <v>0.264968</v>
+        <v>0.294792</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.280868</v>
+        <v>0.309596</v>
       </c>
       <c r="C116" t="n">
-        <v>0.278355</v>
+        <v>0.311462</v>
       </c>
       <c r="D116" t="n">
-        <v>0.411981</v>
+        <v>0.457893</v>
       </c>
       <c r="E116" t="n">
-        <v>0.260795</v>
+        <v>0.314128</v>
       </c>
       <c r="F116" t="n">
-        <v>0.267595</v>
+        <v>0.299323</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.281654</v>
+        <v>0.310193</v>
       </c>
       <c r="C117" t="n">
-        <v>0.279953</v>
+        <v>0.310971</v>
       </c>
       <c r="D117" t="n">
-        <v>0.421089</v>
+        <v>0.466332</v>
       </c>
       <c r="E117" t="n">
-        <v>0.264037</v>
+        <v>0.317513</v>
       </c>
       <c r="F117" t="n">
-        <v>0.271225</v>
+        <v>0.304296</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.283037</v>
+        <v>0.311466</v>
       </c>
       <c r="C118" t="n">
-        <v>0.282238</v>
+        <v>0.311111</v>
       </c>
       <c r="D118" t="n">
-        <v>0.429154</v>
+        <v>0.474666</v>
       </c>
       <c r="E118" t="n">
-        <v>0.266681</v>
+        <v>0.322003</v>
       </c>
       <c r="F118" t="n">
-        <v>0.274928</v>
+        <v>0.309862</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.282042</v>
+        <v>0.313606</v>
       </c>
       <c r="C119" t="n">
-        <v>0.283199</v>
+        <v>0.312816</v>
       </c>
       <c r="D119" t="n">
-        <v>0.442056</v>
+        <v>0.484654</v>
       </c>
       <c r="E119" t="n">
-        <v>0.270218</v>
+        <v>0.327873</v>
       </c>
       <c r="F119" t="n">
-        <v>0.280075</v>
+        <v>0.317815</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.282604</v>
+        <v>0.313502</v>
       </c>
       <c r="C120" t="n">
-        <v>0.285829</v>
+        <v>0.317665</v>
       </c>
       <c r="D120" t="n">
-        <v>0.450895</v>
+        <v>0.497304</v>
       </c>
       <c r="E120" t="n">
-        <v>0.274295</v>
+        <v>0.33412</v>
       </c>
       <c r="F120" t="n">
-        <v>0.28124</v>
+        <v>0.327898</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.28528</v>
+        <v>0.314901</v>
       </c>
       <c r="C121" t="n">
-        <v>0.28845</v>
+        <v>0.321351</v>
       </c>
       <c r="D121" t="n">
-        <v>0.376608</v>
+        <v>0.411498</v>
       </c>
       <c r="E121" t="n">
-        <v>0.279318</v>
+        <v>0.330488</v>
       </c>
       <c r="F121" t="n">
-        <v>0.288505</v>
+        <v>0.314087</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.286728</v>
+        <v>0.315706</v>
       </c>
       <c r="C122" t="n">
-        <v>0.29506</v>
+        <v>0.325079</v>
       </c>
       <c r="D122" t="n">
-        <v>0.382425</v>
+        <v>0.417132</v>
       </c>
       <c r="E122" t="n">
-        <v>0.285524</v>
+        <v>0.33324</v>
       </c>
       <c r="F122" t="n">
-        <v>0.29863</v>
+        <v>0.316081</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.291815</v>
+        <v>0.322021</v>
       </c>
       <c r="C123" t="n">
-        <v>0.301742</v>
+        <v>0.33346</v>
       </c>
       <c r="D123" t="n">
-        <v>0.387783</v>
+        <v>0.42305</v>
       </c>
       <c r="E123" t="n">
-        <v>0.273756</v>
+        <v>0.336855</v>
       </c>
       <c r="F123" t="n">
-        <v>0.284302</v>
+        <v>0.318226</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.360413</v>
+        <v>0.399987</v>
       </c>
       <c r="C124" t="n">
-        <v>0.350184</v>
+        <v>0.390155</v>
       </c>
       <c r="D124" t="n">
-        <v>0.392151</v>
+        <v>0.432337</v>
       </c>
       <c r="E124" t="n">
-        <v>0.273866</v>
+        <v>0.339536</v>
       </c>
       <c r="F124" t="n">
-        <v>0.286285</v>
+        <v>0.320543</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.360084</v>
+        <v>0.400443</v>
       </c>
       <c r="C125" t="n">
-        <v>0.351007</v>
+        <v>0.390481</v>
       </c>
       <c r="D125" t="n">
-        <v>0.401649</v>
+        <v>0.439725</v>
       </c>
       <c r="E125" t="n">
-        <v>0.276444</v>
+        <v>0.343341</v>
       </c>
       <c r="F125" t="n">
-        <v>0.288227</v>
+        <v>0.323548</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.361988</v>
+        <v>0.402589</v>
       </c>
       <c r="C126" t="n">
-        <v>0.35121</v>
+        <v>0.391789</v>
       </c>
       <c r="D126" t="n">
-        <v>0.40851</v>
+        <v>0.45079</v>
       </c>
       <c r="E126" t="n">
-        <v>0.279376</v>
+        <v>0.346035</v>
       </c>
       <c r="F126" t="n">
-        <v>0.290486</v>
+        <v>0.32627</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.361804</v>
+        <v>0.400535</v>
       </c>
       <c r="C127" t="n">
-        <v>0.352234</v>
+        <v>0.392295</v>
       </c>
       <c r="D127" t="n">
-        <v>0.413419</v>
+        <v>0.458352</v>
       </c>
       <c r="E127" t="n">
-        <v>0.282202</v>
+        <v>0.349709</v>
       </c>
       <c r="F127" t="n">
-        <v>0.293098</v>
+        <v>0.329485</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.361712</v>
+        <v>0.401281</v>
       </c>
       <c r="C128" t="n">
-        <v>0.352083</v>
+        <v>0.391998</v>
       </c>
       <c r="D128" t="n">
-        <v>0.427285</v>
+        <v>0.462364</v>
       </c>
       <c r="E128" t="n">
-        <v>0.285154</v>
+        <v>0.353855</v>
       </c>
       <c r="F128" t="n">
-        <v>0.296339</v>
+        <v>0.332808</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.360992</v>
+        <v>0.401212</v>
       </c>
       <c r="C129" t="n">
-        <v>0.353485</v>
+        <v>0.394125</v>
       </c>
       <c r="D129" t="n">
-        <v>0.433478</v>
+        <v>0.474748</v>
       </c>
       <c r="E129" t="n">
-        <v>0.288084</v>
+        <v>0.357442</v>
       </c>
       <c r="F129" t="n">
-        <v>0.299342</v>
+        <v>0.337442</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.360453</v>
+        <v>0.400865</v>
       </c>
       <c r="C130" t="n">
-        <v>0.354926</v>
+        <v>0.394668</v>
       </c>
       <c r="D130" t="n">
-        <v>0.44282</v>
+        <v>0.482485</v>
       </c>
       <c r="E130" t="n">
-        <v>0.291402</v>
+        <v>0.362094</v>
       </c>
       <c r="F130" t="n">
-        <v>0.296308</v>
+        <v>0.342879</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.361655</v>
+        <v>0.399933</v>
       </c>
       <c r="C131" t="n">
-        <v>0.355659</v>
+        <v>0.396986</v>
       </c>
       <c r="D131" t="n">
-        <v>0.450654</v>
+        <v>0.490962</v>
       </c>
       <c r="E131" t="n">
-        <v>0.295177</v>
+        <v>0.367066</v>
       </c>
       <c r="F131" t="n">
-        <v>0.301085</v>
+        <v>0.349102</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.360622</v>
+        <v>0.400127</v>
       </c>
       <c r="C132" t="n">
-        <v>0.357297</v>
+        <v>0.397328</v>
       </c>
       <c r="D132" t="n">
-        <v>0.456556</v>
+        <v>0.501304</v>
       </c>
       <c r="E132" t="n">
-        <v>0.298619</v>
+        <v>0.371603</v>
       </c>
       <c r="F132" t="n">
-        <v>0.30629</v>
+        <v>0.357112</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.360835</v>
+        <v>0.40147</v>
       </c>
       <c r="C133" t="n">
-        <v>0.359755</v>
+        <v>0.400611</v>
       </c>
       <c r="D133" t="n">
-        <v>0.468503</v>
+        <v>0.513328</v>
       </c>
       <c r="E133" t="n">
-        <v>0.303067</v>
+        <v>0.3787</v>
       </c>
       <c r="F133" t="n">
-        <v>0.312221</v>
+        <v>0.367368</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.36185</v>
+        <v>0.402933</v>
       </c>
       <c r="C134" t="n">
-        <v>0.36245</v>
+        <v>0.403439</v>
       </c>
       <c r="D134" t="n">
-        <v>0.478435</v>
+        <v>0.523916</v>
       </c>
       <c r="E134" t="n">
-        <v>0.307928</v>
+        <v>0.387671</v>
       </c>
       <c r="F134" t="n">
-        <v>0.321565</v>
+        <v>0.381155</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.362117</v>
+        <v>0.404242</v>
       </c>
       <c r="C135" t="n">
-        <v>0.365996</v>
+        <v>0.407942</v>
       </c>
       <c r="D135" t="n">
-        <v>0.392264</v>
+        <v>0.430561</v>
       </c>
       <c r="E135" t="n">
-        <v>0.31403</v>
+        <v>0.351833</v>
       </c>
       <c r="F135" t="n">
-        <v>0.332319</v>
+        <v>0.337492</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.364489</v>
+        <v>0.405976</v>
       </c>
       <c r="C136" t="n">
-        <v>0.370591</v>
+        <v>0.413122</v>
       </c>
       <c r="D136" t="n">
-        <v>0.398898</v>
+        <v>0.435466</v>
       </c>
       <c r="E136" t="n">
-        <v>0.322787</v>
+        <v>0.355111</v>
       </c>
       <c r="F136" t="n">
-        <v>0.34704</v>
+        <v>0.339244</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.368352</v>
+        <v>0.409485</v>
       </c>
       <c r="C137" t="n">
-        <v>0.379589</v>
+        <v>0.420575</v>
       </c>
       <c r="D137" t="n">
-        <v>0.403357</v>
+        <v>0.441591</v>
       </c>
       <c r="E137" t="n">
-        <v>0.293805</v>
+        <v>0.359363</v>
       </c>
       <c r="F137" t="n">
-        <v>0.304706</v>
+        <v>0.343444</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.425079</v>
+        <v>0.471023</v>
       </c>
       <c r="C138" t="n">
-        <v>0.394571</v>
+        <v>0.439225</v>
       </c>
       <c r="D138" t="n">
-        <v>0.410777</v>
+        <v>0.443584</v>
       </c>
       <c r="E138" t="n">
-        <v>0.296123</v>
+        <v>0.363204</v>
       </c>
       <c r="F138" t="n">
-        <v>0.306536</v>
+        <v>0.345044</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.425541</v>
+        <v>0.465353</v>
       </c>
       <c r="C139" t="n">
-        <v>0.394764</v>
+        <v>0.439891</v>
       </c>
       <c r="D139" t="n">
-        <v>0.418694</v>
+        <v>0.457881</v>
       </c>
       <c r="E139" t="n">
-        <v>0.2985</v>
+        <v>0.365086</v>
       </c>
       <c r="F139" t="n">
-        <v>0.309018</v>
+        <v>0.348409</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.425567</v>
+        <v>0.465721</v>
       </c>
       <c r="C140" t="n">
-        <v>0.395236</v>
+        <v>0.440715</v>
       </c>
       <c r="D140" t="n">
-        <v>0.423651</v>
+        <v>0.464436</v>
       </c>
       <c r="E140" t="n">
-        <v>0.300476</v>
+        <v>0.370109</v>
       </c>
       <c r="F140" t="n">
-        <v>0.311622</v>
+        <v>0.351328</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.425855</v>
+        <v>0.47234</v>
       </c>
       <c r="C141" t="n">
-        <v>0.396658</v>
+        <v>0.441329</v>
       </c>
       <c r="D141" t="n">
-        <v>0.432709</v>
+        <v>0.473027</v>
       </c>
       <c r="E141" t="n">
-        <v>0.302672</v>
+        <v>0.374111</v>
       </c>
       <c r="F141" t="n">
-        <v>0.313944</v>
+        <v>0.354972</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.425552</v>
+        <v>0.471868</v>
       </c>
       <c r="C142" t="n">
-        <v>0.397113</v>
+        <v>0.442728</v>
       </c>
       <c r="D142" t="n">
-        <v>0.438486</v>
+        <v>0.479958</v>
       </c>
       <c r="E142" t="n">
-        <v>0.304993</v>
+        <v>0.376035</v>
       </c>
       <c r="F142" t="n">
-        <v>0.317274</v>
+        <v>0.360028</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.425357</v>
+        <v>0.472706</v>
       </c>
       <c r="C143" t="n">
-        <v>0.398042</v>
+        <v>0.443703</v>
       </c>
       <c r="D143" t="n">
-        <v>0.448064</v>
+        <v>0.489279</v>
       </c>
       <c r="E143" t="n">
-        <v>0.307869</v>
+        <v>0.381679</v>
       </c>
       <c r="F143" t="n">
-        <v>0.31754</v>
+        <v>0.363646</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0365221</v>
+        <v>0.0363803</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0371243</v>
+        <v>0.0366222</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07277019999999999</v>
+        <v>0.0726876</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0367617</v>
+        <v>0.0366151</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0388622</v>
+        <v>0.037796</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0367866</v>
+        <v>0.0351907</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0368395</v>
+        <v>0.0361801</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0795009</v>
+        <v>0.0788986</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0368252</v>
+        <v>0.0371764</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0392868</v>
+        <v>0.038357</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0366331</v>
+        <v>0.035171</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0369895</v>
+        <v>0.0366977</v>
       </c>
       <c r="D4" t="n">
-        <v>0.086807</v>
+        <v>0.0866707</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0377191</v>
+        <v>0.0373168</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0390169</v>
+        <v>0.0387912</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0368039</v>
+        <v>0.0355953</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0371828</v>
+        <v>0.0370546</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09416529999999999</v>
+        <v>0.09452579999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0380671</v>
+        <v>0.0375123</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03945</v>
+        <v>0.0389274</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0365797</v>
+        <v>0.0355494</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0383385</v>
+        <v>0.0366136</v>
       </c>
       <c r="D6" t="n">
-        <v>0.10141</v>
+        <v>0.101974</v>
       </c>
       <c r="E6" t="n">
-        <v>0.037951</v>
+        <v>0.0377143</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0399683</v>
+        <v>0.0393729</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0371802</v>
+        <v>0.0361512</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0372345</v>
+        <v>0.0369182</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06273289999999999</v>
+        <v>0.0626225</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0382852</v>
+        <v>0.0382256</v>
       </c>
       <c r="F7" t="n">
-        <v>0.040345</v>
+        <v>0.0398721</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0373266</v>
+        <v>0.0358323</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0376417</v>
+        <v>0.0376268</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0661332</v>
+        <v>0.0655522</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0401081</v>
+        <v>0.0393584</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0420985</v>
+        <v>0.0412084</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0379697</v>
+        <v>0.0366766</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0382609</v>
+        <v>0.0379072</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0715031</v>
+        <v>0.0713395</v>
       </c>
       <c r="E9" t="n">
-        <v>0.038775</v>
+        <v>0.0400413</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0409998</v>
+        <v>0.040216</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0428584</v>
+        <v>0.044048</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0433156</v>
+        <v>0.0430094</v>
       </c>
       <c r="D10" t="n">
-        <v>0.07566589999999999</v>
+        <v>0.0750951</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0396226</v>
+        <v>0.0408835</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0413211</v>
+        <v>0.0403452</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0431907</v>
+        <v>0.0436605</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0435501</v>
+        <v>0.042732</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0823332</v>
+        <v>0.0810666</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0398412</v>
+        <v>0.0411559</v>
       </c>
       <c r="F11" t="n">
-        <v>0.041315</v>
+        <v>0.0405801</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0431728</v>
+        <v>0.0438164</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0433038</v>
+        <v>0.0427245</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0875026</v>
+        <v>0.0868543</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0401933</v>
+        <v>0.0415897</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0417016</v>
+        <v>0.040881</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0431965</v>
+        <v>0.0441676</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0433627</v>
+        <v>0.042864</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0914808</v>
+        <v>0.091155</v>
       </c>
       <c r="E13" t="n">
-        <v>0.040606</v>
+        <v>0.041607</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0418995</v>
+        <v>0.0411531</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0431305</v>
+        <v>0.0441333</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0432571</v>
+        <v>0.0426494</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0972244</v>
+        <v>0.0970491</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0405778</v>
+        <v>0.0416784</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0421581</v>
+        <v>0.0414533</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0434225</v>
+        <v>0.0444375</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0435256</v>
+        <v>0.0429573</v>
       </c>
       <c r="D15" t="n">
-        <v>0.102502</v>
+        <v>0.102261</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0409327</v>
+        <v>0.0419693</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0425915</v>
+        <v>0.0417756</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.043567</v>
+        <v>0.0445344</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0437175</v>
+        <v>0.0430752</v>
       </c>
       <c r="D16" t="n">
-        <v>0.107697</v>
+        <v>0.107483</v>
       </c>
       <c r="E16" t="n">
-        <v>0.041368</v>
+        <v>0.0424063</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0428653</v>
+        <v>0.0420062</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0439896</v>
+        <v>0.0440315</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0436962</v>
+        <v>0.0427459</v>
       </c>
       <c r="D17" t="n">
-        <v>0.112637</v>
+        <v>0.112453</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0416069</v>
+        <v>0.0422729</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0431235</v>
+        <v>0.0422612</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.043896</v>
+        <v>0.0444383</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0438252</v>
+        <v>0.043144</v>
       </c>
       <c r="D18" t="n">
-        <v>0.117233</v>
+        <v>0.116888</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0418435</v>
+        <v>0.0428588</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0433745</v>
+        <v>0.0424516</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0439886</v>
+        <v>0.0446312</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0439148</v>
+        <v>0.0433</v>
       </c>
       <c r="D19" t="n">
-        <v>0.121785</v>
+        <v>0.121227</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0420431</v>
+        <v>0.0430252</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0437107</v>
+        <v>0.0427194</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0443742</v>
+        <v>0.0441678</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0440908</v>
+        <v>0.043442</v>
       </c>
       <c r="D20" t="n">
-        <v>0.12527</v>
+        <v>0.124663</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0427174</v>
+        <v>0.0426682</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0441692</v>
+        <v>0.0433999</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0445888</v>
+        <v>0.044397</v>
       </c>
       <c r="C21" t="n">
-        <v>0.044022</v>
+        <v>0.0433687</v>
       </c>
       <c r="D21" t="n">
-        <v>0.08899170000000001</v>
+        <v>0.0887889</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0446727</v>
+        <v>0.0436588</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0447869</v>
+        <v>0.044824</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0451449</v>
+        <v>0.0448076</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0441595</v>
+        <v>0.0444947</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0918301</v>
+        <v>0.09179420000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0473862</v>
+        <v>0.0472963</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0485592</v>
+        <v>0.0471107</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0456581</v>
+        <v>0.0455588</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0449806</v>
+        <v>0.0447989</v>
       </c>
       <c r="D23" t="n">
-        <v>0.09490750000000001</v>
+        <v>0.0949144</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0460329</v>
+        <v>0.0451327</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0467465</v>
+        <v>0.045753</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0489164</v>
+        <v>0.0488394</v>
       </c>
       <c r="C24" t="n">
-        <v>0.049829</v>
+        <v>0.0496374</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0988112</v>
+        <v>0.09877569999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0456725</v>
+        <v>0.0455228</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0466746</v>
+        <v>0.0460332</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0490255</v>
+        <v>0.0491396</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0498883</v>
+        <v>0.049612</v>
       </c>
       <c r="D25" t="n">
-        <v>0.10189</v>
+        <v>0.101633</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0460452</v>
+        <v>0.0459757</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0468139</v>
+        <v>0.0462032</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0490199</v>
+        <v>0.0489573</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0500314</v>
+        <v>0.0497961</v>
       </c>
       <c r="D26" t="n">
-        <v>0.105655</v>
+        <v>0.105538</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0459852</v>
+        <v>0.0465485</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0471885</v>
+        <v>0.0466691</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0489209</v>
+        <v>0.0488873</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0501077</v>
+        <v>0.049865</v>
       </c>
       <c r="D27" t="n">
-        <v>0.109707</v>
+        <v>0.109381</v>
       </c>
       <c r="E27" t="n">
-        <v>0.046474</v>
+        <v>0.0468278</v>
       </c>
       <c r="F27" t="n">
-        <v>0.047285</v>
+        <v>0.047031</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0489238</v>
+        <v>0.0490103</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0502645</v>
+        <v>0.0500614</v>
       </c>
       <c r="D28" t="n">
-        <v>0.11389</v>
+        <v>0.113522</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0467539</v>
+        <v>0.0467062</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0477424</v>
+        <v>0.0470809</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0492865</v>
+        <v>0.0493005</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0503238</v>
+        <v>0.0500802</v>
       </c>
       <c r="D29" t="n">
-        <v>0.117949</v>
+        <v>0.117496</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0469892</v>
+        <v>0.0470924</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0480637</v>
+        <v>0.0472184</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0489679</v>
+        <v>0.0490602</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0499404</v>
+        <v>0.0501369</v>
       </c>
       <c r="D30" t="n">
-        <v>0.121789</v>
+        <v>0.121653</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0473946</v>
+        <v>0.0476984</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0478742</v>
+        <v>0.0479338</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0491404</v>
+        <v>0.049223</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0505186</v>
+        <v>0.0503498</v>
       </c>
       <c r="D31" t="n">
-        <v>0.125992</v>
+        <v>0.125816</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0475319</v>
+        <v>0.0477193</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0485287</v>
+        <v>0.0477951</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.049117</v>
+        <v>0.049207</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0502546</v>
+        <v>0.0504251</v>
       </c>
       <c r="D32" t="n">
-        <v>0.129243</v>
+        <v>0.12899</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0480394</v>
+        <v>0.0483244</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0484367</v>
+        <v>0.048544</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0495133</v>
+        <v>0.0496748</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0505069</v>
+        <v>0.050341</v>
       </c>
       <c r="D33" t="n">
-        <v>0.132775</v>
+        <v>0.132599</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0481956</v>
+        <v>0.0482737</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0491031</v>
+        <v>0.0485445</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0494159</v>
+        <v>0.0495465</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0505382</v>
+        <v>0.050684</v>
       </c>
       <c r="D34" t="n">
-        <v>0.135973</v>
+        <v>0.135847</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0490733</v>
+        <v>0.0489366</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0508531</v>
+        <v>0.0497324</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0499744</v>
+        <v>0.0501521</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0511794</v>
+        <v>0.051195</v>
       </c>
       <c r="D35" t="n">
-        <v>0.09690790000000001</v>
+        <v>0.0969197</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0521483</v>
+        <v>0.0521772</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0540145</v>
+        <v>0.0523769</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0505759</v>
+        <v>0.0507373</v>
       </c>
       <c r="C36" t="n">
-        <v>0.051653</v>
+        <v>0.0520442</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0993439</v>
+        <v>0.0994249</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0589616</v>
+        <v>0.0588953</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0636094</v>
+        <v>0.0603186</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0541091</v>
+        <v>0.0542609</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0558469</v>
+        <v>0.0554317</v>
       </c>
       <c r="D37" t="n">
-        <v>0.101514</v>
+        <v>0.101559</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0496575</v>
+        <v>0.0497362</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0502323</v>
+        <v>0.0500868</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0547818</v>
+        <v>0.0536826</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0565301</v>
+        <v>0.056656</v>
       </c>
       <c r="D38" t="n">
-        <v>0.104206</v>
+        <v>0.104305</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0493773</v>
+        <v>0.0494312</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0503719</v>
+        <v>0.0500952</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0536595</v>
+        <v>0.0537289</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0565595</v>
+        <v>0.0566764</v>
       </c>
       <c r="D39" t="n">
-        <v>0.10719</v>
+        <v>0.107189</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0497035</v>
+        <v>0.0499528</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0508452</v>
+        <v>0.0506314</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0542496</v>
+        <v>0.0541477</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0567055</v>
+        <v>0.0567655</v>
       </c>
       <c r="D40" t="n">
-        <v>0.110384</v>
+        <v>0.110486</v>
       </c>
       <c r="E40" t="n">
-        <v>0.050037</v>
+        <v>0.0502739</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0511711</v>
+        <v>0.050794</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.053756</v>
+        <v>0.05324</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0567524</v>
+        <v>0.0569125</v>
       </c>
       <c r="D41" t="n">
-        <v>0.11373</v>
+        <v>0.113892</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0504902</v>
+        <v>0.0505154</v>
       </c>
       <c r="F41" t="n">
-        <v>0.051434</v>
+        <v>0.0511941</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0538374</v>
+        <v>0.0535782</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0568492</v>
+        <v>0.057001</v>
       </c>
       <c r="D42" t="n">
-        <v>0.117301</v>
+        <v>0.117466</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0506038</v>
+        <v>0.050723</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0517103</v>
+        <v>0.0513005</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0542126</v>
+        <v>0.0547042</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0569528</v>
+        <v>0.0571058</v>
       </c>
       <c r="D43" t="n">
-        <v>0.121247</v>
+        <v>0.121392</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0510081</v>
+        <v>0.0511385</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0518545</v>
+        <v>0.051588</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0540499</v>
+        <v>0.053541</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0570106</v>
+        <v>0.057149</v>
       </c>
       <c r="D44" t="n">
-        <v>0.125213</v>
+        <v>0.125323</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0512676</v>
+        <v>0.051269</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0521142</v>
+        <v>0.0517305</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0543352</v>
+        <v>0.0542859</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0571714</v>
+        <v>0.0572532</v>
       </c>
       <c r="D45" t="n">
-        <v>0.129066</v>
+        <v>0.129305</v>
       </c>
       <c r="E45" t="n">
-        <v>0.051807</v>
+        <v>0.0520144</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0526751</v>
+        <v>0.052262</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0543384</v>
+        <v>0.05385</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0572188</v>
+        <v>0.0573073</v>
       </c>
       <c r="D46" t="n">
-        <v>0.132701</v>
+        <v>0.132866</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0522683</v>
+        <v>0.0525402</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0533675</v>
+        <v>0.0527592</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0547001</v>
+        <v>0.0540389</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0573609</v>
+        <v>0.0574531</v>
       </c>
       <c r="D47" t="n">
-        <v>0.135836</v>
+        <v>0.135988</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0534122</v>
+        <v>0.0532403</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0551227</v>
+        <v>0.0537805</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0552213</v>
+        <v>0.0545832</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0577841</v>
+        <v>0.0578725</v>
       </c>
       <c r="D48" t="n">
-        <v>0.139559</v>
+        <v>0.139664</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0558111</v>
+        <v>0.0557355</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0585128</v>
+        <v>0.0569753</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0561274</v>
+        <v>0.0551606</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0586327</v>
+        <v>0.0587528</v>
       </c>
       <c r="D49" t="n">
-        <v>0.142486</v>
+        <v>0.142664</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0603465</v>
+        <v>0.0596471</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0627732</v>
+        <v>0.0612446</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.058919</v>
+        <v>0.0588252</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0609132</v>
+        <v>0.0610933</v>
       </c>
       <c r="D50" t="n">
-        <v>0.101425</v>
+        <v>0.101541</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0647534</v>
+        <v>0.06468699999999999</v>
       </c>
       <c r="F50" t="n">
-        <v>0.06772830000000001</v>
+        <v>0.0666742</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0625619</v>
+        <v>0.0608926</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0638803</v>
+        <v>0.0643633</v>
       </c>
       <c r="D51" t="n">
-        <v>0.103741</v>
+        <v>0.103726</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0533481</v>
+        <v>0.0528788</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0529976</v>
+        <v>0.0524897</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0675364</v>
+        <v>0.0673359</v>
       </c>
       <c r="C52" t="n">
-        <v>0.07016890000000001</v>
+        <v>0.070553</v>
       </c>
       <c r="D52" t="n">
-        <v>0.106202</v>
+        <v>0.106122</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0521401</v>
+        <v>0.0522325</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0535014</v>
+        <v>0.0529571</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.060812</v>
+        <v>0.0605864</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0632254</v>
+        <v>0.0635058</v>
       </c>
       <c r="D53" t="n">
-        <v>0.109041</v>
+        <v>0.108922</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0525015</v>
+        <v>0.0526034</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0536655</v>
+        <v>0.0531482</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0605871</v>
+        <v>0.0608571</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0631835</v>
+        <v>0.0634004</v>
       </c>
       <c r="D54" t="n">
-        <v>0.112039</v>
+        <v>0.112028</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0531454</v>
+        <v>0.0533675</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0538728</v>
+        <v>0.0534463</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.060684</v>
+        <v>0.0607666</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0633594</v>
+        <v>0.0635423</v>
       </c>
       <c r="D55" t="n">
-        <v>0.11552</v>
+        <v>0.115511</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0533273</v>
+        <v>0.0538584</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0552748</v>
+        <v>0.0538824</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0606587</v>
+        <v>0.0611329</v>
       </c>
       <c r="C56" t="n">
-        <v>0.06420430000000001</v>
+        <v>0.063842</v>
       </c>
       <c r="D56" t="n">
-        <v>0.119125</v>
+        <v>0.119175</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0538933</v>
+        <v>0.0542033</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0546292</v>
+        <v>0.054213</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0605617</v>
+        <v>0.0607706</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0636945</v>
+        <v>0.0639663</v>
       </c>
       <c r="D57" t="n">
-        <v>0.123058</v>
+        <v>0.122965</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0541095</v>
+        <v>0.0542673</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0559701</v>
+        <v>0.0547499</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0609978</v>
+        <v>0.0613167</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0640018</v>
+        <v>0.0640067</v>
       </c>
       <c r="D58" t="n">
-        <v>0.126778</v>
+        <v>0.126755</v>
       </c>
       <c r="E58" t="n">
-        <v>0.054872</v>
+        <v>0.0548653</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0558738</v>
+        <v>0.055452</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0608842</v>
+        <v>0.0615712</v>
       </c>
       <c r="C59" t="n">
-        <v>0.06460299999999999</v>
+        <v>0.0642368</v>
       </c>
       <c r="D59" t="n">
-        <v>0.130485</v>
+        <v>0.13045</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0554849</v>
+        <v>0.0558922</v>
       </c>
       <c r="F59" t="n">
-        <v>0.057238</v>
+        <v>0.0563131</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0610121</v>
+        <v>0.0610809</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0642596</v>
+        <v>0.06426750000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>0.134242</v>
+        <v>0.134292</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0568915</v>
+        <v>0.0571817</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0594979</v>
+        <v>0.05742</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0615643</v>
+        <v>0.0622318</v>
       </c>
       <c r="C61" t="n">
-        <v>0.06469519999999999</v>
+        <v>0.065069</v>
       </c>
       <c r="D61" t="n">
-        <v>0.138282</v>
+        <v>0.138161</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0587319</v>
+        <v>0.0590027</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0609171</v>
+        <v>0.0595304</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.062468</v>
+        <v>0.062105</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0655304</v>
+        <v>0.06554550000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>0.141905</v>
+        <v>0.141887</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0610761</v>
+        <v>0.0614922</v>
       </c>
       <c r="F62" t="n">
-        <v>0.06449530000000001</v>
+        <v>0.0621037</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.06436360000000001</v>
+        <v>0.0643094</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0671283</v>
+        <v>0.0678429</v>
       </c>
       <c r="D63" t="n">
         <v>0.145218</v>
       </c>
       <c r="E63" t="n">
-        <v>0.06401519999999999</v>
+        <v>0.0644102</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0682642</v>
+        <v>0.0654044</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0660839</v>
+        <v>0.0657355</v>
       </c>
       <c r="C64" t="n">
-        <v>0.06958250000000001</v>
+        <v>0.0697498</v>
       </c>
       <c r="D64" t="n">
-        <v>0.108961</v>
+        <v>0.108876</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0680465</v>
+        <v>0.0682217</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0734765</v>
+        <v>0.0709383</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.069179</v>
+        <v>0.06891460000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>0.07349559999999999</v>
+        <v>0.0727517</v>
       </c>
       <c r="D65" t="n">
-        <v>0.111479</v>
+        <v>0.111876</v>
       </c>
       <c r="E65" t="n">
-        <v>0.074304</v>
+        <v>0.07447860000000001</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0802175</v>
+        <v>0.0779265</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.07234110000000001</v>
+        <v>0.0729004</v>
       </c>
       <c r="C66" t="n">
-        <v>0.07829609999999999</v>
+        <v>0.07851229999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>0.114536</v>
+        <v>0.11448</v>
       </c>
       <c r="E66" t="n">
-        <v>0.057201</v>
+        <v>0.0556087</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0591688</v>
+        <v>0.0583047</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0725307</v>
+        <v>0.07126250000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0714371</v>
+        <v>0.07098</v>
       </c>
       <c r="D67" t="n">
-        <v>0.118195</v>
+        <v>0.118323</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0558698</v>
+        <v>0.055847</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0596128</v>
+        <v>0.0589412</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0721562</v>
+        <v>0.0721542</v>
       </c>
       <c r="C68" t="n">
-        <v>0.071966</v>
+        <v>0.07185709999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.12386</v>
+        <v>0.123299</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0564056</v>
+        <v>0.0561975</v>
       </c>
       <c r="F68" t="n">
-        <v>0.060876</v>
+        <v>0.0599625</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0730484</v>
+        <v>0.0732059</v>
       </c>
       <c r="C69" t="n">
-        <v>0.07241839999999999</v>
+        <v>0.07227790000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.129462</v>
+        <v>0.129545</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0568881</v>
+        <v>0.0566928</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0616001</v>
+        <v>0.061312</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0736392</v>
+        <v>0.0736385</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0728548</v>
+        <v>0.07292460000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>0.134865</v>
+        <v>0.134607</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0572095</v>
+        <v>0.0576293</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0626376</v>
+        <v>0.0626916</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0741223</v>
+        <v>0.07320699999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0734331</v>
+        <v>0.0734199</v>
       </c>
       <c r="D71" t="n">
-        <v>0.141469</v>
+        <v>0.14079</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0578573</v>
+        <v>0.0580076</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0644208</v>
+        <v>0.0637778</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.07244399999999999</v>
+        <v>0.0741391</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0738197</v>
+        <v>0.0741781</v>
       </c>
       <c r="D72" t="n">
-        <v>0.147469</v>
+        <v>0.148596</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0584412</v>
+        <v>0.0588897</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0661347</v>
+        <v>0.06542050000000001</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.07366350000000001</v>
+        <v>0.07402599999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>0.07509929999999999</v>
+        <v>0.075021</v>
       </c>
       <c r="D73" t="n">
-        <v>0.155398</v>
+        <v>0.156463</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0595144</v>
+        <v>0.0599675</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06774570000000001</v>
+        <v>0.06683500000000001</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0727252</v>
+        <v>0.074904</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0758558</v>
+        <v>0.0757683</v>
       </c>
       <c r="D74" t="n">
-        <v>0.165805</v>
+        <v>0.166558</v>
       </c>
       <c r="E74" t="n">
-        <v>0.060855</v>
+        <v>0.0612038</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0701609</v>
+        <v>0.0692387</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0732888</v>
+        <v>0.07590180000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0778423</v>
+        <v>0.0770274</v>
       </c>
       <c r="D75" t="n">
-        <v>0.175288</v>
+        <v>0.175171</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0622059</v>
+        <v>0.06265220000000001</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0736892</v>
+        <v>0.07192759999999999</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.07415140000000001</v>
+        <v>0.07585409999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0796775</v>
+        <v>0.07888290000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>0.181092</v>
+        <v>0.180787</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0643213</v>
+        <v>0.0653379</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0770333</v>
+        <v>0.07500469999999999</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0741666</v>
+        <v>0.0778269</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0815179</v>
+        <v>0.0809204</v>
       </c>
       <c r="D77" t="n">
-        <v>0.192976</v>
+        <v>0.193538</v>
       </c>
       <c r="E77" t="n">
-        <v>0.06694410000000001</v>
+        <v>0.0680597</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0814694</v>
+        <v>0.0791504</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0789714</v>
+        <v>0.0783957</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0842248</v>
+        <v>0.08353389999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>0.188649</v>
+        <v>0.187779</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0708372</v>
+        <v>0.0711791</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0872662</v>
+        <v>0.0847311</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0814439</v>
+        <v>0.0823738</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0885104</v>
+        <v>0.0880365</v>
       </c>
       <c r="D79" t="n">
-        <v>0.194407</v>
+        <v>0.193703</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0763923</v>
+        <v>0.07679320000000001</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0950201</v>
+        <v>0.0923008</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0857024</v>
+        <v>0.0853313</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0939459</v>
+        <v>0.093599</v>
       </c>
       <c r="D80" t="n">
-        <v>0.203188</v>
+        <v>0.202469</v>
       </c>
       <c r="E80" t="n">
-        <v>0.102031</v>
+        <v>0.111295</v>
       </c>
       <c r="F80" t="n">
-        <v>0.10238</v>
+        <v>0.101829</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.172411</v>
+        <v>0.172424</v>
       </c>
       <c r="C81" t="n">
-        <v>0.140509</v>
+        <v>0.141852</v>
       </c>
       <c r="D81" t="n">
-        <v>0.212274</v>
+        <v>0.211933</v>
       </c>
       <c r="E81" t="n">
-        <v>0.106537</v>
+        <v>0.112212</v>
       </c>
       <c r="F81" t="n">
-        <v>0.103456</v>
+        <v>0.102153</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.174134</v>
+        <v>0.178336</v>
       </c>
       <c r="C82" t="n">
-        <v>0.141199</v>
+        <v>0.142198</v>
       </c>
       <c r="D82" t="n">
-        <v>0.219165</v>
+        <v>0.218659</v>
       </c>
       <c r="E82" t="n">
-        <v>0.108938</v>
+        <v>0.115602</v>
       </c>
       <c r="F82" t="n">
-        <v>0.104155</v>
+        <v>0.103162</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.174591</v>
+        <v>0.179493</v>
       </c>
       <c r="C83" t="n">
-        <v>0.141947</v>
+        <v>0.142954</v>
       </c>
       <c r="D83" t="n">
-        <v>0.227998</v>
+        <v>0.227805</v>
       </c>
       <c r="E83" t="n">
-        <v>0.109352</v>
+        <v>0.116649</v>
       </c>
       <c r="F83" t="n">
-        <v>0.105373</v>
+        <v>0.104274</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.175618</v>
+        <v>0.178622</v>
       </c>
       <c r="C84" t="n">
-        <v>0.143203</v>
+        <v>0.143846</v>
       </c>
       <c r="D84" t="n">
-        <v>0.238356</v>
+        <v>0.238524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.112469</v>
+        <v>0.118637</v>
       </c>
       <c r="F84" t="n">
-        <v>0.106218</v>
+        <v>0.10475</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.177372</v>
+        <v>0.180661</v>
       </c>
       <c r="C85" t="n">
-        <v>0.142893</v>
+        <v>0.143768</v>
       </c>
       <c r="D85" t="n">
-        <v>0.250935</v>
+        <v>0.250574</v>
       </c>
       <c r="E85" t="n">
-        <v>0.113632</v>
+        <v>0.120598</v>
       </c>
       <c r="F85" t="n">
-        <v>0.10715</v>
+        <v>0.110972</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.176718</v>
+        <v>0.180228</v>
       </c>
       <c r="C86" t="n">
-        <v>0.144265</v>
+        <v>0.145045</v>
       </c>
       <c r="D86" t="n">
-        <v>0.257872</v>
+        <v>0.257748</v>
       </c>
       <c r="E86" t="n">
-        <v>0.115698</v>
+        <v>0.12283</v>
       </c>
       <c r="F86" t="n">
-        <v>0.108312</v>
+        <v>0.112155</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.177023</v>
+        <v>0.181519</v>
       </c>
       <c r="C87" t="n">
-        <v>0.144798</v>
+        <v>0.145627</v>
       </c>
       <c r="D87" t="n">
-        <v>0.271159</v>
+        <v>0.27091</v>
       </c>
       <c r="E87" t="n">
-        <v>0.116807</v>
+        <v>0.126024</v>
       </c>
       <c r="F87" t="n">
-        <v>0.110335</v>
+        <v>0.112617</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.177794</v>
+        <v>0.183865</v>
       </c>
       <c r="C88" t="n">
-        <v>0.145624</v>
+        <v>0.148069</v>
       </c>
       <c r="D88" t="n">
-        <v>0.279253</v>
+        <v>0.279175</v>
       </c>
       <c r="E88" t="n">
-        <v>0.12012</v>
+        <v>0.127935</v>
       </c>
       <c r="F88" t="n">
-        <v>0.114873</v>
+        <v>0.115625</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.178511</v>
+        <v>0.182298</v>
       </c>
       <c r="C89" t="n">
-        <v>0.147081</v>
+        <v>0.14789</v>
       </c>
       <c r="D89" t="n">
-        <v>0.289369</v>
+        <v>0.288592</v>
       </c>
       <c r="E89" t="n">
-        <v>0.122547</v>
+        <v>0.129743</v>
       </c>
       <c r="F89" t="n">
-        <v>0.114549</v>
+        <v>0.113369</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.178767</v>
+        <v>0.183194</v>
       </c>
       <c r="C90" t="n">
-        <v>0.148207</v>
+        <v>0.150597</v>
       </c>
       <c r="D90" t="n">
-        <v>0.298806</v>
+        <v>0.29833</v>
       </c>
       <c r="E90" t="n">
-        <v>0.124755</v>
+        <v>0.132094</v>
       </c>
       <c r="F90" t="n">
-        <v>0.119444</v>
+        <v>0.116158</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.18037</v>
+        <v>0.183227</v>
       </c>
       <c r="C91" t="n">
-        <v>0.151717</v>
+        <v>0.151293</v>
       </c>
       <c r="D91" t="n">
-        <v>0.30835</v>
+        <v>0.308947</v>
       </c>
       <c r="E91" t="n">
-        <v>0.128828</v>
+        <v>0.133224</v>
       </c>
       <c r="F91" t="n">
-        <v>0.12017</v>
+        <v>0.118487</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.182469</v>
+        <v>0.183341</v>
       </c>
       <c r="C92" t="n">
-        <v>0.152269</v>
+        <v>0.152442</v>
       </c>
       <c r="D92" t="n">
-        <v>0.287988</v>
+        <v>0.288813</v>
       </c>
       <c r="E92" t="n">
-        <v>0.131995</v>
+        <v>0.136602</v>
       </c>
       <c r="F92" t="n">
-        <v>0.12708</v>
+        <v>0.124622</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.18323</v>
+        <v>0.184359</v>
       </c>
       <c r="C93" t="n">
-        <v>0.157817</v>
+        <v>0.156949</v>
       </c>
       <c r="D93" t="n">
-        <v>0.293038</v>
+        <v>0.293728</v>
       </c>
       <c r="E93" t="n">
-        <v>0.136428</v>
+        <v>0.141107</v>
       </c>
       <c r="F93" t="n">
-        <v>0.132176</v>
+        <v>0.130564</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.185314</v>
+        <v>0.186629</v>
       </c>
       <c r="C94" t="n">
-        <v>0.162595</v>
+        <v>0.162829</v>
       </c>
       <c r="D94" t="n">
-        <v>0.298972</v>
+        <v>0.299948</v>
       </c>
       <c r="E94" t="n">
-        <v>0.205224</v>
+        <v>0.206149</v>
       </c>
       <c r="F94" t="n">
-        <v>0.199571</v>
+        <v>0.199708</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.243186</v>
+        <v>0.244088</v>
       </c>
       <c r="C95" t="n">
-        <v>0.221062</v>
+        <v>0.221515</v>
       </c>
       <c r="D95" t="n">
-        <v>0.305169</v>
+        <v>0.306021</v>
       </c>
       <c r="E95" t="n">
-        <v>0.209872</v>
+        <v>0.207466</v>
       </c>
       <c r="F95" t="n">
-        <v>0.200609</v>
+        <v>0.200738</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.243707</v>
+        <v>0.244493</v>
       </c>
       <c r="C96" t="n">
-        <v>0.221355</v>
+        <v>0.221754</v>
       </c>
       <c r="D96" t="n">
-        <v>0.317332</v>
+        <v>0.318038</v>
       </c>
       <c r="E96" t="n">
-        <v>0.208868</v>
+        <v>0.209238</v>
       </c>
       <c r="F96" t="n">
-        <v>0.20181</v>
+        <v>0.201297</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.244167</v>
+        <v>0.244217</v>
       </c>
       <c r="C97" t="n">
-        <v>0.221718</v>
+        <v>0.222123</v>
       </c>
       <c r="D97" t="n">
-        <v>0.323202</v>
+        <v>0.323918</v>
       </c>
       <c r="E97" t="n">
-        <v>0.210798</v>
+        <v>0.210973</v>
       </c>
       <c r="F97" t="n">
-        <v>0.202603</v>
+        <v>0.202622</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.243906</v>
+        <v>0.244624</v>
       </c>
       <c r="C98" t="n">
-        <v>0.221937</v>
+        <v>0.222594</v>
       </c>
       <c r="D98" t="n">
-        <v>0.332279</v>
+        <v>0.333178</v>
       </c>
       <c r="E98" t="n">
-        <v>0.212165</v>
+        <v>0.212797</v>
       </c>
       <c r="F98" t="n">
-        <v>0.203898</v>
+        <v>0.2037</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.243829</v>
+        <v>0.24432</v>
       </c>
       <c r="C99" t="n">
-        <v>0.22233</v>
+        <v>0.222939</v>
       </c>
       <c r="D99" t="n">
-        <v>0.340037</v>
+        <v>0.340707</v>
       </c>
       <c r="E99" t="n">
-        <v>0.214454</v>
+        <v>0.214339</v>
       </c>
       <c r="F99" t="n">
-        <v>0.205097</v>
+        <v>0.205188</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.244595</v>
+        <v>0.24493</v>
       </c>
       <c r="C100" t="n">
-        <v>0.222892</v>
+        <v>0.223393</v>
       </c>
       <c r="D100" t="n">
-        <v>0.347827</v>
+        <v>0.348982</v>
       </c>
       <c r="E100" t="n">
-        <v>0.215574</v>
+        <v>0.21683</v>
       </c>
       <c r="F100" t="n">
-        <v>0.207788</v>
+        <v>0.206754</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.244716</v>
+        <v>0.244564</v>
       </c>
       <c r="C101" t="n">
-        <v>0.223381</v>
+        <v>0.223922</v>
       </c>
       <c r="D101" t="n">
-        <v>0.357851</v>
+        <v>0.358451</v>
       </c>
       <c r="E101" t="n">
-        <v>0.218227</v>
+        <v>0.219222</v>
       </c>
       <c r="F101" t="n">
-        <v>0.207833</v>
+        <v>0.208577</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.244508</v>
+        <v>0.245288</v>
       </c>
       <c r="C102" t="n">
-        <v>0.22409</v>
+        <v>0.224948</v>
       </c>
       <c r="D102" t="n">
-        <v>0.366883</v>
+        <v>0.367635</v>
       </c>
       <c r="E102" t="n">
-        <v>0.219519</v>
+        <v>0.22051</v>
       </c>
       <c r="F102" t="n">
-        <v>0.21169</v>
+        <v>0.210358</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.24507</v>
+        <v>0.245342</v>
       </c>
       <c r="C103" t="n">
-        <v>0.225299</v>
+        <v>0.226251</v>
       </c>
       <c r="D103" t="n">
-        <v>0.377215</v>
+        <v>0.377725</v>
       </c>
       <c r="E103" t="n">
-        <v>0.223006</v>
+        <v>0.222511</v>
       </c>
       <c r="F103" t="n">
-        <v>0.211558</v>
+        <v>0.210906</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.24469</v>
+        <v>0.24583</v>
       </c>
       <c r="C104" t="n">
-        <v>0.226785</v>
+        <v>0.227184</v>
       </c>
       <c r="D104" t="n">
-        <v>0.38538</v>
+        <v>0.385922</v>
       </c>
       <c r="E104" t="n">
-        <v>0.223725</v>
+        <v>0.224225</v>
       </c>
       <c r="F104" t="n">
-        <v>0.214739</v>
+        <v>0.213606</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.245528</v>
+        <v>0.246078</v>
       </c>
       <c r="C105" t="n">
-        <v>0.22841</v>
+        <v>0.228724</v>
       </c>
       <c r="D105" t="n">
-        <v>0.395486</v>
+        <v>0.395695</v>
       </c>
       <c r="E105" t="n">
-        <v>0.22704</v>
+        <v>0.227255</v>
       </c>
       <c r="F105" t="n">
-        <v>0.217319</v>
+        <v>0.217125</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.246472</v>
+        <v>0.247749</v>
       </c>
       <c r="C106" t="n">
-        <v>0.230755</v>
+        <v>0.231576</v>
       </c>
       <c r="D106" t="n">
-        <v>0.40519</v>
+        <v>0.405561</v>
       </c>
       <c r="E106" t="n">
-        <v>0.229866</v>
+        <v>0.230302</v>
       </c>
       <c r="F106" t="n">
-        <v>0.222266</v>
+        <v>0.220778</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.247837</v>
+        <v>0.248355</v>
       </c>
       <c r="C107" t="n">
-        <v>0.234472</v>
+        <v>0.234671</v>
       </c>
       <c r="D107" t="n">
-        <v>0.349499</v>
+        <v>0.350508</v>
       </c>
       <c r="E107" t="n">
-        <v>0.23382</v>
+        <v>0.23469</v>
       </c>
       <c r="F107" t="n">
-        <v>0.227214</v>
+        <v>0.226283</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.251079</v>
+        <v>0.251298</v>
       </c>
       <c r="C108" t="n">
-        <v>0.239282</v>
+        <v>0.239606</v>
       </c>
       <c r="D108" t="n">
-        <v>0.355888</v>
+        <v>0.355763</v>
       </c>
       <c r="E108" t="n">
-        <v>0.251015</v>
+        <v>0.251839</v>
       </c>
       <c r="F108" t="n">
-        <v>0.251471</v>
+        <v>0.250292</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.254875</v>
+        <v>0.255522</v>
       </c>
       <c r="C109" t="n">
-        <v>0.247764</v>
+        <v>0.248233</v>
       </c>
       <c r="D109" t="n">
-        <v>0.356718</v>
+        <v>0.356809</v>
       </c>
       <c r="E109" t="n">
-        <v>0.252551</v>
+        <v>0.254103</v>
       </c>
       <c r="F109" t="n">
-        <v>0.252298</v>
+        <v>0.251553</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.280712</v>
+        <v>0.283191</v>
       </c>
       <c r="C110" t="n">
-        <v>0.275545</v>
+        <v>0.275121</v>
       </c>
       <c r="D110" t="n">
-        <v>0.364107</v>
+        <v>0.364813</v>
       </c>
       <c r="E110" t="n">
-        <v>0.248802</v>
+        <v>0.249893</v>
       </c>
       <c r="F110" t="n">
-        <v>0.254095</v>
+        <v>0.253048</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.280767</v>
+        <v>0.281865</v>
       </c>
       <c r="C111" t="n">
-        <v>0.275292</v>
+        <v>0.275483</v>
       </c>
       <c r="D111" t="n">
-        <v>0.37519</v>
+        <v>0.375797</v>
       </c>
       <c r="E111" t="n">
-        <v>0.250726</v>
+        <v>0.252309</v>
       </c>
       <c r="F111" t="n">
-        <v>0.255476</v>
+        <v>0.254876</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.280894</v>
+        <v>0.281174</v>
       </c>
       <c r="C112" t="n">
-        <v>0.275327</v>
+        <v>0.27785</v>
       </c>
       <c r="D112" t="n">
-        <v>0.379342</v>
+        <v>0.37956</v>
       </c>
       <c r="E112" t="n">
-        <v>0.249994</v>
+        <v>0.250871</v>
       </c>
       <c r="F112" t="n">
-        <v>0.256977</v>
+        <v>0.256601</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.28078</v>
+        <v>0.280791</v>
       </c>
       <c r="C113" t="n">
-        <v>0.275115</v>
+        <v>0.276952</v>
       </c>
       <c r="D113" t="n">
-        <v>0.388319</v>
+        <v>0.388717</v>
       </c>
       <c r="E113" t="n">
-        <v>0.252615</v>
+        <v>0.253541</v>
       </c>
       <c r="F113" t="n">
-        <v>0.259328</v>
+        <v>0.258082</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.28247</v>
+        <v>0.28143</v>
       </c>
       <c r="C114" t="n">
-        <v>0.277337</v>
+        <v>0.279214</v>
       </c>
       <c r="D114" t="n">
-        <v>0.396501</v>
+        <v>0.39718</v>
       </c>
       <c r="E114" t="n">
-        <v>0.255505</v>
+        <v>0.256229</v>
       </c>
       <c r="F114" t="n">
-        <v>0.262264</v>
+        <v>0.260576</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.281517</v>
+        <v>0.282783</v>
       </c>
       <c r="C115" t="n">
-        <v>0.277584</v>
+        <v>0.277155</v>
       </c>
       <c r="D115" t="n">
-        <v>0.404189</v>
+        <v>0.404916</v>
       </c>
       <c r="E115" t="n">
-        <v>0.258118</v>
+        <v>0.25935</v>
       </c>
       <c r="F115" t="n">
-        <v>0.264968</v>
+        <v>0.262801</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.280868</v>
+        <v>0.281662</v>
       </c>
       <c r="C116" t="n">
-        <v>0.278355</v>
+        <v>0.278181</v>
       </c>
       <c r="D116" t="n">
-        <v>0.411981</v>
+        <v>0.412501</v>
       </c>
       <c r="E116" t="n">
-        <v>0.260795</v>
+        <v>0.262249</v>
       </c>
       <c r="F116" t="n">
-        <v>0.267595</v>
+        <v>0.265757</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.281654</v>
+        <v>0.282937</v>
       </c>
       <c r="C117" t="n">
-        <v>0.279953</v>
+        <v>0.28078</v>
       </c>
       <c r="D117" t="n">
-        <v>0.421089</v>
+        <v>0.421456</v>
       </c>
       <c r="E117" t="n">
-        <v>0.264037</v>
+        <v>0.264535</v>
       </c>
       <c r="F117" t="n">
-        <v>0.271225</v>
+        <v>0.270121</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.283037</v>
+        <v>0.282359</v>
       </c>
       <c r="C118" t="n">
-        <v>0.282238</v>
+        <v>0.28147</v>
       </c>
       <c r="D118" t="n">
-        <v>0.429154</v>
+        <v>0.429755</v>
       </c>
       <c r="E118" t="n">
-        <v>0.266681</v>
+        <v>0.267825</v>
       </c>
       <c r="F118" t="n">
-        <v>0.274928</v>
+        <v>0.27293</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.282042</v>
+        <v>0.282821</v>
       </c>
       <c r="C119" t="n">
-        <v>0.283199</v>
+        <v>0.284047</v>
       </c>
       <c r="D119" t="n">
-        <v>0.442056</v>
+        <v>0.442748</v>
       </c>
       <c r="E119" t="n">
-        <v>0.270218</v>
+        <v>0.270572</v>
       </c>
       <c r="F119" t="n">
-        <v>0.280075</v>
+        <v>0.278171</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.282604</v>
+        <v>0.282759</v>
       </c>
       <c r="C120" t="n">
-        <v>0.285829</v>
+        <v>0.285718</v>
       </c>
       <c r="D120" t="n">
-        <v>0.450895</v>
+        <v>0.451685</v>
       </c>
       <c r="E120" t="n">
-        <v>0.274295</v>
+        <v>0.274837</v>
       </c>
       <c r="F120" t="n">
-        <v>0.28124</v>
+        <v>0.278825</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.28528</v>
+        <v>0.285282</v>
       </c>
       <c r="C121" t="n">
-        <v>0.28845</v>
+        <v>0.289632</v>
       </c>
       <c r="D121" t="n">
-        <v>0.376608</v>
+        <v>0.378122</v>
       </c>
       <c r="E121" t="n">
-        <v>0.279318</v>
+        <v>0.280111</v>
       </c>
       <c r="F121" t="n">
-        <v>0.288505</v>
+        <v>0.287813</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.286728</v>
+        <v>0.287501</v>
       </c>
       <c r="C122" t="n">
-        <v>0.29506</v>
+        <v>0.294035</v>
       </c>
       <c r="D122" t="n">
-        <v>0.382425</v>
+        <v>0.383037</v>
       </c>
       <c r="E122" t="n">
-        <v>0.285524</v>
+        <v>0.286001</v>
       </c>
       <c r="F122" t="n">
-        <v>0.29863</v>
+        <v>0.295615</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.291815</v>
+        <v>0.294803</v>
       </c>
       <c r="C123" t="n">
-        <v>0.301742</v>
+        <v>0.302597</v>
       </c>
       <c r="D123" t="n">
-        <v>0.387783</v>
+        <v>0.388439</v>
       </c>
       <c r="E123" t="n">
-        <v>0.273756</v>
+        <v>0.27449</v>
       </c>
       <c r="F123" t="n">
-        <v>0.284302</v>
+        <v>0.282603</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.360413</v>
+        <v>0.360866</v>
       </c>
       <c r="C124" t="n">
-        <v>0.350184</v>
+        <v>0.350428</v>
       </c>
       <c r="D124" t="n">
-        <v>0.392151</v>
+        <v>0.392826</v>
       </c>
       <c r="E124" t="n">
-        <v>0.273866</v>
+        <v>0.274359</v>
       </c>
       <c r="F124" t="n">
-        <v>0.286285</v>
+        <v>0.284798</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.360084</v>
+        <v>0.361171</v>
       </c>
       <c r="C125" t="n">
-        <v>0.351007</v>
+        <v>0.351371</v>
       </c>
       <c r="D125" t="n">
-        <v>0.401649</v>
+        <v>0.402116</v>
       </c>
       <c r="E125" t="n">
-        <v>0.276444</v>
+        <v>0.277355</v>
       </c>
       <c r="F125" t="n">
-        <v>0.288227</v>
+        <v>0.287054</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.361988</v>
+        <v>0.362432</v>
       </c>
       <c r="C126" t="n">
-        <v>0.35121</v>
+        <v>0.351562</v>
       </c>
       <c r="D126" t="n">
-        <v>0.40851</v>
+        <v>0.408672</v>
       </c>
       <c r="E126" t="n">
-        <v>0.279376</v>
+        <v>0.279682</v>
       </c>
       <c r="F126" t="n">
-        <v>0.290486</v>
+        <v>0.289032</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.361804</v>
+        <v>0.360426</v>
       </c>
       <c r="C127" t="n">
-        <v>0.352234</v>
+        <v>0.352256</v>
       </c>
       <c r="D127" t="n">
-        <v>0.413419</v>
+        <v>0.41377</v>
       </c>
       <c r="E127" t="n">
-        <v>0.282202</v>
+        <v>0.282497</v>
       </c>
       <c r="F127" t="n">
-        <v>0.293098</v>
+        <v>0.291376</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.361712</v>
+        <v>0.361599</v>
       </c>
       <c r="C128" t="n">
-        <v>0.352083</v>
+        <v>0.353029</v>
       </c>
       <c r="D128" t="n">
-        <v>0.427285</v>
+        <v>0.42762</v>
       </c>
       <c r="E128" t="n">
-        <v>0.285154</v>
+        <v>0.285658</v>
       </c>
       <c r="F128" t="n">
-        <v>0.296339</v>
+        <v>0.294847</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.360992</v>
+        <v>0.361778</v>
       </c>
       <c r="C129" t="n">
-        <v>0.353485</v>
+        <v>0.354106</v>
       </c>
       <c r="D129" t="n">
-        <v>0.433478</v>
+        <v>0.433994</v>
       </c>
       <c r="E129" t="n">
-        <v>0.288084</v>
+        <v>0.288641</v>
       </c>
       <c r="F129" t="n">
-        <v>0.299342</v>
+        <v>0.297996</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.360453</v>
+        <v>0.362498</v>
       </c>
       <c r="C130" t="n">
-        <v>0.354926</v>
+        <v>0.35541</v>
       </c>
       <c r="D130" t="n">
-        <v>0.44282</v>
+        <v>0.442947</v>
       </c>
       <c r="E130" t="n">
-        <v>0.291402</v>
+        <v>0.291667</v>
       </c>
       <c r="F130" t="n">
-        <v>0.296308</v>
+        <v>0.294297</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.361655</v>
+        <v>0.362054</v>
       </c>
       <c r="C131" t="n">
-        <v>0.355659</v>
+        <v>0.356395</v>
       </c>
       <c r="D131" t="n">
-        <v>0.450654</v>
+        <v>0.451108</v>
       </c>
       <c r="E131" t="n">
-        <v>0.295177</v>
+        <v>0.295487</v>
       </c>
       <c r="F131" t="n">
-        <v>0.301085</v>
+        <v>0.298966</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.360622</v>
+        <v>0.362118</v>
       </c>
       <c r="C132" t="n">
-        <v>0.357297</v>
+        <v>0.357754</v>
       </c>
       <c r="D132" t="n">
-        <v>0.456556</v>
+        <v>0.456817</v>
       </c>
       <c r="E132" t="n">
-        <v>0.298619</v>
+        <v>0.29934</v>
       </c>
       <c r="F132" t="n">
-        <v>0.30629</v>
+        <v>0.30385</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.360835</v>
+        <v>0.363084</v>
       </c>
       <c r="C133" t="n">
-        <v>0.359755</v>
+        <v>0.360921</v>
       </c>
       <c r="D133" t="n">
-        <v>0.468503</v>
+        <v>0.468426</v>
       </c>
       <c r="E133" t="n">
-        <v>0.303067</v>
+        <v>0.303485</v>
       </c>
       <c r="F133" t="n">
-        <v>0.312221</v>
+        <v>0.310763</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.36185</v>
+        <v>0.362558</v>
       </c>
       <c r="C134" t="n">
-        <v>0.36245</v>
+        <v>0.362593</v>
       </c>
       <c r="D134" t="n">
-        <v>0.478435</v>
+        <v>0.47888</v>
       </c>
       <c r="E134" t="n">
-        <v>0.307928</v>
+        <v>0.308287</v>
       </c>
       <c r="F134" t="n">
-        <v>0.321565</v>
+        <v>0.318665</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.362117</v>
+        <v>0.36366</v>
       </c>
       <c r="C135" t="n">
-        <v>0.365996</v>
+        <v>0.366672</v>
       </c>
       <c r="D135" t="n">
-        <v>0.392264</v>
+        <v>0.392889</v>
       </c>
       <c r="E135" t="n">
-        <v>0.31403</v>
+        <v>0.314631</v>
       </c>
       <c r="F135" t="n">
-        <v>0.332319</v>
+        <v>0.329419</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.364489</v>
+        <v>0.364568</v>
       </c>
       <c r="C136" t="n">
-        <v>0.370591</v>
+        <v>0.371989</v>
       </c>
       <c r="D136" t="n">
-        <v>0.398898</v>
+        <v>0.399474</v>
       </c>
       <c r="E136" t="n">
-        <v>0.322787</v>
+        <v>0.323233</v>
       </c>
       <c r="F136" t="n">
-        <v>0.34704</v>
+        <v>0.34423</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.368352</v>
+        <v>0.368329</v>
       </c>
       <c r="C137" t="n">
-        <v>0.379589</v>
+        <v>0.379683</v>
       </c>
       <c r="D137" t="n">
-        <v>0.403357</v>
+        <v>0.403783</v>
       </c>
       <c r="E137" t="n">
-        <v>0.293805</v>
+        <v>0.294794</v>
       </c>
       <c r="F137" t="n">
-        <v>0.304706</v>
+        <v>0.303179</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.425079</v>
+        <v>0.42611</v>
       </c>
       <c r="C138" t="n">
-        <v>0.394571</v>
+        <v>0.394464</v>
       </c>
       <c r="D138" t="n">
-        <v>0.410777</v>
+        <v>0.411583</v>
       </c>
       <c r="E138" t="n">
-        <v>0.296123</v>
+        <v>0.296834</v>
       </c>
       <c r="F138" t="n">
-        <v>0.306536</v>
+        <v>0.305069</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.425541</v>
+        <v>0.426073</v>
       </c>
       <c r="C139" t="n">
-        <v>0.394764</v>
+        <v>0.394731</v>
       </c>
       <c r="D139" t="n">
-        <v>0.418694</v>
+        <v>0.419196</v>
       </c>
       <c r="E139" t="n">
-        <v>0.2985</v>
+        <v>0.298979</v>
       </c>
       <c r="F139" t="n">
-        <v>0.309018</v>
+        <v>0.307421</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.425567</v>
+        <v>0.426134</v>
       </c>
       <c r="C140" t="n">
-        <v>0.395236</v>
+        <v>0.395498</v>
       </c>
       <c r="D140" t="n">
-        <v>0.423651</v>
+        <v>0.424395</v>
       </c>
       <c r="E140" t="n">
-        <v>0.300476</v>
+        <v>0.301175</v>
       </c>
       <c r="F140" t="n">
-        <v>0.311622</v>
+        <v>0.30994</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.425855</v>
+        <v>0.426194</v>
       </c>
       <c r="C141" t="n">
-        <v>0.396658</v>
+        <v>0.396157</v>
       </c>
       <c r="D141" t="n">
-        <v>0.432709</v>
+        <v>0.433253</v>
       </c>
       <c r="E141" t="n">
-        <v>0.302672</v>
+        <v>0.303307</v>
       </c>
       <c r="F141" t="n">
-        <v>0.313944</v>
+        <v>0.312679</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.425552</v>
+        <v>0.425885</v>
       </c>
       <c r="C142" t="n">
-        <v>0.397113</v>
+        <v>0.397164</v>
       </c>
       <c r="D142" t="n">
-        <v>0.438486</v>
+        <v>0.439099</v>
       </c>
       <c r="E142" t="n">
-        <v>0.304993</v>
+        <v>0.305768</v>
       </c>
       <c r="F142" t="n">
-        <v>0.317274</v>
+        <v>0.315796</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.425357</v>
+        <v>0.42526</v>
       </c>
       <c r="C143" t="n">
-        <v>0.398042</v>
+        <v>0.398396</v>
       </c>
       <c r="D143" t="n">
-        <v>0.448064</v>
+        <v>0.448609</v>
       </c>
       <c r="E143" t="n">
-        <v>0.307869</v>
+        <v>0.308214</v>
       </c>
       <c r="F143" t="n">
-        <v>0.31754</v>
+        <v>0.3155</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0363803</v>
+        <v>0.0367924</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0366222</v>
+        <v>0.0371785</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0726876</v>
+        <v>0.0723501</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0366151</v>
+        <v>0.0366506</v>
       </c>
       <c r="F2" t="n">
-        <v>0.037796</v>
+        <v>0.0383242</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0351907</v>
+        <v>0.0356864</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0361801</v>
+        <v>0.0364913</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0788986</v>
+        <v>0.07880819999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0371764</v>
+        <v>0.0372976</v>
       </c>
       <c r="F3" t="n">
-        <v>0.038357</v>
+        <v>0.0390527</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.035171</v>
+        <v>0.0361875</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0366977</v>
+        <v>0.0367807</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0866707</v>
+        <v>0.0865966</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0373168</v>
+        <v>0.0378548</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0387912</v>
+        <v>0.0392029</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0355953</v>
+        <v>0.0362648</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0370546</v>
+        <v>0.0367718</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09452579999999999</v>
+        <v>0.0941796</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0375123</v>
+        <v>0.0379096</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0389274</v>
+        <v>0.0395183</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0355494</v>
+        <v>0.0352881</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0366136</v>
+        <v>0.0366883</v>
       </c>
       <c r="D6" t="n">
-        <v>0.101974</v>
+        <v>0.100895</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0377143</v>
+        <v>0.0378585</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0393729</v>
+        <v>0.0400444</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0361512</v>
+        <v>0.0367448</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0369182</v>
+        <v>0.0371007</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0626225</v>
+        <v>0.0618398</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0382256</v>
+        <v>0.0384126</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0398721</v>
+        <v>0.0404469</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0358323</v>
+        <v>0.0367747</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0376268</v>
+        <v>0.037503</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0655522</v>
+        <v>0.0659588</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0393584</v>
+        <v>0.0399017</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0412084</v>
+        <v>0.0416036</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0366766</v>
+        <v>0.0372249</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0379072</v>
+        <v>0.0379498</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0713395</v>
+        <v>0.0713197</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0400413</v>
+        <v>0.0401183</v>
       </c>
       <c r="F9" t="n">
-        <v>0.040216</v>
+        <v>0.040482</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.044048</v>
+        <v>0.0431215</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0430094</v>
+        <v>0.0425112</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0750951</v>
+        <v>0.0750547</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0408835</v>
+        <v>0.0400962</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0403452</v>
+        <v>0.0407233</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0436605</v>
+        <v>0.0429903</v>
       </c>
       <c r="C11" t="n">
-        <v>0.042732</v>
+        <v>0.0425664</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0810666</v>
+        <v>0.08072600000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0411559</v>
+        <v>0.0404508</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0405801</v>
+        <v>0.0409884</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0438164</v>
+        <v>0.0430531</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0427245</v>
+        <v>0.0427535</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0868543</v>
+        <v>0.086872</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0415897</v>
+        <v>0.0408299</v>
       </c>
       <c r="F12" t="n">
-        <v>0.040881</v>
+        <v>0.0414415</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0441676</v>
+        <v>0.0437728</v>
       </c>
       <c r="C13" t="n">
-        <v>0.042864</v>
+        <v>0.0429643</v>
       </c>
       <c r="D13" t="n">
-        <v>0.091155</v>
+        <v>0.0916039</v>
       </c>
       <c r="E13" t="n">
-        <v>0.041607</v>
+        <v>0.0414385</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0411531</v>
+        <v>0.0416126</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0441333</v>
+        <v>0.0433964</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0426494</v>
+        <v>0.0429931</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0970491</v>
+        <v>0.09685240000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0416784</v>
+        <v>0.0415556</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0414533</v>
+        <v>0.0419959</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0444375</v>
+        <v>0.0436847</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0429573</v>
+        <v>0.0431987</v>
       </c>
       <c r="D15" t="n">
-        <v>0.102261</v>
+        <v>0.102244</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0419693</v>
+        <v>0.0419199</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0417756</v>
+        <v>0.0421516</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0445344</v>
+        <v>0.0437478</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0430752</v>
+        <v>0.0432902</v>
       </c>
       <c r="D16" t="n">
-        <v>0.107483</v>
+        <v>0.107479</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0424063</v>
+        <v>0.0420789</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0420062</v>
+        <v>0.0424205</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0440315</v>
+        <v>0.0437302</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0427459</v>
+        <v>0.04355</v>
       </c>
       <c r="D17" t="n">
-        <v>0.112453</v>
+        <v>0.11285</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0422729</v>
+        <v>0.0426255</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0422612</v>
+        <v>0.0427184</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0444383</v>
+        <v>0.04378</v>
       </c>
       <c r="C18" t="n">
-        <v>0.043144</v>
+        <v>0.0433205</v>
       </c>
       <c r="D18" t="n">
-        <v>0.116888</v>
+        <v>0.117143</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0428588</v>
+        <v>0.0429381</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0424516</v>
+        <v>0.0429003</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0446312</v>
+        <v>0.0440043</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0433</v>
+        <v>0.0434997</v>
       </c>
       <c r="D19" t="n">
-        <v>0.121227</v>
+        <v>0.121378</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0430252</v>
+        <v>0.0430337</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0427194</v>
+        <v>0.0433049</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0441678</v>
+        <v>0.0439295</v>
       </c>
       <c r="C20" t="n">
-        <v>0.043442</v>
+        <v>0.0435347</v>
       </c>
       <c r="D20" t="n">
-        <v>0.124663</v>
+        <v>0.124923</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0426682</v>
+        <v>0.042958</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0433999</v>
+        <v>0.0437873</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.044397</v>
+        <v>0.0442388</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0433687</v>
+        <v>0.0436938</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0887889</v>
+        <v>0.0888207</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0436588</v>
+        <v>0.0438179</v>
       </c>
       <c r="F21" t="n">
-        <v>0.044824</v>
+        <v>0.045029</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0448076</v>
+        <v>0.0444657</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0444947</v>
+        <v>0.0443599</v>
       </c>
       <c r="D22" t="n">
-        <v>0.09179420000000001</v>
+        <v>0.091767</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0472963</v>
+        <v>0.0472298</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0471107</v>
+        <v>0.0499843</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0455588</v>
+        <v>0.0453753</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0447989</v>
+        <v>0.0450833</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0949144</v>
+        <v>0.0949207</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0451327</v>
+        <v>0.0454127</v>
       </c>
       <c r="F23" t="n">
-        <v>0.045753</v>
+        <v>0.0463888</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0488394</v>
+        <v>0.0488785</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0496374</v>
+        <v>0.0500644</v>
       </c>
       <c r="D24" t="n">
-        <v>0.09877569999999999</v>
+        <v>0.0987336</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0455228</v>
+        <v>0.0454996</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0460332</v>
+        <v>0.0466103</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0491396</v>
+        <v>0.0487416</v>
       </c>
       <c r="C25" t="n">
-        <v>0.049612</v>
+        <v>0.050074</v>
       </c>
       <c r="D25" t="n">
-        <v>0.101633</v>
+        <v>0.101993</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0459757</v>
+        <v>0.0461129</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0462032</v>
+        <v>0.0468814</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0489573</v>
+        <v>0.0488886</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0497961</v>
+        <v>0.0502174</v>
       </c>
       <c r="D26" t="n">
-        <v>0.105538</v>
+        <v>0.105739</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0465485</v>
+        <v>0.0462582</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0466691</v>
+        <v>0.0471487</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0488873</v>
+        <v>0.0488102</v>
       </c>
       <c r="C27" t="n">
-        <v>0.049865</v>
+        <v>0.0502904</v>
       </c>
       <c r="D27" t="n">
-        <v>0.109381</v>
+        <v>0.109651</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0468278</v>
+        <v>0.0466659</v>
       </c>
       <c r="F27" t="n">
-        <v>0.047031</v>
+        <v>0.0474833</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0490103</v>
+        <v>0.0488952</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0500614</v>
+        <v>0.0505303</v>
       </c>
       <c r="D28" t="n">
-        <v>0.113522</v>
+        <v>0.113755</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0467062</v>
+        <v>0.0469111</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0470809</v>
+        <v>0.04767</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0493005</v>
+        <v>0.049305</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0500802</v>
+        <v>0.0505728</v>
       </c>
       <c r="D29" t="n">
-        <v>0.117496</v>
+        <v>0.11782</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0470924</v>
+        <v>0.046954</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0472184</v>
+        <v>0.047956</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0490602</v>
+        <v>0.0489278</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0501369</v>
+        <v>0.049998</v>
       </c>
       <c r="D30" t="n">
-        <v>0.121653</v>
+        <v>0.121709</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0476984</v>
+        <v>0.0476053</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0479338</v>
+        <v>0.0481168</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.049223</v>
+        <v>0.0492203</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0503498</v>
+        <v>0.0507472</v>
       </c>
       <c r="D31" t="n">
-        <v>0.125816</v>
+        <v>0.125865</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0477193</v>
+        <v>0.0476452</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0477951</v>
+        <v>0.0485274</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.049207</v>
+        <v>0.049083</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0504251</v>
+        <v>0.0502865</v>
       </c>
       <c r="D32" t="n">
-        <v>0.12899</v>
+        <v>0.129067</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0483244</v>
+        <v>0.0481024</v>
       </c>
       <c r="F32" t="n">
-        <v>0.048544</v>
+        <v>0.0488563</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0496748</v>
+        <v>0.0493447</v>
       </c>
       <c r="C33" t="n">
-        <v>0.050341</v>
+        <v>0.0508359</v>
       </c>
       <c r="D33" t="n">
-        <v>0.132599</v>
+        <v>0.132682</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0482737</v>
+        <v>0.0482423</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0485445</v>
+        <v>0.0492399</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0495465</v>
+        <v>0.049399</v>
       </c>
       <c r="C34" t="n">
-        <v>0.050684</v>
+        <v>0.0504821</v>
       </c>
       <c r="D34" t="n">
-        <v>0.135847</v>
+        <v>0.135878</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0489366</v>
+        <v>0.0487005</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0497324</v>
+        <v>0.0506532</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0501521</v>
+        <v>0.0500772</v>
       </c>
       <c r="C35" t="n">
-        <v>0.051195</v>
+        <v>0.0515255</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0969197</v>
+        <v>0.0969246</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0521772</v>
+        <v>0.0520958</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0523769</v>
+        <v>0.0550904</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0507373</v>
+        <v>0.0505128</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0520442</v>
+        <v>0.05182</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0994249</v>
+        <v>0.0994009</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0588953</v>
+        <v>0.0589251</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0603186</v>
+        <v>0.06311799999999999</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0542609</v>
+        <v>0.0540255</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0554317</v>
+        <v>0.0559145</v>
       </c>
       <c r="D37" t="n">
-        <v>0.101559</v>
+        <v>0.101518</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0497362</v>
+        <v>0.0498528</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0500868</v>
+        <v>0.050577</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0536826</v>
+        <v>0.054618</v>
       </c>
       <c r="C38" t="n">
-        <v>0.056656</v>
+        <v>0.0566291</v>
       </c>
       <c r="D38" t="n">
-        <v>0.104305</v>
+        <v>0.104184</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0494312</v>
+        <v>0.0494234</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0500952</v>
+        <v>0.0506354</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0537289</v>
+        <v>0.0543026</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0566764</v>
+        <v>0.0566495</v>
       </c>
       <c r="D39" t="n">
-        <v>0.107189</v>
+        <v>0.107137</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0499528</v>
+        <v>0.0497285</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0506314</v>
+        <v>0.0509668</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0541477</v>
+        <v>0.0533244</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0567655</v>
+        <v>0.0568051</v>
       </c>
       <c r="D40" t="n">
-        <v>0.110486</v>
+        <v>0.110392</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0502739</v>
+        <v>0.0500226</v>
       </c>
       <c r="F40" t="n">
-        <v>0.050794</v>
+        <v>0.0513831</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.05324</v>
+        <v>0.0543619</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0569125</v>
+        <v>0.0568936</v>
       </c>
       <c r="D41" t="n">
-        <v>0.113892</v>
+        <v>0.113778</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0505154</v>
+        <v>0.0504852</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0511941</v>
+        <v>0.0517419</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0535782</v>
+        <v>0.0543481</v>
       </c>
       <c r="C42" t="n">
-        <v>0.057001</v>
+        <v>0.0569645</v>
       </c>
       <c r="D42" t="n">
-        <v>0.117466</v>
+        <v>0.11735</v>
       </c>
       <c r="E42" t="n">
-        <v>0.050723</v>
+        <v>0.0508172</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0513005</v>
+        <v>0.0518383</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0547042</v>
+        <v>0.0535935</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0571058</v>
+        <v>0.057118</v>
       </c>
       <c r="D43" t="n">
-        <v>0.121392</v>
+        <v>0.121281</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0511385</v>
+        <v>0.0510543</v>
       </c>
       <c r="F43" t="n">
-        <v>0.051588</v>
+        <v>0.0522132</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.053541</v>
+        <v>0.0546192</v>
       </c>
       <c r="C44" t="n">
-        <v>0.057149</v>
+        <v>0.0571547</v>
       </c>
       <c r="D44" t="n">
-        <v>0.125323</v>
+        <v>0.125225</v>
       </c>
       <c r="E44" t="n">
-        <v>0.051269</v>
+        <v>0.0513808</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0517305</v>
+        <v>0.0526022</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0542859</v>
+        <v>0.0544321</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0572532</v>
+        <v>0.0573154</v>
       </c>
       <c r="D45" t="n">
-        <v>0.129305</v>
+        <v>0.129186</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0520144</v>
+        <v>0.0516634</v>
       </c>
       <c r="F45" t="n">
-        <v>0.052262</v>
+        <v>0.0530058</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.05385</v>
+        <v>0.0549467</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0573073</v>
+        <v>0.0574331</v>
       </c>
       <c r="D46" t="n">
-        <v>0.132866</v>
+        <v>0.132732</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0525402</v>
+        <v>0.0521682</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0527592</v>
+        <v>0.0539967</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0540389</v>
+        <v>0.0552153</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0574531</v>
+        <v>0.0576172</v>
       </c>
       <c r="D47" t="n">
-        <v>0.135988</v>
+        <v>0.135936</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0532403</v>
+        <v>0.053084</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0537805</v>
+        <v>0.0557658</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0545832</v>
+        <v>0.0554563</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0578725</v>
+        <v>0.0580122</v>
       </c>
       <c r="D48" t="n">
-        <v>0.139664</v>
+        <v>0.13955</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0557355</v>
+        <v>0.0559826</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0569753</v>
+        <v>0.0594641</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0551606</v>
+        <v>0.056742</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0587528</v>
+        <v>0.0587957</v>
       </c>
       <c r="D49" t="n">
-        <v>0.142664</v>
+        <v>0.142539</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0596471</v>
+        <v>0.0599717</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0612446</v>
+        <v>0.0633102</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0588252</v>
+        <v>0.0590286</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0610933</v>
+        <v>0.0611563</v>
       </c>
       <c r="D50" t="n">
-        <v>0.101541</v>
+        <v>0.101531</v>
       </c>
       <c r="E50" t="n">
-        <v>0.06468699999999999</v>
+        <v>0.0648523</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0666742</v>
+        <v>0.0683043</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0608926</v>
+        <v>0.06321880000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0643633</v>
+        <v>0.06390759999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>0.103726</v>
+        <v>0.103817</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0528788</v>
+        <v>0.0532443</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0524897</v>
+        <v>0.0533571</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0673359</v>
+        <v>0.0671547</v>
       </c>
       <c r="C52" t="n">
-        <v>0.070553</v>
+        <v>0.0708288</v>
       </c>
       <c r="D52" t="n">
-        <v>0.106122</v>
+        <v>0.106174</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0522325</v>
+        <v>0.0523291</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0529571</v>
+        <v>0.0534554</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0605864</v>
+        <v>0.0604872</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0635058</v>
+        <v>0.06366810000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>0.108922</v>
+        <v>0.109036</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0526034</v>
+        <v>0.0528072</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0531482</v>
+        <v>0.054119</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0608571</v>
+        <v>0.0603775</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0634004</v>
+        <v>0.0635819</v>
       </c>
       <c r="D54" t="n">
-        <v>0.112028</v>
+        <v>0.112049</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0533675</v>
+        <v>0.0530754</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0534463</v>
+        <v>0.05438</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0607666</v>
+        <v>0.0605474</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0635423</v>
+        <v>0.06361</v>
       </c>
       <c r="D55" t="n">
-        <v>0.115511</v>
+        <v>0.115543</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0538584</v>
+        <v>0.0535072</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0538824</v>
+        <v>0.0547377</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0611329</v>
+        <v>0.0607008</v>
       </c>
       <c r="C56" t="n">
-        <v>0.063842</v>
+        <v>0.0640807</v>
       </c>
       <c r="D56" t="n">
-        <v>0.119175</v>
+        <v>0.119155</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0542033</v>
+        <v>0.0538113</v>
       </c>
       <c r="F56" t="n">
-        <v>0.054213</v>
+        <v>0.0549477</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0607706</v>
+        <v>0.0610746</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0639663</v>
+        <v>0.06411790000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>0.122965</v>
+        <v>0.123</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0542673</v>
+        <v>0.0543412</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0547499</v>
+        <v>0.0569057</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0613167</v>
+        <v>0.06121</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0640067</v>
+        <v>0.0639332</v>
       </c>
       <c r="D58" t="n">
-        <v>0.126755</v>
+        <v>0.126879</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0548653</v>
+        <v>0.0547645</v>
       </c>
       <c r="F58" t="n">
-        <v>0.055452</v>
+        <v>0.0571102</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0615712</v>
+        <v>0.0611846</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0642368</v>
+        <v>0.06444270000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>0.13045</v>
+        <v>0.130591</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0558922</v>
+        <v>0.0554271</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0563131</v>
+        <v>0.0591102</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0610809</v>
+        <v>0.0613684</v>
       </c>
       <c r="C60" t="n">
-        <v>0.06426750000000001</v>
+        <v>0.0643744</v>
       </c>
       <c r="D60" t="n">
-        <v>0.134292</v>
+        <v>0.1345</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0571817</v>
+        <v>0.0569735</v>
       </c>
       <c r="F60" t="n">
-        <v>0.05742</v>
+        <v>0.0607179</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0622318</v>
+        <v>0.0616873</v>
       </c>
       <c r="C61" t="n">
-        <v>0.065069</v>
+        <v>0.0650461</v>
       </c>
       <c r="D61" t="n">
-        <v>0.138161</v>
+        <v>0.138469</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0590027</v>
+        <v>0.059342</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0595304</v>
+        <v>0.0613706</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.062105</v>
+        <v>0.0621052</v>
       </c>
       <c r="C62" t="n">
-        <v>0.06554550000000001</v>
+        <v>0.0658296</v>
       </c>
       <c r="D62" t="n">
-        <v>0.141887</v>
+        <v>0.142075</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0614922</v>
+        <v>0.0617672</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0621037</v>
+        <v>0.0655292</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0643094</v>
+        <v>0.06461459999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0678429</v>
+        <v>0.0676127</v>
       </c>
       <c r="D63" t="n">
-        <v>0.145218</v>
+        <v>0.145471</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0644102</v>
+        <v>0.0647143</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0654044</v>
+        <v>0.06901259999999999</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0657355</v>
+        <v>0.0663821</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0697498</v>
+        <v>0.06970460000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.108876</v>
+        <v>0.109049</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0682217</v>
+        <v>0.0682352</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0709383</v>
+        <v>0.07344589999999999</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.06891460000000001</v>
+        <v>0.0689679</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0727517</v>
+        <v>0.0736718</v>
       </c>
       <c r="D65" t="n">
-        <v>0.111876</v>
+        <v>0.111532</v>
       </c>
       <c r="E65" t="n">
-        <v>0.07447860000000001</v>
+        <v>0.0741073</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0779265</v>
+        <v>0.08049920000000001</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0729004</v>
+        <v>0.0724043</v>
       </c>
       <c r="C66" t="n">
-        <v>0.07851229999999999</v>
+        <v>0.0782244</v>
       </c>
       <c r="D66" t="n">
-        <v>0.11448</v>
+        <v>0.115431</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0556087</v>
+        <v>0.0560898</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0583047</v>
+        <v>0.0596436</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.07126250000000001</v>
+        <v>0.0712535</v>
       </c>
       <c r="C67" t="n">
-        <v>0.07098</v>
+        <v>0.07145319999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.118323</v>
+        <v>0.118779</v>
       </c>
       <c r="E67" t="n">
-        <v>0.055847</v>
+        <v>0.0560477</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0589412</v>
+        <v>0.0601211</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0721542</v>
+        <v>0.0715602</v>
       </c>
       <c r="C68" t="n">
-        <v>0.07185709999999999</v>
+        <v>0.0718777</v>
       </c>
       <c r="D68" t="n">
-        <v>0.123299</v>
+        <v>0.123358</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0561975</v>
+        <v>0.0580614</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0599625</v>
+        <v>0.0611515</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0732059</v>
+        <v>0.0713052</v>
       </c>
       <c r="C69" t="n">
-        <v>0.07227790000000001</v>
+        <v>0.07234260000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.129545</v>
+        <v>0.129102</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0566928</v>
+        <v>0.0574678</v>
       </c>
       <c r="F69" t="n">
-        <v>0.061312</v>
+        <v>0.0621503</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0736385</v>
+        <v>0.072709</v>
       </c>
       <c r="C70" t="n">
-        <v>0.07292460000000001</v>
+        <v>0.07282180000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>0.134607</v>
+        <v>0.135432</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0576293</v>
+        <v>0.0571992</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0626916</v>
+        <v>0.063483</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.07320699999999999</v>
+        <v>0.0721227</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0734199</v>
+        <v>0.0733687</v>
       </c>
       <c r="D71" t="n">
-        <v>0.14079</v>
+        <v>0.141968</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0580076</v>
+        <v>0.0590043</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0637778</v>
+        <v>0.0652544</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0741391</v>
+        <v>0.0712105</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0741781</v>
+        <v>0.0743518</v>
       </c>
       <c r="D72" t="n">
-        <v>0.148596</v>
+        <v>0.14689</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0588897</v>
+        <v>0.058937</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06542050000000001</v>
+        <v>0.06707929999999999</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.07402599999999999</v>
+        <v>0.0723569</v>
       </c>
       <c r="C73" t="n">
-        <v>0.075021</v>
+        <v>0.07497860000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>0.156463</v>
+        <v>0.155736</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0599675</v>
+        <v>0.0600348</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06683500000000001</v>
+        <v>0.0690659</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.074904</v>
+        <v>0.0719079</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0757683</v>
+        <v>0.0755222</v>
       </c>
       <c r="D74" t="n">
-        <v>0.166558</v>
+        <v>0.165222</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0612038</v>
+        <v>0.0627041</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0692387</v>
+        <v>0.0698684</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.07590180000000001</v>
+        <v>0.0732058</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0770274</v>
+        <v>0.077725</v>
       </c>
       <c r="D75" t="n">
-        <v>0.175171</v>
+        <v>0.173216</v>
       </c>
       <c r="E75" t="n">
-        <v>0.06265220000000001</v>
+        <v>0.0622708</v>
       </c>
       <c r="F75" t="n">
-        <v>0.07192759999999999</v>
+        <v>0.0737162</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.07585409999999999</v>
+        <v>0.07334690000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>0.07888290000000001</v>
+        <v>0.0796721</v>
       </c>
       <c r="D76" t="n">
-        <v>0.180787</v>
+        <v>0.179569</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0653379</v>
+        <v>0.06450210000000001</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07500469999999999</v>
+        <v>0.0770021</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0778269</v>
+        <v>0.07542939999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0809204</v>
+        <v>0.0815097</v>
       </c>
       <c r="D77" t="n">
-        <v>0.193538</v>
+        <v>0.191562</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0680597</v>
+        <v>0.0671253</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0791504</v>
+        <v>0.0812823</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0783957</v>
+        <v>0.07897029999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.08353389999999999</v>
+        <v>0.0839772</v>
       </c>
       <c r="D78" t="n">
-        <v>0.187779</v>
+        <v>0.186175</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0711791</v>
+        <v>0.0709333</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0847311</v>
+        <v>0.0870493</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0823738</v>
+        <v>0.08005569999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0880365</v>
+        <v>0.0892392</v>
       </c>
       <c r="D79" t="n">
-        <v>0.193703</v>
+        <v>0.192368</v>
       </c>
       <c r="E79" t="n">
-        <v>0.07679320000000001</v>
+        <v>0.07659340000000001</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0923008</v>
+        <v>0.095015</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0853313</v>
+        <v>0.0840463</v>
       </c>
       <c r="C80" t="n">
-        <v>0.093599</v>
+        <v>0.094277</v>
       </c>
       <c r="D80" t="n">
-        <v>0.202469</v>
+        <v>0.201138</v>
       </c>
       <c r="E80" t="n">
-        <v>0.111295</v>
+        <v>0.10601</v>
       </c>
       <c r="F80" t="n">
-        <v>0.101829</v>
+        <v>0.101818</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.172424</v>
+        <v>0.174834</v>
       </c>
       <c r="C81" t="n">
-        <v>0.141852</v>
+        <v>0.140151</v>
       </c>
       <c r="D81" t="n">
-        <v>0.211933</v>
+        <v>0.210417</v>
       </c>
       <c r="E81" t="n">
-        <v>0.112212</v>
+        <v>0.109967</v>
       </c>
       <c r="F81" t="n">
-        <v>0.102153</v>
+        <v>0.102632</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.178336</v>
+        <v>0.176732</v>
       </c>
       <c r="C82" t="n">
-        <v>0.142198</v>
+        <v>0.140759</v>
       </c>
       <c r="D82" t="n">
-        <v>0.218659</v>
+        <v>0.217129</v>
       </c>
       <c r="E82" t="n">
-        <v>0.115602</v>
+        <v>0.111466</v>
       </c>
       <c r="F82" t="n">
-        <v>0.103162</v>
+        <v>0.103681</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.179493</v>
+        <v>0.177351</v>
       </c>
       <c r="C83" t="n">
-        <v>0.142954</v>
+        <v>0.141635</v>
       </c>
       <c r="D83" t="n">
-        <v>0.227805</v>
+        <v>0.226338</v>
       </c>
       <c r="E83" t="n">
-        <v>0.116649</v>
+        <v>0.113782</v>
       </c>
       <c r="F83" t="n">
-        <v>0.104274</v>
+        <v>0.104442</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.178622</v>
+        <v>0.178274</v>
       </c>
       <c r="C84" t="n">
-        <v>0.143846</v>
+        <v>0.142388</v>
       </c>
       <c r="D84" t="n">
-        <v>0.238524</v>
+        <v>0.236591</v>
       </c>
       <c r="E84" t="n">
-        <v>0.118637</v>
+        <v>0.116822</v>
       </c>
       <c r="F84" t="n">
-        <v>0.10475</v>
+        <v>0.105376</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.180661</v>
+        <v>0.178806</v>
       </c>
       <c r="C85" t="n">
-        <v>0.143768</v>
+        <v>0.141894</v>
       </c>
       <c r="D85" t="n">
-        <v>0.250574</v>
+        <v>0.249252</v>
       </c>
       <c r="E85" t="n">
-        <v>0.120598</v>
+        <v>0.116787</v>
       </c>
       <c r="F85" t="n">
-        <v>0.110972</v>
+        <v>0.109032</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.180228</v>
+        <v>0.179486</v>
       </c>
       <c r="C86" t="n">
-        <v>0.145045</v>
+        <v>0.143685</v>
       </c>
       <c r="D86" t="n">
-        <v>0.257748</v>
+        <v>0.256454</v>
       </c>
       <c r="E86" t="n">
-        <v>0.12283</v>
+        <v>0.118968</v>
       </c>
       <c r="F86" t="n">
-        <v>0.112155</v>
+        <v>0.110486</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.181519</v>
+        <v>0.180066</v>
       </c>
       <c r="C87" t="n">
-        <v>0.145627</v>
+        <v>0.144352</v>
       </c>
       <c r="D87" t="n">
-        <v>0.27091</v>
+        <v>0.270301</v>
       </c>
       <c r="E87" t="n">
-        <v>0.126024</v>
+        <v>0.121337</v>
       </c>
       <c r="F87" t="n">
-        <v>0.112617</v>
+        <v>0.111983</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.183865</v>
+        <v>0.180318</v>
       </c>
       <c r="C88" t="n">
-        <v>0.148069</v>
+        <v>0.147118</v>
       </c>
       <c r="D88" t="n">
-        <v>0.279175</v>
+        <v>0.278245</v>
       </c>
       <c r="E88" t="n">
-        <v>0.127935</v>
+        <v>0.124467</v>
       </c>
       <c r="F88" t="n">
-        <v>0.115625</v>
+        <v>0.113105</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.182298</v>
+        <v>0.181108</v>
       </c>
       <c r="C89" t="n">
-        <v>0.14789</v>
+        <v>0.14655</v>
       </c>
       <c r="D89" t="n">
-        <v>0.288592</v>
+        <v>0.287971</v>
       </c>
       <c r="E89" t="n">
-        <v>0.129743</v>
+        <v>0.126195</v>
       </c>
       <c r="F89" t="n">
-        <v>0.113369</v>
+        <v>0.113563</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.183194</v>
+        <v>0.180788</v>
       </c>
       <c r="C90" t="n">
-        <v>0.150597</v>
+        <v>0.15012</v>
       </c>
       <c r="D90" t="n">
-        <v>0.29833</v>
+        <v>0.297612</v>
       </c>
       <c r="E90" t="n">
-        <v>0.132094</v>
+        <v>0.128636</v>
       </c>
       <c r="F90" t="n">
-        <v>0.116158</v>
+        <v>0.117346</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.183227</v>
+        <v>0.182006</v>
       </c>
       <c r="C91" t="n">
-        <v>0.151293</v>
+        <v>0.150566</v>
       </c>
       <c r="D91" t="n">
-        <v>0.308947</v>
+        <v>0.30714</v>
       </c>
       <c r="E91" t="n">
-        <v>0.133224</v>
+        <v>0.130952</v>
       </c>
       <c r="F91" t="n">
-        <v>0.118487</v>
+        <v>0.119475</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.183341</v>
+        <v>0.18267</v>
       </c>
       <c r="C92" t="n">
-        <v>0.152442</v>
+        <v>0.152418</v>
       </c>
       <c r="D92" t="n">
-        <v>0.288813</v>
+        <v>0.288172</v>
       </c>
       <c r="E92" t="n">
-        <v>0.136602</v>
+        <v>0.13572</v>
       </c>
       <c r="F92" t="n">
-        <v>0.124622</v>
+        <v>0.126138</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.184359</v>
+        <v>0.184194</v>
       </c>
       <c r="C93" t="n">
-        <v>0.156949</v>
+        <v>0.156344</v>
       </c>
       <c r="D93" t="n">
-        <v>0.293728</v>
+        <v>0.29277</v>
       </c>
       <c r="E93" t="n">
-        <v>0.141107</v>
+        <v>0.1401</v>
       </c>
       <c r="F93" t="n">
-        <v>0.130564</v>
+        <v>0.131304</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.186629</v>
+        <v>0.186466</v>
       </c>
       <c r="C94" t="n">
-        <v>0.162829</v>
+        <v>0.160883</v>
       </c>
       <c r="D94" t="n">
-        <v>0.299948</v>
+        <v>0.299572</v>
       </c>
       <c r="E94" t="n">
-        <v>0.206149</v>
+        <v>0.206156</v>
       </c>
       <c r="F94" t="n">
-        <v>0.199708</v>
+        <v>0.20027</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.244088</v>
+        <v>0.243878</v>
       </c>
       <c r="C95" t="n">
-        <v>0.221515</v>
+        <v>0.221862</v>
       </c>
       <c r="D95" t="n">
-        <v>0.306021</v>
+        <v>0.305249</v>
       </c>
       <c r="E95" t="n">
-        <v>0.207466</v>
+        <v>0.207493</v>
       </c>
       <c r="F95" t="n">
-        <v>0.200738</v>
+        <v>0.201267</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.244493</v>
+        <v>0.243992</v>
       </c>
       <c r="C96" t="n">
-        <v>0.221754</v>
+        <v>0.221432</v>
       </c>
       <c r="D96" t="n">
-        <v>0.318038</v>
+        <v>0.317052</v>
       </c>
       <c r="E96" t="n">
-        <v>0.209238</v>
+        <v>0.209593</v>
       </c>
       <c r="F96" t="n">
-        <v>0.201297</v>
+        <v>0.201537</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.244217</v>
+        <v>0.243938</v>
       </c>
       <c r="C97" t="n">
-        <v>0.222123</v>
+        <v>0.222293</v>
       </c>
       <c r="D97" t="n">
-        <v>0.323918</v>
+        <v>0.323028</v>
       </c>
       <c r="E97" t="n">
-        <v>0.210973</v>
+        <v>0.211736</v>
       </c>
       <c r="F97" t="n">
-        <v>0.202622</v>
+        <v>0.203303</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.244624</v>
+        <v>0.244693</v>
       </c>
       <c r="C98" t="n">
-        <v>0.222594</v>
+        <v>0.222492</v>
       </c>
       <c r="D98" t="n">
-        <v>0.333178</v>
+        <v>0.332356</v>
       </c>
       <c r="E98" t="n">
-        <v>0.212797</v>
+        <v>0.213174</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2037</v>
+        <v>0.204989</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.24432</v>
+        <v>0.244542</v>
       </c>
       <c r="C99" t="n">
-        <v>0.222939</v>
+        <v>0.223099</v>
       </c>
       <c r="D99" t="n">
-        <v>0.340707</v>
+        <v>0.339971</v>
       </c>
       <c r="E99" t="n">
-        <v>0.214339</v>
+        <v>0.215384</v>
       </c>
       <c r="F99" t="n">
-        <v>0.205188</v>
+        <v>0.204903</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.24493</v>
+        <v>0.244741</v>
       </c>
       <c r="C100" t="n">
-        <v>0.223393</v>
+        <v>0.223484</v>
       </c>
       <c r="D100" t="n">
-        <v>0.348982</v>
+        <v>0.348247</v>
       </c>
       <c r="E100" t="n">
-        <v>0.21683</v>
+        <v>0.217002</v>
       </c>
       <c r="F100" t="n">
-        <v>0.206754</v>
+        <v>0.206907</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.244564</v>
+        <v>0.243988</v>
       </c>
       <c r="C101" t="n">
-        <v>0.223922</v>
+        <v>0.22358</v>
       </c>
       <c r="D101" t="n">
-        <v>0.358451</v>
+        <v>0.357784</v>
       </c>
       <c r="E101" t="n">
-        <v>0.219222</v>
+        <v>0.21856</v>
       </c>
       <c r="F101" t="n">
-        <v>0.208577</v>
+        <v>0.207583</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.245288</v>
+        <v>0.244654</v>
       </c>
       <c r="C102" t="n">
-        <v>0.224948</v>
+        <v>0.224504</v>
       </c>
       <c r="D102" t="n">
-        <v>0.367635</v>
+        <v>0.366808</v>
       </c>
       <c r="E102" t="n">
-        <v>0.22051</v>
+        <v>0.220193</v>
       </c>
       <c r="F102" t="n">
-        <v>0.210358</v>
+        <v>0.209137</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.245342</v>
+        <v>0.244893</v>
       </c>
       <c r="C103" t="n">
-        <v>0.226251</v>
+        <v>0.225911</v>
       </c>
       <c r="D103" t="n">
-        <v>0.377725</v>
+        <v>0.376981</v>
       </c>
       <c r="E103" t="n">
-        <v>0.222511</v>
+        <v>0.22213</v>
       </c>
       <c r="F103" t="n">
-        <v>0.210906</v>
+        <v>0.212203</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.24583</v>
+        <v>0.244848</v>
       </c>
       <c r="C104" t="n">
-        <v>0.227184</v>
+        <v>0.227071</v>
       </c>
       <c r="D104" t="n">
-        <v>0.385922</v>
+        <v>0.385401</v>
       </c>
       <c r="E104" t="n">
-        <v>0.224225</v>
+        <v>0.22455</v>
       </c>
       <c r="F104" t="n">
-        <v>0.213606</v>
+        <v>0.213534</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.246078</v>
+        <v>0.245657</v>
       </c>
       <c r="C105" t="n">
-        <v>0.228724</v>
+        <v>0.229308</v>
       </c>
       <c r="D105" t="n">
-        <v>0.395695</v>
+        <v>0.394739</v>
       </c>
       <c r="E105" t="n">
-        <v>0.227255</v>
+        <v>0.226844</v>
       </c>
       <c r="F105" t="n">
-        <v>0.217125</v>
+        <v>0.216425</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.247749</v>
+        <v>0.246645</v>
       </c>
       <c r="C106" t="n">
-        <v>0.231576</v>
+        <v>0.231085</v>
       </c>
       <c r="D106" t="n">
-        <v>0.405561</v>
+        <v>0.404965</v>
       </c>
       <c r="E106" t="n">
-        <v>0.230302</v>
+        <v>0.230628</v>
       </c>
       <c r="F106" t="n">
-        <v>0.220778</v>
+        <v>0.221452</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.248355</v>
+        <v>0.248426</v>
       </c>
       <c r="C107" t="n">
-        <v>0.234671</v>
+        <v>0.23463</v>
       </c>
       <c r="D107" t="n">
-        <v>0.350508</v>
+        <v>0.34973</v>
       </c>
       <c r="E107" t="n">
-        <v>0.23469</v>
+        <v>0.234193</v>
       </c>
       <c r="F107" t="n">
-        <v>0.226283</v>
+        <v>0.227407</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.251298</v>
+        <v>0.251208</v>
       </c>
       <c r="C108" t="n">
-        <v>0.239606</v>
+        <v>0.239814</v>
       </c>
       <c r="D108" t="n">
-        <v>0.355763</v>
+        <v>0.355262</v>
       </c>
       <c r="E108" t="n">
-        <v>0.251839</v>
+        <v>0.251974</v>
       </c>
       <c r="F108" t="n">
-        <v>0.250292</v>
+        <v>0.249707</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.255522</v>
+        <v>0.255513</v>
       </c>
       <c r="C109" t="n">
-        <v>0.248233</v>
+        <v>0.248181</v>
       </c>
       <c r="D109" t="n">
-        <v>0.356809</v>
+        <v>0.356515</v>
       </c>
       <c r="E109" t="n">
-        <v>0.254103</v>
+        <v>0.253781</v>
       </c>
       <c r="F109" t="n">
-        <v>0.251553</v>
+        <v>0.251846</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.283191</v>
+        <v>0.282103</v>
       </c>
       <c r="C110" t="n">
-        <v>0.275121</v>
+        <v>0.274992</v>
       </c>
       <c r="D110" t="n">
-        <v>0.364813</v>
+        <v>0.364002</v>
       </c>
       <c r="E110" t="n">
-        <v>0.249893</v>
+        <v>0.249088</v>
       </c>
       <c r="F110" t="n">
-        <v>0.253048</v>
+        <v>0.25365</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.281865</v>
+        <v>0.279649</v>
       </c>
       <c r="C111" t="n">
-        <v>0.275483</v>
+        <v>0.275162</v>
       </c>
       <c r="D111" t="n">
-        <v>0.375797</v>
+        <v>0.375007</v>
       </c>
       <c r="E111" t="n">
-        <v>0.252309</v>
+        <v>0.25135</v>
       </c>
       <c r="F111" t="n">
-        <v>0.254876</v>
+        <v>0.255076</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.281174</v>
+        <v>0.283024</v>
       </c>
       <c r="C112" t="n">
-        <v>0.27785</v>
+        <v>0.275868</v>
       </c>
       <c r="D112" t="n">
-        <v>0.37956</v>
+        <v>0.379316</v>
       </c>
       <c r="E112" t="n">
-        <v>0.250871</v>
+        <v>0.251071</v>
       </c>
       <c r="F112" t="n">
-        <v>0.256601</v>
+        <v>0.256806</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.280791</v>
+        <v>0.281181</v>
       </c>
       <c r="C113" t="n">
-        <v>0.276952</v>
+        <v>0.276513</v>
       </c>
       <c r="D113" t="n">
-        <v>0.388717</v>
+        <v>0.388419</v>
       </c>
       <c r="E113" t="n">
-        <v>0.253541</v>
+        <v>0.253801</v>
       </c>
       <c r="F113" t="n">
-        <v>0.258082</v>
+        <v>0.258723</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.28143</v>
+        <v>0.284097</v>
       </c>
       <c r="C114" t="n">
-        <v>0.279214</v>
+        <v>0.276387</v>
       </c>
       <c r="D114" t="n">
-        <v>0.39718</v>
+        <v>0.396671</v>
       </c>
       <c r="E114" t="n">
-        <v>0.256229</v>
+        <v>0.256365</v>
       </c>
       <c r="F114" t="n">
-        <v>0.260576</v>
+        <v>0.261468</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.282783</v>
+        <v>0.28177</v>
       </c>
       <c r="C115" t="n">
-        <v>0.277155</v>
+        <v>0.278099</v>
       </c>
       <c r="D115" t="n">
-        <v>0.404916</v>
+        <v>0.404136</v>
       </c>
       <c r="E115" t="n">
-        <v>0.25935</v>
+        <v>0.258813</v>
       </c>
       <c r="F115" t="n">
-        <v>0.262801</v>
+        <v>0.263855</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.281662</v>
+        <v>0.28192</v>
       </c>
       <c r="C116" t="n">
-        <v>0.278181</v>
+        <v>0.279182</v>
       </c>
       <c r="D116" t="n">
-        <v>0.412501</v>
+        <v>0.412071</v>
       </c>
       <c r="E116" t="n">
-        <v>0.262249</v>
+        <v>0.261356</v>
       </c>
       <c r="F116" t="n">
-        <v>0.265757</v>
+        <v>0.266878</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.282937</v>
+        <v>0.284075</v>
       </c>
       <c r="C117" t="n">
-        <v>0.28078</v>
+        <v>0.280231</v>
       </c>
       <c r="D117" t="n">
-        <v>0.421456</v>
+        <v>0.420969</v>
       </c>
       <c r="E117" t="n">
-        <v>0.264535</v>
+        <v>0.264281</v>
       </c>
       <c r="F117" t="n">
-        <v>0.270121</v>
+        <v>0.269849</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.282359</v>
+        <v>0.283134</v>
       </c>
       <c r="C118" t="n">
-        <v>0.28147</v>
+        <v>0.280591</v>
       </c>
       <c r="D118" t="n">
-        <v>0.429755</v>
+        <v>0.429186</v>
       </c>
       <c r="E118" t="n">
-        <v>0.267825</v>
+        <v>0.267375</v>
       </c>
       <c r="F118" t="n">
-        <v>0.27293</v>
+        <v>0.27451</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.282821</v>
+        <v>0.282187</v>
       </c>
       <c r="C119" t="n">
-        <v>0.284047</v>
+        <v>0.284777</v>
       </c>
       <c r="D119" t="n">
-        <v>0.442748</v>
+        <v>0.442181</v>
       </c>
       <c r="E119" t="n">
-        <v>0.270572</v>
+        <v>0.271179</v>
       </c>
       <c r="F119" t="n">
-        <v>0.278171</v>
+        <v>0.28005</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.282759</v>
+        <v>0.283898</v>
       </c>
       <c r="C120" t="n">
-        <v>0.285718</v>
+        <v>0.285868</v>
       </c>
       <c r="D120" t="n">
-        <v>0.451685</v>
+        <v>0.451158</v>
       </c>
       <c r="E120" t="n">
-        <v>0.274837</v>
+        <v>0.274367</v>
       </c>
       <c r="F120" t="n">
-        <v>0.278825</v>
+        <v>0.28052</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.285282</v>
+        <v>0.285331</v>
       </c>
       <c r="C121" t="n">
-        <v>0.289632</v>
+        <v>0.288346</v>
       </c>
       <c r="D121" t="n">
-        <v>0.378122</v>
+        <v>0.376809</v>
       </c>
       <c r="E121" t="n">
-        <v>0.280111</v>
+        <v>0.280086</v>
       </c>
       <c r="F121" t="n">
-        <v>0.287813</v>
+        <v>0.287239</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.287501</v>
+        <v>0.288389</v>
       </c>
       <c r="C122" t="n">
-        <v>0.294035</v>
+        <v>0.293513</v>
       </c>
       <c r="D122" t="n">
-        <v>0.383037</v>
+        <v>0.382294</v>
       </c>
       <c r="E122" t="n">
-        <v>0.286001</v>
+        <v>0.286181</v>
       </c>
       <c r="F122" t="n">
-        <v>0.295615</v>
+        <v>0.296426</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.294803</v>
+        <v>0.290581</v>
       </c>
       <c r="C123" t="n">
-        <v>0.302597</v>
+        <v>0.302634</v>
       </c>
       <c r="D123" t="n">
-        <v>0.388439</v>
+        <v>0.387906</v>
       </c>
       <c r="E123" t="n">
-        <v>0.27449</v>
+        <v>0.274268</v>
       </c>
       <c r="F123" t="n">
-        <v>0.282603</v>
+        <v>0.28309</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.360866</v>
+        <v>0.360244</v>
       </c>
       <c r="C124" t="n">
-        <v>0.350428</v>
+        <v>0.350674</v>
       </c>
       <c r="D124" t="n">
-        <v>0.392826</v>
+        <v>0.39265</v>
       </c>
       <c r="E124" t="n">
-        <v>0.274359</v>
+        <v>0.274122</v>
       </c>
       <c r="F124" t="n">
-        <v>0.284798</v>
+        <v>0.28561</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.361171</v>
+        <v>0.361093</v>
       </c>
       <c r="C125" t="n">
-        <v>0.351371</v>
+        <v>0.350476</v>
       </c>
       <c r="D125" t="n">
-        <v>0.402116</v>
+        <v>0.402253</v>
       </c>
       <c r="E125" t="n">
-        <v>0.277355</v>
+        <v>0.276911</v>
       </c>
       <c r="F125" t="n">
-        <v>0.287054</v>
+        <v>0.287755</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.362432</v>
+        <v>0.361831</v>
       </c>
       <c r="C126" t="n">
-        <v>0.351562</v>
+        <v>0.351391</v>
       </c>
       <c r="D126" t="n">
-        <v>0.408672</v>
+        <v>0.408306</v>
       </c>
       <c r="E126" t="n">
-        <v>0.279682</v>
+        <v>0.279383</v>
       </c>
       <c r="F126" t="n">
-        <v>0.289032</v>
+        <v>0.289244</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.360426</v>
+        <v>0.361221</v>
       </c>
       <c r="C127" t="n">
-        <v>0.352256</v>
+        <v>0.352033</v>
       </c>
       <c r="D127" t="n">
-        <v>0.41377</v>
+        <v>0.413586</v>
       </c>
       <c r="E127" t="n">
-        <v>0.282497</v>
+        <v>0.282485</v>
       </c>
       <c r="F127" t="n">
-        <v>0.291376</v>
+        <v>0.29301</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.361599</v>
+        <v>0.36002</v>
       </c>
       <c r="C128" t="n">
-        <v>0.353029</v>
+        <v>0.352584</v>
       </c>
       <c r="D128" t="n">
-        <v>0.42762</v>
+        <v>0.427194</v>
       </c>
       <c r="E128" t="n">
-        <v>0.285658</v>
+        <v>0.285135</v>
       </c>
       <c r="F128" t="n">
-        <v>0.294847</v>
+        <v>0.294794</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.361778</v>
+        <v>0.361341</v>
       </c>
       <c r="C129" t="n">
-        <v>0.354106</v>
+        <v>0.355728</v>
       </c>
       <c r="D129" t="n">
-        <v>0.433994</v>
+        <v>0.435757</v>
       </c>
       <c r="E129" t="n">
-        <v>0.288641</v>
+        <v>0.289832</v>
       </c>
       <c r="F129" t="n">
-        <v>0.297996</v>
+        <v>0.300174</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.362498</v>
+        <v>0.363076</v>
       </c>
       <c r="C130" t="n">
-        <v>0.35541</v>
+        <v>0.356755</v>
       </c>
       <c r="D130" t="n">
-        <v>0.442947</v>
+        <v>0.444202</v>
       </c>
       <c r="E130" t="n">
-        <v>0.291667</v>
+        <v>0.292825</v>
       </c>
       <c r="F130" t="n">
-        <v>0.294297</v>
+        <v>0.296912</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.362054</v>
+        <v>0.363646</v>
       </c>
       <c r="C131" t="n">
-        <v>0.356395</v>
+        <v>0.35734</v>
       </c>
       <c r="D131" t="n">
-        <v>0.451108</v>
+        <v>0.452128</v>
       </c>
       <c r="E131" t="n">
-        <v>0.295487</v>
+        <v>0.296342</v>
       </c>
       <c r="F131" t="n">
-        <v>0.298966</v>
+        <v>0.302889</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.362118</v>
+        <v>0.3627</v>
       </c>
       <c r="C132" t="n">
-        <v>0.357754</v>
+        <v>0.359294</v>
       </c>
       <c r="D132" t="n">
-        <v>0.456817</v>
+        <v>0.458389</v>
       </c>
       <c r="E132" t="n">
-        <v>0.29934</v>
+        <v>0.300217</v>
       </c>
       <c r="F132" t="n">
-        <v>0.30385</v>
+        <v>0.307731</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.363084</v>
+        <v>0.363684</v>
       </c>
       <c r="C133" t="n">
-        <v>0.360921</v>
+        <v>0.361738</v>
       </c>
       <c r="D133" t="n">
-        <v>0.468426</v>
+        <v>0.470127</v>
       </c>
       <c r="E133" t="n">
-        <v>0.303485</v>
+        <v>0.304908</v>
       </c>
       <c r="F133" t="n">
-        <v>0.310763</v>
+        <v>0.314666</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.362558</v>
+        <v>0.364373</v>
       </c>
       <c r="C134" t="n">
-        <v>0.362593</v>
+        <v>0.364341</v>
       </c>
       <c r="D134" t="n">
-        <v>0.47888</v>
+        <v>0.48023</v>
       </c>
       <c r="E134" t="n">
-        <v>0.308287</v>
+        <v>0.309357</v>
       </c>
       <c r="F134" t="n">
-        <v>0.318665</v>
+        <v>0.322483</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.36366</v>
+        <v>0.365616</v>
       </c>
       <c r="C135" t="n">
-        <v>0.366672</v>
+        <v>0.367982</v>
       </c>
       <c r="D135" t="n">
-        <v>0.392889</v>
+        <v>0.394001</v>
       </c>
       <c r="E135" t="n">
-        <v>0.314631</v>
+        <v>0.315715</v>
       </c>
       <c r="F135" t="n">
-        <v>0.329419</v>
+        <v>0.333241</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.364568</v>
+        <v>0.365894</v>
       </c>
       <c r="C136" t="n">
-        <v>0.371989</v>
+        <v>0.373442</v>
       </c>
       <c r="D136" t="n">
-        <v>0.399474</v>
+        <v>0.400685</v>
       </c>
       <c r="E136" t="n">
-        <v>0.323233</v>
+        <v>0.324303</v>
       </c>
       <c r="F136" t="n">
-        <v>0.34423</v>
+        <v>0.34575</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.368329</v>
+        <v>0.369173</v>
       </c>
       <c r="C137" t="n">
-        <v>0.379683</v>
+        <v>0.381269</v>
       </c>
       <c r="D137" t="n">
-        <v>0.403783</v>
+        <v>0.404738</v>
       </c>
       <c r="E137" t="n">
-        <v>0.294794</v>
+        <v>0.295827</v>
       </c>
       <c r="F137" t="n">
-        <v>0.303179</v>
+        <v>0.305035</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.42611</v>
+        <v>0.428209</v>
       </c>
       <c r="C138" t="n">
-        <v>0.394464</v>
+        <v>0.396309</v>
       </c>
       <c r="D138" t="n">
-        <v>0.411583</v>
+        <v>0.412686</v>
       </c>
       <c r="E138" t="n">
-        <v>0.296834</v>
+        <v>0.298593</v>
       </c>
       <c r="F138" t="n">
-        <v>0.305069</v>
+        <v>0.307405</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.426073</v>
+        <v>0.428008</v>
       </c>
       <c r="C139" t="n">
-        <v>0.394731</v>
+        <v>0.396827</v>
       </c>
       <c r="D139" t="n">
-        <v>0.419196</v>
+        <v>0.42073</v>
       </c>
       <c r="E139" t="n">
-        <v>0.298979</v>
+        <v>0.30111</v>
       </c>
       <c r="F139" t="n">
-        <v>0.307421</v>
+        <v>0.309603</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.426134</v>
+        <v>0.428882</v>
       </c>
       <c r="C140" t="n">
-        <v>0.395498</v>
+        <v>0.397449</v>
       </c>
       <c r="D140" t="n">
-        <v>0.424395</v>
+        <v>0.425637</v>
       </c>
       <c r="E140" t="n">
-        <v>0.301175</v>
+        <v>0.303609</v>
       </c>
       <c r="F140" t="n">
-        <v>0.30994</v>
+        <v>0.312447</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.426194</v>
+        <v>0.428831</v>
       </c>
       <c r="C141" t="n">
-        <v>0.396157</v>
+        <v>0.398135</v>
       </c>
       <c r="D141" t="n">
-        <v>0.433253</v>
+        <v>0.434347</v>
       </c>
       <c r="E141" t="n">
-        <v>0.303307</v>
+        <v>0.305833</v>
       </c>
       <c r="F141" t="n">
-        <v>0.312679</v>
+        <v>0.316059</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.425885</v>
+        <v>0.429081</v>
       </c>
       <c r="C142" t="n">
-        <v>0.397164</v>
+        <v>0.399488</v>
       </c>
       <c r="D142" t="n">
-        <v>0.439099</v>
+        <v>0.440798</v>
       </c>
       <c r="E142" t="n">
-        <v>0.305768</v>
+        <v>0.30803</v>
       </c>
       <c r="F142" t="n">
-        <v>0.315796</v>
+        <v>0.317617</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.42526</v>
+        <v>0.427763</v>
       </c>
       <c r="C143" t="n">
-        <v>0.398396</v>
+        <v>0.400799</v>
       </c>
       <c r="D143" t="n">
-        <v>0.448609</v>
+        <v>0.450341</v>
       </c>
       <c r="E143" t="n">
-        <v>0.308214</v>
+        <v>0.310546</v>
       </c>
       <c r="F143" t="n">
-        <v>0.3155</v>
+        <v>0.31786</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0367924</v>
+        <v>0.0352167</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0371785</v>
+        <v>0.0364835</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0723501</v>
+        <v>0.0722066</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0366506</v>
+        <v>0.0370791</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0383242</v>
+        <v>0.0378999</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0356864</v>
+        <v>0.035826</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0364913</v>
+        <v>0.0364409</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07880819999999999</v>
+        <v>0.0782077</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0372976</v>
+        <v>0.0377734</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0390527</v>
+        <v>0.038709</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0361875</v>
+        <v>0.0358287</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0367807</v>
+        <v>0.0368028</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0865966</v>
+        <v>0.0860736</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0378548</v>
+        <v>0.0379141</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0392029</v>
+        <v>0.0390774</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0362648</v>
+        <v>0.0358322</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0367718</v>
+        <v>0.0365945</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0941796</v>
+        <v>0.09368020000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0379096</v>
+        <v>0.0381163</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0395183</v>
+        <v>0.0391169</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0352881</v>
+        <v>0.0359936</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0366883</v>
+        <v>0.0368374</v>
       </c>
       <c r="D6" t="n">
-        <v>0.100895</v>
+        <v>0.100693</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0378585</v>
+        <v>0.0379905</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0400444</v>
+        <v>0.039423</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0367448</v>
+        <v>0.0360582</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0371007</v>
+        <v>0.0370437</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0618398</v>
+        <v>0.063388</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0384126</v>
+        <v>0.0383405</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0404469</v>
+        <v>0.0399098</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0367747</v>
+        <v>0.0363825</v>
       </c>
       <c r="C8" t="n">
-        <v>0.037503</v>
+        <v>0.0373497</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0659588</v>
+        <v>0.0670443</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0399017</v>
+        <v>0.0395031</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0416036</v>
+        <v>0.0414713</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0372249</v>
+        <v>0.0372184</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0379498</v>
+        <v>0.0384028</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0713197</v>
+        <v>0.0722141</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0401183</v>
+        <v>0.0392356</v>
       </c>
       <c r="F9" t="n">
-        <v>0.040482</v>
+        <v>0.0407411</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0431215</v>
+        <v>0.0430088</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0425112</v>
+        <v>0.0435839</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0750547</v>
+        <v>0.0760832</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0400962</v>
+        <v>0.0396688</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0407233</v>
+        <v>0.0408964</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0429903</v>
+        <v>0.0434086</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0425664</v>
+        <v>0.0435595</v>
       </c>
       <c r="D11" t="n">
-        <v>0.08072600000000001</v>
+        <v>0.0817083</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0404508</v>
+        <v>0.0398269</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0409884</v>
+        <v>0.0412239</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0430531</v>
+        <v>0.0433566</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0427535</v>
+        <v>0.0440291</v>
       </c>
       <c r="D12" t="n">
-        <v>0.086872</v>
+        <v>0.08707380000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0408299</v>
+        <v>0.0403829</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0414415</v>
+        <v>0.04148</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0437728</v>
+        <v>0.0436642</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0429643</v>
+        <v>0.0436903</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0916039</v>
+        <v>0.09213399999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0414385</v>
+        <v>0.0405499</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0416126</v>
+        <v>0.0417806</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0433964</v>
+        <v>0.0434172</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0429931</v>
+        <v>0.0438382</v>
       </c>
       <c r="D14" t="n">
-        <v>0.09685240000000001</v>
+        <v>0.0982722</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0415556</v>
+        <v>0.0409032</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0419959</v>
+        <v>0.042056</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0436847</v>
+        <v>0.0438021</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0431987</v>
+        <v>0.0438467</v>
       </c>
       <c r="D15" t="n">
-        <v>0.102244</v>
+        <v>0.103246</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0419199</v>
+        <v>0.0407769</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0421516</v>
+        <v>0.0423374</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0437478</v>
+        <v>0.0436697</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0432902</v>
+        <v>0.0438912</v>
       </c>
       <c r="D16" t="n">
-        <v>0.107479</v>
+        <v>0.108412</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0420789</v>
+        <v>0.0414201</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0424205</v>
+        <v>0.0426273</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0437302</v>
+        <v>0.0439703</v>
       </c>
       <c r="C17" t="n">
-        <v>0.04355</v>
+        <v>0.0439366</v>
       </c>
       <c r="D17" t="n">
-        <v>0.11285</v>
+        <v>0.113035</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0426255</v>
+        <v>0.0419584</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0427184</v>
+        <v>0.0429198</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.04378</v>
+        <v>0.0437893</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0433205</v>
+        <v>0.0441103</v>
       </c>
       <c r="D18" t="n">
-        <v>0.117143</v>
+        <v>0.118017</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0429381</v>
+        <v>0.0421581</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0429003</v>
+        <v>0.0430996</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0440043</v>
+        <v>0.0438899</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0434997</v>
+        <v>0.0441928</v>
       </c>
       <c r="D19" t="n">
-        <v>0.121378</v>
+        <v>0.122088</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0430337</v>
+        <v>0.0423273</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0433049</v>
+        <v>0.0433934</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0439295</v>
+        <v>0.0444004</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0435347</v>
+        <v>0.0442524</v>
       </c>
       <c r="D20" t="n">
-        <v>0.124923</v>
+        <v>0.125296</v>
       </c>
       <c r="E20" t="n">
-        <v>0.042958</v>
+        <v>0.0425034</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0437873</v>
+        <v>0.0438574</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0442388</v>
+        <v>0.0443136</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0436938</v>
+        <v>0.0443904</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0888207</v>
+        <v>0.0889041</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0438179</v>
+        <v>0.04396</v>
       </c>
       <c r="F21" t="n">
-        <v>0.045029</v>
+        <v>0.0438332</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0444657</v>
+        <v>0.0447444</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0443599</v>
+        <v>0.0441038</v>
       </c>
       <c r="D22" t="n">
-        <v>0.091767</v>
+        <v>0.0916405</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0472298</v>
+        <v>0.046608</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0499843</v>
+        <v>0.0478026</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0453753</v>
+        <v>0.045816</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0450833</v>
+        <v>0.0450459</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0949207</v>
+        <v>0.0951605</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0454127</v>
+        <v>0.0452171</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0463888</v>
+        <v>0.0459768</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0488785</v>
+        <v>0.0489007</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0500644</v>
+        <v>0.0498063</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0987336</v>
+        <v>0.0987349</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0454996</v>
+        <v>0.0455506</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0466103</v>
+        <v>0.0461345</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0487416</v>
+        <v>0.0490402</v>
       </c>
       <c r="C25" t="n">
-        <v>0.050074</v>
+        <v>0.0500742</v>
       </c>
       <c r="D25" t="n">
-        <v>0.101993</v>
+        <v>0.101932</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0461129</v>
+        <v>0.0454974</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0468814</v>
+        <v>0.0463515</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0488886</v>
+        <v>0.049071</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0502174</v>
+        <v>0.0499924</v>
       </c>
       <c r="D26" t="n">
-        <v>0.105739</v>
+        <v>0.105222</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0462582</v>
+        <v>0.046408</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0471487</v>
+        <v>0.0466407</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0488102</v>
+        <v>0.0490605</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0502904</v>
+        <v>0.0502265</v>
       </c>
       <c r="D27" t="n">
-        <v>0.109651</v>
+        <v>0.109614</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0466659</v>
+        <v>0.0463776</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0474833</v>
+        <v>0.046964</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0488952</v>
+        <v>0.0491591</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0505303</v>
+        <v>0.0501698</v>
       </c>
       <c r="D28" t="n">
-        <v>0.113755</v>
+        <v>0.113599</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0469111</v>
+        <v>0.0466787</v>
       </c>
       <c r="F28" t="n">
-        <v>0.04767</v>
+        <v>0.0470636</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.049305</v>
+        <v>0.0493003</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0505728</v>
+        <v>0.050272</v>
       </c>
       <c r="D29" t="n">
-        <v>0.11782</v>
+        <v>0.117584</v>
       </c>
       <c r="E29" t="n">
-        <v>0.046954</v>
+        <v>0.0470618</v>
       </c>
       <c r="F29" t="n">
-        <v>0.047956</v>
+        <v>0.0473154</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0489278</v>
+        <v>0.049523</v>
       </c>
       <c r="C30" t="n">
-        <v>0.049998</v>
+        <v>0.0503478</v>
       </c>
       <c r="D30" t="n">
-        <v>0.121709</v>
+        <v>0.121475</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0476053</v>
+        <v>0.0473709</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0481168</v>
+        <v>0.0475434</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0492203</v>
+        <v>0.0495925</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0507472</v>
+        <v>0.0503713</v>
       </c>
       <c r="D31" t="n">
-        <v>0.125865</v>
+        <v>0.125815</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0476452</v>
+        <v>0.047596</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0485274</v>
+        <v>0.0478172</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.049083</v>
+        <v>0.049843</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0502865</v>
+        <v>0.0506976</v>
       </c>
       <c r="D32" t="n">
-        <v>0.129067</v>
+        <v>0.129011</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0481024</v>
+        <v>0.0478112</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0488563</v>
+        <v>0.048206</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0493447</v>
+        <v>0.0497556</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0508359</v>
+        <v>0.0506543</v>
       </c>
       <c r="D33" t="n">
-        <v>0.132682</v>
+        <v>0.132633</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0482423</v>
+        <v>0.0480358</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0492399</v>
+        <v>0.0485057</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.049399</v>
+        <v>0.0500513</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0504821</v>
+        <v>0.0508422</v>
       </c>
       <c r="D34" t="n">
-        <v>0.135878</v>
+        <v>0.135822</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0487005</v>
+        <v>0.0486599</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0506532</v>
+        <v>0.049398</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0500772</v>
+        <v>0.0503916</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0515255</v>
+        <v>0.0511357</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0969246</v>
+        <v>0.09683849999999999</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0520958</v>
+        <v>0.0517091</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0550904</v>
+        <v>0.0520235</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0505128</v>
+        <v>0.0511667</v>
       </c>
       <c r="C36" t="n">
-        <v>0.05182</v>
+        <v>0.0522224</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0994009</v>
+        <v>0.0993753</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0589251</v>
+        <v>0.0588223</v>
       </c>
       <c r="F36" t="n">
-        <v>0.06311799999999999</v>
+        <v>0.0602342</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0540255</v>
+        <v>0.0560079</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0559145</v>
+        <v>0.0557146</v>
       </c>
       <c r="D37" t="n">
-        <v>0.101518</v>
+        <v>0.101423</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0498528</v>
+        <v>0.0499515</v>
       </c>
       <c r="F37" t="n">
-        <v>0.050577</v>
+        <v>0.0498831</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.054618</v>
+        <v>0.0534401</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0566291</v>
+        <v>0.055584</v>
       </c>
       <c r="D38" t="n">
-        <v>0.104184</v>
+        <v>0.104161</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0494234</v>
+        <v>0.0492854</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0506354</v>
+        <v>0.0502078</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0543026</v>
+        <v>0.0535615</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0566495</v>
+        <v>0.055891</v>
       </c>
       <c r="D39" t="n">
-        <v>0.107137</v>
+        <v>0.107186</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0497285</v>
+        <v>0.0496533</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0509668</v>
+        <v>0.0505954</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0533244</v>
+        <v>0.0537028</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0568051</v>
+        <v>0.0557841</v>
       </c>
       <c r="D40" t="n">
-        <v>0.110392</v>
+        <v>0.110439</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0500226</v>
+        <v>0.0500194</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0513831</v>
+        <v>0.0509542</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0543619</v>
+        <v>0.0538284</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0568936</v>
+        <v>0.0560531</v>
       </c>
       <c r="D41" t="n">
-        <v>0.113778</v>
+        <v>0.113819</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0504852</v>
+        <v>0.050584</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0517419</v>
+        <v>0.0512766</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0543481</v>
+        <v>0.053871</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0569645</v>
+        <v>0.0560071</v>
       </c>
       <c r="D42" t="n">
-        <v>0.11735</v>
+        <v>0.117445</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0508172</v>
+        <v>0.0506648</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0518383</v>
+        <v>0.0514972</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0535935</v>
+        <v>0.0539439</v>
       </c>
       <c r="C43" t="n">
-        <v>0.057118</v>
+        <v>0.056077</v>
       </c>
       <c r="D43" t="n">
-        <v>0.121281</v>
+        <v>0.121286</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0510543</v>
+        <v>0.050987</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0522132</v>
+        <v>0.0518497</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0546192</v>
+        <v>0.0540613</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0571547</v>
+        <v>0.0561593</v>
       </c>
       <c r="D44" t="n">
-        <v>0.125225</v>
+        <v>0.125332</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0513808</v>
+        <v>0.0512416</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0526022</v>
+        <v>0.0521144</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0544321</v>
+        <v>0.0542069</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0573154</v>
+        <v>0.0563968</v>
       </c>
       <c r="D45" t="n">
-        <v>0.129186</v>
+        <v>0.129144</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0516634</v>
+        <v>0.0522511</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0530058</v>
+        <v>0.05217</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0549467</v>
+        <v>0.0543648</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0574331</v>
+        <v>0.0564864</v>
       </c>
       <c r="D46" t="n">
-        <v>0.132732</v>
+        <v>0.132823</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0521682</v>
+        <v>0.0526247</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0539967</v>
+        <v>0.0526119</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0552153</v>
+        <v>0.0546153</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0576172</v>
+        <v>0.0571787</v>
       </c>
       <c r="D47" t="n">
-        <v>0.135936</v>
+        <v>0.135884</v>
       </c>
       <c r="E47" t="n">
-        <v>0.053084</v>
+        <v>0.0529681</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0557658</v>
+        <v>0.0536971</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0554563</v>
+        <v>0.0553539</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0580122</v>
+        <v>0.0580277</v>
       </c>
       <c r="D48" t="n">
-        <v>0.13955</v>
+        <v>0.139572</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0559826</v>
+        <v>0.0560306</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0594641</v>
+        <v>0.0569579</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.056742</v>
+        <v>0.0561989</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0587957</v>
+        <v>0.0581924</v>
       </c>
       <c r="D49" t="n">
-        <v>0.142539</v>
+        <v>0.142578</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0599717</v>
+        <v>0.0600148</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0633102</v>
+        <v>0.0611361</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0590286</v>
+        <v>0.0586868</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0611563</v>
+        <v>0.0601186</v>
       </c>
       <c r="D50" t="n">
-        <v>0.101531</v>
+        <v>0.101624</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0648523</v>
+        <v>0.0650771</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0683043</v>
+        <v>0.06622</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.06321880000000001</v>
+        <v>0.061845</v>
       </c>
       <c r="C51" t="n">
-        <v>0.06390759999999999</v>
+        <v>0.0643434</v>
       </c>
       <c r="D51" t="n">
-        <v>0.103817</v>
+        <v>0.103802</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0532443</v>
+        <v>0.0527286</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0533571</v>
+        <v>0.052576</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0671547</v>
+        <v>0.0664918</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0708288</v>
+        <v>0.0696145</v>
       </c>
       <c r="D52" t="n">
-        <v>0.106174</v>
+        <v>0.10618</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0523291</v>
+        <v>0.0523573</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0534554</v>
+        <v>0.0527746</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0604872</v>
+        <v>0.0606535</v>
       </c>
       <c r="C53" t="n">
-        <v>0.06366810000000001</v>
+        <v>0.063484</v>
       </c>
       <c r="D53" t="n">
-        <v>0.109036</v>
+        <v>0.109089</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0528072</v>
+        <v>0.0525836</v>
       </c>
       <c r="F53" t="n">
-        <v>0.054119</v>
+        <v>0.0531992</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0603775</v>
+        <v>0.0603671</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0635819</v>
+        <v>0.0637669</v>
       </c>
       <c r="D54" t="n">
-        <v>0.112049</v>
+        <v>0.112059</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0530754</v>
+        <v>0.0530611</v>
       </c>
       <c r="F54" t="n">
-        <v>0.05438</v>
+        <v>0.0534476</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0605474</v>
+        <v>0.0609872</v>
       </c>
       <c r="C55" t="n">
-        <v>0.06361</v>
+        <v>0.0637754</v>
       </c>
       <c r="D55" t="n">
-        <v>0.115543</v>
+        <v>0.115621</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0535072</v>
+        <v>0.0534978</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0547377</v>
+        <v>0.0538889</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0607008</v>
+        <v>0.0609061</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0640807</v>
+        <v>0.0639443</v>
       </c>
       <c r="D56" t="n">
-        <v>0.119155</v>
+        <v>0.119318</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0538113</v>
+        <v>0.0537835</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0549477</v>
+        <v>0.054191</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0610746</v>
+        <v>0.0608793</v>
       </c>
       <c r="C57" t="n">
-        <v>0.06411790000000001</v>
+        <v>0.06396590000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>0.123</v>
+        <v>0.123143</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0543412</v>
+        <v>0.0542472</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0569057</v>
+        <v>0.0546401</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.06121</v>
+        <v>0.0611905</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0639332</v>
+        <v>0.0640444</v>
       </c>
       <c r="D58" t="n">
-        <v>0.126879</v>
+        <v>0.126934</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0547645</v>
+        <v>0.0547276</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0571102</v>
+        <v>0.0553862</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0611846</v>
+        <v>0.061303</v>
       </c>
       <c r="C59" t="n">
-        <v>0.06444270000000001</v>
+        <v>0.0641047</v>
       </c>
       <c r="D59" t="n">
-        <v>0.130591</v>
+        <v>0.130565</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0554271</v>
+        <v>0.0555893</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0591102</v>
+        <v>0.0573502</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0613684</v>
+        <v>0.0617733</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0643744</v>
+        <v>0.0645438</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1345</v>
+        <v>0.134265</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0569735</v>
+        <v>0.0567783</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0607179</v>
+        <v>0.0586534</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0616873</v>
+        <v>0.0621931</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0650461</v>
+        <v>0.0651167</v>
       </c>
       <c r="D61" t="n">
-        <v>0.138469</v>
+        <v>0.138341</v>
       </c>
       <c r="E61" t="n">
-        <v>0.059342</v>
+        <v>0.0591671</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0613706</v>
+        <v>0.0609125</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0621052</v>
+        <v>0.0629441</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0658296</v>
+        <v>0.0656265</v>
       </c>
       <c r="D62" t="n">
-        <v>0.142075</v>
+        <v>0.142114</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0617672</v>
+        <v>0.0614656</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0655292</v>
+        <v>0.063523</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.06461459999999999</v>
+        <v>0.06466959999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0676127</v>
+        <v>0.0680135</v>
       </c>
       <c r="D63" t="n">
-        <v>0.145471</v>
+        <v>0.14544</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0647143</v>
+        <v>0.06450019999999999</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06901259999999999</v>
+        <v>0.0671442</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0663821</v>
+        <v>0.0661451</v>
       </c>
       <c r="C64" t="n">
-        <v>0.06970460000000001</v>
+        <v>0.07031809999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>0.109049</v>
+        <v>0.11003</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0682352</v>
+        <v>0.06814340000000001</v>
       </c>
       <c r="F64" t="n">
-        <v>0.07344589999999999</v>
+        <v>0.071647</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0689679</v>
+        <v>0.0686292</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0736718</v>
+        <v>0.0732944</v>
       </c>
       <c r="D65" t="n">
-        <v>0.111532</v>
+        <v>0.112277</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0741073</v>
+        <v>0.0743572</v>
       </c>
       <c r="F65" t="n">
-        <v>0.08049920000000001</v>
+        <v>0.0784416</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0724043</v>
+        <v>0.07232130000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0782244</v>
+        <v>0.07837760000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>0.115431</v>
+        <v>0.116512</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0560898</v>
+        <v>0.0561944</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0596436</v>
+        <v>0.059645</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0712535</v>
+        <v>0.07401580000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>0.07145319999999999</v>
+        <v>0.0723321</v>
       </c>
       <c r="D67" t="n">
-        <v>0.118779</v>
+        <v>0.120776</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0560477</v>
+        <v>0.0567619</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0601211</v>
+        <v>0.0598894</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0715602</v>
+        <v>0.0755132</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0718777</v>
+        <v>0.0729051</v>
       </c>
       <c r="D68" t="n">
-        <v>0.123358</v>
+        <v>0.125249</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0580614</v>
+        <v>0.0569757</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0611515</v>
+        <v>0.0610637</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0713052</v>
+        <v>0.0747662</v>
       </c>
       <c r="C69" t="n">
-        <v>0.07234260000000001</v>
+        <v>0.0733338</v>
       </c>
       <c r="D69" t="n">
-        <v>0.129102</v>
+        <v>0.131847</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0574678</v>
+        <v>0.0575211</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0621503</v>
+        <v>0.0619607</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.072709</v>
+        <v>0.0736445</v>
       </c>
       <c r="C70" t="n">
-        <v>0.07282180000000001</v>
+        <v>0.0740706</v>
       </c>
       <c r="D70" t="n">
-        <v>0.135432</v>
+        <v>0.137339</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0571992</v>
+        <v>0.058105</v>
       </c>
       <c r="F70" t="n">
-        <v>0.063483</v>
+        <v>0.0631192</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0721227</v>
+        <v>0.0746922</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0733687</v>
+        <v>0.07490810000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.141968</v>
+        <v>0.145515</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0590043</v>
+        <v>0.0587219</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0652544</v>
+        <v>0.0639815</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0712105</v>
+        <v>0.0754609</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0743518</v>
+        <v>0.07572619999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>0.14689</v>
+        <v>0.151994</v>
       </c>
       <c r="E72" t="n">
-        <v>0.058937</v>
+        <v>0.0594208</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06707929999999999</v>
+        <v>0.06549290000000001</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0723569</v>
+        <v>0.0747772</v>
       </c>
       <c r="C73" t="n">
-        <v>0.07497860000000001</v>
+        <v>0.0766206</v>
       </c>
       <c r="D73" t="n">
-        <v>0.155736</v>
+        <v>0.16224</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0600348</v>
+        <v>0.0606591</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0690659</v>
+        <v>0.06712659999999999</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0719079</v>
+        <v>0.07460310000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0755222</v>
+        <v>0.0774184</v>
       </c>
       <c r="D74" t="n">
-        <v>0.165222</v>
+        <v>0.16967</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0627041</v>
+        <v>0.061374</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0698684</v>
+        <v>0.069703</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0732058</v>
+        <v>0.07613839999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>0.077725</v>
+        <v>0.0777576</v>
       </c>
       <c r="D75" t="n">
-        <v>0.173216</v>
+        <v>0.176152</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0622708</v>
+        <v>0.0628782</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0737162</v>
+        <v>0.07215870000000001</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.07334690000000001</v>
+        <v>0.0763735</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0796721</v>
+        <v>0.0797987</v>
       </c>
       <c r="D76" t="n">
-        <v>0.179569</v>
+        <v>0.184545</v>
       </c>
       <c r="E76" t="n">
-        <v>0.06450210000000001</v>
+        <v>0.0648263</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0770021</v>
+        <v>0.0754108</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.07542939999999999</v>
+        <v>0.0757134</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0815097</v>
+        <v>0.0820106</v>
       </c>
       <c r="D77" t="n">
-        <v>0.191562</v>
+        <v>0.196905</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0671253</v>
+        <v>0.06750150000000001</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0812823</v>
+        <v>0.0795143</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.07897029999999999</v>
+        <v>0.0786948</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0839772</v>
+        <v>0.08416170000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.186175</v>
+        <v>0.183462</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0709333</v>
+        <v>0.07126209999999999</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0870493</v>
+        <v>0.08464720000000001</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.08005569999999999</v>
+        <v>0.08092580000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0892392</v>
+        <v>0.08858779999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>0.192368</v>
+        <v>0.19385</v>
       </c>
       <c r="E79" t="n">
-        <v>0.07659340000000001</v>
+        <v>0.07693560000000001</v>
       </c>
       <c r="F79" t="n">
-        <v>0.095015</v>
+        <v>0.092637</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0840463</v>
+        <v>0.0840422</v>
       </c>
       <c r="C80" t="n">
-        <v>0.094277</v>
+        <v>0.094871</v>
       </c>
       <c r="D80" t="n">
-        <v>0.201138</v>
+        <v>0.201925</v>
       </c>
       <c r="E80" t="n">
-        <v>0.10601</v>
+        <v>0.10645</v>
       </c>
       <c r="F80" t="n">
-        <v>0.101818</v>
+        <v>0.103442</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.174834</v>
+        <v>0.172464</v>
       </c>
       <c r="C81" t="n">
-        <v>0.140151</v>
+        <v>0.141618</v>
       </c>
       <c r="D81" t="n">
-        <v>0.210417</v>
+        <v>0.210751</v>
       </c>
       <c r="E81" t="n">
-        <v>0.109967</v>
+        <v>0.108645</v>
       </c>
       <c r="F81" t="n">
-        <v>0.102632</v>
+        <v>0.104252</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.176732</v>
+        <v>0.175279</v>
       </c>
       <c r="C82" t="n">
-        <v>0.140759</v>
+        <v>0.14205</v>
       </c>
       <c r="D82" t="n">
-        <v>0.217129</v>
+        <v>0.218716</v>
       </c>
       <c r="E82" t="n">
-        <v>0.111466</v>
+        <v>0.109221</v>
       </c>
       <c r="F82" t="n">
-        <v>0.103681</v>
+        <v>0.105112</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.177351</v>
+        <v>0.176373</v>
       </c>
       <c r="C83" t="n">
-        <v>0.141635</v>
+        <v>0.142734</v>
       </c>
       <c r="D83" t="n">
-        <v>0.226338</v>
+        <v>0.227533</v>
       </c>
       <c r="E83" t="n">
-        <v>0.113782</v>
+        <v>0.110107</v>
       </c>
       <c r="F83" t="n">
-        <v>0.104442</v>
+        <v>0.106371</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.178274</v>
+        <v>0.177351</v>
       </c>
       <c r="C84" t="n">
-        <v>0.142388</v>
+        <v>0.143493</v>
       </c>
       <c r="D84" t="n">
-        <v>0.236591</v>
+        <v>0.239477</v>
       </c>
       <c r="E84" t="n">
-        <v>0.116822</v>
+        <v>0.112609</v>
       </c>
       <c r="F84" t="n">
-        <v>0.105376</v>
+        <v>0.107105</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.178806</v>
+        <v>0.177358</v>
       </c>
       <c r="C85" t="n">
-        <v>0.141894</v>
+        <v>0.14407</v>
       </c>
       <c r="D85" t="n">
-        <v>0.249252</v>
+        <v>0.246827</v>
       </c>
       <c r="E85" t="n">
-        <v>0.116787</v>
+        <v>0.114567</v>
       </c>
       <c r="F85" t="n">
-        <v>0.109032</v>
+        <v>0.110356</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.179486</v>
+        <v>0.17864</v>
       </c>
       <c r="C86" t="n">
-        <v>0.143685</v>
+        <v>0.14526</v>
       </c>
       <c r="D86" t="n">
-        <v>0.256454</v>
+        <v>0.25756</v>
       </c>
       <c r="E86" t="n">
-        <v>0.118968</v>
+        <v>0.11653</v>
       </c>
       <c r="F86" t="n">
-        <v>0.110486</v>
+        <v>0.111469</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.180066</v>
+        <v>0.178999</v>
       </c>
       <c r="C87" t="n">
-        <v>0.144352</v>
+        <v>0.145634</v>
       </c>
       <c r="D87" t="n">
-        <v>0.270301</v>
+        <v>0.268791</v>
       </c>
       <c r="E87" t="n">
-        <v>0.121337</v>
+        <v>0.119832</v>
       </c>
       <c r="F87" t="n">
-        <v>0.111983</v>
+        <v>0.111472</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.180318</v>
+        <v>0.179949</v>
       </c>
       <c r="C88" t="n">
-        <v>0.147118</v>
+        <v>0.147403</v>
       </c>
       <c r="D88" t="n">
-        <v>0.278245</v>
+        <v>0.275803</v>
       </c>
       <c r="E88" t="n">
-        <v>0.124467</v>
+        <v>0.121522</v>
       </c>
       <c r="F88" t="n">
-        <v>0.113105</v>
+        <v>0.110196</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.181108</v>
+        <v>0.179774</v>
       </c>
       <c r="C89" t="n">
-        <v>0.14655</v>
+        <v>0.148671</v>
       </c>
       <c r="D89" t="n">
-        <v>0.287971</v>
+        <v>0.287385</v>
       </c>
       <c r="E89" t="n">
-        <v>0.126195</v>
+        <v>0.124119</v>
       </c>
       <c r="F89" t="n">
-        <v>0.113563</v>
+        <v>0.112255</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.180788</v>
+        <v>0.180805</v>
       </c>
       <c r="C90" t="n">
-        <v>0.15012</v>
+        <v>0.149604</v>
       </c>
       <c r="D90" t="n">
-        <v>0.297612</v>
+        <v>0.293774</v>
       </c>
       <c r="E90" t="n">
-        <v>0.128636</v>
+        <v>0.126987</v>
       </c>
       <c r="F90" t="n">
-        <v>0.117346</v>
+        <v>0.118039</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.182006</v>
+        <v>0.181748</v>
       </c>
       <c r="C91" t="n">
-        <v>0.150566</v>
+        <v>0.151073</v>
       </c>
       <c r="D91" t="n">
-        <v>0.30714</v>
+        <v>0.305047</v>
       </c>
       <c r="E91" t="n">
-        <v>0.130952</v>
+        <v>0.129257</v>
       </c>
       <c r="F91" t="n">
-        <v>0.119475</v>
+        <v>0.120984</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.18267</v>
+        <v>0.182881</v>
       </c>
       <c r="C92" t="n">
-        <v>0.152418</v>
+        <v>0.155605</v>
       </c>
       <c r="D92" t="n">
-        <v>0.288172</v>
+        <v>0.289603</v>
       </c>
       <c r="E92" t="n">
-        <v>0.13572</v>
+        <v>0.130544</v>
       </c>
       <c r="F92" t="n">
-        <v>0.126138</v>
+        <v>0.123496</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.184194</v>
+        <v>0.185374</v>
       </c>
       <c r="C93" t="n">
-        <v>0.156344</v>
+        <v>0.157378</v>
       </c>
       <c r="D93" t="n">
-        <v>0.29277</v>
+        <v>0.296751</v>
       </c>
       <c r="E93" t="n">
-        <v>0.1401</v>
+        <v>0.135042</v>
       </c>
       <c r="F93" t="n">
-        <v>0.131304</v>
+        <v>0.131723</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.186466</v>
+        <v>0.186161</v>
       </c>
       <c r="C94" t="n">
-        <v>0.160883</v>
+        <v>0.163709</v>
       </c>
       <c r="D94" t="n">
-        <v>0.299572</v>
+        <v>0.301669</v>
       </c>
       <c r="E94" t="n">
-        <v>0.206156</v>
+        <v>0.206268</v>
       </c>
       <c r="F94" t="n">
-        <v>0.20027</v>
+        <v>0.199207</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.243878</v>
+        <v>0.243954</v>
       </c>
       <c r="C95" t="n">
-        <v>0.221862</v>
+        <v>0.221895</v>
       </c>
       <c r="D95" t="n">
-        <v>0.305249</v>
+        <v>0.307853</v>
       </c>
       <c r="E95" t="n">
-        <v>0.207493</v>
+        <v>0.208206</v>
       </c>
       <c r="F95" t="n">
-        <v>0.201267</v>
+        <v>0.2001</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.243992</v>
+        <v>0.244068</v>
       </c>
       <c r="C96" t="n">
-        <v>0.221432</v>
+        <v>0.221366</v>
       </c>
       <c r="D96" t="n">
-        <v>0.317052</v>
+        <v>0.314902</v>
       </c>
       <c r="E96" t="n">
-        <v>0.209593</v>
+        <v>0.209782</v>
       </c>
       <c r="F96" t="n">
-        <v>0.201537</v>
+        <v>0.201171</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.243938</v>
+        <v>0.243925</v>
       </c>
       <c r="C97" t="n">
-        <v>0.222293</v>
+        <v>0.221595</v>
       </c>
       <c r="D97" t="n">
-        <v>0.323028</v>
+        <v>0.321726</v>
       </c>
       <c r="E97" t="n">
-        <v>0.211736</v>
+        <v>0.211727</v>
       </c>
       <c r="F97" t="n">
-        <v>0.203303</v>
+        <v>0.201894</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.244693</v>
+        <v>0.244724</v>
       </c>
       <c r="C98" t="n">
-        <v>0.222492</v>
+        <v>0.222589</v>
       </c>
       <c r="D98" t="n">
-        <v>0.332356</v>
+        <v>0.333214</v>
       </c>
       <c r="E98" t="n">
-        <v>0.213174</v>
+        <v>0.213062</v>
       </c>
       <c r="F98" t="n">
-        <v>0.204989</v>
+        <v>0.203083</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.244542</v>
+        <v>0.244436</v>
       </c>
       <c r="C99" t="n">
-        <v>0.223099</v>
+        <v>0.222651</v>
       </c>
       <c r="D99" t="n">
-        <v>0.339971</v>
+        <v>0.342358</v>
       </c>
       <c r="E99" t="n">
-        <v>0.215384</v>
+        <v>0.214913</v>
       </c>
       <c r="F99" t="n">
-        <v>0.204903</v>
+        <v>0.204744</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.244741</v>
+        <v>0.244542</v>
       </c>
       <c r="C100" t="n">
-        <v>0.223484</v>
+        <v>0.222996</v>
       </c>
       <c r="D100" t="n">
-        <v>0.348247</v>
+        <v>0.349998</v>
       </c>
       <c r="E100" t="n">
-        <v>0.217002</v>
+        <v>0.217007</v>
       </c>
       <c r="F100" t="n">
-        <v>0.206907</v>
+        <v>0.205967</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.243988</v>
+        <v>0.244488</v>
       </c>
       <c r="C101" t="n">
-        <v>0.22358</v>
+        <v>0.223754</v>
       </c>
       <c r="D101" t="n">
-        <v>0.357784</v>
+        <v>0.359948</v>
       </c>
       <c r="E101" t="n">
-        <v>0.21856</v>
+        <v>0.218424</v>
       </c>
       <c r="F101" t="n">
-        <v>0.207583</v>
+        <v>0.207384</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.244654</v>
+        <v>0.245255</v>
       </c>
       <c r="C102" t="n">
-        <v>0.224504</v>
+        <v>0.224544</v>
       </c>
       <c r="D102" t="n">
-        <v>0.366808</v>
+        <v>0.366149</v>
       </c>
       <c r="E102" t="n">
-        <v>0.220193</v>
+        <v>0.221291</v>
       </c>
       <c r="F102" t="n">
-        <v>0.209137</v>
+        <v>0.208892</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.244893</v>
+        <v>0.244626</v>
       </c>
       <c r="C103" t="n">
-        <v>0.225911</v>
+        <v>0.225594</v>
       </c>
       <c r="D103" t="n">
-        <v>0.376981</v>
+        <v>0.375496</v>
       </c>
       <c r="E103" t="n">
-        <v>0.22213</v>
+        <v>0.222936</v>
       </c>
       <c r="F103" t="n">
-        <v>0.212203</v>
+        <v>0.209994</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.244848</v>
+        <v>0.245953</v>
       </c>
       <c r="C104" t="n">
-        <v>0.227071</v>
+        <v>0.227774</v>
       </c>
       <c r="D104" t="n">
-        <v>0.385401</v>
+        <v>0.385033</v>
       </c>
       <c r="E104" t="n">
-        <v>0.22455</v>
+        <v>0.224751</v>
       </c>
       <c r="F104" t="n">
-        <v>0.213534</v>
+        <v>0.213908</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.245657</v>
+        <v>0.246098</v>
       </c>
       <c r="C105" t="n">
-        <v>0.229308</v>
+        <v>0.229711</v>
       </c>
       <c r="D105" t="n">
-        <v>0.394739</v>
+        <v>0.394256</v>
       </c>
       <c r="E105" t="n">
-        <v>0.226844</v>
+        <v>0.227498</v>
       </c>
       <c r="F105" t="n">
-        <v>0.216425</v>
+        <v>0.217996</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.246645</v>
+        <v>0.246655</v>
       </c>
       <c r="C106" t="n">
-        <v>0.231085</v>
+        <v>0.231633</v>
       </c>
       <c r="D106" t="n">
-        <v>0.404965</v>
+        <v>0.406602</v>
       </c>
       <c r="E106" t="n">
-        <v>0.230628</v>
+        <v>0.229754</v>
       </c>
       <c r="F106" t="n">
-        <v>0.221452</v>
+        <v>0.221053</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.248426</v>
+        <v>0.248744</v>
       </c>
       <c r="C107" t="n">
-        <v>0.23463</v>
+        <v>0.235571</v>
       </c>
       <c r="D107" t="n">
-        <v>0.34973</v>
+        <v>0.348229</v>
       </c>
       <c r="E107" t="n">
-        <v>0.234193</v>
+        <v>0.234892</v>
       </c>
       <c r="F107" t="n">
-        <v>0.227407</v>
+        <v>0.227724</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.251208</v>
+        <v>0.251504</v>
       </c>
       <c r="C108" t="n">
-        <v>0.239814</v>
+        <v>0.240132</v>
       </c>
       <c r="D108" t="n">
-        <v>0.355262</v>
+        <v>0.349534</v>
       </c>
       <c r="E108" t="n">
-        <v>0.251974</v>
+        <v>0.252443</v>
       </c>
       <c r="F108" t="n">
-        <v>0.249707</v>
+        <v>0.249699</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.255513</v>
+        <v>0.255307</v>
       </c>
       <c r="C109" t="n">
-        <v>0.248181</v>
+        <v>0.248592</v>
       </c>
       <c r="D109" t="n">
-        <v>0.356515</v>
+        <v>0.357538</v>
       </c>
       <c r="E109" t="n">
-        <v>0.253781</v>
+        <v>0.253787</v>
       </c>
       <c r="F109" t="n">
-        <v>0.251846</v>
+        <v>0.252106</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.282103</v>
+        <v>0.282055</v>
       </c>
       <c r="C110" t="n">
-        <v>0.274992</v>
+        <v>0.274437</v>
       </c>
       <c r="D110" t="n">
-        <v>0.364002</v>
+        <v>0.364211</v>
       </c>
       <c r="E110" t="n">
-        <v>0.249088</v>
+        <v>0.249463</v>
       </c>
       <c r="F110" t="n">
-        <v>0.25365</v>
+        <v>0.253383</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.279649</v>
+        <v>0.2823</v>
       </c>
       <c r="C111" t="n">
-        <v>0.275162</v>
+        <v>0.276244</v>
       </c>
       <c r="D111" t="n">
-        <v>0.375007</v>
+        <v>0.374188</v>
       </c>
       <c r="E111" t="n">
-        <v>0.25135</v>
+        <v>0.251822</v>
       </c>
       <c r="F111" t="n">
-        <v>0.255076</v>
+        <v>0.255565</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.283024</v>
+        <v>0.282689</v>
       </c>
       <c r="C112" t="n">
-        <v>0.275868</v>
+        <v>0.275471</v>
       </c>
       <c r="D112" t="n">
-        <v>0.379316</v>
+        <v>0.379943</v>
       </c>
       <c r="E112" t="n">
-        <v>0.251071</v>
+        <v>0.250944</v>
       </c>
       <c r="F112" t="n">
-        <v>0.256806</v>
+        <v>0.256773</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.281181</v>
+        <v>0.282123</v>
       </c>
       <c r="C113" t="n">
-        <v>0.276513</v>
+        <v>0.276533</v>
       </c>
       <c r="D113" t="n">
-        <v>0.388419</v>
+        <v>0.3892</v>
       </c>
       <c r="E113" t="n">
-        <v>0.253801</v>
+        <v>0.253544</v>
       </c>
       <c r="F113" t="n">
-        <v>0.258723</v>
+        <v>0.258713</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.284097</v>
+        <v>0.281182</v>
       </c>
       <c r="C114" t="n">
-        <v>0.276387</v>
+        <v>0.276138</v>
       </c>
       <c r="D114" t="n">
-        <v>0.396671</v>
+        <v>0.397639</v>
       </c>
       <c r="E114" t="n">
-        <v>0.256365</v>
+        <v>0.255909</v>
       </c>
       <c r="F114" t="n">
-        <v>0.261468</v>
+        <v>0.260968</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.28177</v>
+        <v>0.282224</v>
       </c>
       <c r="C115" t="n">
-        <v>0.278099</v>
+        <v>0.277868</v>
       </c>
       <c r="D115" t="n">
-        <v>0.404136</v>
+        <v>0.40881</v>
       </c>
       <c r="E115" t="n">
-        <v>0.258813</v>
+        <v>0.258323</v>
       </c>
       <c r="F115" t="n">
-        <v>0.263855</v>
+        <v>0.262832</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.28192</v>
+        <v>0.282725</v>
       </c>
       <c r="C116" t="n">
-        <v>0.279182</v>
+        <v>0.280425</v>
       </c>
       <c r="D116" t="n">
-        <v>0.412071</v>
+        <v>0.414253</v>
       </c>
       <c r="E116" t="n">
-        <v>0.261356</v>
+        <v>0.261391</v>
       </c>
       <c r="F116" t="n">
-        <v>0.266878</v>
+        <v>0.265992</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.284075</v>
+        <v>0.283261</v>
       </c>
       <c r="C117" t="n">
-        <v>0.280231</v>
+        <v>0.280262</v>
       </c>
       <c r="D117" t="n">
-        <v>0.420969</v>
+        <v>0.420372</v>
       </c>
       <c r="E117" t="n">
-        <v>0.264281</v>
+        <v>0.26491</v>
       </c>
       <c r="F117" t="n">
-        <v>0.269849</v>
+        <v>0.268898</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.283134</v>
+        <v>0.283738</v>
       </c>
       <c r="C118" t="n">
-        <v>0.280591</v>
+        <v>0.282443</v>
       </c>
       <c r="D118" t="n">
-        <v>0.429186</v>
+        <v>0.433628</v>
       </c>
       <c r="E118" t="n">
-        <v>0.267375</v>
+        <v>0.267582</v>
       </c>
       <c r="F118" t="n">
-        <v>0.27451</v>
+        <v>0.273802</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.282187</v>
+        <v>0.282671</v>
       </c>
       <c r="C119" t="n">
-        <v>0.284777</v>
+        <v>0.284118</v>
       </c>
       <c r="D119" t="n">
-        <v>0.442181</v>
+        <v>0.441087</v>
       </c>
       <c r="E119" t="n">
-        <v>0.271179</v>
+        <v>0.270621</v>
       </c>
       <c r="F119" t="n">
-        <v>0.28005</v>
+        <v>0.277997</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.283898</v>
+        <v>0.283299</v>
       </c>
       <c r="C120" t="n">
-        <v>0.285868</v>
+        <v>0.284598</v>
       </c>
       <c r="D120" t="n">
-        <v>0.451158</v>
+        <v>0.449062</v>
       </c>
       <c r="E120" t="n">
-        <v>0.274367</v>
+        <v>0.274759</v>
       </c>
       <c r="F120" t="n">
-        <v>0.28052</v>
+        <v>0.279639</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.285331</v>
+        <v>0.284901</v>
       </c>
       <c r="C121" t="n">
-        <v>0.288346</v>
+        <v>0.288958</v>
       </c>
       <c r="D121" t="n">
-        <v>0.376809</v>
+        <v>0.377517</v>
       </c>
       <c r="E121" t="n">
-        <v>0.280086</v>
+        <v>0.280061</v>
       </c>
       <c r="F121" t="n">
-        <v>0.287239</v>
+        <v>0.288132</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.288389</v>
+        <v>0.287354</v>
       </c>
       <c r="C122" t="n">
-        <v>0.293513</v>
+        <v>0.294503</v>
       </c>
       <c r="D122" t="n">
-        <v>0.382294</v>
+        <v>0.37931</v>
       </c>
       <c r="E122" t="n">
-        <v>0.286181</v>
+        <v>0.286271</v>
       </c>
       <c r="F122" t="n">
-        <v>0.296426</v>
+        <v>0.295734</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.290581</v>
+        <v>0.291527</v>
       </c>
       <c r="C123" t="n">
-        <v>0.302634</v>
+        <v>0.303999</v>
       </c>
       <c r="D123" t="n">
-        <v>0.387906</v>
+        <v>0.387715</v>
       </c>
       <c r="E123" t="n">
-        <v>0.274268</v>
+        <v>0.274482</v>
       </c>
       <c r="F123" t="n">
-        <v>0.28309</v>
+        <v>0.282792</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.360244</v>
+        <v>0.360417</v>
       </c>
       <c r="C124" t="n">
-        <v>0.350674</v>
+        <v>0.350792</v>
       </c>
       <c r="D124" t="n">
-        <v>0.39265</v>
+        <v>0.395706</v>
       </c>
       <c r="E124" t="n">
-        <v>0.274122</v>
+        <v>0.274588</v>
       </c>
       <c r="F124" t="n">
-        <v>0.28561</v>
+        <v>0.284797</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.361093</v>
+        <v>0.362053</v>
       </c>
       <c r="C125" t="n">
-        <v>0.350476</v>
+        <v>0.350993</v>
       </c>
       <c r="D125" t="n">
-        <v>0.402253</v>
+        <v>0.402178</v>
       </c>
       <c r="E125" t="n">
-        <v>0.276911</v>
+        <v>0.27733</v>
       </c>
       <c r="F125" t="n">
-        <v>0.287755</v>
+        <v>0.286963</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.361831</v>
+        <v>0.361949</v>
       </c>
       <c r="C126" t="n">
-        <v>0.351391</v>
+        <v>0.352296</v>
       </c>
       <c r="D126" t="n">
-        <v>0.408306</v>
+        <v>0.410164</v>
       </c>
       <c r="E126" t="n">
-        <v>0.279383</v>
+        <v>0.27993</v>
       </c>
       <c r="F126" t="n">
-        <v>0.289244</v>
+        <v>0.289113</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.361221</v>
+        <v>0.360621</v>
       </c>
       <c r="C127" t="n">
-        <v>0.352033</v>
+        <v>0.352419</v>
       </c>
       <c r="D127" t="n">
-        <v>0.413586</v>
+        <v>0.412322</v>
       </c>
       <c r="E127" t="n">
-        <v>0.282485</v>
+        <v>0.28258</v>
       </c>
       <c r="F127" t="n">
-        <v>0.29301</v>
+        <v>0.29214</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.36002</v>
+        <v>0.361182</v>
       </c>
       <c r="C128" t="n">
-        <v>0.352584</v>
+        <v>0.353518</v>
       </c>
       <c r="D128" t="n">
-        <v>0.427194</v>
+        <v>0.428527</v>
       </c>
       <c r="E128" t="n">
-        <v>0.285135</v>
+        <v>0.285461</v>
       </c>
       <c r="F128" t="n">
-        <v>0.294794</v>
+        <v>0.294208</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.361341</v>
+        <v>0.361352</v>
       </c>
       <c r="C129" t="n">
-        <v>0.355728</v>
+        <v>0.353503</v>
       </c>
       <c r="D129" t="n">
-        <v>0.435757</v>
+        <v>0.434754</v>
       </c>
       <c r="E129" t="n">
-        <v>0.289832</v>
+        <v>0.288642</v>
       </c>
       <c r="F129" t="n">
-        <v>0.300174</v>
+        <v>0.297319</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.363076</v>
+        <v>0.361983</v>
       </c>
       <c r="C130" t="n">
-        <v>0.356755</v>
+        <v>0.354757</v>
       </c>
       <c r="D130" t="n">
-        <v>0.444202</v>
+        <v>0.439853</v>
       </c>
       <c r="E130" t="n">
-        <v>0.292825</v>
+        <v>0.291894</v>
       </c>
       <c r="F130" t="n">
-        <v>0.296912</v>
+        <v>0.295803</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.363646</v>
+        <v>0.361302</v>
       </c>
       <c r="C131" t="n">
-        <v>0.35734</v>
+        <v>0.355751</v>
       </c>
       <c r="D131" t="n">
-        <v>0.452128</v>
+        <v>0.452026</v>
       </c>
       <c r="E131" t="n">
-        <v>0.296342</v>
+        <v>0.295294</v>
       </c>
       <c r="F131" t="n">
-        <v>0.302889</v>
+        <v>0.298235</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.3627</v>
+        <v>0.360727</v>
       </c>
       <c r="C132" t="n">
-        <v>0.359294</v>
+        <v>0.357945</v>
       </c>
       <c r="D132" t="n">
-        <v>0.458389</v>
+        <v>0.457169</v>
       </c>
       <c r="E132" t="n">
-        <v>0.300217</v>
+        <v>0.299034</v>
       </c>
       <c r="F132" t="n">
-        <v>0.307731</v>
+        <v>0.304046</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.363684</v>
+        <v>0.360785</v>
       </c>
       <c r="C133" t="n">
-        <v>0.361738</v>
+        <v>0.360019</v>
       </c>
       <c r="D133" t="n">
-        <v>0.470127</v>
+        <v>0.468251</v>
       </c>
       <c r="E133" t="n">
-        <v>0.304908</v>
+        <v>0.303403</v>
       </c>
       <c r="F133" t="n">
-        <v>0.314666</v>
+        <v>0.311116</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.364373</v>
+        <v>0.362488</v>
       </c>
       <c r="C134" t="n">
-        <v>0.364341</v>
+        <v>0.362585</v>
       </c>
       <c r="D134" t="n">
-        <v>0.48023</v>
+        <v>0.480611</v>
       </c>
       <c r="E134" t="n">
-        <v>0.309357</v>
+        <v>0.308676</v>
       </c>
       <c r="F134" t="n">
-        <v>0.322483</v>
+        <v>0.318905</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.365616</v>
+        <v>0.362353</v>
       </c>
       <c r="C135" t="n">
-        <v>0.367982</v>
+        <v>0.366216</v>
       </c>
       <c r="D135" t="n">
-        <v>0.394001</v>
+        <v>0.394009</v>
       </c>
       <c r="E135" t="n">
-        <v>0.315715</v>
+        <v>0.31469</v>
       </c>
       <c r="F135" t="n">
-        <v>0.333241</v>
+        <v>0.329309</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.365894</v>
+        <v>0.364354</v>
       </c>
       <c r="C136" t="n">
-        <v>0.373442</v>
+        <v>0.372909</v>
       </c>
       <c r="D136" t="n">
-        <v>0.400685</v>
+        <v>0.396302</v>
       </c>
       <c r="E136" t="n">
-        <v>0.324303</v>
+        <v>0.32307</v>
       </c>
       <c r="F136" t="n">
-        <v>0.34575</v>
+        <v>0.343422</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.369173</v>
+        <v>0.368072</v>
       </c>
       <c r="C137" t="n">
-        <v>0.381269</v>
+        <v>0.380274</v>
       </c>
       <c r="D137" t="n">
-        <v>0.404738</v>
+        <v>0.404491</v>
       </c>
       <c r="E137" t="n">
-        <v>0.295827</v>
+        <v>0.294769</v>
       </c>
       <c r="F137" t="n">
-        <v>0.305035</v>
+        <v>0.302879</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.428209</v>
+        <v>0.425758</v>
       </c>
       <c r="C138" t="n">
-        <v>0.396309</v>
+        <v>0.394533</v>
       </c>
       <c r="D138" t="n">
-        <v>0.412686</v>
+        <v>0.410915</v>
       </c>
       <c r="E138" t="n">
-        <v>0.298593</v>
+        <v>0.297127</v>
       </c>
       <c r="F138" t="n">
-        <v>0.307405</v>
+        <v>0.304639</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.428008</v>
+        <v>0.42566</v>
       </c>
       <c r="C139" t="n">
-        <v>0.396827</v>
+        <v>0.394688</v>
       </c>
       <c r="D139" t="n">
-        <v>0.42073</v>
+        <v>0.41706</v>
       </c>
       <c r="E139" t="n">
-        <v>0.30111</v>
+        <v>0.299399</v>
       </c>
       <c r="F139" t="n">
-        <v>0.309603</v>
+        <v>0.307525</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.428882</v>
+        <v>0.425831</v>
       </c>
       <c r="C140" t="n">
-        <v>0.397449</v>
+        <v>0.395353</v>
       </c>
       <c r="D140" t="n">
-        <v>0.425637</v>
+        <v>0.421219</v>
       </c>
       <c r="E140" t="n">
-        <v>0.303609</v>
+        <v>0.301682</v>
       </c>
       <c r="F140" t="n">
-        <v>0.312447</v>
+        <v>0.309613</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.428831</v>
+        <v>0.425851</v>
       </c>
       <c r="C141" t="n">
-        <v>0.398135</v>
+        <v>0.396366</v>
       </c>
       <c r="D141" t="n">
-        <v>0.434347</v>
+        <v>0.43455</v>
       </c>
       <c r="E141" t="n">
-        <v>0.305833</v>
+        <v>0.304276</v>
       </c>
       <c r="F141" t="n">
-        <v>0.316059</v>
+        <v>0.31255</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.429081</v>
+        <v>0.426206</v>
       </c>
       <c r="C142" t="n">
-        <v>0.399488</v>
+        <v>0.397064</v>
       </c>
       <c r="D142" t="n">
-        <v>0.440798</v>
+        <v>0.443076</v>
       </c>
       <c r="E142" t="n">
-        <v>0.30803</v>
+        <v>0.306919</v>
       </c>
       <c r="F142" t="n">
-        <v>0.317617</v>
+        <v>0.315758</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.427763</v>
+        <v>0.426548</v>
       </c>
       <c r="C143" t="n">
-        <v>0.400799</v>
+        <v>0.398523</v>
       </c>
       <c r="D143" t="n">
-        <v>0.450341</v>
+        <v>0.448834</v>
       </c>
       <c r="E143" t="n">
-        <v>0.310546</v>
+        <v>0.308978</v>
       </c>
       <c r="F143" t="n">
-        <v>0.31786</v>
+        <v>0.315326</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0365221</v>
+        <v>0.037774</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0371243</v>
+        <v>0.0381388</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07277019999999999</v>
+        <v>0.071877</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0367617</v>
+        <v>0.0482576</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0388622</v>
+        <v>0.0464602</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0367866</v>
+        <v>0.0465767</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0368395</v>
+        <v>0.0392445</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0795009</v>
+        <v>0.0785511</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0368252</v>
+        <v>0.048463</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0392868</v>
+        <v>0.0451727</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0366331</v>
+        <v>0.0458334</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0369895</v>
+        <v>0.038879</v>
       </c>
       <c r="D4" t="n">
-        <v>0.086807</v>
+        <v>0.0857893</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0377191</v>
+        <v>0.0478832</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0390169</v>
+        <v>0.0466676</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0368039</v>
+        <v>0.0467519</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0371828</v>
+        <v>0.0393415</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09416529999999999</v>
+        <v>0.0915721</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0380671</v>
+        <v>0.0474221</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03945</v>
+        <v>0.0493067</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0365797</v>
+        <v>0.0461517</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0383385</v>
+        <v>0.0427873</v>
       </c>
       <c r="D6" t="n">
-        <v>0.10141</v>
+        <v>0.0967876</v>
       </c>
       <c r="E6" t="n">
-        <v>0.037951</v>
+        <v>0.0457693</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0399683</v>
+        <v>0.0496253</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0371802</v>
+        <v>0.0461994</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0372345</v>
+        <v>0.0395875</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06273289999999999</v>
+        <v>0.0713873</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0382852</v>
+        <v>0.0490515</v>
       </c>
       <c r="F7" t="n">
-        <v>0.040345</v>
+        <v>0.0484912</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0373266</v>
+        <v>0.045219</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0376417</v>
+        <v>0.0417597</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0661332</v>
+        <v>0.0736458</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0401081</v>
+        <v>0.0473839</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0420985</v>
+        <v>0.0477774</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0379697</v>
+        <v>0.0456641</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0382609</v>
+        <v>0.040132</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0715031</v>
+        <v>0.07763680000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>0.038775</v>
+        <v>0.0500007</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0409998</v>
+        <v>0.0550469</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0428584</v>
+        <v>0.0470956</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0433156</v>
+        <v>0.0494701</v>
       </c>
       <c r="D10" t="n">
-        <v>0.07566589999999999</v>
+        <v>0.0782475</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0396226</v>
+        <v>0.0500345</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0413211</v>
+        <v>0.0611151</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0431907</v>
+        <v>0.047099</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0435501</v>
+        <v>0.0494231</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0823332</v>
+        <v>0.08317919999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0398412</v>
+        <v>0.0502788</v>
       </c>
       <c r="F11" t="n">
-        <v>0.041315</v>
+        <v>0.0560417</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0431728</v>
+        <v>0.047423</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0433038</v>
+        <v>0.0496817</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0875026</v>
+        <v>0.0883356</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0401933</v>
+        <v>0.0496368</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0417016</v>
+        <v>0.0600032</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0431965</v>
+        <v>0.0473741</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0433627</v>
+        <v>0.0498441</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0914808</v>
+        <v>0.0933152</v>
       </c>
       <c r="E13" t="n">
-        <v>0.040606</v>
+        <v>0.0502375</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0418995</v>
+        <v>0.0563412</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0431305</v>
+        <v>0.0468537</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0432571</v>
+        <v>0.0494056</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0972244</v>
+        <v>0.09812659999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0405778</v>
+        <v>0.0503154</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0421581</v>
+        <v>0.0582918</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0434225</v>
+        <v>0.0477</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0435256</v>
+        <v>0.0500759</v>
       </c>
       <c r="D15" t="n">
-        <v>0.102502</v>
+        <v>0.102943</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0409327</v>
+        <v>0.0506878</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0425915</v>
+        <v>0.055424</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.043567</v>
+        <v>0.0467899</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0437175</v>
+        <v>0.0486644</v>
       </c>
       <c r="D16" t="n">
-        <v>0.107697</v>
+        <v>0.107693</v>
       </c>
       <c r="E16" t="n">
-        <v>0.041368</v>
+        <v>0.0510314</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0428653</v>
+        <v>0.0564447</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0439896</v>
+        <v>0.0473784</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0436962</v>
+        <v>0.0496582</v>
       </c>
       <c r="D17" t="n">
-        <v>0.112637</v>
+        <v>0.11296</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0416069</v>
+        <v>0.0506721</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0431235</v>
+        <v>0.0601642</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.043896</v>
+        <v>0.0486079</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0438252</v>
+        <v>0.0505579</v>
       </c>
       <c r="D18" t="n">
-        <v>0.117233</v>
+        <v>0.118451</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0418435</v>
+        <v>0.0499029</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0433745</v>
+        <v>0.0595538</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0439886</v>
+        <v>0.0482952</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0439148</v>
+        <v>0.0507067</v>
       </c>
       <c r="D19" t="n">
-        <v>0.121785</v>
+        <v>0.122533</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0420431</v>
+        <v>0.0508904</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0437107</v>
+        <v>0.0608931</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0443742</v>
+        <v>0.047372</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0440908</v>
+        <v>0.0509052</v>
       </c>
       <c r="D20" t="n">
-        <v>0.12527</v>
+        <v>0.125833</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0427174</v>
+        <v>0.0505176</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0441692</v>
+        <v>0.0581756</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0445888</v>
+        <v>0.0478279</v>
       </c>
       <c r="C21" t="n">
-        <v>0.044022</v>
+        <v>0.0470183</v>
       </c>
       <c r="D21" t="n">
-        <v>0.08899170000000001</v>
+        <v>0.0876864</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0446727</v>
+        <v>0.0496009</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0447869</v>
+        <v>0.0605715</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0451449</v>
+        <v>0.0482809</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0441595</v>
+        <v>0.0487949</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0918301</v>
+        <v>0.0901474</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0473862</v>
+        <v>0.054513</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0485592</v>
+        <v>0.0643388</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0456581</v>
+        <v>0.0482901</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0449806</v>
+        <v>0.0506549</v>
       </c>
       <c r="D23" t="n">
-        <v>0.09490750000000001</v>
+        <v>0.0940288</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0460329</v>
+        <v>0.0544664</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0467465</v>
+        <v>0.0599608</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0489164</v>
+        <v>0.0512923</v>
       </c>
       <c r="C24" t="n">
-        <v>0.049829</v>
+        <v>0.0516079</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0988112</v>
+        <v>0.09724049999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0456725</v>
+        <v>0.0542204</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0466746</v>
+        <v>0.0583827</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0490255</v>
+        <v>0.0513955</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0498883</v>
+        <v>0.0517308</v>
       </c>
       <c r="D25" t="n">
-        <v>0.10189</v>
+        <v>0.100646</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0460452</v>
+        <v>0.0546609</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0468139</v>
+        <v>0.0629382</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0490199</v>
+        <v>0.0514355</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0500314</v>
+        <v>0.0516112</v>
       </c>
       <c r="D26" t="n">
-        <v>0.105655</v>
+        <v>0.104053</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0459852</v>
+        <v>0.0546609</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0471885</v>
+        <v>0.0586434</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0489209</v>
+        <v>0.0514933</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0501077</v>
+        <v>0.0518461</v>
       </c>
       <c r="D27" t="n">
-        <v>0.109707</v>
+        <v>0.107899</v>
       </c>
       <c r="E27" t="n">
-        <v>0.046474</v>
+        <v>0.0544562</v>
       </c>
       <c r="F27" t="n">
-        <v>0.047285</v>
+        <v>0.060867</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0489238</v>
+        <v>0.0516151</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0502645</v>
+        <v>0.0520507</v>
       </c>
       <c r="D28" t="n">
-        <v>0.11389</v>
+        <v>0.111857</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0467539</v>
+        <v>0.055708</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0477424</v>
+        <v>0.0643049</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0492865</v>
+        <v>0.0518174</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0503238</v>
+        <v>0.0523095</v>
       </c>
       <c r="D29" t="n">
-        <v>0.117949</v>
+        <v>0.115904</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0469892</v>
+        <v>0.0546932</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0480637</v>
+        <v>0.0643673</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0489679</v>
+        <v>0.0519888</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0499404</v>
+        <v>0.0525158</v>
       </c>
       <c r="D30" t="n">
-        <v>0.121789</v>
+        <v>0.119564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0473946</v>
+        <v>0.0548746</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0478742</v>
+        <v>0.0645003</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0491404</v>
+        <v>0.0521951</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0505186</v>
+        <v>0.0526862</v>
       </c>
       <c r="D31" t="n">
-        <v>0.125992</v>
+        <v>0.124173</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0475319</v>
+        <v>0.0552916</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0485287</v>
+        <v>0.06480370000000001</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.049117</v>
+        <v>0.0523346</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0502546</v>
+        <v>0.0527391</v>
       </c>
       <c r="D32" t="n">
-        <v>0.129243</v>
+        <v>0.127676</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0480394</v>
+        <v>0.0549736</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0484367</v>
+        <v>0.06502719999999999</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0495133</v>
+        <v>0.0524858</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0505069</v>
+        <v>0.0529603</v>
       </c>
       <c r="D33" t="n">
-        <v>0.132775</v>
+        <v>0.131247</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0481956</v>
+        <v>0.055326</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0491031</v>
+        <v>0.0617307</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0494159</v>
+        <v>0.0526654</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0505382</v>
+        <v>0.0532383</v>
       </c>
       <c r="D34" t="n">
-        <v>0.135973</v>
+        <v>0.134705</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0490733</v>
+        <v>0.0579394</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0508531</v>
+        <v>0.0624339</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0499744</v>
+        <v>0.0528793</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0511794</v>
+        <v>0.0533696</v>
       </c>
       <c r="D35" t="n">
-        <v>0.09690790000000001</v>
+        <v>0.0956742</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0521483</v>
+        <v>0.0603</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0540145</v>
+        <v>0.0689492</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0505759</v>
+        <v>0.0532402</v>
       </c>
       <c r="C36" t="n">
-        <v>0.051653</v>
+        <v>0.054126</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0993439</v>
+        <v>0.09835149999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0589616</v>
+        <v>0.06638620000000001</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0636094</v>
+        <v>0.072556</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0541091</v>
+        <v>0.0553626</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0558469</v>
+        <v>0.0567825</v>
       </c>
       <c r="D37" t="n">
-        <v>0.101514</v>
+        <v>0.100572</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0496575</v>
+        <v>0.0655553</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0502323</v>
+        <v>0.0708874</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0547818</v>
+        <v>0.0610047</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0565301</v>
+        <v>0.057843</v>
       </c>
       <c r="D38" t="n">
-        <v>0.104206</v>
+        <v>0.103636</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0493773</v>
+        <v>0.0630418</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0503719</v>
+        <v>0.0706619</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0536595</v>
+        <v>0.0605713</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0565595</v>
+        <v>0.0577869</v>
       </c>
       <c r="D39" t="n">
-        <v>0.10719</v>
+        <v>0.106304</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0497035</v>
+        <v>0.0627588</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0508452</v>
+        <v>0.0711594</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0542496</v>
+        <v>0.0605896</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0567055</v>
+        <v>0.0579349</v>
       </c>
       <c r="D40" t="n">
-        <v>0.110384</v>
+        <v>0.109721</v>
       </c>
       <c r="E40" t="n">
-        <v>0.050037</v>
+        <v>0.0626723</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0511711</v>
+        <v>0.07428709999999999</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.053756</v>
+        <v>0.0606508</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0567524</v>
+        <v>0.0580164</v>
       </c>
       <c r="D41" t="n">
-        <v>0.11373</v>
+        <v>0.112898</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0504902</v>
+        <v>0.0624006</v>
       </c>
       <c r="F41" t="n">
-        <v>0.051434</v>
+        <v>0.07065589999999999</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0538374</v>
+        <v>0.0608329</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0568492</v>
+        <v>0.0580278</v>
       </c>
       <c r="D42" t="n">
-        <v>0.117301</v>
+        <v>0.116501</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0506038</v>
+        <v>0.06255139999999999</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0517103</v>
+        <v>0.0738475</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0542126</v>
+        <v>0.060943</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0569528</v>
+        <v>0.0582377</v>
       </c>
       <c r="D43" t="n">
-        <v>0.121247</v>
+        <v>0.120298</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0510081</v>
+        <v>0.0628906</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0518545</v>
+        <v>0.0715832</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0540499</v>
+        <v>0.0610561</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0570106</v>
+        <v>0.0585121</v>
       </c>
       <c r="D44" t="n">
-        <v>0.125213</v>
+        <v>0.124157</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0512676</v>
+        <v>0.0628532</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0521142</v>
+        <v>0.0730719</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0543352</v>
+        <v>0.0612368</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0571714</v>
+        <v>0.058671</v>
       </c>
       <c r="D45" t="n">
-        <v>0.129066</v>
+        <v>0.128202</v>
       </c>
       <c r="E45" t="n">
-        <v>0.051807</v>
+        <v>0.062988</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0526751</v>
+        <v>0.06920659999999999</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0543384</v>
+        <v>0.0613321</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0572188</v>
+        <v>0.0590186</v>
       </c>
       <c r="D46" t="n">
-        <v>0.132701</v>
+        <v>0.131804</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0522683</v>
+        <v>0.0634001</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0533675</v>
+        <v>0.073848</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0547001</v>
+        <v>0.0615324</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0573609</v>
+        <v>0.0592007</v>
       </c>
       <c r="D47" t="n">
-        <v>0.135836</v>
+        <v>0.135838</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0534122</v>
+        <v>0.06409960000000001</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0551227</v>
+        <v>0.072605</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0552213</v>
+        <v>0.0585394</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0577841</v>
+        <v>0.0604225</v>
       </c>
       <c r="D48" t="n">
-        <v>0.139559</v>
+        <v>0.141278</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0558111</v>
+        <v>0.06669319999999999</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0585128</v>
+        <v>0.0726214</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0561274</v>
+        <v>0.062444</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0586327</v>
+        <v>0.0599615</v>
       </c>
       <c r="D49" t="n">
-        <v>0.142486</v>
+        <v>0.144423</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0603465</v>
+        <v>0.0703008</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0627732</v>
+        <v>0.0790918</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.058919</v>
+        <v>0.06420149999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0609132</v>
+        <v>0.0615394</v>
       </c>
       <c r="D50" t="n">
-        <v>0.101425</v>
+        <v>0.101576</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0647534</v>
+        <v>0.07407080000000001</v>
       </c>
       <c r="F50" t="n">
-        <v>0.06772830000000001</v>
+        <v>0.082124</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0625619</v>
+        <v>0.0676351</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0638803</v>
+        <v>0.06929829999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>0.103741</v>
+        <v>0.10381</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0533481</v>
+        <v>0.06994690000000001</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0529976</v>
+        <v>0.0762941</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0675364</v>
+        <v>0.0691378</v>
       </c>
       <c r="C52" t="n">
-        <v>0.07016890000000001</v>
+        <v>0.0736976</v>
       </c>
       <c r="D52" t="n">
-        <v>0.106202</v>
+        <v>0.106709</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0521401</v>
+        <v>0.0696624</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0535014</v>
+        <v>0.07639550000000001</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.060812</v>
+        <v>0.0645078</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0632254</v>
+        <v>0.0668522</v>
       </c>
       <c r="D53" t="n">
-        <v>0.109041</v>
+        <v>0.109742</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0525015</v>
+        <v>0.070038</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0536655</v>
+        <v>0.07657310000000001</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0605871</v>
+        <v>0.064592</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0631835</v>
+        <v>0.0668089</v>
       </c>
       <c r="D54" t="n">
-        <v>0.112039</v>
+        <v>0.112785</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0531454</v>
+        <v>0.07016310000000001</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0538728</v>
+        <v>0.0770424</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.060684</v>
+        <v>0.0647773</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0633594</v>
+        <v>0.0668913</v>
       </c>
       <c r="D55" t="n">
-        <v>0.11552</v>
+        <v>0.116306</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0533273</v>
+        <v>0.0685294</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0552748</v>
+        <v>0.074641</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0606587</v>
+        <v>0.0647752</v>
       </c>
       <c r="C56" t="n">
-        <v>0.06420430000000001</v>
+        <v>0.0671554</v>
       </c>
       <c r="D56" t="n">
-        <v>0.119125</v>
+        <v>0.120091</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0538933</v>
+        <v>0.06848170000000001</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0546292</v>
+        <v>0.0750725</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0605617</v>
+        <v>0.06491420000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0636945</v>
+        <v>0.06729839999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.123058</v>
+        <v>0.124369</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0541095</v>
+        <v>0.069623</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0559701</v>
+        <v>0.07487729999999999</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0609978</v>
+        <v>0.06506240000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0640018</v>
+        <v>0.0673718</v>
       </c>
       <c r="D58" t="n">
-        <v>0.126778</v>
+        <v>0.12831</v>
       </c>
       <c r="E58" t="n">
-        <v>0.054872</v>
+        <v>0.0707173</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0558738</v>
+        <v>0.0754464</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0608842</v>
+        <v>0.0644542</v>
       </c>
       <c r="C59" t="n">
-        <v>0.06460299999999999</v>
+        <v>0.0678144</v>
       </c>
       <c r="D59" t="n">
-        <v>0.130485</v>
+        <v>0.132384</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0554849</v>
+        <v>0.0704664</v>
       </c>
       <c r="F59" t="n">
-        <v>0.057238</v>
+        <v>0.0760125</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0610121</v>
+        <v>0.0648854</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0642596</v>
+        <v>0.0676837</v>
       </c>
       <c r="D60" t="n">
-        <v>0.134242</v>
+        <v>0.13657</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0568915</v>
+        <v>0.07161720000000001</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0594979</v>
+        <v>0.0769884</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0615643</v>
+        <v>0.0659338</v>
       </c>
       <c r="C61" t="n">
-        <v>0.06469519999999999</v>
+        <v>0.0687257</v>
       </c>
       <c r="D61" t="n">
-        <v>0.138282</v>
+        <v>0.140814</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0587319</v>
+        <v>0.073212</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0609171</v>
+        <v>0.0791094</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.062468</v>
+        <v>0.0656125</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0655304</v>
+        <v>0.06733450000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>0.141905</v>
+        <v>0.144664</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0610761</v>
+        <v>0.0751642</v>
       </c>
       <c r="F62" t="n">
-        <v>0.06449530000000001</v>
+        <v>0.0815147</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.06436360000000001</v>
+        <v>0.0668166</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0671283</v>
+        <v>0.069017</v>
       </c>
       <c r="D63" t="n">
-        <v>0.145218</v>
+        <v>0.148219</v>
       </c>
       <c r="E63" t="n">
-        <v>0.06401519999999999</v>
+        <v>0.0777849</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0682642</v>
+        <v>0.0843251</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0660839</v>
+        <v>0.0693807</v>
       </c>
       <c r="C64" t="n">
-        <v>0.06958250000000001</v>
+        <v>0.071907</v>
       </c>
       <c r="D64" t="n">
-        <v>0.108961</v>
+        <v>0.110848</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0680465</v>
+        <v>0.0812018</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0734765</v>
+        <v>0.0912992</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.069179</v>
+        <v>0.07116989999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>0.07349559999999999</v>
+        <v>0.0749354</v>
       </c>
       <c r="D65" t="n">
-        <v>0.111479</v>
+        <v>0.113115</v>
       </c>
       <c r="E65" t="n">
-        <v>0.074304</v>
+        <v>0.0883911</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0802175</v>
+        <v>0.09817330000000001</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.07234110000000001</v>
+        <v>0.0755874</v>
       </c>
       <c r="C66" t="n">
-        <v>0.07829609999999999</v>
+        <v>0.0802938</v>
       </c>
       <c r="D66" t="n">
-        <v>0.114536</v>
+        <v>0.117522</v>
       </c>
       <c r="E66" t="n">
-        <v>0.057201</v>
+        <v>0.0762096</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0591688</v>
+        <v>0.0815857</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0725307</v>
+        <v>0.0741628</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0714371</v>
+        <v>0.0735209</v>
       </c>
       <c r="D67" t="n">
-        <v>0.118195</v>
+        <v>0.122761</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0558698</v>
+        <v>0.0767577</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0596128</v>
+        <v>0.0817959</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0721562</v>
+        <v>0.0726861</v>
       </c>
       <c r="C68" t="n">
-        <v>0.071966</v>
+        <v>0.0742733</v>
       </c>
       <c r="D68" t="n">
-        <v>0.12386</v>
+        <v>0.128234</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0564056</v>
+        <v>0.0774108</v>
       </c>
       <c r="F68" t="n">
-        <v>0.060876</v>
+        <v>0.0829483</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0730484</v>
+        <v>0.0741594</v>
       </c>
       <c r="C69" t="n">
-        <v>0.07241839999999999</v>
+        <v>0.0749177</v>
       </c>
       <c r="D69" t="n">
-        <v>0.129462</v>
+        <v>0.134378</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0568881</v>
+        <v>0.077311</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0616001</v>
+        <v>0.0832547</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0736392</v>
+        <v>0.0710406</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0728548</v>
+        <v>0.0750463</v>
       </c>
       <c r="D70" t="n">
-        <v>0.134865</v>
+        <v>0.140116</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0572095</v>
+        <v>0.0749774</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0626376</v>
+        <v>0.0842046</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0741223</v>
+        <v>0.0743547</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0734331</v>
+        <v>0.07571990000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.141469</v>
+        <v>0.146648</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0578573</v>
+        <v>0.0758433</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0644208</v>
+        <v>0.0844118</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.07244399999999999</v>
+        <v>0.0754981</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0738197</v>
+        <v>0.0765522</v>
       </c>
       <c r="D72" t="n">
-        <v>0.147469</v>
+        <v>0.151514</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0584412</v>
+        <v>0.0769924</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0661347</v>
+        <v>0.0862305</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.07366350000000001</v>
+        <v>0.0753052</v>
       </c>
       <c r="C73" t="n">
-        <v>0.07509929999999999</v>
+        <v>0.0774591</v>
       </c>
       <c r="D73" t="n">
-        <v>0.155398</v>
+        <v>0.16109</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0595144</v>
+        <v>0.0776728</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06774570000000001</v>
+        <v>0.0873989</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0727252</v>
+        <v>0.07408820000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0758558</v>
+        <v>0.078572</v>
       </c>
       <c r="D74" t="n">
-        <v>0.165805</v>
+        <v>0.168608</v>
       </c>
       <c r="E74" t="n">
-        <v>0.060855</v>
+        <v>0.07901420000000001</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0701609</v>
+        <v>0.0894727</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0732888</v>
+        <v>0.0744669</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0778423</v>
+        <v>0.0798827</v>
       </c>
       <c r="D75" t="n">
-        <v>0.175288</v>
+        <v>0.178057</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0622059</v>
+        <v>0.0800555</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0736892</v>
+        <v>0.0916693</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.07415140000000001</v>
+        <v>0.0750812</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0796775</v>
+        <v>0.08137990000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>0.181092</v>
+        <v>0.183705</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0643213</v>
+        <v>0.0821518</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0770333</v>
+        <v>0.0946919</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0741666</v>
+        <v>0.07732940000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0815179</v>
+        <v>0.083551</v>
       </c>
       <c r="D77" t="n">
-        <v>0.192976</v>
+        <v>0.192064</v>
       </c>
       <c r="E77" t="n">
-        <v>0.06694410000000001</v>
+        <v>0.0845924</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0814694</v>
+        <v>0.0998579</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0789714</v>
+        <v>0.0794004</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0842248</v>
+        <v>0.08696810000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.188649</v>
+        <v>0.189756</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0708372</v>
+        <v>0.08818239999999999</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0872662</v>
+        <v>0.103832</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0814439</v>
+        <v>0.0831419</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0885104</v>
+        <v>0.0916887</v>
       </c>
       <c r="D79" t="n">
-        <v>0.194407</v>
+        <v>0.200158</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0763923</v>
+        <v>0.0936713</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0950201</v>
+        <v>0.113224</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0857024</v>
+        <v>0.0855273</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0939459</v>
+        <v>0.0979072</v>
       </c>
       <c r="D80" t="n">
-        <v>0.203188</v>
+        <v>0.209186</v>
       </c>
       <c r="E80" t="n">
-        <v>0.102031</v>
+        <v>0.123289</v>
       </c>
       <c r="F80" t="n">
-        <v>0.10238</v>
+        <v>0.137694</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.172411</v>
+        <v>0.178458</v>
       </c>
       <c r="C81" t="n">
-        <v>0.140509</v>
+        <v>0.149418</v>
       </c>
       <c r="D81" t="n">
-        <v>0.212274</v>
+        <v>0.213233</v>
       </c>
       <c r="E81" t="n">
-        <v>0.106537</v>
+        <v>0.124517</v>
       </c>
       <c r="F81" t="n">
-        <v>0.103456</v>
+        <v>0.139893</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.174134</v>
+        <v>0.176052</v>
       </c>
       <c r="C82" t="n">
-        <v>0.141199</v>
+        <v>0.149899</v>
       </c>
       <c r="D82" t="n">
-        <v>0.219165</v>
+        <v>0.225596</v>
       </c>
       <c r="E82" t="n">
-        <v>0.108938</v>
+        <v>0.12592</v>
       </c>
       <c r="F82" t="n">
-        <v>0.104155</v>
+        <v>0.144498</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.174591</v>
+        <v>0.17642</v>
       </c>
       <c r="C83" t="n">
-        <v>0.141947</v>
+        <v>0.150934</v>
       </c>
       <c r="D83" t="n">
-        <v>0.227998</v>
+        <v>0.237216</v>
       </c>
       <c r="E83" t="n">
-        <v>0.109352</v>
+        <v>0.127064</v>
       </c>
       <c r="F83" t="n">
-        <v>0.105373</v>
+        <v>0.142506</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.175618</v>
+        <v>0.177641</v>
       </c>
       <c r="C84" t="n">
-        <v>0.143203</v>
+        <v>0.151264</v>
       </c>
       <c r="D84" t="n">
-        <v>0.238356</v>
+        <v>0.247765</v>
       </c>
       <c r="E84" t="n">
-        <v>0.112469</v>
+        <v>0.128191</v>
       </c>
       <c r="F84" t="n">
-        <v>0.106218</v>
+        <v>0.144055</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.177372</v>
+        <v>0.178283</v>
       </c>
       <c r="C85" t="n">
-        <v>0.142893</v>
+        <v>0.152031</v>
       </c>
       <c r="D85" t="n">
-        <v>0.250935</v>
+        <v>0.257315</v>
       </c>
       <c r="E85" t="n">
-        <v>0.113632</v>
+        <v>0.128973</v>
       </c>
       <c r="F85" t="n">
-        <v>0.10715</v>
+        <v>0.143511</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.176718</v>
+        <v>0.178859</v>
       </c>
       <c r="C86" t="n">
-        <v>0.144265</v>
+        <v>0.152668</v>
       </c>
       <c r="D86" t="n">
-        <v>0.257872</v>
+        <v>0.265198</v>
       </c>
       <c r="E86" t="n">
-        <v>0.115698</v>
+        <v>0.130317</v>
       </c>
       <c r="F86" t="n">
-        <v>0.108312</v>
+        <v>0.142986</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.177023</v>
+        <v>0.179495</v>
       </c>
       <c r="C87" t="n">
-        <v>0.144798</v>
+        <v>0.153732</v>
       </c>
       <c r="D87" t="n">
-        <v>0.271159</v>
+        <v>0.276341</v>
       </c>
       <c r="E87" t="n">
-        <v>0.116807</v>
+        <v>0.130357</v>
       </c>
       <c r="F87" t="n">
-        <v>0.110335</v>
+        <v>0.143484</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.177794</v>
+        <v>0.179223</v>
       </c>
       <c r="C88" t="n">
-        <v>0.145624</v>
+        <v>0.149396</v>
       </c>
       <c r="D88" t="n">
-        <v>0.279253</v>
+        <v>0.285416</v>
       </c>
       <c r="E88" t="n">
-        <v>0.12012</v>
+        <v>0.131822</v>
       </c>
       <c r="F88" t="n">
-        <v>0.114873</v>
+        <v>0.150001</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.178511</v>
+        <v>0.180293</v>
       </c>
       <c r="C89" t="n">
-        <v>0.147081</v>
+        <v>0.155467</v>
       </c>
       <c r="D89" t="n">
-        <v>0.289369</v>
+        <v>0.295658</v>
       </c>
       <c r="E89" t="n">
-        <v>0.122547</v>
+        <v>0.133266</v>
       </c>
       <c r="F89" t="n">
-        <v>0.114549</v>
+        <v>0.149415</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.178767</v>
+        <v>0.180604</v>
       </c>
       <c r="C90" t="n">
-        <v>0.148207</v>
+        <v>0.152481</v>
       </c>
       <c r="D90" t="n">
-        <v>0.298806</v>
+        <v>0.302947</v>
       </c>
       <c r="E90" t="n">
-        <v>0.124755</v>
+        <v>0.134513</v>
       </c>
       <c r="F90" t="n">
-        <v>0.119444</v>
+        <v>0.154253</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.18037</v>
+        <v>0.18386</v>
       </c>
       <c r="C91" t="n">
-        <v>0.151717</v>
+        <v>0.158852</v>
       </c>
       <c r="D91" t="n">
-        <v>0.30835</v>
+        <v>0.314521</v>
       </c>
       <c r="E91" t="n">
-        <v>0.128828</v>
+        <v>0.136308</v>
       </c>
       <c r="F91" t="n">
-        <v>0.12017</v>
+        <v>0.154714</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.182469</v>
+        <v>0.184383</v>
       </c>
       <c r="C92" t="n">
-        <v>0.152269</v>
+        <v>0.161577</v>
       </c>
       <c r="D92" t="n">
-        <v>0.287988</v>
+        <v>0.306933</v>
       </c>
       <c r="E92" t="n">
-        <v>0.131995</v>
+        <v>0.140965</v>
       </c>
       <c r="F92" t="n">
-        <v>0.12708</v>
+        <v>0.159684</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.18323</v>
+        <v>0.186043</v>
       </c>
       <c r="C93" t="n">
-        <v>0.157817</v>
+        <v>0.160504</v>
       </c>
       <c r="D93" t="n">
-        <v>0.293038</v>
+        <v>0.318019</v>
       </c>
       <c r="E93" t="n">
-        <v>0.136428</v>
+        <v>0.147121</v>
       </c>
       <c r="F93" t="n">
-        <v>0.132176</v>
+        <v>0.162054</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.185314</v>
+        <v>0.18876</v>
       </c>
       <c r="C94" t="n">
-        <v>0.162595</v>
+        <v>0.166423</v>
       </c>
       <c r="D94" t="n">
-        <v>0.298972</v>
+        <v>0.320451</v>
       </c>
       <c r="E94" t="n">
-        <v>0.205224</v>
+        <v>0.237833</v>
       </c>
       <c r="F94" t="n">
-        <v>0.199571</v>
+        <v>0.230058</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.243186</v>
+        <v>0.257648</v>
       </c>
       <c r="C95" t="n">
-        <v>0.221062</v>
+        <v>0.243304</v>
       </c>
       <c r="D95" t="n">
-        <v>0.305169</v>
+        <v>0.332133</v>
       </c>
       <c r="E95" t="n">
-        <v>0.209872</v>
+        <v>0.238476</v>
       </c>
       <c r="F95" t="n">
-        <v>0.200609</v>
+        <v>0.230741</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.243707</v>
+        <v>0.257219</v>
       </c>
       <c r="C96" t="n">
-        <v>0.221355</v>
+        <v>0.237314</v>
       </c>
       <c r="D96" t="n">
-        <v>0.317332</v>
+        <v>0.333789</v>
       </c>
       <c r="E96" t="n">
-        <v>0.208868</v>
+        <v>0.23869</v>
       </c>
       <c r="F96" t="n">
-        <v>0.20181</v>
+        <v>0.231635</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.244167</v>
+        <v>0.257412</v>
       </c>
       <c r="C97" t="n">
-        <v>0.221718</v>
+        <v>0.237304</v>
       </c>
       <c r="D97" t="n">
-        <v>0.323202</v>
+        <v>0.341427</v>
       </c>
       <c r="E97" t="n">
-        <v>0.210798</v>
+        <v>0.234614</v>
       </c>
       <c r="F97" t="n">
-        <v>0.202603</v>
+        <v>0.233979</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.243906</v>
+        <v>0.257262</v>
       </c>
       <c r="C98" t="n">
-        <v>0.221937</v>
+        <v>0.238177</v>
       </c>
       <c r="D98" t="n">
-        <v>0.332279</v>
+        <v>0.355824</v>
       </c>
       <c r="E98" t="n">
-        <v>0.212165</v>
+        <v>0.235018</v>
       </c>
       <c r="F98" t="n">
-        <v>0.203898</v>
+        <v>0.233166</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.243829</v>
+        <v>0.257837</v>
       </c>
       <c r="C99" t="n">
-        <v>0.22233</v>
+        <v>0.238667</v>
       </c>
       <c r="D99" t="n">
-        <v>0.340037</v>
+        <v>0.364543</v>
       </c>
       <c r="E99" t="n">
-        <v>0.214454</v>
+        <v>0.239198</v>
       </c>
       <c r="F99" t="n">
-        <v>0.205097</v>
+        <v>0.237003</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.244595</v>
+        <v>0.257977</v>
       </c>
       <c r="C100" t="n">
-        <v>0.222892</v>
+        <v>0.238982</v>
       </c>
       <c r="D100" t="n">
-        <v>0.347827</v>
+        <v>0.372943</v>
       </c>
       <c r="E100" t="n">
-        <v>0.215574</v>
+        <v>0.239357</v>
       </c>
       <c r="F100" t="n">
-        <v>0.207788</v>
+        <v>0.24092</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.244716</v>
+        <v>0.257884</v>
       </c>
       <c r="C101" t="n">
-        <v>0.223381</v>
+        <v>0.239448</v>
       </c>
       <c r="D101" t="n">
-        <v>0.357851</v>
+        <v>0.381378</v>
       </c>
       <c r="E101" t="n">
-        <v>0.218227</v>
+        <v>0.240676</v>
       </c>
       <c r="F101" t="n">
-        <v>0.207833</v>
+        <v>0.236825</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.244508</v>
+        <v>0.258088</v>
       </c>
       <c r="C102" t="n">
-        <v>0.22409</v>
+        <v>0.240321</v>
       </c>
       <c r="D102" t="n">
-        <v>0.366883</v>
+        <v>0.389283</v>
       </c>
       <c r="E102" t="n">
-        <v>0.219519</v>
+        <v>0.241946</v>
       </c>
       <c r="F102" t="n">
-        <v>0.21169</v>
+        <v>0.244271</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.24507</v>
+        <v>0.257519</v>
       </c>
       <c r="C103" t="n">
-        <v>0.225299</v>
+        <v>0.247301</v>
       </c>
       <c r="D103" t="n">
-        <v>0.377215</v>
+        <v>0.404915</v>
       </c>
       <c r="E103" t="n">
-        <v>0.223006</v>
+        <v>0.231915</v>
       </c>
       <c r="F103" t="n">
-        <v>0.211558</v>
+        <v>0.246393</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.24469</v>
+        <v>0.258539</v>
       </c>
       <c r="C104" t="n">
-        <v>0.226785</v>
+        <v>0.24789</v>
       </c>
       <c r="D104" t="n">
-        <v>0.38538</v>
+        <v>0.414749</v>
       </c>
       <c r="E104" t="n">
-        <v>0.223725</v>
+        <v>0.24267</v>
       </c>
       <c r="F104" t="n">
-        <v>0.214739</v>
+        <v>0.250402</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.245528</v>
+        <v>0.258956</v>
       </c>
       <c r="C105" t="n">
-        <v>0.22841</v>
+        <v>0.248671</v>
       </c>
       <c r="D105" t="n">
-        <v>0.395486</v>
+        <v>0.425092</v>
       </c>
       <c r="E105" t="n">
-        <v>0.22704</v>
+        <v>0.244867</v>
       </c>
       <c r="F105" t="n">
-        <v>0.217319</v>
+        <v>0.253021</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.246472</v>
+        <v>0.260242</v>
       </c>
       <c r="C106" t="n">
-        <v>0.230755</v>
+        <v>0.251482</v>
       </c>
       <c r="D106" t="n">
-        <v>0.40519</v>
+        <v>0.433947</v>
       </c>
       <c r="E106" t="n">
-        <v>0.229866</v>
+        <v>0.247624</v>
       </c>
       <c r="F106" t="n">
-        <v>0.222266</v>
+        <v>0.257412</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.247837</v>
+        <v>0.262041</v>
       </c>
       <c r="C107" t="n">
-        <v>0.234472</v>
+        <v>0.254777</v>
       </c>
       <c r="D107" t="n">
-        <v>0.349499</v>
+        <v>0.38464</v>
       </c>
       <c r="E107" t="n">
-        <v>0.23382</v>
+        <v>0.242226</v>
       </c>
       <c r="F107" t="n">
-        <v>0.227214</v>
+        <v>0.264325</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.251079</v>
+        <v>0.264701</v>
       </c>
       <c r="C108" t="n">
-        <v>0.239282</v>
+        <v>0.254033</v>
       </c>
       <c r="D108" t="n">
-        <v>0.355888</v>
+        <v>0.39167</v>
       </c>
       <c r="E108" t="n">
-        <v>0.251015</v>
+        <v>0.302087</v>
       </c>
       <c r="F108" t="n">
-        <v>0.251471</v>
+        <v>0.317616</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.254875</v>
+        <v>0.269499</v>
       </c>
       <c r="C109" t="n">
-        <v>0.247764</v>
+        <v>0.261121</v>
       </c>
       <c r="D109" t="n">
-        <v>0.356718</v>
+        <v>0.397441</v>
       </c>
       <c r="E109" t="n">
-        <v>0.252551</v>
+        <v>0.303813</v>
       </c>
       <c r="F109" t="n">
-        <v>0.252298</v>
+        <v>0.317145</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.280712</v>
+        <v>0.295095</v>
       </c>
       <c r="C110" t="n">
-        <v>0.275545</v>
+        <v>0.312354</v>
       </c>
       <c r="D110" t="n">
-        <v>0.364107</v>
+        <v>0.408981</v>
       </c>
       <c r="E110" t="n">
-        <v>0.248802</v>
+        <v>0.303268</v>
       </c>
       <c r="F110" t="n">
-        <v>0.254095</v>
+        <v>0.323542</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.280767</v>
+        <v>0.294962</v>
       </c>
       <c r="C111" t="n">
-        <v>0.275292</v>
+        <v>0.309023</v>
       </c>
       <c r="D111" t="n">
-        <v>0.37519</v>
+        <v>0.414164</v>
       </c>
       <c r="E111" t="n">
-        <v>0.250726</v>
+        <v>0.30663</v>
       </c>
       <c r="F111" t="n">
-        <v>0.255476</v>
+        <v>0.320754</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.280894</v>
+        <v>0.29462</v>
       </c>
       <c r="C112" t="n">
-        <v>0.275327</v>
+        <v>0.307628</v>
       </c>
       <c r="D112" t="n">
-        <v>0.379342</v>
+        <v>0.420807</v>
       </c>
       <c r="E112" t="n">
-        <v>0.249994</v>
+        <v>0.30827</v>
       </c>
       <c r="F112" t="n">
-        <v>0.256977</v>
+        <v>0.316883</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.28078</v>
+        <v>0.298735</v>
       </c>
       <c r="C113" t="n">
-        <v>0.275115</v>
+        <v>0.303503</v>
       </c>
       <c r="D113" t="n">
-        <v>0.388319</v>
+        <v>0.429962</v>
       </c>
       <c r="E113" t="n">
-        <v>0.252615</v>
+        <v>0.305139</v>
       </c>
       <c r="F113" t="n">
-        <v>0.259328</v>
+        <v>0.325403</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.28247</v>
+        <v>0.288251</v>
       </c>
       <c r="C114" t="n">
-        <v>0.277337</v>
+        <v>0.308419</v>
       </c>
       <c r="D114" t="n">
-        <v>0.396501</v>
+        <v>0.430621</v>
       </c>
       <c r="E114" t="n">
-        <v>0.255505</v>
+        <v>0.308046</v>
       </c>
       <c r="F114" t="n">
-        <v>0.262264</v>
+        <v>0.319286</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.281517</v>
+        <v>0.298414</v>
       </c>
       <c r="C115" t="n">
-        <v>0.277584</v>
+        <v>0.311167</v>
       </c>
       <c r="D115" t="n">
-        <v>0.404189</v>
+        <v>0.446584</v>
       </c>
       <c r="E115" t="n">
-        <v>0.258118</v>
+        <v>0.309315</v>
       </c>
       <c r="F115" t="n">
-        <v>0.264968</v>
+        <v>0.327074</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.280868</v>
+        <v>0.297317</v>
       </c>
       <c r="C116" t="n">
-        <v>0.278355</v>
+        <v>0.309009</v>
       </c>
       <c r="D116" t="n">
-        <v>0.411981</v>
+        <v>0.458945</v>
       </c>
       <c r="E116" t="n">
-        <v>0.260795</v>
+        <v>0.310632</v>
       </c>
       <c r="F116" t="n">
-        <v>0.267595</v>
+        <v>0.324096</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.281654</v>
+        <v>0.290745</v>
       </c>
       <c r="C117" t="n">
-        <v>0.279953</v>
+        <v>0.313154</v>
       </c>
       <c r="D117" t="n">
-        <v>0.421089</v>
+        <v>0.463717</v>
       </c>
       <c r="E117" t="n">
-        <v>0.264037</v>
+        <v>0.313313</v>
       </c>
       <c r="F117" t="n">
-        <v>0.271225</v>
+        <v>0.327068</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.283037</v>
+        <v>0.29045</v>
       </c>
       <c r="C118" t="n">
-        <v>0.282238</v>
+        <v>0.314723</v>
       </c>
       <c r="D118" t="n">
-        <v>0.429154</v>
+        <v>0.474313</v>
       </c>
       <c r="E118" t="n">
-        <v>0.266681</v>
+        <v>0.309636</v>
       </c>
       <c r="F118" t="n">
-        <v>0.274928</v>
+        <v>0.334891</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.282042</v>
+        <v>0.296404</v>
       </c>
       <c r="C119" t="n">
-        <v>0.283199</v>
+        <v>0.315371</v>
       </c>
       <c r="D119" t="n">
-        <v>0.442056</v>
+        <v>0.488481</v>
       </c>
       <c r="E119" t="n">
-        <v>0.270218</v>
+        <v>0.315939</v>
       </c>
       <c r="F119" t="n">
-        <v>0.280075</v>
+        <v>0.337807</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.282604</v>
+        <v>0.298842</v>
       </c>
       <c r="C120" t="n">
-        <v>0.285829</v>
+        <v>0.318184</v>
       </c>
       <c r="D120" t="n">
-        <v>0.450895</v>
+        <v>0.497893</v>
       </c>
       <c r="E120" t="n">
-        <v>0.274295</v>
+        <v>0.316852</v>
       </c>
       <c r="F120" t="n">
-        <v>0.28124</v>
+        <v>0.341691</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.28528</v>
+        <v>0.299486</v>
       </c>
       <c r="C121" t="n">
-        <v>0.28845</v>
+        <v>0.322054</v>
       </c>
       <c r="D121" t="n">
-        <v>0.376608</v>
+        <v>0.416835</v>
       </c>
       <c r="E121" t="n">
-        <v>0.279318</v>
+        <v>0.323445</v>
       </c>
       <c r="F121" t="n">
-        <v>0.288505</v>
+        <v>0.348289</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.286728</v>
+        <v>0.303025</v>
       </c>
       <c r="C122" t="n">
-        <v>0.29506</v>
+        <v>0.326058</v>
       </c>
       <c r="D122" t="n">
-        <v>0.382425</v>
+        <v>0.426101</v>
       </c>
       <c r="E122" t="n">
-        <v>0.285524</v>
+        <v>0.326687</v>
       </c>
       <c r="F122" t="n">
-        <v>0.29863</v>
+        <v>0.349231</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.291815</v>
+        <v>0.308937</v>
       </c>
       <c r="C123" t="n">
-        <v>0.301742</v>
+        <v>0.332164</v>
       </c>
       <c r="D123" t="n">
-        <v>0.387783</v>
+        <v>0.433354</v>
       </c>
       <c r="E123" t="n">
-        <v>0.273756</v>
+        <v>0.388184</v>
       </c>
       <c r="F123" t="n">
-        <v>0.284302</v>
+        <v>0.416405</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.360413</v>
+        <v>0.371929</v>
       </c>
       <c r="C124" t="n">
-        <v>0.350184</v>
+        <v>0.393088</v>
       </c>
       <c r="D124" t="n">
-        <v>0.392151</v>
+        <v>0.434448</v>
       </c>
       <c r="E124" t="n">
-        <v>0.273866</v>
+        <v>0.388121</v>
       </c>
       <c r="F124" t="n">
-        <v>0.286285</v>
+        <v>0.416575</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.360084</v>
+        <v>0.377947</v>
       </c>
       <c r="C125" t="n">
-        <v>0.351007</v>
+        <v>0.400877</v>
       </c>
       <c r="D125" t="n">
-        <v>0.401649</v>
+        <v>0.440908</v>
       </c>
       <c r="E125" t="n">
-        <v>0.276444</v>
+        <v>0.398129</v>
       </c>
       <c r="F125" t="n">
-        <v>0.288227</v>
+        <v>0.415939</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.361988</v>
+        <v>0.380404</v>
       </c>
       <c r="C126" t="n">
-        <v>0.35121</v>
+        <v>0.400921</v>
       </c>
       <c r="D126" t="n">
-        <v>0.40851</v>
+        <v>0.45727</v>
       </c>
       <c r="E126" t="n">
-        <v>0.279376</v>
+        <v>0.400136</v>
       </c>
       <c r="F126" t="n">
-        <v>0.290486</v>
+        <v>0.420914</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.361804</v>
+        <v>0.369877</v>
       </c>
       <c r="C127" t="n">
-        <v>0.352234</v>
+        <v>0.393929</v>
       </c>
       <c r="D127" t="n">
-        <v>0.413419</v>
+        <v>0.461054</v>
       </c>
       <c r="E127" t="n">
-        <v>0.282202</v>
+        <v>0.400148</v>
       </c>
       <c r="F127" t="n">
-        <v>0.293098</v>
+        <v>0.421277</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.361712</v>
+        <v>0.380094</v>
       </c>
       <c r="C128" t="n">
-        <v>0.352083</v>
+        <v>0.402188</v>
       </c>
       <c r="D128" t="n">
-        <v>0.427285</v>
+        <v>0.472751</v>
       </c>
       <c r="E128" t="n">
-        <v>0.285154</v>
+        <v>0.389055</v>
       </c>
       <c r="F128" t="n">
-        <v>0.296339</v>
+        <v>0.417049</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.360992</v>
+        <v>0.37796</v>
       </c>
       <c r="C129" t="n">
-        <v>0.353485</v>
+        <v>0.404042</v>
       </c>
       <c r="D129" t="n">
-        <v>0.433478</v>
+        <v>0.472501</v>
       </c>
       <c r="E129" t="n">
-        <v>0.288084</v>
+        <v>0.403306</v>
       </c>
       <c r="F129" t="n">
-        <v>0.299342</v>
+        <v>0.426279</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.360453</v>
+        <v>0.380152</v>
       </c>
       <c r="C130" t="n">
-        <v>0.354926</v>
+        <v>0.404234</v>
       </c>
       <c r="D130" t="n">
-        <v>0.44282</v>
+        <v>0.487234</v>
       </c>
       <c r="E130" t="n">
-        <v>0.291402</v>
+        <v>0.403477</v>
       </c>
       <c r="F130" t="n">
-        <v>0.296308</v>
+        <v>0.421399</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.361655</v>
+        <v>0.378723</v>
       </c>
       <c r="C131" t="n">
-        <v>0.355659</v>
+        <v>0.405</v>
       </c>
       <c r="D131" t="n">
-        <v>0.450654</v>
+        <v>0.49628</v>
       </c>
       <c r="E131" t="n">
-        <v>0.295177</v>
+        <v>0.403881</v>
       </c>
       <c r="F131" t="n">
-        <v>0.301085</v>
+        <v>0.425227</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.360622</v>
+        <v>0.381261</v>
       </c>
       <c r="C132" t="n">
-        <v>0.357297</v>
+        <v>0.402448</v>
       </c>
       <c r="D132" t="n">
-        <v>0.456556</v>
+        <v>0.50544</v>
       </c>
       <c r="E132" t="n">
-        <v>0.298619</v>
+        <v>0.406636</v>
       </c>
       <c r="F132" t="n">
-        <v>0.30629</v>
+        <v>0.427916</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.360835</v>
+        <v>0.382384</v>
       </c>
       <c r="C133" t="n">
-        <v>0.359755</v>
+        <v>0.405988</v>
       </c>
       <c r="D133" t="n">
-        <v>0.468503</v>
+        <v>0.517205</v>
       </c>
       <c r="E133" t="n">
-        <v>0.303067</v>
+        <v>0.406103</v>
       </c>
       <c r="F133" t="n">
-        <v>0.312221</v>
+        <v>0.433671</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.36185</v>
+        <v>0.382438</v>
       </c>
       <c r="C134" t="n">
-        <v>0.36245</v>
+        <v>0.412753</v>
       </c>
       <c r="D134" t="n">
-        <v>0.478435</v>
+        <v>0.529175</v>
       </c>
       <c r="E134" t="n">
-        <v>0.307928</v>
+        <v>0.410088</v>
       </c>
       <c r="F134" t="n">
-        <v>0.321565</v>
+        <v>0.440182</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.362117</v>
+        <v>0.384887</v>
       </c>
       <c r="C135" t="n">
-        <v>0.365996</v>
+        <v>0.41638</v>
       </c>
       <c r="D135" t="n">
-        <v>0.392264</v>
+        <v>0.439909</v>
       </c>
       <c r="E135" t="n">
-        <v>0.31403</v>
+        <v>0.413126</v>
       </c>
       <c r="F135" t="n">
-        <v>0.332319</v>
+        <v>0.445561</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.364489</v>
+        <v>0.383038</v>
       </c>
       <c r="C136" t="n">
-        <v>0.370591</v>
+        <v>0.412829</v>
       </c>
       <c r="D136" t="n">
-        <v>0.398898</v>
+        <v>0.439066</v>
       </c>
       <c r="E136" t="n">
-        <v>0.322787</v>
+        <v>0.416953</v>
       </c>
       <c r="F136" t="n">
-        <v>0.34704</v>
+        <v>0.453787</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.368352</v>
+        <v>0.385533</v>
       </c>
       <c r="C137" t="n">
-        <v>0.379589</v>
+        <v>0.42737</v>
       </c>
       <c r="D137" t="n">
-        <v>0.403357</v>
+        <v>0.452666</v>
       </c>
       <c r="E137" t="n">
-        <v>0.293805</v>
+        <v>0.458154</v>
       </c>
       <c r="F137" t="n">
-        <v>0.304706</v>
+        <v>0.476876</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.425079</v>
+        <v>0.44228</v>
       </c>
       <c r="C138" t="n">
-        <v>0.394571</v>
+        <v>0.460199</v>
       </c>
       <c r="D138" t="n">
-        <v>0.410777</v>
+        <v>0.460667</v>
       </c>
       <c r="E138" t="n">
-        <v>0.296123</v>
+        <v>0.458726</v>
       </c>
       <c r="F138" t="n">
-        <v>0.306536</v>
+        <v>0.477162</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.425541</v>
+        <v>0.447321</v>
       </c>
       <c r="C139" t="n">
-        <v>0.394764</v>
+        <v>0.460447</v>
       </c>
       <c r="D139" t="n">
-        <v>0.418694</v>
+        <v>0.465642</v>
       </c>
       <c r="E139" t="n">
-        <v>0.2985</v>
+        <v>0.458591</v>
       </c>
       <c r="F139" t="n">
-        <v>0.309018</v>
+        <v>0.477449</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.425567</v>
+        <v>0.440583</v>
       </c>
       <c r="C140" t="n">
-        <v>0.395236</v>
+        <v>0.460371</v>
       </c>
       <c r="D140" t="n">
-        <v>0.423651</v>
+        <v>0.473485</v>
       </c>
       <c r="E140" t="n">
-        <v>0.300476</v>
+        <v>0.451909</v>
       </c>
       <c r="F140" t="n">
-        <v>0.311622</v>
+        <v>0.479881</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.425855</v>
+        <v>0.442038</v>
       </c>
       <c r="C141" t="n">
-        <v>0.396658</v>
+        <v>0.461374</v>
       </c>
       <c r="D141" t="n">
-        <v>0.432709</v>
+        <v>0.4805</v>
       </c>
       <c r="E141" t="n">
-        <v>0.302672</v>
+        <v>0.459618</v>
       </c>
       <c r="F141" t="n">
-        <v>0.313944</v>
+        <v>0.483211</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.425552</v>
+        <v>0.447692</v>
       </c>
       <c r="C142" t="n">
-        <v>0.397113</v>
+        <v>0.462426</v>
       </c>
       <c r="D142" t="n">
-        <v>0.438486</v>
+        <v>0.488547</v>
       </c>
       <c r="E142" t="n">
-        <v>0.304993</v>
+        <v>0.459842</v>
       </c>
       <c r="F142" t="n">
-        <v>0.317274</v>
+        <v>0.483498</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.425357</v>
+        <v>0.441038</v>
       </c>
       <c r="C143" t="n">
-        <v>0.398042</v>
+        <v>0.463218</v>
       </c>
       <c r="D143" t="n">
-        <v>0.448064</v>
+        <v>0.492269</v>
       </c>
       <c r="E143" t="n">
-        <v>0.307869</v>
+        <v>0.453714</v>
       </c>
       <c r="F143" t="n">
-        <v>0.31754</v>
+        <v>0.486472</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.037774</v>
+        <v>0.0388005</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0381388</v>
+        <v>0.03765</v>
       </c>
       <c r="D2" t="n">
-        <v>0.071877</v>
+        <v>0.0729139</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0482576</v>
+        <v>0.0482396</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0464602</v>
+        <v>0.0492102</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0465767</v>
+        <v>0.0449634</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0392445</v>
+        <v>0.0381317</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0785511</v>
+        <v>0.07934529999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>0.048463</v>
+        <v>0.0482525</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0451727</v>
+        <v>0.0494344</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0458334</v>
+        <v>0.0441363</v>
       </c>
       <c r="C4" t="n">
-        <v>0.038879</v>
+        <v>0.0393012</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0857893</v>
+        <v>0.0872851</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0478832</v>
+        <v>0.0472365</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0466676</v>
+        <v>0.0453495</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0467519</v>
+        <v>0.0443099</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0393415</v>
+        <v>0.0391942</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0915721</v>
+        <v>0.0937201</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0474221</v>
+        <v>0.0476652</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0493067</v>
+        <v>0.050459</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0461517</v>
+        <v>0.045118</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0427873</v>
+        <v>0.0398254</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0967876</v>
+        <v>0.09910819999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0457693</v>
+        <v>0.0460494</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0496253</v>
+        <v>0.0523312</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0461994</v>
+        <v>0.0445325</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0395875</v>
+        <v>0.0395246</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0713873</v>
+        <v>0.071418</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0490515</v>
+        <v>0.0488641</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0484912</v>
+        <v>0.0463614</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.045219</v>
+        <v>0.0437675</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0417597</v>
+        <v>0.0399781</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0736458</v>
+        <v>0.0733148</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0473839</v>
+        <v>0.0457378</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0477774</v>
+        <v>0.0528418</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0456641</v>
+        <v>0.0441247</v>
       </c>
       <c r="C9" t="n">
-        <v>0.040132</v>
+        <v>0.0402441</v>
       </c>
       <c r="D9" t="n">
-        <v>0.07763680000000001</v>
+        <v>0.07656979999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0500007</v>
+        <v>0.0464682</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0550469</v>
+        <v>0.0612173</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0470956</v>
+        <v>0.0451088</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0494701</v>
+        <v>0.0495339</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0782475</v>
+        <v>0.0791613</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0500345</v>
+        <v>0.046511</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0611151</v>
+        <v>0.0578128</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.047099</v>
+        <v>0.045174</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0494231</v>
+        <v>0.0494525</v>
       </c>
       <c r="D11" t="n">
-        <v>0.08317919999999999</v>
+        <v>0.084575</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0502788</v>
+        <v>0.0465831</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0560417</v>
+        <v>0.0578521</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.047423</v>
+        <v>0.045233</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0496817</v>
+        <v>0.0497345</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0883356</v>
+        <v>0.0896724</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0496368</v>
+        <v>0.0464403</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0600032</v>
+        <v>0.0572653</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0473741</v>
+        <v>0.0452858</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0498441</v>
+        <v>0.0497525</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0933152</v>
+        <v>0.095308</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0502375</v>
+        <v>0.0467549</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0563412</v>
+        <v>0.0602342</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0468537</v>
+        <v>0.0456306</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0494056</v>
+        <v>0.0484154</v>
       </c>
       <c r="D14" t="n">
-        <v>0.09812659999999999</v>
+        <v>0.100141</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0503154</v>
+        <v>0.0472718</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0582918</v>
+        <v>0.0580274</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0477</v>
+        <v>0.0457956</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0500759</v>
+        <v>0.0500975</v>
       </c>
       <c r="D15" t="n">
-        <v>0.102943</v>
+        <v>0.105305</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0506878</v>
+        <v>0.0471417</v>
       </c>
       <c r="F15" t="n">
-        <v>0.055424</v>
+        <v>0.0551388</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0467899</v>
+        <v>0.04587</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0486644</v>
+        <v>0.047979</v>
       </c>
       <c r="D16" t="n">
-        <v>0.107693</v>
+        <v>0.110245</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0510314</v>
+        <v>0.0480297</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0564447</v>
+        <v>0.0573537</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0473784</v>
+        <v>0.0459932</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0496582</v>
+        <v>0.0485955</v>
       </c>
       <c r="D17" t="n">
-        <v>0.11296</v>
+        <v>0.115709</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0506721</v>
+        <v>0.0475799</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0601642</v>
+        <v>0.0624683</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0486079</v>
+        <v>0.0462804</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0505579</v>
+        <v>0.0505859</v>
       </c>
       <c r="D18" t="n">
-        <v>0.118451</v>
+        <v>0.120987</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0499029</v>
+        <v>0.0476533</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0595538</v>
+        <v>0.0559101</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0482952</v>
+        <v>0.0465288</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0507067</v>
+        <v>0.050728</v>
       </c>
       <c r="D19" t="n">
-        <v>0.122533</v>
+        <v>0.124762</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0508904</v>
+        <v>0.0487678</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0608931</v>
+        <v>0.0566506</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.047372</v>
+        <v>0.0464656</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0509052</v>
+        <v>0.0505045</v>
       </c>
       <c r="D20" t="n">
-        <v>0.125833</v>
+        <v>0.12889</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0505176</v>
+        <v>0.0480815</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0581756</v>
+        <v>0.0571277</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0478279</v>
+        <v>0.0467394</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0470183</v>
+        <v>0.0460546</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0876864</v>
+        <v>0.0878777</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0496009</v>
+        <v>0.0488837</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0605715</v>
+        <v>0.0545686</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0482809</v>
+        <v>0.0470071</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0487949</v>
+        <v>0.0473799</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0901474</v>
+        <v>0.0903663</v>
       </c>
       <c r="E22" t="n">
-        <v>0.054513</v>
+        <v>0.0525113</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0643388</v>
+        <v>0.0603987</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0482901</v>
+        <v>0.0474449</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0506549</v>
+        <v>0.0491577</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0940288</v>
+        <v>0.0944434</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0544664</v>
+        <v>0.0529482</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0599608</v>
+        <v>0.0604356</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0512923</v>
+        <v>0.0510384</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0516079</v>
+        <v>0.0513663</v>
       </c>
       <c r="D24" t="n">
-        <v>0.09724049999999999</v>
+        <v>0.09785480000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0542204</v>
+        <v>0.0531695</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0583827</v>
+        <v>0.0571822</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0513955</v>
+        <v>0.0511917</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0517308</v>
+        <v>0.0513588</v>
       </c>
       <c r="D25" t="n">
-        <v>0.100646</v>
+        <v>0.101595</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0546609</v>
+        <v>0.0534616</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0629382</v>
+        <v>0.0580213</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0514355</v>
+        <v>0.050651</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0516112</v>
+        <v>0.0514875</v>
       </c>
       <c r="D26" t="n">
-        <v>0.104053</v>
+        <v>0.10516</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0546609</v>
+        <v>0.0537133</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0586434</v>
+        <v>0.0579646</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0514933</v>
+        <v>0.050736</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0518461</v>
+        <v>0.0515488</v>
       </c>
       <c r="D27" t="n">
-        <v>0.107899</v>
+        <v>0.109153</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0544562</v>
+        <v>0.0535547</v>
       </c>
       <c r="F27" t="n">
-        <v>0.060867</v>
+        <v>0.0578912</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0516151</v>
+        <v>0.0513447</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0520507</v>
+        <v>0.0517147</v>
       </c>
       <c r="D28" t="n">
-        <v>0.111857</v>
+        <v>0.113271</v>
       </c>
       <c r="E28" t="n">
-        <v>0.055708</v>
+        <v>0.0539059</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0643049</v>
+        <v>0.0579417</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0518174</v>
+        <v>0.0510263</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0523095</v>
+        <v>0.0520152</v>
       </c>
       <c r="D29" t="n">
-        <v>0.115904</v>
+        <v>0.117476</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0546932</v>
+        <v>0.0547223</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0643673</v>
+        <v>0.0592229</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0519888</v>
+        <v>0.0507445</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0525158</v>
+        <v>0.0515984</v>
       </c>
       <c r="D30" t="n">
-        <v>0.119564</v>
+        <v>0.121355</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0548746</v>
+        <v>0.05414</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0645003</v>
+        <v>0.0621218</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0521951</v>
+        <v>0.0512497</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0526862</v>
+        <v>0.0518592</v>
       </c>
       <c r="D31" t="n">
-        <v>0.124173</v>
+        <v>0.125784</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0552916</v>
+        <v>0.0536311</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06480370000000001</v>
+        <v>0.0588173</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0523346</v>
+        <v>0.0510559</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0527391</v>
+        <v>0.0519595</v>
       </c>
       <c r="D32" t="n">
-        <v>0.127676</v>
+        <v>0.129461</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0549736</v>
+        <v>0.0543276</v>
       </c>
       <c r="F32" t="n">
-        <v>0.06502719999999999</v>
+        <v>0.0638372</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0524858</v>
+        <v>0.0512905</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0529603</v>
+        <v>0.0521848</v>
       </c>
       <c r="D33" t="n">
-        <v>0.131247</v>
+        <v>0.129559</v>
       </c>
       <c r="E33" t="n">
-        <v>0.055326</v>
+        <v>0.0545964</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0617307</v>
+        <v>0.06343799999999999</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0526654</v>
+        <v>0.0514499</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0532383</v>
+        <v>0.0523961</v>
       </c>
       <c r="D34" t="n">
-        <v>0.134705</v>
+        <v>0.132631</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0579394</v>
+        <v>0.0569182</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0624339</v>
+        <v>0.0590948</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0528793</v>
+        <v>0.0518613</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0533696</v>
+        <v>0.0526447</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0956742</v>
+        <v>0.0952847</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0603</v>
+        <v>0.059204</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0689492</v>
+        <v>0.0624108</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0532402</v>
+        <v>0.0523705</v>
       </c>
       <c r="C36" t="n">
-        <v>0.054126</v>
+        <v>0.0532819</v>
       </c>
       <c r="D36" t="n">
-        <v>0.09835149999999999</v>
+        <v>0.097834</v>
       </c>
       <c r="E36" t="n">
-        <v>0.06638620000000001</v>
+        <v>0.0659325</v>
       </c>
       <c r="F36" t="n">
-        <v>0.072556</v>
+        <v>0.0702184</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0553626</v>
+        <v>0.0546109</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0567825</v>
+        <v>0.0560596</v>
       </c>
       <c r="D37" t="n">
-        <v>0.100572</v>
+        <v>0.100963</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0655553</v>
+        <v>0.0618459</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0708874</v>
+        <v>0.066786</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0610047</v>
+        <v>0.0556515</v>
       </c>
       <c r="C38" t="n">
-        <v>0.057843</v>
+        <v>0.0598118</v>
       </c>
       <c r="D38" t="n">
-        <v>0.103636</v>
+        <v>0.104407</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0630418</v>
+        <v>0.0601039</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0706619</v>
+        <v>0.074153</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0605713</v>
+        <v>0.0553514</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0577869</v>
+        <v>0.0598285</v>
       </c>
       <c r="D39" t="n">
-        <v>0.106304</v>
+        <v>0.107127</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0627588</v>
+        <v>0.06283850000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0711594</v>
+        <v>0.0669696</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0605896</v>
+        <v>0.0554129</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0579349</v>
+        <v>0.0599304</v>
       </c>
       <c r="D40" t="n">
-        <v>0.109721</v>
+        <v>0.110658</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0626723</v>
+        <v>0.0621478</v>
       </c>
       <c r="F40" t="n">
-        <v>0.07428709999999999</v>
+        <v>0.06726849999999999</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0606508</v>
+        <v>0.0554924</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0580164</v>
+        <v>0.060045</v>
       </c>
       <c r="D41" t="n">
-        <v>0.112898</v>
+        <v>0.114201</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0624006</v>
+        <v>0.0609066</v>
       </c>
       <c r="F41" t="n">
-        <v>0.07065589999999999</v>
+        <v>0.07483919999999999</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0608329</v>
+        <v>0.055586</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0580278</v>
+        <v>0.0600215</v>
       </c>
       <c r="D42" t="n">
-        <v>0.116501</v>
+        <v>0.11785</v>
       </c>
       <c r="E42" t="n">
-        <v>0.06255139999999999</v>
+        <v>0.0610945</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0738475</v>
+        <v>0.07252550000000001</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.060943</v>
+        <v>0.0557709</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0582377</v>
+        <v>0.060185</v>
       </c>
       <c r="D43" t="n">
-        <v>0.120298</v>
+        <v>0.121859</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0628906</v>
+        <v>0.0622379</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0715832</v>
+        <v>0.0677671</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0610561</v>
+        <v>0.0558693</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0585121</v>
+        <v>0.0604843</v>
       </c>
       <c r="D44" t="n">
-        <v>0.124157</v>
+        <v>0.125896</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0628532</v>
+        <v>0.0613837</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0730719</v>
+        <v>0.0694791</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0612368</v>
+        <v>0.0560147</v>
       </c>
       <c r="C45" t="n">
-        <v>0.058671</v>
+        <v>0.0606694</v>
       </c>
       <c r="D45" t="n">
-        <v>0.128202</v>
+        <v>0.129925</v>
       </c>
       <c r="E45" t="n">
-        <v>0.062988</v>
+        <v>0.0632335</v>
       </c>
       <c r="F45" t="n">
-        <v>0.06920659999999999</v>
+        <v>0.0676785</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0613321</v>
+        <v>0.0562181</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0590186</v>
+        <v>0.0608665</v>
       </c>
       <c r="D46" t="n">
-        <v>0.131804</v>
+        <v>0.133695</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0634001</v>
+        <v>0.0651635</v>
       </c>
       <c r="F46" t="n">
-        <v>0.073848</v>
+        <v>0.06654069999999999</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0615324</v>
+        <v>0.0563254</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0592007</v>
+        <v>0.0611147</v>
       </c>
       <c r="D47" t="n">
-        <v>0.135838</v>
+        <v>0.136942</v>
       </c>
       <c r="E47" t="n">
-        <v>0.06409960000000001</v>
+        <v>0.0627489</v>
       </c>
       <c r="F47" t="n">
-        <v>0.072605</v>
+        <v>0.0689123</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0585394</v>
+        <v>0.0565173</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0604225</v>
+        <v>0.0594226</v>
       </c>
       <c r="D48" t="n">
-        <v>0.141278</v>
+        <v>0.14053</v>
       </c>
       <c r="E48" t="n">
-        <v>0.06669319999999999</v>
+        <v>0.0648359</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0726214</v>
+        <v>0.07210809999999999</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.062444</v>
+        <v>0.0586326</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0599615</v>
+        <v>0.0618383</v>
       </c>
       <c r="D49" t="n">
-        <v>0.144423</v>
+        <v>0.14383</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0703008</v>
+        <v>0.06874710000000001</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0790918</v>
+        <v>0.07432800000000001</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.06420149999999999</v>
+        <v>0.0599429</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0615394</v>
+        <v>0.0634402</v>
       </c>
       <c r="D50" t="n">
-        <v>0.101576</v>
+        <v>0.100893</v>
       </c>
       <c r="E50" t="n">
-        <v>0.07407080000000001</v>
+        <v>0.0726854</v>
       </c>
       <c r="F50" t="n">
-        <v>0.082124</v>
+        <v>0.08157490000000001</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0676351</v>
+        <v>0.06326039999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>0.06929829999999999</v>
+        <v>0.0666076</v>
       </c>
       <c r="D51" t="n">
-        <v>0.10381</v>
+        <v>0.103229</v>
       </c>
       <c r="E51" t="n">
-        <v>0.06994690000000001</v>
+        <v>0.0704018</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0762941</v>
+        <v>0.07287879999999999</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0691378</v>
+        <v>0.06833690000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0736976</v>
+        <v>0.0733174</v>
       </c>
       <c r="D52" t="n">
-        <v>0.106709</v>
+        <v>0.106119</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0696624</v>
+        <v>0.0701479</v>
       </c>
       <c r="F52" t="n">
-        <v>0.07639550000000001</v>
+        <v>0.0728697</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0645078</v>
+        <v>0.06576120000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0668522</v>
+        <v>0.0653856</v>
       </c>
       <c r="D53" t="n">
-        <v>0.109742</v>
+        <v>0.109323</v>
       </c>
       <c r="E53" t="n">
-        <v>0.070038</v>
+        <v>0.07057239999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>0.07657310000000001</v>
+        <v>0.0731411</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.064592</v>
+        <v>0.065941</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0668089</v>
+        <v>0.0654672</v>
       </c>
       <c r="D54" t="n">
-        <v>0.112785</v>
+        <v>0.112419</v>
       </c>
       <c r="E54" t="n">
-        <v>0.07016310000000001</v>
+        <v>0.0707031</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0770424</v>
+        <v>0.0735025</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0647773</v>
+        <v>0.0660024</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0668913</v>
+        <v>0.0656146</v>
       </c>
       <c r="D55" t="n">
-        <v>0.116306</v>
+        <v>0.115803</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0685294</v>
+        <v>0.0691995</v>
       </c>
       <c r="F55" t="n">
-        <v>0.074641</v>
+        <v>0.0745886</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0647752</v>
+        <v>0.06609859999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0671554</v>
+        <v>0.0659304</v>
       </c>
       <c r="D56" t="n">
-        <v>0.120091</v>
+        <v>0.119675</v>
       </c>
       <c r="E56" t="n">
-        <v>0.06848170000000001</v>
+        <v>0.0690897</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0750725</v>
+        <v>0.07469430000000001</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.06491420000000001</v>
+        <v>0.0662619</v>
       </c>
       <c r="C57" t="n">
-        <v>0.06729839999999999</v>
+        <v>0.06593160000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>0.124369</v>
+        <v>0.124093</v>
       </c>
       <c r="E57" t="n">
-        <v>0.069623</v>
+        <v>0.0671778</v>
       </c>
       <c r="F57" t="n">
-        <v>0.07487729999999999</v>
+        <v>0.0745567</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.06506240000000001</v>
+        <v>0.0660065</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0673718</v>
+        <v>0.0650913</v>
       </c>
       <c r="D58" t="n">
-        <v>0.12831</v>
+        <v>0.127808</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0707173</v>
+        <v>0.06795420000000001</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0754464</v>
+        <v>0.0759152</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0644542</v>
+        <v>0.06616519999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0678144</v>
+        <v>0.06640219999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.132384</v>
+        <v>0.132064</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0704664</v>
+        <v>0.0672722</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0760125</v>
+        <v>0.0766101</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0648854</v>
+        <v>0.0662079</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0676837</v>
+        <v>0.0689617</v>
       </c>
       <c r="D60" t="n">
-        <v>0.13657</v>
+        <v>0.136428</v>
       </c>
       <c r="E60" t="n">
-        <v>0.07161720000000001</v>
+        <v>0.06926160000000001</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0769884</v>
+        <v>0.07721069999999999</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0659338</v>
+        <v>0.0667889</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0687257</v>
+        <v>0.0673682</v>
       </c>
       <c r="D61" t="n">
-        <v>0.140814</v>
+        <v>0.140856</v>
       </c>
       <c r="E61" t="n">
-        <v>0.073212</v>
+        <v>0.0701148</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0791094</v>
+        <v>0.07780479999999999</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0656125</v>
+        <v>0.0655627</v>
       </c>
       <c r="C62" t="n">
-        <v>0.06733450000000001</v>
+        <v>0.0679867</v>
       </c>
       <c r="D62" t="n">
-        <v>0.144664</v>
+        <v>0.144808</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0751642</v>
+        <v>0.07242270000000001</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0815147</v>
+        <v>0.0808808</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0668166</v>
+        <v>0.0673049</v>
       </c>
       <c r="C63" t="n">
-        <v>0.069017</v>
+        <v>0.070744</v>
       </c>
       <c r="D63" t="n">
-        <v>0.148219</v>
+        <v>0.150631</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0777849</v>
+        <v>0.0749068</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0843251</v>
+        <v>0.0838096</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0693807</v>
+        <v>0.07033730000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.071907</v>
+        <v>0.07366730000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.110848</v>
+        <v>0.116963</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0812018</v>
+        <v>0.0821804</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0912992</v>
+        <v>0.08882859999999999</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.07116989999999999</v>
+        <v>0.0732462</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0749354</v>
+        <v>0.0772076</v>
       </c>
       <c r="D65" t="n">
-        <v>0.113115</v>
+        <v>0.123648</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0883911</v>
+        <v>0.0884815</v>
       </c>
       <c r="F65" t="n">
-        <v>0.09817330000000001</v>
+        <v>0.0954907</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0755874</v>
+        <v>0.0776068</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0802938</v>
+        <v>0.083061</v>
       </c>
       <c r="D66" t="n">
-        <v>0.117522</v>
+        <v>0.129075</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0762096</v>
+        <v>0.0754664</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0815857</v>
+        <v>0.0845052</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0741628</v>
+        <v>0.07574649999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0735209</v>
+        <v>0.0792336</v>
       </c>
       <c r="D67" t="n">
-        <v>0.122761</v>
+        <v>0.135079</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0767577</v>
+        <v>0.075512</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0817959</v>
+        <v>0.08449909999999999</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0726861</v>
+        <v>0.0744433</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0742733</v>
+        <v>0.07870530000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.128234</v>
+        <v>0.136997</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0774108</v>
+        <v>0.0755214</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0829483</v>
+        <v>0.08472200000000001</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0741594</v>
+        <v>0.073032</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0749177</v>
+        <v>0.0788769</v>
       </c>
       <c r="D69" t="n">
-        <v>0.134378</v>
+        <v>0.147421</v>
       </c>
       <c r="E69" t="n">
-        <v>0.077311</v>
+        <v>0.0759721</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0832547</v>
+        <v>0.0857464</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0710406</v>
+        <v>0.0736431</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0750463</v>
+        <v>0.0794778</v>
       </c>
       <c r="D70" t="n">
-        <v>0.140116</v>
+        <v>0.153416</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0749774</v>
+        <v>0.0755834</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0842046</v>
+        <v>0.0868683</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0743547</v>
+        <v>0.07610939999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>0.07571990000000001</v>
+        <v>0.08080560000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.146648</v>
+        <v>0.162834</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0758433</v>
+        <v>0.075257</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0844118</v>
+        <v>0.08505210000000001</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0754981</v>
+        <v>0.0766054</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0765522</v>
+        <v>0.08188869999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>0.151514</v>
+        <v>0.171849</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0769924</v>
+        <v>0.0756397</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0862305</v>
+        <v>0.08642560000000001</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0753052</v>
+        <v>0.0763607</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0774591</v>
+        <v>0.082331</v>
       </c>
       <c r="D73" t="n">
-        <v>0.16109</v>
+        <v>0.177683</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0776728</v>
+        <v>0.0763597</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0873989</v>
+        <v>0.0887097</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.07408820000000001</v>
+        <v>0.074596</v>
       </c>
       <c r="C74" t="n">
-        <v>0.078572</v>
+        <v>0.0831906</v>
       </c>
       <c r="D74" t="n">
-        <v>0.168608</v>
+        <v>0.18636</v>
       </c>
       <c r="E74" t="n">
-        <v>0.07901420000000001</v>
+        <v>0.0780685</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0894727</v>
+        <v>0.09387860000000001</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0744669</v>
+        <v>0.075048</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0798827</v>
+        <v>0.08173519999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>0.178057</v>
+        <v>0.196707</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0800555</v>
+        <v>0.0788975</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0916693</v>
+        <v>0.0966963</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0750812</v>
+        <v>0.07583139999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.08137990000000001</v>
+        <v>0.08323899999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>0.183705</v>
+        <v>0.202893</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0821518</v>
+        <v>0.08048130000000001</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0946919</v>
+        <v>0.09571399999999999</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.07732940000000001</v>
+        <v>0.0770388</v>
       </c>
       <c r="C77" t="n">
-        <v>0.083551</v>
+        <v>0.0840779</v>
       </c>
       <c r="D77" t="n">
-        <v>0.192064</v>
+        <v>0.204813</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0845924</v>
+        <v>0.0828048</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0998579</v>
+        <v>0.101292</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0794004</v>
+        <v>0.07910150000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.08696810000000001</v>
+        <v>0.08742220000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.189756</v>
+        <v>0.191218</v>
       </c>
       <c r="E78" t="n">
-        <v>0.08818239999999999</v>
+        <v>0.08620410000000001</v>
       </c>
       <c r="F78" t="n">
-        <v>0.103832</v>
+        <v>0.107761</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0831419</v>
+        <v>0.081307</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0916887</v>
+        <v>0.0911069</v>
       </c>
       <c r="D79" t="n">
-        <v>0.200158</v>
+        <v>0.202511</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0936713</v>
+        <v>0.09146890000000001</v>
       </c>
       <c r="F79" t="n">
-        <v>0.113224</v>
+        <v>0.11668</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0855273</v>
+        <v>0.0855891</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0979072</v>
+        <v>0.098868</v>
       </c>
       <c r="D80" t="n">
-        <v>0.209186</v>
+        <v>0.210767</v>
       </c>
       <c r="E80" t="n">
-        <v>0.123289</v>
+        <v>0.126837</v>
       </c>
       <c r="F80" t="n">
-        <v>0.137694</v>
+        <v>0.13743</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.178458</v>
+        <v>0.181638</v>
       </c>
       <c r="C81" t="n">
-        <v>0.149418</v>
+        <v>0.143634</v>
       </c>
       <c r="D81" t="n">
-        <v>0.213233</v>
+        <v>0.213577</v>
       </c>
       <c r="E81" t="n">
-        <v>0.124517</v>
+        <v>0.128239</v>
       </c>
       <c r="F81" t="n">
-        <v>0.139893</v>
+        <v>0.139281</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.176052</v>
+        <v>0.179556</v>
       </c>
       <c r="C82" t="n">
-        <v>0.149899</v>
+        <v>0.144519</v>
       </c>
       <c r="D82" t="n">
-        <v>0.225596</v>
+        <v>0.227754</v>
       </c>
       <c r="E82" t="n">
-        <v>0.12592</v>
+        <v>0.129728</v>
       </c>
       <c r="F82" t="n">
-        <v>0.144498</v>
+        <v>0.139683</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.17642</v>
+        <v>0.179936</v>
       </c>
       <c r="C83" t="n">
-        <v>0.150934</v>
+        <v>0.145479</v>
       </c>
       <c r="D83" t="n">
-        <v>0.237216</v>
+        <v>0.240867</v>
       </c>
       <c r="E83" t="n">
-        <v>0.127064</v>
+        <v>0.131063</v>
       </c>
       <c r="F83" t="n">
-        <v>0.142506</v>
+        <v>0.142036</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.177641</v>
+        <v>0.181258</v>
       </c>
       <c r="C84" t="n">
-        <v>0.151264</v>
+        <v>0.146298</v>
       </c>
       <c r="D84" t="n">
-        <v>0.247765</v>
+        <v>0.247607</v>
       </c>
       <c r="E84" t="n">
-        <v>0.128191</v>
+        <v>0.132151</v>
       </c>
       <c r="F84" t="n">
-        <v>0.144055</v>
+        <v>0.143858</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.178283</v>
+        <v>0.18219</v>
       </c>
       <c r="C85" t="n">
-        <v>0.152031</v>
+        <v>0.146663</v>
       </c>
       <c r="D85" t="n">
-        <v>0.257315</v>
+        <v>0.256779</v>
       </c>
       <c r="E85" t="n">
-        <v>0.128973</v>
+        <v>0.132758</v>
       </c>
       <c r="F85" t="n">
-        <v>0.143511</v>
+        <v>0.140984</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.178859</v>
+        <v>0.182898</v>
       </c>
       <c r="C86" t="n">
-        <v>0.152668</v>
+        <v>0.147841</v>
       </c>
       <c r="D86" t="n">
-        <v>0.265198</v>
+        <v>0.264412</v>
       </c>
       <c r="E86" t="n">
-        <v>0.130317</v>
+        <v>0.134213</v>
       </c>
       <c r="F86" t="n">
-        <v>0.142986</v>
+        <v>0.142306</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.179495</v>
+        <v>0.182983</v>
       </c>
       <c r="C87" t="n">
-        <v>0.153732</v>
+        <v>0.148366</v>
       </c>
       <c r="D87" t="n">
-        <v>0.276341</v>
+        <v>0.277116</v>
       </c>
       <c r="E87" t="n">
-        <v>0.130357</v>
+        <v>0.134675</v>
       </c>
       <c r="F87" t="n">
-        <v>0.143484</v>
+        <v>0.14678</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.179223</v>
+        <v>0.183902</v>
       </c>
       <c r="C88" t="n">
-        <v>0.149396</v>
+        <v>0.150958</v>
       </c>
       <c r="D88" t="n">
-        <v>0.285416</v>
+        <v>0.283268</v>
       </c>
       <c r="E88" t="n">
-        <v>0.131822</v>
+        <v>0.136422</v>
       </c>
       <c r="F88" t="n">
-        <v>0.150001</v>
+        <v>0.149865</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.180293</v>
+        <v>0.184811</v>
       </c>
       <c r="C89" t="n">
-        <v>0.155467</v>
+        <v>0.150522</v>
       </c>
       <c r="D89" t="n">
-        <v>0.295658</v>
+        <v>0.293925</v>
       </c>
       <c r="E89" t="n">
-        <v>0.133266</v>
+        <v>0.137546</v>
       </c>
       <c r="F89" t="n">
-        <v>0.149415</v>
+        <v>0.153407</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.180604</v>
+        <v>0.184774</v>
       </c>
       <c r="C90" t="n">
-        <v>0.152481</v>
+        <v>0.152095</v>
       </c>
       <c r="D90" t="n">
-        <v>0.302947</v>
+        <v>0.302604</v>
       </c>
       <c r="E90" t="n">
-        <v>0.134513</v>
+        <v>0.138718</v>
       </c>
       <c r="F90" t="n">
-        <v>0.154253</v>
+        <v>0.153884</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.18386</v>
+        <v>0.186155</v>
       </c>
       <c r="C91" t="n">
-        <v>0.158852</v>
+        <v>0.154581</v>
       </c>
       <c r="D91" t="n">
-        <v>0.314521</v>
+        <v>0.313756</v>
       </c>
       <c r="E91" t="n">
-        <v>0.136308</v>
+        <v>0.140498</v>
       </c>
       <c r="F91" t="n">
-        <v>0.154714</v>
+        <v>0.157002</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.184383</v>
+        <v>0.18731</v>
       </c>
       <c r="C92" t="n">
-        <v>0.161577</v>
+        <v>0.157737</v>
       </c>
       <c r="D92" t="n">
-        <v>0.306933</v>
+        <v>0.295546</v>
       </c>
       <c r="E92" t="n">
-        <v>0.140965</v>
+        <v>0.143373</v>
       </c>
       <c r="F92" t="n">
-        <v>0.159684</v>
+        <v>0.161656</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.186043</v>
+        <v>0.188863</v>
       </c>
       <c r="C93" t="n">
-        <v>0.160504</v>
+        <v>0.16247</v>
       </c>
       <c r="D93" t="n">
-        <v>0.318019</v>
+        <v>0.305352</v>
       </c>
       <c r="E93" t="n">
-        <v>0.147121</v>
+        <v>0.147722</v>
       </c>
       <c r="F93" t="n">
-        <v>0.162054</v>
+        <v>0.167062</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.18876</v>
+        <v>0.190775</v>
       </c>
       <c r="C94" t="n">
-        <v>0.166423</v>
+        <v>0.16805</v>
       </c>
       <c r="D94" t="n">
-        <v>0.320451</v>
+        <v>0.313165</v>
       </c>
       <c r="E94" t="n">
-        <v>0.237833</v>
+        <v>0.22493</v>
       </c>
       <c r="F94" t="n">
-        <v>0.230058</v>
+        <v>0.233177</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.257648</v>
+        <v>0.253876</v>
       </c>
       <c r="C95" t="n">
-        <v>0.243304</v>
+        <v>0.23096</v>
       </c>
       <c r="D95" t="n">
-        <v>0.332133</v>
+        <v>0.319821</v>
       </c>
       <c r="E95" t="n">
-        <v>0.238476</v>
+        <v>0.226108</v>
       </c>
       <c r="F95" t="n">
-        <v>0.230741</v>
+        <v>0.233789</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.257219</v>
+        <v>0.253927</v>
       </c>
       <c r="C96" t="n">
-        <v>0.237314</v>
+        <v>0.229653</v>
       </c>
       <c r="D96" t="n">
-        <v>0.333789</v>
+        <v>0.322897</v>
       </c>
       <c r="E96" t="n">
-        <v>0.23869</v>
+        <v>0.225854</v>
       </c>
       <c r="F96" t="n">
-        <v>0.231635</v>
+        <v>0.234685</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.257412</v>
+        <v>0.254431</v>
       </c>
       <c r="C97" t="n">
-        <v>0.237304</v>
+        <v>0.230222</v>
       </c>
       <c r="D97" t="n">
-        <v>0.341427</v>
+        <v>0.334378</v>
       </c>
       <c r="E97" t="n">
-        <v>0.234614</v>
+        <v>0.225857</v>
       </c>
       <c r="F97" t="n">
-        <v>0.233979</v>
+        <v>0.235684</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.257262</v>
+        <v>0.254583</v>
       </c>
       <c r="C98" t="n">
-        <v>0.238177</v>
+        <v>0.230546</v>
       </c>
       <c r="D98" t="n">
-        <v>0.355824</v>
+        <v>0.345718</v>
       </c>
       <c r="E98" t="n">
-        <v>0.235018</v>
+        <v>0.22667</v>
       </c>
       <c r="F98" t="n">
-        <v>0.233166</v>
+        <v>0.236448</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.257837</v>
+        <v>0.254519</v>
       </c>
       <c r="C99" t="n">
-        <v>0.238667</v>
+        <v>0.231349</v>
       </c>
       <c r="D99" t="n">
-        <v>0.364543</v>
+        <v>0.35312</v>
       </c>
       <c r="E99" t="n">
-        <v>0.239198</v>
+        <v>0.226932</v>
       </c>
       <c r="F99" t="n">
-        <v>0.237003</v>
+        <v>0.237832</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.257977</v>
+        <v>0.254492</v>
       </c>
       <c r="C100" t="n">
-        <v>0.238982</v>
+        <v>0.231846</v>
       </c>
       <c r="D100" t="n">
-        <v>0.372943</v>
+        <v>0.361342</v>
       </c>
       <c r="E100" t="n">
-        <v>0.239357</v>
+        <v>0.222707</v>
       </c>
       <c r="F100" t="n">
-        <v>0.24092</v>
+        <v>0.239851</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.257884</v>
+        <v>0.254879</v>
       </c>
       <c r="C101" t="n">
-        <v>0.239448</v>
+        <v>0.232285</v>
       </c>
       <c r="D101" t="n">
-        <v>0.381378</v>
+        <v>0.371145</v>
       </c>
       <c r="E101" t="n">
-        <v>0.240676</v>
+        <v>0.227079</v>
       </c>
       <c r="F101" t="n">
-        <v>0.236825</v>
+        <v>0.239996</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.258088</v>
+        <v>0.254782</v>
       </c>
       <c r="C102" t="n">
-        <v>0.240321</v>
+        <v>0.233442</v>
       </c>
       <c r="D102" t="n">
-        <v>0.389283</v>
+        <v>0.378813</v>
       </c>
       <c r="E102" t="n">
-        <v>0.241946</v>
+        <v>0.220588</v>
       </c>
       <c r="F102" t="n">
-        <v>0.244271</v>
+        <v>0.243359</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.257519</v>
+        <v>0.253121</v>
       </c>
       <c r="C103" t="n">
-        <v>0.247301</v>
+        <v>0.235396</v>
       </c>
       <c r="D103" t="n">
-        <v>0.404915</v>
+        <v>0.390481</v>
       </c>
       <c r="E103" t="n">
-        <v>0.231915</v>
+        <v>0.227857</v>
       </c>
       <c r="F103" t="n">
-        <v>0.246393</v>
+        <v>0.24321</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.258539</v>
+        <v>0.25291</v>
       </c>
       <c r="C104" t="n">
-        <v>0.24789</v>
+        <v>0.235705</v>
       </c>
       <c r="D104" t="n">
-        <v>0.414749</v>
+        <v>0.400135</v>
       </c>
       <c r="E104" t="n">
-        <v>0.24267</v>
+        <v>0.229519</v>
       </c>
       <c r="F104" t="n">
-        <v>0.250402</v>
+        <v>0.245773</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.258956</v>
+        <v>0.25632</v>
       </c>
       <c r="C105" t="n">
-        <v>0.248671</v>
+        <v>0.237245</v>
       </c>
       <c r="D105" t="n">
-        <v>0.425092</v>
+        <v>0.41069</v>
       </c>
       <c r="E105" t="n">
-        <v>0.244867</v>
+        <v>0.23211</v>
       </c>
       <c r="F105" t="n">
-        <v>0.253021</v>
+        <v>0.251044</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.260242</v>
+        <v>0.257405</v>
       </c>
       <c r="C106" t="n">
-        <v>0.251482</v>
+        <v>0.23961</v>
       </c>
       <c r="D106" t="n">
-        <v>0.433947</v>
+        <v>0.422732</v>
       </c>
       <c r="E106" t="n">
-        <v>0.247624</v>
+        <v>0.231138</v>
       </c>
       <c r="F106" t="n">
-        <v>0.257412</v>
+        <v>0.25734</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.262041</v>
+        <v>0.258971</v>
       </c>
       <c r="C107" t="n">
-        <v>0.254777</v>
+        <v>0.242851</v>
       </c>
       <c r="D107" t="n">
-        <v>0.38464</v>
+        <v>0.353154</v>
       </c>
       <c r="E107" t="n">
-        <v>0.242226</v>
+        <v>0.235961</v>
       </c>
       <c r="F107" t="n">
-        <v>0.264325</v>
+        <v>0.261356</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.264701</v>
+        <v>0.261312</v>
       </c>
       <c r="C108" t="n">
-        <v>0.254033</v>
+        <v>0.247877</v>
       </c>
       <c r="D108" t="n">
-        <v>0.39167</v>
+        <v>0.367408</v>
       </c>
       <c r="E108" t="n">
-        <v>0.302087</v>
+        <v>0.289222</v>
       </c>
       <c r="F108" t="n">
-        <v>0.317616</v>
+        <v>0.315672</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.269499</v>
+        <v>0.2663</v>
       </c>
       <c r="C109" t="n">
-        <v>0.261121</v>
+        <v>0.256837</v>
       </c>
       <c r="D109" t="n">
-        <v>0.397441</v>
+        <v>0.3734</v>
       </c>
       <c r="E109" t="n">
-        <v>0.303813</v>
+        <v>0.287302</v>
       </c>
       <c r="F109" t="n">
-        <v>0.317145</v>
+        <v>0.311808</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.295095</v>
+        <v>0.294247</v>
       </c>
       <c r="C110" t="n">
-        <v>0.312354</v>
+        <v>0.28699</v>
       </c>
       <c r="D110" t="n">
-        <v>0.408981</v>
+        <v>0.386272</v>
       </c>
       <c r="E110" t="n">
-        <v>0.303268</v>
+        <v>0.281329</v>
       </c>
       <c r="F110" t="n">
-        <v>0.323542</v>
+        <v>0.315353</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.294962</v>
+        <v>0.290023</v>
       </c>
       <c r="C111" t="n">
-        <v>0.309023</v>
+        <v>0.288628</v>
       </c>
       <c r="D111" t="n">
-        <v>0.414164</v>
+        <v>0.390922</v>
       </c>
       <c r="E111" t="n">
-        <v>0.30663</v>
+        <v>0.288391</v>
       </c>
       <c r="F111" t="n">
-        <v>0.320754</v>
+        <v>0.320201</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.29462</v>
+        <v>0.291985</v>
       </c>
       <c r="C112" t="n">
-        <v>0.307628</v>
+        <v>0.289929</v>
       </c>
       <c r="D112" t="n">
-        <v>0.420807</v>
+        <v>0.397676</v>
       </c>
       <c r="E112" t="n">
-        <v>0.30827</v>
+        <v>0.292735</v>
       </c>
       <c r="F112" t="n">
-        <v>0.316883</v>
+        <v>0.317413</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.298735</v>
+        <v>0.293933</v>
       </c>
       <c r="C113" t="n">
-        <v>0.303503</v>
+        <v>0.28857</v>
       </c>
       <c r="D113" t="n">
-        <v>0.429962</v>
+        <v>0.406273</v>
       </c>
       <c r="E113" t="n">
-        <v>0.305139</v>
+        <v>0.291495</v>
       </c>
       <c r="F113" t="n">
-        <v>0.325403</v>
+        <v>0.322874</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.288251</v>
+        <v>0.286174</v>
       </c>
       <c r="C114" t="n">
-        <v>0.308419</v>
+        <v>0.284198</v>
       </c>
       <c r="D114" t="n">
-        <v>0.430621</v>
+        <v>0.415317</v>
       </c>
       <c r="E114" t="n">
-        <v>0.308046</v>
+        <v>0.293127</v>
       </c>
       <c r="F114" t="n">
-        <v>0.319286</v>
+        <v>0.318438</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.298414</v>
+        <v>0.29373</v>
       </c>
       <c r="C115" t="n">
-        <v>0.311167</v>
+        <v>0.289973</v>
       </c>
       <c r="D115" t="n">
-        <v>0.446584</v>
+        <v>0.423103</v>
       </c>
       <c r="E115" t="n">
-        <v>0.309315</v>
+        <v>0.292832</v>
       </c>
       <c r="F115" t="n">
-        <v>0.327074</v>
+        <v>0.323106</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.297317</v>
+        <v>0.291005</v>
       </c>
       <c r="C116" t="n">
-        <v>0.309009</v>
+        <v>0.291481</v>
       </c>
       <c r="D116" t="n">
-        <v>0.458945</v>
+        <v>0.431838</v>
       </c>
       <c r="E116" t="n">
-        <v>0.310632</v>
+        <v>0.295543</v>
       </c>
       <c r="F116" t="n">
-        <v>0.324096</v>
+        <v>0.322223</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.290745</v>
+        <v>0.287466</v>
       </c>
       <c r="C117" t="n">
-        <v>0.313154</v>
+        <v>0.290158</v>
       </c>
       <c r="D117" t="n">
-        <v>0.463717</v>
+        <v>0.441321</v>
       </c>
       <c r="E117" t="n">
-        <v>0.313313</v>
+        <v>0.296202</v>
       </c>
       <c r="F117" t="n">
-        <v>0.327068</v>
+        <v>0.32447</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.29045</v>
+        <v>0.288961</v>
       </c>
       <c r="C118" t="n">
-        <v>0.314723</v>
+        <v>0.294126</v>
       </c>
       <c r="D118" t="n">
-        <v>0.474313</v>
+        <v>0.452271</v>
       </c>
       <c r="E118" t="n">
-        <v>0.309636</v>
+        <v>0.294162</v>
       </c>
       <c r="F118" t="n">
-        <v>0.334891</v>
+        <v>0.3297</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.296404</v>
+        <v>0.297129</v>
       </c>
       <c r="C119" t="n">
-        <v>0.315371</v>
+        <v>0.295881</v>
       </c>
       <c r="D119" t="n">
-        <v>0.488481</v>
+        <v>0.467006</v>
       </c>
       <c r="E119" t="n">
-        <v>0.315939</v>
+        <v>0.290329</v>
       </c>
       <c r="F119" t="n">
-        <v>0.337807</v>
+        <v>0.334918</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.298842</v>
+        <v>0.296447</v>
       </c>
       <c r="C120" t="n">
-        <v>0.318184</v>
+        <v>0.29955</v>
       </c>
       <c r="D120" t="n">
-        <v>0.497893</v>
+        <v>0.477036</v>
       </c>
       <c r="E120" t="n">
-        <v>0.316852</v>
+        <v>0.30107</v>
       </c>
       <c r="F120" t="n">
-        <v>0.341691</v>
+        <v>0.33628</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.299486</v>
+        <v>0.294373</v>
       </c>
       <c r="C121" t="n">
-        <v>0.322054</v>
+        <v>0.301056</v>
       </c>
       <c r="D121" t="n">
-        <v>0.416835</v>
+        <v>0.388906</v>
       </c>
       <c r="E121" t="n">
-        <v>0.323445</v>
+        <v>0.30256</v>
       </c>
       <c r="F121" t="n">
-        <v>0.348289</v>
+        <v>0.343743</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.303025</v>
+        <v>0.298605</v>
       </c>
       <c r="C122" t="n">
-        <v>0.326058</v>
+        <v>0.307723</v>
       </c>
       <c r="D122" t="n">
-        <v>0.426101</v>
+        <v>0.397202</v>
       </c>
       <c r="E122" t="n">
-        <v>0.326687</v>
+        <v>0.306022</v>
       </c>
       <c r="F122" t="n">
-        <v>0.349231</v>
+        <v>0.352746</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.308937</v>
+        <v>0.304036</v>
       </c>
       <c r="C123" t="n">
-        <v>0.332164</v>
+        <v>0.31543</v>
       </c>
       <c r="D123" t="n">
-        <v>0.433354</v>
+        <v>0.40537</v>
       </c>
       <c r="E123" t="n">
-        <v>0.388184</v>
+        <v>0.382385</v>
       </c>
       <c r="F123" t="n">
-        <v>0.416405</v>
+        <v>0.409583</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.371929</v>
+        <v>0.376697</v>
       </c>
       <c r="C124" t="n">
-        <v>0.393088</v>
+        <v>0.366111</v>
       </c>
       <c r="D124" t="n">
-        <v>0.434448</v>
+        <v>0.410433</v>
       </c>
       <c r="E124" t="n">
-        <v>0.388121</v>
+        <v>0.383049</v>
       </c>
       <c r="F124" t="n">
-        <v>0.416575</v>
+        <v>0.412406</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.377947</v>
+        <v>0.376413</v>
       </c>
       <c r="C125" t="n">
-        <v>0.400877</v>
+        <v>0.36702</v>
       </c>
       <c r="D125" t="n">
-        <v>0.440908</v>
+        <v>0.416659</v>
       </c>
       <c r="E125" t="n">
-        <v>0.398129</v>
+        <v>0.380478</v>
       </c>
       <c r="F125" t="n">
-        <v>0.415939</v>
+        <v>0.410458</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.380404</v>
+        <v>0.376416</v>
       </c>
       <c r="C126" t="n">
-        <v>0.400921</v>
+        <v>0.366929</v>
       </c>
       <c r="D126" t="n">
-        <v>0.45727</v>
+        <v>0.428301</v>
       </c>
       <c r="E126" t="n">
-        <v>0.400136</v>
+        <v>0.382833</v>
       </c>
       <c r="F126" t="n">
-        <v>0.420914</v>
+        <v>0.415415</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.369877</v>
+        <v>0.374338</v>
       </c>
       <c r="C127" t="n">
-        <v>0.393929</v>
+        <v>0.368458</v>
       </c>
       <c r="D127" t="n">
-        <v>0.461054</v>
+        <v>0.432524</v>
       </c>
       <c r="E127" t="n">
-        <v>0.400148</v>
+        <v>0.373953</v>
       </c>
       <c r="F127" t="n">
-        <v>0.421277</v>
+        <v>0.414778</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.380094</v>
+        <v>0.375782</v>
       </c>
       <c r="C128" t="n">
-        <v>0.402188</v>
+        <v>0.369857</v>
       </c>
       <c r="D128" t="n">
-        <v>0.472751</v>
+        <v>0.44494</v>
       </c>
       <c r="E128" t="n">
-        <v>0.389055</v>
+        <v>0.384499</v>
       </c>
       <c r="F128" t="n">
-        <v>0.417049</v>
+        <v>0.417768</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.37796</v>
+        <v>0.375446</v>
       </c>
       <c r="C129" t="n">
-        <v>0.404042</v>
+        <v>0.36974</v>
       </c>
       <c r="D129" t="n">
-        <v>0.472501</v>
+        <v>0.448941</v>
       </c>
       <c r="E129" t="n">
-        <v>0.403306</v>
+        <v>0.376201</v>
       </c>
       <c r="F129" t="n">
-        <v>0.426279</v>
+        <v>0.419224</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.380152</v>
+        <v>0.36668</v>
       </c>
       <c r="C130" t="n">
-        <v>0.404234</v>
+        <v>0.364962</v>
       </c>
       <c r="D130" t="n">
-        <v>0.487234</v>
+        <v>0.459803</v>
       </c>
       <c r="E130" t="n">
-        <v>0.403477</v>
+        <v>0.376585</v>
       </c>
       <c r="F130" t="n">
-        <v>0.421399</v>
+        <v>0.420697</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.378723</v>
+        <v>0.37193</v>
       </c>
       <c r="C131" t="n">
-        <v>0.405</v>
+        <v>0.370643</v>
       </c>
       <c r="D131" t="n">
-        <v>0.49628</v>
+        <v>0.469625</v>
       </c>
       <c r="E131" t="n">
-        <v>0.403881</v>
+        <v>0.387658</v>
       </c>
       <c r="F131" t="n">
-        <v>0.425227</v>
+        <v>0.422663</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.381261</v>
+        <v>0.377499</v>
       </c>
       <c r="C132" t="n">
-        <v>0.402448</v>
+        <v>0.36548</v>
       </c>
       <c r="D132" t="n">
-        <v>0.50544</v>
+        <v>0.47882</v>
       </c>
       <c r="E132" t="n">
-        <v>0.406636</v>
+        <v>0.390044</v>
       </c>
       <c r="F132" t="n">
-        <v>0.427916</v>
+        <v>0.427832</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.382384</v>
+        <v>0.379597</v>
       </c>
       <c r="C133" t="n">
-        <v>0.405988</v>
+        <v>0.367413</v>
       </c>
       <c r="D133" t="n">
-        <v>0.517205</v>
+        <v>0.491673</v>
       </c>
       <c r="E133" t="n">
-        <v>0.406103</v>
+        <v>0.391052</v>
       </c>
       <c r="F133" t="n">
-        <v>0.433671</v>
+        <v>0.428505</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.382438</v>
+        <v>0.380144</v>
       </c>
       <c r="C134" t="n">
-        <v>0.412753</v>
+        <v>0.379563</v>
       </c>
       <c r="D134" t="n">
-        <v>0.529175</v>
+        <v>0.500417</v>
       </c>
       <c r="E134" t="n">
-        <v>0.410088</v>
+        <v>0.391377</v>
       </c>
       <c r="F134" t="n">
-        <v>0.440182</v>
+        <v>0.434421</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.384887</v>
+        <v>0.381221</v>
       </c>
       <c r="C135" t="n">
-        <v>0.41638</v>
+        <v>0.382691</v>
       </c>
       <c r="D135" t="n">
-        <v>0.439909</v>
+        <v>0.408218</v>
       </c>
       <c r="E135" t="n">
-        <v>0.413126</v>
+        <v>0.39287</v>
       </c>
       <c r="F135" t="n">
-        <v>0.445561</v>
+        <v>0.439471</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.383038</v>
+        <v>0.380497</v>
       </c>
       <c r="C136" t="n">
-        <v>0.412829</v>
+        <v>0.388909</v>
       </c>
       <c r="D136" t="n">
-        <v>0.439066</v>
+        <v>0.410031</v>
       </c>
       <c r="E136" t="n">
-        <v>0.416953</v>
+        <v>0.395483</v>
       </c>
       <c r="F136" t="n">
-        <v>0.453787</v>
+        <v>0.44901</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.385533</v>
+        <v>0.38384</v>
       </c>
       <c r="C137" t="n">
-        <v>0.42737</v>
+        <v>0.3978</v>
       </c>
       <c r="D137" t="n">
-        <v>0.452666</v>
+        <v>0.42198</v>
       </c>
       <c r="E137" t="n">
-        <v>0.458154</v>
+        <v>0.448061</v>
       </c>
       <c r="F137" t="n">
-        <v>0.476876</v>
+        <v>0.472724</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.44228</v>
+        <v>0.441343</v>
       </c>
       <c r="C138" t="n">
-        <v>0.460199</v>
+        <v>0.412109</v>
       </c>
       <c r="D138" t="n">
-        <v>0.460667</v>
+        <v>0.427782</v>
       </c>
       <c r="E138" t="n">
-        <v>0.458726</v>
+        <v>0.447531</v>
       </c>
       <c r="F138" t="n">
-        <v>0.477162</v>
+        <v>0.474259</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.447321</v>
+        <v>0.43575</v>
       </c>
       <c r="C139" t="n">
-        <v>0.460447</v>
+        <v>0.406368</v>
       </c>
       <c r="D139" t="n">
-        <v>0.465642</v>
+        <v>0.433893</v>
       </c>
       <c r="E139" t="n">
-        <v>0.458591</v>
+        <v>0.447681</v>
       </c>
       <c r="F139" t="n">
-        <v>0.477449</v>
+        <v>0.474257</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.440583</v>
+        <v>0.441675</v>
       </c>
       <c r="C140" t="n">
-        <v>0.460371</v>
+        <v>0.412839</v>
       </c>
       <c r="D140" t="n">
-        <v>0.473485</v>
+        <v>0.441843</v>
       </c>
       <c r="E140" t="n">
-        <v>0.451909</v>
+        <v>0.448621</v>
       </c>
       <c r="F140" t="n">
-        <v>0.479881</v>
+        <v>0.472828</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.442038</v>
+        <v>0.441551</v>
       </c>
       <c r="C141" t="n">
-        <v>0.461374</v>
+        <v>0.41448</v>
       </c>
       <c r="D141" t="n">
-        <v>0.4805</v>
+        <v>0.448816</v>
       </c>
       <c r="E141" t="n">
-        <v>0.459618</v>
+        <v>0.450415</v>
       </c>
       <c r="F141" t="n">
-        <v>0.483211</v>
+        <v>0.47781</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.447692</v>
+        <v>0.442024</v>
       </c>
       <c r="C142" t="n">
-        <v>0.462426</v>
+        <v>0.408804</v>
       </c>
       <c r="D142" t="n">
-        <v>0.488547</v>
+        <v>0.454779</v>
       </c>
       <c r="E142" t="n">
-        <v>0.459842</v>
+        <v>0.449927</v>
       </c>
       <c r="F142" t="n">
-        <v>0.483498</v>
+        <v>0.479308</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.441038</v>
+        <v>0.442348</v>
       </c>
       <c r="C143" t="n">
-        <v>0.463218</v>
+        <v>0.41594</v>
       </c>
       <c r="D143" t="n">
-        <v>0.492269</v>
+        <v>0.463853</v>
       </c>
       <c r="E143" t="n">
-        <v>0.453714</v>
+        <v>0.451412</v>
       </c>
       <c r="F143" t="n">
-        <v>0.486472</v>
+        <v>0.47827</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0352167</v>
+        <v>0.0463223</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0364835</v>
+        <v>0.0448408</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0722066</v>
+        <v>0.07821549999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0370791</v>
+        <v>0.040487</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0378999</v>
+        <v>0.0433004</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.035826</v>
+        <v>0.0402907</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0364409</v>
+        <v>0.0449385</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0782077</v>
+        <v>0.08379109999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0377734</v>
+        <v>0.0406626</v>
       </c>
       <c r="F3" t="n">
-        <v>0.038709</v>
+        <v>0.0438053</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0358287</v>
+        <v>0.0394578</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0368028</v>
+        <v>0.0447757</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0860736</v>
+        <v>0.0941393</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0379141</v>
+        <v>0.0384883</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0390774</v>
+        <v>0.0427821</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0358322</v>
+        <v>0.0396661</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0365945</v>
+        <v>0.045753</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09368020000000001</v>
+        <v>0.0996731</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0381163</v>
+        <v>0.0387687</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0391169</v>
+        <v>0.0454598</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0359936</v>
+        <v>0.0405357</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0368374</v>
+        <v>0.0421268</v>
       </c>
       <c r="D6" t="n">
-        <v>0.100693</v>
+        <v>0.107274</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0379905</v>
+        <v>0.0402912</v>
       </c>
       <c r="F6" t="n">
-        <v>0.039423</v>
+        <v>0.046537</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0360582</v>
+        <v>0.0398427</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0370437</v>
+        <v>0.0455266</v>
       </c>
       <c r="D7" t="n">
-        <v>0.063388</v>
+        <v>0.0684826</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0383405</v>
+        <v>0.040079</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0399098</v>
+        <v>0.0484381</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0363825</v>
+        <v>0.0410255</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0373497</v>
+        <v>0.0440086</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0670443</v>
+        <v>0.0721909</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0395031</v>
+        <v>0.0437077</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0414713</v>
+        <v>0.0498575</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0372184</v>
+        <v>0.0412161</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0384028</v>
+        <v>0.0465083</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0722141</v>
+        <v>0.07380059999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0392356</v>
+        <v>0.0437872</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0407411</v>
+        <v>0.0453245</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0430088</v>
+        <v>0.0479715</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0435839</v>
+        <v>0.0455913</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0760832</v>
+        <v>0.0779953</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0396688</v>
+        <v>0.0442076</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0408964</v>
+        <v>0.0462951</v>
       </c>
    